--- a/test_results/results_table.xlsx
+++ b/test_results/results_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="50">
   <si>
     <t>Greedy</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Methods</t>
+  </si>
+  <si>
+    <t>incumbent_10x10[1,99]_fdd-divide-mwkr_yaoxin_1_128_4_4_gin+dghan_1_0.0_4e-05_10_500_64_256000_10</t>
   </si>
 </sst>
 </file>
@@ -214,7 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -267,16 +270,22 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -621,10 +630,10 @@
   <dimension ref="A1:CF143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:R39"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,8 +657,8 @@
     <col min="18" max="18" width="27.28515625" style="4" customWidth="1"/>
     <col min="19" max="19" width="9.140625" style="2"/>
     <col min="20" max="20" width="9.140625" style="1"/>
-    <col min="21" max="21" width="27.5703125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="27.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="49.85546875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="48.28515625" style="1" customWidth="1"/>
     <col min="23" max="23" width="9.140625" style="3"/>
     <col min="24" max="24" width="9.140625" style="1"/>
     <col min="25" max="25" width="18.42578125" style="3" customWidth="1"/>
@@ -663,30 +672,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="19"/>
+      <c r="L1" s="21"/>
       <c r="M1" s="20" t="s">
         <v>47</v>
       </c>
@@ -698,12 +707,16 @@
       <c r="R1" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="U1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="20"/>
       <c r="CE1" s="8"/>
       <c r="CF1" s="8"/>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -749,11 +762,17 @@
       <c r="R2" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="U2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="CE2" s="11"/>
       <c r="CF2" s="11"/>
     </row>
     <row r="3" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1">
@@ -762,29 +781,29 @@
       <c r="C3" s="20">
         <v>0.26700000000000002</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="22">
         <v>0.44700000000000001</v>
       </c>
       <c r="E3" s="20">
         <v>0.17100000000000001</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="20">
         <v>0.153</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="21"/>
+      <c r="H3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="L3" s="22"/>
       <c r="P3" s="7">
         <v>3.355451</v>
       </c>
@@ -798,20 +817,20 @@
       <c r="CF3" s="10"/>
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1">
         <v>1000</v>
       </c>
       <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="21"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="22"/>
       <c r="P4" s="7">
         <v>6.6267579999999997</v>
       </c>
@@ -825,20 +844,20 @@
       <c r="CF4" s="10"/>
     </row>
     <row r="5" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1">
         <v>2000</v>
       </c>
       <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="22"/>
       <c r="P5" s="7">
         <v>13.110008000000001</v>
       </c>
@@ -852,20 +871,20 @@
       <c r="CF5" s="10"/>
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1">
         <v>5000</v>
       </c>
       <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="21"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="22"/>
       <c r="P6" s="7">
         <v>32.676729999999999</v>
       </c>
@@ -877,7 +896,7 @@
       </c>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1">
@@ -886,29 +905,29 @@
       <c r="C7" s="20">
         <v>0.2601</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="22">
         <v>0.624</v>
       </c>
       <c r="E7" s="20">
         <v>0.20200000000000001</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="20">
         <v>0.19400000000000001</v>
       </c>
-      <c r="H7" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="21"/>
+      <c r="H7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="22"/>
       <c r="P7" s="7">
         <v>4.002434</v>
       </c>
@@ -922,20 +941,20 @@
       <c r="CF7" s="10"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="1">
         <v>1000</v>
       </c>
       <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="21"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="22"/>
       <c r="P8" s="7">
         <v>7.9348150000000004</v>
       </c>
@@ -949,20 +968,20 @@
       <c r="CF8" s="10"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1">
         <v>2000</v>
       </c>
       <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="22"/>
       <c r="P9" s="7">
         <v>15.800986</v>
       </c>
@@ -976,20 +995,20 @@
       <c r="CF9" s="10"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="1">
         <v>5000</v>
       </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="22"/>
       <c r="P10" s="7">
         <v>39.365931000000003</v>
       </c>
@@ -1001,7 +1020,7 @@
       </c>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1">
@@ -1010,29 +1029,29 @@
       <c r="C11" s="20">
         <v>0.30220000000000002</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="22">
         <v>0.93700000000000006</v>
       </c>
       <c r="E11" s="20">
         <v>0.22800000000000001</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="20">
         <v>0.17199999999999999</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="21"/>
+      <c r="H11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="23"/>
+      <c r="L11" s="22"/>
       <c r="P11" s="7">
         <v>4.9335690000000003</v>
       </c>
@@ -1046,20 +1065,20 @@
       <c r="CF11" s="10"/>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="1">
         <v>1000</v>
       </c>
       <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="22"/>
       <c r="P12" s="7">
         <v>9.7972990000000006</v>
       </c>
@@ -1073,20 +1092,20 @@
       <c r="CF12" s="10"/>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="1">
         <v>2000</v>
       </c>
       <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="21"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="22"/>
       <c r="P13" s="7">
         <v>19.567959999999999</v>
       </c>
@@ -1100,20 +1119,20 @@
       <c r="CF13" s="10"/>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="1">
         <v>5000</v>
       </c>
       <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="21"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="22"/>
       <c r="P14" s="7">
         <v>48.782482999999999</v>
       </c>
@@ -1125,7 +1144,7 @@
       </c>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
@@ -1134,29 +1153,29 @@
       <c r="C15" s="20">
         <v>0.3165</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="22">
         <v>1.1140000000000001</v>
       </c>
       <c r="E15" s="20">
         <v>0.189</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="20">
         <v>0.18</v>
       </c>
-      <c r="H15" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="21"/>
+      <c r="H15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="23"/>
+      <c r="L15" s="22"/>
       <c r="P15" s="7">
         <v>5.413564</v>
       </c>
@@ -1170,20 +1189,20 @@
       <c r="CF15" s="10"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="1">
         <v>1000</v>
       </c>
       <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
+      <c r="F16" s="22"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="22"/>
       <c r="P16" s="7">
         <v>10.807356</v>
       </c>
@@ -1197,20 +1216,20 @@
       <c r="CF16" s="10"/>
     </row>
     <row r="17" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="1">
         <v>2000</v>
       </c>
       <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
+      <c r="F17" s="22"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="22"/>
       <c r="P17" s="7">
         <v>21.628416999999999</v>
       </c>
@@ -1224,20 +1243,20 @@
       <c r="CF17" s="10"/>
     </row>
     <row r="18" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="1">
         <v>5000</v>
       </c>
       <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="22"/>
       <c r="P18" s="7">
         <v>53.830657000000002</v>
       </c>
@@ -1249,7 +1268,7 @@
       </c>
     </row>
     <row r="19" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="1">
@@ -1258,29 +1277,29 @@
       <c r="C19" s="20">
         <v>0.33110000000000001</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="22">
         <v>1.7989999999999999</v>
       </c>
       <c r="E19" s="20">
         <v>0.254</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="20">
         <v>0.187</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="22" t="s">
         <v>9</v>
       </c>
       <c r="I19" s="20">
         <v>0.13080554883214199</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="22">
         <v>600</v>
       </c>
-      <c r="K19" s="18"/>
-      <c r="L19" s="21"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="22"/>
       <c r="P19" s="7">
         <v>6.7596759999999998</v>
       </c>
@@ -1294,20 +1313,20 @@
       <c r="CF19" s="9"/>
     </row>
     <row r="20" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="1">
         <v>1000</v>
       </c>
       <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
+      <c r="F20" s="22"/>
       <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="20"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="21"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="22"/>
       <c r="P20" s="7">
         <v>13.471734</v>
       </c>
@@ -1321,20 +1340,20 @@
       <c r="CF20" s="9"/>
     </row>
     <row r="21" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="1">
         <v>2000</v>
       </c>
       <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
+      <c r="F21" s="22"/>
       <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
+      <c r="H21" s="22"/>
       <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="21"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="22"/>
       <c r="P21" s="7">
         <v>26.813558</v>
       </c>
@@ -1348,20 +1367,20 @@
       <c r="CF21" s="9"/>
     </row>
     <row r="22" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="1">
         <v>5000</v>
       </c>
       <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
+      <c r="F22" s="22"/>
       <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="20"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="21"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="22"/>
       <c r="P22" s="7">
         <v>66.724900000000005</v>
       </c>
@@ -1373,7 +1392,7 @@
       </c>
     </row>
     <row r="23" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="1">
@@ -1382,29 +1401,29 @@
       <c r="C23" s="20">
         <v>0.33660000000000001</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="22">
         <v>2.7</v>
       </c>
       <c r="E23" s="20">
         <v>0.159</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="20">
         <v>0.13800000000000001</v>
       </c>
-      <c r="H23" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23" s="18"/>
-      <c r="L23" s="21"/>
+      <c r="H23" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="23"/>
+      <c r="L23" s="22"/>
       <c r="P23" s="7">
         <v>8.6928560000000008</v>
       </c>
@@ -1418,20 +1437,20 @@
       <c r="CF23" s="10"/>
     </row>
     <row r="24" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="1">
         <v>1000</v>
       </c>
       <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="22"/>
       <c r="P24" s="7">
         <v>17.285457000000001</v>
       </c>
@@ -1445,20 +1464,20 @@
       <c r="CF24" s="10"/>
     </row>
     <row r="25" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="1">
         <v>2000</v>
       </c>
       <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
+      <c r="F25" s="22"/>
       <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="21"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="22"/>
       <c r="P25" s="7">
         <v>34.49512</v>
       </c>
@@ -1472,20 +1491,20 @@
       <c r="CF25" s="10"/>
     </row>
     <row r="26" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="1">
         <v>5000</v>
       </c>
       <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="21"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="21"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="22"/>
       <c r="P26" s="7">
         <v>85.965810000000005</v>
       </c>
@@ -1497,7 +1516,7 @@
       </c>
     </row>
     <row r="27" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="1">
@@ -1506,29 +1525,29 @@
       <c r="C27" s="20">
         <v>0.22470000000000001</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="22">
         <v>4.883</v>
       </c>
       <c r="E27" s="20">
         <v>0.17399999999999999</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="20">
         <v>0.13500000000000001</v>
       </c>
-      <c r="H27" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="18"/>
-      <c r="L27" s="21"/>
+      <c r="H27" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="23"/>
+      <c r="L27" s="22"/>
       <c r="P27" s="7">
         <v>11.603604000000001</v>
       </c>
@@ -1542,20 +1561,20 @@
       <c r="CF27" s="10"/>
     </row>
     <row r="28" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="1">
         <v>1000</v>
       </c>
       <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
+      <c r="F28" s="22"/>
       <c r="G28" s="20"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="21"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="22"/>
       <c r="P28" s="7">
         <v>23.158722999999998</v>
       </c>
@@ -1569,20 +1588,20 @@
       <c r="CF28" s="10"/>
     </row>
     <row r="29" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="1">
         <v>2000</v>
       </c>
       <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
+      <c r="F29" s="22"/>
       <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="21"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="22"/>
       <c r="P29" s="7">
         <v>46.277225999999999</v>
       </c>
@@ -1596,20 +1615,20 @@
       <c r="CF29" s="10"/>
     </row>
     <row r="30" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="1">
         <v>5000</v>
       </c>
       <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="20"/>
-      <c r="F30" s="21"/>
+      <c r="F30" s="22"/>
       <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="21"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="22"/>
       <c r="P30" s="7">
         <v>115.449259</v>
       </c>
@@ -1622,7 +1641,7 @@
       <c r="AV30" s="8"/>
     </row>
     <row r="31" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="1">
@@ -1631,29 +1650,29 @@
       <c r="C31" s="20">
         <v>0.26550000000000001</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="22">
         <v>28.327999999999999</v>
       </c>
       <c r="E31" s="20">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G31" s="20">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H31" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K31" s="18"/>
-      <c r="L31" s="21"/>
+      <c r="H31" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="23"/>
+      <c r="L31" s="22"/>
       <c r="P31" s="7">
         <v>32.667169999999999</v>
       </c>
@@ -1667,20 +1686,20 @@
       <c r="CF31" s="10"/>
     </row>
     <row r="32" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="1">
         <v>1000</v>
       </c>
       <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="21"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="20"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="21"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="22"/>
       <c r="P32" s="7">
         <v>65.318888000000001</v>
       </c>
@@ -1694,20 +1713,20 @@
       <c r="CF32" s="10"/>
     </row>
     <row r="33" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="1">
         <v>2000</v>
       </c>
       <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="21"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="22"/>
       <c r="P33" s="7">
         <v>130.456557</v>
       </c>
@@ -1721,20 +1740,20 @@
       <c r="CF33" s="10"/>
     </row>
     <row r="34" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="1">
         <v>5000</v>
       </c>
       <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="20"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="21"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="22"/>
       <c r="P34" s="7">
         <v>323.3809</v>
       </c>
@@ -1756,34 +1775,34 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="1">
         <v>500</v>
       </c>
       <c r="C36" s="20"/>
-      <c r="D36" s="22"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="20">
         <v>0.101239449255883</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G36" s="20">
         <v>6.1477473699407502E-2</v>
       </c>
-      <c r="H36" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J36" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36" s="18"/>
-      <c r="L36" s="21"/>
+      <c r="H36" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="23"/>
+      <c r="L36" s="22"/>
       <c r="P36" s="7">
         <v>7.3689210000000003</v>
       </c>
@@ -1796,20 +1815,20 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="1">
         <v>1000</v>
       </c>
       <c r="C37" s="20"/>
-      <c r="D37" s="22"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="20"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="21"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="22"/>
       <c r="P37" s="7">
         <v>14.524684000000001</v>
       </c>
@@ -1822,20 +1841,20 @@
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="1">
         <v>2000</v>
       </c>
       <c r="C38" s="20"/>
-      <c r="D38" s="22"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="20"/>
-      <c r="F38" s="21"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="20"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="21"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="22"/>
       <c r="P38" s="7">
         <v>29.065647999999999</v>
       </c>
@@ -1848,20 +1867,20 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="1">
         <v>5000</v>
       </c>
       <c r="C39" s="20"/>
-      <c r="D39" s="22"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="21"/>
+      <c r="F39" s="22"/>
       <c r="G39" s="20"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="21"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="22"/>
       <c r="P39" s="7">
         <v>72.090327000000002</v>
       </c>
@@ -1874,34 +1893,34 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B40" s="1">
         <v>500</v>
       </c>
       <c r="C40" s="20"/>
-      <c r="D40" s="22"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="20">
         <v>0.29018026080021198</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G40" s="20">
         <v>0.205463324203739</v>
       </c>
-      <c r="H40" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J40" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K40" s="18"/>
-      <c r="L40" s="21"/>
+      <c r="H40" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="23"/>
+      <c r="L40" s="22"/>
       <c r="P40" s="7">
         <v>8.3890449999999994</v>
       </c>
@@ -1914,20 +1933,20 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="1">
         <v>1000</v>
       </c>
       <c r="C41" s="20"/>
-      <c r="D41" s="22"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="20"/>
-      <c r="F41" s="21"/>
+      <c r="F41" s="22"/>
       <c r="G41" s="20"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="21"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="22"/>
       <c r="P41" s="7">
         <v>16.511437999999998</v>
       </c>
@@ -1940,20 +1959,20 @@
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="1">
         <v>2000</v>
       </c>
       <c r="C42" s="20"/>
-      <c r="D42" s="22"/>
+      <c r="D42" s="24"/>
       <c r="E42" s="20"/>
-      <c r="F42" s="21"/>
+      <c r="F42" s="22"/>
       <c r="G42" s="20"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="21"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="22"/>
       <c r="P42" s="7">
         <v>32.639651000000001</v>
       </c>
@@ -1966,20 +1985,20 @@
       <c r="Y42" s="1"/>
     </row>
     <row r="43" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="1">
         <v>5000</v>
       </c>
       <c r="C43" s="20"/>
-      <c r="D43" s="22"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="20"/>
-      <c r="F43" s="21"/>
+      <c r="F43" s="22"/>
       <c r="G43" s="20"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="21"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="22"/>
       <c r="P43" s="7">
         <v>81.209215999999998</v>
       </c>
@@ -2001,34 +2020,34 @@
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B45" s="1">
         <v>500</v>
       </c>
       <c r="C45" s="20"/>
-      <c r="D45" s="22"/>
+      <c r="D45" s="24"/>
       <c r="E45" s="20">
         <v>0.21826059724466901</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F45" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G45" s="20">
         <v>0.199782125806655</v>
       </c>
-      <c r="H45" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J45" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K45" s="18"/>
-      <c r="L45" s="21"/>
+      <c r="H45" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="23"/>
+      <c r="L45" s="22"/>
       <c r="P45" s="7">
         <v>2.2728280000000001</v>
       </c>
@@ -2041,20 +2060,20 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="1">
         <v>1000</v>
       </c>
       <c r="C46" s="20"/>
-      <c r="D46" s="22"/>
+      <c r="D46" s="24"/>
       <c r="E46" s="20"/>
-      <c r="F46" s="21"/>
+      <c r="F46" s="22"/>
       <c r="G46" s="20"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="21"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="22"/>
       <c r="P46" s="7">
         <v>4.5111670000000004</v>
       </c>
@@ -2067,20 +2086,20 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="1">
         <v>2000</v>
       </c>
       <c r="C47" s="20"/>
-      <c r="D47" s="22"/>
+      <c r="D47" s="24"/>
       <c r="E47" s="20"/>
-      <c r="F47" s="21"/>
+      <c r="F47" s="22"/>
       <c r="G47" s="20"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="21"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="22"/>
       <c r="P47" s="7">
         <v>8.9939009999999993</v>
       </c>
@@ -2093,20 +2112,20 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="1">
         <v>5000</v>
       </c>
       <c r="C48" s="20"/>
-      <c r="D48" s="22"/>
+      <c r="D48" s="24"/>
       <c r="E48" s="20"/>
-      <c r="F48" s="21"/>
+      <c r="F48" s="22"/>
       <c r="G48" s="20"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="21"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="22"/>
       <c r="P48" s="7">
         <v>22.490936999999999</v>
       </c>
@@ -2128,34 +2147,34 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B50" s="1">
         <v>500</v>
       </c>
       <c r="C50" s="20"/>
-      <c r="D50" s="22"/>
+      <c r="D50" s="24"/>
       <c r="E50" s="20">
         <v>0.24797844874295</v>
       </c>
-      <c r="F50" s="21" t="s">
+      <c r="F50" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G50" s="20">
         <v>0.18443317167635301</v>
       </c>
-      <c r="H50" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J50" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K50" s="18"/>
-      <c r="L50" s="21"/>
+      <c r="H50" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J50" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" s="23"/>
+      <c r="L50" s="22"/>
       <c r="P50" s="7">
         <v>8.1978240000000007</v>
       </c>
@@ -2168,20 +2187,20 @@
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="1">
         <v>1000</v>
       </c>
       <c r="C51" s="20"/>
-      <c r="D51" s="22"/>
+      <c r="D51" s="24"/>
       <c r="E51" s="20"/>
-      <c r="F51" s="21"/>
+      <c r="F51" s="22"/>
       <c r="G51" s="20"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="21"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="22"/>
       <c r="P51" s="7">
         <v>16.520105999999998</v>
       </c>
@@ -2194,20 +2213,20 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="1">
         <v>2000</v>
       </c>
       <c r="C52" s="20"/>
-      <c r="D52" s="22"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="20"/>
-      <c r="F52" s="21"/>
+      <c r="F52" s="22"/>
       <c r="G52" s="20"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="21"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="22"/>
       <c r="P52" s="7">
         <v>32.814861000000001</v>
       </c>
@@ -2220,20 +2239,20 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="1">
         <v>5000</v>
       </c>
       <c r="C53" s="20"/>
-      <c r="D53" s="22"/>
+      <c r="D53" s="24"/>
       <c r="E53" s="20"/>
-      <c r="F53" s="21"/>
+      <c r="F53" s="22"/>
       <c r="G53" s="20"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="21"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="22"/>
       <c r="P53" s="7">
         <v>80.115144999999998</v>
       </c>
@@ -2255,34 +2274,34 @@
       <c r="Y54" s="1"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B55" s="1">
         <v>500</v>
       </c>
       <c r="C55" s="20"/>
-      <c r="D55" s="22"/>
+      <c r="D55" s="24"/>
       <c r="E55" s="20">
         <v>0.28420023201354799</v>
       </c>
-      <c r="F55" s="21" t="s">
+      <c r="F55" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G55" s="20">
         <v>0.34385002851765301</v>
       </c>
-      <c r="H55" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I55" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J55" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K55" s="18"/>
-      <c r="L55" s="21"/>
+      <c r="H55" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I55" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="23"/>
+      <c r="L55" s="22"/>
       <c r="P55" s="7">
         <v>5.8302040000000002</v>
       </c>
@@ -2295,20 +2314,20 @@
       <c r="Y55" s="1"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="1">
         <v>1000</v>
       </c>
       <c r="C56" s="20"/>
-      <c r="D56" s="22"/>
+      <c r="D56" s="24"/>
       <c r="E56" s="20"/>
-      <c r="F56" s="21"/>
+      <c r="F56" s="22"/>
       <c r="G56" s="20"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="21"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="22"/>
       <c r="P56" s="7">
         <v>11.555717</v>
       </c>
@@ -2321,20 +2340,20 @@
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="1">
         <v>2000</v>
       </c>
       <c r="C57" s="20"/>
-      <c r="D57" s="22"/>
+      <c r="D57" s="24"/>
       <c r="E57" s="20"/>
-      <c r="F57" s="21"/>
+      <c r="F57" s="22"/>
       <c r="G57" s="20"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="21"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="22"/>
       <c r="P57" s="7">
         <v>23.124298</v>
       </c>
@@ -2347,20 +2366,20 @@
       <c r="Y57" s="1"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="1">
         <v>5000</v>
       </c>
       <c r="C58" s="20"/>
-      <c r="D58" s="22"/>
+      <c r="D58" s="24"/>
       <c r="E58" s="20"/>
-      <c r="F58" s="21"/>
+      <c r="F58" s="22"/>
       <c r="G58" s="20"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="21"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="22"/>
       <c r="P58" s="7">
         <v>58.029696999999999</v>
       </c>
@@ -2373,34 +2392,34 @@
       <c r="Y58" s="1"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B59" s="1">
         <v>500</v>
       </c>
       <c r="C59" s="20"/>
-      <c r="D59" s="22"/>
+      <c r="D59" s="24"/>
       <c r="E59" s="20">
         <v>0.29386831802036401</v>
       </c>
-      <c r="F59" s="21" t="s">
+      <c r="F59" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G59" s="20">
         <v>0.30511472915739701</v>
       </c>
-      <c r="H59" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I59" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J59" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K59" s="18"/>
-      <c r="L59" s="21"/>
+      <c r="H59" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J59" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" s="23"/>
+      <c r="L59" s="22"/>
       <c r="P59" s="7">
         <v>7.0910570000000002</v>
       </c>
@@ -2413,20 +2432,20 @@
       <c r="Y59" s="1"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="1">
         <v>1000</v>
       </c>
       <c r="C60" s="20"/>
-      <c r="D60" s="22"/>
+      <c r="D60" s="24"/>
       <c r="E60" s="20"/>
-      <c r="F60" s="21"/>
+      <c r="F60" s="22"/>
       <c r="G60" s="20"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="21"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="22"/>
       <c r="P60" s="7">
         <v>14.007052</v>
       </c>
@@ -2439,20 +2458,20 @@
       <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="1">
         <v>2000</v>
       </c>
       <c r="C61" s="20"/>
-      <c r="D61" s="22"/>
+      <c r="D61" s="24"/>
       <c r="E61" s="20"/>
-      <c r="F61" s="21"/>
+      <c r="F61" s="22"/>
       <c r="G61" s="20"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="21"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="22"/>
       <c r="P61" s="7">
         <v>27.958158999999998</v>
       </c>
@@ -2465,20 +2484,20 @@
       <c r="Y61" s="1"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="1">
         <v>5000</v>
       </c>
       <c r="C62" s="20"/>
-      <c r="D62" s="22"/>
+      <c r="D62" s="24"/>
       <c r="E62" s="20"/>
-      <c r="F62" s="21"/>
+      <c r="F62" s="22"/>
       <c r="G62" s="20"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="21"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="22"/>
       <c r="P62" s="7">
         <v>69.326909000000001</v>
       </c>
@@ -2491,34 +2510,34 @@
       <c r="Y62" s="1"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B63" s="1">
         <v>500</v>
       </c>
       <c r="C63" s="20"/>
-      <c r="D63" s="22"/>
+      <c r="D63" s="24"/>
       <c r="E63" s="20">
         <v>0.167989635290166</v>
       </c>
-      <c r="F63" s="21" t="s">
+      <c r="F63" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G63" s="20">
         <v>0.25329462101632999</v>
       </c>
-      <c r="H63" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I63" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J63" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K63" s="18"/>
-      <c r="L63" s="21"/>
+      <c r="H63" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="23"/>
+      <c r="L63" s="22"/>
       <c r="P63" s="7">
         <v>7.4597910000000001</v>
       </c>
@@ -2531,20 +2550,20 @@
       <c r="Y63" s="1"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="1">
         <v>1000</v>
       </c>
       <c r="C64" s="20"/>
-      <c r="D64" s="22"/>
+      <c r="D64" s="24"/>
       <c r="E64" s="20"/>
-      <c r="F64" s="21"/>
+      <c r="F64" s="22"/>
       <c r="G64" s="20"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="21"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="22"/>
       <c r="P64" s="7">
         <v>14.86237</v>
       </c>
@@ -2557,20 +2576,20 @@
       <c r="Y64" s="1"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="1">
         <v>2000</v>
       </c>
       <c r="C65" s="20"/>
-      <c r="D65" s="22"/>
+      <c r="D65" s="24"/>
       <c r="E65" s="20"/>
-      <c r="F65" s="21"/>
+      <c r="F65" s="22"/>
       <c r="G65" s="20"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="21"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="22"/>
       <c r="P65" s="7">
         <v>29.561377</v>
       </c>
@@ -2583,20 +2602,20 @@
       <c r="Y65" s="1"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="1">
         <v>5000</v>
       </c>
       <c r="C66" s="20"/>
-      <c r="D66" s="22"/>
+      <c r="D66" s="24"/>
       <c r="E66" s="20"/>
-      <c r="F66" s="21"/>
+      <c r="F66" s="22"/>
       <c r="G66" s="20"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="21"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="22"/>
       <c r="P66" s="7">
         <v>73.479196999999999</v>
       </c>
@@ -2618,34 +2637,34 @@
       <c r="Y67" s="1"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B68" s="1">
         <v>500</v>
       </c>
       <c r="C68" s="20"/>
-      <c r="D68" s="22"/>
+      <c r="D68" s="24"/>
       <c r="E68" s="20">
         <v>0.16062893658948699</v>
       </c>
-      <c r="F68" s="21" t="s">
+      <c r="F68" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G68" s="20">
         <v>0.121214337893307</v>
       </c>
-      <c r="H68" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I68" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J68" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K68" s="18"/>
-      <c r="L68" s="21"/>
+      <c r="H68" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J68" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K68" s="23"/>
+      <c r="L68" s="22"/>
       <c r="P68" s="7">
         <v>2.7527020000000002</v>
       </c>
@@ -2658,20 +2677,20 @@
       <c r="Y68" s="1"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="1">
         <v>1000</v>
       </c>
       <c r="C69" s="20"/>
-      <c r="D69" s="22"/>
+      <c r="D69" s="24"/>
       <c r="E69" s="20"/>
-      <c r="F69" s="21"/>
+      <c r="F69" s="22"/>
       <c r="G69" s="20"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="21"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="22"/>
       <c r="P69" s="7">
         <v>5.4598659999999999</v>
       </c>
@@ -2684,20 +2703,20 @@
       <c r="Y69" s="1"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
+      <c r="A70" s="21"/>
       <c r="B70" s="1">
         <v>2000</v>
       </c>
       <c r="C70" s="20"/>
-      <c r="D70" s="22"/>
+      <c r="D70" s="24"/>
       <c r="E70" s="20"/>
-      <c r="F70" s="21"/>
+      <c r="F70" s="22"/>
       <c r="G70" s="20"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="21"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="22"/>
       <c r="P70" s="7">
         <v>10.888598999999999</v>
       </c>
@@ -2710,20 +2729,20 @@
       <c r="Y70" s="1"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
+      <c r="A71" s="21"/>
       <c r="B71" s="1">
         <v>5000</v>
       </c>
       <c r="C71" s="20"/>
-      <c r="D71" s="22"/>
+      <c r="D71" s="24"/>
       <c r="E71" s="20"/>
-      <c r="F71" s="21"/>
+      <c r="F71" s="22"/>
       <c r="G71" s="20"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="21"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="22"/>
       <c r="P71" s="7">
         <v>27.119754</v>
       </c>
@@ -2736,34 +2755,34 @@
       <c r="Y71" s="1"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B72" s="1">
         <v>500</v>
       </c>
       <c r="C72" s="20"/>
-      <c r="D72" s="22"/>
+      <c r="D72" s="24"/>
       <c r="E72" s="20">
         <v>1.0883629283854401E-2</v>
       </c>
-      <c r="F72" s="21" t="s">
+      <c r="F72" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G72" s="20">
         <v>2.6516853932584201E-2</v>
       </c>
-      <c r="H72" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I72" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J72" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K72" s="18"/>
-      <c r="L72" s="21"/>
+      <c r="H72" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J72" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72" s="23"/>
+      <c r="L72" s="22"/>
       <c r="P72" s="7">
         <v>3.1482399999999999</v>
       </c>
@@ -2776,20 +2795,20 @@
       <c r="Y72" s="1"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="1">
         <v>1000</v>
       </c>
       <c r="C73" s="20"/>
-      <c r="D73" s="22"/>
+      <c r="D73" s="24"/>
       <c r="E73" s="20"/>
-      <c r="F73" s="21"/>
+      <c r="F73" s="22"/>
       <c r="G73" s="20"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="21"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="22"/>
       <c r="P73" s="7">
         <v>6.2835929999999998</v>
       </c>
@@ -2802,20 +2821,20 @@
       <c r="Y73" s="1"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="1">
         <v>2000</v>
       </c>
       <c r="C74" s="20"/>
-      <c r="D74" s="22"/>
+      <c r="D74" s="24"/>
       <c r="E74" s="20"/>
-      <c r="F74" s="21"/>
+      <c r="F74" s="22"/>
       <c r="G74" s="20"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="21"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="22"/>
       <c r="P74" s="7">
         <v>12.554895999999999</v>
       </c>
@@ -2828,20 +2847,20 @@
       <c r="Y74" s="1"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="1">
         <v>5000</v>
       </c>
       <c r="C75" s="20"/>
-      <c r="D75" s="22"/>
+      <c r="D75" s="24"/>
       <c r="E75" s="20"/>
-      <c r="F75" s="21"/>
+      <c r="F75" s="22"/>
       <c r="G75" s="20"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="21"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="22"/>
       <c r="P75" s="7">
         <v>31.354782</v>
       </c>
@@ -2854,34 +2873,34 @@
       <c r="Y75" s="1"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B76" s="1">
         <v>500</v>
       </c>
       <c r="C76" s="20"/>
-      <c r="D76" s="22"/>
+      <c r="D76" s="24"/>
       <c r="E76" s="20">
         <v>2.1265476753851299E-2</v>
       </c>
-      <c r="F76" s="21" t="s">
+      <c r="F76" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G76" s="20">
         <v>3.6388931451421497E-2</v>
       </c>
-      <c r="H76" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I76" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J76" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K76" s="18"/>
-      <c r="L76" s="21"/>
+      <c r="H76" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J76" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76" s="23"/>
+      <c r="L76" s="22"/>
       <c r="P76" s="7">
         <v>3.7235830000000001</v>
       </c>
@@ -2894,20 +2913,20 @@
       <c r="Y76" s="1"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="1">
         <v>1000</v>
       </c>
       <c r="C77" s="20"/>
-      <c r="D77" s="22"/>
+      <c r="D77" s="24"/>
       <c r="E77" s="20"/>
-      <c r="F77" s="21"/>
+      <c r="F77" s="22"/>
       <c r="G77" s="20"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="21"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="22"/>
       <c r="P77" s="7">
         <v>7.4339560000000002</v>
       </c>
@@ -2920,20 +2939,20 @@
       <c r="Y77" s="1"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="1">
         <v>2000</v>
       </c>
       <c r="C78" s="20"/>
-      <c r="D78" s="22"/>
+      <c r="D78" s="24"/>
       <c r="E78" s="20"/>
-      <c r="F78" s="21"/>
+      <c r="F78" s="22"/>
       <c r="G78" s="20"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="21"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="22"/>
       <c r="P78" s="7">
         <v>14.859114</v>
       </c>
@@ -2946,20 +2965,20 @@
       <c r="Y78" s="1"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="1">
         <v>5000</v>
       </c>
       <c r="C79" s="20"/>
-      <c r="D79" s="22"/>
+      <c r="D79" s="24"/>
       <c r="E79" s="20"/>
-      <c r="F79" s="21"/>
+      <c r="F79" s="22"/>
       <c r="G79" s="20"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="21"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="22"/>
       <c r="P79" s="7">
         <v>37.086013000000001</v>
       </c>
@@ -2972,34 +2991,34 @@
       <c r="Y79" s="1"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B80" s="1">
         <v>500</v>
       </c>
       <c r="C80" s="20"/>
-      <c r="D80" s="22"/>
+      <c r="D80" s="24"/>
       <c r="E80" s="20">
         <v>0.17058616214445499</v>
       </c>
-      <c r="F80" s="21" t="s">
+      <c r="F80" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G80" s="20">
         <v>0.11949852870448099</v>
       </c>
-      <c r="H80" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I80" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J80" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K80" s="18"/>
-      <c r="L80" s="21"/>
+      <c r="H80" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I80" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J80" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K80" s="23"/>
+      <c r="L80" s="22"/>
       <c r="P80" s="7">
         <v>3.4546389999999998</v>
       </c>
@@ -3012,20 +3031,20 @@
       <c r="Y80" s="1"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="1">
         <v>1000</v>
       </c>
       <c r="C81" s="20"/>
-      <c r="D81" s="22"/>
+      <c r="D81" s="24"/>
       <c r="E81" s="20"/>
-      <c r="F81" s="21"/>
+      <c r="F81" s="22"/>
       <c r="G81" s="20"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="21"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="22"/>
       <c r="P81" s="7">
         <v>6.9478160000000004</v>
       </c>
@@ -3038,20 +3057,20 @@
       <c r="Y81" s="1"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="1">
         <v>2000</v>
       </c>
       <c r="C82" s="20"/>
-      <c r="D82" s="22"/>
+      <c r="D82" s="24"/>
       <c r="E82" s="20"/>
-      <c r="F82" s="21"/>
+      <c r="F82" s="22"/>
       <c r="G82" s="20"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="21"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="22"/>
       <c r="P82" s="7">
         <v>14.081699</v>
       </c>
@@ -3064,20 +3083,20 @@
       <c r="Y82" s="1"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="1">
         <v>5000</v>
       </c>
       <c r="C83" s="20"/>
-      <c r="D83" s="22"/>
+      <c r="D83" s="24"/>
       <c r="E83" s="20"/>
-      <c r="F83" s="21"/>
+      <c r="F83" s="22"/>
       <c r="G83" s="20"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="21"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="21"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="22"/>
       <c r="P83" s="7">
         <v>35.508873000000001</v>
       </c>
@@ -3090,34 +3109,34 @@
       <c r="Y83" s="1"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A84" s="19" t="s">
+      <c r="A84" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B84" s="1">
         <v>500</v>
       </c>
       <c r="C84" s="20"/>
-      <c r="D84" s="22"/>
+      <c r="D84" s="24"/>
       <c r="E84" s="20">
         <v>0.219652082835287</v>
       </c>
-      <c r="F84" s="21" t="s">
+      <c r="F84" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G84" s="20">
         <v>0.145969617876444</v>
       </c>
-      <c r="H84" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I84" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J84" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K84" s="18"/>
-      <c r="L84" s="21"/>
+      <c r="H84" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I84" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J84" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K84" s="23"/>
+      <c r="L84" s="22"/>
       <c r="P84" s="7">
         <v>4.0850150000000003</v>
       </c>
@@ -3130,20 +3149,20 @@
       <c r="Y84" s="1"/>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A85" s="19"/>
+      <c r="A85" s="21"/>
       <c r="B85" s="1">
         <v>1000</v>
       </c>
       <c r="C85" s="20"/>
-      <c r="D85" s="22"/>
+      <c r="D85" s="24"/>
       <c r="E85" s="20"/>
-      <c r="F85" s="21"/>
+      <c r="F85" s="22"/>
       <c r="G85" s="20"/>
-      <c r="H85" s="21"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="21"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="22"/>
       <c r="P85" s="7">
         <v>8.2311809999999994</v>
       </c>
@@ -3156,20 +3175,20 @@
       <c r="Y85" s="1"/>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
+      <c r="A86" s="21"/>
       <c r="B86" s="1">
         <v>2000</v>
       </c>
       <c r="C86" s="20"/>
-      <c r="D86" s="22"/>
+      <c r="D86" s="24"/>
       <c r="E86" s="20"/>
-      <c r="F86" s="21"/>
+      <c r="F86" s="22"/>
       <c r="G86" s="20"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="21"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="21"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="22"/>
       <c r="P86" s="7">
         <v>16.372955999999999</v>
       </c>
@@ -3182,20 +3201,20 @@
       <c r="Y86" s="1"/>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A87" s="19"/>
+      <c r="A87" s="21"/>
       <c r="B87" s="1">
         <v>5000</v>
       </c>
       <c r="C87" s="20"/>
-      <c r="D87" s="22"/>
+      <c r="D87" s="24"/>
       <c r="E87" s="20"/>
-      <c r="F87" s="21"/>
+      <c r="F87" s="22"/>
       <c r="G87" s="20"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="21"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="22"/>
       <c r="P87" s="7">
         <v>41.484876999999997</v>
       </c>
@@ -3208,34 +3227,34 @@
       <c r="Y87" s="1"/>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B88" s="1">
         <v>500</v>
       </c>
       <c r="C88" s="20"/>
-      <c r="D88" s="22"/>
+      <c r="D88" s="24"/>
       <c r="E88" s="20">
         <v>0.27256493121848202</v>
       </c>
-      <c r="F88" s="21" t="s">
+      <c r="F88" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G88" s="20">
         <v>0.15719859527191099</v>
       </c>
-      <c r="H88" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I88" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J88" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K88" s="18"/>
-      <c r="L88" s="21"/>
+      <c r="H88" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I88" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J88" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K88" s="23"/>
+      <c r="L88" s="22"/>
       <c r="P88" s="7">
         <v>4.7877510000000001</v>
       </c>
@@ -3248,20 +3267,20 @@
       <c r="Y88" s="1"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A89" s="19"/>
+      <c r="A89" s="21"/>
       <c r="B89" s="1">
         <v>1000</v>
       </c>
       <c r="C89" s="20"/>
-      <c r="D89" s="22"/>
+      <c r="D89" s="24"/>
       <c r="E89" s="20"/>
-      <c r="F89" s="21"/>
+      <c r="F89" s="22"/>
       <c r="G89" s="20"/>
-      <c r="H89" s="21"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="21"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="22"/>
       <c r="P89" s="7">
         <v>9.6713889999999996</v>
       </c>
@@ -3274,20 +3293,20 @@
       <c r="Y89" s="1"/>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
+      <c r="A90" s="21"/>
       <c r="B90" s="1">
         <v>2000</v>
       </c>
       <c r="C90" s="20"/>
-      <c r="D90" s="22"/>
+      <c r="D90" s="24"/>
       <c r="E90" s="20"/>
-      <c r="F90" s="21"/>
+      <c r="F90" s="22"/>
       <c r="G90" s="20"/>
-      <c r="H90" s="21"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="21"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="23"/>
+      <c r="L90" s="22"/>
       <c r="P90" s="7">
         <v>19.316754</v>
       </c>
@@ -3300,20 +3319,20 @@
       <c r="Y90" s="1"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A91" s="19"/>
+      <c r="A91" s="21"/>
       <c r="B91" s="1">
         <v>5000</v>
       </c>
       <c r="C91" s="20"/>
-      <c r="D91" s="22"/>
+      <c r="D91" s="24"/>
       <c r="E91" s="20"/>
-      <c r="F91" s="21"/>
+      <c r="F91" s="22"/>
       <c r="G91" s="20"/>
-      <c r="H91" s="21"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="21"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="21"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="22"/>
       <c r="P91" s="7">
         <v>47.262852000000002</v>
       </c>
@@ -3326,34 +3345,34 @@
       <c r="Y91" s="1"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B92" s="1">
         <v>500</v>
       </c>
       <c r="C92" s="20"/>
-      <c r="D92" s="22"/>
+      <c r="D92" s="24"/>
       <c r="E92" s="20">
         <v>6.2700060480871303E-2</v>
       </c>
-      <c r="F92" s="21" t="s">
+      <c r="F92" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G92" s="20">
         <v>3.09751238890398E-2</v>
       </c>
-      <c r="H92" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I92" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J92" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K92" s="18"/>
-      <c r="L92" s="21"/>
+      <c r="H92" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I92" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J92" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K92" s="23"/>
+      <c r="L92" s="22"/>
       <c r="P92" s="7">
         <v>6.1680070000000002</v>
       </c>
@@ -3366,20 +3385,20 @@
       <c r="Y92" s="1"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A93" s="19"/>
+      <c r="A93" s="21"/>
       <c r="B93" s="1">
         <v>1000</v>
       </c>
       <c r="C93" s="20"/>
-      <c r="D93" s="22"/>
+      <c r="D93" s="24"/>
       <c r="E93" s="20"/>
-      <c r="F93" s="21"/>
+      <c r="F93" s="22"/>
       <c r="G93" s="20"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="18"/>
-      <c r="L93" s="21"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="23"/>
+      <c r="L93" s="22"/>
       <c r="P93" s="7">
         <v>12.293174</v>
       </c>
@@ -3392,20 +3411,20 @@
       <c r="Y93" s="1"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A94" s="19"/>
+      <c r="A94" s="21"/>
       <c r="B94" s="1">
         <v>2000</v>
       </c>
       <c r="C94" s="20"/>
-      <c r="D94" s="22"/>
+      <c r="D94" s="24"/>
       <c r="E94" s="20"/>
-      <c r="F94" s="21"/>
+      <c r="F94" s="22"/>
       <c r="G94" s="20"/>
-      <c r="H94" s="21"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="21"/>
-      <c r="K94" s="18"/>
-      <c r="L94" s="21"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="23"/>
+      <c r="L94" s="22"/>
       <c r="P94" s="7">
         <v>24.530194999999999</v>
       </c>
@@ -3418,20 +3437,20 @@
       <c r="Y94" s="1"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A95" s="19"/>
+      <c r="A95" s="21"/>
       <c r="B95" s="1">
         <v>5000</v>
       </c>
       <c r="C95" s="20"/>
-      <c r="D95" s="22"/>
+      <c r="D95" s="24"/>
       <c r="E95" s="20"/>
-      <c r="F95" s="21"/>
+      <c r="F95" s="22"/>
       <c r="G95" s="20"/>
-      <c r="H95" s="21"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="21"/>
-      <c r="K95" s="18"/>
-      <c r="L95" s="21"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="23"/>
+      <c r="L95" s="22"/>
       <c r="P95" s="7">
         <v>61.224843</v>
       </c>
@@ -3444,34 +3463,34 @@
       <c r="Y95" s="1"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A96" s="19" t="s">
+      <c r="A96" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B96" s="1">
         <v>500</v>
       </c>
       <c r="C96" s="20"/>
-      <c r="D96" s="22"/>
+      <c r="D96" s="24"/>
       <c r="E96" s="20">
         <v>0.21402465142211599</v>
       </c>
-      <c r="F96" s="21" t="s">
+      <c r="F96" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G96" s="20">
         <v>0.16071994068421799</v>
       </c>
-      <c r="H96" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I96" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J96" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K96" s="18"/>
-      <c r="L96" s="21"/>
+      <c r="H96" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I96" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J96" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K96" s="23"/>
+      <c r="L96" s="22"/>
       <c r="P96" s="7">
         <v>5.129162</v>
       </c>
@@ -3484,20 +3503,20 @@
       <c r="Y96" s="1"/>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A97" s="19"/>
+      <c r="A97" s="21"/>
       <c r="B97" s="1">
         <v>1000</v>
       </c>
       <c r="C97" s="20"/>
-      <c r="D97" s="22"/>
+      <c r="D97" s="24"/>
       <c r="E97" s="20"/>
-      <c r="F97" s="21"/>
+      <c r="F97" s="22"/>
       <c r="G97" s="20"/>
-      <c r="H97" s="21"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="21"/>
-      <c r="K97" s="18"/>
-      <c r="L97" s="21"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="23"/>
+      <c r="L97" s="22"/>
       <c r="P97" s="7">
         <v>10.24381</v>
       </c>
@@ -3510,20 +3529,20 @@
       <c r="Y97" s="1"/>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A98" s="19"/>
+      <c r="A98" s="21"/>
       <c r="B98" s="1">
         <v>2000</v>
       </c>
       <c r="C98" s="20"/>
-      <c r="D98" s="22"/>
+      <c r="D98" s="24"/>
       <c r="E98" s="20"/>
-      <c r="F98" s="21"/>
+      <c r="F98" s="22"/>
       <c r="G98" s="20"/>
-      <c r="H98" s="21"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="21"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="21"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="22"/>
       <c r="P98" s="7">
         <v>20.481614</v>
       </c>
@@ -3536,20 +3555,20 @@
       <c r="Y98" s="1"/>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A99" s="19"/>
+      <c r="A99" s="21"/>
       <c r="B99" s="1">
         <v>5000</v>
       </c>
       <c r="C99" s="20"/>
-      <c r="D99" s="22"/>
+      <c r="D99" s="24"/>
       <c r="E99" s="20"/>
-      <c r="F99" s="21"/>
+      <c r="F99" s="22"/>
       <c r="G99" s="20"/>
-      <c r="H99" s="21"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="21"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="21"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="21"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="23"/>
+      <c r="L99" s="22"/>
       <c r="P99" s="7">
         <v>51.171509</v>
       </c>
@@ -3562,30 +3581,30 @@
       <c r="Y99" s="1"/>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A109" s="19" t="s">
+      <c r="A109" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B109" s="19"/>
-      <c r="C109" s="19" t="s">
+      <c r="B109" s="21"/>
+      <c r="C109" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19" t="s">
+      <c r="D109" s="21"/>
+      <c r="E109" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19" t="s">
+      <c r="F109" s="21"/>
+      <c r="G109" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19" t="s">
+      <c r="H109" s="21"/>
+      <c r="I109" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="J109" s="19"/>
-      <c r="K109" s="19" t="s">
+      <c r="J109" s="21"/>
+      <c r="K109" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L109" s="19"/>
+      <c r="L109" s="21"/>
       <c r="M109" s="20" t="s">
         <v>47</v>
       </c>
@@ -3599,8 +3618,8 @@
       </c>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A110" s="19"/>
-      <c r="B110" s="19"/>
+      <c r="A110" s="21"/>
+      <c r="B110" s="21"/>
       <c r="C110" s="15" t="s">
         <v>7</v>
       </c>
@@ -3648,7 +3667,7 @@
       </c>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A111" s="19" t="s">
+      <c r="A111" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B111" s="14">
@@ -3663,14 +3682,14 @@
       <c r="I111" s="20">
         <v>0.22309999999999999</v>
       </c>
-      <c r="J111" s="21">
+      <c r="J111" s="22">
         <v>0.17599999999999999</v>
       </c>
-      <c r="K111" s="18"/>
-      <c r="L111" s="21"/>
+      <c r="K111" s="23"/>
+      <c r="L111" s="22"/>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A112" s="19"/>
+      <c r="A112" s="21"/>
       <c r="B112" s="14">
         <v>1000</v>
       </c>
@@ -3681,12 +3700,12 @@
       <c r="G112" s="15"/>
       <c r="H112" s="16"/>
       <c r="I112" s="20"/>
-      <c r="J112" s="21"/>
-      <c r="K112" s="18"/>
-      <c r="L112" s="21"/>
+      <c r="J112" s="22"/>
+      <c r="K112" s="23"/>
+      <c r="L112" s="22"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="19"/>
+      <c r="A113" s="21"/>
       <c r="B113" s="14">
         <v>2000</v>
       </c>
@@ -3697,12 +3716,12 @@
       <c r="G113" s="15"/>
       <c r="H113" s="16"/>
       <c r="I113" s="20"/>
-      <c r="J113" s="21"/>
-      <c r="K113" s="18"/>
-      <c r="L113" s="21"/>
+      <c r="J113" s="22"/>
+      <c r="K113" s="23"/>
+      <c r="L113" s="22"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="19"/>
+      <c r="A114" s="21"/>
       <c r="B114" s="14">
         <v>5000</v>
       </c>
@@ -3713,12 +3732,12 @@
       <c r="G114" s="15"/>
       <c r="H114" s="16"/>
       <c r="I114" s="20"/>
-      <c r="J114" s="21"/>
-      <c r="K114" s="18"/>
-      <c r="L114" s="21"/>
+      <c r="J114" s="22"/>
+      <c r="K114" s="23"/>
+      <c r="L114" s="22"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="19" t="s">
+      <c r="A115" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B115" s="14">
@@ -3731,12 +3750,12 @@
       <c r="G115" s="15"/>
       <c r="H115" s="16"/>
       <c r="I115" s="20"/>
-      <c r="J115" s="21"/>
-      <c r="K115" s="18"/>
-      <c r="L115" s="21"/>
+      <c r="J115" s="22"/>
+      <c r="K115" s="23"/>
+      <c r="L115" s="22"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="19"/>
+      <c r="A116" s="21"/>
       <c r="B116" s="14">
         <v>1000</v>
       </c>
@@ -3747,12 +3766,12 @@
       <c r="G116" s="15"/>
       <c r="H116" s="16"/>
       <c r="I116" s="20"/>
-      <c r="J116" s="21"/>
-      <c r="K116" s="18"/>
-      <c r="L116" s="21"/>
+      <c r="J116" s="22"/>
+      <c r="K116" s="23"/>
+      <c r="L116" s="22"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="19"/>
+      <c r="A117" s="21"/>
       <c r="B117" s="14">
         <v>2000</v>
       </c>
@@ -3763,12 +3782,12 @@
       <c r="G117" s="15"/>
       <c r="H117" s="16"/>
       <c r="I117" s="20"/>
-      <c r="J117" s="21"/>
-      <c r="K117" s="18"/>
-      <c r="L117" s="21"/>
+      <c r="J117" s="22"/>
+      <c r="K117" s="23"/>
+      <c r="L117" s="22"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="19"/>
+      <c r="A118" s="21"/>
       <c r="B118" s="14">
         <v>5000</v>
       </c>
@@ -3779,12 +3798,12 @@
       <c r="G118" s="15"/>
       <c r="H118" s="16"/>
       <c r="I118" s="20"/>
-      <c r="J118" s="21"/>
-      <c r="K118" s="18"/>
-      <c r="L118" s="21"/>
+      <c r="J118" s="22"/>
+      <c r="K118" s="23"/>
+      <c r="L118" s="22"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="19" t="s">
+      <c r="A119" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B119" s="14">
@@ -3799,14 +3818,14 @@
       <c r="I119" s="20">
         <v>0.26700000000000002</v>
       </c>
-      <c r="J119" s="21">
+      <c r="J119" s="22">
         <v>0.435</v>
       </c>
-      <c r="K119" s="18"/>
-      <c r="L119" s="21"/>
+      <c r="K119" s="23"/>
+      <c r="L119" s="22"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="19"/>
+      <c r="A120" s="21"/>
       <c r="B120" s="14">
         <v>1000</v>
       </c>
@@ -3817,12 +3836,12 @@
       <c r="G120" s="15"/>
       <c r="H120" s="16"/>
       <c r="I120" s="20"/>
-      <c r="J120" s="21"/>
-      <c r="K120" s="18"/>
-      <c r="L120" s="21"/>
+      <c r="J120" s="22"/>
+      <c r="K120" s="23"/>
+      <c r="L120" s="22"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="19"/>
+      <c r="A121" s="21"/>
       <c r="B121" s="14">
         <v>2000</v>
       </c>
@@ -3833,12 +3852,12 @@
       <c r="G121" s="15"/>
       <c r="H121" s="16"/>
       <c r="I121" s="20"/>
-      <c r="J121" s="21"/>
-      <c r="K121" s="18"/>
-      <c r="L121" s="21"/>
+      <c r="J121" s="22"/>
+      <c r="K121" s="23"/>
+      <c r="L121" s="22"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="19"/>
+      <c r="A122" s="21"/>
       <c r="B122" s="14">
         <v>5000</v>
       </c>
@@ -3849,12 +3868,12 @@
       <c r="G122" s="15"/>
       <c r="H122" s="16"/>
       <c r="I122" s="20"/>
-      <c r="J122" s="21"/>
-      <c r="K122" s="18"/>
-      <c r="L122" s="21"/>
+      <c r="J122" s="22"/>
+      <c r="K122" s="23"/>
+      <c r="L122" s="22"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="19" t="s">
+      <c r="A123" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B123" s="14">
@@ -3867,12 +3886,12 @@
       <c r="G123" s="15"/>
       <c r="H123" s="16"/>
       <c r="I123" s="20"/>
-      <c r="J123" s="21"/>
-      <c r="K123" s="18"/>
-      <c r="L123" s="21"/>
+      <c r="J123" s="22"/>
+      <c r="K123" s="23"/>
+      <c r="L123" s="22"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="19"/>
+      <c r="A124" s="21"/>
       <c r="B124" s="14">
         <v>1000</v>
       </c>
@@ -3883,12 +3902,12 @@
       <c r="G124" s="15"/>
       <c r="H124" s="16"/>
       <c r="I124" s="20"/>
-      <c r="J124" s="21"/>
-      <c r="K124" s="18"/>
-      <c r="L124" s="21"/>
+      <c r="J124" s="22"/>
+      <c r="K124" s="23"/>
+      <c r="L124" s="22"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="19"/>
+      <c r="A125" s="21"/>
       <c r="B125" s="14">
         <v>2000</v>
       </c>
@@ -3899,12 +3918,12 @@
       <c r="G125" s="15"/>
       <c r="H125" s="16"/>
       <c r="I125" s="20"/>
-      <c r="J125" s="21"/>
-      <c r="K125" s="18"/>
-      <c r="L125" s="21"/>
+      <c r="J125" s="22"/>
+      <c r="K125" s="23"/>
+      <c r="L125" s="22"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="19"/>
+      <c r="A126" s="21"/>
       <c r="B126" s="14">
         <v>5000</v>
       </c>
@@ -3915,12 +3934,12 @@
       <c r="G126" s="15"/>
       <c r="H126" s="16"/>
       <c r="I126" s="20"/>
-      <c r="J126" s="21"/>
-      <c r="K126" s="18"/>
-      <c r="L126" s="21"/>
+      <c r="J126" s="22"/>
+      <c r="K126" s="23"/>
+      <c r="L126" s="22"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="19" t="s">
+      <c r="A127" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B127" s="14">
@@ -3933,12 +3952,12 @@
       <c r="G127" s="15"/>
       <c r="H127" s="16"/>
       <c r="I127" s="20"/>
-      <c r="J127" s="21"/>
-      <c r="K127" s="18"/>
-      <c r="L127" s="21"/>
+      <c r="J127" s="22"/>
+      <c r="K127" s="23"/>
+      <c r="L127" s="22"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="19"/>
+      <c r="A128" s="21"/>
       <c r="B128" s="14">
         <v>1000</v>
       </c>
@@ -3949,12 +3968,12 @@
       <c r="G128" s="15"/>
       <c r="H128" s="16"/>
       <c r="I128" s="20"/>
-      <c r="J128" s="21"/>
-      <c r="K128" s="18"/>
-      <c r="L128" s="21"/>
+      <c r="J128" s="22"/>
+      <c r="K128" s="23"/>
+      <c r="L128" s="22"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="19"/>
+      <c r="A129" s="21"/>
       <c r="B129" s="14">
         <v>2000</v>
       </c>
@@ -3965,12 +3984,12 @@
       <c r="G129" s="15"/>
       <c r="H129" s="16"/>
       <c r="I129" s="20"/>
-      <c r="J129" s="21"/>
-      <c r="K129" s="18"/>
-      <c r="L129" s="21"/>
+      <c r="J129" s="22"/>
+      <c r="K129" s="23"/>
+      <c r="L129" s="22"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="19"/>
+      <c r="A130" s="21"/>
       <c r="B130" s="14">
         <v>5000</v>
       </c>
@@ -3981,31 +4000,31 @@
       <c r="G130" s="15"/>
       <c r="H130" s="16"/>
       <c r="I130" s="20"/>
-      <c r="J130" s="21"/>
-      <c r="K130" s="18"/>
-      <c r="L130" s="21"/>
+      <c r="J130" s="22"/>
+      <c r="K130" s="23"/>
+      <c r="L130" s="22"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="19" t="s">
+      <c r="A138" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B138" s="19"/>
-      <c r="C138" s="19" t="s">
+      <c r="B138" s="21"/>
+      <c r="C138" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D138" s="19"/>
-      <c r="E138" s="19" t="s">
+      <c r="D138" s="21"/>
+      <c r="E138" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19" t="s">
+      <c r="F138" s="21"/>
+      <c r="G138" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H138" s="19"/>
+      <c r="H138" s="21"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="19"/>
-      <c r="B139" s="19"/>
+      <c r="A139" s="21"/>
+      <c r="B139" s="21"/>
       <c r="C139" s="3" t="s">
         <v>7</v>
       </c>
@@ -4026,7 +4045,7 @@
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="19" t="s">
+      <c r="A140" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B140" s="14">
@@ -4034,46 +4053,275 @@
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="19"/>
+      <c r="A141" s="21"/>
       <c r="B141" s="14">
         <v>1000</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="19"/>
+      <c r="A142" s="21"/>
       <c r="B142" s="14">
         <v>2000</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="19"/>
+      <c r="A143" s="21"/>
       <c r="B143" s="14">
         <v>5000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="297">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="L63:L66"/>
-    <mergeCell ref="L68:L71"/>
-    <mergeCell ref="L72:L75"/>
-    <mergeCell ref="L76:L79"/>
-    <mergeCell ref="L80:L83"/>
-    <mergeCell ref="L84:L87"/>
-    <mergeCell ref="L88:L91"/>
-    <mergeCell ref="L92:L95"/>
-    <mergeCell ref="L96:L99"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="L27:L30"/>
-    <mergeCell ref="L31:L34"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="L45:L48"/>
-    <mergeCell ref="L50:L53"/>
-    <mergeCell ref="L55:L58"/>
-    <mergeCell ref="L59:L62"/>
+  <mergeCells count="298">
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="K45:K48"/>
+    <mergeCell ref="K50:K53"/>
+    <mergeCell ref="K55:K58"/>
+    <mergeCell ref="K59:K62"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="K68:K71"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="H80:H83"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="F96:F99"/>
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="H96:H99"/>
+    <mergeCell ref="E88:E91"/>
+    <mergeCell ref="F88:F91"/>
+    <mergeCell ref="G88:G91"/>
+    <mergeCell ref="H88:H91"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="G92:G95"/>
+    <mergeCell ref="H92:H95"/>
+    <mergeCell ref="H76:H79"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="E68:E71"/>
+    <mergeCell ref="F68:F71"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="H68:H71"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="I45:I48"/>
+    <mergeCell ref="J45:J48"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="H45:H48"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="J84:J87"/>
+    <mergeCell ref="I88:I91"/>
+    <mergeCell ref="J88:J91"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="I55:I58"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="I59:I62"/>
+    <mergeCell ref="J59:J62"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="G76:G79"/>
+    <mergeCell ref="I96:I99"/>
+    <mergeCell ref="J96:J99"/>
+    <mergeCell ref="J68:J71"/>
+    <mergeCell ref="I72:I75"/>
+    <mergeCell ref="J72:J75"/>
+    <mergeCell ref="I76:I79"/>
+    <mergeCell ref="J76:J79"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="J80:J83"/>
+    <mergeCell ref="K96:K99"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="K72:K75"/>
+    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="I68:I71"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="K27:K30"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="K88:K91"/>
+    <mergeCell ref="K92:K95"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="I92:I95"/>
+    <mergeCell ref="J92:J95"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="K111:K114"/>
+    <mergeCell ref="I111:I114"/>
+    <mergeCell ref="J111:J114"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
     <mergeCell ref="A127:A130"/>
     <mergeCell ref="K127:K130"/>
     <mergeCell ref="I127:I130"/>
@@ -4098,258 +4346,30 @@
     <mergeCell ref="K123:K126"/>
     <mergeCell ref="I123:I126"/>
     <mergeCell ref="J123:J126"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="L63:L66"/>
+    <mergeCell ref="L68:L71"/>
+    <mergeCell ref="L72:L75"/>
+    <mergeCell ref="L76:L79"/>
+    <mergeCell ref="L80:L83"/>
+    <mergeCell ref="L84:L87"/>
+    <mergeCell ref="L88:L91"/>
+    <mergeCell ref="L92:L95"/>
+    <mergeCell ref="L96:L99"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="L27:L30"/>
+    <mergeCell ref="L31:L34"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="L45:L48"/>
+    <mergeCell ref="L50:L53"/>
+    <mergeCell ref="L55:L58"/>
+    <mergeCell ref="L59:L62"/>
     <mergeCell ref="C109:D109"/>
     <mergeCell ref="E109:F109"/>
     <mergeCell ref="G109:H109"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="K111:K114"/>
-    <mergeCell ref="I111:I114"/>
-    <mergeCell ref="J111:J114"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="K27:K30"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="K88:K91"/>
-    <mergeCell ref="K92:K95"/>
-    <mergeCell ref="K96:K99"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="K72:K75"/>
-    <mergeCell ref="K76:K79"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="I50:I53"/>
-    <mergeCell ref="I68:I71"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="I92:I95"/>
-    <mergeCell ref="J92:J95"/>
-    <mergeCell ref="I96:I99"/>
-    <mergeCell ref="J96:J99"/>
-    <mergeCell ref="J68:J71"/>
-    <mergeCell ref="I72:I75"/>
-    <mergeCell ref="J72:J75"/>
-    <mergeCell ref="I76:I79"/>
-    <mergeCell ref="J76:J79"/>
-    <mergeCell ref="I80:I83"/>
-    <mergeCell ref="J80:J83"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="J84:J87"/>
-    <mergeCell ref="I88:I91"/>
-    <mergeCell ref="J88:J91"/>
-    <mergeCell ref="J50:J53"/>
-    <mergeCell ref="I55:I58"/>
-    <mergeCell ref="J55:J58"/>
-    <mergeCell ref="I59:I62"/>
-    <mergeCell ref="J59:J62"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="I45:I48"/>
-    <mergeCell ref="J45:J48"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="G45:G48"/>
-    <mergeCell ref="H45:H48"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="F76:F79"/>
-    <mergeCell ref="G76:G79"/>
-    <mergeCell ref="H76:H79"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="E68:E71"/>
-    <mergeCell ref="F68:F71"/>
-    <mergeCell ref="G68:G71"/>
-    <mergeCell ref="H68:H71"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="F96:F99"/>
-    <mergeCell ref="G96:G99"/>
-    <mergeCell ref="H96:H99"/>
-    <mergeCell ref="E88:E91"/>
-    <mergeCell ref="F88:F91"/>
-    <mergeCell ref="G88:G91"/>
-    <mergeCell ref="H88:H91"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="G92:G95"/>
-    <mergeCell ref="H92:H95"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="H80:H83"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="K45:K48"/>
-    <mergeCell ref="K50:K53"/>
-    <mergeCell ref="K55:K58"/>
-    <mergeCell ref="K59:K62"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="K68:K71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_results/results_table.xlsx
+++ b/test_results/results_table.xlsx
@@ -247,7 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -313,7 +313,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -322,7 +325,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -333,7 +336,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -352,90 +355,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -773,10 +692,10 @@
   <dimension ref="A1:CF657"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL12" sqref="AL12"/>
+      <selection pane="bottomRight" activeCell="AJ20" sqref="AJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,7 +725,13 @@
     <col min="24" max="24" width="12.5703125" style="1" customWidth="1"/>
     <col min="25" max="25" width="11.28515625" style="3" customWidth="1"/>
     <col min="26" max="26" width="11.7109375" style="1" customWidth="1"/>
-    <col min="27" max="40" width="9.140625" style="1"/>
+    <col min="27" max="29" width="9.140625" style="1"/>
+    <col min="30" max="30" width="10.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.85546875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="11.140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="10.5703125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="10.85546875" style="1" customWidth="1"/>
+    <col min="35" max="40" width="9.140625" style="1"/>
     <col min="41" max="41" width="25" style="5" customWidth="1"/>
     <col min="42" max="42" width="25.140625" style="6" customWidth="1"/>
     <col min="43" max="43" width="14.28515625" style="7" customWidth="1"/>
@@ -816,34 +741,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="24" t="s">
+      <c r="L1" s="27"/>
+      <c r="M1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="24"/>
+      <c r="N1" s="25"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="19" t="s">
         <v>50</v>
@@ -876,27 +801,27 @@
         <v>59</v>
       </c>
       <c r="AC1" s="21"/>
-      <c r="AD1" s="19" t="s">
+      <c r="AD1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AE1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AF1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AG1" s="19" t="s">
+      <c r="AG1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AH1" s="19" t="s">
+      <c r="AH1" s="23" t="s">
         <v>54</v>
       </c>
       <c r="CE1" s="8"/>
       <c r="CF1" s="8"/>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -988,38 +913,38 @@
       <c r="CF2" s="11"/>
     </row>
     <row r="3" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>500</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="25">
         <v>0.26700000000000002</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="26">
         <v>0.44700000000000001</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="25">
         <v>0.17100000000000001</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="25">
         <v>0.153</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="25"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="26"/>
       <c r="O3" s="22"/>
       <c r="P3" s="7">
         <v>3.355451</v>
@@ -1076,20 +1001,20 @@
       <c r="CF3" s="10"/>
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="1">
         <v>1000</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="26"/>
       <c r="O4" s="22"/>
       <c r="P4" s="7">
         <v>6.6267579999999997</v>
@@ -1146,20 +1071,20 @@
       <c r="CF4" s="10"/>
     </row>
     <row r="5" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="1">
         <v>2000</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="26"/>
       <c r="O5" s="22"/>
       <c r="P5" s="7">
         <v>13.110008000000001</v>
@@ -1216,20 +1141,20 @@
       <c r="CF5" s="10"/>
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="1">
         <v>5000</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="26"/>
       <c r="O6" s="22"/>
       <c r="P6" s="7">
         <v>32.676729999999999</v>
@@ -1284,38 +1209,38 @@
       </c>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="27" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>500</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="25">
         <v>0.2601</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="26">
         <v>0.624</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="25">
         <v>0.20200000000000001</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="25">
         <v>0.19400000000000001</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="25"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="26"/>
       <c r="O7" s="22"/>
       <c r="P7" s="7">
         <v>4.002434</v>
@@ -1372,20 +1297,20 @@
       <c r="CF7" s="10"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="1">
         <v>1000</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="26"/>
       <c r="O8" s="22"/>
       <c r="P8" s="7">
         <v>7.9348150000000004</v>
@@ -1442,20 +1367,20 @@
       <c r="CF8" s="10"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="1">
         <v>2000</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="26"/>
       <c r="O9" s="22"/>
       <c r="P9" s="7">
         <v>15.800986</v>
@@ -1512,20 +1437,20 @@
       <c r="CF9" s="10"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="1">
         <v>5000</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="26"/>
       <c r="O10" s="22"/>
       <c r="P10" s="7">
         <v>39.365931000000003</v>
@@ -1580,38 +1505,38 @@
       </c>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>500</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="25">
         <v>0.30220000000000002</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="26">
         <v>0.93700000000000006</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="25">
         <v>0.22800000000000001</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="25">
         <v>0.17199999999999999</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="25"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="26"/>
       <c r="O11" s="22"/>
       <c r="P11" s="7">
         <v>4.9335690000000003</v>
@@ -1668,20 +1593,20 @@
       <c r="CF11" s="10"/>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="1">
         <v>1000</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="26"/>
       <c r="O12" s="22"/>
       <c r="P12" s="7">
         <v>9.7972990000000006</v>
@@ -1738,20 +1663,20 @@
       <c r="CF12" s="10"/>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="1">
         <v>2000</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="26"/>
       <c r="O13" s="22"/>
       <c r="P13" s="7">
         <v>19.567959999999999</v>
@@ -1808,20 +1733,20 @@
       <c r="CF13" s="10"/>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="1">
         <v>5000</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="26"/>
       <c r="O14" s="22"/>
       <c r="P14" s="7">
         <v>48.782482999999999</v>
@@ -1876,38 +1801,38 @@
       </c>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="27" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>500</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="25">
         <v>0.3165</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="26">
         <v>1.1140000000000001</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="25">
         <v>0.189</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="25">
         <v>0.18</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="25"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="26"/>
       <c r="O15" s="22"/>
       <c r="P15" s="7">
         <v>5.413564</v>
@@ -1964,20 +1889,20 @@
       <c r="CF15" s="10"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="1">
         <v>1000</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="26"/>
       <c r="O16" s="22"/>
       <c r="P16" s="7">
         <v>10.807356</v>
@@ -2034,20 +1959,20 @@
       <c r="CF16" s="10"/>
     </row>
     <row r="17" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="1">
         <v>2000</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="26"/>
       <c r="O17" s="22"/>
       <c r="P17" s="7">
         <v>21.628416999999999</v>
@@ -2104,20 +2029,20 @@
       <c r="CF17" s="10"/>
     </row>
     <row r="18" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="1">
         <v>5000</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="26"/>
       <c r="O18" s="22"/>
       <c r="P18" s="7">
         <v>53.830657000000002</v>
@@ -2172,38 +2097,38 @@
       </c>
     </row>
     <row r="19" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="27" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="1">
         <v>500</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="25">
         <v>0.33110000000000001</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="26">
         <v>1.7989999999999999</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="25">
         <v>0.254</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="25">
         <v>0.187</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="25">
         <v>0.13080554883214199</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="26">
         <v>600</v>
       </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="25"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="26"/>
       <c r="O19" s="22"/>
       <c r="P19" s="7">
         <v>6.7596759999999998</v>
@@ -2260,20 +2185,20 @@
       <c r="CF19" s="9"/>
     </row>
     <row r="20" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="1">
         <v>1000</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="26"/>
       <c r="O20" s="22"/>
       <c r="P20" s="7">
         <v>13.471734</v>
@@ -2330,20 +2255,20 @@
       <c r="CF20" s="9"/>
     </row>
     <row r="21" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="1">
         <v>2000</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="26"/>
       <c r="O21" s="22"/>
       <c r="P21" s="7">
         <v>26.813558</v>
@@ -2400,20 +2325,20 @@
       <c r="CF21" s="9"/>
     </row>
     <row r="22" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="1">
         <v>5000</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="26"/>
       <c r="O22" s="22"/>
       <c r="P22" s="7">
         <v>66.724900000000005</v>
@@ -2468,38 +2393,38 @@
       </c>
     </row>
     <row r="23" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="27" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="1">
         <v>500</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="25">
         <v>0.33660000000000001</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="26">
         <v>2.7</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="25">
         <v>0.159</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="25">
         <v>0.13800000000000001</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="26"/>
-      <c r="L23" s="25"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="26"/>
       <c r="O23" s="22"/>
       <c r="P23" s="7">
         <v>8.6928560000000008</v>
@@ -2556,20 +2481,20 @@
       <c r="CF23" s="10"/>
     </row>
     <row r="24" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="1">
         <v>1000</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="26"/>
       <c r="O24" s="22"/>
       <c r="P24" s="7">
         <v>17.285457000000001</v>
@@ -2626,20 +2551,20 @@
       <c r="CF24" s="10"/>
     </row>
     <row r="25" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="1">
         <v>2000</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="26"/>
       <c r="O25" s="22"/>
       <c r="P25" s="7">
         <v>34.49512</v>
@@ -2696,20 +2621,20 @@
       <c r="CF25" s="10"/>
     </row>
     <row r="26" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="1">
         <v>5000</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="26"/>
       <c r="O26" s="22"/>
       <c r="P26" s="7">
         <v>85.965810000000005</v>
@@ -2764,38 +2689,38 @@
       </c>
     </row>
     <row r="27" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="1">
         <v>500</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="25">
         <v>0.22470000000000001</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="26">
         <v>4.883</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="25">
         <v>0.17399999999999999</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="25">
         <v>0.13500000000000001</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="H27" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="25" t="s">
+      <c r="J27" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="26"/>
-      <c r="L27" s="25"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="26"/>
       <c r="O27" s="22"/>
       <c r="P27" s="7">
         <v>11.603604000000001</v>
@@ -2852,20 +2777,20 @@
       <c r="CF27" s="10"/>
     </row>
     <row r="28" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="1">
         <v>1000</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="26"/>
       <c r="O28" s="22"/>
       <c r="P28" s="7">
         <v>23.158722999999998</v>
@@ -2922,20 +2847,20 @@
       <c r="CF28" s="10"/>
     </row>
     <row r="29" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="1">
         <v>2000</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="26"/>
       <c r="O29" s="22"/>
       <c r="P29" s="7">
         <v>46.277225999999999</v>
@@ -2992,20 +2917,20 @@
       <c r="CF29" s="10"/>
     </row>
     <row r="30" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="1">
         <v>5000</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="26"/>
       <c r="O30" s="22"/>
       <c r="P30" s="7">
         <v>115.449259</v>
@@ -3061,38 +2986,38 @@
       <c r="AV30" s="8"/>
     </row>
     <row r="31" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="27" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="1">
         <v>500</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="25">
         <v>0.26550000000000001</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="26">
         <v>28.327999999999999</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="25">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="25">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H31" s="25" t="s">
+      <c r="H31" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="23" t="s">
+      <c r="I31" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J31" s="25" t="s">
+      <c r="J31" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="26"/>
-      <c r="L31" s="25"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="26"/>
       <c r="O31" s="22"/>
       <c r="P31" s="7">
         <v>32.667169999999999</v>
@@ -3149,20 +3074,20 @@
       <c r="CF31" s="10"/>
     </row>
     <row r="32" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="1">
         <v>1000</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="26"/>
       <c r="O32" s="22"/>
       <c r="P32" s="7">
         <v>65.318888000000001</v>
@@ -3219,20 +3144,20 @@
       <c r="CF32" s="10"/>
     </row>
     <row r="33" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="1">
         <v>2000</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="26"/>
       <c r="O33" s="22"/>
       <c r="P33" s="7">
         <v>130.456557</v>
@@ -3289,20 +3214,20 @@
       <c r="CF33" s="10"/>
     </row>
     <row r="34" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="1">
         <v>5000</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="26"/>
       <c r="O34" s="22"/>
       <c r="P34" s="7">
         <v>323.3809</v>
@@ -3358,34 +3283,34 @@
     </row>
     <row r="35" spans="1:84" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="27" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="1">
         <v>500</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="24">
+      <c r="C36" s="25"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="25">
         <v>0.101239449255883</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="25">
         <v>6.1477473699407502E-2</v>
       </c>
-      <c r="H36" s="25" t="s">
+      <c r="H36" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I36" s="23" t="s">
+      <c r="I36" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J36" s="25" t="s">
+      <c r="J36" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K36" s="26"/>
-      <c r="L36" s="25"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="26"/>
       <c r="O36" s="22"/>
       <c r="P36" s="7">
         <v>7.3689210000000003</v>
@@ -3440,20 +3365,20 @@
       </c>
     </row>
     <row r="37" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="1">
         <v>1000</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="26"/>
       <c r="O37" s="22"/>
       <c r="P37" s="7">
         <v>14.524684000000001</v>
@@ -3508,20 +3433,20 @@
       </c>
     </row>
     <row r="38" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="1">
         <v>2000</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="26"/>
       <c r="O38" s="22"/>
       <c r="P38" s="7">
         <v>29.065647999999999</v>
@@ -3576,20 +3501,20 @@
       </c>
     </row>
     <row r="39" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
+      <c r="A39" s="27"/>
       <c r="B39" s="1">
         <v>5000</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="26"/>
       <c r="O39" s="22"/>
       <c r="P39" s="7">
         <v>72.090327000000002</v>
@@ -3644,34 +3569,34 @@
       </c>
     </row>
     <row r="40" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="27" t="s">
         <v>21</v>
       </c>
       <c r="B40" s="1">
         <v>500</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="24">
+      <c r="C40" s="25"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="25">
         <v>0.29018026080021198</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="25">
         <v>0.205463324203739</v>
       </c>
-      <c r="H40" s="25" t="s">
+      <c r="H40" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="23" t="s">
+      <c r="I40" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J40" s="25" t="s">
+      <c r="J40" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="26"/>
-      <c r="L40" s="25"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="26"/>
       <c r="O40" s="22"/>
       <c r="P40" s="7">
         <v>8.3890449999999994</v>
@@ -3726,20 +3651,20 @@
       </c>
     </row>
     <row r="41" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="1">
         <v>1000</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="26"/>
       <c r="O41" s="22"/>
       <c r="P41" s="7">
         <v>16.511437999999998</v>
@@ -3794,20 +3719,20 @@
       </c>
     </row>
     <row r="42" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
+      <c r="A42" s="27"/>
       <c r="B42" s="1">
         <v>2000</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="26"/>
       <c r="O42" s="22"/>
       <c r="P42" s="7">
         <v>32.639651000000001</v>
@@ -3862,20 +3787,20 @@
       </c>
     </row>
     <row r="43" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
+      <c r="A43" s="27"/>
       <c r="B43" s="1">
         <v>5000</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="26"/>
       <c r="O43" s="22"/>
       <c r="P43" s="7">
         <v>81.209215999999998</v>
@@ -3931,34 +3856,34 @@
     </row>
     <row r="44" spans="1:84" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="27" t="s">
         <v>34</v>
       </c>
       <c r="B45" s="1">
         <v>500</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="24">
+      <c r="C45" s="25"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="25">
         <v>0.21826059724466901</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="24">
+      <c r="G45" s="25">
         <v>0.199782125806655</v>
       </c>
-      <c r="H45" s="25" t="s">
+      <c r="H45" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I45" s="23" t="s">
+      <c r="I45" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="25" t="s">
+      <c r="J45" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K45" s="26"/>
-      <c r="L45" s="25"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="26"/>
       <c r="O45" s="22"/>
       <c r="P45" s="7">
         <v>2.2728280000000001</v>
@@ -4013,20 +3938,20 @@
       </c>
     </row>
     <row r="46" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
+      <c r="A46" s="27"/>
       <c r="B46" s="1">
         <v>1000</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="26"/>
       <c r="O46" s="22"/>
       <c r="P46" s="7">
         <v>4.5111670000000004</v>
@@ -4081,20 +4006,20 @@
       </c>
     </row>
     <row r="47" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
+      <c r="A47" s="27"/>
       <c r="B47" s="1">
         <v>2000</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="26"/>
       <c r="O47" s="22"/>
       <c r="P47" s="7">
         <v>8.9939009999999993</v>
@@ -4149,20 +4074,20 @@
       </c>
     </row>
     <row r="48" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
+      <c r="A48" s="27"/>
       <c r="B48" s="1">
         <v>5000</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="26"/>
       <c r="O48" s="22"/>
       <c r="P48" s="7">
         <v>22.490936999999999</v>
@@ -4218,34 +4143,34 @@
     </row>
     <row r="49" spans="1:34" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B50" s="1">
         <v>500</v>
       </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="24">
+      <c r="C50" s="25"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="25">
         <v>0.24797844874295</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="F50" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="24">
+      <c r="G50" s="25">
         <v>0.18443317167635301</v>
       </c>
-      <c r="H50" s="25" t="s">
+      <c r="H50" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="23" t="s">
+      <c r="I50" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J50" s="25" t="s">
+      <c r="J50" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K50" s="26"/>
-      <c r="L50" s="25"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="26"/>
       <c r="O50" s="22"/>
       <c r="P50" s="7">
         <v>8.1978240000000007</v>
@@ -4300,20 +4225,20 @@
       </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
+      <c r="A51" s="27"/>
       <c r="B51" s="1">
         <v>1000</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="26"/>
       <c r="O51" s="22"/>
       <c r="P51" s="7">
         <v>16.520105999999998</v>
@@ -4368,20 +4293,20 @@
       </c>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
+      <c r="A52" s="27"/>
       <c r="B52" s="1">
         <v>2000</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="26"/>
       <c r="O52" s="22"/>
       <c r="P52" s="7">
         <v>32.814861000000001</v>
@@ -4436,20 +4361,20 @@
       </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
+      <c r="A53" s="27"/>
       <c r="B53" s="1">
         <v>5000</v>
       </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="26"/>
       <c r="O53" s="22"/>
       <c r="P53" s="7">
         <v>80.115144999999998</v>
@@ -4505,34 +4430,34 @@
     </row>
     <row r="54" spans="1:34" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="27" t="s">
         <v>23</v>
       </c>
       <c r="B55" s="1">
         <v>500</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="24">
+      <c r="C55" s="25"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="25">
         <v>0.28420023201354799</v>
       </c>
-      <c r="F55" s="25" t="s">
+      <c r="F55" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G55" s="24">
+      <c r="G55" s="25">
         <v>0.34385002851765301</v>
       </c>
-      <c r="H55" s="25" t="s">
+      <c r="H55" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I55" s="23" t="s">
+      <c r="I55" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J55" s="25" t="s">
+      <c r="J55" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K55" s="26"/>
-      <c r="L55" s="25"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="26"/>
       <c r="O55" s="22"/>
       <c r="P55" s="7">
         <v>5.8302040000000002</v>
@@ -4587,20 +4512,20 @@
       </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
+      <c r="A56" s="27"/>
       <c r="B56" s="1">
         <v>1000</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="26"/>
       <c r="O56" s="22"/>
       <c r="P56" s="7">
         <v>11.555717</v>
@@ -4655,20 +4580,20 @@
       </c>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
+      <c r="A57" s="27"/>
       <c r="B57" s="1">
         <v>2000</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="26"/>
       <c r="O57" s="22"/>
       <c r="P57" s="7">
         <v>23.124298</v>
@@ -4723,20 +4648,20 @@
       </c>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
+      <c r="A58" s="27"/>
       <c r="B58" s="1">
         <v>5000</v>
       </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="26"/>
       <c r="O58" s="22"/>
       <c r="P58" s="7">
         <v>58.029696999999999</v>
@@ -4791,34 +4716,34 @@
       </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B59" s="1">
         <v>500</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="24">
+      <c r="C59" s="25"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="25">
         <v>0.29386831802036401</v>
       </c>
-      <c r="F59" s="25" t="s">
+      <c r="F59" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="24">
+      <c r="G59" s="25">
         <v>0.30511472915739701</v>
       </c>
-      <c r="H59" s="25" t="s">
+      <c r="H59" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I59" s="23" t="s">
+      <c r="I59" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J59" s="25" t="s">
+      <c r="J59" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K59" s="26"/>
-      <c r="L59" s="25"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="26"/>
       <c r="O59" s="22"/>
       <c r="P59" s="7">
         <v>7.0910570000000002</v>
@@ -4873,20 +4798,20 @@
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
+      <c r="A60" s="27"/>
       <c r="B60" s="1">
         <v>1000</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="26"/>
       <c r="O60" s="22"/>
       <c r="P60" s="7">
         <v>14.007052</v>
@@ -4941,20 +4866,20 @@
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
+      <c r="A61" s="27"/>
       <c r="B61" s="1">
         <v>2000</v>
       </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="26"/>
       <c r="O61" s="22"/>
       <c r="P61" s="7">
         <v>27.958158999999998</v>
@@ -5009,20 +4934,20 @@
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
+      <c r="A62" s="27"/>
       <c r="B62" s="1">
         <v>5000</v>
       </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="26"/>
       <c r="O62" s="22"/>
       <c r="P62" s="7">
         <v>69.326909000000001</v>
@@ -5077,34 +5002,34 @@
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="27" t="s">
         <v>25</v>
       </c>
       <c r="B63" s="1">
         <v>500</v>
       </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="24">
+      <c r="C63" s="25"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="25">
         <v>0.167989635290166</v>
       </c>
-      <c r="F63" s="25" t="s">
+      <c r="F63" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G63" s="24">
+      <c r="G63" s="25">
         <v>0.25329462101632999</v>
       </c>
-      <c r="H63" s="25" t="s">
+      <c r="H63" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I63" s="23" t="s">
+      <c r="I63" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J63" s="25" t="s">
+      <c r="J63" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K63" s="26"/>
-      <c r="L63" s="25"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="26"/>
       <c r="O63" s="22"/>
       <c r="P63" s="7">
         <v>7.4597910000000001</v>
@@ -5159,20 +5084,20 @@
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
+      <c r="A64" s="27"/>
       <c r="B64" s="1">
         <v>1000</v>
       </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="26"/>
       <c r="O64" s="22"/>
       <c r="P64" s="7">
         <v>14.86237</v>
@@ -5227,20 +5152,20 @@
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
+      <c r="A65" s="27"/>
       <c r="B65" s="1">
         <v>2000</v>
       </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="26"/>
       <c r="O65" s="22"/>
       <c r="P65" s="7">
         <v>29.561377</v>
@@ -5295,20 +5220,20 @@
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
+      <c r="A66" s="27"/>
       <c r="B66" s="1">
         <v>5000</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="26"/>
       <c r="O66" s="22"/>
       <c r="P66" s="7">
         <v>73.479196999999999</v>
@@ -5364,34 +5289,34 @@
     </row>
     <row r="67" spans="1:34" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B68" s="1">
         <v>500</v>
       </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="24">
+      <c r="C68" s="25"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="25">
         <v>0.16062893658948699</v>
       </c>
-      <c r="F68" s="25" t="s">
+      <c r="F68" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G68" s="24">
+      <c r="G68" s="25">
         <v>0.121214337893307</v>
       </c>
-      <c r="H68" s="25" t="s">
+      <c r="H68" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I68" s="23" t="s">
+      <c r="I68" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J68" s="25" t="s">
+      <c r="J68" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K68" s="26"/>
-      <c r="L68" s="25"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="26"/>
       <c r="O68" s="22"/>
       <c r="P68" s="7">
         <v>2.7527020000000002</v>
@@ -5446,20 +5371,20 @@
       </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
+      <c r="A69" s="27"/>
       <c r="B69" s="1">
         <v>1000</v>
       </c>
-      <c r="C69" s="24"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="26"/>
       <c r="O69" s="22"/>
       <c r="P69" s="7">
         <v>5.4598659999999999</v>
@@ -5514,20 +5439,20 @@
       </c>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
+      <c r="A70" s="27"/>
       <c r="B70" s="1">
         <v>2000</v>
       </c>
-      <c r="C70" s="24"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="26"/>
       <c r="O70" s="22"/>
       <c r="P70" s="7">
         <v>10.888598999999999</v>
@@ -5582,20 +5507,20 @@
       </c>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
+      <c r="A71" s="27"/>
       <c r="B71" s="1">
         <v>5000</v>
       </c>
-      <c r="C71" s="24"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="26"/>
-      <c r="L71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="26"/>
       <c r="O71" s="22"/>
       <c r="P71" s="7">
         <v>27.119754</v>
@@ -5650,34 +5575,34 @@
       </c>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="27" t="s">
         <v>28</v>
       </c>
       <c r="B72" s="1">
         <v>500</v>
       </c>
-      <c r="C72" s="24"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="24">
+      <c r="C72" s="25"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="25">
         <v>1.0883629283854401E-2</v>
       </c>
-      <c r="F72" s="25" t="s">
+      <c r="F72" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G72" s="24">
+      <c r="G72" s="25">
         <v>2.6516853932584201E-2</v>
       </c>
-      <c r="H72" s="25" t="s">
+      <c r="H72" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I72" s="23" t="s">
+      <c r="I72" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J72" s="25" t="s">
+      <c r="J72" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K72" s="26"/>
-      <c r="L72" s="25"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="26"/>
       <c r="O72" s="22"/>
       <c r="P72" s="7">
         <v>3.1482399999999999</v>
@@ -5732,20 +5657,20 @@
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
+      <c r="A73" s="27"/>
       <c r="B73" s="1">
         <v>1000</v>
       </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="23"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="26"/>
-      <c r="L73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="26"/>
       <c r="O73" s="22"/>
       <c r="P73" s="7">
         <v>6.2835929999999998</v>
@@ -5800,20 +5725,20 @@
       </c>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
+      <c r="A74" s="27"/>
       <c r="B74" s="1">
         <v>2000</v>
       </c>
-      <c r="C74" s="24"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="23"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="26"/>
-      <c r="L74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="26"/>
       <c r="O74" s="22"/>
       <c r="P74" s="7">
         <v>12.554895999999999</v>
@@ -5868,20 +5793,20 @@
       </c>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
+      <c r="A75" s="27"/>
       <c r="B75" s="1">
         <v>5000</v>
       </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="26"/>
       <c r="O75" s="22"/>
       <c r="P75" s="7">
         <v>31.354782</v>
@@ -5936,34 +5861,34 @@
       </c>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="27" t="s">
         <v>29</v>
       </c>
       <c r="B76" s="1">
         <v>500</v>
       </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="24">
+      <c r="C76" s="25"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="25">
         <v>2.1265476753851299E-2</v>
       </c>
-      <c r="F76" s="25" t="s">
+      <c r="F76" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G76" s="24">
+      <c r="G76" s="25">
         <v>3.6388931451421497E-2</v>
       </c>
-      <c r="H76" s="25" t="s">
+      <c r="H76" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I76" s="23" t="s">
+      <c r="I76" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J76" s="25" t="s">
+      <c r="J76" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K76" s="26"/>
-      <c r="L76" s="25"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="26"/>
       <c r="O76" s="22"/>
       <c r="P76" s="7">
         <v>3.7235830000000001</v>
@@ -6018,20 +5943,20 @@
       </c>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
+      <c r="A77" s="27"/>
       <c r="B77" s="1">
         <v>1000</v>
       </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="23"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="26"/>
       <c r="O77" s="22"/>
       <c r="P77" s="7">
         <v>7.4339560000000002</v>
@@ -6086,20 +6011,20 @@
       </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
+      <c r="A78" s="27"/>
       <c r="B78" s="1">
         <v>2000</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="23"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="26"/>
-      <c r="L78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="26"/>
       <c r="P78" s="7">
         <v>14.859114</v>
       </c>
@@ -6153,20 +6078,20 @@
       </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
+      <c r="A79" s="27"/>
       <c r="B79" s="1">
         <v>5000</v>
       </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="25"/>
-      <c r="K79" s="26"/>
-      <c r="L79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="26"/>
       <c r="P79" s="7">
         <v>37.086013000000001</v>
       </c>
@@ -6220,34 +6145,34 @@
       </c>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="27" t="s">
         <v>30</v>
       </c>
       <c r="B80" s="1">
         <v>500</v>
       </c>
-      <c r="C80" s="24"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="24">
+      <c r="C80" s="25"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="25">
         <v>0.17058616214445499</v>
       </c>
-      <c r="F80" s="25" t="s">
+      <c r="F80" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G80" s="24">
+      <c r="G80" s="25">
         <v>0.11949852870448099</v>
       </c>
-      <c r="H80" s="25" t="s">
+      <c r="H80" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I80" s="23" t="s">
+      <c r="I80" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J80" s="25" t="s">
+      <c r="J80" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K80" s="26"/>
-      <c r="L80" s="25"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="26"/>
       <c r="P80" s="7">
         <v>3.4546389999999998</v>
       </c>
@@ -6301,20 +6226,20 @@
       </c>
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
+      <c r="A81" s="27"/>
       <c r="B81" s="1">
         <v>1000</v>
       </c>
-      <c r="C81" s="24"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="25"/>
-      <c r="K81" s="26"/>
-      <c r="L81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="26"/>
       <c r="P81" s="7">
         <v>6.9478160000000004</v>
       </c>
@@ -6368,20 +6293,20 @@
       </c>
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
+      <c r="A82" s="27"/>
       <c r="B82" s="1">
         <v>2000</v>
       </c>
-      <c r="C82" s="24"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="26"/>
-      <c r="L82" s="25"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="26"/>
       <c r="P82" s="7">
         <v>14.081699</v>
       </c>
@@ -6435,20 +6360,20 @@
       </c>
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
+      <c r="A83" s="27"/>
       <c r="B83" s="1">
         <v>5000</v>
       </c>
-      <c r="C83" s="24"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="25"/>
-      <c r="I83" s="23"/>
-      <c r="J83" s="25"/>
-      <c r="K83" s="26"/>
-      <c r="L83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="26"/>
       <c r="P83" s="7">
         <v>35.508873000000001</v>
       </c>
@@ -6502,34 +6427,34 @@
       </c>
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="27" t="s">
         <v>31</v>
       </c>
       <c r="B84" s="1">
         <v>500</v>
       </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="24">
+      <c r="C84" s="25"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="25">
         <v>0.219652082835287</v>
       </c>
-      <c r="F84" s="25" t="s">
+      <c r="F84" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G84" s="24">
+      <c r="G84" s="25">
         <v>0.145969617876444</v>
       </c>
-      <c r="H84" s="25" t="s">
+      <c r="H84" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I84" s="23" t="s">
+      <c r="I84" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J84" s="25" t="s">
+      <c r="J84" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K84" s="26"/>
-      <c r="L84" s="25"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="26"/>
       <c r="P84" s="7">
         <v>4.0850150000000003</v>
       </c>
@@ -6583,20 +6508,20 @@
       </c>
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A85" s="23"/>
+      <c r="A85" s="27"/>
       <c r="B85" s="1">
         <v>1000</v>
       </c>
-      <c r="C85" s="24"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="23"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="26"/>
-      <c r="L85" s="25"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="26"/>
       <c r="P85" s="7">
         <v>8.2311809999999994</v>
       </c>
@@ -6650,20 +6575,20 @@
       </c>
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A86" s="23"/>
+      <c r="A86" s="27"/>
       <c r="B86" s="1">
         <v>2000</v>
       </c>
-      <c r="C86" s="24"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="25"/>
-      <c r="I86" s="23"/>
-      <c r="J86" s="25"/>
-      <c r="K86" s="26"/>
-      <c r="L86" s="25"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="26"/>
       <c r="P86" s="7">
         <v>16.372955999999999</v>
       </c>
@@ -6717,20 +6642,20 @@
       </c>
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A87" s="23"/>
+      <c r="A87" s="27"/>
       <c r="B87" s="1">
         <v>5000</v>
       </c>
-      <c r="C87" s="24"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="23"/>
-      <c r="J87" s="25"/>
-      <c r="K87" s="26"/>
-      <c r="L87" s="25"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="26"/>
       <c r="P87" s="7">
         <v>41.484876999999997</v>
       </c>
@@ -6784,34 +6709,34 @@
       </c>
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="27" t="s">
         <v>26</v>
       </c>
       <c r="B88" s="1">
         <v>500</v>
       </c>
-      <c r="C88" s="24"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="24">
+      <c r="C88" s="25"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="25">
         <v>0.27256493121848202</v>
       </c>
-      <c r="F88" s="25" t="s">
+      <c r="F88" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G88" s="24">
+      <c r="G88" s="25">
         <v>0.15719859527191099</v>
       </c>
-      <c r="H88" s="25" t="s">
+      <c r="H88" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I88" s="23" t="s">
+      <c r="I88" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J88" s="25" t="s">
+      <c r="J88" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K88" s="26"/>
-      <c r="L88" s="25"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="26"/>
       <c r="P88" s="7">
         <v>4.7877510000000001</v>
       </c>
@@ -6865,20 +6790,20 @@
       </c>
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A89" s="23"/>
+      <c r="A89" s="27"/>
       <c r="B89" s="1">
         <v>1000</v>
       </c>
-      <c r="C89" s="24"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="25"/>
-      <c r="K89" s="26"/>
-      <c r="L89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="26"/>
       <c r="P89" s="7">
         <v>9.6713889999999996</v>
       </c>
@@ -6932,20 +6857,20 @@
       </c>
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A90" s="23"/>
+      <c r="A90" s="27"/>
       <c r="B90" s="1">
         <v>2000</v>
       </c>
-      <c r="C90" s="24"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="25"/>
-      <c r="I90" s="23"/>
-      <c r="J90" s="25"/>
-      <c r="K90" s="26"/>
-      <c r="L90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="26"/>
       <c r="P90" s="7">
         <v>19.316754</v>
       </c>
@@ -6999,20 +6924,20 @@
       </c>
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A91" s="23"/>
+      <c r="A91" s="27"/>
       <c r="B91" s="1">
         <v>5000</v>
       </c>
-      <c r="C91" s="24"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="25"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="25"/>
-      <c r="K91" s="26"/>
-      <c r="L91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="26"/>
       <c r="P91" s="7">
         <v>47.262852000000002</v>
       </c>
@@ -7066,34 +6991,34 @@
       </c>
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B92" s="1">
         <v>500</v>
       </c>
-      <c r="C92" s="24"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="24">
+      <c r="C92" s="25"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="25">
         <v>6.2700060480871303E-2</v>
       </c>
-      <c r="F92" s="25" t="s">
+      <c r="F92" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G92" s="24">
+      <c r="G92" s="25">
         <v>3.09751238890398E-2</v>
       </c>
-      <c r="H92" s="25" t="s">
+      <c r="H92" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I92" s="23" t="s">
+      <c r="I92" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J92" s="25" t="s">
+      <c r="J92" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K92" s="26"/>
-      <c r="L92" s="25"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="26"/>
       <c r="P92" s="7">
         <v>6.1680070000000002</v>
       </c>
@@ -7147,20 +7072,20 @@
       </c>
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A93" s="23"/>
+      <c r="A93" s="27"/>
       <c r="B93" s="1">
         <v>1000</v>
       </c>
-      <c r="C93" s="24"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="23"/>
-      <c r="J93" s="25"/>
-      <c r="K93" s="26"/>
-      <c r="L93" s="25"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="26"/>
       <c r="P93" s="7">
         <v>12.293174</v>
       </c>
@@ -7214,20 +7139,20 @@
       </c>
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A94" s="23"/>
+      <c r="A94" s="27"/>
       <c r="B94" s="1">
         <v>2000</v>
       </c>
-      <c r="C94" s="24"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="23"/>
-      <c r="J94" s="25"/>
-      <c r="K94" s="26"/>
-      <c r="L94" s="25"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="26"/>
       <c r="P94" s="7">
         <v>24.530194999999999</v>
       </c>
@@ -7281,20 +7206,20 @@
       </c>
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A95" s="23"/>
+      <c r="A95" s="27"/>
       <c r="B95" s="1">
         <v>5000</v>
       </c>
-      <c r="C95" s="24"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="25"/>
-      <c r="I95" s="23"/>
-      <c r="J95" s="25"/>
-      <c r="K95" s="26"/>
-      <c r="L95" s="25"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="27"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="26"/>
       <c r="P95" s="7">
         <v>61.224843</v>
       </c>
@@ -7348,34 +7273,34 @@
       </c>
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A96" s="23" t="s">
+      <c r="A96" s="27" t="s">
         <v>33</v>
       </c>
       <c r="B96" s="1">
         <v>500</v>
       </c>
-      <c r="C96" s="24"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="24">
+      <c r="C96" s="25"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="25">
         <v>0.21402465142211599</v>
       </c>
-      <c r="F96" s="25" t="s">
+      <c r="F96" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G96" s="24">
+      <c r="G96" s="25">
         <v>0.16071994068421799</v>
       </c>
-      <c r="H96" s="25" t="s">
+      <c r="H96" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I96" s="23" t="s">
+      <c r="I96" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J96" s="25" t="s">
+      <c r="J96" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K96" s="26"/>
-      <c r="L96" s="25"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="26"/>
       <c r="P96" s="7">
         <v>5.129162</v>
       </c>
@@ -7429,20 +7354,20 @@
       </c>
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A97" s="23"/>
+      <c r="A97" s="27"/>
       <c r="B97" s="1">
         <v>1000</v>
       </c>
-      <c r="C97" s="24"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="23"/>
-      <c r="J97" s="25"/>
-      <c r="K97" s="26"/>
-      <c r="L97" s="25"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="27"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="26"/>
       <c r="P97" s="7">
         <v>10.24381</v>
       </c>
@@ -7496,20 +7421,20 @@
       </c>
     </row>
     <row r="98" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A98" s="23"/>
+      <c r="A98" s="27"/>
       <c r="B98" s="1">
         <v>2000</v>
       </c>
-      <c r="C98" s="24"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="25"/>
-      <c r="I98" s="23"/>
-      <c r="J98" s="25"/>
-      <c r="K98" s="26"/>
-      <c r="L98" s="25"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="27"/>
+      <c r="J98" s="26"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="26"/>
       <c r="P98" s="7">
         <v>20.481614</v>
       </c>
@@ -7563,20 +7488,20 @@
       </c>
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A99" s="23"/>
+      <c r="A99" s="27"/>
       <c r="B99" s="1">
         <v>5000</v>
       </c>
-      <c r="C99" s="24"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="25"/>
-      <c r="I99" s="23"/>
-      <c r="J99" s="25"/>
-      <c r="K99" s="26"/>
-      <c r="L99" s="25"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="27"/>
+      <c r="J99" s="26"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="26"/>
       <c r="P99" s="7">
         <v>51.171509</v>
       </c>
@@ -7631,7 +7556,7 @@
     </row>
     <row r="100" spans="1:34" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="27" t="s">
         <v>47</v>
       </c>
       <c r="B101" s="18">
@@ -7685,7 +7610,7 @@
       </c>
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A102" s="23"/>
+      <c r="A102" s="27"/>
       <c r="B102" s="18">
         <v>1000</v>
       </c>
@@ -7737,7 +7662,7 @@
       </c>
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A103" s="23"/>
+      <c r="A103" s="27"/>
       <c r="B103" s="18">
         <v>2000</v>
       </c>
@@ -7789,7 +7714,7 @@
       </c>
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A104" s="23"/>
+      <c r="A104" s="27"/>
       <c r="B104" s="18">
         <v>5000</v>
       </c>
@@ -7841,7 +7766,7 @@
       </c>
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A105" s="23" t="s">
+      <c r="A105" s="27" t="s">
         <v>48</v>
       </c>
       <c r="B105" s="18">
@@ -7895,7 +7820,7 @@
       </c>
     </row>
     <row r="106" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A106" s="23"/>
+      <c r="A106" s="27"/>
       <c r="B106" s="18">
         <v>1000</v>
       </c>
@@ -7947,7 +7872,7 @@
       </c>
     </row>
     <row r="107" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A107" s="23"/>
+      <c r="A107" s="27"/>
       <c r="B107" s="18">
         <v>2000</v>
       </c>
@@ -7999,7 +7924,7 @@
       </c>
     </row>
     <row r="108" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A108" s="23"/>
+      <c r="A108" s="27"/>
       <c r="B108" s="18">
         <v>5000</v>
       </c>
@@ -8051,7 +7976,7 @@
       </c>
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A109" s="23" t="s">
+      <c r="A109" s="27" t="s">
         <v>49</v>
       </c>
       <c r="B109" s="18">
@@ -8105,7 +8030,7 @@
       </c>
     </row>
     <row r="110" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A110" s="23"/>
+      <c r="A110" s="27"/>
       <c r="B110" s="18">
         <v>1000</v>
       </c>
@@ -8157,7 +8082,7 @@
       </c>
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A111" s="23"/>
+      <c r="A111" s="27"/>
       <c r="B111" s="18">
         <v>2000</v>
       </c>
@@ -8209,7 +8134,7 @@
       </c>
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A112" s="23"/>
+      <c r="A112" s="27"/>
       <c r="B112" s="18">
         <v>5000</v>
       </c>
@@ -8375,41 +8300,41 @@
       <c r="Q147"/>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A148" s="23" t="s">
+      <c r="A148" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B148" s="23"/>
-      <c r="C148" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D148" s="23"/>
-      <c r="E148" s="23" t="s">
+      <c r="B148" s="27"/>
+      <c r="C148" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D148" s="27"/>
+      <c r="E148" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F148" s="23"/>
-      <c r="G148" s="23" t="s">
+      <c r="F148" s="27"/>
+      <c r="G148" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H148" s="23"/>
-      <c r="I148" s="23" t="s">
+      <c r="H148" s="27"/>
+      <c r="I148" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J148" s="23"/>
-      <c r="K148" s="23" t="s">
+      <c r="J148" s="27"/>
+      <c r="K148" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="L148" s="23"/>
-      <c r="M148" s="24" t="s">
+      <c r="L148" s="27"/>
+      <c r="M148" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="N148" s="24"/>
+      <c r="N148" s="25"/>
       <c r="P148" s="13"/>
       <c r="Q148"/>
       <c r="R148" s="13"/>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A149" s="23"/>
-      <c r="B149" s="23"/>
+      <c r="A149" s="27"/>
+      <c r="B149" s="27"/>
       <c r="C149" s="14" t="s">
         <v>7</v>
       </c>
@@ -8453,7 +8378,7 @@
       <c r="R149" s="14"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A150" s="23" t="s">
+      <c r="A150" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B150" s="13">
@@ -8465,18 +8390,18 @@
       <c r="F150" s="15"/>
       <c r="G150" s="14"/>
       <c r="H150" s="15"/>
-      <c r="I150" s="24">
+      <c r="I150" s="25">
         <v>0.22309999999999999</v>
       </c>
-      <c r="J150" s="25">
+      <c r="J150" s="26">
         <v>0.17599999999999999</v>
       </c>
-      <c r="K150" s="26"/>
-      <c r="L150" s="25"/>
+      <c r="K150" s="24"/>
+      <c r="L150" s="26"/>
       <c r="Q150"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A151" s="23"/>
+      <c r="A151" s="27"/>
       <c r="B151" s="13">
         <v>1000</v>
       </c>
@@ -8486,14 +8411,14 @@
       <c r="F151" s="15"/>
       <c r="G151" s="14"/>
       <c r="H151" s="15"/>
-      <c r="I151" s="24"/>
-      <c r="J151" s="25"/>
-      <c r="K151" s="26"/>
-      <c r="L151" s="25"/>
+      <c r="I151" s="25"/>
+      <c r="J151" s="26"/>
+      <c r="K151" s="24"/>
+      <c r="L151" s="26"/>
       <c r="Q151"/>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A152" s="23"/>
+      <c r="A152" s="27"/>
       <c r="B152" s="13">
         <v>2000</v>
       </c>
@@ -8503,14 +8428,14 @@
       <c r="F152" s="15"/>
       <c r="G152" s="14"/>
       <c r="H152" s="15"/>
-      <c r="I152" s="24"/>
-      <c r="J152" s="25"/>
-      <c r="K152" s="26"/>
-      <c r="L152" s="25"/>
+      <c r="I152" s="25"/>
+      <c r="J152" s="26"/>
+      <c r="K152" s="24"/>
+      <c r="L152" s="26"/>
       <c r="Q152"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A153" s="23"/>
+      <c r="A153" s="27"/>
       <c r="B153" s="13">
         <v>5000</v>
       </c>
@@ -8520,14 +8445,14 @@
       <c r="F153" s="15"/>
       <c r="G153" s="14"/>
       <c r="H153" s="15"/>
-      <c r="I153" s="24"/>
-      <c r="J153" s="25"/>
-      <c r="K153" s="26"/>
-      <c r="L153" s="25"/>
+      <c r="I153" s="25"/>
+      <c r="J153" s="26"/>
+      <c r="K153" s="24"/>
+      <c r="L153" s="26"/>
       <c r="Q153"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A154" s="23" t="s">
+      <c r="A154" s="27" t="s">
         <v>35</v>
       </c>
       <c r="B154" s="13">
@@ -8539,14 +8464,14 @@
       <c r="F154" s="15"/>
       <c r="G154" s="14"/>
       <c r="H154" s="15"/>
-      <c r="I154" s="24"/>
-      <c r="J154" s="25"/>
-      <c r="K154" s="26"/>
-      <c r="L154" s="25"/>
+      <c r="I154" s="25"/>
+      <c r="J154" s="26"/>
+      <c r="K154" s="24"/>
+      <c r="L154" s="26"/>
       <c r="Q154"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A155" s="23"/>
+      <c r="A155" s="27"/>
       <c r="B155" s="13">
         <v>1000</v>
       </c>
@@ -8556,14 +8481,14 @@
       <c r="F155" s="15"/>
       <c r="G155" s="14"/>
       <c r="H155" s="15"/>
-      <c r="I155" s="24"/>
-      <c r="J155" s="25"/>
-      <c r="K155" s="26"/>
-      <c r="L155" s="25"/>
+      <c r="I155" s="25"/>
+      <c r="J155" s="26"/>
+      <c r="K155" s="24"/>
+      <c r="L155" s="26"/>
       <c r="Q155"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A156" s="23"/>
+      <c r="A156" s="27"/>
       <c r="B156" s="13">
         <v>2000</v>
       </c>
@@ -8573,14 +8498,14 @@
       <c r="F156" s="15"/>
       <c r="G156" s="14"/>
       <c r="H156" s="15"/>
-      <c r="I156" s="24"/>
-      <c r="J156" s="25"/>
-      <c r="K156" s="26"/>
-      <c r="L156" s="25"/>
+      <c r="I156" s="25"/>
+      <c r="J156" s="26"/>
+      <c r="K156" s="24"/>
+      <c r="L156" s="26"/>
       <c r="Q156"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A157" s="23"/>
+      <c r="A157" s="27"/>
       <c r="B157" s="13">
         <v>5000</v>
       </c>
@@ -8590,14 +8515,14 @@
       <c r="F157" s="15"/>
       <c r="G157" s="14"/>
       <c r="H157" s="15"/>
-      <c r="I157" s="24"/>
-      <c r="J157" s="25"/>
-      <c r="K157" s="26"/>
-      <c r="L157" s="25"/>
+      <c r="I157" s="25"/>
+      <c r="J157" s="26"/>
+      <c r="K157" s="24"/>
+      <c r="L157" s="26"/>
       <c r="Q157"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A158" s="23" t="s">
+      <c r="A158" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B158" s="13">
@@ -8609,18 +8534,18 @@
       <c r="F158" s="15"/>
       <c r="G158" s="14"/>
       <c r="H158" s="15"/>
-      <c r="I158" s="24">
+      <c r="I158" s="25">
         <v>0.26700000000000002</v>
       </c>
-      <c r="J158" s="25">
+      <c r="J158" s="26">
         <v>0.435</v>
       </c>
-      <c r="K158" s="26"/>
-      <c r="L158" s="25"/>
+      <c r="K158" s="24"/>
+      <c r="L158" s="26"/>
       <c r="Q158"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A159" s="23"/>
+      <c r="A159" s="27"/>
       <c r="B159" s="13">
         <v>1000</v>
       </c>
@@ -8630,14 +8555,14 @@
       <c r="F159" s="15"/>
       <c r="G159" s="14"/>
       <c r="H159" s="15"/>
-      <c r="I159" s="24"/>
-      <c r="J159" s="25"/>
-      <c r="K159" s="26"/>
-      <c r="L159" s="25"/>
+      <c r="I159" s="25"/>
+      <c r="J159" s="26"/>
+      <c r="K159" s="24"/>
+      <c r="L159" s="26"/>
       <c r="Q159"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A160" s="23"/>
+      <c r="A160" s="27"/>
       <c r="B160" s="13">
         <v>2000</v>
       </c>
@@ -8647,14 +8572,14 @@
       <c r="F160" s="15"/>
       <c r="G160" s="14"/>
       <c r="H160" s="15"/>
-      <c r="I160" s="24"/>
-      <c r="J160" s="25"/>
-      <c r="K160" s="26"/>
-      <c r="L160" s="25"/>
+      <c r="I160" s="25"/>
+      <c r="J160" s="26"/>
+      <c r="K160" s="24"/>
+      <c r="L160" s="26"/>
       <c r="Q160"/>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A161" s="23"/>
+      <c r="A161" s="27"/>
       <c r="B161" s="13">
         <v>5000</v>
       </c>
@@ -8664,14 +8589,14 @@
       <c r="F161" s="15"/>
       <c r="G161" s="14"/>
       <c r="H161" s="15"/>
-      <c r="I161" s="24"/>
-      <c r="J161" s="25"/>
-      <c r="K161" s="26"/>
-      <c r="L161" s="25"/>
+      <c r="I161" s="25"/>
+      <c r="J161" s="26"/>
+      <c r="K161" s="24"/>
+      <c r="L161" s="26"/>
       <c r="Q161"/>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A162" s="23" t="s">
+      <c r="A162" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B162" s="13">
@@ -8683,14 +8608,14 @@
       <c r="F162" s="15"/>
       <c r="G162" s="14"/>
       <c r="H162" s="15"/>
-      <c r="I162" s="24"/>
-      <c r="J162" s="25"/>
-      <c r="K162" s="26"/>
-      <c r="L162" s="25"/>
+      <c r="I162" s="25"/>
+      <c r="J162" s="26"/>
+      <c r="K162" s="24"/>
+      <c r="L162" s="26"/>
       <c r="Q162"/>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A163" s="23"/>
+      <c r="A163" s="27"/>
       <c r="B163" s="13">
         <v>1000</v>
       </c>
@@ -8700,14 +8625,14 @@
       <c r="F163" s="15"/>
       <c r="G163" s="14"/>
       <c r="H163" s="15"/>
-      <c r="I163" s="24"/>
-      <c r="J163" s="25"/>
-      <c r="K163" s="26"/>
-      <c r="L163" s="25"/>
+      <c r="I163" s="25"/>
+      <c r="J163" s="26"/>
+      <c r="K163" s="24"/>
+      <c r="L163" s="26"/>
       <c r="Q163"/>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A164" s="23"/>
+      <c r="A164" s="27"/>
       <c r="B164" s="13">
         <v>2000</v>
       </c>
@@ -8717,14 +8642,14 @@
       <c r="F164" s="15"/>
       <c r="G164" s="14"/>
       <c r="H164" s="15"/>
-      <c r="I164" s="24"/>
-      <c r="J164" s="25"/>
-      <c r="K164" s="26"/>
-      <c r="L164" s="25"/>
+      <c r="I164" s="25"/>
+      <c r="J164" s="26"/>
+      <c r="K164" s="24"/>
+      <c r="L164" s="26"/>
       <c r="Q164"/>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A165" s="23"/>
+      <c r="A165" s="27"/>
       <c r="B165" s="13">
         <v>5000</v>
       </c>
@@ -8734,14 +8659,14 @@
       <c r="F165" s="15"/>
       <c r="G165" s="14"/>
       <c r="H165" s="15"/>
-      <c r="I165" s="24"/>
-      <c r="J165" s="25"/>
-      <c r="K165" s="26"/>
-      <c r="L165" s="25"/>
+      <c r="I165" s="25"/>
+      <c r="J165" s="26"/>
+      <c r="K165" s="24"/>
+      <c r="L165" s="26"/>
       <c r="Q165"/>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A166" s="23" t="s">
+      <c r="A166" s="27" t="s">
         <v>37</v>
       </c>
       <c r="B166" s="13">
@@ -8753,14 +8678,14 @@
       <c r="F166" s="15"/>
       <c r="G166" s="14"/>
       <c r="H166" s="15"/>
-      <c r="I166" s="24"/>
-      <c r="J166" s="25"/>
-      <c r="K166" s="26"/>
-      <c r="L166" s="25"/>
+      <c r="I166" s="25"/>
+      <c r="J166" s="26"/>
+      <c r="K166" s="24"/>
+      <c r="L166" s="26"/>
       <c r="Q166"/>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A167" s="23"/>
+      <c r="A167" s="27"/>
       <c r="B167" s="13">
         <v>1000</v>
       </c>
@@ -8770,14 +8695,14 @@
       <c r="F167" s="15"/>
       <c r="G167" s="14"/>
       <c r="H167" s="15"/>
-      <c r="I167" s="24"/>
-      <c r="J167" s="25"/>
-      <c r="K167" s="26"/>
-      <c r="L167" s="25"/>
+      <c r="I167" s="25"/>
+      <c r="J167" s="26"/>
+      <c r="K167" s="24"/>
+      <c r="L167" s="26"/>
       <c r="Q167"/>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A168" s="23"/>
+      <c r="A168" s="27"/>
       <c r="B168" s="13">
         <v>2000</v>
       </c>
@@ -8787,14 +8712,14 @@
       <c r="F168" s="15"/>
       <c r="G168" s="14"/>
       <c r="H168" s="15"/>
-      <c r="I168" s="24"/>
-      <c r="J168" s="25"/>
-      <c r="K168" s="26"/>
-      <c r="L168" s="25"/>
+      <c r="I168" s="25"/>
+      <c r="J168" s="26"/>
+      <c r="K168" s="24"/>
+      <c r="L168" s="26"/>
       <c r="Q168"/>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A169" s="23"/>
+      <c r="A169" s="27"/>
       <c r="B169" s="13">
         <v>5000</v>
       </c>
@@ -8804,10 +8729,10 @@
       <c r="F169" s="15"/>
       <c r="G169" s="14"/>
       <c r="H169" s="15"/>
-      <c r="I169" s="24"/>
-      <c r="J169" s="25"/>
-      <c r="K169" s="26"/>
-      <c r="L169" s="25"/>
+      <c r="I169" s="25"/>
+      <c r="J169" s="26"/>
+      <c r="K169" s="24"/>
+      <c r="L169" s="26"/>
       <c r="Q169"/>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.25">
@@ -8832,27 +8757,27 @@
       <c r="Q176"/>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A177" s="23" t="s">
+      <c r="A177" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B177" s="23"/>
-      <c r="C177" s="23" t="s">
+      <c r="B177" s="27"/>
+      <c r="C177" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D177" s="23"/>
-      <c r="E177" s="23" t="s">
+      <c r="D177" s="27"/>
+      <c r="E177" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F177" s="23"/>
-      <c r="G177" s="23" t="s">
+      <c r="F177" s="27"/>
+      <c r="G177" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H177" s="23"/>
+      <c r="H177" s="27"/>
       <c r="Q177"/>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A178" s="23"/>
-      <c r="B178" s="23"/>
+      <c r="A178" s="27"/>
+      <c r="B178" s="27"/>
       <c r="C178" s="3" t="s">
         <v>7</v>
       </c>
@@ -8874,7 +8799,7 @@
       <c r="Q178"/>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A179" s="23" t="s">
+      <c r="A179" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B179" s="13">
@@ -8883,21 +8808,21 @@
       <c r="Q179"/>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A180" s="23"/>
+      <c r="A180" s="27"/>
       <c r="B180" s="13">
         <v>1000</v>
       </c>
       <c r="Q180"/>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A181" s="23"/>
+      <c r="A181" s="27"/>
       <c r="B181" s="13">
         <v>2000</v>
       </c>
       <c r="Q181"/>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A182" s="23"/>
+      <c r="A182" s="27"/>
       <c r="B182" s="13">
         <v>5000</v>
       </c>
@@ -10330,78 +10255,209 @@
     </row>
   </sheetData>
   <mergeCells count="300">
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="K45:K48"/>
-    <mergeCell ref="K50:K53"/>
-    <mergeCell ref="K55:K58"/>
-    <mergeCell ref="K59:K62"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="K27:K30"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="K68:K71"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="H80:H83"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="H76:H79"/>
-    <mergeCell ref="G76:G79"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="G177:H177"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="F96:F99"/>
-    <mergeCell ref="G96:G99"/>
-    <mergeCell ref="H96:H99"/>
-    <mergeCell ref="E88:E91"/>
-    <mergeCell ref="F88:F91"/>
-    <mergeCell ref="G88:G91"/>
-    <mergeCell ref="H88:H91"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="G92:G95"/>
-    <mergeCell ref="H92:H95"/>
-    <mergeCell ref="H68:H71"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="I45:I48"/>
-    <mergeCell ref="J45:J48"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="G45:G48"/>
-    <mergeCell ref="H45:H48"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="I96:I99"/>
-    <mergeCell ref="J96:J99"/>
-    <mergeCell ref="J68:J71"/>
-    <mergeCell ref="I72:I75"/>
-    <mergeCell ref="J72:J75"/>
-    <mergeCell ref="I76:I79"/>
-    <mergeCell ref="J76:J79"/>
-    <mergeCell ref="I80:I83"/>
-    <mergeCell ref="J80:J83"/>
-    <mergeCell ref="J84:J87"/>
-    <mergeCell ref="I88:I91"/>
-    <mergeCell ref="J88:J91"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="L63:L66"/>
+    <mergeCell ref="L68:L71"/>
+    <mergeCell ref="L72:L75"/>
+    <mergeCell ref="L76:L79"/>
+    <mergeCell ref="L80:L83"/>
+    <mergeCell ref="L84:L87"/>
+    <mergeCell ref="L88:L91"/>
+    <mergeCell ref="L92:L95"/>
+    <mergeCell ref="L96:L99"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="L27:L30"/>
+    <mergeCell ref="L31:L34"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="L45:L48"/>
+    <mergeCell ref="L50:L53"/>
+    <mergeCell ref="L55:L58"/>
+    <mergeCell ref="L59:L62"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="K166:K169"/>
+    <mergeCell ref="I166:I169"/>
+    <mergeCell ref="J166:J169"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="A148:B149"/>
+    <mergeCell ref="L150:L153"/>
+    <mergeCell ref="L154:L157"/>
+    <mergeCell ref="L158:L161"/>
+    <mergeCell ref="L162:L165"/>
+    <mergeCell ref="L166:L169"/>
+    <mergeCell ref="A177:B178"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="K154:K157"/>
+    <mergeCell ref="I154:I157"/>
+    <mergeCell ref="J154:J157"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="K158:K161"/>
+    <mergeCell ref="I158:I161"/>
+    <mergeCell ref="J158:J161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="K162:K165"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="I162:I165"/>
+    <mergeCell ref="J162:J165"/>
+    <mergeCell ref="K148:L148"/>
+    <mergeCell ref="I148:J148"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="K150:K153"/>
+    <mergeCell ref="I150:I153"/>
+    <mergeCell ref="J150:J153"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="K88:K91"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="E68:E71"/>
+    <mergeCell ref="F68:F71"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="K92:K95"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="I92:I95"/>
+    <mergeCell ref="J92:J95"/>
+    <mergeCell ref="I55:I58"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="I59:I62"/>
+    <mergeCell ref="J59:J62"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A92:A95"/>
     <mergeCell ref="K96:K99"/>
     <mergeCell ref="D36:D39"/>
     <mergeCell ref="C40:C43"/>
@@ -10426,221 +10482,90 @@
     <mergeCell ref="I68:I71"/>
     <mergeCell ref="I84:I87"/>
     <mergeCell ref="E36:E39"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="K92:K95"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="I92:I95"/>
-    <mergeCell ref="J92:J95"/>
-    <mergeCell ref="I55:I58"/>
-    <mergeCell ref="J55:J58"/>
-    <mergeCell ref="I59:I62"/>
-    <mergeCell ref="J59:J62"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="K88:K91"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="J50:J53"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="F76:F79"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="E68:E71"/>
-    <mergeCell ref="F68:F71"/>
-    <mergeCell ref="G68:G71"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="I162:I165"/>
-    <mergeCell ref="J162:J165"/>
-    <mergeCell ref="K148:L148"/>
-    <mergeCell ref="I148:J148"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="K150:K153"/>
-    <mergeCell ref="I150:I153"/>
-    <mergeCell ref="J150:J153"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="H45:H48"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="I96:I99"/>
+    <mergeCell ref="J96:J99"/>
+    <mergeCell ref="J68:J71"/>
+    <mergeCell ref="I72:I75"/>
+    <mergeCell ref="J72:J75"/>
+    <mergeCell ref="I76:I79"/>
+    <mergeCell ref="J76:J79"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="J80:J83"/>
+    <mergeCell ref="J84:J87"/>
+    <mergeCell ref="I88:I91"/>
+    <mergeCell ref="J88:J91"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="G177:H177"/>
+    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="F96:F99"/>
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="H96:H99"/>
+    <mergeCell ref="E88:E91"/>
+    <mergeCell ref="F88:F91"/>
+    <mergeCell ref="G88:G91"/>
+    <mergeCell ref="H88:H91"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="G92:G95"/>
+    <mergeCell ref="H92:H95"/>
     <mergeCell ref="G148:H148"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="K166:K169"/>
-    <mergeCell ref="I166:I169"/>
-    <mergeCell ref="J166:J169"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="A148:B149"/>
-    <mergeCell ref="L150:L153"/>
-    <mergeCell ref="L154:L157"/>
-    <mergeCell ref="L158:L161"/>
-    <mergeCell ref="L162:L165"/>
-    <mergeCell ref="L166:L169"/>
-    <mergeCell ref="A177:B178"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="K154:K157"/>
-    <mergeCell ref="I154:I157"/>
-    <mergeCell ref="J154:J157"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="K158:K161"/>
-    <mergeCell ref="I158:I161"/>
-    <mergeCell ref="J158:J161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="K162:K165"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="L63:L66"/>
-    <mergeCell ref="L68:L71"/>
-    <mergeCell ref="L72:L75"/>
-    <mergeCell ref="L76:L79"/>
-    <mergeCell ref="L80:L83"/>
-    <mergeCell ref="L84:L87"/>
-    <mergeCell ref="L88:L91"/>
-    <mergeCell ref="L92:L95"/>
-    <mergeCell ref="L96:L99"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="L27:L30"/>
-    <mergeCell ref="L31:L34"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="L45:L48"/>
-    <mergeCell ref="L50:L53"/>
-    <mergeCell ref="L55:L58"/>
-    <mergeCell ref="L59:L62"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="K68:K71"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="H80:H83"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="H76:H79"/>
+    <mergeCell ref="G76:G79"/>
+    <mergeCell ref="H68:H71"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="I45:I48"/>
+    <mergeCell ref="J45:J48"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="K45:K48"/>
+    <mergeCell ref="K50:K53"/>
+    <mergeCell ref="K55:K58"/>
+    <mergeCell ref="K59:K62"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="K27:K30"/>
   </mergeCells>
   <conditionalFormatting sqref="Q3:Z34">
     <cfRule type="expression" priority="7">
       <formula>"B2=MIN($Q3:$Z3)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>"MAX($Q3:$Z3)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Z34 Q36:Z43 Q45:Z48 Q50:Z53 Q68:Z99 Q101:Z112 Q55:Z66">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>Q3=MIN($Q3:$Z3)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test_results/results_table.xlsx
+++ b/test_results/results_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="65">
   <si>
     <t>Greedy</t>
   </si>
@@ -165,12 +165,6 @@
     <t>ft 6x6</t>
   </si>
   <si>
-    <t>10x10</t>
-  </si>
-  <si>
-    <t>20x5</t>
-  </si>
-  <si>
     <t>10x10_128</t>
   </si>
   <si>
@@ -199,6 +193,27 @@
   </si>
   <si>
     <t>20x15_256</t>
+  </si>
+  <si>
+    <t>ft 10x10</t>
+  </si>
+  <si>
+    <t>ft 20x5</t>
+  </si>
+  <si>
+    <t>syn 10x10</t>
+  </si>
+  <si>
+    <t>syn 15x10</t>
+  </si>
+  <si>
+    <t>syn 15x15</t>
+  </si>
+  <si>
+    <t>syn 20x10</t>
+  </si>
+  <si>
+    <t>syn 20x15</t>
   </si>
 </sst>
 </file>
@@ -247,7 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -314,6 +329,9 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -692,10 +710,10 @@
   <dimension ref="A1:CF657"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ20" sqref="AJ20"/>
+      <selection pane="bottomRight" activeCell="P123" sqref="P123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,87 +759,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="25" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="25"/>
+      <c r="N1" s="26"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="T1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="U1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="V1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="W1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="X1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="Y1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="Z1" s="19" t="s">
         <v>57</v>
-      </c>
-      <c r="Y1" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z1" s="19" t="s">
-        <v>59</v>
       </c>
       <c r="AC1" s="21"/>
       <c r="AD1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AE1" s="23" t="s">
+      <c r="AG1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AH1" s="23" t="s">
         <v>52</v>
-      </c>
-      <c r="AG1" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH1" s="23" t="s">
-        <v>54</v>
       </c>
       <c r="CE1" s="8"/>
       <c r="CF1" s="8"/>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -913,38 +931,38 @@
       <c r="CF2" s="11"/>
     </row>
     <row r="3" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>500</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="26">
         <v>0.26700000000000002</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="27">
         <v>0.44700000000000001</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="26">
         <v>0.17100000000000001</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="25">
+      <c r="F3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="26">
         <v>0.153</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="26"/>
+      <c r="H3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="27"/>
       <c r="O3" s="22"/>
       <c r="P3" s="7">
         <v>3.355451</v>
@@ -1001,20 +1019,20 @@
       <c r="CF3" s="10"/>
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="1">
         <v>1000</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="27"/>
       <c r="O4" s="22"/>
       <c r="P4" s="7">
         <v>6.6267579999999997</v>
@@ -1071,20 +1089,20 @@
       <c r="CF4" s="10"/>
     </row>
     <row r="5" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="1">
         <v>2000</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="27"/>
       <c r="O5" s="22"/>
       <c r="P5" s="7">
         <v>13.110008000000001</v>
@@ -1141,20 +1159,20 @@
       <c r="CF5" s="10"/>
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="1">
         <v>5000</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="27"/>
       <c r="O6" s="22"/>
       <c r="P6" s="7">
         <v>32.676729999999999</v>
@@ -1209,38 +1227,38 @@
       </c>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>500</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="26">
         <v>0.2601</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="27">
         <v>0.624</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="26">
         <v>0.20200000000000001</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="25">
+      <c r="F7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="26">
         <v>0.19400000000000001</v>
       </c>
-      <c r="H7" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="26"/>
+      <c r="H7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="27"/>
       <c r="O7" s="22"/>
       <c r="P7" s="7">
         <v>4.002434</v>
@@ -1297,20 +1315,20 @@
       <c r="CF7" s="10"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="1">
         <v>1000</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="27"/>
       <c r="O8" s="22"/>
       <c r="P8" s="7">
         <v>7.9348150000000004</v>
@@ -1367,20 +1385,20 @@
       <c r="CF8" s="10"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="1">
         <v>2000</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="27"/>
       <c r="O9" s="22"/>
       <c r="P9" s="7">
         <v>15.800986</v>
@@ -1437,20 +1455,20 @@
       <c r="CF9" s="10"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="1">
         <v>5000</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="27"/>
       <c r="O10" s="22"/>
       <c r="P10" s="7">
         <v>39.365931000000003</v>
@@ -1505,38 +1523,38 @@
       </c>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>500</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="26">
         <v>0.30220000000000002</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="27">
         <v>0.93700000000000006</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="26">
         <v>0.22800000000000001</v>
       </c>
-      <c r="F11" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="25">
+      <c r="F11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="26">
         <v>0.17199999999999999</v>
       </c>
-      <c r="H11" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="26"/>
+      <c r="H11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="27"/>
       <c r="O11" s="22"/>
       <c r="P11" s="7">
         <v>4.9335690000000003</v>
@@ -1593,20 +1611,20 @@
       <c r="CF11" s="10"/>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="1">
         <v>1000</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="27"/>
       <c r="O12" s="22"/>
       <c r="P12" s="7">
         <v>9.7972990000000006</v>
@@ -1663,20 +1681,20 @@
       <c r="CF12" s="10"/>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="1">
         <v>2000</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="27"/>
       <c r="O13" s="22"/>
       <c r="P13" s="7">
         <v>19.567959999999999</v>
@@ -1733,20 +1751,20 @@
       <c r="CF13" s="10"/>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="1">
         <v>5000</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="27"/>
       <c r="O14" s="22"/>
       <c r="P14" s="7">
         <v>48.782482999999999</v>
@@ -1801,38 +1819,38 @@
       </c>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>500</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="26">
         <v>0.3165</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="27">
         <v>1.1140000000000001</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="26">
         <v>0.189</v>
       </c>
-      <c r="F15" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="25">
+      <c r="F15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="26">
         <v>0.18</v>
       </c>
-      <c r="H15" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="24"/>
-      <c r="L15" s="26"/>
+      <c r="H15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="25"/>
+      <c r="L15" s="27"/>
       <c r="O15" s="22"/>
       <c r="P15" s="7">
         <v>5.413564</v>
@@ -1889,20 +1907,20 @@
       <c r="CF15" s="10"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="1">
         <v>1000</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="27"/>
       <c r="O16" s="22"/>
       <c r="P16" s="7">
         <v>10.807356</v>
@@ -1959,20 +1977,20 @@
       <c r="CF16" s="10"/>
     </row>
     <row r="17" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="1">
         <v>2000</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="27"/>
       <c r="O17" s="22"/>
       <c r="P17" s="7">
         <v>21.628416999999999</v>
@@ -2029,20 +2047,20 @@
       <c r="CF17" s="10"/>
     </row>
     <row r="18" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="1">
         <v>5000</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="27"/>
       <c r="O18" s="22"/>
       <c r="P18" s="7">
         <v>53.830657000000002</v>
@@ -2097,38 +2115,38 @@
       </c>
     </row>
     <row r="19" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="1">
         <v>500</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="26">
         <v>0.33110000000000001</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="27">
         <v>1.7989999999999999</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="26">
         <v>0.254</v>
       </c>
-      <c r="F19" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="25">
+      <c r="F19" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="26">
         <v>0.187</v>
       </c>
-      <c r="H19" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="25">
+      <c r="H19" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="26">
         <v>0.13080554883214199</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="27">
         <v>600</v>
       </c>
-      <c r="K19" s="24"/>
-      <c r="L19" s="26"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="27"/>
       <c r="O19" s="22"/>
       <c r="P19" s="7">
         <v>6.7596759999999998</v>
@@ -2185,20 +2203,20 @@
       <c r="CF19" s="9"/>
     </row>
     <row r="20" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="1">
         <v>1000</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="27"/>
       <c r="O20" s="22"/>
       <c r="P20" s="7">
         <v>13.471734</v>
@@ -2255,20 +2273,20 @@
       <c r="CF20" s="9"/>
     </row>
     <row r="21" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="1">
         <v>2000</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="27"/>
       <c r="O21" s="22"/>
       <c r="P21" s="7">
         <v>26.813558</v>
@@ -2325,20 +2343,20 @@
       <c r="CF21" s="9"/>
     </row>
     <row r="22" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="1">
         <v>5000</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="27"/>
       <c r="O22" s="22"/>
       <c r="P22" s="7">
         <v>66.724900000000005</v>
@@ -2393,38 +2411,38 @@
       </c>
     </row>
     <row r="23" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="1">
         <v>500</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="26">
         <v>0.33660000000000001</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="27">
         <v>2.7</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="26">
         <v>0.159</v>
       </c>
-      <c r="F23" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="25">
+      <c r="F23" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="26">
         <v>0.13800000000000001</v>
       </c>
-      <c r="H23" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23" s="24"/>
-      <c r="L23" s="26"/>
+      <c r="H23" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="25"/>
+      <c r="L23" s="27"/>
       <c r="O23" s="22"/>
       <c r="P23" s="7">
         <v>8.6928560000000008</v>
@@ -2481,20 +2499,20 @@
       <c r="CF23" s="10"/>
     </row>
     <row r="24" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="1">
         <v>1000</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="27"/>
       <c r="O24" s="22"/>
       <c r="P24" s="7">
         <v>17.285457000000001</v>
@@ -2551,20 +2569,20 @@
       <c r="CF24" s="10"/>
     </row>
     <row r="25" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="1">
         <v>2000</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="27"/>
       <c r="O25" s="22"/>
       <c r="P25" s="7">
         <v>34.49512</v>
@@ -2621,20 +2639,20 @@
       <c r="CF25" s="10"/>
     </row>
     <row r="26" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="1">
         <v>5000</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="27"/>
       <c r="O26" s="22"/>
       <c r="P26" s="7">
         <v>85.965810000000005</v>
@@ -2689,38 +2707,38 @@
       </c>
     </row>
     <row r="27" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="28" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="1">
         <v>500</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="26">
         <v>0.22470000000000001</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="27">
         <v>4.883</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="26">
         <v>0.17399999999999999</v>
       </c>
-      <c r="F27" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="25">
+      <c r="F27" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="26">
         <v>0.13500000000000001</v>
       </c>
-      <c r="H27" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="24"/>
-      <c r="L27" s="26"/>
+      <c r="H27" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="25"/>
+      <c r="L27" s="27"/>
       <c r="O27" s="22"/>
       <c r="P27" s="7">
         <v>11.603604000000001</v>
@@ -2777,20 +2795,20 @@
       <c r="CF27" s="10"/>
     </row>
     <row r="28" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="1">
         <v>1000</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="27"/>
       <c r="O28" s="22"/>
       <c r="P28" s="7">
         <v>23.158722999999998</v>
@@ -2847,20 +2865,20 @@
       <c r="CF28" s="10"/>
     </row>
     <row r="29" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="1">
         <v>2000</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="27"/>
       <c r="O29" s="22"/>
       <c r="P29" s="7">
         <v>46.277225999999999</v>
@@ -2917,20 +2935,20 @@
       <c r="CF29" s="10"/>
     </row>
     <row r="30" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="1">
         <v>5000</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="27"/>
       <c r="O30" s="22"/>
       <c r="P30" s="7">
         <v>115.449259</v>
@@ -2986,38 +3004,38 @@
       <c r="AV30" s="8"/>
     </row>
     <row r="31" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="1">
         <v>500</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="26">
         <v>0.26550000000000001</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="27">
         <v>28.327999999999999</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="26">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F31" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="25">
+      <c r="F31" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="26">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H31" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K31" s="24"/>
-      <c r="L31" s="26"/>
+      <c r="H31" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="25"/>
+      <c r="L31" s="27"/>
       <c r="O31" s="22"/>
       <c r="P31" s="7">
         <v>32.667169999999999</v>
@@ -3074,20 +3092,20 @@
       <c r="CF31" s="10"/>
     </row>
     <row r="32" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="1">
         <v>1000</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="27"/>
       <c r="O32" s="22"/>
       <c r="P32" s="7">
         <v>65.318888000000001</v>
@@ -3144,20 +3162,20 @@
       <c r="CF32" s="10"/>
     </row>
     <row r="33" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="1">
         <v>2000</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="27"/>
       <c r="O33" s="22"/>
       <c r="P33" s="7">
         <v>130.456557</v>
@@ -3214,20 +3232,20 @@
       <c r="CF33" s="10"/>
     </row>
     <row r="34" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="1">
         <v>5000</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="27"/>
       <c r="O34" s="22"/>
       <c r="P34" s="7">
         <v>323.3809</v>
@@ -3283,34 +3301,34 @@
     </row>
     <row r="35" spans="1:84" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="1">
         <v>500</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="25">
+      <c r="C36" s="26"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="26">
         <v>0.101239449255883</v>
       </c>
-      <c r="F36" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="25">
+      <c r="F36" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="26">
         <v>6.1477473699407502E-2</v>
       </c>
-      <c r="H36" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J36" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36" s="24"/>
-      <c r="L36" s="26"/>
+      <c r="H36" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="25"/>
+      <c r="L36" s="27"/>
       <c r="O36" s="22"/>
       <c r="P36" s="7">
         <v>7.3689210000000003</v>
@@ -3365,20 +3383,20 @@
       </c>
     </row>
     <row r="37" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="1">
         <v>1000</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="27"/>
       <c r="O37" s="22"/>
       <c r="P37" s="7">
         <v>14.524684000000001</v>
@@ -3433,20 +3451,20 @@
       </c>
     </row>
     <row r="38" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="1">
         <v>2000</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="27"/>
       <c r="O38" s="22"/>
       <c r="P38" s="7">
         <v>29.065647999999999</v>
@@ -3501,20 +3519,20 @@
       </c>
     </row>
     <row r="39" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="1">
         <v>5000</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="27"/>
       <c r="O39" s="22"/>
       <c r="P39" s="7">
         <v>72.090327000000002</v>
@@ -3569,34 +3587,34 @@
       </c>
     </row>
     <row r="40" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="28" t="s">
         <v>21</v>
       </c>
       <c r="B40" s="1">
         <v>500</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="25">
+      <c r="C40" s="26"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="26">
         <v>0.29018026080021198</v>
       </c>
-      <c r="F40" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="25">
+      <c r="F40" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="26">
         <v>0.205463324203739</v>
       </c>
-      <c r="H40" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J40" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K40" s="24"/>
-      <c r="L40" s="26"/>
+      <c r="H40" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="25"/>
+      <c r="L40" s="27"/>
       <c r="O40" s="22"/>
       <c r="P40" s="7">
         <v>8.3890449999999994</v>
@@ -3651,20 +3669,20 @@
       </c>
     </row>
     <row r="41" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="1">
         <v>1000</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="27"/>
       <c r="O41" s="22"/>
       <c r="P41" s="7">
         <v>16.511437999999998</v>
@@ -3719,20 +3737,20 @@
       </c>
     </row>
     <row r="42" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="1">
         <v>2000</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="27"/>
       <c r="O42" s="22"/>
       <c r="P42" s="7">
         <v>32.639651000000001</v>
@@ -3787,20 +3805,20 @@
       </c>
     </row>
     <row r="43" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="1">
         <v>5000</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="27"/>
       <c r="O43" s="22"/>
       <c r="P43" s="7">
         <v>81.209215999999998</v>
@@ -3856,34 +3874,34 @@
     </row>
     <row r="44" spans="1:84" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="28" t="s">
         <v>34</v>
       </c>
       <c r="B45" s="1">
         <v>500</v>
       </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="25">
+      <c r="C45" s="26"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="26">
         <v>0.21826059724466901</v>
       </c>
-      <c r="F45" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="25">
+      <c r="F45" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="26">
         <v>0.199782125806655</v>
       </c>
-      <c r="H45" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J45" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K45" s="24"/>
-      <c r="L45" s="26"/>
+      <c r="H45" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="25"/>
+      <c r="L45" s="27"/>
       <c r="O45" s="22"/>
       <c r="P45" s="7">
         <v>2.2728280000000001</v>
@@ -3938,20 +3956,20 @@
       </c>
     </row>
     <row r="46" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="1">
         <v>1000</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="27"/>
       <c r="O46" s="22"/>
       <c r="P46" s="7">
         <v>4.5111670000000004</v>
@@ -4006,20 +4024,20 @@
       </c>
     </row>
     <row r="47" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="1">
         <v>2000</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="27"/>
       <c r="O47" s="22"/>
       <c r="P47" s="7">
         <v>8.9939009999999993</v>
@@ -4074,20 +4092,20 @@
       </c>
     </row>
     <row r="48" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="1">
         <v>5000</v>
       </c>
-      <c r="C48" s="25"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="27"/>
       <c r="O48" s="22"/>
       <c r="P48" s="7">
         <v>22.490936999999999</v>
@@ -4143,34 +4161,34 @@
     </row>
     <row r="49" spans="1:34" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="28" t="s">
         <v>22</v>
       </c>
       <c r="B50" s="1">
         <v>500</v>
       </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="25">
+      <c r="C50" s="26"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="26">
         <v>0.24797844874295</v>
       </c>
-      <c r="F50" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="25">
+      <c r="F50" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="26">
         <v>0.18443317167635301</v>
       </c>
-      <c r="H50" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J50" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K50" s="24"/>
-      <c r="L50" s="26"/>
+      <c r="H50" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J50" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" s="25"/>
+      <c r="L50" s="27"/>
       <c r="O50" s="22"/>
       <c r="P50" s="7">
         <v>8.1978240000000007</v>
@@ -4225,20 +4243,20 @@
       </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="1">
         <v>1000</v>
       </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="27"/>
       <c r="O51" s="22"/>
       <c r="P51" s="7">
         <v>16.520105999999998</v>
@@ -4293,20 +4311,20 @@
       </c>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="1">
         <v>2000</v>
       </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="27"/>
       <c r="O52" s="22"/>
       <c r="P52" s="7">
         <v>32.814861000000001</v>
@@ -4361,20 +4379,20 @@
       </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="1">
         <v>5000</v>
       </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="27"/>
       <c r="O53" s="22"/>
       <c r="P53" s="7">
         <v>80.115144999999998</v>
@@ -4430,34 +4448,34 @@
     </row>
     <row r="54" spans="1:34" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="28" t="s">
         <v>23</v>
       </c>
       <c r="B55" s="1">
         <v>500</v>
       </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="25">
+      <c r="C55" s="26"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="26">
         <v>0.28420023201354799</v>
       </c>
-      <c r="F55" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="25">
+      <c r="F55" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="26">
         <v>0.34385002851765301</v>
       </c>
-      <c r="H55" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I55" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J55" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K55" s="24"/>
-      <c r="L55" s="26"/>
+      <c r="H55" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I55" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="25"/>
+      <c r="L55" s="27"/>
       <c r="O55" s="22"/>
       <c r="P55" s="7">
         <v>5.8302040000000002</v>
@@ -4512,20 +4530,20 @@
       </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
+      <c r="A56" s="28"/>
       <c r="B56" s="1">
         <v>1000</v>
       </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="27"/>
       <c r="O56" s="22"/>
       <c r="P56" s="7">
         <v>11.555717</v>
@@ -4580,20 +4598,20 @@
       </c>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
+      <c r="A57" s="28"/>
       <c r="B57" s="1">
         <v>2000</v>
       </c>
-      <c r="C57" s="25"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="27"/>
       <c r="O57" s="22"/>
       <c r="P57" s="7">
         <v>23.124298</v>
@@ -4648,20 +4666,20 @@
       </c>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
+      <c r="A58" s="28"/>
       <c r="B58" s="1">
         <v>5000</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="27"/>
       <c r="O58" s="22"/>
       <c r="P58" s="7">
         <v>58.029696999999999</v>
@@ -4716,34 +4734,34 @@
       </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="28" t="s">
         <v>24</v>
       </c>
       <c r="B59" s="1">
         <v>500</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="25">
+      <c r="C59" s="26"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="26">
         <v>0.29386831802036401</v>
       </c>
-      <c r="F59" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="25">
+      <c r="F59" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="26">
         <v>0.30511472915739701</v>
       </c>
-      <c r="H59" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I59" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J59" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K59" s="24"/>
-      <c r="L59" s="26"/>
+      <c r="H59" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J59" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" s="25"/>
+      <c r="L59" s="27"/>
       <c r="O59" s="22"/>
       <c r="P59" s="7">
         <v>7.0910570000000002</v>
@@ -4798,20 +4816,20 @@
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="1">
         <v>1000</v>
       </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="27"/>
       <c r="O60" s="22"/>
       <c r="P60" s="7">
         <v>14.007052</v>
@@ -4866,20 +4884,20 @@
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
+      <c r="A61" s="28"/>
       <c r="B61" s="1">
         <v>2000</v>
       </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="27"/>
       <c r="O61" s="22"/>
       <c r="P61" s="7">
         <v>27.958158999999998</v>
@@ -4934,20 +4952,20 @@
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
+      <c r="A62" s="28"/>
       <c r="B62" s="1">
         <v>5000</v>
       </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="27"/>
       <c r="O62" s="22"/>
       <c r="P62" s="7">
         <v>69.326909000000001</v>
@@ -5002,34 +5020,34 @@
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="28" t="s">
         <v>25</v>
       </c>
       <c r="B63" s="1">
         <v>500</v>
       </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="25">
+      <c r="C63" s="26"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="26">
         <v>0.167989635290166</v>
       </c>
-      <c r="F63" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="25">
+      <c r="F63" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="26">
         <v>0.25329462101632999</v>
       </c>
-      <c r="H63" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I63" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J63" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K63" s="24"/>
-      <c r="L63" s="26"/>
+      <c r="H63" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="25"/>
+      <c r="L63" s="27"/>
       <c r="O63" s="22"/>
       <c r="P63" s="7">
         <v>7.4597910000000001</v>
@@ -5084,20 +5102,20 @@
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
+      <c r="A64" s="28"/>
       <c r="B64" s="1">
         <v>1000</v>
       </c>
-      <c r="C64" s="25"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="27"/>
       <c r="O64" s="22"/>
       <c r="P64" s="7">
         <v>14.86237</v>
@@ -5152,20 +5170,20 @@
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
+      <c r="A65" s="28"/>
       <c r="B65" s="1">
         <v>2000</v>
       </c>
-      <c r="C65" s="25"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="27"/>
       <c r="O65" s="22"/>
       <c r="P65" s="7">
         <v>29.561377</v>
@@ -5220,20 +5238,20 @@
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A66" s="27"/>
+      <c r="A66" s="28"/>
       <c r="B66" s="1">
         <v>5000</v>
       </c>
-      <c r="C66" s="25"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="27"/>
       <c r="O66" s="22"/>
       <c r="P66" s="7">
         <v>73.479196999999999</v>
@@ -5289,34 +5307,34 @@
     </row>
     <row r="67" spans="1:34" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="28" t="s">
         <v>27</v>
       </c>
       <c r="B68" s="1">
         <v>500</v>
       </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="25">
+      <c r="C68" s="26"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="26">
         <v>0.16062893658948699</v>
       </c>
-      <c r="F68" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="25">
+      <c r="F68" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="26">
         <v>0.121214337893307</v>
       </c>
-      <c r="H68" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I68" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J68" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K68" s="24"/>
-      <c r="L68" s="26"/>
+      <c r="H68" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J68" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K68" s="25"/>
+      <c r="L68" s="27"/>
       <c r="O68" s="22"/>
       <c r="P68" s="7">
         <v>2.7527020000000002</v>
@@ -5371,20 +5389,20 @@
       </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A69" s="27"/>
+      <c r="A69" s="28"/>
       <c r="B69" s="1">
         <v>1000</v>
       </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="27"/>
       <c r="O69" s="22"/>
       <c r="P69" s="7">
         <v>5.4598659999999999</v>
@@ -5439,20 +5457,20 @@
       </c>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A70" s="27"/>
+      <c r="A70" s="28"/>
       <c r="B70" s="1">
         <v>2000</v>
       </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="27"/>
       <c r="O70" s="22"/>
       <c r="P70" s="7">
         <v>10.888598999999999</v>
@@ -5507,20 +5525,20 @@
       </c>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A71" s="27"/>
+      <c r="A71" s="28"/>
       <c r="B71" s="1">
         <v>5000</v>
       </c>
-      <c r="C71" s="25"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="27"/>
       <c r="O71" s="22"/>
       <c r="P71" s="7">
         <v>27.119754</v>
@@ -5575,34 +5593,34 @@
       </c>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B72" s="1">
         <v>500</v>
       </c>
-      <c r="C72" s="25"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="25">
+      <c r="C72" s="26"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="26">
         <v>1.0883629283854401E-2</v>
       </c>
-      <c r="F72" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" s="25">
+      <c r="F72" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="26">
         <v>2.6516853932584201E-2</v>
       </c>
-      <c r="H72" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I72" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J72" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K72" s="24"/>
-      <c r="L72" s="26"/>
+      <c r="H72" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J72" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72" s="25"/>
+      <c r="L72" s="27"/>
       <c r="O72" s="22"/>
       <c r="P72" s="7">
         <v>3.1482399999999999</v>
@@ -5657,20 +5675,20 @@
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A73" s="27"/>
+      <c r="A73" s="28"/>
       <c r="B73" s="1">
         <v>1000</v>
       </c>
-      <c r="C73" s="25"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="27"/>
       <c r="O73" s="22"/>
       <c r="P73" s="7">
         <v>6.2835929999999998</v>
@@ -5725,20 +5743,20 @@
       </c>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A74" s="27"/>
+      <c r="A74" s="28"/>
       <c r="B74" s="1">
         <v>2000</v>
       </c>
-      <c r="C74" s="25"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="27"/>
       <c r="O74" s="22"/>
       <c r="P74" s="7">
         <v>12.554895999999999</v>
@@ -5793,20 +5811,20 @@
       </c>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A75" s="27"/>
+      <c r="A75" s="28"/>
       <c r="B75" s="1">
         <v>5000</v>
       </c>
-      <c r="C75" s="25"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="27"/>
       <c r="O75" s="22"/>
       <c r="P75" s="7">
         <v>31.354782</v>
@@ -5861,34 +5879,34 @@
       </c>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B76" s="1">
         <v>500</v>
       </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="25">
+      <c r="C76" s="26"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="26">
         <v>2.1265476753851299E-2</v>
       </c>
-      <c r="F76" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" s="25">
+      <c r="F76" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="26">
         <v>3.6388931451421497E-2</v>
       </c>
-      <c r="H76" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I76" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J76" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K76" s="24"/>
-      <c r="L76" s="26"/>
+      <c r="H76" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J76" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76" s="25"/>
+      <c r="L76" s="27"/>
       <c r="O76" s="22"/>
       <c r="P76" s="7">
         <v>3.7235830000000001</v>
@@ -5943,20 +5961,20 @@
       </c>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A77" s="27"/>
+      <c r="A77" s="28"/>
       <c r="B77" s="1">
         <v>1000</v>
       </c>
-      <c r="C77" s="25"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="27"/>
       <c r="O77" s="22"/>
       <c r="P77" s="7">
         <v>7.4339560000000002</v>
@@ -6011,20 +6029,20 @@
       </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A78" s="27"/>
+      <c r="A78" s="28"/>
       <c r="B78" s="1">
         <v>2000</v>
       </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="27"/>
       <c r="P78" s="7">
         <v>14.859114</v>
       </c>
@@ -6078,20 +6096,20 @@
       </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
+      <c r="A79" s="28"/>
       <c r="B79" s="1">
         <v>5000</v>
       </c>
-      <c r="C79" s="25"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="27"/>
       <c r="P79" s="7">
         <v>37.086013000000001</v>
       </c>
@@ -6145,34 +6163,34 @@
       </c>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A80" s="27" t="s">
+      <c r="A80" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B80" s="1">
         <v>500</v>
       </c>
-      <c r="C80" s="25"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="25">
+      <c r="C80" s="26"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="26">
         <v>0.17058616214445499</v>
       </c>
-      <c r="F80" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80" s="25">
+      <c r="F80" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="26">
         <v>0.11949852870448099</v>
       </c>
-      <c r="H80" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I80" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J80" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K80" s="24"/>
-      <c r="L80" s="26"/>
+      <c r="H80" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I80" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J80" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K80" s="25"/>
+      <c r="L80" s="27"/>
       <c r="P80" s="7">
         <v>3.4546389999999998</v>
       </c>
@@ -6226,20 +6244,20 @@
       </c>
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A81" s="27"/>
+      <c r="A81" s="28"/>
       <c r="B81" s="1">
         <v>1000</v>
       </c>
-      <c r="C81" s="25"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="26"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="27"/>
       <c r="P81" s="7">
         <v>6.9478160000000004</v>
       </c>
@@ -6293,20 +6311,20 @@
       </c>
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A82" s="27"/>
+      <c r="A82" s="28"/>
       <c r="B82" s="1">
         <v>2000</v>
       </c>
-      <c r="C82" s="25"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="27"/>
       <c r="P82" s="7">
         <v>14.081699</v>
       </c>
@@ -6360,20 +6378,20 @@
       </c>
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A83" s="27"/>
+      <c r="A83" s="28"/>
       <c r="B83" s="1">
         <v>5000</v>
       </c>
-      <c r="C83" s="25"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="27"/>
       <c r="P83" s="7">
         <v>35.508873000000001</v>
       </c>
@@ -6427,34 +6445,34 @@
       </c>
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A84" s="27" t="s">
+      <c r="A84" s="28" t="s">
         <v>31</v>
       </c>
       <c r="B84" s="1">
         <v>500</v>
       </c>
-      <c r="C84" s="25"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="25">
+      <c r="C84" s="26"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="26">
         <v>0.219652082835287</v>
       </c>
-      <c r="F84" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84" s="25">
+      <c r="F84" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="26">
         <v>0.145969617876444</v>
       </c>
-      <c r="H84" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I84" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J84" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K84" s="24"/>
-      <c r="L84" s="26"/>
+      <c r="H84" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I84" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J84" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K84" s="25"/>
+      <c r="L84" s="27"/>
       <c r="P84" s="7">
         <v>4.0850150000000003</v>
       </c>
@@ -6508,20 +6526,20 @@
       </c>
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A85" s="27"/>
+      <c r="A85" s="28"/>
       <c r="B85" s="1">
         <v>1000</v>
       </c>
-      <c r="C85" s="25"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="26"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="27"/>
       <c r="P85" s="7">
         <v>8.2311809999999994</v>
       </c>
@@ -6575,20 +6593,20 @@
       </c>
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A86" s="27"/>
+      <c r="A86" s="28"/>
       <c r="B86" s="1">
         <v>2000</v>
       </c>
-      <c r="C86" s="25"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="26"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="26"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="26"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="27"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="27"/>
       <c r="P86" s="7">
         <v>16.372955999999999</v>
       </c>
@@ -6642,20 +6660,20 @@
       </c>
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A87" s="27"/>
+      <c r="A87" s="28"/>
       <c r="B87" s="1">
         <v>5000</v>
       </c>
-      <c r="C87" s="25"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="26"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="27"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="27"/>
       <c r="P87" s="7">
         <v>41.484876999999997</v>
       </c>
@@ -6709,34 +6727,34 @@
       </c>
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A88" s="27" t="s">
+      <c r="A88" s="28" t="s">
         <v>26</v>
       </c>
       <c r="B88" s="1">
         <v>500</v>
       </c>
-      <c r="C88" s="25"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="25">
+      <c r="C88" s="26"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="26">
         <v>0.27256493121848202</v>
       </c>
-      <c r="F88" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G88" s="25">
+      <c r="F88" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="26">
         <v>0.15719859527191099</v>
       </c>
-      <c r="H88" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I88" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J88" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K88" s="24"/>
-      <c r="L88" s="26"/>
+      <c r="H88" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I88" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J88" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K88" s="25"/>
+      <c r="L88" s="27"/>
       <c r="P88" s="7">
         <v>4.7877510000000001</v>
       </c>
@@ -6790,20 +6808,20 @@
       </c>
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A89" s="27"/>
+      <c r="A89" s="28"/>
       <c r="B89" s="1">
         <v>1000</v>
       </c>
-      <c r="C89" s="25"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="26"/>
-      <c r="K89" s="24"/>
-      <c r="L89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="27"/>
+      <c r="K89" s="25"/>
+      <c r="L89" s="27"/>
       <c r="P89" s="7">
         <v>9.6713889999999996</v>
       </c>
@@ -6857,20 +6875,20 @@
       </c>
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A90" s="27"/>
+      <c r="A90" s="28"/>
       <c r="B90" s="1">
         <v>2000</v>
       </c>
-      <c r="C90" s="25"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="26"/>
-      <c r="K90" s="24"/>
-      <c r="L90" s="26"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="28"/>
+      <c r="J90" s="27"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="27"/>
       <c r="P90" s="7">
         <v>19.316754</v>
       </c>
@@ -6924,20 +6942,20 @@
       </c>
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A91" s="27"/>
+      <c r="A91" s="28"/>
       <c r="B91" s="1">
         <v>5000</v>
       </c>
-      <c r="C91" s="25"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="26"/>
-      <c r="K91" s="24"/>
-      <c r="L91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="27"/>
       <c r="P91" s="7">
         <v>47.262852000000002</v>
       </c>
@@ -6991,34 +7009,34 @@
       </c>
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A92" s="27" t="s">
+      <c r="A92" s="28" t="s">
         <v>32</v>
       </c>
       <c r="B92" s="1">
         <v>500</v>
       </c>
-      <c r="C92" s="25"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="25">
+      <c r="C92" s="26"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="26">
         <v>6.2700060480871303E-2</v>
       </c>
-      <c r="F92" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92" s="25">
+      <c r="F92" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="26">
         <v>3.09751238890398E-2</v>
       </c>
-      <c r="H92" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I92" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J92" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K92" s="24"/>
-      <c r="L92" s="26"/>
+      <c r="H92" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I92" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J92" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K92" s="25"/>
+      <c r="L92" s="27"/>
       <c r="P92" s="7">
         <v>6.1680070000000002</v>
       </c>
@@ -7072,20 +7090,20 @@
       </c>
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A93" s="27"/>
+      <c r="A93" s="28"/>
       <c r="B93" s="1">
         <v>1000</v>
       </c>
-      <c r="C93" s="25"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="26"/>
-      <c r="K93" s="24"/>
-      <c r="L93" s="26"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="27"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="27"/>
       <c r="P93" s="7">
         <v>12.293174</v>
       </c>
@@ -7139,20 +7157,20 @@
       </c>
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A94" s="27"/>
+      <c r="A94" s="28"/>
       <c r="B94" s="1">
         <v>2000</v>
       </c>
-      <c r="C94" s="25"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="26"/>
-      <c r="I94" s="27"/>
-      <c r="J94" s="26"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="26"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="27"/>
+      <c r="K94" s="25"/>
+      <c r="L94" s="27"/>
       <c r="P94" s="7">
         <v>24.530194999999999</v>
       </c>
@@ -7206,20 +7224,20 @@
       </c>
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A95" s="27"/>
+      <c r="A95" s="28"/>
       <c r="B95" s="1">
         <v>5000</v>
       </c>
-      <c r="C95" s="25"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="25"/>
-      <c r="H95" s="26"/>
-      <c r="I95" s="27"/>
-      <c r="J95" s="26"/>
-      <c r="K95" s="24"/>
-      <c r="L95" s="26"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="27"/>
+      <c r="K95" s="25"/>
+      <c r="L95" s="27"/>
       <c r="P95" s="7">
         <v>61.224843</v>
       </c>
@@ -7273,34 +7291,34 @@
       </c>
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A96" s="27" t="s">
+      <c r="A96" s="28" t="s">
         <v>33</v>
       </c>
       <c r="B96" s="1">
         <v>500</v>
       </c>
-      <c r="C96" s="25"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="25">
+      <c r="C96" s="26"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="26">
         <v>0.21402465142211599</v>
       </c>
-      <c r="F96" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G96" s="25">
+      <c r="F96" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" s="26">
         <v>0.16071994068421799</v>
       </c>
-      <c r="H96" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I96" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J96" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K96" s="24"/>
-      <c r="L96" s="26"/>
+      <c r="H96" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I96" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J96" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K96" s="25"/>
+      <c r="L96" s="27"/>
       <c r="P96" s="7">
         <v>5.129162</v>
       </c>
@@ -7354,20 +7372,20 @@
       </c>
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A97" s="27"/>
+      <c r="A97" s="28"/>
       <c r="B97" s="1">
         <v>1000</v>
       </c>
-      <c r="C97" s="25"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="26"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="26"/>
-      <c r="K97" s="24"/>
-      <c r="L97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="28"/>
+      <c r="J97" s="27"/>
+      <c r="K97" s="25"/>
+      <c r="L97" s="27"/>
       <c r="P97" s="7">
         <v>10.24381</v>
       </c>
@@ -7421,20 +7439,20 @@
       </c>
     </row>
     <row r="98" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A98" s="27"/>
+      <c r="A98" s="28"/>
       <c r="B98" s="1">
         <v>2000</v>
       </c>
-      <c r="C98" s="25"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="26"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="26"/>
-      <c r="I98" s="27"/>
-      <c r="J98" s="26"/>
-      <c r="K98" s="24"/>
-      <c r="L98" s="26"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="27"/>
+      <c r="K98" s="25"/>
+      <c r="L98" s="27"/>
       <c r="P98" s="7">
         <v>20.481614</v>
       </c>
@@ -7488,20 +7506,20 @@
       </c>
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A99" s="27"/>
+      <c r="A99" s="28"/>
       <c r="B99" s="1">
         <v>5000</v>
       </c>
-      <c r="C99" s="25"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="26"/>
-      <c r="K99" s="24"/>
-      <c r="L99" s="26"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="27"/>
+      <c r="K99" s="25"/>
+      <c r="L99" s="27"/>
       <c r="P99" s="7">
         <v>51.171509</v>
       </c>
@@ -7556,12 +7574,30 @@
     </row>
     <row r="100" spans="1:34" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="28" t="s">
         <v>47</v>
       </c>
       <c r="B101" s="18">
         <v>500</v>
       </c>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="26"/>
+      <c r="H101" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I101" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J101" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K101" s="25"/>
+      <c r="L101" s="27"/>
       <c r="Q101" s="19">
         <v>3.6363636363636362E-2</v>
       </c>
@@ -7610,10 +7646,20 @@
       </c>
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A102" s="27"/>
+      <c r="A102" s="28"/>
       <c r="B102" s="18">
         <v>1000</v>
       </c>
+      <c r="C102" s="26"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="27"/>
+      <c r="K102" s="25"/>
+      <c r="L102" s="27"/>
       <c r="Q102" s="19">
         <v>0</v>
       </c>
@@ -7662,10 +7708,20 @@
       </c>
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A103" s="27"/>
+      <c r="A103" s="28"/>
       <c r="B103" s="18">
         <v>2000</v>
       </c>
+      <c r="C103" s="26"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="28"/>
+      <c r="J103" s="27"/>
+      <c r="K103" s="25"/>
+      <c r="L103" s="27"/>
       <c r="Q103" s="19">
         <v>0</v>
       </c>
@@ -7714,10 +7770,20 @@
       </c>
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A104" s="27"/>
+      <c r="A104" s="28"/>
       <c r="B104" s="18">
         <v>5000</v>
       </c>
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="28"/>
+      <c r="J104" s="27"/>
+      <c r="K104" s="25"/>
+      <c r="L104" s="27"/>
       <c r="Q104" s="19">
         <v>0</v>
       </c>
@@ -7766,12 +7832,30 @@
       </c>
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A105" s="27" t="s">
-        <v>48</v>
+      <c r="A105" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="B105" s="18">
         <v>500</v>
       </c>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="26"/>
+      <c r="H105" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I105" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J105" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K105" s="25"/>
+      <c r="L105" s="27"/>
       <c r="Q105" s="19">
         <v>9.8924731182795697E-2</v>
       </c>
@@ -7820,10 +7904,20 @@
       </c>
     </row>
     <row r="106" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A106" s="27"/>
+      <c r="A106" s="28"/>
       <c r="B106" s="18">
         <v>1000</v>
       </c>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="28"/>
+      <c r="J106" s="27"/>
+      <c r="K106" s="25"/>
+      <c r="L106" s="27"/>
       <c r="Q106" s="19">
         <v>7.9569892473118284E-2</v>
       </c>
@@ -7872,10 +7966,20 @@
       </c>
     </row>
     <row r="107" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A107" s="27"/>
+      <c r="A107" s="28"/>
       <c r="B107" s="18">
         <v>2000</v>
       </c>
+      <c r="C107" s="26"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="27"/>
+      <c r="K107" s="25"/>
+      <c r="L107" s="27"/>
       <c r="Q107" s="19">
         <v>5.6989247311827959E-2</v>
       </c>
@@ -7924,10 +8028,20 @@
       </c>
     </row>
     <row r="108" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A108" s="27"/>
+      <c r="A108" s="28"/>
       <c r="B108" s="18">
         <v>5000</v>
       </c>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="28"/>
+      <c r="J108" s="27"/>
+      <c r="K108" s="25"/>
+      <c r="L108" s="27"/>
       <c r="Q108" s="19">
         <v>5.6989247311827959E-2</v>
       </c>
@@ -7976,12 +8090,30 @@
       </c>
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A109" s="27" t="s">
-        <v>49</v>
+      <c r="A109" s="28" t="s">
+        <v>59</v>
       </c>
       <c r="B109" s="18">
         <v>500</v>
       </c>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" s="26"/>
+      <c r="H109" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I109" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J109" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K109" s="25"/>
+      <c r="L109" s="27"/>
       <c r="Q109" s="19">
         <v>6.9527896995708161E-2</v>
       </c>
@@ -8030,10 +8162,20 @@
       </c>
     </row>
     <row r="110" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A110" s="27"/>
+      <c r="A110" s="28"/>
       <c r="B110" s="18">
         <v>1000</v>
       </c>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="28"/>
+      <c r="J110" s="27"/>
+      <c r="K110" s="25"/>
+      <c r="L110" s="27"/>
       <c r="Q110" s="19">
         <v>6.9527896995708161E-2</v>
       </c>
@@ -8082,10 +8224,20 @@
       </c>
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A111" s="27"/>
+      <c r="A111" s="28"/>
       <c r="B111" s="18">
         <v>2000</v>
       </c>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="28"/>
+      <c r="J111" s="27"/>
+      <c r="K111" s="25"/>
+      <c r="L111" s="27"/>
       <c r="Q111" s="19">
         <v>4.2060085836909872E-2</v>
       </c>
@@ -8134,10 +8286,20 @@
       </c>
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A112" s="27"/>
+      <c r="A112" s="28"/>
       <c r="B112" s="18">
         <v>5000</v>
       </c>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="26"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="28"/>
+      <c r="J112" s="27"/>
+      <c r="K112" s="25"/>
+      <c r="L112" s="27"/>
       <c r="Q112" s="19">
         <v>3.8626609442060089E-2</v>
       </c>
@@ -8185,7 +8347,7 @@
         <v>2.918454935622318E-2</v>
       </c>
     </row>
-    <row r="113" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Q113" s="22"/>
       <c r="R113" s="22"/>
       <c r="S113"/>
@@ -8197,97 +8359,447 @@
       <c r="Y113" s="19"/>
       <c r="Z113" s="21"/>
     </row>
-    <row r="114" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A114" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B114" s="24">
+        <v>500</v>
+      </c>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H114" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I114" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J114" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K114" s="25"/>
+      <c r="L114" s="27"/>
       <c r="Q114"/>
     </row>
-    <row r="115" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A115" s="28"/>
+      <c r="B115" s="24">
+        <v>1000</v>
+      </c>
+      <c r="C115" s="26"/>
+      <c r="D115" s="26"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="27"/>
+      <c r="J115" s="27"/>
+      <c r="K115" s="25"/>
+      <c r="L115" s="27"/>
       <c r="Q115"/>
     </row>
-    <row r="116" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A116" s="28"/>
+      <c r="B116" s="24">
+        <v>2000</v>
+      </c>
+      <c r="C116" s="26"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="27"/>
+      <c r="I116" s="27"/>
+      <c r="J116" s="27"/>
+      <c r="K116" s="25"/>
+      <c r="L116" s="27"/>
       <c r="Q116"/>
     </row>
-    <row r="117" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A117" s="28"/>
+      <c r="B117" s="24">
+        <v>5000</v>
+      </c>
+      <c r="C117" s="26"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="27"/>
+      <c r="J117" s="27"/>
+      <c r="K117" s="25"/>
+      <c r="L117" s="27"/>
       <c r="Q117"/>
     </row>
-    <row r="118" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A118" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B118" s="24">
+        <v>500</v>
+      </c>
+      <c r="C118" s="26"/>
+      <c r="D118" s="26"/>
+      <c r="E118" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H118" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I118" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J118" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K118" s="25"/>
+      <c r="L118" s="27"/>
       <c r="Q118"/>
     </row>
-    <row r="119" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A119" s="28"/>
+      <c r="B119" s="24">
+        <v>1000</v>
+      </c>
+      <c r="C119" s="26"/>
+      <c r="D119" s="26"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="27"/>
+      <c r="K119" s="25"/>
+      <c r="L119" s="27"/>
       <c r="Q119"/>
     </row>
-    <row r="120" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A120" s="28"/>
+      <c r="B120" s="24">
+        <v>2000</v>
+      </c>
+      <c r="C120" s="26"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="27"/>
+      <c r="G120" s="27"/>
+      <c r="H120" s="27"/>
+      <c r="I120" s="27"/>
+      <c r="J120" s="27"/>
+      <c r="K120" s="25"/>
+      <c r="L120" s="27"/>
       <c r="Q120"/>
     </row>
-    <row r="121" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A121" s="28"/>
+      <c r="B121" s="24">
+        <v>5000</v>
+      </c>
+      <c r="C121" s="26"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="27"/>
+      <c r="I121" s="27"/>
+      <c r="J121" s="27"/>
+      <c r="K121" s="25"/>
+      <c r="L121" s="27"/>
       <c r="Q121"/>
     </row>
-    <row r="122" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A122" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B122" s="24">
+        <v>500</v>
+      </c>
+      <c r="C122" s="26"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H122" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I122" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J122" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K122" s="25"/>
+      <c r="L122" s="27"/>
       <c r="Q122"/>
     </row>
-    <row r="123" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A123" s="28"/>
+      <c r="B123" s="24">
+        <v>1000</v>
+      </c>
+      <c r="C123" s="26"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="27"/>
+      <c r="J123" s="27"/>
+      <c r="K123" s="25"/>
+      <c r="L123" s="27"/>
       <c r="Q123"/>
     </row>
-    <row r="124" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A124" s="28"/>
+      <c r="B124" s="24">
+        <v>2000</v>
+      </c>
+      <c r="C124" s="26"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="27"/>
+      <c r="H124" s="27"/>
+      <c r="I124" s="27"/>
+      <c r="J124" s="27"/>
+      <c r="K124" s="25"/>
+      <c r="L124" s="27"/>
       <c r="Q124"/>
     </row>
-    <row r="125" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A125" s="28"/>
+      <c r="B125" s="24">
+        <v>5000</v>
+      </c>
+      <c r="C125" s="26"/>
+      <c r="D125" s="26"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="27"/>
+      <c r="H125" s="27"/>
+      <c r="I125" s="27"/>
+      <c r="J125" s="27"/>
+      <c r="K125" s="25"/>
+      <c r="L125" s="27"/>
       <c r="Q125"/>
     </row>
-    <row r="126" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A126" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B126" s="24">
+        <v>500</v>
+      </c>
+      <c r="C126" s="26"/>
+      <c r="D126" s="26"/>
+      <c r="E126" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H126" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I126" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J126" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K126" s="25"/>
+      <c r="L126" s="27"/>
       <c r="Q126"/>
     </row>
-    <row r="127" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A127" s="28"/>
+      <c r="B127" s="24">
+        <v>1000</v>
+      </c>
+      <c r="C127" s="26"/>
+      <c r="D127" s="26"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="27"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="27"/>
+      <c r="I127" s="27"/>
+      <c r="J127" s="27"/>
+      <c r="K127" s="25"/>
+      <c r="L127" s="27"/>
       <c r="Q127"/>
     </row>
-    <row r="128" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A128" s="28"/>
+      <c r="B128" s="24">
+        <v>2000</v>
+      </c>
+      <c r="C128" s="26"/>
+      <c r="D128" s="26"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="27"/>
+      <c r="J128" s="27"/>
+      <c r="K128" s="25"/>
+      <c r="L128" s="27"/>
       <c r="Q128"/>
     </row>
-    <row r="129" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A129" s="28"/>
+      <c r="B129" s="24">
+        <v>5000</v>
+      </c>
+      <c r="C129" s="26"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="27"/>
+      <c r="F129" s="27"/>
+      <c r="G129" s="27"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="27"/>
+      <c r="J129" s="27"/>
+      <c r="K129" s="25"/>
+      <c r="L129" s="27"/>
       <c r="Q129"/>
     </row>
-    <row r="130" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A130" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B130" s="24">
+        <v>500</v>
+      </c>
+      <c r="C130" s="26"/>
+      <c r="D130" s="26"/>
+      <c r="E130" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H130" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I130" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J130" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K130" s="25"/>
+      <c r="L130" s="27"/>
       <c r="Q130"/>
     </row>
-    <row r="131" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A131" s="28"/>
+      <c r="B131" s="24">
+        <v>1000</v>
+      </c>
+      <c r="C131" s="26"/>
+      <c r="D131" s="26"/>
+      <c r="E131" s="27"/>
+      <c r="F131" s="27"/>
+      <c r="G131" s="27"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="27"/>
+      <c r="J131" s="27"/>
+      <c r="K131" s="25"/>
+      <c r="L131" s="27"/>
       <c r="Q131"/>
     </row>
-    <row r="132" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A132" s="28"/>
+      <c r="B132" s="24">
+        <v>2000</v>
+      </c>
+      <c r="C132" s="26"/>
+      <c r="D132" s="26"/>
+      <c r="E132" s="27"/>
+      <c r="F132" s="27"/>
+      <c r="G132" s="27"/>
+      <c r="H132" s="27"/>
+      <c r="I132" s="27"/>
+      <c r="J132" s="27"/>
+      <c r="K132" s="25"/>
+      <c r="L132" s="27"/>
       <c r="Q132"/>
     </row>
-    <row r="133" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A133" s="28"/>
+      <c r="B133" s="24">
+        <v>5000</v>
+      </c>
+      <c r="C133" s="26"/>
+      <c r="D133" s="26"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="27"/>
+      <c r="G133" s="27"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="27"/>
+      <c r="J133" s="27"/>
+      <c r="K133" s="25"/>
+      <c r="L133" s="27"/>
       <c r="Q133"/>
     </row>
-    <row r="134" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q134"/>
     </row>
-    <row r="135" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q135"/>
     </row>
-    <row r="136" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q136"/>
     </row>
-    <row r="137" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q137"/>
     </row>
-    <row r="138" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q138"/>
     </row>
-    <row r="139" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q139"/>
     </row>
-    <row r="140" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q140"/>
     </row>
-    <row r="141" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q141"/>
     </row>
-    <row r="142" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q142"/>
     </row>
-    <row r="143" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q143"/>
     </row>
-    <row r="144" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q144"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
@@ -8300,41 +8812,41 @@
       <c r="Q147"/>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A148" s="27" t="s">
+      <c r="A148" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B148" s="27"/>
-      <c r="C148" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D148" s="27"/>
-      <c r="E148" s="27" t="s">
+      <c r="B148" s="28"/>
+      <c r="C148" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D148" s="28"/>
+      <c r="E148" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F148" s="27"/>
-      <c r="G148" s="27" t="s">
+      <c r="F148" s="28"/>
+      <c r="G148" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H148" s="27"/>
-      <c r="I148" s="27" t="s">
+      <c r="H148" s="28"/>
+      <c r="I148" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J148" s="27"/>
-      <c r="K148" s="27" t="s">
+      <c r="J148" s="28"/>
+      <c r="K148" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="L148" s="27"/>
-      <c r="M148" s="25" t="s">
+      <c r="L148" s="28"/>
+      <c r="M148" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="N148" s="25"/>
+      <c r="N148" s="26"/>
       <c r="P148" s="13"/>
       <c r="Q148"/>
       <c r="R148" s="13"/>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A149" s="27"/>
-      <c r="B149" s="27"/>
+      <c r="A149" s="28"/>
+      <c r="B149" s="28"/>
       <c r="C149" s="14" t="s">
         <v>7</v>
       </c>
@@ -8378,7 +8890,7 @@
       <c r="R149" s="14"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A150" s="27" t="s">
+      <c r="A150" s="28" t="s">
         <v>10</v>
       </c>
       <c r="B150" s="13">
@@ -8390,18 +8902,18 @@
       <c r="F150" s="15"/>
       <c r="G150" s="14"/>
       <c r="H150" s="15"/>
-      <c r="I150" s="25">
+      <c r="I150" s="26">
         <v>0.22309999999999999</v>
       </c>
-      <c r="J150" s="26">
+      <c r="J150" s="27">
         <v>0.17599999999999999</v>
       </c>
-      <c r="K150" s="24"/>
-      <c r="L150" s="26"/>
+      <c r="K150" s="25"/>
+      <c r="L150" s="27"/>
       <c r="Q150"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A151" s="27"/>
+      <c r="A151" s="28"/>
       <c r="B151" s="13">
         <v>1000</v>
       </c>
@@ -8411,14 +8923,14 @@
       <c r="F151" s="15"/>
       <c r="G151" s="14"/>
       <c r="H151" s="15"/>
-      <c r="I151" s="25"/>
-      <c r="J151" s="26"/>
-      <c r="K151" s="24"/>
-      <c r="L151" s="26"/>
+      <c r="I151" s="26"/>
+      <c r="J151" s="27"/>
+      <c r="K151" s="25"/>
+      <c r="L151" s="27"/>
       <c r="Q151"/>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A152" s="27"/>
+      <c r="A152" s="28"/>
       <c r="B152" s="13">
         <v>2000</v>
       </c>
@@ -8428,14 +8940,14 @@
       <c r="F152" s="15"/>
       <c r="G152" s="14"/>
       <c r="H152" s="15"/>
-      <c r="I152" s="25"/>
-      <c r="J152" s="26"/>
-      <c r="K152" s="24"/>
-      <c r="L152" s="26"/>
+      <c r="I152" s="26"/>
+      <c r="J152" s="27"/>
+      <c r="K152" s="25"/>
+      <c r="L152" s="27"/>
       <c r="Q152"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A153" s="27"/>
+      <c r="A153" s="28"/>
       <c r="B153" s="13">
         <v>5000</v>
       </c>
@@ -8445,14 +8957,14 @@
       <c r="F153" s="15"/>
       <c r="G153" s="14"/>
       <c r="H153" s="15"/>
-      <c r="I153" s="25"/>
-      <c r="J153" s="26"/>
-      <c r="K153" s="24"/>
-      <c r="L153" s="26"/>
+      <c r="I153" s="26"/>
+      <c r="J153" s="27"/>
+      <c r="K153" s="25"/>
+      <c r="L153" s="27"/>
       <c r="Q153"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A154" s="27" t="s">
+      <c r="A154" s="28" t="s">
         <v>35</v>
       </c>
       <c r="B154" s="13">
@@ -8464,14 +8976,14 @@
       <c r="F154" s="15"/>
       <c r="G154" s="14"/>
       <c r="H154" s="15"/>
-      <c r="I154" s="25"/>
-      <c r="J154" s="26"/>
-      <c r="K154" s="24"/>
-      <c r="L154" s="26"/>
+      <c r="I154" s="26"/>
+      <c r="J154" s="27"/>
+      <c r="K154" s="25"/>
+      <c r="L154" s="27"/>
       <c r="Q154"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A155" s="27"/>
+      <c r="A155" s="28"/>
       <c r="B155" s="13">
         <v>1000</v>
       </c>
@@ -8481,14 +8993,14 @@
       <c r="F155" s="15"/>
       <c r="G155" s="14"/>
       <c r="H155" s="15"/>
-      <c r="I155" s="25"/>
-      <c r="J155" s="26"/>
-      <c r="K155" s="24"/>
-      <c r="L155" s="26"/>
+      <c r="I155" s="26"/>
+      <c r="J155" s="27"/>
+      <c r="K155" s="25"/>
+      <c r="L155" s="27"/>
       <c r="Q155"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A156" s="27"/>
+      <c r="A156" s="28"/>
       <c r="B156" s="13">
         <v>2000</v>
       </c>
@@ -8498,14 +9010,14 @@
       <c r="F156" s="15"/>
       <c r="G156" s="14"/>
       <c r="H156" s="15"/>
-      <c r="I156" s="25"/>
-      <c r="J156" s="26"/>
-      <c r="K156" s="24"/>
-      <c r="L156" s="26"/>
+      <c r="I156" s="26"/>
+      <c r="J156" s="27"/>
+      <c r="K156" s="25"/>
+      <c r="L156" s="27"/>
       <c r="Q156"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A157" s="27"/>
+      <c r="A157" s="28"/>
       <c r="B157" s="13">
         <v>5000</v>
       </c>
@@ -8515,14 +9027,14 @@
       <c r="F157" s="15"/>
       <c r="G157" s="14"/>
       <c r="H157" s="15"/>
-      <c r="I157" s="25"/>
-      <c r="J157" s="26"/>
-      <c r="K157" s="24"/>
-      <c r="L157" s="26"/>
+      <c r="I157" s="26"/>
+      <c r="J157" s="27"/>
+      <c r="K157" s="25"/>
+      <c r="L157" s="27"/>
       <c r="Q157"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A158" s="27" t="s">
+      <c r="A158" s="28" t="s">
         <v>11</v>
       </c>
       <c r="B158" s="13">
@@ -8534,18 +9046,18 @@
       <c r="F158" s="15"/>
       <c r="G158" s="14"/>
       <c r="H158" s="15"/>
-      <c r="I158" s="25">
+      <c r="I158" s="26">
         <v>0.26700000000000002</v>
       </c>
-      <c r="J158" s="26">
+      <c r="J158" s="27">
         <v>0.435</v>
       </c>
-      <c r="K158" s="24"/>
-      <c r="L158" s="26"/>
+      <c r="K158" s="25"/>
+      <c r="L158" s="27"/>
       <c r="Q158"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A159" s="27"/>
+      <c r="A159" s="28"/>
       <c r="B159" s="13">
         <v>1000</v>
       </c>
@@ -8555,14 +9067,14 @@
       <c r="F159" s="15"/>
       <c r="G159" s="14"/>
       <c r="H159" s="15"/>
-      <c r="I159" s="25"/>
-      <c r="J159" s="26"/>
-      <c r="K159" s="24"/>
-      <c r="L159" s="26"/>
+      <c r="I159" s="26"/>
+      <c r="J159" s="27"/>
+      <c r="K159" s="25"/>
+      <c r="L159" s="27"/>
       <c r="Q159"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A160" s="27"/>
+      <c r="A160" s="28"/>
       <c r="B160" s="13">
         <v>2000</v>
       </c>
@@ -8572,14 +9084,14 @@
       <c r="F160" s="15"/>
       <c r="G160" s="14"/>
       <c r="H160" s="15"/>
-      <c r="I160" s="25"/>
-      <c r="J160" s="26"/>
-      <c r="K160" s="24"/>
-      <c r="L160" s="26"/>
+      <c r="I160" s="26"/>
+      <c r="J160" s="27"/>
+      <c r="K160" s="25"/>
+      <c r="L160" s="27"/>
       <c r="Q160"/>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A161" s="27"/>
+      <c r="A161" s="28"/>
       <c r="B161" s="13">
         <v>5000</v>
       </c>
@@ -8589,14 +9101,14 @@
       <c r="F161" s="15"/>
       <c r="G161" s="14"/>
       <c r="H161" s="15"/>
-      <c r="I161" s="25"/>
-      <c r="J161" s="26"/>
-      <c r="K161" s="24"/>
-      <c r="L161" s="26"/>
+      <c r="I161" s="26"/>
+      <c r="J161" s="27"/>
+      <c r="K161" s="25"/>
+      <c r="L161" s="27"/>
       <c r="Q161"/>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A162" s="27" t="s">
+      <c r="A162" s="28" t="s">
         <v>36</v>
       </c>
       <c r="B162" s="13">
@@ -8608,14 +9120,14 @@
       <c r="F162" s="15"/>
       <c r="G162" s="14"/>
       <c r="H162" s="15"/>
-      <c r="I162" s="25"/>
-      <c r="J162" s="26"/>
-      <c r="K162" s="24"/>
-      <c r="L162" s="26"/>
+      <c r="I162" s="26"/>
+      <c r="J162" s="27"/>
+      <c r="K162" s="25"/>
+      <c r="L162" s="27"/>
       <c r="Q162"/>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A163" s="27"/>
+      <c r="A163" s="28"/>
       <c r="B163" s="13">
         <v>1000</v>
       </c>
@@ -8625,14 +9137,14 @@
       <c r="F163" s="15"/>
       <c r="G163" s="14"/>
       <c r="H163" s="15"/>
-      <c r="I163" s="25"/>
-      <c r="J163" s="26"/>
-      <c r="K163" s="24"/>
-      <c r="L163" s="26"/>
+      <c r="I163" s="26"/>
+      <c r="J163" s="27"/>
+      <c r="K163" s="25"/>
+      <c r="L163" s="27"/>
       <c r="Q163"/>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A164" s="27"/>
+      <c r="A164" s="28"/>
       <c r="B164" s="13">
         <v>2000</v>
       </c>
@@ -8642,14 +9154,14 @@
       <c r="F164" s="15"/>
       <c r="G164" s="14"/>
       <c r="H164" s="15"/>
-      <c r="I164" s="25"/>
-      <c r="J164" s="26"/>
-      <c r="K164" s="24"/>
-      <c r="L164" s="26"/>
+      <c r="I164" s="26"/>
+      <c r="J164" s="27"/>
+      <c r="K164" s="25"/>
+      <c r="L164" s="27"/>
       <c r="Q164"/>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A165" s="27"/>
+      <c r="A165" s="28"/>
       <c r="B165" s="13">
         <v>5000</v>
       </c>
@@ -8659,14 +9171,14 @@
       <c r="F165" s="15"/>
       <c r="G165" s="14"/>
       <c r="H165" s="15"/>
-      <c r="I165" s="25"/>
-      <c r="J165" s="26"/>
-      <c r="K165" s="24"/>
-      <c r="L165" s="26"/>
+      <c r="I165" s="26"/>
+      <c r="J165" s="27"/>
+      <c r="K165" s="25"/>
+      <c r="L165" s="27"/>
       <c r="Q165"/>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A166" s="27" t="s">
+      <c r="A166" s="28" t="s">
         <v>37</v>
       </c>
       <c r="B166" s="13">
@@ -8678,14 +9190,14 @@
       <c r="F166" s="15"/>
       <c r="G166" s="14"/>
       <c r="H166" s="15"/>
-      <c r="I166" s="25"/>
-      <c r="J166" s="26"/>
-      <c r="K166" s="24"/>
-      <c r="L166" s="26"/>
+      <c r="I166" s="26"/>
+      <c r="J166" s="27"/>
+      <c r="K166" s="25"/>
+      <c r="L166" s="27"/>
       <c r="Q166"/>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A167" s="27"/>
+      <c r="A167" s="28"/>
       <c r="B167" s="13">
         <v>1000</v>
       </c>
@@ -8695,14 +9207,14 @@
       <c r="F167" s="15"/>
       <c r="G167" s="14"/>
       <c r="H167" s="15"/>
-      <c r="I167" s="25"/>
-      <c r="J167" s="26"/>
-      <c r="K167" s="24"/>
-      <c r="L167" s="26"/>
+      <c r="I167" s="26"/>
+      <c r="J167" s="27"/>
+      <c r="K167" s="25"/>
+      <c r="L167" s="27"/>
       <c r="Q167"/>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A168" s="27"/>
+      <c r="A168" s="28"/>
       <c r="B168" s="13">
         <v>2000</v>
       </c>
@@ -8712,14 +9224,14 @@
       <c r="F168" s="15"/>
       <c r="G168" s="14"/>
       <c r="H168" s="15"/>
-      <c r="I168" s="25"/>
-      <c r="J168" s="26"/>
-      <c r="K168" s="24"/>
-      <c r="L168" s="26"/>
+      <c r="I168" s="26"/>
+      <c r="J168" s="27"/>
+      <c r="K168" s="25"/>
+      <c r="L168" s="27"/>
       <c r="Q168"/>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A169" s="27"/>
+      <c r="A169" s="28"/>
       <c r="B169" s="13">
         <v>5000</v>
       </c>
@@ -8729,10 +9241,10 @@
       <c r="F169" s="15"/>
       <c r="G169" s="14"/>
       <c r="H169" s="15"/>
-      <c r="I169" s="25"/>
-      <c r="J169" s="26"/>
-      <c r="K169" s="24"/>
-      <c r="L169" s="26"/>
+      <c r="I169" s="26"/>
+      <c r="J169" s="27"/>
+      <c r="K169" s="25"/>
+      <c r="L169" s="27"/>
       <c r="Q169"/>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.25">
@@ -8757,27 +9269,27 @@
       <c r="Q176"/>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A177" s="27" t="s">
+      <c r="A177" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27" t="s">
+      <c r="B177" s="28"/>
+      <c r="C177" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D177" s="27"/>
-      <c r="E177" s="27" t="s">
+      <c r="D177" s="28"/>
+      <c r="E177" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F177" s="27"/>
-      <c r="G177" s="27" t="s">
+      <c r="F177" s="28"/>
+      <c r="G177" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="H177" s="27"/>
+      <c r="H177" s="28"/>
       <c r="Q177"/>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A178" s="27"/>
-      <c r="B178" s="27"/>
+      <c r="A178" s="28"/>
+      <c r="B178" s="28"/>
       <c r="C178" s="3" t="s">
         <v>7</v>
       </c>
@@ -8799,7 +9311,7 @@
       <c r="Q178"/>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A179" s="27" t="s">
+      <c r="A179" s="28" t="s">
         <v>10</v>
       </c>
       <c r="B179" s="13">
@@ -8808,21 +9320,21 @@
       <c r="Q179"/>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A180" s="27"/>
+      <c r="A180" s="28"/>
       <c r="B180" s="13">
         <v>1000</v>
       </c>
       <c r="Q180"/>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A181" s="27"/>
+      <c r="A181" s="28"/>
       <c r="B181" s="13">
         <v>2000</v>
       </c>
       <c r="Q181"/>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A182" s="27"/>
+      <c r="A182" s="28"/>
       <c r="B182" s="13">
         <v>5000</v>
       </c>
@@ -10254,8 +10766,70 @@
       <c r="Q657"/>
     </row>
   </sheetData>
-  <mergeCells count="300">
-    <mergeCell ref="A109:A112"/>
+  <mergeCells count="385">
+    <mergeCell ref="K114:K117"/>
+    <mergeCell ref="L114:L117"/>
+    <mergeCell ref="K118:K121"/>
+    <mergeCell ref="L118:L121"/>
+    <mergeCell ref="K122:K125"/>
+    <mergeCell ref="L122:L125"/>
+    <mergeCell ref="K126:K129"/>
+    <mergeCell ref="L126:L129"/>
+    <mergeCell ref="K130:K133"/>
+    <mergeCell ref="L130:L133"/>
+    <mergeCell ref="I101:I104"/>
+    <mergeCell ref="J101:J104"/>
+    <mergeCell ref="I105:I108"/>
+    <mergeCell ref="J105:J108"/>
+    <mergeCell ref="I109:I112"/>
+    <mergeCell ref="J109:J112"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="L101:L104"/>
+    <mergeCell ref="K105:K108"/>
+    <mergeCell ref="L105:L108"/>
+    <mergeCell ref="K109:K112"/>
+    <mergeCell ref="L109:L112"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="D105:D108"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="D109:D112"/>
+    <mergeCell ref="E101:E104"/>
+    <mergeCell ref="F101:F104"/>
+    <mergeCell ref="G101:G104"/>
+    <mergeCell ref="E105:E108"/>
+    <mergeCell ref="F105:F108"/>
+    <mergeCell ref="G105:G108"/>
+    <mergeCell ref="E109:E112"/>
+    <mergeCell ref="F109:F112"/>
+    <mergeCell ref="G109:G112"/>
+    <mergeCell ref="I130:I133"/>
+    <mergeCell ref="J130:J133"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="I118:I121"/>
+    <mergeCell ref="J118:J121"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="H122:H125"/>
+    <mergeCell ref="I122:I125"/>
+    <mergeCell ref="J122:J125"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="F126:F129"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="H126:H129"/>
+    <mergeCell ref="I126:I129"/>
+    <mergeCell ref="J126:J129"/>
     <mergeCell ref="M148:N148"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="L63:L66"/>
@@ -10279,6 +10853,7 @@
     <mergeCell ref="C148:D148"/>
     <mergeCell ref="E148:F148"/>
     <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A114:A117"/>
     <mergeCell ref="A166:A169"/>
     <mergeCell ref="K166:K169"/>
     <mergeCell ref="I166:I169"/>
@@ -10301,6 +10876,8 @@
     <mergeCell ref="J158:J161"/>
     <mergeCell ref="A162:A165"/>
     <mergeCell ref="K162:K165"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="E177:F177"/>
     <mergeCell ref="A105:A108"/>
     <mergeCell ref="I162:I165"/>
     <mergeCell ref="J162:J165"/>
@@ -10310,6 +10887,25 @@
     <mergeCell ref="K150:K153"/>
     <mergeCell ref="I150:I153"/>
     <mergeCell ref="J150:J153"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="F114:F117"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="H114:H117"/>
+    <mergeCell ref="I114:I117"/>
+    <mergeCell ref="J114:J117"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="F118:F121"/>
+    <mergeCell ref="G118:G121"/>
+    <mergeCell ref="H118:H121"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="D7:D10"/>
     <mergeCell ref="L19:L22"/>
     <mergeCell ref="J19:J22"/>
     <mergeCell ref="D23:D26"/>
@@ -10325,7 +10921,6 @@
     <mergeCell ref="G19:G22"/>
     <mergeCell ref="H19:H22"/>
     <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J27:J30"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A3:A6"/>
@@ -10345,10 +10940,6 @@
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="C11:C14"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="D7:D10"/>
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="G7:G10"/>
@@ -10379,6 +10970,7 @@
     <mergeCell ref="G27:G30"/>
     <mergeCell ref="H27:H30"/>
     <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J27:J30"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="C23:C26"/>
@@ -10500,8 +11092,6 @@
     <mergeCell ref="J84:J87"/>
     <mergeCell ref="I88:I91"/>
     <mergeCell ref="J88:J91"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="E177:F177"/>
     <mergeCell ref="G177:H177"/>
     <mergeCell ref="E96:E99"/>
     <mergeCell ref="F96:F99"/>
@@ -10516,6 +11106,13 @@
     <mergeCell ref="G92:G95"/>
     <mergeCell ref="H92:H95"/>
     <mergeCell ref="G148:H148"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="F130:F133"/>
+    <mergeCell ref="G130:G133"/>
+    <mergeCell ref="H130:H133"/>
+    <mergeCell ref="H101:H104"/>
+    <mergeCell ref="H105:H108"/>
+    <mergeCell ref="H109:H112"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="K68:K71"/>
     <mergeCell ref="E80:E83"/>

--- a/test_results/results_table.xlsx
+++ b/test_results/results_table.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D034B4D-2BF3-4CC7-A5AA-E3A6B0B2FF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -234,7 +235,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
@@ -278,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -362,13 +363,16 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -379,8 +383,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -748,14 +752,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF657"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AX21" sqref="AX21"/>
+      <selection pane="bottomRight" activeCell="AR99" sqref="AR99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,34 +808,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="34" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="34"/>
+      <c r="N1" s="35"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="17" t="s">
         <v>48</v>
@@ -878,24 +882,24 @@
       <c r="AH1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="AO1" s="33" t="s">
+      <c r="AO1" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33" t="s">
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33" t="s">
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="AT1" s="33"/>
+      <c r="AT1" s="32"/>
       <c r="CE1" s="6"/>
       <c r="CF1" s="6"/>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1005,38 +1009,38 @@
       <c r="CF2" s="9"/>
     </row>
     <row r="3" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>500</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="35">
         <v>0.26700000000000002</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="34">
         <v>0.44700000000000001</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="35">
         <v>0.17100000000000001</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="35">
         <v>0.153</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="34"/>
       <c r="O3" s="18"/>
       <c r="P3" s="5">
         <v>3.355451</v>
@@ -1094,39 +1098,39 @@
       <c r="AO3" s="27">
         <v>0.11919315004374439</v>
       </c>
-      <c r="AP3" s="24">
-        <v>24.944759392738341</v>
+      <c r="AP3" s="31">
+        <v>18.053146100044248</v>
       </c>
       <c r="AQ3" s="27">
         <v>0.1231646874998507</v>
       </c>
-      <c r="AR3" s="24">
-        <v>51.776799058914193</v>
+      <c r="AR3" s="31">
+        <v>39.656237411499021</v>
       </c>
       <c r="AS3" s="27">
         <v>0.117345272</v>
       </c>
-      <c r="AT3" s="24">
-        <v>50.704784989356988</v>
+      <c r="AT3" s="31">
+        <v>39.165938160000003</v>
       </c>
       <c r="CE3" s="8"/>
       <c r="CF3" s="8"/>
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="1">
         <v>1000</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="34"/>
       <c r="O4" s="18"/>
       <c r="P4" s="5">
         <v>6.6267579999999997</v>
@@ -1184,39 +1188,39 @@
       <c r="AO4" s="27">
         <v>0.11919315004374439</v>
       </c>
-      <c r="AP4" s="24">
-        <v>49.39872581958771</v>
+      <c r="AP4" s="31">
+        <v>35.733073687553407</v>
       </c>
       <c r="AQ4" s="27">
         <v>0.11842506773202791</v>
       </c>
-      <c r="AR4" s="24">
-        <v>107.5974509954453</v>
+      <c r="AR4" s="31">
+        <v>82.35135817527771</v>
       </c>
       <c r="AS4" s="27">
         <v>0.111616808</v>
       </c>
-      <c r="AT4" s="24">
-        <v>105.8114517688751</v>
+      <c r="AT4" s="31">
+        <v>82.038531399999997</v>
       </c>
       <c r="CE4" s="8"/>
       <c r="CF4" s="8"/>
     </row>
     <row r="5" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="1">
         <v>2000</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="34"/>
       <c r="O5" s="18"/>
       <c r="P5" s="5">
         <v>13.110008000000001</v>
@@ -1274,39 +1278,39 @@
       <c r="AO5" s="27">
         <v>0.11919315004374439</v>
       </c>
-      <c r="AP5" s="24">
-        <v>98.275007367134094</v>
+      <c r="AP5" s="31">
+        <v>71.074852848052984</v>
       </c>
       <c r="AQ5" s="27">
         <v>0.1100438544912325</v>
       </c>
-      <c r="AR5" s="24">
-        <v>220.81490943431851</v>
+      <c r="AR5" s="31">
+        <v>171.33721361160281</v>
       </c>
       <c r="AS5" s="27">
         <v>0.11106735700000001</v>
       </c>
-      <c r="AT5" s="24">
-        <v>221.54497764110559</v>
+      <c r="AT5" s="31">
+        <v>169.97214940000001</v>
       </c>
       <c r="CE5" s="8"/>
       <c r="CF5" s="8"/>
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="1">
         <v>5000</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="32"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
       <c r="O6" s="18"/>
       <c r="P6" s="5">
         <v>32.676729999999999</v>
@@ -1364,55 +1368,55 @@
       <c r="AO6" s="27">
         <v>0.11919315004374439</v>
       </c>
-      <c r="AP6" s="24">
-        <v>244.17857336997989</v>
+      <c r="AP6" s="31">
+        <v>177.34741938114169</v>
       </c>
       <c r="AQ6" s="27">
         <v>9.7596358858481308E-2</v>
       </c>
-      <c r="AR6" s="24">
-        <v>564.85187108516698</v>
+      <c r="AR6" s="31">
+        <v>446.46345396041869</v>
       </c>
       <c r="AS6" s="27">
         <v>0.105287546</v>
       </c>
-      <c r="AT6" s="24">
-        <v>575.09187867641447</v>
+      <c r="AT6" s="31">
+        <v>443.13558870000003</v>
       </c>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>500</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="35">
         <v>0.2601</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="34">
         <v>0.624</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="35">
         <v>0.20200000000000001</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="35">
         <v>0.19400000000000001</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="32"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="34"/>
       <c r="O7" s="18"/>
       <c r="P7" s="5">
         <v>4.002434</v>
@@ -1470,39 +1474,39 @@
       <c r="AO7" s="27">
         <v>0.14447014660503391</v>
       </c>
-      <c r="AP7" s="24">
-        <v>30.866437768936159</v>
+      <c r="AP7" s="31">
+        <v>22.258626985549931</v>
       </c>
       <c r="AQ7" s="27">
         <v>0.15727289778356179</v>
       </c>
-      <c r="AR7" s="24">
-        <v>71.458582162857056</v>
+      <c r="AR7" s="31">
+        <v>53.519421172142032</v>
       </c>
       <c r="AS7" s="27">
         <v>0.144627592</v>
       </c>
-      <c r="AT7" s="24">
-        <v>69.845579147338867</v>
+      <c r="AT7" s="31">
+        <v>53.188207939999998</v>
       </c>
       <c r="CE7" s="8"/>
       <c r="CF7" s="8"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="1">
         <v>1000</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
       <c r="O8" s="18"/>
       <c r="P8" s="5">
         <v>7.9348150000000004</v>
@@ -1560,39 +1564,39 @@
       <c r="AO8" s="27">
         <v>0.14447014660503391</v>
       </c>
-      <c r="AP8" s="24">
-        <v>61.059220457077018</v>
+      <c r="AP8" s="31">
+        <v>44.128316545486449</v>
       </c>
       <c r="AQ8" s="27">
         <v>0.14879282166021979</v>
       </c>
-      <c r="AR8" s="24">
-        <v>146.01175553798669</v>
+      <c r="AR8" s="31">
+        <v>111.16075313091279</v>
       </c>
       <c r="AS8" s="27">
         <v>0.14389606399999999</v>
       </c>
-      <c r="AT8" s="24">
-        <v>143.72580404281621</v>
+      <c r="AT8" s="31">
+        <v>111.33771249999999</v>
       </c>
       <c r="CE8" s="8"/>
       <c r="CF8" s="8"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="1">
         <v>2000</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
       <c r="O9" s="18"/>
       <c r="P9" s="5">
         <v>15.800986</v>
@@ -1650,39 +1654,39 @@
       <c r="AO9" s="27">
         <v>0.14447014660503391</v>
       </c>
-      <c r="AP9" s="24">
-        <v>121.350372838974</v>
+      <c r="AP9" s="31">
+        <v>87.86541211605072</v>
       </c>
       <c r="AQ9" s="27">
         <v>0.14156605498272379</v>
       </c>
-      <c r="AR9" s="24">
-        <v>304.49866702556608</v>
+      <c r="AR9" s="31">
+        <v>228.29208710193629</v>
       </c>
       <c r="AS9" s="27">
         <v>0.137050019</v>
       </c>
-      <c r="AT9" s="24">
-        <v>299.96989417076111</v>
+      <c r="AT9" s="31">
+        <v>230.5545903</v>
       </c>
       <c r="CE9" s="8"/>
       <c r="CF9" s="8"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="1">
         <v>5000</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="34"/>
       <c r="O10" s="18"/>
       <c r="P10" s="5">
         <v>39.365931000000003</v>
@@ -1740,55 +1744,55 @@
       <c r="AO10" s="27">
         <v>0.14447014660503391</v>
       </c>
-      <c r="AP10" s="24">
-        <v>302.22854087352749</v>
+      <c r="AP10" s="31">
+        <v>219.0369166135788</v>
       </c>
       <c r="AQ10" s="27">
         <v>0.1303050474220987</v>
       </c>
-      <c r="AR10" s="24">
-        <v>771.05094082355504</v>
+      <c r="AR10" s="31">
+        <v>599.84845511913295</v>
       </c>
       <c r="AS10" s="27">
         <v>0.118075843</v>
       </c>
-      <c r="AT10" s="24">
-        <v>778.58670310974117</v>
+      <c r="AT10" s="31">
+        <v>603.09332400000005</v>
       </c>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="32" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>500</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="35">
         <v>0.30220000000000002</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="34">
         <v>0.93700000000000006</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="35">
         <v>0.22800000000000001</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="35">
         <v>0.17199999999999999</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="34"/>
       <c r="O11" s="18"/>
       <c r="P11" s="5">
         <v>4.9335690000000003</v>
@@ -1846,39 +1850,39 @@
       <c r="AO11" s="27">
         <v>0.1567514657636021</v>
       </c>
-      <c r="AP11" s="24">
-        <v>55.751753783226007</v>
+      <c r="AP11" s="31">
+        <v>39.10832417011261</v>
       </c>
       <c r="AQ11" s="27">
         <v>0.1450972056528182</v>
       </c>
-      <c r="AR11" s="24">
-        <v>117.6762156248093</v>
+      <c r="AR11" s="31">
+        <v>86.568437027931211</v>
       </c>
       <c r="AS11" s="27">
         <v>0.14335642200000001</v>
       </c>
-      <c r="AT11" s="24">
-        <v>117.5896394014358</v>
+      <c r="AT11" s="31">
+        <v>90.726972439999997</v>
       </c>
       <c r="CE11" s="8"/>
       <c r="CF11" s="8"/>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="1">
         <v>1000</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="34"/>
       <c r="O12" s="18"/>
       <c r="P12" s="5">
         <v>9.7972990000000006</v>
@@ -1936,39 +1940,39 @@
       <c r="AO12" s="27">
         <v>0.1567514657636021</v>
       </c>
-      <c r="AP12" s="24">
-        <v>111.00340743064881</v>
+      <c r="AP12" s="31">
+        <v>77.929735851287845</v>
       </c>
       <c r="AQ12" s="27">
         <v>0.1407279748835874</v>
       </c>
-      <c r="AR12" s="24">
-        <v>244.92840034961699</v>
+      <c r="AR12" s="31">
+        <v>181.62074937820441</v>
       </c>
       <c r="AS12" s="27">
         <v>0.134828844</v>
       </c>
-      <c r="AT12" s="24">
-        <v>245.89402115345001</v>
+      <c r="AT12" s="31">
+        <v>188.21483420000001</v>
       </c>
       <c r="CE12" s="8"/>
       <c r="CF12" s="8"/>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="1">
         <v>2000</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="32"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="34"/>
       <c r="O13" s="18"/>
       <c r="P13" s="5">
         <v>19.567959999999999</v>
@@ -2026,39 +2030,39 @@
       <c r="AO13" s="27">
         <v>0.1567514657636021</v>
       </c>
-      <c r="AP13" s="24">
-        <v>220.88866374492639</v>
+      <c r="AP13" s="31">
+        <v>155.5766229391098</v>
       </c>
       <c r="AQ13" s="27">
         <v>0.1370745729663557</v>
       </c>
-      <c r="AR13" s="24">
-        <v>505.2447704076767</v>
+      <c r="AR13" s="31">
+        <v>374.47948365211488</v>
       </c>
       <c r="AS13" s="27">
         <v>0.12990058400000001</v>
       </c>
-      <c r="AT13" s="24">
-        <v>503.83236069679259</v>
+      <c r="AT13" s="31">
+        <v>380.70196950000002</v>
       </c>
       <c r="CE13" s="8"/>
       <c r="CF13" s="8"/>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="1">
         <v>5000</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="34"/>
       <c r="O14" s="18"/>
       <c r="P14" s="5">
         <v>48.782482999999999</v>
@@ -2116,55 +2120,55 @@
       <c r="AO14" s="27">
         <v>0.1567514657636021</v>
       </c>
-      <c r="AP14" s="24">
-        <v>548.76884839534762</v>
+      <c r="AP14" s="31">
+        <v>388.52986879348748</v>
       </c>
       <c r="AQ14" s="27">
         <v>0.13251120529953969</v>
       </c>
-      <c r="AR14" s="24">
-        <v>1281.953402137756</v>
+      <c r="AR14" s="31">
+        <v>979.76974110603328</v>
       </c>
       <c r="AS14" s="27">
         <v>0.12021036</v>
       </c>
-      <c r="AT14" s="24">
-        <v>1287.331052970886</v>
+      <c r="AT14" s="31">
+        <v>981.33045970000001</v>
       </c>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="32" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>500</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="35">
         <v>0.3165</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="34">
         <v>1.1140000000000001</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="35">
         <v>0.189</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="35">
         <v>0.18</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="31"/>
-      <c r="L15" s="32"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
       <c r="O15" s="18"/>
       <c r="P15" s="5">
         <v>5.413564</v>
@@ -2222,39 +2226,39 @@
       <c r="AO15" s="27">
         <v>0.1788179100387029</v>
       </c>
-      <c r="AP15" s="24">
-        <v>47.961639118194583</v>
+      <c r="AP15" s="31">
+        <v>33.609604954719543</v>
       </c>
       <c r="AQ15" s="27">
         <v>0.18369920527662079</v>
       </c>
-      <c r="AR15" s="24">
-        <v>95.471045565605166</v>
+      <c r="AR15" s="31">
+        <v>73.483357429504395</v>
       </c>
       <c r="AS15" s="27">
         <v>0.18325838799999999</v>
       </c>
-      <c r="AT15" s="24">
-        <v>91.996421957015997</v>
+      <c r="AT15" s="31">
+        <v>72.252479359999995</v>
       </c>
       <c r="CE15" s="8"/>
       <c r="CF15" s="8"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="1">
         <v>1000</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="32"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="34"/>
       <c r="O16" s="18"/>
       <c r="P16" s="5">
         <v>10.807356</v>
@@ -2312,39 +2316,39 @@
       <c r="AO16" s="27">
         <v>0.1788179100387029</v>
       </c>
-      <c r="AP16" s="24">
-        <v>94.669192624092105</v>
+      <c r="AP16" s="31">
+        <v>66.387358927726751</v>
       </c>
       <c r="AQ16" s="27">
         <v>0.17608379884551301</v>
       </c>
-      <c r="AR16" s="24">
-        <v>198.06368091106421</v>
+      <c r="AR16" s="31">
+        <v>154.60276665687559</v>
       </c>
       <c r="AS16" s="27">
         <v>0.173162175</v>
       </c>
-      <c r="AT16" s="24">
-        <v>190.8320300579071</v>
+      <c r="AT16" s="31">
+        <v>144.95860400000001</v>
       </c>
       <c r="CE16" s="8"/>
       <c r="CF16" s="8"/>
     </row>
     <row r="17" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="1">
         <v>2000</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="32"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
       <c r="O17" s="18"/>
       <c r="P17" s="5">
         <v>21.628416999999999</v>
@@ -2402,39 +2406,39 @@
       <c r="AO17" s="27">
         <v>0.1788179100387029</v>
       </c>
-      <c r="AP17" s="24">
-        <v>188.00205099582669</v>
+      <c r="AP17" s="31">
+        <v>131.9339980602264</v>
       </c>
       <c r="AQ17" s="27">
         <v>0.16731736374251199</v>
       </c>
-      <c r="AR17" s="24">
-        <v>405.57121243476871</v>
+      <c r="AR17" s="31">
+        <v>321.71527504920959</v>
       </c>
       <c r="AS17" s="27">
         <v>0.16336725199999999</v>
       </c>
-      <c r="AT17" s="24">
-        <v>404.28778734207151</v>
+      <c r="AT17" s="31">
+        <v>299.84030710000002</v>
       </c>
       <c r="CE17" s="8"/>
       <c r="CF17" s="8"/>
     </row>
     <row r="18" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="1">
         <v>5000</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="34"/>
       <c r="O18" s="18"/>
       <c r="P18" s="5">
         <v>53.830657000000002</v>
@@ -2492,55 +2496,55 @@
       <c r="AO18" s="27">
         <v>0.1788179100387029</v>
       </c>
-      <c r="AP18" s="24">
-        <v>469.38725128173832</v>
+      <c r="AP18" s="31">
+        <v>328.40986764431</v>
       </c>
       <c r="AQ18" s="27">
         <v>0.1497396168733256</v>
       </c>
-      <c r="AR18" s="24">
-        <v>1045.412668895721</v>
+      <c r="AR18" s="31">
+        <v>842.22239589691162</v>
       </c>
       <c r="AS18" s="27">
         <v>0.143512475</v>
       </c>
-      <c r="AT18" s="24">
-        <v>1049.2958910942079</v>
+      <c r="AT18" s="31">
+        <v>780.11120670000003</v>
       </c>
     </row>
     <row r="19" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="32" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="1">
         <v>500</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="35">
         <v>0.33110000000000001</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="34">
         <v>1.7989999999999999</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="35">
         <v>0.254</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="35">
         <v>0.187</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="35">
         <v>0.13080554883214199</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J19" s="34">
         <v>600</v>
       </c>
-      <c r="K19" s="31"/>
-      <c r="L19" s="32"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="34"/>
       <c r="O19" s="18"/>
       <c r="P19" s="5">
         <v>6.7596759999999998</v>
@@ -2598,39 +2602,39 @@
       <c r="AO19" s="27">
         <v>0.2007270790968356</v>
       </c>
-      <c r="AP19" s="24">
-        <v>75.417169022560117</v>
+      <c r="AP19" s="31">
+        <v>51.14268159866333</v>
       </c>
       <c r="AQ19" s="27">
         <v>0.22016804477701879</v>
       </c>
-      <c r="AR19" s="24">
-        <v>169.24916255474091</v>
+      <c r="AR19" s="31">
+        <v>121.5314927577972</v>
       </c>
       <c r="AS19" s="27">
         <v>0.207303139</v>
       </c>
-      <c r="AT19" s="24">
-        <v>169.19069666862489</v>
+      <c r="AT19" s="31">
+        <v>125.5045229</v>
       </c>
       <c r="CE19" s="7"/>
       <c r="CF19" s="7"/>
     </row>
     <row r="20" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="1">
         <v>1000</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="32"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="34"/>
       <c r="O20" s="18"/>
       <c r="P20" s="5">
         <v>13.471734</v>
@@ -2688,39 +2692,39 @@
       <c r="AO20" s="27">
         <v>0.2007270790968356</v>
       </c>
-      <c r="AP20" s="24">
-        <v>148.20977637767791</v>
+      <c r="AP20" s="31">
+        <v>100.5496168136597</v>
       </c>
       <c r="AQ20" s="27">
         <v>0.20788865308328941</v>
       </c>
-      <c r="AR20" s="24">
-        <v>349.06863839626311</v>
+      <c r="AR20" s="31">
+        <v>255.05927453041079</v>
       </c>
       <c r="AS20" s="27">
         <v>0.19851719700000001</v>
       </c>
-      <c r="AT20" s="24">
-        <v>352.85717098712922</v>
+      <c r="AT20" s="31">
+        <v>263.55278070000003</v>
       </c>
       <c r="CE20" s="7"/>
       <c r="CF20" s="7"/>
     </row>
     <row r="21" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="1">
         <v>2000</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="32"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="34"/>
       <c r="O21" s="18"/>
       <c r="P21" s="5">
         <v>26.813558</v>
@@ -2778,39 +2782,39 @@
       <c r="AO21" s="27">
         <v>0.2007270790968356</v>
       </c>
-      <c r="AP21" s="24">
-        <v>293.76171438694001</v>
+      <c r="AP21" s="31">
+        <v>199.4526872634888</v>
       </c>
       <c r="AQ21" s="27">
         <v>0.20186234725997471</v>
       </c>
-      <c r="AR21" s="24">
-        <v>720.47317242622375</v>
+      <c r="AR21" s="31">
+        <v>529.34676711559291</v>
       </c>
       <c r="AS21" s="27">
         <v>0.18567176599999999</v>
       </c>
-      <c r="AT21" s="24">
-        <v>741.54759161472316</v>
+      <c r="AT21" s="31">
+        <v>544.08850089999999</v>
       </c>
       <c r="CE21" s="7"/>
       <c r="CF21" s="7"/>
     </row>
     <row r="22" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="1">
         <v>5000</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="32"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="34"/>
       <c r="O22" s="18"/>
       <c r="P22" s="5">
         <v>66.724900000000005</v>
@@ -2868,55 +2872,55 @@
       <c r="AO22" s="27">
         <v>0.2007270790968356</v>
       </c>
-      <c r="AP22" s="24">
-        <v>731.3668148756027</v>
+      <c r="AP22" s="31">
+        <v>496.06448032855991</v>
       </c>
       <c r="AQ22" s="27">
         <v>0.17535579325333911</v>
       </c>
-      <c r="AR22" s="24">
-        <v>1835.253500103951</v>
+      <c r="AR22" s="31">
+        <v>1356.608294534683</v>
       </c>
       <c r="AS22" s="27">
         <v>0.169429249</v>
       </c>
-      <c r="AT22" s="24">
-        <v>1930.359215545654</v>
+      <c r="AT22" s="31">
+        <v>1423.5380680000001</v>
       </c>
     </row>
     <row r="23" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="32" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="1">
         <v>500</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="35">
         <v>0.33660000000000001</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="34">
         <v>2.7</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="35">
         <v>0.159</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="35">
         <v>0.13800000000000001</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="I23" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="32" t="s">
+      <c r="J23" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="31"/>
-      <c r="L23" s="32"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="34"/>
       <c r="O23" s="18"/>
       <c r="P23" s="5">
         <v>8.6928560000000008</v>
@@ -2974,39 +2978,39 @@
       <c r="AO23" s="27">
         <v>0.1246522670328311</v>
       </c>
-      <c r="AP23" s="24">
-        <v>66.105459928512573</v>
+      <c r="AP23" s="31">
+        <v>45.688936471939087</v>
       </c>
       <c r="AQ23" s="27">
         <v>0.14197264596895309</v>
       </c>
-      <c r="AR23" s="24">
-        <v>119.236882519722</v>
+      <c r="AR23" s="31">
+        <v>95.10058932304382</v>
       </c>
       <c r="AS23" s="27">
         <v>0.130967794</v>
       </c>
-      <c r="AT23" s="24">
-        <v>120.9501750469208</v>
+      <c r="AT23" s="31">
+        <v>89.270036239999996</v>
       </c>
       <c r="CE23" s="8"/>
       <c r="CF23" s="8"/>
     </row>
     <row r="24" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="1">
         <v>1000</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="32"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="34"/>
       <c r="O24" s="18"/>
       <c r="P24" s="5">
         <v>17.285457000000001</v>
@@ -3064,39 +3068,39 @@
       <c r="AO24" s="27">
         <v>0.1246522670328311</v>
       </c>
-      <c r="AP24" s="24">
-        <v>128.63048377037049</v>
+      <c r="AP24" s="31">
+        <v>88.97702846527099</v>
       </c>
       <c r="AQ24" s="27">
         <v>0.13215122348013039</v>
       </c>
-      <c r="AR24" s="24">
-        <v>244.53690583705901</v>
+      <c r="AR24" s="31">
+        <v>193.20295641422271</v>
       </c>
       <c r="AS24" s="27">
         <v>0.119950025</v>
       </c>
-      <c r="AT24" s="24">
-        <v>242.63404750823969</v>
+      <c r="AT24" s="31">
+        <v>180.29412859999999</v>
       </c>
       <c r="CE24" s="8"/>
       <c r="CF24" s="8"/>
     </row>
     <row r="25" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="1">
         <v>2000</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="32"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="34"/>
       <c r="O25" s="18"/>
       <c r="P25" s="5">
         <v>34.49512</v>
@@ -3154,39 +3158,39 @@
       <c r="AO25" s="27">
         <v>0.1246522670328311</v>
       </c>
-      <c r="AP25" s="24">
-        <v>253.60164372920991</v>
+      <c r="AP25" s="31">
+        <v>175.5279210090637</v>
       </c>
       <c r="AQ25" s="27">
         <v>0.1205942986682194</v>
       </c>
-      <c r="AR25" s="24">
-        <v>499.104181098938</v>
+      <c r="AR25" s="31">
+        <v>384.24247634410858</v>
       </c>
       <c r="AS25" s="27">
         <v>0.11064336399999999</v>
       </c>
-      <c r="AT25" s="24">
-        <v>497.51406786441811</v>
+      <c r="AT25" s="31">
+        <v>378.00945189999999</v>
       </c>
       <c r="CE25" s="8"/>
       <c r="CF25" s="8"/>
     </row>
     <row r="26" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="1">
         <v>5000</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="32"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="34"/>
       <c r="O26" s="18"/>
       <c r="P26" s="5">
         <v>85.965810000000005</v>
@@ -3244,55 +3248,55 @@
       <c r="AO26" s="27">
         <v>0.1246522670328311</v>
       </c>
-      <c r="AP26" s="24">
-        <v>627.53003504276273</v>
+      <c r="AP26" s="31">
+        <v>435.21578061580658</v>
       </c>
       <c r="AQ26" s="27">
         <v>0.1047452112372969</v>
       </c>
-      <c r="AR26" s="24">
-        <v>1267.556019544601</v>
+      <c r="AR26" s="31">
+        <v>993.84527640342708</v>
       </c>
       <c r="AS26" s="27">
         <v>9.2423447000000006E-2</v>
       </c>
-      <c r="AT26" s="24">
-        <v>1272.3213827133179</v>
+      <c r="AT26" s="31">
+        <v>967.78968599999996</v>
       </c>
     </row>
     <row r="27" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="1">
         <v>500</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="35">
         <v>0.22470000000000001</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="34">
         <v>4.883</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="35">
         <v>0.17399999999999999</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="35">
         <v>0.13500000000000001</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="I27" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="32" t="s">
+      <c r="J27" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="31"/>
-      <c r="L27" s="32"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="34"/>
       <c r="O27" s="18"/>
       <c r="P27" s="5">
         <v>11.603604000000001</v>
@@ -3350,39 +3354,39 @@
       <c r="AO27" s="27">
         <v>0.1366930910035925</v>
       </c>
-      <c r="AP27" s="24">
-        <v>122.7988569259644</v>
+      <c r="AP27" s="31">
+        <v>81.54976148605347</v>
       </c>
       <c r="AQ27" s="27">
         <v>0.15635864246873149</v>
       </c>
-      <c r="AR27" s="24">
-        <v>267.11635861396792</v>
+      <c r="AR27" s="31">
+        <v>190.2829072713852</v>
       </c>
       <c r="AS27" s="27">
         <v>0.14204035300000001</v>
       </c>
-      <c r="AT27" s="24">
-        <v>239.31897311210631</v>
+      <c r="AT27" s="31">
+        <v>186.27585730000001</v>
       </c>
       <c r="CE27" s="8"/>
       <c r="CF27" s="8"/>
     </row>
     <row r="28" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="1">
         <v>1000</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="32"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="34"/>
       <c r="O28" s="18"/>
       <c r="P28" s="5">
         <v>23.158722999999998</v>
@@ -3440,39 +3444,39 @@
       <c r="AO28" s="27">
         <v>0.1366930910035925</v>
       </c>
-      <c r="AP28" s="24">
-        <v>234.03526897430419</v>
+      <c r="AP28" s="31">
+        <v>156.09154458045961</v>
       </c>
       <c r="AQ28" s="27">
         <v>0.14688472492688739</v>
       </c>
-      <c r="AR28" s="24">
-        <v>523.88672113418579</v>
+      <c r="AR28" s="31">
+        <v>380.12667751312262</v>
       </c>
       <c r="AS28" s="27">
         <v>0.13912397500000001</v>
       </c>
-      <c r="AT28" s="24">
-        <v>509.1375789642334</v>
+      <c r="AT28" s="31">
+        <v>402.22574020000002</v>
       </c>
       <c r="CE28" s="8"/>
       <c r="CF28" s="8"/>
     </row>
     <row r="29" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="1">
         <v>2000</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="32"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="34"/>
       <c r="O29" s="18"/>
       <c r="P29" s="5">
         <v>46.277225999999999</v>
@@ -3530,39 +3534,39 @@
       <c r="AO29" s="27">
         <v>0.1366930910035925</v>
       </c>
-      <c r="AP29" s="24">
-        <v>456.73722014427187</v>
+      <c r="AP29" s="31">
+        <v>305.34893319606778</v>
       </c>
       <c r="AQ29" s="27">
         <v>0.1333320232896775</v>
       </c>
-      <c r="AR29" s="24">
-        <v>1041.915692448616</v>
+      <c r="AR29" s="31">
+        <v>776.53230340480809</v>
       </c>
       <c r="AS29" s="27">
         <v>0.126415165</v>
       </c>
-      <c r="AT29" s="24">
-        <v>1035.4185142755509</v>
+      <c r="AT29" s="31">
+        <v>833.228973</v>
       </c>
       <c r="CE29" s="8"/>
       <c r="CF29" s="8"/>
     </row>
     <row r="30" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="1">
         <v>5000</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="32"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="34"/>
       <c r="O30" s="18"/>
       <c r="P30" s="5">
         <v>115.449259</v>
@@ -3620,56 +3624,56 @@
       <c r="AO30" s="27">
         <v>0.1366930910035925</v>
       </c>
-      <c r="AP30" s="24">
-        <v>1123.381289434433</v>
+      <c r="AP30" s="31">
+        <v>758.30861377716064</v>
       </c>
       <c r="AQ30" s="27">
         <v>0.1184353847434812</v>
       </c>
-      <c r="AR30" s="24">
-        <v>2638.0942800521848</v>
+      <c r="AR30" s="31">
+        <v>2015.0174452066419</v>
       </c>
       <c r="AS30" s="27">
         <v>0.108999789</v>
       </c>
-      <c r="AT30" s="24">
-        <v>2629.8378783464432</v>
+      <c r="AT30" s="31">
+        <v>2093.061099</v>
       </c>
       <c r="AV30" s="6"/>
     </row>
     <row r="31" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="32" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="1">
         <v>500</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="35">
         <v>0.26550000000000001</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="34">
         <v>28.327999999999999</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="35">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="35">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H31" s="32" t="s">
+      <c r="H31" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="33" t="s">
+      <c r="I31" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J31" s="32" t="s">
+      <c r="J31" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="31"/>
-      <c r="L31" s="32"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="34"/>
       <c r="O31" s="18"/>
       <c r="P31" s="5">
         <v>32.667169999999999</v>
@@ -3727,39 +3731,39 @@
       <c r="AO31" s="27">
         <v>7.3497628405757257E-2</v>
       </c>
-      <c r="AP31" s="24">
-        <v>282.46351211071021</v>
+      <c r="AP31" s="31">
+        <v>172.71784608364109</v>
       </c>
       <c r="AQ31" s="27">
         <v>9.2637503848856981E-2</v>
       </c>
-      <c r="AR31" s="24">
-        <v>503.02613668441768</v>
+      <c r="AR31" s="31">
+        <v>320.16682074069979</v>
       </c>
       <c r="AS31" s="27">
         <v>8.0589019999999997E-2</v>
       </c>
-      <c r="AT31" s="24">
-        <v>438.10842449665068</v>
+      <c r="AT31" s="31">
+        <v>320.2802648</v>
       </c>
       <c r="CE31" s="8"/>
       <c r="CF31" s="8"/>
     </row>
     <row r="32" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="1">
         <v>1000</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="32"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="34"/>
       <c r="O32" s="18"/>
       <c r="P32" s="5">
         <v>65.318888000000001</v>
@@ -3817,39 +3821,39 @@
       <c r="AO32" s="27">
         <v>7.2523663243741904E-2</v>
       </c>
-      <c r="AP32" s="24">
-        <v>529.83637139797213</v>
+      <c r="AP32" s="31">
+        <v>326.09680833816532</v>
       </c>
       <c r="AQ32" s="27">
         <v>8.5217957550812712E-2</v>
       </c>
-      <c r="AR32" s="24">
-        <v>998.46032066345219</v>
+      <c r="AR32" s="31">
+        <v>639.96600208282473</v>
       </c>
       <c r="AS32" s="27">
         <v>7.6231808999999998E-2</v>
       </c>
-      <c r="AT32" s="24">
-        <v>906.33753595352175</v>
+      <c r="AT32" s="31">
+        <v>642.37015719999999</v>
       </c>
       <c r="CE32" s="8"/>
       <c r="CF32" s="8"/>
     </row>
     <row r="33" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="1">
         <v>2000</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="32"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="34"/>
       <c r="O33" s="18"/>
       <c r="P33" s="5">
         <v>130.456557</v>
@@ -3907,39 +3911,39 @@
       <c r="AO33" s="27">
         <v>7.2523663243741904E-2</v>
       </c>
-      <c r="AP33" s="24">
-        <v>1026.115605115891</v>
+      <c r="AP33" s="31">
+        <v>632.17122173309326</v>
       </c>
       <c r="AQ33" s="27">
         <v>7.7747770502014951E-2</v>
       </c>
-      <c r="AR33" s="24">
-        <v>1912.04842031002</v>
+      <c r="AR33" s="31">
+        <v>1266.078164505959</v>
       </c>
       <c r="AS33" s="27">
         <v>6.5421308999999997E-2</v>
       </c>
-      <c r="AT33" s="24">
-        <v>1793.846068620682</v>
+      <c r="AT33" s="31">
+        <v>1279.7582709999999</v>
       </c>
       <c r="CE33" s="8"/>
       <c r="CF33" s="8"/>
     </row>
     <row r="34" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="1">
         <v>5000</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="32"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="34"/>
       <c r="O34" s="18"/>
       <c r="P34" s="5">
         <v>323.3809</v>
@@ -3997,20 +4001,20 @@
       <c r="AO34" s="27">
         <v>7.2523663243741904E-2</v>
       </c>
-      <c r="AP34" s="24">
-        <v>2518.4823542356489</v>
+      <c r="AP34" s="31">
+        <v>1562.7214083194731</v>
       </c>
       <c r="AQ34" s="27">
         <v>6.3651946032952239E-2</v>
       </c>
-      <c r="AR34" s="24">
-        <v>4623.6274968862544</v>
+      <c r="AR34" s="31">
+        <v>3097.1185442209239</v>
       </c>
       <c r="AS34" s="27">
         <v>5.4012677000000002E-2</v>
       </c>
-      <c r="AT34" s="24">
-        <v>4442.4789430379869</v>
+      <c r="AT34" s="31">
+        <v>3221.169633</v>
       </c>
     </row>
     <row r="35" spans="1:84" customFormat="1" x14ac:dyDescent="0.25">
@@ -4031,42 +4035,43 @@
       <c r="AF35" s="29"/>
       <c r="AG35" s="29"/>
       <c r="AH35" s="29"/>
+      <c r="AN35" s="1"/>
       <c r="AO35" s="27"/>
-      <c r="AP35" s="24"/>
+      <c r="AP35" s="31"/>
       <c r="AQ35" s="27"/>
-      <c r="AR35" s="24"/>
+      <c r="AR35" s="31"/>
       <c r="AS35" s="27"/>
-      <c r="AT35" s="24"/>
+      <c r="AT35" s="31"/>
     </row>
     <row r="36" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="32" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="1">
         <v>500</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="34">
+      <c r="C36" s="35"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="35">
         <v>0.101239449255883</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="34">
+      <c r="G36" s="35">
         <v>6.1477473699407502E-2</v>
       </c>
-      <c r="H36" s="32" t="s">
+      <c r="H36" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I36" s="33" t="s">
+      <c r="I36" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J36" s="32" t="s">
+      <c r="J36" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K36" s="31"/>
-      <c r="L36" s="32"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="34"/>
       <c r="O36" s="18"/>
       <c r="P36" s="5">
         <v>7.3689210000000003</v>
@@ -4124,37 +4129,37 @@
       <c r="AO36" s="27">
         <v>6.1977618930582942E-2</v>
       </c>
-      <c r="AP36" s="24">
-        <v>17.492804288864139</v>
+      <c r="AP36" s="31">
+        <v>11.780664801597601</v>
       </c>
       <c r="AQ36" s="27">
         <v>3.4825404627804299E-2</v>
       </c>
-      <c r="AR36" s="24">
-        <v>26.510681509971619</v>
+      <c r="AR36" s="31">
+        <v>19.074589729309078</v>
       </c>
       <c r="AS36" s="27">
         <v>4.1313112999999999E-2</v>
       </c>
-      <c r="AT36" s="24">
-        <v>27.23684120178223</v>
+      <c r="AT36" s="31">
+        <v>17.998608829999998</v>
       </c>
     </row>
     <row r="37" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="1">
         <v>1000</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="32"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="34"/>
       <c r="O37" s="18"/>
       <c r="P37" s="5">
         <v>14.524684000000001</v>
@@ -4212,37 +4217,37 @@
       <c r="AO37" s="27">
         <v>6.1977618930582942E-2</v>
       </c>
-      <c r="AP37" s="24">
-        <v>35.100626349449158</v>
+      <c r="AP37" s="31">
+        <v>23.62793242931366</v>
       </c>
       <c r="AQ37" s="27">
         <v>3.4825404627804299E-2</v>
       </c>
-      <c r="AR37" s="24">
-        <v>52.965813875198357</v>
+      <c r="AR37" s="31">
+        <v>39.737374186515808</v>
       </c>
       <c r="AS37" s="27">
         <v>3.8131776999999999E-2</v>
       </c>
-      <c r="AT37" s="24">
-        <v>57.728895545005798</v>
+      <c r="AT37" s="31">
+        <v>38.788671610000002</v>
       </c>
     </row>
     <row r="38" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="1">
         <v>2000</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="32"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="34"/>
       <c r="O38" s="18"/>
       <c r="P38" s="5">
         <v>29.065647999999999</v>
@@ -4300,37 +4305,37 @@
       <c r="AO38" s="27">
         <v>6.1977618930582942E-2</v>
       </c>
-      <c r="AP38" s="24">
-        <v>70.397094011306763</v>
+      <c r="AP38" s="31">
+        <v>47.234396934509277</v>
       </c>
       <c r="AQ38" s="27">
         <v>3.4825404627804299E-2</v>
       </c>
-      <c r="AR38" s="24">
-        <v>107.1249294281006</v>
+      <c r="AR38" s="31">
+        <v>81.372222065925598</v>
       </c>
       <c r="AS38" s="27">
         <v>3.8131776999999999E-2</v>
       </c>
-      <c r="AT38" s="24">
-        <v>118.9375001192093</v>
+      <c r="AT38" s="31">
+        <v>81.313340659999994</v>
       </c>
     </row>
     <row r="39" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="1">
         <v>5000</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="32"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="34"/>
       <c r="O39" s="18"/>
       <c r="P39" s="5">
         <v>72.090327000000002</v>
@@ -4388,51 +4393,51 @@
       <c r="AO39" s="27">
         <v>6.1977618930582942E-2</v>
       </c>
-      <c r="AP39" s="24">
-        <v>176.23439514636991</v>
+      <c r="AP39" s="31">
+        <v>118.0770499706268</v>
       </c>
       <c r="AQ39" s="27">
         <v>2.7402286918366329E-2</v>
       </c>
-      <c r="AR39" s="24">
-        <v>274.03747868537903</v>
+      <c r="AR39" s="31">
+        <v>210.5504447221756</v>
       </c>
       <c r="AS39" s="27">
         <v>2.1164651E-2</v>
       </c>
-      <c r="AT39" s="24">
-        <v>298.38136160373688</v>
+      <c r="AT39" s="31">
+        <v>209.48986830000001</v>
       </c>
     </row>
     <row r="40" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B40" s="1">
         <v>500</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="34">
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="35">
         <v>0.29018026080021198</v>
       </c>
-      <c r="F40" s="32" t="s">
+      <c r="F40" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="34">
+      <c r="G40" s="35">
         <v>0.205463324203739</v>
       </c>
-      <c r="H40" s="32" t="s">
+      <c r="H40" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="33" t="s">
+      <c r="I40" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J40" s="32" t="s">
+      <c r="J40" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="31"/>
-      <c r="L40" s="32"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="34"/>
       <c r="O40" s="18"/>
       <c r="P40" s="5">
         <v>8.3890449999999994</v>
@@ -4490,37 +4495,37 @@
       <c r="AO40" s="27">
         <v>0.16544923941986769</v>
       </c>
-      <c r="AP40" s="24">
-        <v>43.878822882970177</v>
+      <c r="AP40" s="31">
+        <v>30.103104670842491</v>
       </c>
       <c r="AQ40" s="27">
         <v>0.16690502697494869</v>
       </c>
-      <c r="AR40" s="24">
-        <v>76.925508578618363</v>
+      <c r="AR40" s="31">
+        <v>59.249699672063187</v>
       </c>
       <c r="AS40" s="27">
         <v>0.167775546</v>
       </c>
-      <c r="AT40" s="24">
-        <v>81.28025484085083</v>
+      <c r="AT40" s="31">
+        <v>56.35641845</v>
       </c>
     </row>
     <row r="41" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="1">
         <v>1000</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="32"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="34"/>
       <c r="O41" s="18"/>
       <c r="P41" s="5">
         <v>16.511437999999998</v>
@@ -4578,37 +4583,37 @@
       <c r="AO41" s="27">
         <v>0.16544923941986769</v>
       </c>
-      <c r="AP41" s="24">
-        <v>87.288142760594681</v>
+      <c r="AP41" s="31">
+        <v>59.855583826700837</v>
       </c>
       <c r="AQ41" s="27">
         <v>0.15456451087067261</v>
       </c>
-      <c r="AR41" s="24">
-        <v>162.80077767372131</v>
+      <c r="AR41" s="31">
+        <v>117.9408603509267</v>
       </c>
       <c r="AS41" s="27">
         <v>0.14796569700000001</v>
       </c>
-      <c r="AT41" s="24">
-        <v>165.2943147023519</v>
+      <c r="AT41" s="31">
+        <v>117.94254840000001</v>
       </c>
     </row>
     <row r="42" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="1">
         <v>2000</v>
       </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="32"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="34"/>
       <c r="O42" s="18"/>
       <c r="P42" s="5">
         <v>32.639651000000001</v>
@@ -4666,37 +4671,37 @@
       <c r="AO42" s="27">
         <v>0.16544923941986769</v>
       </c>
-      <c r="AP42" s="24">
-        <v>173.9483234087626</v>
+      <c r="AP42" s="31">
+        <v>119.4512366453807</v>
       </c>
       <c r="AQ42" s="27">
         <v>0.14553358538442659</v>
       </c>
-      <c r="AR42" s="24">
-        <v>341.08698272705078</v>
+      <c r="AR42" s="31">
+        <v>243.96794470151269</v>
       </c>
       <c r="AS42" s="27">
         <v>0.11689032000000001</v>
       </c>
-      <c r="AT42" s="24">
-        <v>343.48644336064649</v>
+      <c r="AT42" s="31">
+        <v>245.93669149999999</v>
       </c>
     </row>
     <row r="43" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="1">
         <v>5000</v>
       </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="32"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="34"/>
       <c r="O43" s="18"/>
       <c r="P43" s="5">
         <v>81.209215999999998</v>
@@ -4754,20 +4759,20 @@
       <c r="AO43" s="27">
         <v>0.16544923941986769</v>
       </c>
-      <c r="AP43" s="24">
-        <v>434.1459749539693</v>
+      <c r="AP43" s="31">
+        <v>299.07535227139789</v>
       </c>
       <c r="AQ43" s="27">
         <v>0.1333384634332071</v>
       </c>
-      <c r="AR43" s="24">
-        <v>892.74093834559119</v>
+      <c r="AR43" s="31">
+        <v>632.2178407510122</v>
       </c>
       <c r="AS43" s="27">
         <v>0.10887027000000001</v>
       </c>
-      <c r="AT43" s="24">
-        <v>899.72497582435608</v>
+      <c r="AT43" s="31">
+        <v>653.44996860000003</v>
       </c>
     </row>
     <row r="44" spans="1:84" customFormat="1" x14ac:dyDescent="0.25">
@@ -4788,42 +4793,43 @@
       <c r="AF44" s="29"/>
       <c r="AG44" s="29"/>
       <c r="AH44" s="29"/>
+      <c r="AN44" s="1"/>
       <c r="AO44" s="27"/>
-      <c r="AP44" s="24"/>
+      <c r="AP44" s="31"/>
       <c r="AQ44" s="27"/>
-      <c r="AR44" s="24"/>
+      <c r="AR44" s="31"/>
       <c r="AS44" s="27"/>
-      <c r="AT44" s="24"/>
+      <c r="AT44" s="31"/>
     </row>
     <row r="45" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="32" t="s">
         <v>34</v>
       </c>
       <c r="B45" s="1">
         <v>500</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="34">
+      <c r="C45" s="35"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="35">
         <v>0.21826059724466901</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="F45" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="34">
+      <c r="G45" s="35">
         <v>0.199782125806655</v>
       </c>
-      <c r="H45" s="32" t="s">
+      <c r="H45" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I45" s="33" t="s">
+      <c r="I45" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="32" t="s">
+      <c r="J45" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K45" s="31"/>
-      <c r="L45" s="32"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="34"/>
       <c r="O45" s="18"/>
       <c r="P45" s="5">
         <v>2.2728280000000001</v>
@@ -4881,37 +4887,37 @@
       <c r="AO45" s="27">
         <v>0.1155082420668227</v>
       </c>
-      <c r="AP45" s="24">
-        <v>11.992581295967099</v>
+      <c r="AP45" s="31">
+        <v>8.5548857927322395</v>
       </c>
       <c r="AQ45" s="27">
         <v>0.1071241564119399</v>
       </c>
-      <c r="AR45" s="24">
-        <v>20.892739319801329</v>
+      <c r="AR45" s="31">
+        <v>16.567921948432922</v>
       </c>
       <c r="AS45" s="27">
         <v>0.113028791</v>
       </c>
-      <c r="AT45" s="24">
-        <v>19.83412508964539</v>
+      <c r="AT45" s="31">
+        <v>15.500601789999999</v>
       </c>
     </row>
     <row r="46" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="1">
         <v>1000</v>
       </c>
-      <c r="C46" s="34"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="32"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="34"/>
       <c r="O46" s="18"/>
       <c r="P46" s="5">
         <v>4.5111670000000004</v>
@@ -4969,37 +4975,37 @@
       <c r="AO46" s="27">
         <v>0.1155082420668227</v>
       </c>
-      <c r="AP46" s="24">
-        <v>23.935183882713321</v>
+      <c r="AP46" s="31">
+        <v>17.06168797016144</v>
       </c>
       <c r="AQ46" s="27">
         <v>0.1029121835816157</v>
       </c>
-      <c r="AR46" s="24">
-        <v>43.306916403770437</v>
+      <c r="AR46" s="31">
+        <v>34.412047100067142</v>
       </c>
       <c r="AS46" s="27">
         <v>9.9623432999999997E-2</v>
       </c>
-      <c r="AT46" s="24">
-        <v>42.525000810623169</v>
+      <c r="AT46" s="31">
+        <v>32.86913698</v>
       </c>
     </row>
     <row r="47" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A47" s="33"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="1">
         <v>2000</v>
       </c>
-      <c r="C47" s="34"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="32"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="34"/>
       <c r="O47" s="18"/>
       <c r="P47" s="5">
         <v>8.9939009999999993</v>
@@ -5057,37 +5063,37 @@
       <c r="AO47" s="27">
         <v>0.1155082420668227</v>
       </c>
-      <c r="AP47" s="24">
-        <v>47.806832361221311</v>
+      <c r="AP47" s="31">
+        <v>34.081682491302487</v>
       </c>
       <c r="AQ47" s="27">
         <v>0.10165273773778701</v>
       </c>
-      <c r="AR47" s="24">
-        <v>89.931754589080811</v>
+      <c r="AR47" s="31">
+        <v>71.738498997688296</v>
       </c>
       <c r="AS47" s="27">
         <v>9.5795735000000007E-2</v>
       </c>
-      <c r="AT47" s="24">
-        <v>88.582521820068365</v>
+      <c r="AT47" s="31">
+        <v>69.513252399999999</v>
       </c>
     </row>
     <row r="48" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="1">
         <v>5000</v>
       </c>
-      <c r="C48" s="34"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="32"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="34"/>
       <c r="O48" s="18"/>
       <c r="P48" s="5">
         <v>22.490936999999999</v>
@@ -5145,20 +5151,20 @@
       <c r="AO48" s="27">
         <v>0.1155082420668227</v>
       </c>
-      <c r="AP48" s="24">
-        <v>119.4681461811066</v>
+      <c r="AP48" s="31">
+        <v>85.049606633186343</v>
       </c>
       <c r="AQ48" s="27">
         <v>8.1825496208350626E-2</v>
       </c>
-      <c r="AR48" s="24">
-        <v>230.8110636949539</v>
+      <c r="AR48" s="31">
+        <v>187.37013864517209</v>
       </c>
       <c r="AS48" s="27">
         <v>7.9896529999999993E-2</v>
       </c>
-      <c r="AT48" s="24">
-        <v>230.3383594751358</v>
+      <c r="AT48" s="31">
+        <v>182.01399040000001</v>
       </c>
     </row>
     <row r="49" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
@@ -5179,42 +5185,43 @@
       <c r="AF49" s="29"/>
       <c r="AG49" s="29"/>
       <c r="AH49" s="29"/>
+      <c r="AN49" s="1"/>
       <c r="AO49" s="27"/>
-      <c r="AP49" s="24"/>
+      <c r="AP49" s="31"/>
       <c r="AQ49" s="27"/>
-      <c r="AR49" s="24"/>
+      <c r="AR49" s="31"/>
       <c r="AS49" s="27"/>
-      <c r="AT49" s="24"/>
+      <c r="AT49" s="31"/>
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="32" t="s">
         <v>22</v>
       </c>
       <c r="B50" s="1">
         <v>500</v>
       </c>
-      <c r="C50" s="34"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="34">
+      <c r="C50" s="35"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="35">
         <v>0.24797844874295</v>
       </c>
-      <c r="F50" s="32" t="s">
+      <c r="F50" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="34">
+      <c r="G50" s="35">
         <v>0.18443317167635301</v>
       </c>
-      <c r="H50" s="32" t="s">
+      <c r="H50" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="33" t="s">
+      <c r="I50" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J50" s="32" t="s">
+      <c r="J50" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K50" s="31"/>
-      <c r="L50" s="32"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="34"/>
       <c r="O50" s="18"/>
       <c r="P50" s="5">
         <v>8.1978240000000007</v>
@@ -5272,37 +5279,37 @@
       <c r="AO50" s="27">
         <v>0.1449391240327049</v>
       </c>
-      <c r="AP50" s="24">
-        <v>73.436745464801788</v>
+      <c r="AP50" s="31">
+        <v>51.422697186470032</v>
       </c>
       <c r="AQ50" s="27">
         <v>0.18764574499678419</v>
       </c>
-      <c r="AR50" s="24">
-        <v>131.66457360982889</v>
+      <c r="AR50" s="31">
+        <v>101.6267421245575</v>
       </c>
       <c r="AS50" s="27">
         <v>0.15129869100000001</v>
       </c>
-      <c r="AT50" s="24">
-        <v>129.85252475738531</v>
+      <c r="AT50" s="31">
+        <v>97.957932709999994</v>
       </c>
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
+      <c r="A51" s="32"/>
       <c r="B51" s="1">
         <v>1000</v>
       </c>
-      <c r="C51" s="34"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="32"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="34"/>
       <c r="O51" s="18"/>
       <c r="P51" s="5">
         <v>16.520105999999998</v>
@@ -5360,37 +5367,37 @@
       <c r="AO51" s="27">
         <v>0.1449391240327049</v>
       </c>
-      <c r="AP51" s="24">
-        <v>145.98050457239151</v>
+      <c r="AP51" s="31">
+        <v>102.0224705934525</v>
       </c>
       <c r="AQ51" s="27">
         <v>0.16977921259470469</v>
       </c>
-      <c r="AR51" s="24">
-        <v>265.6918186545372</v>
+      <c r="AR51" s="31">
+        <v>205.64162886142731</v>
       </c>
       <c r="AS51" s="27">
         <v>0.13099887299999999</v>
       </c>
-      <c r="AT51" s="24">
-        <v>264.17348915338522</v>
+      <c r="AT51" s="31">
+        <v>206.2343113</v>
       </c>
     </row>
     <row r="52" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
+      <c r="A52" s="32"/>
       <c r="B52" s="1">
         <v>2000</v>
       </c>
-      <c r="C52" s="34"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="32"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34"/>
       <c r="O52" s="18"/>
       <c r="P52" s="5">
         <v>32.814861000000001</v>
@@ -5448,37 +5455,37 @@
       <c r="AO52" s="27">
         <v>0.1449391240327049</v>
       </c>
-      <c r="AP52" s="24">
-        <v>291.92007756233221</v>
+      <c r="AP52" s="31">
+        <v>204.43975841999051</v>
       </c>
       <c r="AQ52" s="27">
         <v>0.14658911563709801</v>
       </c>
-      <c r="AR52" s="24">
-        <v>535.38003361225128</v>
+      <c r="AR52" s="31">
+        <v>423.63466638326639</v>
       </c>
       <c r="AS52" s="27">
         <v>0.13099887299999999</v>
       </c>
-      <c r="AT52" s="24">
-        <v>544.6263222694397</v>
+      <c r="AT52" s="31">
+        <v>410.24450239999999</v>
       </c>
     </row>
     <row r="53" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A53" s="33"/>
+      <c r="A53" s="32"/>
       <c r="B53" s="1">
         <v>5000</v>
       </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="32"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="34"/>
       <c r="O53" s="18"/>
       <c r="P53" s="5">
         <v>80.115144999999998</v>
@@ -5536,20 +5543,20 @@
       <c r="AO53" s="27">
         <v>0.1449391240327049</v>
       </c>
-      <c r="AP53" s="24">
-        <v>729.14800071716309</v>
+      <c r="AP53" s="31">
+        <v>504.84763121604919</v>
       </c>
       <c r="AQ53" s="27">
         <v>0.13703333051313099</v>
       </c>
-      <c r="AR53" s="24">
-        <v>1376.982424795628</v>
+      <c r="AR53" s="31">
+        <v>1048.1515985131259</v>
       </c>
       <c r="AS53" s="27">
         <v>0.11963523600000001</v>
       </c>
-      <c r="AT53" s="24">
-        <v>1386.7420787215231</v>
+      <c r="AT53" s="31">
+        <v>1038.316194</v>
       </c>
     </row>
     <row r="54" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
@@ -5570,42 +5577,43 @@
       <c r="AF54" s="29"/>
       <c r="AG54" s="29"/>
       <c r="AH54" s="29"/>
+      <c r="AN54" s="1"/>
       <c r="AO54" s="27"/>
-      <c r="AP54" s="24"/>
+      <c r="AP54" s="31"/>
       <c r="AQ54" s="27"/>
-      <c r="AR54" s="24"/>
+      <c r="AR54" s="31"/>
       <c r="AS54" s="27"/>
-      <c r="AT54" s="24"/>
+      <c r="AT54" s="31"/>
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="32" t="s">
         <v>23</v>
       </c>
       <c r="B55" s="1">
         <v>500</v>
       </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="34">
+      <c r="C55" s="35"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="35">
         <v>0.28420023201354799</v>
       </c>
-      <c r="F55" s="32" t="s">
+      <c r="F55" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G55" s="34">
+      <c r="G55" s="35">
         <v>0.34385002851765301</v>
       </c>
-      <c r="H55" s="32" t="s">
+      <c r="H55" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I55" s="33" t="s">
+      <c r="I55" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J55" s="32" t="s">
+      <c r="J55" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K55" s="31"/>
-      <c r="L55" s="32"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
       <c r="O55" s="18"/>
       <c r="P55" s="5">
         <v>5.8302040000000002</v>
@@ -5663,37 +5671,37 @@
       <c r="AO55" s="27">
         <v>0.33660823767351988</v>
       </c>
-      <c r="AP55" s="24">
-        <v>23.573054122924809</v>
+      <c r="AP55" s="31">
+        <v>16.40333104133606</v>
       </c>
       <c r="AQ55" s="27">
         <v>0.32280305471260468</v>
       </c>
-      <c r="AR55" s="24">
-        <v>38.099801254272457</v>
+      <c r="AR55" s="31">
+        <v>30.81027975082397</v>
       </c>
       <c r="AS55" s="27">
         <v>0.33474436800000001</v>
       </c>
-      <c r="AT55" s="24">
-        <v>38.952783250808707</v>
+      <c r="AT55" s="31">
+        <v>26.661370470000001</v>
       </c>
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A56" s="33"/>
+      <c r="A56" s="32"/>
       <c r="B56" s="1">
         <v>1000</v>
       </c>
-      <c r="C56" s="34"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="32"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="34"/>
       <c r="O56" s="18"/>
       <c r="P56" s="5">
         <v>11.555717</v>
@@ -5751,37 +5759,37 @@
       <c r="AO56" s="27">
         <v>0.33660823767351988</v>
       </c>
-      <c r="AP56" s="24">
-        <v>46.949057340621948</v>
+      <c r="AP56" s="31">
+        <v>32.69535412788391</v>
       </c>
       <c r="AQ56" s="27">
         <v>0.31561128483007511</v>
       </c>
-      <c r="AR56" s="24">
-        <v>79.113352680206305</v>
+      <c r="AR56" s="31">
+        <v>61.762571859359738</v>
       </c>
       <c r="AS56" s="27">
         <v>0.31442686399999997</v>
       </c>
-      <c r="AT56" s="24">
-        <v>79.35911302566528</v>
+      <c r="AT56" s="31">
+        <v>56.867244720000002</v>
       </c>
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A57" s="33"/>
+      <c r="A57" s="32"/>
       <c r="B57" s="1">
         <v>2000</v>
       </c>
-      <c r="C57" s="34"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="32"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="34"/>
       <c r="O57" s="18"/>
       <c r="P57" s="5">
         <v>23.124298</v>
@@ -5839,37 +5847,37 @@
       <c r="AO57" s="27">
         <v>0.33660823767351988</v>
       </c>
-      <c r="AP57" s="24">
-        <v>93.638937711715698</v>
+      <c r="AP57" s="31">
+        <v>65.274644041061407</v>
       </c>
       <c r="AQ57" s="27">
         <v>0.29133111332178641</v>
       </c>
-      <c r="AR57" s="24">
-        <v>164.24136781692499</v>
+      <c r="AR57" s="31">
+        <v>123.9587112903595</v>
       </c>
       <c r="AS57" s="27">
         <v>0.30130242200000001</v>
       </c>
-      <c r="AT57" s="24">
-        <v>159.00556941032411</v>
+      <c r="AT57" s="31">
+        <v>118.03747920000001</v>
       </c>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A58" s="33"/>
+      <c r="A58" s="32"/>
       <c r="B58" s="1">
         <v>5000</v>
       </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="32"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="34"/>
       <c r="O58" s="18"/>
       <c r="P58" s="5">
         <v>58.029696999999999</v>
@@ -5927,51 +5935,51 @@
       <c r="AO58" s="27">
         <v>0.33660823767351988</v>
       </c>
-      <c r="AP58" s="24">
-        <v>233.80214242935179</v>
+      <c r="AP58" s="31">
+        <v>163.00923953056329</v>
       </c>
       <c r="AQ58" s="27">
         <v>0.25928634691683572</v>
       </c>
-      <c r="AR58" s="24">
-        <v>417.57065739631651</v>
+      <c r="AR58" s="31">
+        <v>317.27634882926941</v>
       </c>
       <c r="AS58" s="27">
         <v>0.25483457799999998</v>
       </c>
-      <c r="AT58" s="24">
-        <v>417.30084438323968</v>
+      <c r="AT58" s="31">
+        <v>300.75050829999998</v>
       </c>
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A59" s="33" t="s">
+      <c r="A59" s="32" t="s">
         <v>24</v>
       </c>
       <c r="B59" s="1">
         <v>500</v>
       </c>
-      <c r="C59" s="34"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="34">
+      <c r="C59" s="35"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="35">
         <v>0.29386831802036401</v>
       </c>
-      <c r="F59" s="32" t="s">
+      <c r="F59" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="34">
+      <c r="G59" s="35">
         <v>0.30511472915739701</v>
       </c>
-      <c r="H59" s="32" t="s">
+      <c r="H59" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I59" s="33" t="s">
+      <c r="I59" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J59" s="32" t="s">
+      <c r="J59" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K59" s="31"/>
-      <c r="L59" s="32"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="34"/>
       <c r="O59" s="18"/>
       <c r="P59" s="5">
         <v>7.0910570000000002</v>
@@ -6029,37 +6037,37 @@
       <c r="AO59" s="27">
         <v>0.29147521129415838</v>
       </c>
-      <c r="AP59" s="24">
-        <v>41.129804468154909</v>
+      <c r="AP59" s="31">
+        <v>28.727863121032719</v>
       </c>
       <c r="AQ59" s="27">
         <v>0.31010075413701188</v>
       </c>
-      <c r="AR59" s="24">
-        <v>76.194039440155024</v>
+      <c r="AR59" s="31">
+        <v>55.386835908889772</v>
       </c>
       <c r="AS59" s="27">
         <v>0.29723085199999999</v>
       </c>
-      <c r="AT59" s="24">
-        <v>74.790502357482907</v>
+      <c r="AT59" s="31">
+        <v>53.285473629999998</v>
       </c>
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A60" s="33"/>
+      <c r="A60" s="32"/>
       <c r="B60" s="1">
         <v>1000</v>
       </c>
-      <c r="C60" s="34"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="32"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="34"/>
       <c r="O60" s="18"/>
       <c r="P60" s="5">
         <v>14.007052</v>
@@ -6117,37 +6125,37 @@
       <c r="AO60" s="27">
         <v>0.29147521129415838</v>
       </c>
-      <c r="AP60" s="24">
-        <v>81.342050170898432</v>
+      <c r="AP60" s="31">
+        <v>56.646649980545043</v>
       </c>
       <c r="AQ60" s="27">
         <v>0.28572920416055508</v>
       </c>
-      <c r="AR60" s="24">
-        <v>154.3941197395325</v>
+      <c r="AR60" s="31">
+        <v>111.61333355903621</v>
       </c>
       <c r="AS60" s="27">
         <v>0.27880539700000001</v>
       </c>
-      <c r="AT60" s="24">
-        <v>153.2570470333099</v>
+      <c r="AT60" s="31">
+        <v>113.5615765</v>
       </c>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="1">
         <v>2000</v>
       </c>
-      <c r="C61" s="34"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="32"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="34"/>
       <c r="O61" s="18"/>
       <c r="P61" s="5">
         <v>27.958158999999998</v>
@@ -6205,37 +6213,37 @@
       <c r="AO61" s="27">
         <v>0.29147521129415838</v>
       </c>
-      <c r="AP61" s="24">
-        <v>161.45163793563839</v>
+      <c r="AP61" s="31">
+        <v>112.4511415958405</v>
       </c>
       <c r="AQ61" s="27">
         <v>0.27614210790250587</v>
       </c>
-      <c r="AR61" s="24">
-        <v>314.51545877456658</v>
+      <c r="AR61" s="31">
+        <v>241.5805173873901</v>
       </c>
       <c r="AS61" s="27">
         <v>0.26665512299999999</v>
       </c>
-      <c r="AT61" s="24">
-        <v>314.21674180030823</v>
+      <c r="AT61" s="31">
+        <v>232.69987620000001</v>
       </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A62" s="33"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="1">
         <v>5000</v>
       </c>
-      <c r="C62" s="34"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="32"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="34"/>
       <c r="O62" s="18"/>
       <c r="P62" s="5">
         <v>69.326909000000001</v>
@@ -6293,51 +6301,51 @@
       <c r="AO62" s="27">
         <v>0.29147521129415838</v>
       </c>
-      <c r="AP62" s="24">
-        <v>401.21483392715447</v>
+      <c r="AP62" s="31">
+        <v>279.94948601722717</v>
       </c>
       <c r="AQ62" s="27">
         <v>0.25816450629594312</v>
       </c>
-      <c r="AR62" s="24">
-        <v>826.66526532173157</v>
+      <c r="AR62" s="31">
+        <v>630.88973193168636</v>
       </c>
       <c r="AS62" s="27">
         <v>0.25230619700000001</v>
       </c>
-      <c r="AT62" s="24">
-        <v>827.80329556465153</v>
+      <c r="AT62" s="31">
+        <v>616.55839779999997</v>
       </c>
     </row>
     <row r="63" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A63" s="33" t="s">
+      <c r="A63" s="32" t="s">
         <v>25</v>
       </c>
       <c r="B63" s="1">
         <v>500</v>
       </c>
-      <c r="C63" s="34"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="34">
+      <c r="C63" s="35"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="35">
         <v>0.167989635290166</v>
       </c>
-      <c r="F63" s="32" t="s">
+      <c r="F63" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G63" s="34">
+      <c r="G63" s="35">
         <v>0.25329462101632999</v>
       </c>
-      <c r="H63" s="32" t="s">
+      <c r="H63" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I63" s="33" t="s">
+      <c r="I63" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J63" s="32" t="s">
+      <c r="J63" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K63" s="31"/>
-      <c r="L63" s="32"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="34"/>
       <c r="O63" s="18"/>
       <c r="P63" s="5">
         <v>7.4597910000000001</v>
@@ -6395,37 +6403,37 @@
       <c r="AO63" s="27">
         <v>0.21982162003559791</v>
       </c>
-      <c r="AP63" s="24">
-        <v>35.535253643989563</v>
+      <c r="AP63" s="31">
+        <v>24.272193026542659</v>
       </c>
       <c r="AQ63" s="27">
         <v>0.2328796321252764</v>
       </c>
-      <c r="AR63" s="24">
-        <v>54.313072919845581</v>
+      <c r="AR63" s="31">
+        <v>-1</v>
       </c>
       <c r="AS63" s="27">
         <v>0.22153711200000001</v>
       </c>
-      <c r="AT63" s="24">
-        <v>49.910918283462522</v>
+      <c r="AT63" s="31">
+        <v>38.509976170000002</v>
       </c>
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A64" s="33"/>
+      <c r="A64" s="32"/>
       <c r="B64" s="1">
         <v>1000</v>
       </c>
-      <c r="C64" s="34"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="32"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="34"/>
       <c r="O64" s="18"/>
       <c r="P64" s="5">
         <v>14.86237</v>
@@ -6483,37 +6491,37 @@
       <c r="AO64" s="27">
         <v>0.21982162003559791</v>
       </c>
-      <c r="AP64" s="24">
-        <v>68.821308445930484</v>
+      <c r="AP64" s="31">
+        <v>46.844970107078552</v>
       </c>
       <c r="AQ64" s="27">
         <v>0.2239365864499743</v>
       </c>
-      <c r="AR64" s="24">
-        <v>107.27739338874819</v>
+      <c r="AR64" s="31">
+        <v>71.136236830000001</v>
       </c>
       <c r="AS64" s="27">
         <v>0.21904011900000001</v>
       </c>
-      <c r="AT64" s="24">
-        <v>98.877172493934637</v>
+      <c r="AT64" s="31">
+        <v>74.136236830000001</v>
       </c>
     </row>
     <row r="65" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A65" s="33"/>
+      <c r="A65" s="32"/>
       <c r="B65" s="1">
         <v>2000</v>
       </c>
-      <c r="C65" s="34"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="32"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="34"/>
       <c r="O65" s="18"/>
       <c r="P65" s="5">
         <v>29.561377</v>
@@ -6571,37 +6579,37 @@
       <c r="AO65" s="27">
         <v>0.21982162003559791</v>
       </c>
-      <c r="AP65" s="24">
-        <v>135.1661730527878</v>
+      <c r="AP65" s="31">
+        <v>91.995773053169245</v>
       </c>
       <c r="AQ65" s="27">
         <v>0.21854336201288679</v>
       </c>
-      <c r="AR65" s="24">
-        <v>202.77827608585361</v>
+      <c r="AR65" s="31">
+        <v>135.533817</v>
       </c>
       <c r="AS65" s="27">
         <v>0.214363527</v>
       </c>
-      <c r="AT65" s="24">
-        <v>191.60166876316069</v>
+      <c r="AT65" s="31">
+        <v>141.533817</v>
       </c>
     </row>
     <row r="66" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A66" s="33"/>
+      <c r="A66" s="32"/>
       <c r="B66" s="1">
         <v>5000</v>
       </c>
-      <c r="C66" s="34"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="32"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="34"/>
       <c r="O66" s="18"/>
       <c r="P66" s="5">
         <v>73.479196999999999</v>
@@ -6659,20 +6667,20 @@
       <c r="AO66" s="27">
         <v>0.21982162003559791</v>
       </c>
-      <c r="AP66" s="24">
-        <v>332.91974570751188</v>
+      <c r="AP66" s="31">
+        <v>227.3926122426987</v>
       </c>
       <c r="AQ66" s="27">
         <v>0.212727567822034</v>
       </c>
-      <c r="AR66" s="24">
-        <v>485.19237582683559</v>
+      <c r="AR66" s="31">
+        <v>323.9487479</v>
       </c>
       <c r="AS66" s="27">
         <v>0.206440809</v>
       </c>
-      <c r="AT66" s="24">
-        <v>474.11205139160148</v>
+      <c r="AT66" s="31">
+        <v>334.9487479</v>
       </c>
     </row>
     <row r="67" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
@@ -6693,42 +6701,43 @@
       <c r="AF67" s="29"/>
       <c r="AG67" s="29"/>
       <c r="AH67" s="29"/>
+      <c r="AN67" s="1"/>
       <c r="AO67" s="27"/>
-      <c r="AP67" s="24"/>
+      <c r="AP67" s="31"/>
       <c r="AQ67" s="27"/>
       <c r="AR67" s="24"/>
       <c r="AS67" s="27"/>
-      <c r="AT67" s="24"/>
+      <c r="AT67" s="31"/>
     </row>
     <row r="68" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A68" s="33" t="s">
+      <c r="A68" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B68" s="1">
         <v>500</v>
       </c>
-      <c r="C68" s="34"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="34">
+      <c r="C68" s="35"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="35">
         <v>0.16062893658948699</v>
       </c>
-      <c r="F68" s="32" t="s">
+      <c r="F68" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G68" s="34">
+      <c r="G68" s="35">
         <v>0.121214337893307</v>
       </c>
-      <c r="H68" s="32" t="s">
+      <c r="H68" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I68" s="33" t="s">
+      <c r="I68" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J68" s="32" t="s">
+      <c r="J68" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K68" s="31"/>
-      <c r="L68" s="32"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="34"/>
       <c r="O68" s="18"/>
       <c r="P68" s="5">
         <v>2.7527020000000002</v>
@@ -6803,20 +6812,20 @@
       </c>
     </row>
     <row r="69" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A69" s="33"/>
+      <c r="A69" s="32"/>
       <c r="B69" s="1">
         <v>1000</v>
       </c>
-      <c r="C69" s="34"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="31"/>
-      <c r="L69" s="32"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="34"/>
       <c r="O69" s="18"/>
       <c r="P69" s="5">
         <v>5.4598659999999999</v>
@@ -6891,20 +6900,20 @@
       </c>
     </row>
     <row r="70" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A70" s="33"/>
+      <c r="A70" s="32"/>
       <c r="B70" s="1">
         <v>2000</v>
       </c>
-      <c r="C70" s="34"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="31"/>
-      <c r="L70" s="32"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="34"/>
       <c r="O70" s="18"/>
       <c r="P70" s="5">
         <v>10.888598999999999</v>
@@ -6979,20 +6988,20 @@
       </c>
     </row>
     <row r="71" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A71" s="33"/>
+      <c r="A71" s="32"/>
       <c r="B71" s="1">
         <v>5000</v>
       </c>
-      <c r="C71" s="34"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="33"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="31"/>
-      <c r="L71" s="32"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="34"/>
       <c r="O71" s="18"/>
       <c r="P71" s="5">
         <v>27.119754</v>
@@ -7067,34 +7076,34 @@
       </c>
     </row>
     <row r="72" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A72" s="33" t="s">
+      <c r="A72" s="32" t="s">
         <v>28</v>
       </c>
       <c r="B72" s="1">
         <v>500</v>
       </c>
-      <c r="C72" s="34"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="34">
+      <c r="C72" s="35"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="35">
         <v>1.0883629283854401E-2</v>
       </c>
-      <c r="F72" s="32" t="s">
+      <c r="F72" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G72" s="34">
+      <c r="G72" s="35">
         <v>2.6516853932584201E-2</v>
       </c>
-      <c r="H72" s="32" t="s">
+      <c r="H72" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I72" s="33" t="s">
+      <c r="I72" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J72" s="32" t="s">
+      <c r="J72" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K72" s="31"/>
-      <c r="L72" s="32"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="34"/>
       <c r="O72" s="18"/>
       <c r="P72" s="5">
         <v>3.1482399999999999</v>
@@ -7169,20 +7178,20 @@
       </c>
     </row>
     <row r="73" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A73" s="33"/>
+      <c r="A73" s="32"/>
       <c r="B73" s="1">
         <v>1000</v>
       </c>
-      <c r="C73" s="34"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="33"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="32"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="34"/>
       <c r="O73" s="18"/>
       <c r="P73" s="5">
         <v>6.2835929999999998</v>
@@ -7257,20 +7266,20 @@
       </c>
     </row>
     <row r="74" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A74" s="33"/>
+      <c r="A74" s="32"/>
       <c r="B74" s="1">
         <v>2000</v>
       </c>
-      <c r="C74" s="34"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="33"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="31"/>
-      <c r="L74" s="32"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="34"/>
       <c r="O74" s="18"/>
       <c r="P74" s="5">
         <v>12.554895999999999</v>
@@ -7345,20 +7354,20 @@
       </c>
     </row>
     <row r="75" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A75" s="33"/>
+      <c r="A75" s="32"/>
       <c r="B75" s="1">
         <v>5000</v>
       </c>
-      <c r="C75" s="34"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="33"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="31"/>
-      <c r="L75" s="32"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="33"/>
+      <c r="L75" s="34"/>
       <c r="O75" s="18"/>
       <c r="P75" s="5">
         <v>31.354782</v>
@@ -7433,34 +7442,34 @@
       </c>
     </row>
     <row r="76" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A76" s="33" t="s">
+      <c r="A76" s="32" t="s">
         <v>29</v>
       </c>
       <c r="B76" s="1">
         <v>500</v>
       </c>
-      <c r="C76" s="34"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="34">
+      <c r="C76" s="35"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="35">
         <v>2.1265476753851299E-2</v>
       </c>
-      <c r="F76" s="32" t="s">
+      <c r="F76" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G76" s="34">
+      <c r="G76" s="35">
         <v>3.6388931451421497E-2</v>
       </c>
-      <c r="H76" s="32" t="s">
+      <c r="H76" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I76" s="33" t="s">
+      <c r="I76" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J76" s="32" t="s">
+      <c r="J76" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K76" s="31"/>
-      <c r="L76" s="32"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="34"/>
       <c r="O76" s="18"/>
       <c r="P76" s="5">
         <v>3.7235830000000001</v>
@@ -7535,20 +7544,20 @@
       </c>
     </row>
     <row r="77" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A77" s="33"/>
+      <c r="A77" s="32"/>
       <c r="B77" s="1">
         <v>1000</v>
       </c>
-      <c r="C77" s="34"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="33"/>
-      <c r="J77" s="32"/>
-      <c r="K77" s="31"/>
-      <c r="L77" s="32"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="34"/>
       <c r="O77" s="18"/>
       <c r="P77" s="5">
         <v>7.4339560000000002</v>
@@ -7623,20 +7632,20 @@
       </c>
     </row>
     <row r="78" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A78" s="33"/>
+      <c r="A78" s="32"/>
       <c r="B78" s="1">
         <v>2000</v>
       </c>
-      <c r="C78" s="34"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="33"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="31"/>
-      <c r="L78" s="32"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="34"/>
       <c r="P78" s="5">
         <v>14.859114</v>
       </c>
@@ -7710,20 +7719,20 @@
       </c>
     </row>
     <row r="79" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A79" s="33"/>
+      <c r="A79" s="32"/>
       <c r="B79" s="1">
         <v>5000</v>
       </c>
-      <c r="C79" s="34"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="33"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="31"/>
-      <c r="L79" s="32"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="33"/>
+      <c r="L79" s="34"/>
       <c r="P79" s="5">
         <v>37.086013000000001</v>
       </c>
@@ -7797,34 +7806,34 @@
       </c>
     </row>
     <row r="80" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="32" t="s">
         <v>30</v>
       </c>
       <c r="B80" s="1">
         <v>500</v>
       </c>
-      <c r="C80" s="34"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="34">
+      <c r="C80" s="35"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="35">
         <v>0.17058616214445499</v>
       </c>
-      <c r="F80" s="32" t="s">
+      <c r="F80" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G80" s="34">
+      <c r="G80" s="35">
         <v>0.11949852870448099</v>
       </c>
-      <c r="H80" s="32" t="s">
+      <c r="H80" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I80" s="33" t="s">
+      <c r="I80" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J80" s="32" t="s">
+      <c r="J80" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K80" s="31"/>
-      <c r="L80" s="32"/>
+      <c r="K80" s="33"/>
+      <c r="L80" s="34"/>
       <c r="P80" s="5">
         <v>3.4546389999999998</v>
       </c>
@@ -7898,20 +7907,20 @@
       </c>
     </row>
     <row r="81" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A81" s="33"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="1">
         <v>1000</v>
       </c>
-      <c r="C81" s="34"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="32"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="33"/>
-      <c r="J81" s="32"/>
-      <c r="K81" s="31"/>
-      <c r="L81" s="32"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="33"/>
+      <c r="L81" s="34"/>
       <c r="P81" s="5">
         <v>6.9478160000000004</v>
       </c>
@@ -7985,20 +7994,20 @@
       </c>
     </row>
     <row r="82" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A82" s="33"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="1">
         <v>2000</v>
       </c>
-      <c r="C82" s="34"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="33"/>
-      <c r="J82" s="32"/>
-      <c r="K82" s="31"/>
-      <c r="L82" s="32"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="32"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="33"/>
+      <c r="L82" s="34"/>
       <c r="P82" s="5">
         <v>14.081699</v>
       </c>
@@ -8072,20 +8081,20 @@
       </c>
     </row>
     <row r="83" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A83" s="33"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="1">
         <v>5000</v>
       </c>
-      <c r="C83" s="34"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="32"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="33"/>
-      <c r="J83" s="32"/>
-      <c r="K83" s="31"/>
-      <c r="L83" s="32"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="33"/>
+      <c r="L83" s="34"/>
       <c r="P83" s="5">
         <v>35.508873000000001</v>
       </c>
@@ -8159,34 +8168,34 @@
       </c>
     </row>
     <row r="84" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A84" s="33" t="s">
+      <c r="A84" s="32" t="s">
         <v>31</v>
       </c>
       <c r="B84" s="1">
         <v>500</v>
       </c>
-      <c r="C84" s="34"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="34">
+      <c r="C84" s="35"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="35">
         <v>0.219652082835287</v>
       </c>
-      <c r="F84" s="32" t="s">
+      <c r="F84" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G84" s="34">
+      <c r="G84" s="35">
         <v>0.145969617876444</v>
       </c>
-      <c r="H84" s="32" t="s">
+      <c r="H84" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I84" s="33" t="s">
+      <c r="I84" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J84" s="32" t="s">
+      <c r="J84" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K84" s="31"/>
-      <c r="L84" s="32"/>
+      <c r="K84" s="33"/>
+      <c r="L84" s="34"/>
       <c r="P84" s="5">
         <v>4.0850150000000003</v>
       </c>
@@ -8260,20 +8269,20 @@
       </c>
     </row>
     <row r="85" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A85" s="33"/>
+      <c r="A85" s="32"/>
       <c r="B85" s="1">
         <v>1000</v>
       </c>
-      <c r="C85" s="34"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="33"/>
-      <c r="J85" s="32"/>
-      <c r="K85" s="31"/>
-      <c r="L85" s="32"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="33"/>
+      <c r="L85" s="34"/>
       <c r="P85" s="5">
         <v>8.2311809999999994</v>
       </c>
@@ -8347,20 +8356,20 @@
       </c>
     </row>
     <row r="86" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A86" s="33"/>
+      <c r="A86" s="32"/>
       <c r="B86" s="1">
         <v>2000</v>
       </c>
-      <c r="C86" s="34"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="33"/>
-      <c r="J86" s="32"/>
-      <c r="K86" s="31"/>
-      <c r="L86" s="32"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="33"/>
+      <c r="L86" s="34"/>
       <c r="P86" s="5">
         <v>16.372955999999999</v>
       </c>
@@ -8434,20 +8443,20 @@
       </c>
     </row>
     <row r="87" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A87" s="33"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="1">
         <v>5000</v>
       </c>
-      <c r="C87" s="34"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="32"/>
-      <c r="K87" s="31"/>
-      <c r="L87" s="32"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="34"/>
+      <c r="K87" s="33"/>
+      <c r="L87" s="34"/>
       <c r="P87" s="5">
         <v>41.484876999999997</v>
       </c>
@@ -8521,34 +8530,34 @@
       </c>
     </row>
     <row r="88" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A88" s="33" t="s">
+      <c r="A88" s="32" t="s">
         <v>26</v>
       </c>
       <c r="B88" s="1">
         <v>500</v>
       </c>
-      <c r="C88" s="34"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="34">
+      <c r="C88" s="35"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="35">
         <v>0.27256493121848202</v>
       </c>
-      <c r="F88" s="32" t="s">
+      <c r="F88" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G88" s="34">
+      <c r="G88" s="35">
         <v>0.15719859527191099</v>
       </c>
-      <c r="H88" s="32" t="s">
+      <c r="H88" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I88" s="33" t="s">
+      <c r="I88" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J88" s="32" t="s">
+      <c r="J88" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K88" s="31"/>
-      <c r="L88" s="32"/>
+      <c r="K88" s="33"/>
+      <c r="L88" s="34"/>
       <c r="P88" s="5">
         <v>4.7877510000000001</v>
       </c>
@@ -8622,20 +8631,20 @@
       </c>
     </row>
     <row r="89" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A89" s="33"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="1">
         <v>1000</v>
       </c>
-      <c r="C89" s="34"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="33"/>
-      <c r="J89" s="32"/>
-      <c r="K89" s="31"/>
-      <c r="L89" s="32"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="32"/>
+      <c r="J89" s="34"/>
+      <c r="K89" s="33"/>
+      <c r="L89" s="34"/>
       <c r="P89" s="5">
         <v>9.6713889999999996</v>
       </c>
@@ -8709,20 +8718,20 @@
       </c>
     </row>
     <row r="90" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A90" s="33"/>
+      <c r="A90" s="32"/>
       <c r="B90" s="1">
         <v>2000</v>
       </c>
-      <c r="C90" s="34"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="32"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="33"/>
-      <c r="J90" s="32"/>
-      <c r="K90" s="31"/>
-      <c r="L90" s="32"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="33"/>
+      <c r="L90" s="34"/>
       <c r="P90" s="5">
         <v>19.316754</v>
       </c>
@@ -8796,20 +8805,20 @@
       </c>
     </row>
     <row r="91" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A91" s="33"/>
+      <c r="A91" s="32"/>
       <c r="B91" s="1">
         <v>5000</v>
       </c>
-      <c r="C91" s="34"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="32"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="32"/>
-      <c r="I91" s="33"/>
-      <c r="J91" s="32"/>
-      <c r="K91" s="31"/>
-      <c r="L91" s="32"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="33"/>
+      <c r="L91" s="34"/>
       <c r="P91" s="5">
         <v>47.262852000000002</v>
       </c>
@@ -8883,34 +8892,34 @@
       </c>
     </row>
     <row r="92" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="32" t="s">
         <v>32</v>
       </c>
       <c r="B92" s="1">
         <v>500</v>
       </c>
-      <c r="C92" s="34"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="34">
+      <c r="C92" s="35"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="35">
         <v>6.2700060480871303E-2</v>
       </c>
-      <c r="F92" s="32" t="s">
+      <c r="F92" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G92" s="34">
+      <c r="G92" s="35">
         <v>3.09751238890398E-2</v>
       </c>
-      <c r="H92" s="32" t="s">
+      <c r="H92" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I92" s="33" t="s">
+      <c r="I92" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J92" s="32" t="s">
+      <c r="J92" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K92" s="31"/>
-      <c r="L92" s="32"/>
+      <c r="K92" s="33"/>
+      <c r="L92" s="34"/>
       <c r="P92" s="5">
         <v>6.1680070000000002</v>
       </c>
@@ -8984,20 +8993,20 @@
       </c>
     </row>
     <row r="93" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A93" s="33"/>
+      <c r="A93" s="32"/>
       <c r="B93" s="1">
         <v>1000</v>
       </c>
-      <c r="C93" s="34"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="32"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="33"/>
-      <c r="J93" s="32"/>
-      <c r="K93" s="31"/>
-      <c r="L93" s="32"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="34"/>
+      <c r="K93" s="33"/>
+      <c r="L93" s="34"/>
       <c r="P93" s="5">
         <v>12.293174</v>
       </c>
@@ -9071,20 +9080,20 @@
       </c>
     </row>
     <row r="94" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A94" s="33"/>
+      <c r="A94" s="32"/>
       <c r="B94" s="1">
         <v>2000</v>
       </c>
-      <c r="C94" s="34"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="34"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="34"/>
-      <c r="H94" s="32"/>
-      <c r="I94" s="33"/>
-      <c r="J94" s="32"/>
-      <c r="K94" s="31"/>
-      <c r="L94" s="32"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="34"/>
+      <c r="K94" s="33"/>
+      <c r="L94" s="34"/>
       <c r="P94" s="5">
         <v>24.530194999999999</v>
       </c>
@@ -9158,20 +9167,20 @@
       </c>
     </row>
     <row r="95" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A95" s="33"/>
+      <c r="A95" s="32"/>
       <c r="B95" s="1">
         <v>5000</v>
       </c>
-      <c r="C95" s="34"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="32"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="32"/>
-      <c r="I95" s="33"/>
-      <c r="J95" s="32"/>
-      <c r="K95" s="31"/>
-      <c r="L95" s="32"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="32"/>
+      <c r="J95" s="34"/>
+      <c r="K95" s="33"/>
+      <c r="L95" s="34"/>
       <c r="P95" s="5">
         <v>61.224843</v>
       </c>
@@ -9245,34 +9254,34 @@
       </c>
     </row>
     <row r="96" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A96" s="33" t="s">
+      <c r="A96" s="32" t="s">
         <v>33</v>
       </c>
       <c r="B96" s="1">
         <v>500</v>
       </c>
-      <c r="C96" s="34"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="34">
+      <c r="C96" s="35"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="35">
         <v>0.21402465142211599</v>
       </c>
-      <c r="F96" s="32" t="s">
+      <c r="F96" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G96" s="34">
+      <c r="G96" s="35">
         <v>0.16071994068421799</v>
       </c>
-      <c r="H96" s="32" t="s">
+      <c r="H96" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I96" s="33" t="s">
+      <c r="I96" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J96" s="32" t="s">
+      <c r="J96" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K96" s="31"/>
-      <c r="L96" s="32"/>
+      <c r="K96" s="33"/>
+      <c r="L96" s="34"/>
       <c r="P96" s="5">
         <v>5.129162</v>
       </c>
@@ -9346,20 +9355,20 @@
       </c>
     </row>
     <row r="97" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A97" s="33"/>
+      <c r="A97" s="32"/>
       <c r="B97" s="1">
         <v>1000</v>
       </c>
-      <c r="C97" s="34"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="32"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="32"/>
-      <c r="I97" s="33"/>
-      <c r="J97" s="32"/>
-      <c r="K97" s="31"/>
-      <c r="L97" s="32"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="34"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="34"/>
+      <c r="K97" s="33"/>
+      <c r="L97" s="34"/>
       <c r="P97" s="5">
         <v>10.24381</v>
       </c>
@@ -9433,20 +9442,20 @@
       </c>
     </row>
     <row r="98" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A98" s="33"/>
+      <c r="A98" s="32"/>
       <c r="B98" s="1">
         <v>2000</v>
       </c>
-      <c r="C98" s="34"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="32"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="33"/>
-      <c r="J98" s="32"/>
-      <c r="K98" s="31"/>
-      <c r="L98" s="32"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="32"/>
+      <c r="J98" s="34"/>
+      <c r="K98" s="33"/>
+      <c r="L98" s="34"/>
       <c r="P98" s="5">
         <v>20.481614</v>
       </c>
@@ -9520,20 +9529,20 @@
       </c>
     </row>
     <row r="99" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A99" s="33"/>
+      <c r="A99" s="32"/>
       <c r="B99" s="1">
         <v>5000</v>
       </c>
-      <c r="C99" s="34"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="34"/>
-      <c r="F99" s="32"/>
-      <c r="G99" s="34"/>
-      <c r="H99" s="32"/>
-      <c r="I99" s="33"/>
-      <c r="J99" s="32"/>
-      <c r="K99" s="31"/>
-      <c r="L99" s="32"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="34"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="34"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="34"/>
+      <c r="K99" s="33"/>
+      <c r="L99" s="34"/>
       <c r="P99" s="5">
         <v>51.171509</v>
       </c>
@@ -9632,30 +9641,30 @@
       <c r="AT100" s="24"/>
     </row>
     <row r="101" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A101" s="33" t="s">
+      <c r="A101" s="32" t="s">
         <v>47</v>
       </c>
       <c r="B101" s="16">
         <v>500</v>
       </c>
-      <c r="C101" s="34"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="32" t="s">
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G101" s="34"/>
-      <c r="H101" s="32" t="s">
+      <c r="G101" s="35"/>
+      <c r="H101" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I101" s="33" t="s">
+      <c r="I101" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J101" s="32" t="s">
+      <c r="J101" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K101" s="31"/>
-      <c r="L101" s="32"/>
+      <c r="K101" s="33"/>
+      <c r="L101" s="34"/>
       <c r="Q101" s="17">
         <v>3.6363636363636362E-2</v>
       </c>
@@ -9723,20 +9732,20 @@
       </c>
     </row>
     <row r="102" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A102" s="33"/>
+      <c r="A102" s="32"/>
       <c r="B102" s="16">
         <v>1000</v>
       </c>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
-      <c r="E102" s="34"/>
-      <c r="F102" s="32"/>
-      <c r="G102" s="34"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="33"/>
-      <c r="J102" s="32"/>
-      <c r="K102" s="31"/>
-      <c r="L102" s="32"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="34"/>
+      <c r="I102" s="32"/>
+      <c r="J102" s="34"/>
+      <c r="K102" s="33"/>
+      <c r="L102" s="34"/>
       <c r="Q102" s="17">
         <v>0</v>
       </c>
@@ -9804,20 +9813,20 @@
       </c>
     </row>
     <row r="103" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A103" s="33"/>
+      <c r="A103" s="32"/>
       <c r="B103" s="16">
         <v>2000</v>
       </c>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="32"/>
-      <c r="G103" s="34"/>
-      <c r="H103" s="32"/>
-      <c r="I103" s="33"/>
-      <c r="J103" s="32"/>
-      <c r="K103" s="31"/>
-      <c r="L103" s="32"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="34"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="34"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="34"/>
+      <c r="K103" s="33"/>
+      <c r="L103" s="34"/>
       <c r="Q103" s="17">
         <v>0</v>
       </c>
@@ -9885,20 +9894,20 @@
       </c>
     </row>
     <row r="104" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A104" s="33"/>
+      <c r="A104" s="32"/>
       <c r="B104" s="16">
         <v>5000</v>
       </c>
-      <c r="C104" s="34"/>
-      <c r="D104" s="34"/>
-      <c r="E104" s="34"/>
-      <c r="F104" s="32"/>
-      <c r="G104" s="34"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="33"/>
-      <c r="J104" s="32"/>
-      <c r="K104" s="31"/>
-      <c r="L104" s="32"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="34"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="34"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="34"/>
+      <c r="K104" s="33"/>
+      <c r="L104" s="34"/>
       <c r="Q104" s="17">
         <v>0</v>
       </c>
@@ -9966,30 +9975,30 @@
       </c>
     </row>
     <row r="105" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A105" s="33" t="s">
+      <c r="A105" s="32" t="s">
         <v>58</v>
       </c>
       <c r="B105" s="16">
         <v>500</v>
       </c>
-      <c r="C105" s="34"/>
-      <c r="D105" s="34"/>
-      <c r="E105" s="34"/>
-      <c r="F105" s="32" t="s">
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="35"/>
+      <c r="F105" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G105" s="34"/>
-      <c r="H105" s="32" t="s">
+      <c r="G105" s="35"/>
+      <c r="H105" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I105" s="33" t="s">
+      <c r="I105" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J105" s="32" t="s">
+      <c r="J105" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K105" s="31"/>
-      <c r="L105" s="32"/>
+      <c r="K105" s="33"/>
+      <c r="L105" s="34"/>
       <c r="Q105" s="17">
         <v>9.8924731182795697E-2</v>
       </c>
@@ -10057,20 +10066,20 @@
       </c>
     </row>
     <row r="106" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A106" s="33"/>
+      <c r="A106" s="32"/>
       <c r="B106" s="16">
         <v>1000</v>
       </c>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34"/>
-      <c r="E106" s="34"/>
-      <c r="F106" s="32"/>
-      <c r="G106" s="34"/>
-      <c r="H106" s="32"/>
-      <c r="I106" s="33"/>
-      <c r="J106" s="32"/>
-      <c r="K106" s="31"/>
-      <c r="L106" s="32"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="35"/>
+      <c r="F106" s="34"/>
+      <c r="G106" s="35"/>
+      <c r="H106" s="34"/>
+      <c r="I106" s="32"/>
+      <c r="J106" s="34"/>
+      <c r="K106" s="33"/>
+      <c r="L106" s="34"/>
       <c r="Q106" s="17">
         <v>7.9569892473118284E-2</v>
       </c>
@@ -10138,20 +10147,20 @@
       </c>
     </row>
     <row r="107" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A107" s="33"/>
+      <c r="A107" s="32"/>
       <c r="B107" s="16">
         <v>2000</v>
       </c>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="34"/>
-      <c r="F107" s="32"/>
-      <c r="G107" s="34"/>
-      <c r="H107" s="32"/>
-      <c r="I107" s="33"/>
-      <c r="J107" s="32"/>
-      <c r="K107" s="31"/>
-      <c r="L107" s="32"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="35"/>
+      <c r="F107" s="34"/>
+      <c r="G107" s="35"/>
+      <c r="H107" s="34"/>
+      <c r="I107" s="32"/>
+      <c r="J107" s="34"/>
+      <c r="K107" s="33"/>
+      <c r="L107" s="34"/>
       <c r="Q107" s="17">
         <v>5.6989247311827959E-2</v>
       </c>
@@ -10219,20 +10228,20 @@
       </c>
     </row>
     <row r="108" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A108" s="33"/>
+      <c r="A108" s="32"/>
       <c r="B108" s="16">
         <v>5000</v>
       </c>
-      <c r="C108" s="34"/>
-      <c r="D108" s="34"/>
-      <c r="E108" s="34"/>
-      <c r="F108" s="32"/>
-      <c r="G108" s="34"/>
-      <c r="H108" s="32"/>
-      <c r="I108" s="33"/>
-      <c r="J108" s="32"/>
-      <c r="K108" s="31"/>
-      <c r="L108" s="32"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="35"/>
+      <c r="F108" s="34"/>
+      <c r="G108" s="35"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="34"/>
+      <c r="K108" s="33"/>
+      <c r="L108" s="34"/>
       <c r="Q108" s="17">
         <v>5.6989247311827959E-2</v>
       </c>
@@ -10300,30 +10309,30 @@
       </c>
     </row>
     <row r="109" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A109" s="33" t="s">
+      <c r="A109" s="32" t="s">
         <v>59</v>
       </c>
       <c r="B109" s="16">
         <v>500</v>
       </c>
-      <c r="C109" s="34"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="32" t="s">
+      <c r="C109" s="35"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="35"/>
+      <c r="F109" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G109" s="34"/>
-      <c r="H109" s="32" t="s">
+      <c r="G109" s="35"/>
+      <c r="H109" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I109" s="33" t="s">
+      <c r="I109" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J109" s="32" t="s">
+      <c r="J109" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K109" s="31"/>
-      <c r="L109" s="32"/>
+      <c r="K109" s="33"/>
+      <c r="L109" s="34"/>
       <c r="Q109" s="17">
         <v>6.9527896995708161E-2</v>
       </c>
@@ -10391,20 +10400,20 @@
       </c>
     </row>
     <row r="110" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A110" s="33"/>
+      <c r="A110" s="32"/>
       <c r="B110" s="16">
         <v>1000</v>
       </c>
-      <c r="C110" s="34"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="32"/>
-      <c r="G110" s="34"/>
-      <c r="H110" s="32"/>
-      <c r="I110" s="33"/>
-      <c r="J110" s="32"/>
-      <c r="K110" s="31"/>
-      <c r="L110" s="32"/>
+      <c r="C110" s="35"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="35"/>
+      <c r="F110" s="34"/>
+      <c r="G110" s="35"/>
+      <c r="H110" s="34"/>
+      <c r="I110" s="32"/>
+      <c r="J110" s="34"/>
+      <c r="K110" s="33"/>
+      <c r="L110" s="34"/>
       <c r="Q110" s="17">
         <v>6.9527896995708161E-2</v>
       </c>
@@ -10472,20 +10481,20 @@
       </c>
     </row>
     <row r="111" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A111" s="33"/>
+      <c r="A111" s="32"/>
       <c r="B111" s="16">
         <v>2000</v>
       </c>
-      <c r="C111" s="34"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="32"/>
-      <c r="G111" s="34"/>
-      <c r="H111" s="32"/>
-      <c r="I111" s="33"/>
-      <c r="J111" s="32"/>
-      <c r="K111" s="31"/>
-      <c r="L111" s="32"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="34"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="34"/>
+      <c r="I111" s="32"/>
+      <c r="J111" s="34"/>
+      <c r="K111" s="33"/>
+      <c r="L111" s="34"/>
       <c r="Q111" s="17">
         <v>4.2060085836909872E-2</v>
       </c>
@@ -10553,20 +10562,20 @@
       </c>
     </row>
     <row r="112" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A112" s="33"/>
+      <c r="A112" s="32"/>
       <c r="B112" s="16">
         <v>5000</v>
       </c>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="34"/>
-      <c r="F112" s="32"/>
-      <c r="G112" s="34"/>
-      <c r="H112" s="32"/>
-      <c r="I112" s="33"/>
-      <c r="J112" s="32"/>
-      <c r="K112" s="31"/>
-      <c r="L112" s="32"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="34"/>
+      <c r="I112" s="32"/>
+      <c r="J112" s="34"/>
+      <c r="K112" s="33"/>
+      <c r="L112" s="34"/>
       <c r="Q112" s="17">
         <v>3.8626609442060089E-2</v>
       </c>
@@ -10654,34 +10663,34 @@
       <c r="AP113" s="24"/>
     </row>
     <row r="114" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A114" s="33" t="s">
+      <c r="A114" s="32" t="s">
         <v>60</v>
       </c>
       <c r="B114" s="20">
         <v>500</v>
       </c>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="32" t="s">
+      <c r="C114" s="35"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="32" t="s">
+      <c r="F114" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G114" s="32" t="s">
+      <c r="G114" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H114" s="32" t="s">
+      <c r="H114" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I114" s="32" t="s">
+      <c r="I114" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J114" s="32" t="s">
+      <c r="J114" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K114" s="31"/>
-      <c r="L114" s="32"/>
+      <c r="K114" s="33"/>
+      <c r="L114" s="34"/>
       <c r="Q114" s="21">
         <v>4.443657641724328E-2</v>
       </c>
@@ -10724,20 +10733,20 @@
       </c>
     </row>
     <row r="115" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A115" s="33"/>
+      <c r="A115" s="32"/>
       <c r="B115" s="20">
         <v>1000</v>
       </c>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="32"/>
-      <c r="F115" s="32"/>
-      <c r="G115" s="32"/>
-      <c r="H115" s="32"/>
-      <c r="I115" s="32"/>
-      <c r="J115" s="32"/>
-      <c r="K115" s="31"/>
-      <c r="L115" s="32"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="35"/>
+      <c r="E115" s="34"/>
+      <c r="F115" s="34"/>
+      <c r="G115" s="34"/>
+      <c r="H115" s="34"/>
+      <c r="I115" s="34"/>
+      <c r="J115" s="34"/>
+      <c r="K115" s="33"/>
+      <c r="L115" s="34"/>
       <c r="Q115" s="21">
         <v>3.5344166024718369E-2</v>
       </c>
@@ -10780,20 +10789,20 @@
       </c>
     </row>
     <row r="116" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A116" s="33"/>
+      <c r="A116" s="32"/>
       <c r="B116" s="20">
         <v>2000</v>
       </c>
-      <c r="C116" s="34"/>
-      <c r="D116" s="34"/>
-      <c r="E116" s="32"/>
-      <c r="F116" s="32"/>
-      <c r="G116" s="32"/>
-      <c r="H116" s="32"/>
-      <c r="I116" s="32"/>
-      <c r="J116" s="32"/>
-      <c r="K116" s="31"/>
-      <c r="L116" s="32"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="35"/>
+      <c r="E116" s="34"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="34"/>
+      <c r="I116" s="34"/>
+      <c r="J116" s="34"/>
+      <c r="K116" s="33"/>
+      <c r="L116" s="34"/>
       <c r="Q116" s="21">
         <v>2.8082599737989749E-2</v>
       </c>
@@ -10836,20 +10845,20 @@
       </c>
     </row>
     <row r="117" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A117" s="33"/>
+      <c r="A117" s="32"/>
       <c r="B117" s="20">
         <v>5000</v>
       </c>
-      <c r="C117" s="34"/>
-      <c r="D117" s="34"/>
-      <c r="E117" s="32"/>
-      <c r="F117" s="32"/>
-      <c r="G117" s="32"/>
-      <c r="H117" s="32"/>
-      <c r="I117" s="32"/>
-      <c r="J117" s="32"/>
-      <c r="K117" s="31"/>
-      <c r="L117" s="32"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="34"/>
+      <c r="I117" s="34"/>
+      <c r="J117" s="34"/>
+      <c r="K117" s="33"/>
+      <c r="L117" s="34"/>
       <c r="Q117" s="21">
         <v>2.2452105312462039E-2</v>
       </c>
@@ -10892,34 +10901,34 @@
       </c>
     </row>
     <row r="118" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A118" s="33" t="s">
+      <c r="A118" s="32" t="s">
         <v>61</v>
       </c>
       <c r="B118" s="20">
         <v>500</v>
       </c>
-      <c r="C118" s="34"/>
-      <c r="D118" s="34"/>
-      <c r="E118" s="32" t="s">
+      <c r="C118" s="35"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F118" s="32" t="s">
+      <c r="F118" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G118" s="32" t="s">
+      <c r="G118" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H118" s="32" t="s">
+      <c r="H118" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I118" s="32" t="s">
+      <c r="I118" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J118" s="32" t="s">
+      <c r="J118" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K118" s="31"/>
-      <c r="L118" s="32"/>
+      <c r="K118" s="33"/>
+      <c r="L118" s="34"/>
       <c r="Q118" s="21">
         <v>7.1047589705956982E-2</v>
       </c>
@@ -10962,20 +10971,20 @@
       </c>
     </row>
     <row r="119" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A119" s="33"/>
+      <c r="A119" s="32"/>
       <c r="B119" s="20">
         <v>1000</v>
       </c>
-      <c r="C119" s="34"/>
-      <c r="D119" s="34"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="32"/>
-      <c r="G119" s="32"/>
-      <c r="H119" s="32"/>
-      <c r="I119" s="32"/>
-      <c r="J119" s="32"/>
-      <c r="K119" s="31"/>
-      <c r="L119" s="32"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="35"/>
+      <c r="E119" s="34"/>
+      <c r="F119" s="34"/>
+      <c r="G119" s="34"/>
+      <c r="H119" s="34"/>
+      <c r="I119" s="34"/>
+      <c r="J119" s="34"/>
+      <c r="K119" s="33"/>
+      <c r="L119" s="34"/>
       <c r="Q119" s="21">
         <v>5.941429130028815E-2</v>
       </c>
@@ -11018,20 +11027,20 @@
       </c>
     </row>
     <row r="120" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A120" s="33"/>
+      <c r="A120" s="32"/>
       <c r="B120" s="20">
         <v>2000</v>
       </c>
-      <c r="C120" s="34"/>
-      <c r="D120" s="34"/>
-      <c r="E120" s="32"/>
-      <c r="F120" s="32"/>
-      <c r="G120" s="32"/>
-      <c r="H120" s="32"/>
-      <c r="I120" s="32"/>
-      <c r="J120" s="32"/>
-      <c r="K120" s="31"/>
-      <c r="L120" s="32"/>
+      <c r="C120" s="35"/>
+      <c r="D120" s="35"/>
+      <c r="E120" s="34"/>
+      <c r="F120" s="34"/>
+      <c r="G120" s="34"/>
+      <c r="H120" s="34"/>
+      <c r="I120" s="34"/>
+      <c r="J120" s="34"/>
+      <c r="K120" s="33"/>
+      <c r="L120" s="34"/>
       <c r="Q120" s="21">
         <v>5.0924734901751069E-2</v>
       </c>
@@ -11074,20 +11083,20 @@
       </c>
     </row>
     <row r="121" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A121" s="33"/>
+      <c r="A121" s="32"/>
       <c r="B121" s="20">
         <v>5000</v>
       </c>
-      <c r="C121" s="34"/>
-      <c r="D121" s="34"/>
-      <c r="E121" s="32"/>
-      <c r="F121" s="32"/>
-      <c r="G121" s="32"/>
-      <c r="H121" s="32"/>
-      <c r="I121" s="32"/>
-      <c r="J121" s="32"/>
-      <c r="K121" s="31"/>
-      <c r="L121" s="32"/>
+      <c r="C121" s="35"/>
+      <c r="D121" s="35"/>
+      <c r="E121" s="34"/>
+      <c r="F121" s="34"/>
+      <c r="G121" s="34"/>
+      <c r="H121" s="34"/>
+      <c r="I121" s="34"/>
+      <c r="J121" s="34"/>
+      <c r="K121" s="33"/>
+      <c r="L121" s="34"/>
       <c r="Q121" s="21">
         <v>4.265213538910461E-2</v>
       </c>
@@ -11130,34 +11139,34 @@
       </c>
     </row>
     <row r="122" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A122" s="33" t="s">
+      <c r="A122" s="32" t="s">
         <v>62</v>
       </c>
       <c r="B122" s="20">
         <v>500</v>
       </c>
-      <c r="C122" s="34"/>
-      <c r="D122" s="34"/>
-      <c r="E122" s="32" t="s">
+      <c r="C122" s="35"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F122" s="32" t="s">
+      <c r="F122" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G122" s="32" t="s">
+      <c r="G122" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H122" s="32" t="s">
+      <c r="H122" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I122" s="32" t="s">
+      <c r="I122" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J122" s="32" t="s">
+      <c r="J122" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K122" s="31"/>
-      <c r="L122" s="32"/>
+      <c r="K122" s="33"/>
+      <c r="L122" s="34"/>
       <c r="Q122" s="21">
         <v>8.9658537610427358E-2</v>
       </c>
@@ -11200,20 +11209,20 @@
       </c>
     </row>
     <row r="123" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A123" s="33"/>
+      <c r="A123" s="32"/>
       <c r="B123" s="20">
         <v>1000</v>
       </c>
-      <c r="C123" s="34"/>
-      <c r="D123" s="34"/>
-      <c r="E123" s="32"/>
-      <c r="F123" s="32"/>
-      <c r="G123" s="32"/>
-      <c r="H123" s="32"/>
-      <c r="I123" s="32"/>
-      <c r="J123" s="32"/>
-      <c r="K123" s="31"/>
-      <c r="L123" s="32"/>
+      <c r="C123" s="35"/>
+      <c r="D123" s="35"/>
+      <c r="E123" s="34"/>
+      <c r="F123" s="34"/>
+      <c r="G123" s="34"/>
+      <c r="H123" s="34"/>
+      <c r="I123" s="34"/>
+      <c r="J123" s="34"/>
+      <c r="K123" s="33"/>
+      <c r="L123" s="34"/>
       <c r="Q123" s="21">
         <v>7.6114428737574763E-2</v>
       </c>
@@ -11256,20 +11265,20 @@
       </c>
     </row>
     <row r="124" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A124" s="33"/>
+      <c r="A124" s="32"/>
       <c r="B124" s="20">
         <v>2000</v>
       </c>
-      <c r="C124" s="34"/>
-      <c r="D124" s="34"/>
-      <c r="E124" s="32"/>
-      <c r="F124" s="32"/>
-      <c r="G124" s="32"/>
-      <c r="H124" s="32"/>
-      <c r="I124" s="32"/>
-      <c r="J124" s="32"/>
-      <c r="K124" s="31"/>
-      <c r="L124" s="32"/>
+      <c r="C124" s="35"/>
+      <c r="D124" s="35"/>
+      <c r="E124" s="34"/>
+      <c r="F124" s="34"/>
+      <c r="G124" s="34"/>
+      <c r="H124" s="34"/>
+      <c r="I124" s="34"/>
+      <c r="J124" s="34"/>
+      <c r="K124" s="33"/>
+      <c r="L124" s="34"/>
       <c r="Q124" s="21">
         <v>6.6046132662835003E-2</v>
       </c>
@@ -11312,20 +11321,20 @@
       </c>
     </row>
     <row r="125" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A125" s="33"/>
+      <c r="A125" s="32"/>
       <c r="B125" s="20">
         <v>5000</v>
       </c>
-      <c r="C125" s="34"/>
-      <c r="D125" s="34"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="32"/>
-      <c r="G125" s="32"/>
-      <c r="H125" s="32"/>
-      <c r="I125" s="32"/>
-      <c r="J125" s="32"/>
-      <c r="K125" s="31"/>
-      <c r="L125" s="32"/>
+      <c r="C125" s="35"/>
+      <c r="D125" s="35"/>
+      <c r="E125" s="34"/>
+      <c r="F125" s="34"/>
+      <c r="G125" s="34"/>
+      <c r="H125" s="34"/>
+      <c r="I125" s="34"/>
+      <c r="J125" s="34"/>
+      <c r="K125" s="33"/>
+      <c r="L125" s="34"/>
       <c r="Q125" s="21">
         <v>5.5689497333012518E-2</v>
       </c>
@@ -11368,34 +11377,34 @@
       </c>
     </row>
     <row r="126" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A126" s="33" t="s">
+      <c r="A126" s="32" t="s">
         <v>63</v>
       </c>
       <c r="B126" s="20">
         <v>500</v>
       </c>
-      <c r="C126" s="34"/>
-      <c r="D126" s="34"/>
-      <c r="E126" s="32" t="s">
+      <c r="C126" s="35"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F126" s="32" t="s">
+      <c r="F126" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G126" s="32" t="s">
+      <c r="G126" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H126" s="32" t="s">
+      <c r="H126" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I126" s="32" t="s">
+      <c r="I126" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J126" s="32" t="s">
+      <c r="J126" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K126" s="31"/>
-      <c r="L126" s="32"/>
+      <c r="K126" s="33"/>
+      <c r="L126" s="34"/>
       <c r="Q126" s="21">
         <v>4.6134437618808748E-2</v>
       </c>
@@ -11438,20 +11447,20 @@
       </c>
     </row>
     <row r="127" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A127" s="33"/>
+      <c r="A127" s="32"/>
       <c r="B127" s="20">
         <v>1000</v>
       </c>
-      <c r="C127" s="34"/>
-      <c r="D127" s="34"/>
-      <c r="E127" s="32"/>
-      <c r="F127" s="32"/>
-      <c r="G127" s="32"/>
-      <c r="H127" s="32"/>
-      <c r="I127" s="32"/>
-      <c r="J127" s="32"/>
-      <c r="K127" s="31"/>
-      <c r="L127" s="32"/>
+      <c r="C127" s="35"/>
+      <c r="D127" s="35"/>
+      <c r="E127" s="34"/>
+      <c r="F127" s="34"/>
+      <c r="G127" s="34"/>
+      <c r="H127" s="34"/>
+      <c r="I127" s="34"/>
+      <c r="J127" s="34"/>
+      <c r="K127" s="33"/>
+      <c r="L127" s="34"/>
       <c r="Q127" s="21">
         <v>3.8065453074537847E-2</v>
       </c>
@@ -11494,20 +11503,20 @@
       </c>
     </row>
     <row r="128" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A128" s="33"/>
+      <c r="A128" s="32"/>
       <c r="B128" s="20">
         <v>2000</v>
       </c>
-      <c r="C128" s="34"/>
-      <c r="D128" s="34"/>
-      <c r="E128" s="32"/>
-      <c r="F128" s="32"/>
-      <c r="G128" s="32"/>
-      <c r="H128" s="32"/>
-      <c r="I128" s="32"/>
-      <c r="J128" s="32"/>
-      <c r="K128" s="31"/>
-      <c r="L128" s="32"/>
+      <c r="C128" s="35"/>
+      <c r="D128" s="35"/>
+      <c r="E128" s="34"/>
+      <c r="F128" s="34"/>
+      <c r="G128" s="34"/>
+      <c r="H128" s="34"/>
+      <c r="I128" s="34"/>
+      <c r="J128" s="34"/>
+      <c r="K128" s="33"/>
+      <c r="L128" s="34"/>
       <c r="Q128" s="21">
         <v>3.043759949668352E-2</v>
       </c>
@@ -11550,20 +11559,20 @@
       </c>
     </row>
     <row r="129" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A129" s="33"/>
+      <c r="A129" s="32"/>
       <c r="B129" s="20">
         <v>5000</v>
       </c>
-      <c r="C129" s="34"/>
-      <c r="D129" s="34"/>
-      <c r="E129" s="32"/>
-      <c r="F129" s="32"/>
-      <c r="G129" s="32"/>
-      <c r="H129" s="32"/>
-      <c r="I129" s="32"/>
-      <c r="J129" s="32"/>
-      <c r="K129" s="31"/>
-      <c r="L129" s="32"/>
+      <c r="C129" s="35"/>
+      <c r="D129" s="35"/>
+      <c r="E129" s="34"/>
+      <c r="F129" s="34"/>
+      <c r="G129" s="34"/>
+      <c r="H129" s="34"/>
+      <c r="I129" s="34"/>
+      <c r="J129" s="34"/>
+      <c r="K129" s="33"/>
+      <c r="L129" s="34"/>
       <c r="Q129" s="21">
         <v>2.338570877260181E-2</v>
       </c>
@@ -11606,34 +11615,34 @@
       </c>
     </row>
     <row r="130" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A130" s="33" t="s">
+      <c r="A130" s="32" t="s">
         <v>64</v>
       </c>
       <c r="B130" s="20">
         <v>500</v>
       </c>
-      <c r="C130" s="34"/>
-      <c r="D130" s="34"/>
-      <c r="E130" s="32" t="s">
+      <c r="C130" s="35"/>
+      <c r="D130" s="35"/>
+      <c r="E130" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F130" s="32" t="s">
+      <c r="F130" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G130" s="32" t="s">
+      <c r="G130" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H130" s="32" t="s">
+      <c r="H130" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I130" s="32" t="s">
+      <c r="I130" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J130" s="32" t="s">
+      <c r="J130" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K130" s="31"/>
-      <c r="L130" s="32"/>
+      <c r="K130" s="33"/>
+      <c r="L130" s="34"/>
       <c r="Q130" s="21">
         <v>0.1152570606920717</v>
       </c>
@@ -11676,20 +11685,20 @@
       </c>
     </row>
     <row r="131" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A131" s="33"/>
+      <c r="A131" s="32"/>
       <c r="B131" s="20">
         <v>1000</v>
       </c>
-      <c r="C131" s="34"/>
-      <c r="D131" s="34"/>
-      <c r="E131" s="32"/>
-      <c r="F131" s="32"/>
-      <c r="G131" s="32"/>
-      <c r="H131" s="32"/>
-      <c r="I131" s="32"/>
-      <c r="J131" s="32"/>
-      <c r="K131" s="31"/>
-      <c r="L131" s="32"/>
+      <c r="C131" s="35"/>
+      <c r="D131" s="35"/>
+      <c r="E131" s="34"/>
+      <c r="F131" s="34"/>
+      <c r="G131" s="34"/>
+      <c r="H131" s="34"/>
+      <c r="I131" s="34"/>
+      <c r="J131" s="34"/>
+      <c r="K131" s="33"/>
+      <c r="L131" s="34"/>
       <c r="Q131" s="21">
         <v>0.1002042742564699</v>
       </c>
@@ -11732,20 +11741,20 @@
       </c>
     </row>
     <row r="132" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A132" s="33"/>
+      <c r="A132" s="32"/>
       <c r="B132" s="20">
         <v>2000</v>
       </c>
-      <c r="C132" s="34"/>
-      <c r="D132" s="34"/>
-      <c r="E132" s="32"/>
-      <c r="F132" s="32"/>
-      <c r="G132" s="32"/>
-      <c r="H132" s="32"/>
-      <c r="I132" s="32"/>
-      <c r="J132" s="32"/>
-      <c r="K132" s="31"/>
-      <c r="L132" s="32"/>
+      <c r="C132" s="35"/>
+      <c r="D132" s="35"/>
+      <c r="E132" s="34"/>
+      <c r="F132" s="34"/>
+      <c r="G132" s="34"/>
+      <c r="H132" s="34"/>
+      <c r="I132" s="34"/>
+      <c r="J132" s="34"/>
+      <c r="K132" s="33"/>
+      <c r="L132" s="34"/>
       <c r="Q132" s="21">
         <v>8.7017300915142759E-2</v>
       </c>
@@ -11788,20 +11797,20 @@
       </c>
     </row>
     <row r="133" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A133" s="33"/>
+      <c r="A133" s="32"/>
       <c r="B133" s="20">
         <v>5000</v>
       </c>
-      <c r="C133" s="34"/>
-      <c r="D133" s="34"/>
-      <c r="E133" s="32"/>
-      <c r="F133" s="32"/>
-      <c r="G133" s="32"/>
-      <c r="H133" s="32"/>
-      <c r="I133" s="32"/>
-      <c r="J133" s="32"/>
-      <c r="K133" s="31"/>
-      <c r="L133" s="32"/>
+      <c r="C133" s="35"/>
+      <c r="D133" s="35"/>
+      <c r="E133" s="34"/>
+      <c r="F133" s="34"/>
+      <c r="G133" s="34"/>
+      <c r="H133" s="34"/>
+      <c r="I133" s="34"/>
+      <c r="J133" s="34"/>
+      <c r="K133" s="33"/>
+      <c r="L133" s="34"/>
       <c r="Q133" s="21">
         <v>7.3756359670079888E-2</v>
       </c>
@@ -11844,34 +11853,34 @@
       </c>
     </row>
     <row r="134" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A134" s="33" t="s">
+      <c r="A134" s="32" t="s">
         <v>65</v>
       </c>
       <c r="B134" s="23">
         <v>500</v>
       </c>
-      <c r="C134" s="34"/>
-      <c r="D134" s="34"/>
-      <c r="E134" s="32" t="s">
+      <c r="C134" s="35"/>
+      <c r="D134" s="35"/>
+      <c r="E134" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F134" s="32" t="s">
+      <c r="F134" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G134" s="32" t="s">
+      <c r="G134" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H134" s="32" t="s">
+      <c r="H134" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I134" s="32" t="s">
+      <c r="I134" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J134" s="32" t="s">
+      <c r="J134" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K134" s="31"/>
-      <c r="L134" s="32"/>
+      <c r="K134" s="33"/>
+      <c r="L134" s="34"/>
       <c r="Q134" s="21">
         <v>2.498125608872476E-2</v>
       </c>
@@ -11914,20 +11923,20 @@
       </c>
     </row>
     <row r="135" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A135" s="33"/>
+      <c r="A135" s="32"/>
       <c r="B135" s="23">
         <v>1000</v>
       </c>
-      <c r="C135" s="34"/>
-      <c r="D135" s="34"/>
-      <c r="E135" s="32"/>
-      <c r="F135" s="32"/>
-      <c r="G135" s="32"/>
-      <c r="H135" s="32"/>
-      <c r="I135" s="32"/>
-      <c r="J135" s="32"/>
-      <c r="K135" s="31"/>
-      <c r="L135" s="32"/>
+      <c r="C135" s="35"/>
+      <c r="D135" s="35"/>
+      <c r="E135" s="34"/>
+      <c r="F135" s="34"/>
+      <c r="G135" s="34"/>
+      <c r="H135" s="34"/>
+      <c r="I135" s="34"/>
+      <c r="J135" s="34"/>
+      <c r="K135" s="33"/>
+      <c r="L135" s="34"/>
       <c r="Q135" s="21">
         <v>1.218336174181304E-2</v>
       </c>
@@ -11970,20 +11979,20 @@
       </c>
     </row>
     <row r="136" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A136" s="33"/>
+      <c r="A136" s="32"/>
       <c r="B136" s="23">
         <v>2000</v>
       </c>
-      <c r="C136" s="34"/>
-      <c r="D136" s="34"/>
-      <c r="E136" s="32"/>
-      <c r="F136" s="32"/>
-      <c r="G136" s="32"/>
-      <c r="H136" s="32"/>
-      <c r="I136" s="32"/>
-      <c r="J136" s="32"/>
-      <c r="K136" s="31"/>
-      <c r="L136" s="32"/>
+      <c r="C136" s="35"/>
+      <c r="D136" s="35"/>
+      <c r="E136" s="34"/>
+      <c r="F136" s="34"/>
+      <c r="G136" s="34"/>
+      <c r="H136" s="34"/>
+      <c r="I136" s="34"/>
+      <c r="J136" s="34"/>
+      <c r="K136" s="33"/>
+      <c r="L136" s="34"/>
       <c r="Q136" s="21">
         <v>1.069088768625274E-3</v>
       </c>
@@ -12026,20 +12035,20 @@
       </c>
     </row>
     <row r="137" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A137" s="33"/>
+      <c r="A137" s="32"/>
       <c r="B137" s="23">
         <v>5000</v>
       </c>
-      <c r="C137" s="34"/>
-      <c r="D137" s="34"/>
-      <c r="E137" s="32"/>
-      <c r="F137" s="32"/>
-      <c r="G137" s="32"/>
-      <c r="H137" s="32"/>
-      <c r="I137" s="32"/>
-      <c r="J137" s="32"/>
-      <c r="K137" s="31"/>
-      <c r="L137" s="32"/>
+      <c r="C137" s="35"/>
+      <c r="D137" s="35"/>
+      <c r="E137" s="34"/>
+      <c r="F137" s="34"/>
+      <c r="G137" s="34"/>
+      <c r="H137" s="34"/>
+      <c r="I137" s="34"/>
+      <c r="J137" s="34"/>
+      <c r="K137" s="33"/>
+      <c r="L137" s="34"/>
       <c r="Q137" s="21">
         <v>-9.1371109484246621E-3</v>
       </c>
@@ -12082,34 +12091,34 @@
       </c>
     </row>
     <row r="138" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A138" s="33" t="s">
+      <c r="A138" s="32" t="s">
         <v>66</v>
       </c>
       <c r="B138" s="23">
         <v>500</v>
       </c>
-      <c r="C138" s="34"/>
-      <c r="D138" s="34"/>
-      <c r="E138" s="32" t="s">
+      <c r="C138" s="35"/>
+      <c r="D138" s="35"/>
+      <c r="E138" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F138" s="32" t="s">
+      <c r="F138" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G138" s="32" t="s">
+      <c r="G138" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H138" s="32" t="s">
+      <c r="H138" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I138" s="32" t="s">
+      <c r="I138" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J138" s="32" t="s">
+      <c r="J138" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K138" s="31"/>
-      <c r="L138" s="32"/>
+      <c r="K138" s="33"/>
+      <c r="L138" s="34"/>
       <c r="Q138" s="21">
         <v>-0.17738453448581121</v>
       </c>
@@ -12152,20 +12161,20 @@
       </c>
     </row>
     <row r="139" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A139" s="33"/>
+      <c r="A139" s="32"/>
       <c r="B139" s="23">
         <v>1000</v>
       </c>
-      <c r="C139" s="34"/>
-      <c r="D139" s="34"/>
-      <c r="E139" s="32"/>
-      <c r="F139" s="32"/>
-      <c r="G139" s="32"/>
-      <c r="H139" s="32"/>
-      <c r="I139" s="32"/>
-      <c r="J139" s="32"/>
-      <c r="K139" s="31"/>
-      <c r="L139" s="32"/>
+      <c r="C139" s="35"/>
+      <c r="D139" s="35"/>
+      <c r="E139" s="34"/>
+      <c r="F139" s="34"/>
+      <c r="G139" s="34"/>
+      <c r="H139" s="34"/>
+      <c r="I139" s="34"/>
+      <c r="J139" s="34"/>
+      <c r="K139" s="33"/>
+      <c r="L139" s="34"/>
       <c r="Q139" s="21">
         <v>-0.18586597930849791</v>
       </c>
@@ -12208,20 +12217,20 @@
       </c>
     </row>
     <row r="140" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A140" s="33"/>
+      <c r="A140" s="32"/>
       <c r="B140" s="23">
         <v>2000</v>
       </c>
-      <c r="C140" s="34"/>
-      <c r="D140" s="34"/>
-      <c r="E140" s="32"/>
-      <c r="F140" s="32"/>
-      <c r="G140" s="32"/>
-      <c r="H140" s="32"/>
-      <c r="I140" s="32"/>
-      <c r="J140" s="32"/>
-      <c r="K140" s="31"/>
-      <c r="L140" s="32"/>
+      <c r="C140" s="35"/>
+      <c r="D140" s="35"/>
+      <c r="E140" s="34"/>
+      <c r="F140" s="34"/>
+      <c r="G140" s="34"/>
+      <c r="H140" s="34"/>
+      <c r="I140" s="34"/>
+      <c r="J140" s="34"/>
+      <c r="K140" s="33"/>
+      <c r="L140" s="34"/>
       <c r="Q140" s="21">
         <v>-0.19495060616699669</v>
       </c>
@@ -12264,20 +12273,20 @@
       </c>
     </row>
     <row r="141" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A141" s="33"/>
+      <c r="A141" s="32"/>
       <c r="B141" s="23">
         <v>5000</v>
       </c>
-      <c r="C141" s="34"/>
-      <c r="D141" s="34"/>
-      <c r="E141" s="32"/>
-      <c r="F141" s="32"/>
-      <c r="G141" s="32"/>
-      <c r="H141" s="32"/>
-      <c r="I141" s="32"/>
-      <c r="J141" s="32"/>
-      <c r="K141" s="31"/>
-      <c r="L141" s="32"/>
+      <c r="C141" s="35"/>
+      <c r="D141" s="35"/>
+      <c r="E141" s="34"/>
+      <c r="F141" s="34"/>
+      <c r="G141" s="34"/>
+      <c r="H141" s="34"/>
+      <c r="I141" s="34"/>
+      <c r="J141" s="34"/>
+      <c r="K141" s="33"/>
+      <c r="L141" s="34"/>
       <c r="Q141" s="21">
         <v>-0.2051528858534353</v>
       </c>
@@ -12338,41 +12347,41 @@
       <c r="Q147"/>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A148" s="33" t="s">
+      <c r="A148" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B148" s="33"/>
-      <c r="C148" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D148" s="33"/>
-      <c r="E148" s="33" t="s">
+      <c r="B148" s="32"/>
+      <c r="C148" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D148" s="32"/>
+      <c r="E148" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F148" s="33"/>
-      <c r="G148" s="33" t="s">
+      <c r="F148" s="32"/>
+      <c r="G148" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H148" s="33"/>
-      <c r="I148" s="33" t="s">
+      <c r="H148" s="32"/>
+      <c r="I148" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J148" s="33"/>
-      <c r="K148" s="33" t="s">
+      <c r="J148" s="32"/>
+      <c r="K148" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="L148" s="33"/>
-      <c r="M148" s="34" t="s">
+      <c r="L148" s="32"/>
+      <c r="M148" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="N148" s="34"/>
+      <c r="N148" s="35"/>
       <c r="P148" s="11"/>
       <c r="Q148"/>
       <c r="R148" s="11"/>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A149" s="33"/>
-      <c r="B149" s="33"/>
+      <c r="A149" s="32"/>
+      <c r="B149" s="32"/>
       <c r="C149" s="12" t="s">
         <v>7</v>
       </c>
@@ -12416,7 +12425,7 @@
       <c r="R149" s="12"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A150" s="33" t="s">
+      <c r="A150" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B150" s="11">
@@ -12428,18 +12437,18 @@
       <c r="F150" s="13"/>
       <c r="G150" s="12"/>
       <c r="H150" s="13"/>
-      <c r="I150" s="34">
+      <c r="I150" s="35">
         <v>0.22309999999999999</v>
       </c>
-      <c r="J150" s="32">
+      <c r="J150" s="34">
         <v>0.17599999999999999</v>
       </c>
-      <c r="K150" s="31"/>
-      <c r="L150" s="32"/>
+      <c r="K150" s="33"/>
+      <c r="L150" s="34"/>
       <c r="Q150"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A151" s="33"/>
+      <c r="A151" s="32"/>
       <c r="B151" s="11">
         <v>1000</v>
       </c>
@@ -12449,14 +12458,14 @@
       <c r="F151" s="13"/>
       <c r="G151" s="12"/>
       <c r="H151" s="13"/>
-      <c r="I151" s="34"/>
-      <c r="J151" s="32"/>
-      <c r="K151" s="31"/>
-      <c r="L151" s="32"/>
+      <c r="I151" s="35"/>
+      <c r="J151" s="34"/>
+      <c r="K151" s="33"/>
+      <c r="L151" s="34"/>
       <c r="Q151"/>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A152" s="33"/>
+      <c r="A152" s="32"/>
       <c r="B152" s="11">
         <v>2000</v>
       </c>
@@ -12466,14 +12475,14 @@
       <c r="F152" s="13"/>
       <c r="G152" s="12"/>
       <c r="H152" s="13"/>
-      <c r="I152" s="34"/>
-      <c r="J152" s="32"/>
-      <c r="K152" s="31"/>
-      <c r="L152" s="32"/>
+      <c r="I152" s="35"/>
+      <c r="J152" s="34"/>
+      <c r="K152" s="33"/>
+      <c r="L152" s="34"/>
       <c r="Q152"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A153" s="33"/>
+      <c r="A153" s="32"/>
       <c r="B153" s="11">
         <v>5000</v>
       </c>
@@ -12483,14 +12492,14 @@
       <c r="F153" s="13"/>
       <c r="G153" s="12"/>
       <c r="H153" s="13"/>
-      <c r="I153" s="34"/>
-      <c r="J153" s="32"/>
-      <c r="K153" s="31"/>
-      <c r="L153" s="32"/>
+      <c r="I153" s="35"/>
+      <c r="J153" s="34"/>
+      <c r="K153" s="33"/>
+      <c r="L153" s="34"/>
       <c r="Q153"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A154" s="33" t="s">
+      <c r="A154" s="32" t="s">
         <v>35</v>
       </c>
       <c r="B154" s="11">
@@ -12502,14 +12511,14 @@
       <c r="F154" s="13"/>
       <c r="G154" s="12"/>
       <c r="H154" s="13"/>
-      <c r="I154" s="34"/>
-      <c r="J154" s="32"/>
-      <c r="K154" s="31"/>
-      <c r="L154" s="32"/>
+      <c r="I154" s="35"/>
+      <c r="J154" s="34"/>
+      <c r="K154" s="33"/>
+      <c r="L154" s="34"/>
       <c r="Q154"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A155" s="33"/>
+      <c r="A155" s="32"/>
       <c r="B155" s="11">
         <v>1000</v>
       </c>
@@ -12519,14 +12528,14 @@
       <c r="F155" s="13"/>
       <c r="G155" s="12"/>
       <c r="H155" s="13"/>
-      <c r="I155" s="34"/>
-      <c r="J155" s="32"/>
-      <c r="K155" s="31"/>
-      <c r="L155" s="32"/>
+      <c r="I155" s="35"/>
+      <c r="J155" s="34"/>
+      <c r="K155" s="33"/>
+      <c r="L155" s="34"/>
       <c r="Q155"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A156" s="33"/>
+      <c r="A156" s="32"/>
       <c r="B156" s="11">
         <v>2000</v>
       </c>
@@ -12536,14 +12545,14 @@
       <c r="F156" s="13"/>
       <c r="G156" s="12"/>
       <c r="H156" s="13"/>
-      <c r="I156" s="34"/>
-      <c r="J156" s="32"/>
-      <c r="K156" s="31"/>
-      <c r="L156" s="32"/>
+      <c r="I156" s="35"/>
+      <c r="J156" s="34"/>
+      <c r="K156" s="33"/>
+      <c r="L156" s="34"/>
       <c r="Q156"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A157" s="33"/>
+      <c r="A157" s="32"/>
       <c r="B157" s="11">
         <v>5000</v>
       </c>
@@ -12553,14 +12562,14 @@
       <c r="F157" s="13"/>
       <c r="G157" s="12"/>
       <c r="H157" s="13"/>
-      <c r="I157" s="34"/>
-      <c r="J157" s="32"/>
-      <c r="K157" s="31"/>
-      <c r="L157" s="32"/>
+      <c r="I157" s="35"/>
+      <c r="J157" s="34"/>
+      <c r="K157" s="33"/>
+      <c r="L157" s="34"/>
       <c r="Q157"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A158" s="33" t="s">
+      <c r="A158" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B158" s="11">
@@ -12572,18 +12581,18 @@
       <c r="F158" s="13"/>
       <c r="G158" s="12"/>
       <c r="H158" s="13"/>
-      <c r="I158" s="34">
+      <c r="I158" s="35">
         <v>0.26700000000000002</v>
       </c>
-      <c r="J158" s="32">
+      <c r="J158" s="34">
         <v>0.435</v>
       </c>
-      <c r="K158" s="31"/>
-      <c r="L158" s="32"/>
+      <c r="K158" s="33"/>
+      <c r="L158" s="34"/>
       <c r="Q158"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A159" s="33"/>
+      <c r="A159" s="32"/>
       <c r="B159" s="11">
         <v>1000</v>
       </c>
@@ -12593,14 +12602,14 @@
       <c r="F159" s="13"/>
       <c r="G159" s="12"/>
       <c r="H159" s="13"/>
-      <c r="I159" s="34"/>
-      <c r="J159" s="32"/>
-      <c r="K159" s="31"/>
-      <c r="L159" s="32"/>
+      <c r="I159" s="35"/>
+      <c r="J159" s="34"/>
+      <c r="K159" s="33"/>
+      <c r="L159" s="34"/>
       <c r="Q159"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A160" s="33"/>
+      <c r="A160" s="32"/>
       <c r="B160" s="11">
         <v>2000</v>
       </c>
@@ -12610,14 +12619,14 @@
       <c r="F160" s="13"/>
       <c r="G160" s="12"/>
       <c r="H160" s="13"/>
-      <c r="I160" s="34"/>
-      <c r="J160" s="32"/>
-      <c r="K160" s="31"/>
-      <c r="L160" s="32"/>
+      <c r="I160" s="35"/>
+      <c r="J160" s="34"/>
+      <c r="K160" s="33"/>
+      <c r="L160" s="34"/>
       <c r="Q160"/>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A161" s="33"/>
+      <c r="A161" s="32"/>
       <c r="B161" s="11">
         <v>5000</v>
       </c>
@@ -12627,14 +12636,14 @@
       <c r="F161" s="13"/>
       <c r="G161" s="12"/>
       <c r="H161" s="13"/>
-      <c r="I161" s="34"/>
-      <c r="J161" s="32"/>
-      <c r="K161" s="31"/>
-      <c r="L161" s="32"/>
+      <c r="I161" s="35"/>
+      <c r="J161" s="34"/>
+      <c r="K161" s="33"/>
+      <c r="L161" s="34"/>
       <c r="Q161"/>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A162" s="33" t="s">
+      <c r="A162" s="32" t="s">
         <v>36</v>
       </c>
       <c r="B162" s="11">
@@ -12646,14 +12655,14 @@
       <c r="F162" s="13"/>
       <c r="G162" s="12"/>
       <c r="H162" s="13"/>
-      <c r="I162" s="34"/>
-      <c r="J162" s="32"/>
-      <c r="K162" s="31"/>
-      <c r="L162" s="32"/>
+      <c r="I162" s="35"/>
+      <c r="J162" s="34"/>
+      <c r="K162" s="33"/>
+      <c r="L162" s="34"/>
       <c r="Q162"/>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A163" s="33"/>
+      <c r="A163" s="32"/>
       <c r="B163" s="11">
         <v>1000</v>
       </c>
@@ -12663,14 +12672,14 @@
       <c r="F163" s="13"/>
       <c r="G163" s="12"/>
       <c r="H163" s="13"/>
-      <c r="I163" s="34"/>
-      <c r="J163" s="32"/>
-      <c r="K163" s="31"/>
-      <c r="L163" s="32"/>
+      <c r="I163" s="35"/>
+      <c r="J163" s="34"/>
+      <c r="K163" s="33"/>
+      <c r="L163" s="34"/>
       <c r="Q163"/>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A164" s="33"/>
+      <c r="A164" s="32"/>
       <c r="B164" s="11">
         <v>2000</v>
       </c>
@@ -12680,14 +12689,14 @@
       <c r="F164" s="13"/>
       <c r="G164" s="12"/>
       <c r="H164" s="13"/>
-      <c r="I164" s="34"/>
-      <c r="J164" s="32"/>
-      <c r="K164" s="31"/>
-      <c r="L164" s="32"/>
+      <c r="I164" s="35"/>
+      <c r="J164" s="34"/>
+      <c r="K164" s="33"/>
+      <c r="L164" s="34"/>
       <c r="Q164"/>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A165" s="33"/>
+      <c r="A165" s="32"/>
       <c r="B165" s="11">
         <v>5000</v>
       </c>
@@ -12697,14 +12706,14 @@
       <c r="F165" s="13"/>
       <c r="G165" s="12"/>
       <c r="H165" s="13"/>
-      <c r="I165" s="34"/>
-      <c r="J165" s="32"/>
-      <c r="K165" s="31"/>
-      <c r="L165" s="32"/>
+      <c r="I165" s="35"/>
+      <c r="J165" s="34"/>
+      <c r="K165" s="33"/>
+      <c r="L165" s="34"/>
       <c r="Q165"/>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A166" s="33" t="s">
+      <c r="A166" s="32" t="s">
         <v>37</v>
       </c>
       <c r="B166" s="11">
@@ -12716,14 +12725,14 @@
       <c r="F166" s="13"/>
       <c r="G166" s="12"/>
       <c r="H166" s="13"/>
-      <c r="I166" s="34"/>
-      <c r="J166" s="32"/>
-      <c r="K166" s="31"/>
-      <c r="L166" s="32"/>
+      <c r="I166" s="35"/>
+      <c r="J166" s="34"/>
+      <c r="K166" s="33"/>
+      <c r="L166" s="34"/>
       <c r="Q166"/>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A167" s="33"/>
+      <c r="A167" s="32"/>
       <c r="B167" s="11">
         <v>1000</v>
       </c>
@@ -12733,14 +12742,14 @@
       <c r="F167" s="13"/>
       <c r="G167" s="12"/>
       <c r="H167" s="13"/>
-      <c r="I167" s="34"/>
-      <c r="J167" s="32"/>
-      <c r="K167" s="31"/>
-      <c r="L167" s="32"/>
+      <c r="I167" s="35"/>
+      <c r="J167" s="34"/>
+      <c r="K167" s="33"/>
+      <c r="L167" s="34"/>
       <c r="Q167"/>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A168" s="33"/>
+      <c r="A168" s="32"/>
       <c r="B168" s="11">
         <v>2000</v>
       </c>
@@ -12750,14 +12759,14 @@
       <c r="F168" s="13"/>
       <c r="G168" s="12"/>
       <c r="H168" s="13"/>
-      <c r="I168" s="34"/>
-      <c r="J168" s="32"/>
-      <c r="K168" s="31"/>
-      <c r="L168" s="32"/>
+      <c r="I168" s="35"/>
+      <c r="J168" s="34"/>
+      <c r="K168" s="33"/>
+      <c r="L168" s="34"/>
       <c r="Q168"/>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A169" s="33"/>
+      <c r="A169" s="32"/>
       <c r="B169" s="11">
         <v>5000</v>
       </c>
@@ -12767,10 +12776,10 @@
       <c r="F169" s="13"/>
       <c r="G169" s="12"/>
       <c r="H169" s="13"/>
-      <c r="I169" s="34"/>
-      <c r="J169" s="32"/>
-      <c r="K169" s="31"/>
-      <c r="L169" s="32"/>
+      <c r="I169" s="35"/>
+      <c r="J169" s="34"/>
+      <c r="K169" s="33"/>
+      <c r="L169" s="34"/>
       <c r="Q169"/>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.25">
@@ -12795,27 +12804,27 @@
       <c r="Q176"/>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A177" s="33" t="s">
+      <c r="A177" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B177" s="33"/>
-      <c r="C177" s="33" t="s">
+      <c r="B177" s="32"/>
+      <c r="C177" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D177" s="33"/>
-      <c r="E177" s="33" t="s">
+      <c r="D177" s="32"/>
+      <c r="E177" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F177" s="33"/>
-      <c r="G177" s="33" t="s">
+      <c r="F177" s="32"/>
+      <c r="G177" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="H177" s="33"/>
+      <c r="H177" s="32"/>
       <c r="Q177"/>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A178" s="33"/>
-      <c r="B178" s="33"/>
+      <c r="A178" s="32"/>
+      <c r="B178" s="32"/>
       <c r="C178" s="3" t="s">
         <v>7</v>
       </c>
@@ -12837,7 +12846,7 @@
       <c r="Q178"/>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A179" s="33" t="s">
+      <c r="A179" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B179" s="11">
@@ -12846,21 +12855,21 @@
       <c r="Q179"/>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A180" s="33"/>
+      <c r="A180" s="32"/>
       <c r="B180" s="11">
         <v>1000</v>
       </c>
       <c r="Q180"/>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A181" s="33"/>
+      <c r="A181" s="32"/>
       <c r="B181" s="11">
         <v>2000</v>
       </c>
       <c r="Q181"/>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A182" s="33"/>
+      <c r="A182" s="32"/>
       <c r="B182" s="11">
         <v>5000</v>
       </c>
@@ -14293,72 +14302,312 @@
     </row>
   </sheetData>
   <mergeCells count="410">
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="K114:K117"/>
-    <mergeCell ref="L114:L117"/>
-    <mergeCell ref="K118:K121"/>
-    <mergeCell ref="L118:L121"/>
-    <mergeCell ref="K122:K125"/>
-    <mergeCell ref="L122:L125"/>
-    <mergeCell ref="K126:K129"/>
-    <mergeCell ref="L126:L129"/>
-    <mergeCell ref="K130:K133"/>
-    <mergeCell ref="L130:L133"/>
-    <mergeCell ref="I101:I104"/>
-    <mergeCell ref="J101:J104"/>
-    <mergeCell ref="I105:I108"/>
-    <mergeCell ref="J105:J108"/>
-    <mergeCell ref="I109:I112"/>
-    <mergeCell ref="J109:J112"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="L101:L104"/>
-    <mergeCell ref="K105:K108"/>
-    <mergeCell ref="L105:L108"/>
-    <mergeCell ref="K109:K112"/>
-    <mergeCell ref="L109:L112"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="D105:D108"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="D109:D112"/>
-    <mergeCell ref="E101:E104"/>
-    <mergeCell ref="F101:F104"/>
-    <mergeCell ref="G101:G104"/>
-    <mergeCell ref="E105:E108"/>
-    <mergeCell ref="F105:F108"/>
-    <mergeCell ref="G105:G108"/>
-    <mergeCell ref="E109:E112"/>
-    <mergeCell ref="F109:F112"/>
-    <mergeCell ref="G109:G112"/>
-    <mergeCell ref="I130:I133"/>
-    <mergeCell ref="J130:J133"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="I118:I121"/>
-    <mergeCell ref="J118:J121"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="G122:G125"/>
-    <mergeCell ref="H122:H125"/>
-    <mergeCell ref="I122:I125"/>
-    <mergeCell ref="J122:J125"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="F126:F129"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="H126:H129"/>
-    <mergeCell ref="I126:I129"/>
-    <mergeCell ref="J126:J129"/>
+    <mergeCell ref="K138:K141"/>
+    <mergeCell ref="L138:L141"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="E134:E137"/>
+    <mergeCell ref="F134:F137"/>
+    <mergeCell ref="G134:G137"/>
+    <mergeCell ref="H134:H137"/>
+    <mergeCell ref="I134:I137"/>
+    <mergeCell ref="J134:J137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="E138:E141"/>
+    <mergeCell ref="F138:F141"/>
+    <mergeCell ref="G138:G141"/>
+    <mergeCell ref="H138:H141"/>
+    <mergeCell ref="I138:I141"/>
+    <mergeCell ref="J138:J141"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="I45:I48"/>
+    <mergeCell ref="J45:J48"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="G177:H177"/>
+    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="F96:F99"/>
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="H96:H99"/>
+    <mergeCell ref="E88:E91"/>
+    <mergeCell ref="F88:F91"/>
+    <mergeCell ref="G88:G91"/>
+    <mergeCell ref="H88:H91"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="G92:G95"/>
+    <mergeCell ref="H92:H95"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="F130:F133"/>
+    <mergeCell ref="G130:G133"/>
+    <mergeCell ref="H130:H133"/>
+    <mergeCell ref="H101:H104"/>
+    <mergeCell ref="H105:H108"/>
+    <mergeCell ref="H109:H112"/>
+    <mergeCell ref="G118:G121"/>
+    <mergeCell ref="H118:H121"/>
+    <mergeCell ref="J96:J99"/>
+    <mergeCell ref="J68:J71"/>
+    <mergeCell ref="I72:I75"/>
+    <mergeCell ref="J72:J75"/>
+    <mergeCell ref="I76:I79"/>
+    <mergeCell ref="J76:J79"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="J80:J83"/>
+    <mergeCell ref="J84:J87"/>
+    <mergeCell ref="I88:I91"/>
+    <mergeCell ref="J88:J91"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="I68:I71"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="H45:H48"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="I96:I99"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="H80:H83"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="H76:H79"/>
+    <mergeCell ref="G76:G79"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="K72:K75"/>
+    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="K68:K71"/>
+    <mergeCell ref="H68:H71"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="K45:K48"/>
+    <mergeCell ref="K50:K53"/>
+    <mergeCell ref="K55:K58"/>
+    <mergeCell ref="K59:K62"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="J92:J95"/>
+    <mergeCell ref="I55:I58"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="I59:I62"/>
+    <mergeCell ref="J59:J62"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="I92:I95"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="K88:K91"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="E68:E71"/>
+    <mergeCell ref="F68:F71"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="I162:I165"/>
+    <mergeCell ref="J162:J165"/>
+    <mergeCell ref="K148:L148"/>
+    <mergeCell ref="I148:J148"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="K150:K153"/>
+    <mergeCell ref="I150:I153"/>
+    <mergeCell ref="J150:J153"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="F114:F117"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="H114:H117"/>
+    <mergeCell ref="I114:I117"/>
+    <mergeCell ref="J114:J117"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="F118:F121"/>
+    <mergeCell ref="K134:K137"/>
+    <mergeCell ref="L134:L137"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="K166:K169"/>
+    <mergeCell ref="I166:I169"/>
+    <mergeCell ref="J166:J169"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="A148:B149"/>
+    <mergeCell ref="L150:L153"/>
+    <mergeCell ref="L154:L157"/>
+    <mergeCell ref="L158:L161"/>
+    <mergeCell ref="L162:L165"/>
+    <mergeCell ref="L166:L169"/>
+    <mergeCell ref="A177:B178"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="K154:K157"/>
+    <mergeCell ref="I154:I157"/>
+    <mergeCell ref="J154:J157"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="K158:K161"/>
+    <mergeCell ref="I158:I161"/>
+    <mergeCell ref="J158:J161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="K162:K165"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="E177:F177"/>
     <mergeCell ref="M148:N148"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="L63:L66"/>
@@ -14383,297 +14632,79 @@
     <mergeCell ref="E148:F148"/>
     <mergeCell ref="A101:A104"/>
     <mergeCell ref="A114:A117"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="K166:K169"/>
-    <mergeCell ref="I166:I169"/>
-    <mergeCell ref="J166:J169"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="A148:B149"/>
-    <mergeCell ref="L150:L153"/>
-    <mergeCell ref="L154:L157"/>
-    <mergeCell ref="L158:L161"/>
-    <mergeCell ref="L162:L165"/>
-    <mergeCell ref="L166:L169"/>
-    <mergeCell ref="A177:B178"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="K154:K157"/>
-    <mergeCell ref="I154:I157"/>
-    <mergeCell ref="J154:J157"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="K158:K161"/>
-    <mergeCell ref="I158:I161"/>
-    <mergeCell ref="J158:J161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="K162:K165"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="I162:I165"/>
-    <mergeCell ref="J162:J165"/>
-    <mergeCell ref="K148:L148"/>
-    <mergeCell ref="I148:J148"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="K150:K153"/>
-    <mergeCell ref="I150:I153"/>
-    <mergeCell ref="J150:J153"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="F114:F117"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="H114:H117"/>
-    <mergeCell ref="I114:I117"/>
-    <mergeCell ref="J114:J117"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="F118:F121"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="H122:H125"/>
+    <mergeCell ref="I122:I125"/>
+    <mergeCell ref="J122:J125"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="F126:F129"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="H126:H129"/>
+    <mergeCell ref="I126:I129"/>
+    <mergeCell ref="J126:J129"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="D105:D108"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="D109:D112"/>
+    <mergeCell ref="E101:E104"/>
+    <mergeCell ref="F101:F104"/>
+    <mergeCell ref="G101:G104"/>
+    <mergeCell ref="E105:E108"/>
+    <mergeCell ref="F105:F108"/>
+    <mergeCell ref="G105:G108"/>
+    <mergeCell ref="E109:E112"/>
+    <mergeCell ref="F109:F112"/>
+    <mergeCell ref="G109:G112"/>
+    <mergeCell ref="K126:K129"/>
+    <mergeCell ref="L126:L129"/>
+    <mergeCell ref="K130:K133"/>
+    <mergeCell ref="L130:L133"/>
+    <mergeCell ref="I101:I104"/>
+    <mergeCell ref="J101:J104"/>
+    <mergeCell ref="I105:I108"/>
+    <mergeCell ref="J105:J108"/>
+    <mergeCell ref="I109:I112"/>
+    <mergeCell ref="J109:J112"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="L101:L104"/>
+    <mergeCell ref="K105:K108"/>
+    <mergeCell ref="L105:L108"/>
+    <mergeCell ref="K109:K112"/>
+    <mergeCell ref="L109:L112"/>
+    <mergeCell ref="I130:I133"/>
+    <mergeCell ref="J130:J133"/>
+    <mergeCell ref="I118:I121"/>
+    <mergeCell ref="J118:J121"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="K114:K117"/>
+    <mergeCell ref="L114:L117"/>
+    <mergeCell ref="K118:K121"/>
+    <mergeCell ref="L118:L121"/>
+    <mergeCell ref="K122:K125"/>
+    <mergeCell ref="L122:L125"/>
     <mergeCell ref="L15:L18"/>
     <mergeCell ref="L11:L14"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="K88:K91"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="J50:J53"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="F76:F79"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="E68:E71"/>
-    <mergeCell ref="F68:F71"/>
-    <mergeCell ref="G68:G71"/>
     <mergeCell ref="K92:K95"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="I92:I95"/>
-    <mergeCell ref="J92:J95"/>
-    <mergeCell ref="I55:I58"/>
-    <mergeCell ref="J55:J58"/>
-    <mergeCell ref="I59:I62"/>
-    <mergeCell ref="J59:J62"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A92:A95"/>
     <mergeCell ref="K96:K99"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="K72:K75"/>
-    <mergeCell ref="K76:K79"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="I50:I53"/>
-    <mergeCell ref="I68:I71"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="G45:G48"/>
-    <mergeCell ref="H45:H48"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="I96:I99"/>
-    <mergeCell ref="J96:J99"/>
-    <mergeCell ref="J68:J71"/>
-    <mergeCell ref="I72:I75"/>
-    <mergeCell ref="J72:J75"/>
-    <mergeCell ref="I76:I79"/>
-    <mergeCell ref="J76:J79"/>
-    <mergeCell ref="I80:I83"/>
-    <mergeCell ref="J80:J83"/>
-    <mergeCell ref="J84:J87"/>
-    <mergeCell ref="I88:I91"/>
-    <mergeCell ref="J88:J91"/>
-    <mergeCell ref="G177:H177"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="F96:F99"/>
-    <mergeCell ref="G96:G99"/>
-    <mergeCell ref="H96:H99"/>
-    <mergeCell ref="E88:E91"/>
-    <mergeCell ref="F88:F91"/>
-    <mergeCell ref="G88:G91"/>
-    <mergeCell ref="H88:H91"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="G92:G95"/>
-    <mergeCell ref="H92:H95"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="F130:F133"/>
-    <mergeCell ref="G130:G133"/>
-    <mergeCell ref="H130:H133"/>
-    <mergeCell ref="H101:H104"/>
-    <mergeCell ref="H105:H108"/>
-    <mergeCell ref="H109:H112"/>
-    <mergeCell ref="G118:G121"/>
-    <mergeCell ref="H118:H121"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="K68:K71"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="H80:H83"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="H76:H79"/>
-    <mergeCell ref="G76:G79"/>
-    <mergeCell ref="H68:H71"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="I45:I48"/>
-    <mergeCell ref="J45:J48"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="E45:E48"/>
     <mergeCell ref="K31:K34"/>
     <mergeCell ref="K36:K39"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="K45:K48"/>
-    <mergeCell ref="K50:K53"/>
-    <mergeCell ref="K55:K58"/>
-    <mergeCell ref="K59:K62"/>
-    <mergeCell ref="K63:K66"/>
     <mergeCell ref="K3:K6"/>
     <mergeCell ref="K7:K10"/>
     <mergeCell ref="K11:K14"/>
@@ -14681,35 +14712,13 @@
     <mergeCell ref="K19:K22"/>
     <mergeCell ref="K23:K26"/>
     <mergeCell ref="K27:K30"/>
-    <mergeCell ref="K134:K137"/>
-    <mergeCell ref="L134:L137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="E138:E141"/>
-    <mergeCell ref="F138:F141"/>
-    <mergeCell ref="G138:G141"/>
-    <mergeCell ref="H138:H141"/>
-    <mergeCell ref="I138:I141"/>
-    <mergeCell ref="J138:J141"/>
-    <mergeCell ref="K138:K141"/>
-    <mergeCell ref="L138:L141"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="E134:E137"/>
-    <mergeCell ref="F134:F137"/>
-    <mergeCell ref="G134:G137"/>
-    <mergeCell ref="H134:H137"/>
-    <mergeCell ref="I134:I137"/>
-    <mergeCell ref="J134:J137"/>
   </mergeCells>
   <conditionalFormatting sqref="Q3:Z34">
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>"MAX($Q3:$Z3)"</formula>
+    </cfRule>
     <cfRule type="expression" priority="9">
       <formula>"B2=MIN($Q3:$Z3)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>"MAX($Q3:$Z3)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Z34 Q36:Z43 Q45:Z48 Q50:Z53 Q68:Z99 Q101:Z112 Q55:Z66">

--- a/test_results/results_table.xlsx
+++ b/test_results/results_table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D034B4D-2BF3-4CC7-A5AA-E3A6B0B2FF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A32D39-266F-4B78-9438-3CDD4F95AD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,13 +366,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -756,10 +756,10 @@
   <dimension ref="A1:CF657"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AN68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AR99" sqref="AR99"/>
+      <selection pane="bottomRight" activeCell="AT112" sqref="AT112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,30 +808,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32" t="s">
+      <c r="J1" s="34"/>
+      <c r="K1" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="32"/>
+      <c r="L1" s="34"/>
       <c r="M1" s="35" t="s">
         <v>45</v>
       </c>
@@ -882,24 +882,24 @@
       <c r="AH1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="AO1" s="32" t="s">
+      <c r="AO1" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32" t="s">
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32" t="s">
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="AT1" s="32"/>
+      <c r="AT1" s="34"/>
       <c r="CE1" s="6"/>
       <c r="CF1" s="6"/>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1009,7 +1009,7 @@
       <c r="CF2" s="9"/>
     </row>
     <row r="3" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1">
@@ -1018,29 +1018,29 @@
       <c r="C3" s="35">
         <v>0.26700000000000002</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="33">
         <v>0.44700000000000001</v>
       </c>
       <c r="E3" s="35">
         <v>0.17100000000000001</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="35">
         <v>0.153</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="34"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="33"/>
       <c r="O3" s="18"/>
       <c r="P3" s="5">
         <v>3.355451</v>
@@ -1117,20 +1117,20 @@
       <c r="CF3" s="8"/>
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="1">
         <v>1000</v>
       </c>
       <c r="C4" s="35"/>
-      <c r="D4" s="34"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="35"/>
-      <c r="F4" s="34"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="35"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="34"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
       <c r="O4" s="18"/>
       <c r="P4" s="5">
         <v>6.6267579999999997</v>
@@ -1207,20 +1207,20 @@
       <c r="CF4" s="8"/>
     </row>
     <row r="5" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="1">
         <v>2000</v>
       </c>
       <c r="C5" s="35"/>
-      <c r="D5" s="34"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="35"/>
-      <c r="F5" s="34"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="35"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="34"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="33"/>
       <c r="O5" s="18"/>
       <c r="P5" s="5">
         <v>13.110008000000001</v>
@@ -1297,20 +1297,20 @@
       <c r="CF5" s="8"/>
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="1">
         <v>5000</v>
       </c>
       <c r="C6" s="35"/>
-      <c r="D6" s="34"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="35"/>
-      <c r="F6" s="34"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="35"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="34"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="33"/>
       <c r="O6" s="18"/>
       <c r="P6" s="5">
         <v>32.676729999999999</v>
@@ -1385,7 +1385,7 @@
       </c>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1">
@@ -1394,29 +1394,29 @@
       <c r="C7" s="35">
         <v>0.2601</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="33">
         <v>0.624</v>
       </c>
       <c r="E7" s="35">
         <v>0.20200000000000001</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="35">
         <v>0.19400000000000001</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="34"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="33"/>
       <c r="O7" s="18"/>
       <c r="P7" s="5">
         <v>4.002434</v>
@@ -1493,20 +1493,20 @@
       <c r="CF7" s="8"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="1">
         <v>1000</v>
       </c>
       <c r="C8" s="35"/>
-      <c r="D8" s="34"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="35"/>
-      <c r="F8" s="34"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="35"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="33"/>
       <c r="O8" s="18"/>
       <c r="P8" s="5">
         <v>7.9348150000000004</v>
@@ -1583,20 +1583,20 @@
       <c r="CF8" s="8"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="1">
         <v>2000</v>
       </c>
       <c r="C9" s="35"/>
-      <c r="D9" s="34"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="35"/>
-      <c r="F9" s="34"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="35"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="33"/>
       <c r="O9" s="18"/>
       <c r="P9" s="5">
         <v>15.800986</v>
@@ -1673,20 +1673,20 @@
       <c r="CF9" s="8"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="1">
         <v>5000</v>
       </c>
       <c r="C10" s="35"/>
-      <c r="D10" s="34"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="35"/>
-      <c r="F10" s="34"/>
+      <c r="F10" s="33"/>
       <c r="G10" s="35"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="34"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="33"/>
       <c r="O10" s="18"/>
       <c r="P10" s="5">
         <v>39.365931000000003</v>
@@ -1761,7 +1761,7 @@
       </c>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1">
@@ -1770,29 +1770,29 @@
       <c r="C11" s="35">
         <v>0.30220000000000002</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="33">
         <v>0.93700000000000006</v>
       </c>
       <c r="E11" s="35">
         <v>0.22800000000000001</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="35">
         <v>0.17199999999999999</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="33"/>
-      <c r="L11" s="34"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
       <c r="O11" s="18"/>
       <c r="P11" s="5">
         <v>4.9335690000000003</v>
@@ -1869,20 +1869,20 @@
       <c r="CF11" s="8"/>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="1">
         <v>1000</v>
       </c>
       <c r="C12" s="35"/>
-      <c r="D12" s="34"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="34"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="35"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="34"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
       <c r="O12" s="18"/>
       <c r="P12" s="5">
         <v>9.7972990000000006</v>
@@ -1959,20 +1959,20 @@
       <c r="CF12" s="8"/>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="1">
         <v>2000</v>
       </c>
       <c r="C13" s="35"/>
-      <c r="D13" s="34"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="34"/>
+      <c r="F13" s="33"/>
       <c r="G13" s="35"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="34"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="33"/>
       <c r="O13" s="18"/>
       <c r="P13" s="5">
         <v>19.567959999999999</v>
@@ -2049,20 +2049,20 @@
       <c r="CF13" s="8"/>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="1">
         <v>5000</v>
       </c>
       <c r="C14" s="35"/>
-      <c r="D14" s="34"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="34"/>
+      <c r="F14" s="33"/>
       <c r="G14" s="35"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="34"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="33"/>
       <c r="O14" s="18"/>
       <c r="P14" s="5">
         <v>48.782482999999999</v>
@@ -2137,7 +2137,7 @@
       </c>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="34" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
@@ -2146,29 +2146,29 @@
       <c r="C15" s="35">
         <v>0.3165</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="33">
         <v>1.1140000000000001</v>
       </c>
       <c r="E15" s="35">
         <v>0.189</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="35">
         <v>0.18</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="34"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="33"/>
       <c r="O15" s="18"/>
       <c r="P15" s="5">
         <v>5.413564</v>
@@ -2245,20 +2245,20 @@
       <c r="CF15" s="8"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="1">
         <v>1000</v>
       </c>
       <c r="C16" s="35"/>
-      <c r="D16" s="34"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="34"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="35"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="34"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="33"/>
       <c r="O16" s="18"/>
       <c r="P16" s="5">
         <v>10.807356</v>
@@ -2335,20 +2335,20 @@
       <c r="CF16" s="8"/>
     </row>
     <row r="17" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="1">
         <v>2000</v>
       </c>
       <c r="C17" s="35"/>
-      <c r="D17" s="34"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="35"/>
-      <c r="F17" s="34"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
       <c r="O17" s="18"/>
       <c r="P17" s="5">
         <v>21.628416999999999</v>
@@ -2425,20 +2425,20 @@
       <c r="CF17" s="8"/>
     </row>
     <row r="18" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="1">
         <v>5000</v>
       </c>
       <c r="C18" s="35"/>
-      <c r="D18" s="34"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="35"/>
-      <c r="F18" s="34"/>
+      <c r="F18" s="33"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="34"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="33"/>
       <c r="O18" s="18"/>
       <c r="P18" s="5">
         <v>53.830657000000002</v>
@@ -2513,7 +2513,7 @@
       </c>
     </row>
     <row r="19" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="34" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="1">
@@ -2522,29 +2522,29 @@
       <c r="C19" s="35">
         <v>0.33110000000000001</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="33">
         <v>1.7989999999999999</v>
       </c>
       <c r="E19" s="35">
         <v>0.254</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="35">
         <v>0.187</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="33" t="s">
         <v>9</v>
       </c>
       <c r="I19" s="35">
         <v>0.13080554883214199</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="33">
         <v>600</v>
       </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="34"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="33"/>
       <c r="O19" s="18"/>
       <c r="P19" s="5">
         <v>6.7596759999999998</v>
@@ -2621,20 +2621,20 @@
       <c r="CF19" s="7"/>
     </row>
     <row r="20" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="1">
         <v>1000</v>
       </c>
       <c r="C20" s="35"/>
-      <c r="D20" s="34"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="35"/>
-      <c r="F20" s="34"/>
+      <c r="F20" s="33"/>
       <c r="G20" s="35"/>
-      <c r="H20" s="34"/>
+      <c r="H20" s="33"/>
       <c r="I20" s="35"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="34"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="33"/>
       <c r="O20" s="18"/>
       <c r="P20" s="5">
         <v>13.471734</v>
@@ -2711,20 +2711,20 @@
       <c r="CF20" s="7"/>
     </row>
     <row r="21" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="1">
         <v>2000</v>
       </c>
       <c r="C21" s="35"/>
-      <c r="D21" s="34"/>
+      <c r="D21" s="33"/>
       <c r="E21" s="35"/>
-      <c r="F21" s="34"/>
+      <c r="F21" s="33"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="34"/>
+      <c r="H21" s="33"/>
       <c r="I21" s="35"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="34"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="33"/>
       <c r="O21" s="18"/>
       <c r="P21" s="5">
         <v>26.813558</v>
@@ -2801,20 +2801,20 @@
       <c r="CF21" s="7"/>
     </row>
     <row r="22" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="1">
         <v>5000</v>
       </c>
       <c r="C22" s="35"/>
-      <c r="D22" s="34"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="35"/>
-      <c r="F22" s="34"/>
+      <c r="F22" s="33"/>
       <c r="G22" s="35"/>
-      <c r="H22" s="34"/>
+      <c r="H22" s="33"/>
       <c r="I22" s="35"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="34"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="33"/>
       <c r="O22" s="18"/>
       <c r="P22" s="5">
         <v>66.724900000000005</v>
@@ -2889,7 +2889,7 @@
       </c>
     </row>
     <row r="23" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="34" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="1">
@@ -2898,29 +2898,29 @@
       <c r="C23" s="35">
         <v>0.33660000000000001</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="33">
         <v>2.7</v>
       </c>
       <c r="E23" s="35">
         <v>0.159</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="35">
         <v>0.13800000000000001</v>
       </c>
-      <c r="H23" s="34" t="s">
+      <c r="H23" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="I23" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="34" t="s">
+      <c r="J23" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="33"/>
-      <c r="L23" s="34"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="33"/>
       <c r="O23" s="18"/>
       <c r="P23" s="5">
         <v>8.6928560000000008</v>
@@ -2997,20 +2997,20 @@
       <c r="CF23" s="8"/>
     </row>
     <row r="24" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="1">
         <v>1000</v>
       </c>
       <c r="C24" s="35"/>
-      <c r="D24" s="34"/>
+      <c r="D24" s="33"/>
       <c r="E24" s="35"/>
-      <c r="F24" s="34"/>
+      <c r="F24" s="33"/>
       <c r="G24" s="35"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="34"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="33"/>
       <c r="O24" s="18"/>
       <c r="P24" s="5">
         <v>17.285457000000001</v>
@@ -3087,20 +3087,20 @@
       <c r="CF24" s="8"/>
     </row>
     <row r="25" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="1">
         <v>2000</v>
       </c>
       <c r="C25" s="35"/>
-      <c r="D25" s="34"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="34"/>
+      <c r="F25" s="33"/>
       <c r="G25" s="35"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="34"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="33"/>
       <c r="O25" s="18"/>
       <c r="P25" s="5">
         <v>34.49512</v>
@@ -3177,20 +3177,20 @@
       <c r="CF25" s="8"/>
     </row>
     <row r="26" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="1">
         <v>5000</v>
       </c>
       <c r="C26" s="35"/>
-      <c r="D26" s="34"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="35"/>
-      <c r="F26" s="34"/>
+      <c r="F26" s="33"/>
       <c r="G26" s="35"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="34"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="33"/>
       <c r="O26" s="18"/>
       <c r="P26" s="5">
         <v>85.965810000000005</v>
@@ -3265,7 +3265,7 @@
       </c>
     </row>
     <row r="27" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="1">
@@ -3274,29 +3274,29 @@
       <c r="C27" s="35">
         <v>0.22470000000000001</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="33">
         <v>4.883</v>
       </c>
       <c r="E27" s="35">
         <v>0.17399999999999999</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="35">
         <v>0.13500000000000001</v>
       </c>
-      <c r="H27" s="34" t="s">
+      <c r="H27" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="32" t="s">
+      <c r="I27" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="34" t="s">
+      <c r="J27" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="33"/>
-      <c r="L27" s="34"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="33"/>
       <c r="O27" s="18"/>
       <c r="P27" s="5">
         <v>11.603604000000001</v>
@@ -3373,20 +3373,20 @@
       <c r="CF27" s="8"/>
     </row>
     <row r="28" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="1">
         <v>1000</v>
       </c>
       <c r="C28" s="35"/>
-      <c r="D28" s="34"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="35"/>
-      <c r="F28" s="34"/>
+      <c r="F28" s="33"/>
       <c r="G28" s="35"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="34"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="33"/>
       <c r="O28" s="18"/>
       <c r="P28" s="5">
         <v>23.158722999999998</v>
@@ -3463,20 +3463,20 @@
       <c r="CF28" s="8"/>
     </row>
     <row r="29" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="1">
         <v>2000</v>
       </c>
       <c r="C29" s="35"/>
-      <c r="D29" s="34"/>
+      <c r="D29" s="33"/>
       <c r="E29" s="35"/>
-      <c r="F29" s="34"/>
+      <c r="F29" s="33"/>
       <c r="G29" s="35"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="34"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="33"/>
       <c r="O29" s="18"/>
       <c r="P29" s="5">
         <v>46.277225999999999</v>
@@ -3553,20 +3553,20 @@
       <c r="CF29" s="8"/>
     </row>
     <row r="30" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="1">
         <v>5000</v>
       </c>
       <c r="C30" s="35"/>
-      <c r="D30" s="34"/>
+      <c r="D30" s="33"/>
       <c r="E30" s="35"/>
-      <c r="F30" s="34"/>
+      <c r="F30" s="33"/>
       <c r="G30" s="35"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="34"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="33"/>
       <c r="O30" s="18"/>
       <c r="P30" s="5">
         <v>115.449259</v>
@@ -3642,7 +3642,7 @@
       <c r="AV30" s="6"/>
     </row>
     <row r="31" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="1">
@@ -3651,29 +3651,29 @@
       <c r="C31" s="35">
         <v>0.26550000000000001</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="33">
         <v>28.327999999999999</v>
       </c>
       <c r="E31" s="35">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="F31" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G31" s="35">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H31" s="34" t="s">
+      <c r="H31" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="32" t="s">
+      <c r="I31" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J31" s="34" t="s">
+      <c r="J31" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="33"/>
-      <c r="L31" s="34"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="33"/>
       <c r="O31" s="18"/>
       <c r="P31" s="5">
         <v>32.667169999999999</v>
@@ -3750,20 +3750,20 @@
       <c r="CF31" s="8"/>
     </row>
     <row r="32" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="1">
         <v>1000</v>
       </c>
       <c r="C32" s="35"/>
-      <c r="D32" s="34"/>
+      <c r="D32" s="33"/>
       <c r="E32" s="35"/>
-      <c r="F32" s="34"/>
+      <c r="F32" s="33"/>
       <c r="G32" s="35"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="34"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="33"/>
       <c r="O32" s="18"/>
       <c r="P32" s="5">
         <v>65.318888000000001</v>
@@ -3840,20 +3840,20 @@
       <c r="CF32" s="8"/>
     </row>
     <row r="33" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="1">
         <v>2000</v>
       </c>
       <c r="C33" s="35"/>
-      <c r="D33" s="34"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="35"/>
-      <c r="F33" s="34"/>
+      <c r="F33" s="33"/>
       <c r="G33" s="35"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="34"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="33"/>
       <c r="O33" s="18"/>
       <c r="P33" s="5">
         <v>130.456557</v>
@@ -3930,20 +3930,20 @@
       <c r="CF33" s="8"/>
     </row>
     <row r="34" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="1">
         <v>5000</v>
       </c>
       <c r="C34" s="35"/>
-      <c r="D34" s="34"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="35"/>
-      <c r="F34" s="34"/>
+      <c r="F34" s="33"/>
       <c r="G34" s="35"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="34"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="33"/>
       <c r="O34" s="18"/>
       <c r="P34" s="5">
         <v>323.3809</v>
@@ -4044,7 +4044,7 @@
       <c r="AT35" s="31"/>
     </row>
     <row r="36" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="34" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="1">
@@ -4055,23 +4055,23 @@
       <c r="E36" s="35">
         <v>0.101239449255883</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F36" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G36" s="35">
         <v>6.1477473699407502E-2</v>
       </c>
-      <c r="H36" s="34" t="s">
+      <c r="H36" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I36" s="32" t="s">
+      <c r="I36" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J36" s="34" t="s">
+      <c r="J36" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K36" s="33"/>
-      <c r="L36" s="34"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="33"/>
       <c r="O36" s="18"/>
       <c r="P36" s="5">
         <v>7.3689210000000003</v>
@@ -4146,20 +4146,20 @@
       </c>
     </row>
     <row r="37" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="1">
         <v>1000</v>
       </c>
       <c r="C37" s="35"/>
       <c r="D37" s="36"/>
       <c r="E37" s="35"/>
-      <c r="F37" s="34"/>
+      <c r="F37" s="33"/>
       <c r="G37" s="35"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="34"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="33"/>
       <c r="O37" s="18"/>
       <c r="P37" s="5">
         <v>14.524684000000001</v>
@@ -4234,20 +4234,20 @@
       </c>
     </row>
     <row r="38" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="1">
         <v>2000</v>
       </c>
       <c r="C38" s="35"/>
       <c r="D38" s="36"/>
       <c r="E38" s="35"/>
-      <c r="F38" s="34"/>
+      <c r="F38" s="33"/>
       <c r="G38" s="35"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="34"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="33"/>
       <c r="O38" s="18"/>
       <c r="P38" s="5">
         <v>29.065647999999999</v>
@@ -4322,20 +4322,20 @@
       </c>
     </row>
     <row r="39" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="1">
         <v>5000</v>
       </c>
       <c r="C39" s="35"/>
       <c r="D39" s="36"/>
       <c r="E39" s="35"/>
-      <c r="F39" s="34"/>
+      <c r="F39" s="33"/>
       <c r="G39" s="35"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="34"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="33"/>
       <c r="O39" s="18"/>
       <c r="P39" s="5">
         <v>72.090327000000002</v>
@@ -4410,7 +4410,7 @@
       </c>
     </row>
     <row r="40" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="34" t="s">
         <v>21</v>
       </c>
       <c r="B40" s="1">
@@ -4421,23 +4421,23 @@
       <c r="E40" s="35">
         <v>0.29018026080021198</v>
       </c>
-      <c r="F40" s="34" t="s">
+      <c r="F40" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G40" s="35">
         <v>0.205463324203739</v>
       </c>
-      <c r="H40" s="34" t="s">
+      <c r="H40" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="32" t="s">
+      <c r="I40" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J40" s="34" t="s">
+      <c r="J40" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="33"/>
-      <c r="L40" s="34"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="33"/>
       <c r="O40" s="18"/>
       <c r="P40" s="5">
         <v>8.3890449999999994</v>
@@ -4512,20 +4512,20 @@
       </c>
     </row>
     <row r="41" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="1">
         <v>1000</v>
       </c>
       <c r="C41" s="35"/>
       <c r="D41" s="36"/>
       <c r="E41" s="35"/>
-      <c r="F41" s="34"/>
+      <c r="F41" s="33"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="34"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="33"/>
       <c r="O41" s="18"/>
       <c r="P41" s="5">
         <v>16.511437999999998</v>
@@ -4600,20 +4600,20 @@
       </c>
     </row>
     <row r="42" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="1">
         <v>2000</v>
       </c>
       <c r="C42" s="35"/>
       <c r="D42" s="36"/>
       <c r="E42" s="35"/>
-      <c r="F42" s="34"/>
+      <c r="F42" s="33"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="34"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="33"/>
       <c r="O42" s="18"/>
       <c r="P42" s="5">
         <v>32.639651000000001</v>
@@ -4688,20 +4688,20 @@
       </c>
     </row>
     <row r="43" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="1">
         <v>5000</v>
       </c>
       <c r="C43" s="35"/>
       <c r="D43" s="36"/>
       <c r="E43" s="35"/>
-      <c r="F43" s="34"/>
+      <c r="F43" s="33"/>
       <c r="G43" s="35"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="34"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="33"/>
       <c r="O43" s="18"/>
       <c r="P43" s="5">
         <v>81.209215999999998</v>
@@ -4802,7 +4802,7 @@
       <c r="AT44" s="31"/>
     </row>
     <row r="45" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="34" t="s">
         <v>34</v>
       </c>
       <c r="B45" s="1">
@@ -4813,23 +4813,23 @@
       <c r="E45" s="35">
         <v>0.21826059724466901</v>
       </c>
-      <c r="F45" s="34" t="s">
+      <c r="F45" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G45" s="35">
         <v>0.199782125806655</v>
       </c>
-      <c r="H45" s="34" t="s">
+      <c r="H45" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I45" s="32" t="s">
+      <c r="I45" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="34" t="s">
+      <c r="J45" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K45" s="33"/>
-      <c r="L45" s="34"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="33"/>
       <c r="O45" s="18"/>
       <c r="P45" s="5">
         <v>2.2728280000000001</v>
@@ -4904,20 +4904,20 @@
       </c>
     </row>
     <row r="46" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="1">
         <v>1000</v>
       </c>
       <c r="C46" s="35"/>
       <c r="D46" s="36"/>
       <c r="E46" s="35"/>
-      <c r="F46" s="34"/>
+      <c r="F46" s="33"/>
       <c r="G46" s="35"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="34"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="33"/>
       <c r="O46" s="18"/>
       <c r="P46" s="5">
         <v>4.5111670000000004</v>
@@ -4992,20 +4992,20 @@
       </c>
     </row>
     <row r="47" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="1">
         <v>2000</v>
       </c>
       <c r="C47" s="35"/>
       <c r="D47" s="36"/>
       <c r="E47" s="35"/>
-      <c r="F47" s="34"/>
+      <c r="F47" s="33"/>
       <c r="G47" s="35"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="34"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="33"/>
       <c r="O47" s="18"/>
       <c r="P47" s="5">
         <v>8.9939009999999993</v>
@@ -5080,20 +5080,20 @@
       </c>
     </row>
     <row r="48" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
+      <c r="A48" s="34"/>
       <c r="B48" s="1">
         <v>5000</v>
       </c>
       <c r="C48" s="35"/>
       <c r="D48" s="36"/>
       <c r="E48" s="35"/>
-      <c r="F48" s="34"/>
+      <c r="F48" s="33"/>
       <c r="G48" s="35"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="34"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="33"/>
       <c r="O48" s="18"/>
       <c r="P48" s="5">
         <v>22.490936999999999</v>
@@ -5194,7 +5194,7 @@
       <c r="AT49" s="31"/>
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="34" t="s">
         <v>22</v>
       </c>
       <c r="B50" s="1">
@@ -5205,23 +5205,23 @@
       <c r="E50" s="35">
         <v>0.24797844874295</v>
       </c>
-      <c r="F50" s="34" t="s">
+      <c r="F50" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G50" s="35">
         <v>0.18443317167635301</v>
       </c>
-      <c r="H50" s="34" t="s">
+      <c r="H50" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="32" t="s">
+      <c r="I50" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J50" s="34" t="s">
+      <c r="J50" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K50" s="33"/>
-      <c r="L50" s="34"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="33"/>
       <c r="O50" s="18"/>
       <c r="P50" s="5">
         <v>8.1978240000000007</v>
@@ -5296,20 +5296,20 @@
       </c>
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="1">
         <v>1000</v>
       </c>
       <c r="C51" s="35"/>
       <c r="D51" s="36"/>
       <c r="E51" s="35"/>
-      <c r="F51" s="34"/>
+      <c r="F51" s="33"/>
       <c r="G51" s="35"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="34"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="33"/>
       <c r="O51" s="18"/>
       <c r="P51" s="5">
         <v>16.520105999999998</v>
@@ -5384,20 +5384,20 @@
       </c>
     </row>
     <row r="52" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="1">
         <v>2000</v>
       </c>
       <c r="C52" s="35"/>
       <c r="D52" s="36"/>
       <c r="E52" s="35"/>
-      <c r="F52" s="34"/>
+      <c r="F52" s="33"/>
       <c r="G52" s="35"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="34"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="33"/>
       <c r="O52" s="18"/>
       <c r="P52" s="5">
         <v>32.814861000000001</v>
@@ -5472,20 +5472,20 @@
       </c>
     </row>
     <row r="53" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="1">
         <v>5000</v>
       </c>
       <c r="C53" s="35"/>
       <c r="D53" s="36"/>
       <c r="E53" s="35"/>
-      <c r="F53" s="34"/>
+      <c r="F53" s="33"/>
       <c r="G53" s="35"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="34"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="33"/>
       <c r="O53" s="18"/>
       <c r="P53" s="5">
         <v>80.115144999999998</v>
@@ -5586,7 +5586,7 @@
       <c r="AT54" s="31"/>
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="34" t="s">
         <v>23</v>
       </c>
       <c r="B55" s="1">
@@ -5597,23 +5597,23 @@
       <c r="E55" s="35">
         <v>0.28420023201354799</v>
       </c>
-      <c r="F55" s="34" t="s">
+      <c r="F55" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G55" s="35">
         <v>0.34385002851765301</v>
       </c>
-      <c r="H55" s="34" t="s">
+      <c r="H55" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I55" s="32" t="s">
+      <c r="I55" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J55" s="34" t="s">
+      <c r="J55" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K55" s="33"/>
-      <c r="L55" s="34"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="33"/>
       <c r="O55" s="18"/>
       <c r="P55" s="5">
         <v>5.8302040000000002</v>
@@ -5688,20 +5688,20 @@
       </c>
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
+      <c r="A56" s="34"/>
       <c r="B56" s="1">
         <v>1000</v>
       </c>
       <c r="C56" s="35"/>
       <c r="D56" s="36"/>
       <c r="E56" s="35"/>
-      <c r="F56" s="34"/>
+      <c r="F56" s="33"/>
       <c r="G56" s="35"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="34"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="33"/>
       <c r="O56" s="18"/>
       <c r="P56" s="5">
         <v>11.555717</v>
@@ -5776,20 +5776,20 @@
       </c>
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
+      <c r="A57" s="34"/>
       <c r="B57" s="1">
         <v>2000</v>
       </c>
       <c r="C57" s="35"/>
       <c r="D57" s="36"/>
       <c r="E57" s="35"/>
-      <c r="F57" s="34"/>
+      <c r="F57" s="33"/>
       <c r="G57" s="35"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="34"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="33"/>
       <c r="O57" s="18"/>
       <c r="P57" s="5">
         <v>23.124298</v>
@@ -5864,20 +5864,20 @@
       </c>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="1">
         <v>5000</v>
       </c>
       <c r="C58" s="35"/>
       <c r="D58" s="36"/>
       <c r="E58" s="35"/>
-      <c r="F58" s="34"/>
+      <c r="F58" s="33"/>
       <c r="G58" s="35"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="34"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="33"/>
       <c r="O58" s="18"/>
       <c r="P58" s="5">
         <v>58.029696999999999</v>
@@ -5952,7 +5952,7 @@
       </c>
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="34" t="s">
         <v>24</v>
       </c>
       <c r="B59" s="1">
@@ -5963,23 +5963,23 @@
       <c r="E59" s="35">
         <v>0.29386831802036401</v>
       </c>
-      <c r="F59" s="34" t="s">
+      <c r="F59" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G59" s="35">
         <v>0.30511472915739701</v>
       </c>
-      <c r="H59" s="34" t="s">
+      <c r="H59" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I59" s="32" t="s">
+      <c r="I59" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J59" s="34" t="s">
+      <c r="J59" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K59" s="33"/>
-      <c r="L59" s="34"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="33"/>
       <c r="O59" s="18"/>
       <c r="P59" s="5">
         <v>7.0910570000000002</v>
@@ -6054,20 +6054,20 @@
       </c>
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A60" s="32"/>
+      <c r="A60" s="34"/>
       <c r="B60" s="1">
         <v>1000</v>
       </c>
       <c r="C60" s="35"/>
       <c r="D60" s="36"/>
       <c r="E60" s="35"/>
-      <c r="F60" s="34"/>
+      <c r="F60" s="33"/>
       <c r="G60" s="35"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="34"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="33"/>
       <c r="O60" s="18"/>
       <c r="P60" s="5">
         <v>14.007052</v>
@@ -6142,20 +6142,20 @@
       </c>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A61" s="32"/>
+      <c r="A61" s="34"/>
       <c r="B61" s="1">
         <v>2000</v>
       </c>
       <c r="C61" s="35"/>
       <c r="D61" s="36"/>
       <c r="E61" s="35"/>
-      <c r="F61" s="34"/>
+      <c r="F61" s="33"/>
       <c r="G61" s="35"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="32"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="34"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="33"/>
       <c r="O61" s="18"/>
       <c r="P61" s="5">
         <v>27.958158999999998</v>
@@ -6230,20 +6230,20 @@
       </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A62" s="32"/>
+      <c r="A62" s="34"/>
       <c r="B62" s="1">
         <v>5000</v>
       </c>
       <c r="C62" s="35"/>
       <c r="D62" s="36"/>
       <c r="E62" s="35"/>
-      <c r="F62" s="34"/>
+      <c r="F62" s="33"/>
       <c r="G62" s="35"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="34"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="33"/>
       <c r="O62" s="18"/>
       <c r="P62" s="5">
         <v>69.326909000000001</v>
@@ -6318,7 +6318,7 @@
       </c>
     </row>
     <row r="63" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="34" t="s">
         <v>25</v>
       </c>
       <c r="B63" s="1">
@@ -6329,23 +6329,23 @@
       <c r="E63" s="35">
         <v>0.167989635290166</v>
       </c>
-      <c r="F63" s="34" t="s">
+      <c r="F63" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G63" s="35">
         <v>0.25329462101632999</v>
       </c>
-      <c r="H63" s="34" t="s">
+      <c r="H63" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I63" s="32" t="s">
+      <c r="I63" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J63" s="34" t="s">
+      <c r="J63" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K63" s="33"/>
-      <c r="L63" s="34"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="33"/>
       <c r="O63" s="18"/>
       <c r="P63" s="5">
         <v>7.4597910000000001</v>
@@ -6420,20 +6420,20 @@
       </c>
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A64" s="32"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="1">
         <v>1000</v>
       </c>
       <c r="C64" s="35"/>
       <c r="D64" s="36"/>
       <c r="E64" s="35"/>
-      <c r="F64" s="34"/>
+      <c r="F64" s="33"/>
       <c r="G64" s="35"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="34"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="33"/>
       <c r="O64" s="18"/>
       <c r="P64" s="5">
         <v>14.86237</v>
@@ -6508,20 +6508,20 @@
       </c>
     </row>
     <row r="65" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
+      <c r="A65" s="34"/>
       <c r="B65" s="1">
         <v>2000</v>
       </c>
       <c r="C65" s="35"/>
       <c r="D65" s="36"/>
       <c r="E65" s="35"/>
-      <c r="F65" s="34"/>
+      <c r="F65" s="33"/>
       <c r="G65" s="35"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="33"/>
-      <c r="L65" s="34"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="33"/>
       <c r="O65" s="18"/>
       <c r="P65" s="5">
         <v>29.561377</v>
@@ -6596,20 +6596,20 @@
       </c>
     </row>
     <row r="66" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A66" s="32"/>
+      <c r="A66" s="34"/>
       <c r="B66" s="1">
         <v>5000</v>
       </c>
       <c r="C66" s="35"/>
       <c r="D66" s="36"/>
       <c r="E66" s="35"/>
-      <c r="F66" s="34"/>
+      <c r="F66" s="33"/>
       <c r="G66" s="35"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="33"/>
-      <c r="L66" s="34"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="33"/>
       <c r="O66" s="18"/>
       <c r="P66" s="5">
         <v>73.479196999999999</v>
@@ -6710,7 +6710,7 @@
       <c r="AT67" s="31"/>
     </row>
     <row r="68" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="34" t="s">
         <v>27</v>
       </c>
       <c r="B68" s="1">
@@ -6721,23 +6721,23 @@
       <c r="E68" s="35">
         <v>0.16062893658948699</v>
       </c>
-      <c r="F68" s="34" t="s">
+      <c r="F68" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G68" s="35">
         <v>0.121214337893307</v>
       </c>
-      <c r="H68" s="34" t="s">
+      <c r="H68" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I68" s="32" t="s">
+      <c r="I68" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J68" s="34" t="s">
+      <c r="J68" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K68" s="33"/>
-      <c r="L68" s="34"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="33"/>
       <c r="O68" s="18"/>
       <c r="P68" s="5">
         <v>2.7527020000000002</v>
@@ -6812,20 +6812,20 @@
       </c>
     </row>
     <row r="69" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A69" s="32"/>
+      <c r="A69" s="34"/>
       <c r="B69" s="1">
         <v>1000</v>
       </c>
       <c r="C69" s="35"/>
       <c r="D69" s="36"/>
       <c r="E69" s="35"/>
-      <c r="F69" s="34"/>
+      <c r="F69" s="33"/>
       <c r="G69" s="35"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="33"/>
-      <c r="L69" s="34"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="32"/>
+      <c r="L69" s="33"/>
       <c r="O69" s="18"/>
       <c r="P69" s="5">
         <v>5.4598659999999999</v>
@@ -6900,20 +6900,20 @@
       </c>
     </row>
     <row r="70" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A70" s="32"/>
+      <c r="A70" s="34"/>
       <c r="B70" s="1">
         <v>2000</v>
       </c>
       <c r="C70" s="35"/>
       <c r="D70" s="36"/>
       <c r="E70" s="35"/>
-      <c r="F70" s="34"/>
+      <c r="F70" s="33"/>
       <c r="G70" s="35"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="33"/>
-      <c r="L70" s="34"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="32"/>
+      <c r="L70" s="33"/>
       <c r="O70" s="18"/>
       <c r="P70" s="5">
         <v>10.888598999999999</v>
@@ -6988,20 +6988,20 @@
       </c>
     </row>
     <row r="71" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A71" s="32"/>
+      <c r="A71" s="34"/>
       <c r="B71" s="1">
         <v>5000</v>
       </c>
       <c r="C71" s="35"/>
       <c r="D71" s="36"/>
       <c r="E71" s="35"/>
-      <c r="F71" s="34"/>
+      <c r="F71" s="33"/>
       <c r="G71" s="35"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="32"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="33"/>
-      <c r="L71" s="34"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="33"/>
       <c r="O71" s="18"/>
       <c r="P71" s="5">
         <v>27.119754</v>
@@ -7076,7 +7076,7 @@
       </c>
     </row>
     <row r="72" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A72" s="32" t="s">
+      <c r="A72" s="34" t="s">
         <v>28</v>
       </c>
       <c r="B72" s="1">
@@ -7087,23 +7087,23 @@
       <c r="E72" s="35">
         <v>1.0883629283854401E-2</v>
       </c>
-      <c r="F72" s="34" t="s">
+      <c r="F72" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G72" s="35">
         <v>2.6516853932584201E-2</v>
       </c>
-      <c r="H72" s="34" t="s">
+      <c r="H72" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I72" s="32" t="s">
+      <c r="I72" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J72" s="34" t="s">
+      <c r="J72" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K72" s="33"/>
-      <c r="L72" s="34"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="33"/>
       <c r="O72" s="18"/>
       <c r="P72" s="5">
         <v>3.1482399999999999</v>
@@ -7178,20 +7178,20 @@
       </c>
     </row>
     <row r="73" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A73" s="32"/>
+      <c r="A73" s="34"/>
       <c r="B73" s="1">
         <v>1000</v>
       </c>
       <c r="C73" s="35"/>
       <c r="D73" s="36"/>
       <c r="E73" s="35"/>
-      <c r="F73" s="34"/>
+      <c r="F73" s="33"/>
       <c r="G73" s="35"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="33"/>
-      <c r="L73" s="34"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="33"/>
       <c r="O73" s="18"/>
       <c r="P73" s="5">
         <v>6.2835929999999998</v>
@@ -7266,20 +7266,20 @@
       </c>
     </row>
     <row r="74" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A74" s="32"/>
+      <c r="A74" s="34"/>
       <c r="B74" s="1">
         <v>2000</v>
       </c>
       <c r="C74" s="35"/>
       <c r="D74" s="36"/>
       <c r="E74" s="35"/>
-      <c r="F74" s="34"/>
+      <c r="F74" s="33"/>
       <c r="G74" s="35"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="32"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="34"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="33"/>
       <c r="O74" s="18"/>
       <c r="P74" s="5">
         <v>12.554895999999999</v>
@@ -7354,20 +7354,20 @@
       </c>
     </row>
     <row r="75" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A75" s="32"/>
+      <c r="A75" s="34"/>
       <c r="B75" s="1">
         <v>5000</v>
       </c>
       <c r="C75" s="35"/>
       <c r="D75" s="36"/>
       <c r="E75" s="35"/>
-      <c r="F75" s="34"/>
+      <c r="F75" s="33"/>
       <c r="G75" s="35"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="33"/>
-      <c r="L75" s="34"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="32"/>
+      <c r="L75" s="33"/>
       <c r="O75" s="18"/>
       <c r="P75" s="5">
         <v>31.354782</v>
@@ -7442,7 +7442,7 @@
       </c>
     </row>
     <row r="76" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A76" s="32" t="s">
+      <c r="A76" s="34" t="s">
         <v>29</v>
       </c>
       <c r="B76" s="1">
@@ -7453,23 +7453,23 @@
       <c r="E76" s="35">
         <v>2.1265476753851299E-2</v>
       </c>
-      <c r="F76" s="34" t="s">
+      <c r="F76" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G76" s="35">
         <v>3.6388931451421497E-2</v>
       </c>
-      <c r="H76" s="34" t="s">
+      <c r="H76" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I76" s="32" t="s">
+      <c r="I76" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J76" s="34" t="s">
+      <c r="J76" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K76" s="33"/>
-      <c r="L76" s="34"/>
+      <c r="K76" s="32"/>
+      <c r="L76" s="33"/>
       <c r="O76" s="18"/>
       <c r="P76" s="5">
         <v>3.7235830000000001</v>
@@ -7544,20 +7544,20 @@
       </c>
     </row>
     <row r="77" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A77" s="32"/>
+      <c r="A77" s="34"/>
       <c r="B77" s="1">
         <v>1000</v>
       </c>
       <c r="C77" s="35"/>
       <c r="D77" s="36"/>
       <c r="E77" s="35"/>
-      <c r="F77" s="34"/>
+      <c r="F77" s="33"/>
       <c r="G77" s="35"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="32"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="33"/>
-      <c r="L77" s="34"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="33"/>
+      <c r="K77" s="32"/>
+      <c r="L77" s="33"/>
       <c r="O77" s="18"/>
       <c r="P77" s="5">
         <v>7.4339560000000002</v>
@@ -7632,20 +7632,20 @@
       </c>
     </row>
     <row r="78" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A78" s="32"/>
+      <c r="A78" s="34"/>
       <c r="B78" s="1">
         <v>2000</v>
       </c>
       <c r="C78" s="35"/>
       <c r="D78" s="36"/>
       <c r="E78" s="35"/>
-      <c r="F78" s="34"/>
+      <c r="F78" s="33"/>
       <c r="G78" s="35"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="33"/>
-      <c r="L78" s="34"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="32"/>
+      <c r="L78" s="33"/>
       <c r="P78" s="5">
         <v>14.859114</v>
       </c>
@@ -7719,20 +7719,20 @@
       </c>
     </row>
     <row r="79" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A79" s="32"/>
+      <c r="A79" s="34"/>
       <c r="B79" s="1">
         <v>5000</v>
       </c>
       <c r="C79" s="35"/>
       <c r="D79" s="36"/>
       <c r="E79" s="35"/>
-      <c r="F79" s="34"/>
+      <c r="F79" s="33"/>
       <c r="G79" s="35"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="33"/>
-      <c r="L79" s="34"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="32"/>
+      <c r="L79" s="33"/>
       <c r="P79" s="5">
         <v>37.086013000000001</v>
       </c>
@@ -7806,7 +7806,7 @@
       </c>
     </row>
     <row r="80" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A80" s="32" t="s">
+      <c r="A80" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B80" s="1">
@@ -7817,23 +7817,23 @@
       <c r="E80" s="35">
         <v>0.17058616214445499</v>
       </c>
-      <c r="F80" s="34" t="s">
+      <c r="F80" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G80" s="35">
         <v>0.11949852870448099</v>
       </c>
-      <c r="H80" s="34" t="s">
+      <c r="H80" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I80" s="32" t="s">
+      <c r="I80" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J80" s="34" t="s">
+      <c r="J80" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K80" s="33"/>
-      <c r="L80" s="34"/>
+      <c r="K80" s="32"/>
+      <c r="L80" s="33"/>
       <c r="P80" s="5">
         <v>3.4546389999999998</v>
       </c>
@@ -7907,20 +7907,20 @@
       </c>
     </row>
     <row r="81" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A81" s="32"/>
+      <c r="A81" s="34"/>
       <c r="B81" s="1">
         <v>1000</v>
       </c>
       <c r="C81" s="35"/>
       <c r="D81" s="36"/>
       <c r="E81" s="35"/>
-      <c r="F81" s="34"/>
+      <c r="F81" s="33"/>
       <c r="G81" s="35"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="32"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="33"/>
-      <c r="L81" s="34"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="32"/>
+      <c r="L81" s="33"/>
       <c r="P81" s="5">
         <v>6.9478160000000004</v>
       </c>
@@ -7994,20 +7994,20 @@
       </c>
     </row>
     <row r="82" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A82" s="32"/>
+      <c r="A82" s="34"/>
       <c r="B82" s="1">
         <v>2000</v>
       </c>
       <c r="C82" s="35"/>
       <c r="D82" s="36"/>
       <c r="E82" s="35"/>
-      <c r="F82" s="34"/>
+      <c r="F82" s="33"/>
       <c r="G82" s="35"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="32"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="33"/>
-      <c r="L82" s="34"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="32"/>
+      <c r="L82" s="33"/>
       <c r="P82" s="5">
         <v>14.081699</v>
       </c>
@@ -8081,20 +8081,20 @@
       </c>
     </row>
     <row r="83" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A83" s="32"/>
+      <c r="A83" s="34"/>
       <c r="B83" s="1">
         <v>5000</v>
       </c>
       <c r="C83" s="35"/>
       <c r="D83" s="36"/>
       <c r="E83" s="35"/>
-      <c r="F83" s="34"/>
+      <c r="F83" s="33"/>
       <c r="G83" s="35"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="32"/>
-      <c r="J83" s="34"/>
-      <c r="K83" s="33"/>
-      <c r="L83" s="34"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="32"/>
+      <c r="L83" s="33"/>
       <c r="P83" s="5">
         <v>35.508873000000001</v>
       </c>
@@ -8168,7 +8168,7 @@
       </c>
     </row>
     <row r="84" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A84" s="32" t="s">
+      <c r="A84" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B84" s="1">
@@ -8179,23 +8179,23 @@
       <c r="E84" s="35">
         <v>0.219652082835287</v>
       </c>
-      <c r="F84" s="34" t="s">
+      <c r="F84" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G84" s="35">
         <v>0.145969617876444</v>
       </c>
-      <c r="H84" s="34" t="s">
+      <c r="H84" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I84" s="32" t="s">
+      <c r="I84" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J84" s="34" t="s">
+      <c r="J84" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K84" s="33"/>
-      <c r="L84" s="34"/>
+      <c r="K84" s="32"/>
+      <c r="L84" s="33"/>
       <c r="P84" s="5">
         <v>4.0850150000000003</v>
       </c>
@@ -8269,20 +8269,20 @@
       </c>
     </row>
     <row r="85" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A85" s="32"/>
+      <c r="A85" s="34"/>
       <c r="B85" s="1">
         <v>1000</v>
       </c>
       <c r="C85" s="35"/>
       <c r="D85" s="36"/>
       <c r="E85" s="35"/>
-      <c r="F85" s="34"/>
+      <c r="F85" s="33"/>
       <c r="G85" s="35"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="32"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="33"/>
-      <c r="L85" s="34"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="32"/>
+      <c r="L85" s="33"/>
       <c r="P85" s="5">
         <v>8.2311809999999994</v>
       </c>
@@ -8356,20 +8356,20 @@
       </c>
     </row>
     <row r="86" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A86" s="32"/>
+      <c r="A86" s="34"/>
       <c r="B86" s="1">
         <v>2000</v>
       </c>
       <c r="C86" s="35"/>
       <c r="D86" s="36"/>
       <c r="E86" s="35"/>
-      <c r="F86" s="34"/>
+      <c r="F86" s="33"/>
       <c r="G86" s="35"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="32"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="33"/>
-      <c r="L86" s="34"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="32"/>
+      <c r="L86" s="33"/>
       <c r="P86" s="5">
         <v>16.372955999999999</v>
       </c>
@@ -8443,20 +8443,20 @@
       </c>
     </row>
     <row r="87" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A87" s="32"/>
+      <c r="A87" s="34"/>
       <c r="B87" s="1">
         <v>5000</v>
       </c>
       <c r="C87" s="35"/>
       <c r="D87" s="36"/>
       <c r="E87" s="35"/>
-      <c r="F87" s="34"/>
+      <c r="F87" s="33"/>
       <c r="G87" s="35"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="33"/>
-      <c r="L87" s="34"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="32"/>
+      <c r="L87" s="33"/>
       <c r="P87" s="5">
         <v>41.484876999999997</v>
       </c>
@@ -8530,7 +8530,7 @@
       </c>
     </row>
     <row r="88" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A88" s="32" t="s">
+      <c r="A88" s="34" t="s">
         <v>26</v>
       </c>
       <c r="B88" s="1">
@@ -8541,23 +8541,23 @@
       <c r="E88" s="35">
         <v>0.27256493121848202</v>
       </c>
-      <c r="F88" s="34" t="s">
+      <c r="F88" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G88" s="35">
         <v>0.15719859527191099</v>
       </c>
-      <c r="H88" s="34" t="s">
+      <c r="H88" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I88" s="32" t="s">
+      <c r="I88" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J88" s="34" t="s">
+      <c r="J88" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K88" s="33"/>
-      <c r="L88" s="34"/>
+      <c r="K88" s="32"/>
+      <c r="L88" s="33"/>
       <c r="P88" s="5">
         <v>4.7877510000000001</v>
       </c>
@@ -8631,20 +8631,20 @@
       </c>
     </row>
     <row r="89" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A89" s="32"/>
+      <c r="A89" s="34"/>
       <c r="B89" s="1">
         <v>1000</v>
       </c>
       <c r="C89" s="35"/>
       <c r="D89" s="36"/>
       <c r="E89" s="35"/>
-      <c r="F89" s="34"/>
+      <c r="F89" s="33"/>
       <c r="G89" s="35"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="32"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="33"/>
-      <c r="L89" s="34"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="32"/>
+      <c r="L89" s="33"/>
       <c r="P89" s="5">
         <v>9.6713889999999996</v>
       </c>
@@ -8718,20 +8718,20 @@
       </c>
     </row>
     <row r="90" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A90" s="32"/>
+      <c r="A90" s="34"/>
       <c r="B90" s="1">
         <v>2000</v>
       </c>
       <c r="C90" s="35"/>
       <c r="D90" s="36"/>
       <c r="E90" s="35"/>
-      <c r="F90" s="34"/>
+      <c r="F90" s="33"/>
       <c r="G90" s="35"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="32"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="33"/>
-      <c r="L90" s="34"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="34"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="32"/>
+      <c r="L90" s="33"/>
       <c r="P90" s="5">
         <v>19.316754</v>
       </c>
@@ -8805,20 +8805,20 @@
       </c>
     </row>
     <row r="91" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
+      <c r="A91" s="34"/>
       <c r="B91" s="1">
         <v>5000</v>
       </c>
       <c r="C91" s="35"/>
       <c r="D91" s="36"/>
       <c r="E91" s="35"/>
-      <c r="F91" s="34"/>
+      <c r="F91" s="33"/>
       <c r="G91" s="35"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="32"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="33"/>
-      <c r="L91" s="34"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="34"/>
+      <c r="J91" s="33"/>
+      <c r="K91" s="32"/>
+      <c r="L91" s="33"/>
       <c r="P91" s="5">
         <v>47.262852000000002</v>
       </c>
@@ -8892,7 +8892,7 @@
       </c>
     </row>
     <row r="92" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A92" s="32" t="s">
+      <c r="A92" s="34" t="s">
         <v>32</v>
       </c>
       <c r="B92" s="1">
@@ -8903,23 +8903,23 @@
       <c r="E92" s="35">
         <v>6.2700060480871303E-2</v>
       </c>
-      <c r="F92" s="34" t="s">
+      <c r="F92" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G92" s="35">
         <v>3.09751238890398E-2</v>
       </c>
-      <c r="H92" s="34" t="s">
+      <c r="H92" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I92" s="32" t="s">
+      <c r="I92" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J92" s="34" t="s">
+      <c r="J92" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K92" s="33"/>
-      <c r="L92" s="34"/>
+      <c r="K92" s="32"/>
+      <c r="L92" s="33"/>
       <c r="P92" s="5">
         <v>6.1680070000000002</v>
       </c>
@@ -8993,20 +8993,20 @@
       </c>
     </row>
     <row r="93" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A93" s="32"/>
+      <c r="A93" s="34"/>
       <c r="B93" s="1">
         <v>1000</v>
       </c>
       <c r="C93" s="35"/>
       <c r="D93" s="36"/>
       <c r="E93" s="35"/>
-      <c r="F93" s="34"/>
+      <c r="F93" s="33"/>
       <c r="G93" s="35"/>
-      <c r="H93" s="34"/>
-      <c r="I93" s="32"/>
-      <c r="J93" s="34"/>
-      <c r="K93" s="33"/>
-      <c r="L93" s="34"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="34"/>
+      <c r="J93" s="33"/>
+      <c r="K93" s="32"/>
+      <c r="L93" s="33"/>
       <c r="P93" s="5">
         <v>12.293174</v>
       </c>
@@ -9080,20 +9080,20 @@
       </c>
     </row>
     <row r="94" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A94" s="32"/>
+      <c r="A94" s="34"/>
       <c r="B94" s="1">
         <v>2000</v>
       </c>
       <c r="C94" s="35"/>
       <c r="D94" s="36"/>
       <c r="E94" s="35"/>
-      <c r="F94" s="34"/>
+      <c r="F94" s="33"/>
       <c r="G94" s="35"/>
-      <c r="H94" s="34"/>
-      <c r="I94" s="32"/>
-      <c r="J94" s="34"/>
-      <c r="K94" s="33"/>
-      <c r="L94" s="34"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="33"/>
+      <c r="K94" s="32"/>
+      <c r="L94" s="33"/>
       <c r="P94" s="5">
         <v>24.530194999999999</v>
       </c>
@@ -9167,20 +9167,20 @@
       </c>
     </row>
     <row r="95" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A95" s="32"/>
+      <c r="A95" s="34"/>
       <c r="B95" s="1">
         <v>5000</v>
       </c>
       <c r="C95" s="35"/>
       <c r="D95" s="36"/>
       <c r="E95" s="35"/>
-      <c r="F95" s="34"/>
+      <c r="F95" s="33"/>
       <c r="G95" s="35"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="32"/>
-      <c r="J95" s="34"/>
-      <c r="K95" s="33"/>
-      <c r="L95" s="34"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="32"/>
+      <c r="L95" s="33"/>
       <c r="P95" s="5">
         <v>61.224843</v>
       </c>
@@ -9254,7 +9254,7 @@
       </c>
     </row>
     <row r="96" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A96" s="32" t="s">
+      <c r="A96" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B96" s="1">
@@ -9265,23 +9265,23 @@
       <c r="E96" s="35">
         <v>0.21402465142211599</v>
       </c>
-      <c r="F96" s="34" t="s">
+      <c r="F96" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G96" s="35">
         <v>0.16071994068421799</v>
       </c>
-      <c r="H96" s="34" t="s">
+      <c r="H96" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I96" s="32" t="s">
+      <c r="I96" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J96" s="34" t="s">
+      <c r="J96" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K96" s="33"/>
-      <c r="L96" s="34"/>
+      <c r="K96" s="32"/>
+      <c r="L96" s="33"/>
       <c r="P96" s="5">
         <v>5.129162</v>
       </c>
@@ -9355,20 +9355,20 @@
       </c>
     </row>
     <row r="97" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A97" s="32"/>
+      <c r="A97" s="34"/>
       <c r="B97" s="1">
         <v>1000</v>
       </c>
       <c r="C97" s="35"/>
       <c r="D97" s="36"/>
       <c r="E97" s="35"/>
-      <c r="F97" s="34"/>
+      <c r="F97" s="33"/>
       <c r="G97" s="35"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="32"/>
-      <c r="J97" s="34"/>
-      <c r="K97" s="33"/>
-      <c r="L97" s="34"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="34"/>
+      <c r="J97" s="33"/>
+      <c r="K97" s="32"/>
+      <c r="L97" s="33"/>
       <c r="P97" s="5">
         <v>10.24381</v>
       </c>
@@ -9442,20 +9442,20 @@
       </c>
     </row>
     <row r="98" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A98" s="32"/>
+      <c r="A98" s="34"/>
       <c r="B98" s="1">
         <v>2000</v>
       </c>
       <c r="C98" s="35"/>
       <c r="D98" s="36"/>
       <c r="E98" s="35"/>
-      <c r="F98" s="34"/>
+      <c r="F98" s="33"/>
       <c r="G98" s="35"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="32"/>
-      <c r="J98" s="34"/>
-      <c r="K98" s="33"/>
-      <c r="L98" s="34"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="33"/>
+      <c r="K98" s="32"/>
+      <c r="L98" s="33"/>
       <c r="P98" s="5">
         <v>20.481614</v>
       </c>
@@ -9529,20 +9529,20 @@
       </c>
     </row>
     <row r="99" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A99" s="32"/>
+      <c r="A99" s="34"/>
       <c r="B99" s="1">
         <v>5000</v>
       </c>
       <c r="C99" s="35"/>
       <c r="D99" s="36"/>
       <c r="E99" s="35"/>
-      <c r="F99" s="34"/>
+      <c r="F99" s="33"/>
       <c r="G99" s="35"/>
-      <c r="H99" s="34"/>
-      <c r="I99" s="32"/>
-      <c r="J99" s="34"/>
-      <c r="K99" s="33"/>
-      <c r="L99" s="34"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="34"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="32"/>
+      <c r="L99" s="33"/>
       <c r="P99" s="5">
         <v>51.171509</v>
       </c>
@@ -9641,7 +9641,7 @@
       <c r="AT100" s="24"/>
     </row>
     <row r="101" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A101" s="32" t="s">
+      <c r="A101" s="34" t="s">
         <v>47</v>
       </c>
       <c r="B101" s="16">
@@ -9650,21 +9650,21 @@
       <c r="C101" s="35"/>
       <c r="D101" s="35"/>
       <c r="E101" s="35"/>
-      <c r="F101" s="34" t="s">
+      <c r="F101" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G101" s="35"/>
-      <c r="H101" s="34" t="s">
+      <c r="H101" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I101" s="32" t="s">
+      <c r="I101" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J101" s="34" t="s">
+      <c r="J101" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K101" s="33"/>
-      <c r="L101" s="34"/>
+      <c r="K101" s="32"/>
+      <c r="L101" s="33"/>
       <c r="Q101" s="17">
         <v>3.6363636363636362E-2</v>
       </c>
@@ -9732,20 +9732,20 @@
       </c>
     </row>
     <row r="102" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A102" s="32"/>
+      <c r="A102" s="34"/>
       <c r="B102" s="16">
         <v>1000</v>
       </c>
       <c r="C102" s="35"/>
       <c r="D102" s="35"/>
       <c r="E102" s="35"/>
-      <c r="F102" s="34"/>
+      <c r="F102" s="33"/>
       <c r="G102" s="35"/>
-      <c r="H102" s="34"/>
-      <c r="I102" s="32"/>
-      <c r="J102" s="34"/>
-      <c r="K102" s="33"/>
-      <c r="L102" s="34"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="34"/>
+      <c r="J102" s="33"/>
+      <c r="K102" s="32"/>
+      <c r="L102" s="33"/>
       <c r="Q102" s="17">
         <v>0</v>
       </c>
@@ -9813,20 +9813,20 @@
       </c>
     </row>
     <row r="103" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A103" s="32"/>
+      <c r="A103" s="34"/>
       <c r="B103" s="16">
         <v>2000</v>
       </c>
       <c r="C103" s="35"/>
       <c r="D103" s="35"/>
       <c r="E103" s="35"/>
-      <c r="F103" s="34"/>
+      <c r="F103" s="33"/>
       <c r="G103" s="35"/>
-      <c r="H103" s="34"/>
-      <c r="I103" s="32"/>
-      <c r="J103" s="34"/>
-      <c r="K103" s="33"/>
-      <c r="L103" s="34"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="34"/>
+      <c r="J103" s="33"/>
+      <c r="K103" s="32"/>
+      <c r="L103" s="33"/>
       <c r="Q103" s="17">
         <v>0</v>
       </c>
@@ -9894,20 +9894,20 @@
       </c>
     </row>
     <row r="104" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A104" s="32"/>
+      <c r="A104" s="34"/>
       <c r="B104" s="16">
         <v>5000</v>
       </c>
       <c r="C104" s="35"/>
       <c r="D104" s="35"/>
       <c r="E104" s="35"/>
-      <c r="F104" s="34"/>
+      <c r="F104" s="33"/>
       <c r="G104" s="35"/>
-      <c r="H104" s="34"/>
-      <c r="I104" s="32"/>
-      <c r="J104" s="34"/>
-      <c r="K104" s="33"/>
-      <c r="L104" s="34"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="34"/>
+      <c r="J104" s="33"/>
+      <c r="K104" s="32"/>
+      <c r="L104" s="33"/>
       <c r="Q104" s="17">
         <v>0</v>
       </c>
@@ -9975,7 +9975,7 @@
       </c>
     </row>
     <row r="105" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A105" s="32" t="s">
+      <c r="A105" s="34" t="s">
         <v>58</v>
       </c>
       <c r="B105" s="16">
@@ -9984,21 +9984,21 @@
       <c r="C105" s="35"/>
       <c r="D105" s="35"/>
       <c r="E105" s="35"/>
-      <c r="F105" s="34" t="s">
+      <c r="F105" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G105" s="35"/>
-      <c r="H105" s="34" t="s">
+      <c r="H105" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I105" s="32" t="s">
+      <c r="I105" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J105" s="34" t="s">
+      <c r="J105" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K105" s="33"/>
-      <c r="L105" s="34"/>
+      <c r="K105" s="32"/>
+      <c r="L105" s="33"/>
       <c r="Q105" s="17">
         <v>9.8924731182795697E-2</v>
       </c>
@@ -10066,20 +10066,20 @@
       </c>
     </row>
     <row r="106" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A106" s="32"/>
+      <c r="A106" s="34"/>
       <c r="B106" s="16">
         <v>1000</v>
       </c>
       <c r="C106" s="35"/>
       <c r="D106" s="35"/>
       <c r="E106" s="35"/>
-      <c r="F106" s="34"/>
+      <c r="F106" s="33"/>
       <c r="G106" s="35"/>
-      <c r="H106" s="34"/>
-      <c r="I106" s="32"/>
-      <c r="J106" s="34"/>
-      <c r="K106" s="33"/>
-      <c r="L106" s="34"/>
+      <c r="H106" s="33"/>
+      <c r="I106" s="34"/>
+      <c r="J106" s="33"/>
+      <c r="K106" s="32"/>
+      <c r="L106" s="33"/>
       <c r="Q106" s="17">
         <v>7.9569892473118284E-2</v>
       </c>
@@ -10147,20 +10147,20 @@
       </c>
     </row>
     <row r="107" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A107" s="32"/>
+      <c r="A107" s="34"/>
       <c r="B107" s="16">
         <v>2000</v>
       </c>
       <c r="C107" s="35"/>
       <c r="D107" s="35"/>
       <c r="E107" s="35"/>
-      <c r="F107" s="34"/>
+      <c r="F107" s="33"/>
       <c r="G107" s="35"/>
-      <c r="H107" s="34"/>
-      <c r="I107" s="32"/>
-      <c r="J107" s="34"/>
-      <c r="K107" s="33"/>
-      <c r="L107" s="34"/>
+      <c r="H107" s="33"/>
+      <c r="I107" s="34"/>
+      <c r="J107" s="33"/>
+      <c r="K107" s="32"/>
+      <c r="L107" s="33"/>
       <c r="Q107" s="17">
         <v>5.6989247311827959E-2</v>
       </c>
@@ -10228,20 +10228,20 @@
       </c>
     </row>
     <row r="108" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A108" s="32"/>
+      <c r="A108" s="34"/>
       <c r="B108" s="16">
         <v>5000</v>
       </c>
       <c r="C108" s="35"/>
       <c r="D108" s="35"/>
       <c r="E108" s="35"/>
-      <c r="F108" s="34"/>
+      <c r="F108" s="33"/>
       <c r="G108" s="35"/>
-      <c r="H108" s="34"/>
-      <c r="I108" s="32"/>
-      <c r="J108" s="34"/>
-      <c r="K108" s="33"/>
-      <c r="L108" s="34"/>
+      <c r="H108" s="33"/>
+      <c r="I108" s="34"/>
+      <c r="J108" s="33"/>
+      <c r="K108" s="32"/>
+      <c r="L108" s="33"/>
       <c r="Q108" s="17">
         <v>5.6989247311827959E-2</v>
       </c>
@@ -10309,7 +10309,7 @@
       </c>
     </row>
     <row r="109" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A109" s="32" t="s">
+      <c r="A109" s="34" t="s">
         <v>59</v>
       </c>
       <c r="B109" s="16">
@@ -10318,21 +10318,21 @@
       <c r="C109" s="35"/>
       <c r="D109" s="35"/>
       <c r="E109" s="35"/>
-      <c r="F109" s="34" t="s">
+      <c r="F109" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G109" s="35"/>
-      <c r="H109" s="34" t="s">
+      <c r="H109" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I109" s="32" t="s">
+      <c r="I109" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J109" s="34" t="s">
+      <c r="J109" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K109" s="33"/>
-      <c r="L109" s="34"/>
+      <c r="K109" s="32"/>
+      <c r="L109" s="33"/>
       <c r="Q109" s="17">
         <v>6.9527896995708161E-2</v>
       </c>
@@ -10400,20 +10400,20 @@
       </c>
     </row>
     <row r="110" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A110" s="32"/>
+      <c r="A110" s="34"/>
       <c r="B110" s="16">
         <v>1000</v>
       </c>
       <c r="C110" s="35"/>
       <c r="D110" s="35"/>
       <c r="E110" s="35"/>
-      <c r="F110" s="34"/>
+      <c r="F110" s="33"/>
       <c r="G110" s="35"/>
-      <c r="H110" s="34"/>
-      <c r="I110" s="32"/>
-      <c r="J110" s="34"/>
-      <c r="K110" s="33"/>
-      <c r="L110" s="34"/>
+      <c r="H110" s="33"/>
+      <c r="I110" s="34"/>
+      <c r="J110" s="33"/>
+      <c r="K110" s="32"/>
+      <c r="L110" s="33"/>
       <c r="Q110" s="17">
         <v>6.9527896995708161E-2</v>
       </c>
@@ -10481,20 +10481,20 @@
       </c>
     </row>
     <row r="111" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A111" s="32"/>
+      <c r="A111" s="34"/>
       <c r="B111" s="16">
         <v>2000</v>
       </c>
       <c r="C111" s="35"/>
       <c r="D111" s="35"/>
       <c r="E111" s="35"/>
-      <c r="F111" s="34"/>
+      <c r="F111" s="33"/>
       <c r="G111" s="35"/>
-      <c r="H111" s="34"/>
-      <c r="I111" s="32"/>
-      <c r="J111" s="34"/>
-      <c r="K111" s="33"/>
-      <c r="L111" s="34"/>
+      <c r="H111" s="33"/>
+      <c r="I111" s="34"/>
+      <c r="J111" s="33"/>
+      <c r="K111" s="32"/>
+      <c r="L111" s="33"/>
       <c r="Q111" s="17">
         <v>4.2060085836909872E-2</v>
       </c>
@@ -10562,20 +10562,20 @@
       </c>
     </row>
     <row r="112" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A112" s="32"/>
+      <c r="A112" s="34"/>
       <c r="B112" s="16">
         <v>5000</v>
       </c>
       <c r="C112" s="35"/>
       <c r="D112" s="35"/>
       <c r="E112" s="35"/>
-      <c r="F112" s="34"/>
+      <c r="F112" s="33"/>
       <c r="G112" s="35"/>
-      <c r="H112" s="34"/>
-      <c r="I112" s="32"/>
-      <c r="J112" s="34"/>
-      <c r="K112" s="33"/>
-      <c r="L112" s="34"/>
+      <c r="H112" s="33"/>
+      <c r="I112" s="34"/>
+      <c r="J112" s="33"/>
+      <c r="K112" s="32"/>
+      <c r="L112" s="33"/>
       <c r="Q112" s="17">
         <v>3.8626609442060089E-2</v>
       </c>
@@ -10663,7 +10663,7 @@
       <c r="AP113" s="24"/>
     </row>
     <row r="114" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A114" s="32" t="s">
+      <c r="A114" s="34" t="s">
         <v>60</v>
       </c>
       <c r="B114" s="20">
@@ -10671,26 +10671,26 @@
       </c>
       <c r="C114" s="35"/>
       <c r="D114" s="35"/>
-      <c r="E114" s="34" t="s">
+      <c r="E114" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="34" t="s">
+      <c r="F114" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G114" s="34" t="s">
+      <c r="G114" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="H114" s="34" t="s">
+      <c r="H114" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I114" s="34" t="s">
+      <c r="I114" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J114" s="34" t="s">
+      <c r="J114" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K114" s="33"/>
-      <c r="L114" s="34"/>
+      <c r="K114" s="32"/>
+      <c r="L114" s="33"/>
       <c r="Q114" s="21">
         <v>4.443657641724328E-2</v>
       </c>
@@ -10733,20 +10733,20 @@
       </c>
     </row>
     <row r="115" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A115" s="32"/>
+      <c r="A115" s="34"/>
       <c r="B115" s="20">
         <v>1000</v>
       </c>
       <c r="C115" s="35"/>
       <c r="D115" s="35"/>
-      <c r="E115" s="34"/>
-      <c r="F115" s="34"/>
-      <c r="G115" s="34"/>
-      <c r="H115" s="34"/>
-      <c r="I115" s="34"/>
-      <c r="J115" s="34"/>
-      <c r="K115" s="33"/>
-      <c r="L115" s="34"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="33"/>
+      <c r="G115" s="33"/>
+      <c r="H115" s="33"/>
+      <c r="I115" s="33"/>
+      <c r="J115" s="33"/>
+      <c r="K115" s="32"/>
+      <c r="L115" s="33"/>
       <c r="Q115" s="21">
         <v>3.5344166024718369E-2</v>
       </c>
@@ -10789,20 +10789,20 @@
       </c>
     </row>
     <row r="116" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A116" s="32"/>
+      <c r="A116" s="34"/>
       <c r="B116" s="20">
         <v>2000</v>
       </c>
       <c r="C116" s="35"/>
       <c r="D116" s="35"/>
-      <c r="E116" s="34"/>
-      <c r="F116" s="34"/>
-      <c r="G116" s="34"/>
-      <c r="H116" s="34"/>
-      <c r="I116" s="34"/>
-      <c r="J116" s="34"/>
-      <c r="K116" s="33"/>
-      <c r="L116" s="34"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="33"/>
+      <c r="G116" s="33"/>
+      <c r="H116" s="33"/>
+      <c r="I116" s="33"/>
+      <c r="J116" s="33"/>
+      <c r="K116" s="32"/>
+      <c r="L116" s="33"/>
       <c r="Q116" s="21">
         <v>2.8082599737989749E-2</v>
       </c>
@@ -10845,20 +10845,20 @@
       </c>
     </row>
     <row r="117" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A117" s="32"/>
+      <c r="A117" s="34"/>
       <c r="B117" s="20">
         <v>5000</v>
       </c>
       <c r="C117" s="35"/>
       <c r="D117" s="35"/>
-      <c r="E117" s="34"/>
-      <c r="F117" s="34"/>
-      <c r="G117" s="34"/>
-      <c r="H117" s="34"/>
-      <c r="I117" s="34"/>
-      <c r="J117" s="34"/>
-      <c r="K117" s="33"/>
-      <c r="L117" s="34"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="33"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="33"/>
+      <c r="I117" s="33"/>
+      <c r="J117" s="33"/>
+      <c r="K117" s="32"/>
+      <c r="L117" s="33"/>
       <c r="Q117" s="21">
         <v>2.2452105312462039E-2</v>
       </c>
@@ -10901,7 +10901,7 @@
       </c>
     </row>
     <row r="118" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A118" s="32" t="s">
+      <c r="A118" s="34" t="s">
         <v>61</v>
       </c>
       <c r="B118" s="20">
@@ -10909,26 +10909,26 @@
       </c>
       <c r="C118" s="35"/>
       <c r="D118" s="35"/>
-      <c r="E118" s="34" t="s">
+      <c r="E118" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F118" s="34" t="s">
+      <c r="F118" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G118" s="34" t="s">
+      <c r="G118" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="H118" s="34" t="s">
+      <c r="H118" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I118" s="34" t="s">
+      <c r="I118" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J118" s="34" t="s">
+      <c r="J118" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K118" s="33"/>
-      <c r="L118" s="34"/>
+      <c r="K118" s="32"/>
+      <c r="L118" s="33"/>
       <c r="Q118" s="21">
         <v>7.1047589705956982E-2</v>
       </c>
@@ -10971,20 +10971,20 @@
       </c>
     </row>
     <row r="119" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A119" s="32"/>
+      <c r="A119" s="34"/>
       <c r="B119" s="20">
         <v>1000</v>
       </c>
       <c r="C119" s="35"/>
       <c r="D119" s="35"/>
-      <c r="E119" s="34"/>
-      <c r="F119" s="34"/>
-      <c r="G119" s="34"/>
-      <c r="H119" s="34"/>
-      <c r="I119" s="34"/>
-      <c r="J119" s="34"/>
-      <c r="K119" s="33"/>
-      <c r="L119" s="34"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="33"/>
+      <c r="G119" s="33"/>
+      <c r="H119" s="33"/>
+      <c r="I119" s="33"/>
+      <c r="J119" s="33"/>
+      <c r="K119" s="32"/>
+      <c r="L119" s="33"/>
       <c r="Q119" s="21">
         <v>5.941429130028815E-2</v>
       </c>
@@ -11027,20 +11027,20 @@
       </c>
     </row>
     <row r="120" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A120" s="32"/>
+      <c r="A120" s="34"/>
       <c r="B120" s="20">
         <v>2000</v>
       </c>
       <c r="C120" s="35"/>
       <c r="D120" s="35"/>
-      <c r="E120" s="34"/>
-      <c r="F120" s="34"/>
-      <c r="G120" s="34"/>
-      <c r="H120" s="34"/>
-      <c r="I120" s="34"/>
-      <c r="J120" s="34"/>
-      <c r="K120" s="33"/>
-      <c r="L120" s="34"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="33"/>
+      <c r="G120" s="33"/>
+      <c r="H120" s="33"/>
+      <c r="I120" s="33"/>
+      <c r="J120" s="33"/>
+      <c r="K120" s="32"/>
+      <c r="L120" s="33"/>
       <c r="Q120" s="21">
         <v>5.0924734901751069E-2</v>
       </c>
@@ -11083,20 +11083,20 @@
       </c>
     </row>
     <row r="121" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A121" s="32"/>
+      <c r="A121" s="34"/>
       <c r="B121" s="20">
         <v>5000</v>
       </c>
       <c r="C121" s="35"/>
       <c r="D121" s="35"/>
-      <c r="E121" s="34"/>
-      <c r="F121" s="34"/>
-      <c r="G121" s="34"/>
-      <c r="H121" s="34"/>
-      <c r="I121" s="34"/>
-      <c r="J121" s="34"/>
-      <c r="K121" s="33"/>
-      <c r="L121" s="34"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="33"/>
+      <c r="G121" s="33"/>
+      <c r="H121" s="33"/>
+      <c r="I121" s="33"/>
+      <c r="J121" s="33"/>
+      <c r="K121" s="32"/>
+      <c r="L121" s="33"/>
       <c r="Q121" s="21">
         <v>4.265213538910461E-2</v>
       </c>
@@ -11139,7 +11139,7 @@
       </c>
     </row>
     <row r="122" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A122" s="32" t="s">
+      <c r="A122" s="34" t="s">
         <v>62</v>
       </c>
       <c r="B122" s="20">
@@ -11147,26 +11147,26 @@
       </c>
       <c r="C122" s="35"/>
       <c r="D122" s="35"/>
-      <c r="E122" s="34" t="s">
+      <c r="E122" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F122" s="34" t="s">
+      <c r="F122" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G122" s="34" t="s">
+      <c r="G122" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="H122" s="34" t="s">
+      <c r="H122" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I122" s="34" t="s">
+      <c r="I122" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J122" s="34" t="s">
+      <c r="J122" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K122" s="33"/>
-      <c r="L122" s="34"/>
+      <c r="K122" s="32"/>
+      <c r="L122" s="33"/>
       <c r="Q122" s="21">
         <v>8.9658537610427358E-2</v>
       </c>
@@ -11209,20 +11209,20 @@
       </c>
     </row>
     <row r="123" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A123" s="32"/>
+      <c r="A123" s="34"/>
       <c r="B123" s="20">
         <v>1000</v>
       </c>
       <c r="C123" s="35"/>
       <c r="D123" s="35"/>
-      <c r="E123" s="34"/>
-      <c r="F123" s="34"/>
-      <c r="G123" s="34"/>
-      <c r="H123" s="34"/>
-      <c r="I123" s="34"/>
-      <c r="J123" s="34"/>
-      <c r="K123" s="33"/>
-      <c r="L123" s="34"/>
+      <c r="E123" s="33"/>
+      <c r="F123" s="33"/>
+      <c r="G123" s="33"/>
+      <c r="H123" s="33"/>
+      <c r="I123" s="33"/>
+      <c r="J123" s="33"/>
+      <c r="K123" s="32"/>
+      <c r="L123" s="33"/>
       <c r="Q123" s="21">
         <v>7.6114428737574763E-2</v>
       </c>
@@ -11265,20 +11265,20 @@
       </c>
     </row>
     <row r="124" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A124" s="32"/>
+      <c r="A124" s="34"/>
       <c r="B124" s="20">
         <v>2000</v>
       </c>
       <c r="C124" s="35"/>
       <c r="D124" s="35"/>
-      <c r="E124" s="34"/>
-      <c r="F124" s="34"/>
-      <c r="G124" s="34"/>
-      <c r="H124" s="34"/>
-      <c r="I124" s="34"/>
-      <c r="J124" s="34"/>
-      <c r="K124" s="33"/>
-      <c r="L124" s="34"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="33"/>
+      <c r="G124" s="33"/>
+      <c r="H124" s="33"/>
+      <c r="I124" s="33"/>
+      <c r="J124" s="33"/>
+      <c r="K124" s="32"/>
+      <c r="L124" s="33"/>
       <c r="Q124" s="21">
         <v>6.6046132662835003E-2</v>
       </c>
@@ -11321,20 +11321,20 @@
       </c>
     </row>
     <row r="125" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A125" s="32"/>
+      <c r="A125" s="34"/>
       <c r="B125" s="20">
         <v>5000</v>
       </c>
       <c r="C125" s="35"/>
       <c r="D125" s="35"/>
-      <c r="E125" s="34"/>
-      <c r="F125" s="34"/>
-      <c r="G125" s="34"/>
-      <c r="H125" s="34"/>
-      <c r="I125" s="34"/>
-      <c r="J125" s="34"/>
-      <c r="K125" s="33"/>
-      <c r="L125" s="34"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="33"/>
+      <c r="G125" s="33"/>
+      <c r="H125" s="33"/>
+      <c r="I125" s="33"/>
+      <c r="J125" s="33"/>
+      <c r="K125" s="32"/>
+      <c r="L125" s="33"/>
       <c r="Q125" s="21">
         <v>5.5689497333012518E-2</v>
       </c>
@@ -11377,7 +11377,7 @@
       </c>
     </row>
     <row r="126" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A126" s="32" t="s">
+      <c r="A126" s="34" t="s">
         <v>63</v>
       </c>
       <c r="B126" s="20">
@@ -11385,26 +11385,26 @@
       </c>
       <c r="C126" s="35"/>
       <c r="D126" s="35"/>
-      <c r="E126" s="34" t="s">
+      <c r="E126" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F126" s="34" t="s">
+      <c r="F126" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G126" s="34" t="s">
+      <c r="G126" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="H126" s="34" t="s">
+      <c r="H126" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I126" s="34" t="s">
+      <c r="I126" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J126" s="34" t="s">
+      <c r="J126" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K126" s="33"/>
-      <c r="L126" s="34"/>
+      <c r="K126" s="32"/>
+      <c r="L126" s="33"/>
       <c r="Q126" s="21">
         <v>4.6134437618808748E-2</v>
       </c>
@@ -11447,20 +11447,20 @@
       </c>
     </row>
     <row r="127" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A127" s="32"/>
+      <c r="A127" s="34"/>
       <c r="B127" s="20">
         <v>1000</v>
       </c>
       <c r="C127" s="35"/>
       <c r="D127" s="35"/>
-      <c r="E127" s="34"/>
-      <c r="F127" s="34"/>
-      <c r="G127" s="34"/>
-      <c r="H127" s="34"/>
-      <c r="I127" s="34"/>
-      <c r="J127" s="34"/>
-      <c r="K127" s="33"/>
-      <c r="L127" s="34"/>
+      <c r="E127" s="33"/>
+      <c r="F127" s="33"/>
+      <c r="G127" s="33"/>
+      <c r="H127" s="33"/>
+      <c r="I127" s="33"/>
+      <c r="J127" s="33"/>
+      <c r="K127" s="32"/>
+      <c r="L127" s="33"/>
       <c r="Q127" s="21">
         <v>3.8065453074537847E-2</v>
       </c>
@@ -11503,20 +11503,20 @@
       </c>
     </row>
     <row r="128" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A128" s="32"/>
+      <c r="A128" s="34"/>
       <c r="B128" s="20">
         <v>2000</v>
       </c>
       <c r="C128" s="35"/>
       <c r="D128" s="35"/>
-      <c r="E128" s="34"/>
-      <c r="F128" s="34"/>
-      <c r="G128" s="34"/>
-      <c r="H128" s="34"/>
-      <c r="I128" s="34"/>
-      <c r="J128" s="34"/>
-      <c r="K128" s="33"/>
-      <c r="L128" s="34"/>
+      <c r="E128" s="33"/>
+      <c r="F128" s="33"/>
+      <c r="G128" s="33"/>
+      <c r="H128" s="33"/>
+      <c r="I128" s="33"/>
+      <c r="J128" s="33"/>
+      <c r="K128" s="32"/>
+      <c r="L128" s="33"/>
       <c r="Q128" s="21">
         <v>3.043759949668352E-2</v>
       </c>
@@ -11559,20 +11559,20 @@
       </c>
     </row>
     <row r="129" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A129" s="32"/>
+      <c r="A129" s="34"/>
       <c r="B129" s="20">
         <v>5000</v>
       </c>
       <c r="C129" s="35"/>
       <c r="D129" s="35"/>
-      <c r="E129" s="34"/>
-      <c r="F129" s="34"/>
-      <c r="G129" s="34"/>
-      <c r="H129" s="34"/>
-      <c r="I129" s="34"/>
-      <c r="J129" s="34"/>
-      <c r="K129" s="33"/>
-      <c r="L129" s="34"/>
+      <c r="E129" s="33"/>
+      <c r="F129" s="33"/>
+      <c r="G129" s="33"/>
+      <c r="H129" s="33"/>
+      <c r="I129" s="33"/>
+      <c r="J129" s="33"/>
+      <c r="K129" s="32"/>
+      <c r="L129" s="33"/>
       <c r="Q129" s="21">
         <v>2.338570877260181E-2</v>
       </c>
@@ -11615,7 +11615,7 @@
       </c>
     </row>
     <row r="130" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A130" s="32" t="s">
+      <c r="A130" s="34" t="s">
         <v>64</v>
       </c>
       <c r="B130" s="20">
@@ -11623,26 +11623,26 @@
       </c>
       <c r="C130" s="35"/>
       <c r="D130" s="35"/>
-      <c r="E130" s="34" t="s">
+      <c r="E130" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F130" s="34" t="s">
+      <c r="F130" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G130" s="34" t="s">
+      <c r="G130" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="H130" s="34" t="s">
+      <c r="H130" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I130" s="34" t="s">
+      <c r="I130" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J130" s="34" t="s">
+      <c r="J130" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K130" s="33"/>
-      <c r="L130" s="34"/>
+      <c r="K130" s="32"/>
+      <c r="L130" s="33"/>
       <c r="Q130" s="21">
         <v>0.1152570606920717</v>
       </c>
@@ -11685,20 +11685,20 @@
       </c>
     </row>
     <row r="131" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A131" s="32"/>
+      <c r="A131" s="34"/>
       <c r="B131" s="20">
         <v>1000</v>
       </c>
       <c r="C131" s="35"/>
       <c r="D131" s="35"/>
-      <c r="E131" s="34"/>
-      <c r="F131" s="34"/>
-      <c r="G131" s="34"/>
-      <c r="H131" s="34"/>
-      <c r="I131" s="34"/>
-      <c r="J131" s="34"/>
-      <c r="K131" s="33"/>
-      <c r="L131" s="34"/>
+      <c r="E131" s="33"/>
+      <c r="F131" s="33"/>
+      <c r="G131" s="33"/>
+      <c r="H131" s="33"/>
+      <c r="I131" s="33"/>
+      <c r="J131" s="33"/>
+      <c r="K131" s="32"/>
+      <c r="L131" s="33"/>
       <c r="Q131" s="21">
         <v>0.1002042742564699</v>
       </c>
@@ -11741,20 +11741,20 @@
       </c>
     </row>
     <row r="132" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A132" s="32"/>
+      <c r="A132" s="34"/>
       <c r="B132" s="20">
         <v>2000</v>
       </c>
       <c r="C132" s="35"/>
       <c r="D132" s="35"/>
-      <c r="E132" s="34"/>
-      <c r="F132" s="34"/>
-      <c r="G132" s="34"/>
-      <c r="H132" s="34"/>
-      <c r="I132" s="34"/>
-      <c r="J132" s="34"/>
-      <c r="K132" s="33"/>
-      <c r="L132" s="34"/>
+      <c r="E132" s="33"/>
+      <c r="F132" s="33"/>
+      <c r="G132" s="33"/>
+      <c r="H132" s="33"/>
+      <c r="I132" s="33"/>
+      <c r="J132" s="33"/>
+      <c r="K132" s="32"/>
+      <c r="L132" s="33"/>
       <c r="Q132" s="21">
         <v>8.7017300915142759E-2</v>
       </c>
@@ -11797,20 +11797,20 @@
       </c>
     </row>
     <row r="133" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A133" s="32"/>
+      <c r="A133" s="34"/>
       <c r="B133" s="20">
         <v>5000</v>
       </c>
       <c r="C133" s="35"/>
       <c r="D133" s="35"/>
-      <c r="E133" s="34"/>
-      <c r="F133" s="34"/>
-      <c r="G133" s="34"/>
-      <c r="H133" s="34"/>
-      <c r="I133" s="34"/>
-      <c r="J133" s="34"/>
-      <c r="K133" s="33"/>
-      <c r="L133" s="34"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="33"/>
+      <c r="G133" s="33"/>
+      <c r="H133" s="33"/>
+      <c r="I133" s="33"/>
+      <c r="J133" s="33"/>
+      <c r="K133" s="32"/>
+      <c r="L133" s="33"/>
       <c r="Q133" s="21">
         <v>7.3756359670079888E-2</v>
       </c>
@@ -11853,7 +11853,7 @@
       </c>
     </row>
     <row r="134" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A134" s="32" t="s">
+      <c r="A134" s="34" t="s">
         <v>65</v>
       </c>
       <c r="B134" s="23">
@@ -11861,26 +11861,26 @@
       </c>
       <c r="C134" s="35"/>
       <c r="D134" s="35"/>
-      <c r="E134" s="34" t="s">
+      <c r="E134" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F134" s="34" t="s">
+      <c r="F134" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G134" s="34" t="s">
+      <c r="G134" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="H134" s="34" t="s">
+      <c r="H134" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I134" s="34" t="s">
+      <c r="I134" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J134" s="34" t="s">
+      <c r="J134" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K134" s="33"/>
-      <c r="L134" s="34"/>
+      <c r="K134" s="32"/>
+      <c r="L134" s="33"/>
       <c r="Q134" s="21">
         <v>2.498125608872476E-2</v>
       </c>
@@ -11923,20 +11923,20 @@
       </c>
     </row>
     <row r="135" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A135" s="32"/>
+      <c r="A135" s="34"/>
       <c r="B135" s="23">
         <v>1000</v>
       </c>
       <c r="C135" s="35"/>
       <c r="D135" s="35"/>
-      <c r="E135" s="34"/>
-      <c r="F135" s="34"/>
-      <c r="G135" s="34"/>
-      <c r="H135" s="34"/>
-      <c r="I135" s="34"/>
-      <c r="J135" s="34"/>
-      <c r="K135" s="33"/>
-      <c r="L135" s="34"/>
+      <c r="E135" s="33"/>
+      <c r="F135" s="33"/>
+      <c r="G135" s="33"/>
+      <c r="H135" s="33"/>
+      <c r="I135" s="33"/>
+      <c r="J135" s="33"/>
+      <c r="K135" s="32"/>
+      <c r="L135" s="33"/>
       <c r="Q135" s="21">
         <v>1.218336174181304E-2</v>
       </c>
@@ -11979,20 +11979,20 @@
       </c>
     </row>
     <row r="136" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A136" s="32"/>
+      <c r="A136" s="34"/>
       <c r="B136" s="23">
         <v>2000</v>
       </c>
       <c r="C136" s="35"/>
       <c r="D136" s="35"/>
-      <c r="E136" s="34"/>
-      <c r="F136" s="34"/>
-      <c r="G136" s="34"/>
-      <c r="H136" s="34"/>
-      <c r="I136" s="34"/>
-      <c r="J136" s="34"/>
-      <c r="K136" s="33"/>
-      <c r="L136" s="34"/>
+      <c r="E136" s="33"/>
+      <c r="F136" s="33"/>
+      <c r="G136" s="33"/>
+      <c r="H136" s="33"/>
+      <c r="I136" s="33"/>
+      <c r="J136" s="33"/>
+      <c r="K136" s="32"/>
+      <c r="L136" s="33"/>
       <c r="Q136" s="21">
         <v>1.069088768625274E-3</v>
       </c>
@@ -12035,20 +12035,20 @@
       </c>
     </row>
     <row r="137" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A137" s="32"/>
+      <c r="A137" s="34"/>
       <c r="B137" s="23">
         <v>5000</v>
       </c>
       <c r="C137" s="35"/>
       <c r="D137" s="35"/>
-      <c r="E137" s="34"/>
-      <c r="F137" s="34"/>
-      <c r="G137" s="34"/>
-      <c r="H137" s="34"/>
-      <c r="I137" s="34"/>
-      <c r="J137" s="34"/>
-      <c r="K137" s="33"/>
-      <c r="L137" s="34"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="33"/>
+      <c r="G137" s="33"/>
+      <c r="H137" s="33"/>
+      <c r="I137" s="33"/>
+      <c r="J137" s="33"/>
+      <c r="K137" s="32"/>
+      <c r="L137" s="33"/>
       <c r="Q137" s="21">
         <v>-9.1371109484246621E-3</v>
       </c>
@@ -12091,7 +12091,7 @@
       </c>
     </row>
     <row r="138" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A138" s="32" t="s">
+      <c r="A138" s="34" t="s">
         <v>66</v>
       </c>
       <c r="B138" s="23">
@@ -12099,26 +12099,26 @@
       </c>
       <c r="C138" s="35"/>
       <c r="D138" s="35"/>
-      <c r="E138" s="34" t="s">
+      <c r="E138" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F138" s="34" t="s">
+      <c r="F138" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G138" s="34" t="s">
+      <c r="G138" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="H138" s="34" t="s">
+      <c r="H138" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I138" s="34" t="s">
+      <c r="I138" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J138" s="34" t="s">
+      <c r="J138" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K138" s="33"/>
-      <c r="L138" s="34"/>
+      <c r="K138" s="32"/>
+      <c r="L138" s="33"/>
       <c r="Q138" s="21">
         <v>-0.17738453448581121</v>
       </c>
@@ -12161,20 +12161,20 @@
       </c>
     </row>
     <row r="139" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A139" s="32"/>
+      <c r="A139" s="34"/>
       <c r="B139" s="23">
         <v>1000</v>
       </c>
       <c r="C139" s="35"/>
       <c r="D139" s="35"/>
-      <c r="E139" s="34"/>
-      <c r="F139" s="34"/>
-      <c r="G139" s="34"/>
-      <c r="H139" s="34"/>
-      <c r="I139" s="34"/>
-      <c r="J139" s="34"/>
-      <c r="K139" s="33"/>
-      <c r="L139" s="34"/>
+      <c r="E139" s="33"/>
+      <c r="F139" s="33"/>
+      <c r="G139" s="33"/>
+      <c r="H139" s="33"/>
+      <c r="I139" s="33"/>
+      <c r="J139" s="33"/>
+      <c r="K139" s="32"/>
+      <c r="L139" s="33"/>
       <c r="Q139" s="21">
         <v>-0.18586597930849791</v>
       </c>
@@ -12217,20 +12217,20 @@
       </c>
     </row>
     <row r="140" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A140" s="32"/>
+      <c r="A140" s="34"/>
       <c r="B140" s="23">
         <v>2000</v>
       </c>
       <c r="C140" s="35"/>
       <c r="D140" s="35"/>
-      <c r="E140" s="34"/>
-      <c r="F140" s="34"/>
-      <c r="G140" s="34"/>
-      <c r="H140" s="34"/>
-      <c r="I140" s="34"/>
-      <c r="J140" s="34"/>
-      <c r="K140" s="33"/>
-      <c r="L140" s="34"/>
+      <c r="E140" s="33"/>
+      <c r="F140" s="33"/>
+      <c r="G140" s="33"/>
+      <c r="H140" s="33"/>
+      <c r="I140" s="33"/>
+      <c r="J140" s="33"/>
+      <c r="K140" s="32"/>
+      <c r="L140" s="33"/>
       <c r="Q140" s="21">
         <v>-0.19495060616699669</v>
       </c>
@@ -12273,20 +12273,20 @@
       </c>
     </row>
     <row r="141" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A141" s="32"/>
+      <c r="A141" s="34"/>
       <c r="B141" s="23">
         <v>5000</v>
       </c>
       <c r="C141" s="35"/>
       <c r="D141" s="35"/>
-      <c r="E141" s="34"/>
-      <c r="F141" s="34"/>
-      <c r="G141" s="34"/>
-      <c r="H141" s="34"/>
-      <c r="I141" s="34"/>
-      <c r="J141" s="34"/>
-      <c r="K141" s="33"/>
-      <c r="L141" s="34"/>
+      <c r="E141" s="33"/>
+      <c r="F141" s="33"/>
+      <c r="G141" s="33"/>
+      <c r="H141" s="33"/>
+      <c r="I141" s="33"/>
+      <c r="J141" s="33"/>
+      <c r="K141" s="32"/>
+      <c r="L141" s="33"/>
       <c r="Q141" s="21">
         <v>-0.2051528858534353</v>
       </c>
@@ -12347,30 +12347,30 @@
       <c r="Q147"/>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A148" s="32" t="s">
+      <c r="A148" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B148" s="32"/>
-      <c r="C148" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D148" s="32"/>
-      <c r="E148" s="32" t="s">
+      <c r="B148" s="34"/>
+      <c r="C148" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D148" s="34"/>
+      <c r="E148" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F148" s="32"/>
-      <c r="G148" s="32" t="s">
+      <c r="F148" s="34"/>
+      <c r="G148" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H148" s="32"/>
-      <c r="I148" s="32" t="s">
+      <c r="H148" s="34"/>
+      <c r="I148" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J148" s="32"/>
-      <c r="K148" s="32" t="s">
+      <c r="J148" s="34"/>
+      <c r="K148" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="L148" s="32"/>
+      <c r="L148" s="34"/>
       <c r="M148" s="35" t="s">
         <v>45</v>
       </c>
@@ -12380,8 +12380,8 @@
       <c r="R148" s="11"/>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A149" s="32"/>
-      <c r="B149" s="32"/>
+      <c r="A149" s="34"/>
+      <c r="B149" s="34"/>
       <c r="C149" s="12" t="s">
         <v>7</v>
       </c>
@@ -12425,7 +12425,7 @@
       <c r="R149" s="12"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A150" s="32" t="s">
+      <c r="A150" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B150" s="11">
@@ -12440,15 +12440,15 @@
       <c r="I150" s="35">
         <v>0.22309999999999999</v>
       </c>
-      <c r="J150" s="34">
+      <c r="J150" s="33">
         <v>0.17599999999999999</v>
       </c>
-      <c r="K150" s="33"/>
-      <c r="L150" s="34"/>
+      <c r="K150" s="32"/>
+      <c r="L150" s="33"/>
       <c r="Q150"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A151" s="32"/>
+      <c r="A151" s="34"/>
       <c r="B151" s="11">
         <v>1000</v>
       </c>
@@ -12459,13 +12459,13 @@
       <c r="G151" s="12"/>
       <c r="H151" s="13"/>
       <c r="I151" s="35"/>
-      <c r="J151" s="34"/>
-      <c r="K151" s="33"/>
-      <c r="L151" s="34"/>
+      <c r="J151" s="33"/>
+      <c r="K151" s="32"/>
+      <c r="L151" s="33"/>
       <c r="Q151"/>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A152" s="32"/>
+      <c r="A152" s="34"/>
       <c r="B152" s="11">
         <v>2000</v>
       </c>
@@ -12476,13 +12476,13 @@
       <c r="G152" s="12"/>
       <c r="H152" s="13"/>
       <c r="I152" s="35"/>
-      <c r="J152" s="34"/>
-      <c r="K152" s="33"/>
-      <c r="L152" s="34"/>
+      <c r="J152" s="33"/>
+      <c r="K152" s="32"/>
+      <c r="L152" s="33"/>
       <c r="Q152"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A153" s="32"/>
+      <c r="A153" s="34"/>
       <c r="B153" s="11">
         <v>5000</v>
       </c>
@@ -12493,13 +12493,13 @@
       <c r="G153" s="12"/>
       <c r="H153" s="13"/>
       <c r="I153" s="35"/>
-      <c r="J153" s="34"/>
-      <c r="K153" s="33"/>
-      <c r="L153" s="34"/>
+      <c r="J153" s="33"/>
+      <c r="K153" s="32"/>
+      <c r="L153" s="33"/>
       <c r="Q153"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A154" s="32" t="s">
+      <c r="A154" s="34" t="s">
         <v>35</v>
       </c>
       <c r="B154" s="11">
@@ -12512,13 +12512,13 @@
       <c r="G154" s="12"/>
       <c r="H154" s="13"/>
       <c r="I154" s="35"/>
-      <c r="J154" s="34"/>
-      <c r="K154" s="33"/>
-      <c r="L154" s="34"/>
+      <c r="J154" s="33"/>
+      <c r="K154" s="32"/>
+      <c r="L154" s="33"/>
       <c r="Q154"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A155" s="32"/>
+      <c r="A155" s="34"/>
       <c r="B155" s="11">
         <v>1000</v>
       </c>
@@ -12529,13 +12529,13 @@
       <c r="G155" s="12"/>
       <c r="H155" s="13"/>
       <c r="I155" s="35"/>
-      <c r="J155" s="34"/>
-      <c r="K155" s="33"/>
-      <c r="L155" s="34"/>
+      <c r="J155" s="33"/>
+      <c r="K155" s="32"/>
+      <c r="L155" s="33"/>
       <c r="Q155"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A156" s="32"/>
+      <c r="A156" s="34"/>
       <c r="B156" s="11">
         <v>2000</v>
       </c>
@@ -12546,13 +12546,13 @@
       <c r="G156" s="12"/>
       <c r="H156" s="13"/>
       <c r="I156" s="35"/>
-      <c r="J156" s="34"/>
-      <c r="K156" s="33"/>
-      <c r="L156" s="34"/>
+      <c r="J156" s="33"/>
+      <c r="K156" s="32"/>
+      <c r="L156" s="33"/>
       <c r="Q156"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A157" s="32"/>
+      <c r="A157" s="34"/>
       <c r="B157" s="11">
         <v>5000</v>
       </c>
@@ -12563,13 +12563,13 @@
       <c r="G157" s="12"/>
       <c r="H157" s="13"/>
       <c r="I157" s="35"/>
-      <c r="J157" s="34"/>
-      <c r="K157" s="33"/>
-      <c r="L157" s="34"/>
+      <c r="J157" s="33"/>
+      <c r="K157" s="32"/>
+      <c r="L157" s="33"/>
       <c r="Q157"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A158" s="32" t="s">
+      <c r="A158" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B158" s="11">
@@ -12584,15 +12584,15 @@
       <c r="I158" s="35">
         <v>0.26700000000000002</v>
       </c>
-      <c r="J158" s="34">
+      <c r="J158" s="33">
         <v>0.435</v>
       </c>
-      <c r="K158" s="33"/>
-      <c r="L158" s="34"/>
+      <c r="K158" s="32"/>
+      <c r="L158" s="33"/>
       <c r="Q158"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A159" s="32"/>
+      <c r="A159" s="34"/>
       <c r="B159" s="11">
         <v>1000</v>
       </c>
@@ -12603,13 +12603,13 @@
       <c r="G159" s="12"/>
       <c r="H159" s="13"/>
       <c r="I159" s="35"/>
-      <c r="J159" s="34"/>
-      <c r="K159" s="33"/>
-      <c r="L159" s="34"/>
+      <c r="J159" s="33"/>
+      <c r="K159" s="32"/>
+      <c r="L159" s="33"/>
       <c r="Q159"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A160" s="32"/>
+      <c r="A160" s="34"/>
       <c r="B160" s="11">
         <v>2000</v>
       </c>
@@ -12620,13 +12620,13 @@
       <c r="G160" s="12"/>
       <c r="H160" s="13"/>
       <c r="I160" s="35"/>
-      <c r="J160" s="34"/>
-      <c r="K160" s="33"/>
-      <c r="L160" s="34"/>
+      <c r="J160" s="33"/>
+      <c r="K160" s="32"/>
+      <c r="L160" s="33"/>
       <c r="Q160"/>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A161" s="32"/>
+      <c r="A161" s="34"/>
       <c r="B161" s="11">
         <v>5000</v>
       </c>
@@ -12637,13 +12637,13 @@
       <c r="G161" s="12"/>
       <c r="H161" s="13"/>
       <c r="I161" s="35"/>
-      <c r="J161" s="34"/>
-      <c r="K161" s="33"/>
-      <c r="L161" s="34"/>
+      <c r="J161" s="33"/>
+      <c r="K161" s="32"/>
+      <c r="L161" s="33"/>
       <c r="Q161"/>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A162" s="32" t="s">
+      <c r="A162" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B162" s="11">
@@ -12656,13 +12656,13 @@
       <c r="G162" s="12"/>
       <c r="H162" s="13"/>
       <c r="I162" s="35"/>
-      <c r="J162" s="34"/>
-      <c r="K162" s="33"/>
-      <c r="L162" s="34"/>
+      <c r="J162" s="33"/>
+      <c r="K162" s="32"/>
+      <c r="L162" s="33"/>
       <c r="Q162"/>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A163" s="32"/>
+      <c r="A163" s="34"/>
       <c r="B163" s="11">
         <v>1000</v>
       </c>
@@ -12673,13 +12673,13 @@
       <c r="G163" s="12"/>
       <c r="H163" s="13"/>
       <c r="I163" s="35"/>
-      <c r="J163" s="34"/>
-      <c r="K163" s="33"/>
-      <c r="L163" s="34"/>
+      <c r="J163" s="33"/>
+      <c r="K163" s="32"/>
+      <c r="L163" s="33"/>
       <c r="Q163"/>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A164" s="32"/>
+      <c r="A164" s="34"/>
       <c r="B164" s="11">
         <v>2000</v>
       </c>
@@ -12690,13 +12690,13 @@
       <c r="G164" s="12"/>
       <c r="H164" s="13"/>
       <c r="I164" s="35"/>
-      <c r="J164" s="34"/>
-      <c r="K164" s="33"/>
-      <c r="L164" s="34"/>
+      <c r="J164" s="33"/>
+      <c r="K164" s="32"/>
+      <c r="L164" s="33"/>
       <c r="Q164"/>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A165" s="32"/>
+      <c r="A165" s="34"/>
       <c r="B165" s="11">
         <v>5000</v>
       </c>
@@ -12707,13 +12707,13 @@
       <c r="G165" s="12"/>
       <c r="H165" s="13"/>
       <c r="I165" s="35"/>
-      <c r="J165" s="34"/>
-      <c r="K165" s="33"/>
-      <c r="L165" s="34"/>
+      <c r="J165" s="33"/>
+      <c r="K165" s="32"/>
+      <c r="L165" s="33"/>
       <c r="Q165"/>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A166" s="32" t="s">
+      <c r="A166" s="34" t="s">
         <v>37</v>
       </c>
       <c r="B166" s="11">
@@ -12726,13 +12726,13 @@
       <c r="G166" s="12"/>
       <c r="H166" s="13"/>
       <c r="I166" s="35"/>
-      <c r="J166" s="34"/>
-      <c r="K166" s="33"/>
-      <c r="L166" s="34"/>
+      <c r="J166" s="33"/>
+      <c r="K166" s="32"/>
+      <c r="L166" s="33"/>
       <c r="Q166"/>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A167" s="32"/>
+      <c r="A167" s="34"/>
       <c r="B167" s="11">
         <v>1000</v>
       </c>
@@ -12743,13 +12743,13 @@
       <c r="G167" s="12"/>
       <c r="H167" s="13"/>
       <c r="I167" s="35"/>
-      <c r="J167" s="34"/>
-      <c r="K167" s="33"/>
-      <c r="L167" s="34"/>
+      <c r="J167" s="33"/>
+      <c r="K167" s="32"/>
+      <c r="L167" s="33"/>
       <c r="Q167"/>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A168" s="32"/>
+      <c r="A168" s="34"/>
       <c r="B168" s="11">
         <v>2000</v>
       </c>
@@ -12760,13 +12760,13 @@
       <c r="G168" s="12"/>
       <c r="H168" s="13"/>
       <c r="I168" s="35"/>
-      <c r="J168" s="34"/>
-      <c r="K168" s="33"/>
-      <c r="L168" s="34"/>
+      <c r="J168" s="33"/>
+      <c r="K168" s="32"/>
+      <c r="L168" s="33"/>
       <c r="Q168"/>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A169" s="32"/>
+      <c r="A169" s="34"/>
       <c r="B169" s="11">
         <v>5000</v>
       </c>
@@ -12777,9 +12777,9 @@
       <c r="G169" s="12"/>
       <c r="H169" s="13"/>
       <c r="I169" s="35"/>
-      <c r="J169" s="34"/>
-      <c r="K169" s="33"/>
-      <c r="L169" s="34"/>
+      <c r="J169" s="33"/>
+      <c r="K169" s="32"/>
+      <c r="L169" s="33"/>
       <c r="Q169"/>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.25">
@@ -12804,27 +12804,27 @@
       <c r="Q176"/>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A177" s="32" t="s">
+      <c r="A177" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B177" s="32"/>
-      <c r="C177" s="32" t="s">
+      <c r="B177" s="34"/>
+      <c r="C177" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D177" s="32"/>
-      <c r="E177" s="32" t="s">
+      <c r="D177" s="34"/>
+      <c r="E177" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F177" s="32"/>
-      <c r="G177" s="32" t="s">
+      <c r="F177" s="34"/>
+      <c r="G177" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="H177" s="32"/>
+      <c r="H177" s="34"/>
       <c r="Q177"/>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A178" s="32"/>
-      <c r="B178" s="32"/>
+      <c r="A178" s="34"/>
+      <c r="B178" s="34"/>
       <c r="C178" s="3" t="s">
         <v>7</v>
       </c>
@@ -12846,7 +12846,7 @@
       <c r="Q178"/>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A179" s="32" t="s">
+      <c r="A179" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B179" s="11">
@@ -12855,21 +12855,21 @@
       <c r="Q179"/>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A180" s="32"/>
+      <c r="A180" s="34"/>
       <c r="B180" s="11">
         <v>1000</v>
       </c>
       <c r="Q180"/>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A181" s="32"/>
+      <c r="A181" s="34"/>
       <c r="B181" s="11">
         <v>2000</v>
       </c>
       <c r="Q181"/>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A182" s="32"/>
+      <c r="A182" s="34"/>
       <c r="B182" s="11">
         <v>5000</v>
       </c>
@@ -14302,70 +14302,324 @@
     </row>
   </sheetData>
   <mergeCells count="410">
-    <mergeCell ref="K138:K141"/>
-    <mergeCell ref="L138:L141"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="E134:E137"/>
-    <mergeCell ref="F134:F137"/>
-    <mergeCell ref="G134:G137"/>
-    <mergeCell ref="H134:H137"/>
-    <mergeCell ref="I134:I137"/>
-    <mergeCell ref="J134:J137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="E138:E141"/>
-    <mergeCell ref="F138:F141"/>
-    <mergeCell ref="G138:G141"/>
-    <mergeCell ref="H138:H141"/>
-    <mergeCell ref="I138:I141"/>
-    <mergeCell ref="J138:J141"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="I45:I48"/>
-    <mergeCell ref="J45:J48"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="G177:H177"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="F96:F99"/>
-    <mergeCell ref="G96:G99"/>
-    <mergeCell ref="H96:H99"/>
-    <mergeCell ref="E88:E91"/>
-    <mergeCell ref="F88:F91"/>
-    <mergeCell ref="G88:G91"/>
-    <mergeCell ref="H88:H91"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="G92:G95"/>
-    <mergeCell ref="H92:H95"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="F130:F133"/>
-    <mergeCell ref="G130:G133"/>
-    <mergeCell ref="H130:H133"/>
-    <mergeCell ref="H101:H104"/>
-    <mergeCell ref="H105:H108"/>
-    <mergeCell ref="H109:H112"/>
-    <mergeCell ref="G118:G121"/>
-    <mergeCell ref="H118:H121"/>
-    <mergeCell ref="J96:J99"/>
-    <mergeCell ref="J68:J71"/>
-    <mergeCell ref="I72:I75"/>
-    <mergeCell ref="J72:J75"/>
-    <mergeCell ref="I76:I79"/>
-    <mergeCell ref="J76:J79"/>
-    <mergeCell ref="I80:I83"/>
-    <mergeCell ref="J80:J83"/>
-    <mergeCell ref="J84:J87"/>
-    <mergeCell ref="I88:I91"/>
-    <mergeCell ref="J88:J91"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="K114:K117"/>
+    <mergeCell ref="L114:L117"/>
+    <mergeCell ref="K118:K121"/>
+    <mergeCell ref="L118:L121"/>
+    <mergeCell ref="K122:K125"/>
+    <mergeCell ref="L122:L125"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="K92:K95"/>
+    <mergeCell ref="K96:K99"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="K27:K30"/>
+    <mergeCell ref="K126:K129"/>
+    <mergeCell ref="L126:L129"/>
+    <mergeCell ref="K130:K133"/>
+    <mergeCell ref="L130:L133"/>
+    <mergeCell ref="I101:I104"/>
+    <mergeCell ref="J101:J104"/>
+    <mergeCell ref="I105:I108"/>
+    <mergeCell ref="J105:J108"/>
+    <mergeCell ref="I109:I112"/>
+    <mergeCell ref="J109:J112"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="L101:L104"/>
+    <mergeCell ref="K105:K108"/>
+    <mergeCell ref="L105:L108"/>
+    <mergeCell ref="K109:K112"/>
+    <mergeCell ref="L109:L112"/>
+    <mergeCell ref="I130:I133"/>
+    <mergeCell ref="J130:J133"/>
+    <mergeCell ref="I118:I121"/>
+    <mergeCell ref="J118:J121"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="D105:D108"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="D109:D112"/>
+    <mergeCell ref="E101:E104"/>
+    <mergeCell ref="F101:F104"/>
+    <mergeCell ref="G101:G104"/>
+    <mergeCell ref="E105:E108"/>
+    <mergeCell ref="F105:F108"/>
+    <mergeCell ref="G105:G108"/>
+    <mergeCell ref="E109:E112"/>
+    <mergeCell ref="F109:F112"/>
+    <mergeCell ref="G109:G112"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="H122:H125"/>
+    <mergeCell ref="I122:I125"/>
+    <mergeCell ref="J122:J125"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="F126:F129"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="H126:H129"/>
+    <mergeCell ref="I126:I129"/>
+    <mergeCell ref="J126:J129"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="L63:L66"/>
+    <mergeCell ref="L68:L71"/>
+    <mergeCell ref="L72:L75"/>
+    <mergeCell ref="L76:L79"/>
+    <mergeCell ref="L80:L83"/>
+    <mergeCell ref="L84:L87"/>
+    <mergeCell ref="L88:L91"/>
+    <mergeCell ref="L92:L95"/>
+    <mergeCell ref="L96:L99"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="L27:L30"/>
+    <mergeCell ref="L31:L34"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="L45:L48"/>
+    <mergeCell ref="L50:L53"/>
+    <mergeCell ref="L55:L58"/>
+    <mergeCell ref="L59:L62"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="K166:K169"/>
+    <mergeCell ref="I166:I169"/>
+    <mergeCell ref="J166:J169"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="A148:B149"/>
+    <mergeCell ref="L150:L153"/>
+    <mergeCell ref="L154:L157"/>
+    <mergeCell ref="L158:L161"/>
+    <mergeCell ref="L162:L165"/>
+    <mergeCell ref="L166:L169"/>
+    <mergeCell ref="A177:B178"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="K154:K157"/>
+    <mergeCell ref="I154:I157"/>
+    <mergeCell ref="J154:J157"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="K158:K161"/>
+    <mergeCell ref="I158:I161"/>
+    <mergeCell ref="J158:J161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="K162:K165"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="I162:I165"/>
+    <mergeCell ref="J162:J165"/>
+    <mergeCell ref="K148:L148"/>
+    <mergeCell ref="I148:J148"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="K150:K153"/>
+    <mergeCell ref="I150:I153"/>
+    <mergeCell ref="J150:J153"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="F114:F117"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="H114:H117"/>
+    <mergeCell ref="I114:I117"/>
+    <mergeCell ref="J114:J117"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="F118:F121"/>
+    <mergeCell ref="K134:K137"/>
+    <mergeCell ref="L134:L137"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="K88:K91"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="E68:E71"/>
+    <mergeCell ref="F68:F71"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="I92:I95"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="K72:K75"/>
+    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="K68:K71"/>
+    <mergeCell ref="H68:H71"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="K45:K48"/>
+    <mergeCell ref="K50:K53"/>
+    <mergeCell ref="K55:K58"/>
+    <mergeCell ref="K59:K62"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="I55:I58"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="I59:I62"/>
+    <mergeCell ref="J59:J62"/>
+    <mergeCell ref="I63:I66"/>
     <mergeCell ref="D96:D99"/>
     <mergeCell ref="I36:I39"/>
     <mergeCell ref="I50:I53"/>
@@ -14390,328 +14644,74 @@
     <mergeCell ref="E72:E75"/>
     <mergeCell ref="H76:H79"/>
     <mergeCell ref="G76:G79"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="K72:K75"/>
-    <mergeCell ref="K76:K79"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="K68:K71"/>
-    <mergeCell ref="H68:H71"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="K45:K48"/>
-    <mergeCell ref="K50:K53"/>
-    <mergeCell ref="K55:K58"/>
-    <mergeCell ref="K59:K62"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="J96:J99"/>
+    <mergeCell ref="J68:J71"/>
+    <mergeCell ref="I72:I75"/>
+    <mergeCell ref="J72:J75"/>
+    <mergeCell ref="I76:I79"/>
+    <mergeCell ref="J76:J79"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="J80:J83"/>
+    <mergeCell ref="J84:J87"/>
+    <mergeCell ref="I88:I91"/>
+    <mergeCell ref="J88:J91"/>
     <mergeCell ref="J92:J95"/>
-    <mergeCell ref="I55:I58"/>
-    <mergeCell ref="J55:J58"/>
-    <mergeCell ref="I59:I62"/>
-    <mergeCell ref="J59:J62"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="I92:I95"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="G177:H177"/>
+    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="F96:F99"/>
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="H96:H99"/>
+    <mergeCell ref="E88:E91"/>
+    <mergeCell ref="F88:F91"/>
+    <mergeCell ref="G88:G91"/>
+    <mergeCell ref="H88:H91"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="G92:G95"/>
+    <mergeCell ref="H92:H95"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="F130:F133"/>
+    <mergeCell ref="G130:G133"/>
+    <mergeCell ref="H130:H133"/>
+    <mergeCell ref="H101:H104"/>
+    <mergeCell ref="H105:H108"/>
+    <mergeCell ref="H109:H112"/>
+    <mergeCell ref="G118:G121"/>
+    <mergeCell ref="H118:H121"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="I45:I48"/>
+    <mergeCell ref="J45:J48"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="E45:E48"/>
     <mergeCell ref="G36:G39"/>
     <mergeCell ref="H36:H39"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="K88:K91"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="J50:J53"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="F76:F79"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="E68:E71"/>
-    <mergeCell ref="F68:F71"/>
-    <mergeCell ref="G68:G71"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="I162:I165"/>
-    <mergeCell ref="J162:J165"/>
-    <mergeCell ref="K148:L148"/>
-    <mergeCell ref="I148:J148"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="K150:K153"/>
-    <mergeCell ref="I150:I153"/>
-    <mergeCell ref="J150:J153"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="F114:F117"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="H114:H117"/>
-    <mergeCell ref="I114:I117"/>
-    <mergeCell ref="J114:J117"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="F118:F121"/>
-    <mergeCell ref="K134:K137"/>
-    <mergeCell ref="L134:L137"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="K166:K169"/>
-    <mergeCell ref="I166:I169"/>
-    <mergeCell ref="J166:J169"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="A148:B149"/>
-    <mergeCell ref="L150:L153"/>
-    <mergeCell ref="L154:L157"/>
-    <mergeCell ref="L158:L161"/>
-    <mergeCell ref="L162:L165"/>
-    <mergeCell ref="L166:L169"/>
-    <mergeCell ref="A177:B178"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="K154:K157"/>
-    <mergeCell ref="I154:I157"/>
-    <mergeCell ref="J154:J157"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="K158:K161"/>
-    <mergeCell ref="I158:I161"/>
-    <mergeCell ref="J158:J161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="K162:K165"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="L63:L66"/>
-    <mergeCell ref="L68:L71"/>
-    <mergeCell ref="L72:L75"/>
-    <mergeCell ref="L76:L79"/>
-    <mergeCell ref="L80:L83"/>
-    <mergeCell ref="L84:L87"/>
-    <mergeCell ref="L88:L91"/>
-    <mergeCell ref="L92:L95"/>
-    <mergeCell ref="L96:L99"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="L27:L30"/>
-    <mergeCell ref="L31:L34"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="L45:L48"/>
-    <mergeCell ref="L50:L53"/>
-    <mergeCell ref="L55:L58"/>
-    <mergeCell ref="L59:L62"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="G122:G125"/>
-    <mergeCell ref="H122:H125"/>
-    <mergeCell ref="I122:I125"/>
-    <mergeCell ref="J122:J125"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="F126:F129"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="H126:H129"/>
-    <mergeCell ref="I126:I129"/>
-    <mergeCell ref="J126:J129"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="D105:D108"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="D109:D112"/>
-    <mergeCell ref="E101:E104"/>
-    <mergeCell ref="F101:F104"/>
-    <mergeCell ref="G101:G104"/>
-    <mergeCell ref="E105:E108"/>
-    <mergeCell ref="F105:F108"/>
-    <mergeCell ref="G105:G108"/>
-    <mergeCell ref="E109:E112"/>
-    <mergeCell ref="F109:F112"/>
-    <mergeCell ref="G109:G112"/>
-    <mergeCell ref="K126:K129"/>
-    <mergeCell ref="L126:L129"/>
-    <mergeCell ref="K130:K133"/>
-    <mergeCell ref="L130:L133"/>
-    <mergeCell ref="I101:I104"/>
-    <mergeCell ref="J101:J104"/>
-    <mergeCell ref="I105:I108"/>
-    <mergeCell ref="J105:J108"/>
-    <mergeCell ref="I109:I112"/>
-    <mergeCell ref="J109:J112"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="L101:L104"/>
-    <mergeCell ref="K105:K108"/>
-    <mergeCell ref="L105:L108"/>
-    <mergeCell ref="K109:K112"/>
-    <mergeCell ref="L109:L112"/>
-    <mergeCell ref="I130:I133"/>
-    <mergeCell ref="J130:J133"/>
-    <mergeCell ref="I118:I121"/>
-    <mergeCell ref="J118:J121"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="K114:K117"/>
-    <mergeCell ref="L114:L117"/>
-    <mergeCell ref="K118:K121"/>
-    <mergeCell ref="L118:L121"/>
-    <mergeCell ref="K122:K125"/>
-    <mergeCell ref="L122:L125"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="K92:K95"/>
-    <mergeCell ref="K96:K99"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="K27:K30"/>
+    <mergeCell ref="K138:K141"/>
+    <mergeCell ref="L138:L141"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="E134:E137"/>
+    <mergeCell ref="F134:F137"/>
+    <mergeCell ref="G134:G137"/>
+    <mergeCell ref="H134:H137"/>
+    <mergeCell ref="I134:I137"/>
+    <mergeCell ref="J134:J137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="E138:E141"/>
+    <mergeCell ref="F138:F141"/>
+    <mergeCell ref="G138:G141"/>
+    <mergeCell ref="H138:H141"/>
+    <mergeCell ref="I138:I141"/>
+    <mergeCell ref="J138:J141"/>
   </mergeCells>
   <conditionalFormatting sqref="Q3:Z34">
     <cfRule type="expression" dxfId="4" priority="8">

--- a/test_results/results_table.xlsx
+++ b/test_results/results_table.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A32D39-266F-4B78-9438-3CDD4F95AD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="75">
   <si>
     <t>Greedy</t>
   </si>
@@ -231,11 +230,26 @@
   <si>
     <t>BI</t>
   </si>
+  <si>
+    <t>L2D 10x10</t>
+  </si>
+  <si>
+    <t>L2D 15x10</t>
+  </si>
+  <si>
+    <t>L2D 15x15</t>
+  </si>
+  <si>
+    <t>L2D 20x10</t>
+  </si>
+  <si>
+    <t>L2D 20x15</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
@@ -279,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -366,9 +380,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -378,15 +389,65 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -446,7 +507,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>241947</xdr:colOff>
+      <xdr:colOff>32397</xdr:colOff>
       <xdr:row>205</xdr:row>
       <xdr:rowOff>36204</xdr:rowOff>
     </xdr:to>
@@ -752,20 +813,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CF657"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CF561"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AN68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C205" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AT112" sqref="AT112"/>
+      <selection pane="bottomRight" activeCell="K217" sqref="K217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2"/>
     <col min="4" max="4" width="9.140625" style="4"/>
     <col min="5" max="5" width="9.140625" style="2"/>
@@ -808,34 +869,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="35"/>
+      <c r="N1" s="38"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="17" t="s">
         <v>48</v>
@@ -882,24 +943,24 @@
       <c r="AH1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="AO1" s="34" t="s">
+      <c r="AO1" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34" t="s">
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34" t="s">
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="AT1" s="34"/>
+      <c r="AT1" s="35"/>
       <c r="CE1" s="6"/>
       <c r="CF1" s="6"/>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1009,38 +1070,38 @@
       <c r="CF2" s="9"/>
     </row>
     <row r="3" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>500</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="38">
         <v>0.26700000000000002</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="37">
         <v>0.44700000000000001</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="38">
         <v>0.17100000000000001</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="38">
         <v>0.153</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="33"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="37"/>
       <c r="O3" s="18"/>
       <c r="P3" s="5">
         <v>3.355451</v>
@@ -1117,20 +1178,20 @@
       <c r="CF3" s="8"/>
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="1">
         <v>1000</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
       <c r="O4" s="18"/>
       <c r="P4" s="5">
         <v>6.6267579999999997</v>
@@ -1207,20 +1268,20 @@
       <c r="CF4" s="8"/>
     </row>
     <row r="5" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="1">
         <v>2000</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="37"/>
       <c r="O5" s="18"/>
       <c r="P5" s="5">
         <v>13.110008000000001</v>
@@ -1297,20 +1358,20 @@
       <c r="CF5" s="8"/>
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="1">
         <v>5000</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="37"/>
       <c r="O6" s="18"/>
       <c r="P6" s="5">
         <v>32.676729999999999</v>
@@ -1385,38 +1446,38 @@
       </c>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>500</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="38">
         <v>0.2601</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="37">
         <v>0.624</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="38">
         <v>0.20200000000000001</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="38">
         <v>0.19400000000000001</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="37"/>
       <c r="O7" s="18"/>
       <c r="P7" s="5">
         <v>4.002434</v>
@@ -1493,20 +1554,20 @@
       <c r="CF7" s="8"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="1">
         <v>1000</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="37"/>
       <c r="O8" s="18"/>
       <c r="P8" s="5">
         <v>7.9348150000000004</v>
@@ -1583,20 +1644,20 @@
       <c r="CF8" s="8"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="1">
         <v>2000</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="37"/>
       <c r="O9" s="18"/>
       <c r="P9" s="5">
         <v>15.800986</v>
@@ -1673,20 +1734,20 @@
       <c r="CF9" s="8"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="1">
         <v>5000</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="33"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
       <c r="O10" s="18"/>
       <c r="P10" s="5">
         <v>39.365931000000003</v>
@@ -1761,38 +1822,38 @@
       </c>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>500</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="38">
         <v>0.30220000000000002</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="37">
         <v>0.93700000000000006</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="38">
         <v>0.22800000000000001</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="38">
         <v>0.17199999999999999</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="37"/>
       <c r="O11" s="18"/>
       <c r="P11" s="5">
         <v>4.9335690000000003</v>
@@ -1869,20 +1930,20 @@
       <c r="CF11" s="8"/>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="1">
         <v>1000</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="37"/>
       <c r="O12" s="18"/>
       <c r="P12" s="5">
         <v>9.7972990000000006</v>
@@ -1959,20 +2020,20 @@
       <c r="CF12" s="8"/>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="1">
         <v>2000</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="37"/>
       <c r="O13" s="18"/>
       <c r="P13" s="5">
         <v>19.567959999999999</v>
@@ -2049,20 +2110,20 @@
       <c r="CF13" s="8"/>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="1">
         <v>5000</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="37"/>
       <c r="O14" s="18"/>
       <c r="P14" s="5">
         <v>48.782482999999999</v>
@@ -2137,38 +2198,38 @@
       </c>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>500</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="38">
         <v>0.3165</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="37">
         <v>1.1140000000000001</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="38">
         <v>0.189</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="38">
         <v>0.18</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="37"/>
       <c r="O15" s="18"/>
       <c r="P15" s="5">
         <v>5.413564</v>
@@ -2245,20 +2306,20 @@
       <c r="CF15" s="8"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="1">
         <v>1000</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="37"/>
       <c r="O16" s="18"/>
       <c r="P16" s="5">
         <v>10.807356</v>
@@ -2335,20 +2396,20 @@
       <c r="CF16" s="8"/>
     </row>
     <row r="17" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="1">
         <v>2000</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="37"/>
       <c r="O17" s="18"/>
       <c r="P17" s="5">
         <v>21.628416999999999</v>
@@ -2425,20 +2486,20 @@
       <c r="CF17" s="8"/>
     </row>
     <row r="18" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="1">
         <v>5000</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="37"/>
       <c r="O18" s="18"/>
       <c r="P18" s="5">
         <v>53.830657000000002</v>
@@ -2513,38 +2574,38 @@
       </c>
     </row>
     <row r="19" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="1">
         <v>500</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="38">
         <v>0.33110000000000001</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="37">
         <v>1.7989999999999999</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="38">
         <v>0.254</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="38">
         <v>0.187</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="38">
         <v>0.13080554883214199</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="37">
         <v>600</v>
       </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="37"/>
       <c r="O19" s="18"/>
       <c r="P19" s="5">
         <v>6.7596759999999998</v>
@@ -2621,20 +2682,20 @@
       <c r="CF19" s="7"/>
     </row>
     <row r="20" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="1">
         <v>1000</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="37"/>
       <c r="O20" s="18"/>
       <c r="P20" s="5">
         <v>13.471734</v>
@@ -2711,20 +2772,20 @@
       <c r="CF20" s="7"/>
     </row>
     <row r="21" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="1">
         <v>2000</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="33"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="37"/>
       <c r="O21" s="18"/>
       <c r="P21" s="5">
         <v>26.813558</v>
@@ -2801,20 +2862,20 @@
       <c r="CF21" s="7"/>
     </row>
     <row r="22" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="1">
         <v>5000</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="33"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="37"/>
       <c r="O22" s="18"/>
       <c r="P22" s="5">
         <v>66.724900000000005</v>
@@ -2889,38 +2950,38 @@
       </c>
     </row>
     <row r="23" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="1">
         <v>500</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="38">
         <v>0.33660000000000001</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="37">
         <v>2.7</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="38">
         <v>0.159</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="38">
         <v>0.13800000000000001</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="J23" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="32"/>
-      <c r="L23" s="33"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="37"/>
       <c r="O23" s="18"/>
       <c r="P23" s="5">
         <v>8.6928560000000008</v>
@@ -2997,20 +3058,20 @@
       <c r="CF23" s="8"/>
     </row>
     <row r="24" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="1">
         <v>1000</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="33"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="37"/>
       <c r="O24" s="18"/>
       <c r="P24" s="5">
         <v>17.285457000000001</v>
@@ -3087,20 +3148,20 @@
       <c r="CF24" s="8"/>
     </row>
     <row r="25" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="1">
         <v>2000</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="33"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="37"/>
       <c r="O25" s="18"/>
       <c r="P25" s="5">
         <v>34.49512</v>
@@ -3177,20 +3238,20 @@
       <c r="CF25" s="8"/>
     </row>
     <row r="26" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="1">
         <v>5000</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="33"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="37"/>
       <c r="O26" s="18"/>
       <c r="P26" s="5">
         <v>85.965810000000005</v>
@@ -3265,38 +3326,38 @@
       </c>
     </row>
     <row r="27" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="1">
         <v>500</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="38">
         <v>0.22470000000000001</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="37">
         <v>4.883</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="38">
         <v>0.17399999999999999</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="38">
         <v>0.13500000000000001</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="H27" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="33" t="s">
+      <c r="J27" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="32"/>
-      <c r="L27" s="33"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="37"/>
       <c r="O27" s="18"/>
       <c r="P27" s="5">
         <v>11.603604000000001</v>
@@ -3373,20 +3434,20 @@
       <c r="CF27" s="8"/>
     </row>
     <row r="28" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="1">
         <v>1000</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="33"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="37"/>
       <c r="O28" s="18"/>
       <c r="P28" s="5">
         <v>23.158722999999998</v>
@@ -3463,20 +3524,20 @@
       <c r="CF28" s="8"/>
     </row>
     <row r="29" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="1">
         <v>2000</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="33"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="37"/>
       <c r="O29" s="18"/>
       <c r="P29" s="5">
         <v>46.277225999999999</v>
@@ -3553,20 +3614,20 @@
       <c r="CF29" s="8"/>
     </row>
     <row r="30" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="1">
         <v>5000</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="33"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="37"/>
       <c r="O30" s="18"/>
       <c r="P30" s="5">
         <v>115.449259</v>
@@ -3642,38 +3703,38 @@
       <c r="AV30" s="6"/>
     </row>
     <row r="31" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="1">
         <v>500</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="38">
         <v>0.26550000000000001</v>
       </c>
-      <c r="D31" s="33">
+      <c r="D31" s="37">
         <v>28.327999999999999</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="38">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="38">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H31" s="33" t="s">
+      <c r="H31" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="34" t="s">
+      <c r="I31" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J31" s="33" t="s">
+      <c r="J31" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="32"/>
-      <c r="L31" s="33"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="37"/>
       <c r="O31" s="18"/>
       <c r="P31" s="5">
         <v>32.667169999999999</v>
@@ -3750,20 +3811,20 @@
       <c r="CF31" s="8"/>
     </row>
     <row r="32" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="1">
         <v>1000</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="33"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="37"/>
       <c r="O32" s="18"/>
       <c r="P32" s="5">
         <v>65.318888000000001</v>
@@ -3840,20 +3901,20 @@
       <c r="CF32" s="8"/>
     </row>
     <row r="33" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="1">
         <v>2000</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="33"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="37"/>
       <c r="O33" s="18"/>
       <c r="P33" s="5">
         <v>130.456557</v>
@@ -3930,20 +3991,20 @@
       <c r="CF33" s="8"/>
     </row>
     <row r="34" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="1">
         <v>5000</v>
       </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="33"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="37"/>
       <c r="O34" s="18"/>
       <c r="P34" s="5">
         <v>323.3809</v>
@@ -4044,34 +4105,34 @@
       <c r="AT35" s="31"/>
     </row>
     <row r="36" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="1">
         <v>500</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="35">
+      <c r="C36" s="38"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="38">
         <v>0.101239449255883</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G36" s="38">
         <v>6.1477473699407502E-2</v>
       </c>
-      <c r="H36" s="33" t="s">
+      <c r="H36" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I36" s="34" t="s">
+      <c r="I36" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J36" s="33" t="s">
+      <c r="J36" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K36" s="32"/>
-      <c r="L36" s="33"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="37"/>
       <c r="O36" s="18"/>
       <c r="P36" s="5">
         <v>7.3689210000000003</v>
@@ -4146,20 +4207,20 @@
       </c>
     </row>
     <row r="37" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="1">
         <v>1000</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="33"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="37"/>
       <c r="O37" s="18"/>
       <c r="P37" s="5">
         <v>14.524684000000001</v>
@@ -4234,20 +4295,20 @@
       </c>
     </row>
     <row r="38" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="1">
         <v>2000</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="33"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="37"/>
       <c r="O38" s="18"/>
       <c r="P38" s="5">
         <v>29.065647999999999</v>
@@ -4322,20 +4383,20 @@
       </c>
     </row>
     <row r="39" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="1">
         <v>5000</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="33"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="37"/>
       <c r="O39" s="18"/>
       <c r="P39" s="5">
         <v>72.090327000000002</v>
@@ -4410,34 +4471,34 @@
       </c>
     </row>
     <row r="40" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="35" t="s">
         <v>21</v>
       </c>
       <c r="B40" s="1">
         <v>500</v>
       </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="35">
+      <c r="C40" s="38"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="38">
         <v>0.29018026080021198</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="F40" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="35">
+      <c r="G40" s="38">
         <v>0.205463324203739</v>
       </c>
-      <c r="H40" s="33" t="s">
+      <c r="H40" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="34" t="s">
+      <c r="I40" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J40" s="33" t="s">
+      <c r="J40" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="32"/>
-      <c r="L40" s="33"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="37"/>
       <c r="O40" s="18"/>
       <c r="P40" s="5">
         <v>8.3890449999999994</v>
@@ -4512,20 +4573,20 @@
       </c>
     </row>
     <row r="41" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="1">
         <v>1000</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="33"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="37"/>
       <c r="O41" s="18"/>
       <c r="P41" s="5">
         <v>16.511437999999998</v>
@@ -4600,20 +4661,20 @@
       </c>
     </row>
     <row r="42" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="1">
         <v>2000</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="33"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="37"/>
       <c r="O42" s="18"/>
       <c r="P42" s="5">
         <v>32.639651000000001</v>
@@ -4688,20 +4749,20 @@
       </c>
     </row>
     <row r="43" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="1">
         <v>5000</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="33"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="37"/>
       <c r="O43" s="18"/>
       <c r="P43" s="5">
         <v>81.209215999999998</v>
@@ -4802,34 +4863,34 @@
       <c r="AT44" s="31"/>
     </row>
     <row r="45" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="35" t="s">
         <v>34</v>
       </c>
       <c r="B45" s="1">
         <v>500</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="35">
+      <c r="C45" s="38"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="38">
         <v>0.21826059724466901</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="F45" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="35">
+      <c r="G45" s="38">
         <v>0.199782125806655</v>
       </c>
-      <c r="H45" s="33" t="s">
+      <c r="H45" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I45" s="34" t="s">
+      <c r="I45" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="33" t="s">
+      <c r="J45" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K45" s="32"/>
-      <c r="L45" s="33"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="37"/>
       <c r="O45" s="18"/>
       <c r="P45" s="5">
         <v>2.2728280000000001</v>
@@ -4904,20 +4965,20 @@
       </c>
     </row>
     <row r="46" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
+      <c r="A46" s="35"/>
       <c r="B46" s="1">
         <v>1000</v>
       </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="33"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="37"/>
       <c r="O46" s="18"/>
       <c r="P46" s="5">
         <v>4.5111670000000004</v>
@@ -4992,20 +5053,20 @@
       </c>
     </row>
     <row r="47" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
+      <c r="A47" s="35"/>
       <c r="B47" s="1">
         <v>2000</v>
       </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="33"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="37"/>
       <c r="O47" s="18"/>
       <c r="P47" s="5">
         <v>8.9939009999999993</v>
@@ -5080,20 +5141,20 @@
       </c>
     </row>
     <row r="48" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
+      <c r="A48" s="35"/>
       <c r="B48" s="1">
         <v>5000</v>
       </c>
-      <c r="C48" s="35"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="33"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="37"/>
       <c r="O48" s="18"/>
       <c r="P48" s="5">
         <v>22.490936999999999</v>
@@ -5194,34 +5255,34 @@
       <c r="AT49" s="31"/>
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="35" t="s">
         <v>22</v>
       </c>
       <c r="B50" s="1">
         <v>500</v>
       </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="35">
+      <c r="C50" s="38"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="38">
         <v>0.24797844874295</v>
       </c>
-      <c r="F50" s="33" t="s">
+      <c r="F50" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="35">
+      <c r="G50" s="38">
         <v>0.18443317167635301</v>
       </c>
-      <c r="H50" s="33" t="s">
+      <c r="H50" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="34" t="s">
+      <c r="I50" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J50" s="33" t="s">
+      <c r="J50" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K50" s="32"/>
-      <c r="L50" s="33"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="37"/>
       <c r="O50" s="18"/>
       <c r="P50" s="5">
         <v>8.1978240000000007</v>
@@ -5296,20 +5357,20 @@
       </c>
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
+      <c r="A51" s="35"/>
       <c r="B51" s="1">
         <v>1000</v>
       </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="33"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="37"/>
       <c r="O51" s="18"/>
       <c r="P51" s="5">
         <v>16.520105999999998</v>
@@ -5384,20 +5445,20 @@
       </c>
     </row>
     <row r="52" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
+      <c r="A52" s="35"/>
       <c r="B52" s="1">
         <v>2000</v>
       </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="33"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="37"/>
       <c r="O52" s="18"/>
       <c r="P52" s="5">
         <v>32.814861000000001</v>
@@ -5472,20 +5533,20 @@
       </c>
     </row>
     <row r="53" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
+      <c r="A53" s="35"/>
       <c r="B53" s="1">
         <v>5000</v>
       </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="33"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="37"/>
       <c r="O53" s="18"/>
       <c r="P53" s="5">
         <v>80.115144999999998</v>
@@ -5586,34 +5647,34 @@
       <c r="AT54" s="31"/>
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="35" t="s">
         <v>23</v>
       </c>
       <c r="B55" s="1">
         <v>500</v>
       </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="35">
+      <c r="C55" s="38"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="38">
         <v>0.28420023201354799</v>
       </c>
-      <c r="F55" s="33" t="s">
+      <c r="F55" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G55" s="35">
+      <c r="G55" s="38">
         <v>0.34385002851765301</v>
       </c>
-      <c r="H55" s="33" t="s">
+      <c r="H55" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I55" s="34" t="s">
+      <c r="I55" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J55" s="33" t="s">
+      <c r="J55" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K55" s="32"/>
-      <c r="L55" s="33"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="37"/>
       <c r="O55" s="18"/>
       <c r="P55" s="5">
         <v>5.8302040000000002</v>
@@ -5688,20 +5749,20 @@
       </c>
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
+      <c r="A56" s="35"/>
       <c r="B56" s="1">
         <v>1000</v>
       </c>
-      <c r="C56" s="35"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="33"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="37"/>
       <c r="O56" s="18"/>
       <c r="P56" s="5">
         <v>11.555717</v>
@@ -5776,20 +5837,20 @@
       </c>
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
+      <c r="A57" s="35"/>
       <c r="B57" s="1">
         <v>2000</v>
       </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="33"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="37"/>
       <c r="O57" s="18"/>
       <c r="P57" s="5">
         <v>23.124298</v>
@@ -5864,20 +5925,20 @@
       </c>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
+      <c r="A58" s="35"/>
       <c r="B58" s="1">
         <v>5000</v>
       </c>
-      <c r="C58" s="35"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="33"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="37"/>
       <c r="O58" s="18"/>
       <c r="P58" s="5">
         <v>58.029696999999999</v>
@@ -5952,34 +6013,34 @@
       </c>
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A59" s="34" t="s">
+      <c r="A59" s="35" t="s">
         <v>24</v>
       </c>
       <c r="B59" s="1">
         <v>500</v>
       </c>
-      <c r="C59" s="35"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="35">
+      <c r="C59" s="38"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="38">
         <v>0.29386831802036401</v>
       </c>
-      <c r="F59" s="33" t="s">
+      <c r="F59" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="35">
+      <c r="G59" s="38">
         <v>0.30511472915739701</v>
       </c>
-      <c r="H59" s="33" t="s">
+      <c r="H59" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I59" s="34" t="s">
+      <c r="I59" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J59" s="33" t="s">
+      <c r="J59" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K59" s="32"/>
-      <c r="L59" s="33"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="37"/>
       <c r="O59" s="18"/>
       <c r="P59" s="5">
         <v>7.0910570000000002</v>
@@ -6054,20 +6115,20 @@
       </c>
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
+      <c r="A60" s="35"/>
       <c r="B60" s="1">
         <v>1000</v>
       </c>
-      <c r="C60" s="35"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="33"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="37"/>
       <c r="O60" s="18"/>
       <c r="P60" s="5">
         <v>14.007052</v>
@@ -6142,20 +6203,20 @@
       </c>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
+      <c r="A61" s="35"/>
       <c r="B61" s="1">
         <v>2000</v>
       </c>
-      <c r="C61" s="35"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="33"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="37"/>
       <c r="O61" s="18"/>
       <c r="P61" s="5">
         <v>27.958158999999998</v>
@@ -6230,20 +6291,20 @@
       </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
+      <c r="A62" s="35"/>
       <c r="B62" s="1">
         <v>5000</v>
       </c>
-      <c r="C62" s="35"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="33"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="37"/>
       <c r="O62" s="18"/>
       <c r="P62" s="5">
         <v>69.326909000000001</v>
@@ -6318,34 +6379,34 @@
       </c>
     </row>
     <row r="63" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="35" t="s">
         <v>25</v>
       </c>
       <c r="B63" s="1">
         <v>500</v>
       </c>
-      <c r="C63" s="35"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="35">
+      <c r="C63" s="38"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="38">
         <v>0.167989635290166</v>
       </c>
-      <c r="F63" s="33" t="s">
+      <c r="F63" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G63" s="35">
+      <c r="G63" s="38">
         <v>0.25329462101632999</v>
       </c>
-      <c r="H63" s="33" t="s">
+      <c r="H63" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I63" s="34" t="s">
+      <c r="I63" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J63" s="33" t="s">
+      <c r="J63" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K63" s="32"/>
-      <c r="L63" s="33"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="37"/>
       <c r="O63" s="18"/>
       <c r="P63" s="5">
         <v>7.4597910000000001</v>
@@ -6420,20 +6481,20 @@
       </c>
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
+      <c r="A64" s="35"/>
       <c r="B64" s="1">
         <v>1000</v>
       </c>
-      <c r="C64" s="35"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="33"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="37"/>
       <c r="O64" s="18"/>
       <c r="P64" s="5">
         <v>14.86237</v>
@@ -6508,20 +6569,20 @@
       </c>
     </row>
     <row r="65" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
+      <c r="A65" s="35"/>
       <c r="B65" s="1">
         <v>2000</v>
       </c>
-      <c r="C65" s="35"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="33"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="37"/>
       <c r="O65" s="18"/>
       <c r="P65" s="5">
         <v>29.561377</v>
@@ -6596,20 +6657,20 @@
       </c>
     </row>
     <row r="66" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A66" s="34"/>
+      <c r="A66" s="35"/>
       <c r="B66" s="1">
         <v>5000</v>
       </c>
-      <c r="C66" s="35"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="32"/>
-      <c r="L66" s="33"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="37"/>
       <c r="O66" s="18"/>
       <c r="P66" s="5">
         <v>73.479196999999999</v>
@@ -6710,34 +6771,34 @@
       <c r="AT67" s="31"/>
     </row>
     <row r="68" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A68" s="34" t="s">
+      <c r="A68" s="35" t="s">
         <v>27</v>
       </c>
       <c r="B68" s="1">
         <v>500</v>
       </c>
-      <c r="C68" s="35"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="35">
+      <c r="C68" s="38"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="38">
         <v>0.16062893658948699</v>
       </c>
-      <c r="F68" s="33" t="s">
+      <c r="F68" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G68" s="35">
+      <c r="G68" s="38">
         <v>0.121214337893307</v>
       </c>
-      <c r="H68" s="33" t="s">
+      <c r="H68" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I68" s="34" t="s">
+      <c r="I68" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J68" s="33" t="s">
+      <c r="J68" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K68" s="32"/>
-      <c r="L68" s="33"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="37"/>
       <c r="O68" s="18"/>
       <c r="P68" s="5">
         <v>2.7527020000000002</v>
@@ -6812,20 +6873,20 @@
       </c>
     </row>
     <row r="69" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
+      <c r="A69" s="35"/>
       <c r="B69" s="1">
         <v>1000</v>
       </c>
-      <c r="C69" s="35"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="33"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="33"/>
-      <c r="K69" s="32"/>
-      <c r="L69" s="33"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="37"/>
       <c r="O69" s="18"/>
       <c r="P69" s="5">
         <v>5.4598659999999999</v>
@@ -6900,20 +6961,20 @@
       </c>
     </row>
     <row r="70" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A70" s="34"/>
+      <c r="A70" s="35"/>
       <c r="B70" s="1">
         <v>2000</v>
       </c>
-      <c r="C70" s="35"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="33"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="32"/>
-      <c r="L70" s="33"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="37"/>
       <c r="O70" s="18"/>
       <c r="P70" s="5">
         <v>10.888598999999999</v>
@@ -6988,20 +7049,20 @@
       </c>
     </row>
     <row r="71" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A71" s="34"/>
+      <c r="A71" s="35"/>
       <c r="B71" s="1">
         <v>5000</v>
       </c>
-      <c r="C71" s="35"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="33"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="32"/>
-      <c r="L71" s="33"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="37"/>
       <c r="O71" s="18"/>
       <c r="P71" s="5">
         <v>27.119754</v>
@@ -7076,34 +7137,34 @@
       </c>
     </row>
     <row r="72" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A72" s="34" t="s">
+      <c r="A72" s="35" t="s">
         <v>28</v>
       </c>
       <c r="B72" s="1">
         <v>500</v>
       </c>
-      <c r="C72" s="35"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="35">
+      <c r="C72" s="38"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="38">
         <v>1.0883629283854401E-2</v>
       </c>
-      <c r="F72" s="33" t="s">
+      <c r="F72" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G72" s="35">
+      <c r="G72" s="38">
         <v>2.6516853932584201E-2</v>
       </c>
-      <c r="H72" s="33" t="s">
+      <c r="H72" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I72" s="34" t="s">
+      <c r="I72" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J72" s="33" t="s">
+      <c r="J72" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K72" s="32"/>
-      <c r="L72" s="33"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="37"/>
       <c r="O72" s="18"/>
       <c r="P72" s="5">
         <v>3.1482399999999999</v>
@@ -7178,20 +7239,20 @@
       </c>
     </row>
     <row r="73" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A73" s="34"/>
+      <c r="A73" s="35"/>
       <c r="B73" s="1">
         <v>1000</v>
       </c>
-      <c r="C73" s="35"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="33"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="33"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="33"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="37"/>
       <c r="O73" s="18"/>
       <c r="P73" s="5">
         <v>6.2835929999999998</v>
@@ -7266,20 +7327,20 @@
       </c>
     </row>
     <row r="74" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A74" s="34"/>
+      <c r="A74" s="35"/>
       <c r="B74" s="1">
         <v>2000</v>
       </c>
-      <c r="C74" s="35"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="33"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="32"/>
-      <c r="L74" s="33"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="37"/>
       <c r="O74" s="18"/>
       <c r="P74" s="5">
         <v>12.554895999999999</v>
@@ -7354,20 +7415,20 @@
       </c>
     </row>
     <row r="75" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A75" s="34"/>
+      <c r="A75" s="35"/>
       <c r="B75" s="1">
         <v>5000</v>
       </c>
-      <c r="C75" s="35"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="33"/>
-      <c r="K75" s="32"/>
-      <c r="L75" s="33"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="37"/>
       <c r="O75" s="18"/>
       <c r="P75" s="5">
         <v>31.354782</v>
@@ -7442,34 +7503,34 @@
       </c>
     </row>
     <row r="76" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A76" s="34" t="s">
+      <c r="A76" s="35" t="s">
         <v>29</v>
       </c>
       <c r="B76" s="1">
         <v>500</v>
       </c>
-      <c r="C76" s="35"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="35">
+      <c r="C76" s="38"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="38">
         <v>2.1265476753851299E-2</v>
       </c>
-      <c r="F76" s="33" t="s">
+      <c r="F76" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G76" s="35">
+      <c r="G76" s="38">
         <v>3.6388931451421497E-2</v>
       </c>
-      <c r="H76" s="33" t="s">
+      <c r="H76" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I76" s="34" t="s">
+      <c r="I76" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J76" s="33" t="s">
+      <c r="J76" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K76" s="32"/>
-      <c r="L76" s="33"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="37"/>
       <c r="O76" s="18"/>
       <c r="P76" s="5">
         <v>3.7235830000000001</v>
@@ -7544,20 +7605,20 @@
       </c>
     </row>
     <row r="77" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A77" s="34"/>
+      <c r="A77" s="35"/>
       <c r="B77" s="1">
         <v>1000</v>
       </c>
-      <c r="C77" s="35"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="33"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="33"/>
-      <c r="K77" s="32"/>
-      <c r="L77" s="33"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="37"/>
       <c r="O77" s="18"/>
       <c r="P77" s="5">
         <v>7.4339560000000002</v>
@@ -7632,20 +7693,20 @@
       </c>
     </row>
     <row r="78" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
+      <c r="A78" s="35"/>
       <c r="B78" s="1">
         <v>2000</v>
       </c>
-      <c r="C78" s="35"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="33"/>
-      <c r="K78" s="32"/>
-      <c r="L78" s="33"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="37"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="37"/>
       <c r="P78" s="5">
         <v>14.859114</v>
       </c>
@@ -7719,20 +7780,20 @@
       </c>
     </row>
     <row r="79" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A79" s="34"/>
+      <c r="A79" s="35"/>
       <c r="B79" s="1">
         <v>5000</v>
       </c>
-      <c r="C79" s="35"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="33"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="33"/>
-      <c r="K79" s="32"/>
-      <c r="L79" s="33"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="37"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="37"/>
       <c r="P79" s="5">
         <v>37.086013000000001</v>
       </c>
@@ -7806,34 +7867,34 @@
       </c>
     </row>
     <row r="80" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A80" s="34" t="s">
+      <c r="A80" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B80" s="1">
         <v>500</v>
       </c>
-      <c r="C80" s="35"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="35">
+      <c r="C80" s="38"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="38">
         <v>0.17058616214445499</v>
       </c>
-      <c r="F80" s="33" t="s">
+      <c r="F80" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G80" s="35">
+      <c r="G80" s="38">
         <v>0.11949852870448099</v>
       </c>
-      <c r="H80" s="33" t="s">
+      <c r="H80" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I80" s="34" t="s">
+      <c r="I80" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J80" s="33" t="s">
+      <c r="J80" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K80" s="32"/>
-      <c r="L80" s="33"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="37"/>
       <c r="P80" s="5">
         <v>3.4546389999999998</v>
       </c>
@@ -7907,20 +7968,20 @@
       </c>
     </row>
     <row r="81" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A81" s="34"/>
+      <c r="A81" s="35"/>
       <c r="B81" s="1">
         <v>1000</v>
       </c>
-      <c r="C81" s="35"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="33"/>
-      <c r="K81" s="32"/>
-      <c r="L81" s="33"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="37"/>
       <c r="P81" s="5">
         <v>6.9478160000000004</v>
       </c>
@@ -7994,20 +8055,20 @@
       </c>
     </row>
     <row r="82" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A82" s="34"/>
+      <c r="A82" s="35"/>
       <c r="B82" s="1">
         <v>2000</v>
       </c>
-      <c r="C82" s="35"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="33"/>
-      <c r="K82" s="32"/>
-      <c r="L82" s="33"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="37"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="37"/>
       <c r="P82" s="5">
         <v>14.081699</v>
       </c>
@@ -8081,20 +8142,20 @@
       </c>
     </row>
     <row r="83" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A83" s="34"/>
+      <c r="A83" s="35"/>
       <c r="B83" s="1">
         <v>5000</v>
       </c>
-      <c r="C83" s="35"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="33"/>
-      <c r="K83" s="32"/>
-      <c r="L83" s="33"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="37"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="37"/>
       <c r="P83" s="5">
         <v>35.508873000000001</v>
       </c>
@@ -8168,34 +8229,34 @@
       </c>
     </row>
     <row r="84" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A84" s="34" t="s">
+      <c r="A84" s="35" t="s">
         <v>31</v>
       </c>
       <c r="B84" s="1">
         <v>500</v>
       </c>
-      <c r="C84" s="35"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="35">
+      <c r="C84" s="38"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="38">
         <v>0.219652082835287</v>
       </c>
-      <c r="F84" s="33" t="s">
+      <c r="F84" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G84" s="35">
+      <c r="G84" s="38">
         <v>0.145969617876444</v>
       </c>
-      <c r="H84" s="33" t="s">
+      <c r="H84" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I84" s="34" t="s">
+      <c r="I84" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J84" s="33" t="s">
+      <c r="J84" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K84" s="32"/>
-      <c r="L84" s="33"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="37"/>
       <c r="P84" s="5">
         <v>4.0850150000000003</v>
       </c>
@@ -8269,20 +8330,20 @@
       </c>
     </row>
     <row r="85" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A85" s="34"/>
+      <c r="A85" s="35"/>
       <c r="B85" s="1">
         <v>1000</v>
       </c>
-      <c r="C85" s="35"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="33"/>
-      <c r="K85" s="32"/>
-      <c r="L85" s="33"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="37"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="37"/>
       <c r="P85" s="5">
         <v>8.2311809999999994</v>
       </c>
@@ -8356,20 +8417,20 @@
       </c>
     </row>
     <row r="86" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A86" s="34"/>
+      <c r="A86" s="35"/>
       <c r="B86" s="1">
         <v>2000</v>
       </c>
-      <c r="C86" s="35"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="33"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="33"/>
-      <c r="K86" s="32"/>
-      <c r="L86" s="33"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="37"/>
       <c r="P86" s="5">
         <v>16.372955999999999</v>
       </c>
@@ -8443,20 +8504,20 @@
       </c>
     </row>
     <row r="87" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A87" s="34"/>
+      <c r="A87" s="35"/>
       <c r="B87" s="1">
         <v>5000</v>
       </c>
-      <c r="C87" s="35"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="33"/>
-      <c r="K87" s="32"/>
-      <c r="L87" s="33"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="37"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="37"/>
       <c r="P87" s="5">
         <v>41.484876999999997</v>
       </c>
@@ -8530,34 +8591,34 @@
       </c>
     </row>
     <row r="88" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A88" s="34" t="s">
+      <c r="A88" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B88" s="1">
         <v>500</v>
       </c>
-      <c r="C88" s="35"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="35">
+      <c r="C88" s="38"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="38">
         <v>0.27256493121848202</v>
       </c>
-      <c r="F88" s="33" t="s">
+      <c r="F88" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G88" s="35">
+      <c r="G88" s="38">
         <v>0.15719859527191099</v>
       </c>
-      <c r="H88" s="33" t="s">
+      <c r="H88" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I88" s="34" t="s">
+      <c r="I88" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J88" s="33" t="s">
+      <c r="J88" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K88" s="32"/>
-      <c r="L88" s="33"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="37"/>
       <c r="P88" s="5">
         <v>4.7877510000000001</v>
       </c>
@@ -8631,20 +8692,20 @@
       </c>
     </row>
     <row r="89" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A89" s="34"/>
+      <c r="A89" s="35"/>
       <c r="B89" s="1">
         <v>1000</v>
       </c>
-      <c r="C89" s="35"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="33"/>
-      <c r="K89" s="32"/>
-      <c r="L89" s="33"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="35"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="36"/>
+      <c r="L89" s="37"/>
       <c r="P89" s="5">
         <v>9.6713889999999996</v>
       </c>
@@ -8718,20 +8779,20 @@
       </c>
     </row>
     <row r="90" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A90" s="34"/>
+      <c r="A90" s="35"/>
       <c r="B90" s="1">
         <v>2000</v>
       </c>
-      <c r="C90" s="35"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="33"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="32"/>
-      <c r="L90" s="33"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="37"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="37"/>
       <c r="P90" s="5">
         <v>19.316754</v>
       </c>
@@ -8805,20 +8866,20 @@
       </c>
     </row>
     <row r="91" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A91" s="34"/>
+      <c r="A91" s="35"/>
       <c r="B91" s="1">
         <v>5000</v>
       </c>
-      <c r="C91" s="35"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="33"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="33"/>
-      <c r="K91" s="32"/>
-      <c r="L91" s="33"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="37"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="37"/>
       <c r="P91" s="5">
         <v>47.262852000000002</v>
       </c>
@@ -8892,34 +8953,34 @@
       </c>
     </row>
     <row r="92" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A92" s="34" t="s">
+      <c r="A92" s="35" t="s">
         <v>32</v>
       </c>
       <c r="B92" s="1">
         <v>500</v>
       </c>
-      <c r="C92" s="35"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="35">
+      <c r="C92" s="38"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="38">
         <v>6.2700060480871303E-2</v>
       </c>
-      <c r="F92" s="33" t="s">
+      <c r="F92" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G92" s="35">
+      <c r="G92" s="38">
         <v>3.09751238890398E-2</v>
       </c>
-      <c r="H92" s="33" t="s">
+      <c r="H92" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I92" s="34" t="s">
+      <c r="I92" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J92" s="33" t="s">
+      <c r="J92" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K92" s="32"/>
-      <c r="L92" s="33"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="37"/>
       <c r="P92" s="5">
         <v>6.1680070000000002</v>
       </c>
@@ -8993,20 +9054,20 @@
       </c>
     </row>
     <row r="93" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
+      <c r="A93" s="35"/>
       <c r="B93" s="1">
         <v>1000</v>
       </c>
-      <c r="C93" s="35"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="33"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="33"/>
-      <c r="K93" s="32"/>
-      <c r="L93" s="33"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="36"/>
+      <c r="L93" s="37"/>
       <c r="P93" s="5">
         <v>12.293174</v>
       </c>
@@ -9080,20 +9141,20 @@
       </c>
     </row>
     <row r="94" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A94" s="34"/>
+      <c r="A94" s="35"/>
       <c r="B94" s="1">
         <v>2000</v>
       </c>
-      <c r="C94" s="35"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="33"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="33"/>
-      <c r="K94" s="32"/>
-      <c r="L94" s="33"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="38"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="38"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="37"/>
+      <c r="K94" s="36"/>
+      <c r="L94" s="37"/>
       <c r="P94" s="5">
         <v>24.530194999999999</v>
       </c>
@@ -9167,20 +9228,20 @@
       </c>
     </row>
     <row r="95" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A95" s="34"/>
+      <c r="A95" s="35"/>
       <c r="B95" s="1">
         <v>5000</v>
       </c>
-      <c r="C95" s="35"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="33"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="33"/>
-      <c r="K95" s="32"/>
-      <c r="L95" s="33"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="37"/>
+      <c r="K95" s="36"/>
+      <c r="L95" s="37"/>
       <c r="P95" s="5">
         <v>61.224843</v>
       </c>
@@ -9254,34 +9315,34 @@
       </c>
     </row>
     <row r="96" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A96" s="34" t="s">
+      <c r="A96" s="35" t="s">
         <v>33</v>
       </c>
       <c r="B96" s="1">
         <v>500</v>
       </c>
-      <c r="C96" s="35"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="35">
+      <c r="C96" s="38"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="38">
         <v>0.21402465142211599</v>
       </c>
-      <c r="F96" s="33" t="s">
+      <c r="F96" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G96" s="35">
+      <c r="G96" s="38">
         <v>0.16071994068421799</v>
       </c>
-      <c r="H96" s="33" t="s">
+      <c r="H96" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I96" s="34" t="s">
+      <c r="I96" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J96" s="33" t="s">
+      <c r="J96" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K96" s="32"/>
-      <c r="L96" s="33"/>
+      <c r="K96" s="36"/>
+      <c r="L96" s="37"/>
       <c r="P96" s="5">
         <v>5.129162</v>
       </c>
@@ -9355,20 +9416,20 @@
       </c>
     </row>
     <row r="97" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A97" s="34"/>
+      <c r="A97" s="35"/>
       <c r="B97" s="1">
         <v>1000</v>
       </c>
-      <c r="C97" s="35"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="33"/>
-      <c r="I97" s="34"/>
-      <c r="J97" s="33"/>
-      <c r="K97" s="32"/>
-      <c r="L97" s="33"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="35"/>
+      <c r="J97" s="37"/>
+      <c r="K97" s="36"/>
+      <c r="L97" s="37"/>
       <c r="P97" s="5">
         <v>10.24381</v>
       </c>
@@ -9442,20 +9503,20 @@
       </c>
     </row>
     <row r="98" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A98" s="34"/>
+      <c r="A98" s="35"/>
       <c r="B98" s="1">
         <v>2000</v>
       </c>
-      <c r="C98" s="35"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="33"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="33"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="33"/>
-      <c r="K98" s="32"/>
-      <c r="L98" s="33"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="38"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="38"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="35"/>
+      <c r="J98" s="37"/>
+      <c r="K98" s="36"/>
+      <c r="L98" s="37"/>
       <c r="P98" s="5">
         <v>20.481614</v>
       </c>
@@ -9529,20 +9590,20 @@
       </c>
     </row>
     <row r="99" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A99" s="34"/>
+      <c r="A99" s="35"/>
       <c r="B99" s="1">
         <v>5000</v>
       </c>
-      <c r="C99" s="35"/>
-      <c r="D99" s="36"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="33"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="33"/>
-      <c r="I99" s="34"/>
-      <c r="J99" s="33"/>
-      <c r="K99" s="32"/>
-      <c r="L99" s="33"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="38"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="35"/>
+      <c r="J99" s="37"/>
+      <c r="K99" s="36"/>
+      <c r="L99" s="37"/>
       <c r="P99" s="5">
         <v>51.171509</v>
       </c>
@@ -9641,30 +9702,30 @@
       <c r="AT100" s="24"/>
     </row>
     <row r="101" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A101" s="34" t="s">
+      <c r="A101" s="35" t="s">
         <v>47</v>
       </c>
       <c r="B101" s="16">
         <v>500</v>
       </c>
-      <c r="C101" s="35"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="33" t="s">
+      <c r="C101" s="38"/>
+      <c r="D101" s="38"/>
+      <c r="E101" s="38"/>
+      <c r="F101" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G101" s="35"/>
-      <c r="H101" s="33" t="s">
+      <c r="G101" s="38"/>
+      <c r="H101" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I101" s="34" t="s">
+      <c r="I101" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J101" s="33" t="s">
+      <c r="J101" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K101" s="32"/>
-      <c r="L101" s="33"/>
+      <c r="K101" s="36"/>
+      <c r="L101" s="37"/>
       <c r="Q101" s="17">
         <v>3.6363636363636362E-2</v>
       </c>
@@ -9732,20 +9793,20 @@
       </c>
     </row>
     <row r="102" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A102" s="34"/>
+      <c r="A102" s="35"/>
       <c r="B102" s="16">
         <v>1000</v>
       </c>
-      <c r="C102" s="35"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="35"/>
-      <c r="F102" s="33"/>
-      <c r="G102" s="35"/>
-      <c r="H102" s="33"/>
-      <c r="I102" s="34"/>
-      <c r="J102" s="33"/>
-      <c r="K102" s="32"/>
-      <c r="L102" s="33"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="38"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="38"/>
+      <c r="H102" s="37"/>
+      <c r="I102" s="35"/>
+      <c r="J102" s="37"/>
+      <c r="K102" s="36"/>
+      <c r="L102" s="37"/>
       <c r="Q102" s="17">
         <v>0</v>
       </c>
@@ -9813,20 +9874,20 @@
       </c>
     </row>
     <row r="103" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A103" s="34"/>
+      <c r="A103" s="35"/>
       <c r="B103" s="16">
         <v>2000</v>
       </c>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="33"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="33"/>
-      <c r="I103" s="34"/>
-      <c r="J103" s="33"/>
-      <c r="K103" s="32"/>
-      <c r="L103" s="33"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="38"/>
+      <c r="E103" s="38"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="38"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="35"/>
+      <c r="J103" s="37"/>
+      <c r="K103" s="36"/>
+      <c r="L103" s="37"/>
       <c r="Q103" s="17">
         <v>0</v>
       </c>
@@ -9894,20 +9955,20 @@
       </c>
     </row>
     <row r="104" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A104" s="34"/>
+      <c r="A104" s="35"/>
       <c r="B104" s="16">
         <v>5000</v>
       </c>
-      <c r="C104" s="35"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="35"/>
-      <c r="F104" s="33"/>
-      <c r="G104" s="35"/>
-      <c r="H104" s="33"/>
-      <c r="I104" s="34"/>
-      <c r="J104" s="33"/>
-      <c r="K104" s="32"/>
-      <c r="L104" s="33"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="38"/>
+      <c r="E104" s="38"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="38"/>
+      <c r="H104" s="37"/>
+      <c r="I104" s="35"/>
+      <c r="J104" s="37"/>
+      <c r="K104" s="36"/>
+      <c r="L104" s="37"/>
       <c r="Q104" s="17">
         <v>0</v>
       </c>
@@ -9975,30 +10036,30 @@
       </c>
     </row>
     <row r="105" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A105" s="34" t="s">
+      <c r="A105" s="35" t="s">
         <v>58</v>
       </c>
       <c r="B105" s="16">
         <v>500</v>
       </c>
-      <c r="C105" s="35"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="35"/>
-      <c r="F105" s="33" t="s">
+      <c r="C105" s="38"/>
+      <c r="D105" s="38"/>
+      <c r="E105" s="38"/>
+      <c r="F105" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G105" s="35"/>
-      <c r="H105" s="33" t="s">
+      <c r="G105" s="38"/>
+      <c r="H105" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I105" s="34" t="s">
+      <c r="I105" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J105" s="33" t="s">
+      <c r="J105" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K105" s="32"/>
-      <c r="L105" s="33"/>
+      <c r="K105" s="36"/>
+      <c r="L105" s="37"/>
       <c r="Q105" s="17">
         <v>9.8924731182795697E-2</v>
       </c>
@@ -10066,20 +10127,20 @@
       </c>
     </row>
     <row r="106" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A106" s="34"/>
+      <c r="A106" s="35"/>
       <c r="B106" s="16">
         <v>1000</v>
       </c>
-      <c r="C106" s="35"/>
-      <c r="D106" s="35"/>
-      <c r="E106" s="35"/>
-      <c r="F106" s="33"/>
-      <c r="G106" s="35"/>
-      <c r="H106" s="33"/>
-      <c r="I106" s="34"/>
-      <c r="J106" s="33"/>
-      <c r="K106" s="32"/>
-      <c r="L106" s="33"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="38"/>
+      <c r="E106" s="38"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="38"/>
+      <c r="H106" s="37"/>
+      <c r="I106" s="35"/>
+      <c r="J106" s="37"/>
+      <c r="K106" s="36"/>
+      <c r="L106" s="37"/>
       <c r="Q106" s="17">
         <v>7.9569892473118284E-2</v>
       </c>
@@ -10147,20 +10208,20 @@
       </c>
     </row>
     <row r="107" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A107" s="34"/>
+      <c r="A107" s="35"/>
       <c r="B107" s="16">
         <v>2000</v>
       </c>
-      <c r="C107" s="35"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="35"/>
-      <c r="F107" s="33"/>
-      <c r="G107" s="35"/>
-      <c r="H107" s="33"/>
-      <c r="I107" s="34"/>
-      <c r="J107" s="33"/>
-      <c r="K107" s="32"/>
-      <c r="L107" s="33"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="38"/>
+      <c r="E107" s="38"/>
+      <c r="F107" s="37"/>
+      <c r="G107" s="38"/>
+      <c r="H107" s="37"/>
+      <c r="I107" s="35"/>
+      <c r="J107" s="37"/>
+      <c r="K107" s="36"/>
+      <c r="L107" s="37"/>
       <c r="Q107" s="17">
         <v>5.6989247311827959E-2</v>
       </c>
@@ -10228,20 +10289,20 @@
       </c>
     </row>
     <row r="108" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A108" s="34"/>
+      <c r="A108" s="35"/>
       <c r="B108" s="16">
         <v>5000</v>
       </c>
-      <c r="C108" s="35"/>
-      <c r="D108" s="35"/>
-      <c r="E108" s="35"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="35"/>
-      <c r="H108" s="33"/>
-      <c r="I108" s="34"/>
-      <c r="J108" s="33"/>
-      <c r="K108" s="32"/>
-      <c r="L108" s="33"/>
+      <c r="C108" s="38"/>
+      <c r="D108" s="38"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="38"/>
+      <c r="H108" s="37"/>
+      <c r="I108" s="35"/>
+      <c r="J108" s="37"/>
+      <c r="K108" s="36"/>
+      <c r="L108" s="37"/>
       <c r="Q108" s="17">
         <v>5.6989247311827959E-2</v>
       </c>
@@ -10309,30 +10370,30 @@
       </c>
     </row>
     <row r="109" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A109" s="34" t="s">
+      <c r="A109" s="35" t="s">
         <v>59</v>
       </c>
       <c r="B109" s="16">
         <v>500</v>
       </c>
-      <c r="C109" s="35"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="35"/>
-      <c r="F109" s="33" t="s">
+      <c r="C109" s="38"/>
+      <c r="D109" s="38"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G109" s="35"/>
-      <c r="H109" s="33" t="s">
+      <c r="G109" s="38"/>
+      <c r="H109" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I109" s="34" t="s">
+      <c r="I109" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J109" s="33" t="s">
+      <c r="J109" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K109" s="32"/>
-      <c r="L109" s="33"/>
+      <c r="K109" s="36"/>
+      <c r="L109" s="37"/>
       <c r="Q109" s="17">
         <v>6.9527896995708161E-2</v>
       </c>
@@ -10400,20 +10461,20 @@
       </c>
     </row>
     <row r="110" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A110" s="34"/>
+      <c r="A110" s="35"/>
       <c r="B110" s="16">
         <v>1000</v>
       </c>
-      <c r="C110" s="35"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="35"/>
-      <c r="F110" s="33"/>
-      <c r="G110" s="35"/>
-      <c r="H110" s="33"/>
-      <c r="I110" s="34"/>
-      <c r="J110" s="33"/>
-      <c r="K110" s="32"/>
-      <c r="L110" s="33"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="38"/>
+      <c r="F110" s="37"/>
+      <c r="G110" s="38"/>
+      <c r="H110" s="37"/>
+      <c r="I110" s="35"/>
+      <c r="J110" s="37"/>
+      <c r="K110" s="36"/>
+      <c r="L110" s="37"/>
       <c r="Q110" s="17">
         <v>6.9527896995708161E-2</v>
       </c>
@@ -10481,20 +10542,20 @@
       </c>
     </row>
     <row r="111" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A111" s="34"/>
+      <c r="A111" s="35"/>
       <c r="B111" s="16">
         <v>2000</v>
       </c>
-      <c r="C111" s="35"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="35"/>
-      <c r="F111" s="33"/>
-      <c r="G111" s="35"/>
-      <c r="H111" s="33"/>
-      <c r="I111" s="34"/>
-      <c r="J111" s="33"/>
-      <c r="K111" s="32"/>
-      <c r="L111" s="33"/>
+      <c r="C111" s="38"/>
+      <c r="D111" s="38"/>
+      <c r="E111" s="38"/>
+      <c r="F111" s="37"/>
+      <c r="G111" s="38"/>
+      <c r="H111" s="37"/>
+      <c r="I111" s="35"/>
+      <c r="J111" s="37"/>
+      <c r="K111" s="36"/>
+      <c r="L111" s="37"/>
       <c r="Q111" s="17">
         <v>4.2060085836909872E-2</v>
       </c>
@@ -10562,20 +10623,20 @@
       </c>
     </row>
     <row r="112" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A112" s="34"/>
+      <c r="A112" s="35"/>
       <c r="B112" s="16">
         <v>5000</v>
       </c>
-      <c r="C112" s="35"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="35"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="35"/>
-      <c r="H112" s="33"/>
-      <c r="I112" s="34"/>
-      <c r="J112" s="33"/>
-      <c r="K112" s="32"/>
-      <c r="L112" s="33"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="38"/>
+      <c r="E112" s="38"/>
+      <c r="F112" s="37"/>
+      <c r="G112" s="38"/>
+      <c r="H112" s="37"/>
+      <c r="I112" s="35"/>
+      <c r="J112" s="37"/>
+      <c r="K112" s="36"/>
+      <c r="L112" s="37"/>
       <c r="Q112" s="17">
         <v>3.8626609442060089E-2</v>
       </c>
@@ -10663,34 +10724,34 @@
       <c r="AP113" s="24"/>
     </row>
     <row r="114" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A114" s="34" t="s">
+      <c r="A114" s="35" t="s">
         <v>60</v>
       </c>
       <c r="B114" s="20">
         <v>500</v>
       </c>
-      <c r="C114" s="35"/>
-      <c r="D114" s="35"/>
-      <c r="E114" s="33" t="s">
+      <c r="C114" s="38"/>
+      <c r="D114" s="38"/>
+      <c r="E114" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="33" t="s">
+      <c r="F114" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G114" s="33" t="s">
+      <c r="G114" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H114" s="33" t="s">
+      <c r="H114" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I114" s="33" t="s">
+      <c r="I114" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="J114" s="33" t="s">
+      <c r="J114" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K114" s="32"/>
-      <c r="L114" s="33"/>
+      <c r="K114" s="36"/>
+      <c r="L114" s="37"/>
       <c r="Q114" s="21">
         <v>4.443657641724328E-2</v>
       </c>
@@ -10733,20 +10794,20 @@
       </c>
     </row>
     <row r="115" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A115" s="34"/>
+      <c r="A115" s="35"/>
       <c r="B115" s="20">
         <v>1000</v>
       </c>
-      <c r="C115" s="35"/>
-      <c r="D115" s="35"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="33"/>
-      <c r="G115" s="33"/>
-      <c r="H115" s="33"/>
-      <c r="I115" s="33"/>
-      <c r="J115" s="33"/>
-      <c r="K115" s="32"/>
-      <c r="L115" s="33"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="38"/>
+      <c r="E115" s="37"/>
+      <c r="F115" s="37"/>
+      <c r="G115" s="37"/>
+      <c r="H115" s="37"/>
+      <c r="I115" s="37"/>
+      <c r="J115" s="37"/>
+      <c r="K115" s="36"/>
+      <c r="L115" s="37"/>
       <c r="Q115" s="21">
         <v>3.5344166024718369E-2</v>
       </c>
@@ -10789,20 +10850,20 @@
       </c>
     </row>
     <row r="116" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A116" s="34"/>
+      <c r="A116" s="35"/>
       <c r="B116" s="20">
         <v>2000</v>
       </c>
-      <c r="C116" s="35"/>
-      <c r="D116" s="35"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="33"/>
-      <c r="G116" s="33"/>
-      <c r="H116" s="33"/>
-      <c r="I116" s="33"/>
-      <c r="J116" s="33"/>
-      <c r="K116" s="32"/>
-      <c r="L116" s="33"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="38"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="37"/>
+      <c r="G116" s="37"/>
+      <c r="H116" s="37"/>
+      <c r="I116" s="37"/>
+      <c r="J116" s="37"/>
+      <c r="K116" s="36"/>
+      <c r="L116" s="37"/>
       <c r="Q116" s="21">
         <v>2.8082599737989749E-2</v>
       </c>
@@ -10845,20 +10906,20 @@
       </c>
     </row>
     <row r="117" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A117" s="34"/>
+      <c r="A117" s="35"/>
       <c r="B117" s="20">
         <v>5000</v>
       </c>
-      <c r="C117" s="35"/>
-      <c r="D117" s="35"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="33"/>
-      <c r="G117" s="33"/>
-      <c r="H117" s="33"/>
-      <c r="I117" s="33"/>
-      <c r="J117" s="33"/>
-      <c r="K117" s="32"/>
-      <c r="L117" s="33"/>
+      <c r="C117" s="38"/>
+      <c r="D117" s="38"/>
+      <c r="E117" s="37"/>
+      <c r="F117" s="37"/>
+      <c r="G117" s="37"/>
+      <c r="H117" s="37"/>
+      <c r="I117" s="37"/>
+      <c r="J117" s="37"/>
+      <c r="K117" s="36"/>
+      <c r="L117" s="37"/>
       <c r="Q117" s="21">
         <v>2.2452105312462039E-2</v>
       </c>
@@ -10901,34 +10962,34 @@
       </c>
     </row>
     <row r="118" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A118" s="34" t="s">
+      <c r="A118" s="35" t="s">
         <v>61</v>
       </c>
       <c r="B118" s="20">
         <v>500</v>
       </c>
-      <c r="C118" s="35"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="33" t="s">
+      <c r="C118" s="38"/>
+      <c r="D118" s="38"/>
+      <c r="E118" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F118" s="33" t="s">
+      <c r="F118" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G118" s="33" t="s">
+      <c r="G118" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H118" s="33" t="s">
+      <c r="H118" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I118" s="33" t="s">
+      <c r="I118" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="J118" s="33" t="s">
+      <c r="J118" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K118" s="32"/>
-      <c r="L118" s="33"/>
+      <c r="K118" s="36"/>
+      <c r="L118" s="37"/>
       <c r="Q118" s="21">
         <v>7.1047589705956982E-2</v>
       </c>
@@ -10971,20 +11032,20 @@
       </c>
     </row>
     <row r="119" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A119" s="34"/>
+      <c r="A119" s="35"/>
       <c r="B119" s="20">
         <v>1000</v>
       </c>
-      <c r="C119" s="35"/>
-      <c r="D119" s="35"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
-      <c r="G119" s="33"/>
-      <c r="H119" s="33"/>
-      <c r="I119" s="33"/>
-      <c r="J119" s="33"/>
-      <c r="K119" s="32"/>
-      <c r="L119" s="33"/>
+      <c r="C119" s="38"/>
+      <c r="D119" s="38"/>
+      <c r="E119" s="37"/>
+      <c r="F119" s="37"/>
+      <c r="G119" s="37"/>
+      <c r="H119" s="37"/>
+      <c r="I119" s="37"/>
+      <c r="J119" s="37"/>
+      <c r="K119" s="36"/>
+      <c r="L119" s="37"/>
       <c r="Q119" s="21">
         <v>5.941429130028815E-2</v>
       </c>
@@ -11027,20 +11088,20 @@
       </c>
     </row>
     <row r="120" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A120" s="34"/>
+      <c r="A120" s="35"/>
       <c r="B120" s="20">
         <v>2000</v>
       </c>
-      <c r="C120" s="35"/>
-      <c r="D120" s="35"/>
-      <c r="E120" s="33"/>
-      <c r="F120" s="33"/>
-      <c r="G120" s="33"/>
-      <c r="H120" s="33"/>
-      <c r="I120" s="33"/>
-      <c r="J120" s="33"/>
-      <c r="K120" s="32"/>
-      <c r="L120" s="33"/>
+      <c r="C120" s="38"/>
+      <c r="D120" s="38"/>
+      <c r="E120" s="37"/>
+      <c r="F120" s="37"/>
+      <c r="G120" s="37"/>
+      <c r="H120" s="37"/>
+      <c r="I120" s="37"/>
+      <c r="J120" s="37"/>
+      <c r="K120" s="36"/>
+      <c r="L120" s="37"/>
       <c r="Q120" s="21">
         <v>5.0924734901751069E-2</v>
       </c>
@@ -11083,20 +11144,20 @@
       </c>
     </row>
     <row r="121" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A121" s="34"/>
+      <c r="A121" s="35"/>
       <c r="B121" s="20">
         <v>5000</v>
       </c>
-      <c r="C121" s="35"/>
-      <c r="D121" s="35"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="33"/>
-      <c r="G121" s="33"/>
-      <c r="H121" s="33"/>
-      <c r="I121" s="33"/>
-      <c r="J121" s="33"/>
-      <c r="K121" s="32"/>
-      <c r="L121" s="33"/>
+      <c r="C121" s="38"/>
+      <c r="D121" s="38"/>
+      <c r="E121" s="37"/>
+      <c r="F121" s="37"/>
+      <c r="G121" s="37"/>
+      <c r="H121" s="37"/>
+      <c r="I121" s="37"/>
+      <c r="J121" s="37"/>
+      <c r="K121" s="36"/>
+      <c r="L121" s="37"/>
       <c r="Q121" s="21">
         <v>4.265213538910461E-2</v>
       </c>
@@ -11139,34 +11200,34 @@
       </c>
     </row>
     <row r="122" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A122" s="34" t="s">
+      <c r="A122" s="35" t="s">
         <v>62</v>
       </c>
       <c r="B122" s="20">
         <v>500</v>
       </c>
-      <c r="C122" s="35"/>
-      <c r="D122" s="35"/>
-      <c r="E122" s="33" t="s">
+      <c r="C122" s="38"/>
+      <c r="D122" s="38"/>
+      <c r="E122" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F122" s="33" t="s">
+      <c r="F122" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G122" s="33" t="s">
+      <c r="G122" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H122" s="33" t="s">
+      <c r="H122" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I122" s="33" t="s">
+      <c r="I122" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="J122" s="33" t="s">
+      <c r="J122" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K122" s="32"/>
-      <c r="L122" s="33"/>
+      <c r="K122" s="36"/>
+      <c r="L122" s="37"/>
       <c r="Q122" s="21">
         <v>8.9658537610427358E-2</v>
       </c>
@@ -11209,20 +11270,20 @@
       </c>
     </row>
     <row r="123" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A123" s="34"/>
+      <c r="A123" s="35"/>
       <c r="B123" s="20">
         <v>1000</v>
       </c>
-      <c r="C123" s="35"/>
-      <c r="D123" s="35"/>
-      <c r="E123" s="33"/>
-      <c r="F123" s="33"/>
-      <c r="G123" s="33"/>
-      <c r="H123" s="33"/>
-      <c r="I123" s="33"/>
-      <c r="J123" s="33"/>
-      <c r="K123" s="32"/>
-      <c r="L123" s="33"/>
+      <c r="C123" s="38"/>
+      <c r="D123" s="38"/>
+      <c r="E123" s="37"/>
+      <c r="F123" s="37"/>
+      <c r="G123" s="37"/>
+      <c r="H123" s="37"/>
+      <c r="I123" s="37"/>
+      <c r="J123" s="37"/>
+      <c r="K123" s="36"/>
+      <c r="L123" s="37"/>
       <c r="Q123" s="21">
         <v>7.6114428737574763E-2</v>
       </c>
@@ -11265,20 +11326,20 @@
       </c>
     </row>
     <row r="124" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A124" s="34"/>
+      <c r="A124" s="35"/>
       <c r="B124" s="20">
         <v>2000</v>
       </c>
-      <c r="C124" s="35"/>
-      <c r="D124" s="35"/>
-      <c r="E124" s="33"/>
-      <c r="F124" s="33"/>
-      <c r="G124" s="33"/>
-      <c r="H124" s="33"/>
-      <c r="I124" s="33"/>
-      <c r="J124" s="33"/>
-      <c r="K124" s="32"/>
-      <c r="L124" s="33"/>
+      <c r="C124" s="38"/>
+      <c r="D124" s="38"/>
+      <c r="E124" s="37"/>
+      <c r="F124" s="37"/>
+      <c r="G124" s="37"/>
+      <c r="H124" s="37"/>
+      <c r="I124" s="37"/>
+      <c r="J124" s="37"/>
+      <c r="K124" s="36"/>
+      <c r="L124" s="37"/>
       <c r="Q124" s="21">
         <v>6.6046132662835003E-2</v>
       </c>
@@ -11321,20 +11382,20 @@
       </c>
     </row>
     <row r="125" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A125" s="34"/>
+      <c r="A125" s="35"/>
       <c r="B125" s="20">
         <v>5000</v>
       </c>
-      <c r="C125" s="35"/>
-      <c r="D125" s="35"/>
-      <c r="E125" s="33"/>
-      <c r="F125" s="33"/>
-      <c r="G125" s="33"/>
-      <c r="H125" s="33"/>
-      <c r="I125" s="33"/>
-      <c r="J125" s="33"/>
-      <c r="K125" s="32"/>
-      <c r="L125" s="33"/>
+      <c r="C125" s="38"/>
+      <c r="D125" s="38"/>
+      <c r="E125" s="37"/>
+      <c r="F125" s="37"/>
+      <c r="G125" s="37"/>
+      <c r="H125" s="37"/>
+      <c r="I125" s="37"/>
+      <c r="J125" s="37"/>
+      <c r="K125" s="36"/>
+      <c r="L125" s="37"/>
       <c r="Q125" s="21">
         <v>5.5689497333012518E-2</v>
       </c>
@@ -11377,34 +11438,34 @@
       </c>
     </row>
     <row r="126" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A126" s="34" t="s">
+      <c r="A126" s="35" t="s">
         <v>63</v>
       </c>
       <c r="B126" s="20">
         <v>500</v>
       </c>
-      <c r="C126" s="35"/>
-      <c r="D126" s="35"/>
-      <c r="E126" s="33" t="s">
+      <c r="C126" s="38"/>
+      <c r="D126" s="38"/>
+      <c r="E126" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F126" s="33" t="s">
+      <c r="F126" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G126" s="33" t="s">
+      <c r="G126" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H126" s="33" t="s">
+      <c r="H126" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I126" s="33" t="s">
+      <c r="I126" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="J126" s="33" t="s">
+      <c r="J126" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K126" s="32"/>
-      <c r="L126" s="33"/>
+      <c r="K126" s="36"/>
+      <c r="L126" s="37"/>
       <c r="Q126" s="21">
         <v>4.6134437618808748E-2</v>
       </c>
@@ -11447,20 +11508,20 @@
       </c>
     </row>
     <row r="127" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A127" s="34"/>
+      <c r="A127" s="35"/>
       <c r="B127" s="20">
         <v>1000</v>
       </c>
-      <c r="C127" s="35"/>
-      <c r="D127" s="35"/>
-      <c r="E127" s="33"/>
-      <c r="F127" s="33"/>
-      <c r="G127" s="33"/>
-      <c r="H127" s="33"/>
-      <c r="I127" s="33"/>
-      <c r="J127" s="33"/>
-      <c r="K127" s="32"/>
-      <c r="L127" s="33"/>
+      <c r="C127" s="38"/>
+      <c r="D127" s="38"/>
+      <c r="E127" s="37"/>
+      <c r="F127" s="37"/>
+      <c r="G127" s="37"/>
+      <c r="H127" s="37"/>
+      <c r="I127" s="37"/>
+      <c r="J127" s="37"/>
+      <c r="K127" s="36"/>
+      <c r="L127" s="37"/>
       <c r="Q127" s="21">
         <v>3.8065453074537847E-2</v>
       </c>
@@ -11503,20 +11564,20 @@
       </c>
     </row>
     <row r="128" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A128" s="34"/>
+      <c r="A128" s="35"/>
       <c r="B128" s="20">
         <v>2000</v>
       </c>
-      <c r="C128" s="35"/>
-      <c r="D128" s="35"/>
-      <c r="E128" s="33"/>
-      <c r="F128" s="33"/>
-      <c r="G128" s="33"/>
-      <c r="H128" s="33"/>
-      <c r="I128" s="33"/>
-      <c r="J128" s="33"/>
-      <c r="K128" s="32"/>
-      <c r="L128" s="33"/>
+      <c r="C128" s="38"/>
+      <c r="D128" s="38"/>
+      <c r="E128" s="37"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="37"/>
+      <c r="H128" s="37"/>
+      <c r="I128" s="37"/>
+      <c r="J128" s="37"/>
+      <c r="K128" s="36"/>
+      <c r="L128" s="37"/>
       <c r="Q128" s="21">
         <v>3.043759949668352E-2</v>
       </c>
@@ -11559,20 +11620,20 @@
       </c>
     </row>
     <row r="129" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A129" s="34"/>
+      <c r="A129" s="35"/>
       <c r="B129" s="20">
         <v>5000</v>
       </c>
-      <c r="C129" s="35"/>
-      <c r="D129" s="35"/>
-      <c r="E129" s="33"/>
-      <c r="F129" s="33"/>
-      <c r="G129" s="33"/>
-      <c r="H129" s="33"/>
-      <c r="I129" s="33"/>
-      <c r="J129" s="33"/>
-      <c r="K129" s="32"/>
-      <c r="L129" s="33"/>
+      <c r="C129" s="38"/>
+      <c r="D129" s="38"/>
+      <c r="E129" s="37"/>
+      <c r="F129" s="37"/>
+      <c r="G129" s="37"/>
+      <c r="H129" s="37"/>
+      <c r="I129" s="37"/>
+      <c r="J129" s="37"/>
+      <c r="K129" s="36"/>
+      <c r="L129" s="37"/>
       <c r="Q129" s="21">
         <v>2.338570877260181E-2</v>
       </c>
@@ -11615,34 +11676,34 @@
       </c>
     </row>
     <row r="130" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A130" s="34" t="s">
+      <c r="A130" s="35" t="s">
         <v>64</v>
       </c>
       <c r="B130" s="20">
         <v>500</v>
       </c>
-      <c r="C130" s="35"/>
-      <c r="D130" s="35"/>
-      <c r="E130" s="33" t="s">
+      <c r="C130" s="38"/>
+      <c r="D130" s="38"/>
+      <c r="E130" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F130" s="33" t="s">
+      <c r="F130" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G130" s="33" t="s">
+      <c r="G130" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H130" s="33" t="s">
+      <c r="H130" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I130" s="33" t="s">
+      <c r="I130" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="J130" s="33" t="s">
+      <c r="J130" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K130" s="32"/>
-      <c r="L130" s="33"/>
+      <c r="K130" s="36"/>
+      <c r="L130" s="37"/>
       <c r="Q130" s="21">
         <v>0.1152570606920717</v>
       </c>
@@ -11685,20 +11746,20 @@
       </c>
     </row>
     <row r="131" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A131" s="34"/>
+      <c r="A131" s="35"/>
       <c r="B131" s="20">
         <v>1000</v>
       </c>
-      <c r="C131" s="35"/>
-      <c r="D131" s="35"/>
-      <c r="E131" s="33"/>
-      <c r="F131" s="33"/>
-      <c r="G131" s="33"/>
-      <c r="H131" s="33"/>
-      <c r="I131" s="33"/>
-      <c r="J131" s="33"/>
-      <c r="K131" s="32"/>
-      <c r="L131" s="33"/>
+      <c r="C131" s="38"/>
+      <c r="D131" s="38"/>
+      <c r="E131" s="37"/>
+      <c r="F131" s="37"/>
+      <c r="G131" s="37"/>
+      <c r="H131" s="37"/>
+      <c r="I131" s="37"/>
+      <c r="J131" s="37"/>
+      <c r="K131" s="36"/>
+      <c r="L131" s="37"/>
       <c r="Q131" s="21">
         <v>0.1002042742564699</v>
       </c>
@@ -11741,20 +11802,20 @@
       </c>
     </row>
     <row r="132" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A132" s="34"/>
+      <c r="A132" s="35"/>
       <c r="B132" s="20">
         <v>2000</v>
       </c>
-      <c r="C132" s="35"/>
-      <c r="D132" s="35"/>
-      <c r="E132" s="33"/>
-      <c r="F132" s="33"/>
-      <c r="G132" s="33"/>
-      <c r="H132" s="33"/>
-      <c r="I132" s="33"/>
-      <c r="J132" s="33"/>
-      <c r="K132" s="32"/>
-      <c r="L132" s="33"/>
+      <c r="C132" s="38"/>
+      <c r="D132" s="38"/>
+      <c r="E132" s="37"/>
+      <c r="F132" s="37"/>
+      <c r="G132" s="37"/>
+      <c r="H132" s="37"/>
+      <c r="I132" s="37"/>
+      <c r="J132" s="37"/>
+      <c r="K132" s="36"/>
+      <c r="L132" s="37"/>
       <c r="Q132" s="21">
         <v>8.7017300915142759E-2</v>
       </c>
@@ -11797,20 +11858,20 @@
       </c>
     </row>
     <row r="133" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A133" s="34"/>
+      <c r="A133" s="35"/>
       <c r="B133" s="20">
         <v>5000</v>
       </c>
-      <c r="C133" s="35"/>
-      <c r="D133" s="35"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="33"/>
-      <c r="G133" s="33"/>
-      <c r="H133" s="33"/>
-      <c r="I133" s="33"/>
-      <c r="J133" s="33"/>
-      <c r="K133" s="32"/>
-      <c r="L133" s="33"/>
+      <c r="C133" s="38"/>
+      <c r="D133" s="38"/>
+      <c r="E133" s="37"/>
+      <c r="F133" s="37"/>
+      <c r="G133" s="37"/>
+      <c r="H133" s="37"/>
+      <c r="I133" s="37"/>
+      <c r="J133" s="37"/>
+      <c r="K133" s="36"/>
+      <c r="L133" s="37"/>
       <c r="Q133" s="21">
         <v>7.3756359670079888E-2</v>
       </c>
@@ -11853,34 +11914,34 @@
       </c>
     </row>
     <row r="134" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A134" s="34" t="s">
+      <c r="A134" s="35" t="s">
         <v>65</v>
       </c>
       <c r="B134" s="23">
         <v>500</v>
       </c>
-      <c r="C134" s="35"/>
-      <c r="D134" s="35"/>
-      <c r="E134" s="33" t="s">
+      <c r="C134" s="38"/>
+      <c r="D134" s="38"/>
+      <c r="E134" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F134" s="33" t="s">
+      <c r="F134" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G134" s="33" t="s">
+      <c r="G134" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H134" s="33" t="s">
+      <c r="H134" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I134" s="33" t="s">
+      <c r="I134" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="J134" s="33" t="s">
+      <c r="J134" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K134" s="32"/>
-      <c r="L134" s="33"/>
+      <c r="K134" s="36"/>
+      <c r="L134" s="37"/>
       <c r="Q134" s="21">
         <v>2.498125608872476E-2</v>
       </c>
@@ -11923,20 +11984,20 @@
       </c>
     </row>
     <row r="135" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A135" s="34"/>
+      <c r="A135" s="35"/>
       <c r="B135" s="23">
         <v>1000</v>
       </c>
-      <c r="C135" s="35"/>
-      <c r="D135" s="35"/>
-      <c r="E135" s="33"/>
-      <c r="F135" s="33"/>
-      <c r="G135" s="33"/>
-      <c r="H135" s="33"/>
-      <c r="I135" s="33"/>
-      <c r="J135" s="33"/>
-      <c r="K135" s="32"/>
-      <c r="L135" s="33"/>
+      <c r="C135" s="38"/>
+      <c r="D135" s="38"/>
+      <c r="E135" s="37"/>
+      <c r="F135" s="37"/>
+      <c r="G135" s="37"/>
+      <c r="H135" s="37"/>
+      <c r="I135" s="37"/>
+      <c r="J135" s="37"/>
+      <c r="K135" s="36"/>
+      <c r="L135" s="37"/>
       <c r="Q135" s="21">
         <v>1.218336174181304E-2</v>
       </c>
@@ -11979,20 +12040,20 @@
       </c>
     </row>
     <row r="136" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A136" s="34"/>
+      <c r="A136" s="35"/>
       <c r="B136" s="23">
         <v>2000</v>
       </c>
-      <c r="C136" s="35"/>
-      <c r="D136" s="35"/>
-      <c r="E136" s="33"/>
-      <c r="F136" s="33"/>
-      <c r="G136" s="33"/>
-      <c r="H136" s="33"/>
-      <c r="I136" s="33"/>
-      <c r="J136" s="33"/>
-      <c r="K136" s="32"/>
-      <c r="L136" s="33"/>
+      <c r="C136" s="38"/>
+      <c r="D136" s="38"/>
+      <c r="E136" s="37"/>
+      <c r="F136" s="37"/>
+      <c r="G136" s="37"/>
+      <c r="H136" s="37"/>
+      <c r="I136" s="37"/>
+      <c r="J136" s="37"/>
+      <c r="K136" s="36"/>
+      <c r="L136" s="37"/>
       <c r="Q136" s="21">
         <v>1.069088768625274E-3</v>
       </c>
@@ -12035,20 +12096,20 @@
       </c>
     </row>
     <row r="137" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A137" s="34"/>
+      <c r="A137" s="35"/>
       <c r="B137" s="23">
         <v>5000</v>
       </c>
-      <c r="C137" s="35"/>
-      <c r="D137" s="35"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="33"/>
-      <c r="I137" s="33"/>
-      <c r="J137" s="33"/>
-      <c r="K137" s="32"/>
-      <c r="L137" s="33"/>
+      <c r="C137" s="38"/>
+      <c r="D137" s="38"/>
+      <c r="E137" s="37"/>
+      <c r="F137" s="37"/>
+      <c r="G137" s="37"/>
+      <c r="H137" s="37"/>
+      <c r="I137" s="37"/>
+      <c r="J137" s="37"/>
+      <c r="K137" s="36"/>
+      <c r="L137" s="37"/>
       <c r="Q137" s="21">
         <v>-9.1371109484246621E-3</v>
       </c>
@@ -12091,34 +12152,34 @@
       </c>
     </row>
     <row r="138" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A138" s="34" t="s">
+      <c r="A138" s="35" t="s">
         <v>66</v>
       </c>
       <c r="B138" s="23">
         <v>500</v>
       </c>
-      <c r="C138" s="35"/>
-      <c r="D138" s="35"/>
-      <c r="E138" s="33" t="s">
+      <c r="C138" s="38"/>
+      <c r="D138" s="38"/>
+      <c r="E138" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F138" s="33" t="s">
+      <c r="F138" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G138" s="33" t="s">
+      <c r="G138" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H138" s="33" t="s">
+      <c r="H138" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I138" s="33" t="s">
+      <c r="I138" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="J138" s="33" t="s">
+      <c r="J138" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K138" s="32"/>
-      <c r="L138" s="33"/>
+      <c r="K138" s="36"/>
+      <c r="L138" s="37"/>
       <c r="Q138" s="21">
         <v>-0.17738453448581121</v>
       </c>
@@ -12161,20 +12222,20 @@
       </c>
     </row>
     <row r="139" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A139" s="34"/>
+      <c r="A139" s="35"/>
       <c r="B139" s="23">
         <v>1000</v>
       </c>
-      <c r="C139" s="35"/>
-      <c r="D139" s="35"/>
-      <c r="E139" s="33"/>
-      <c r="F139" s="33"/>
-      <c r="G139" s="33"/>
-      <c r="H139" s="33"/>
-      <c r="I139" s="33"/>
-      <c r="J139" s="33"/>
-      <c r="K139" s="32"/>
-      <c r="L139" s="33"/>
+      <c r="C139" s="38"/>
+      <c r="D139" s="38"/>
+      <c r="E139" s="37"/>
+      <c r="F139" s="37"/>
+      <c r="G139" s="37"/>
+      <c r="H139" s="37"/>
+      <c r="I139" s="37"/>
+      <c r="J139" s="37"/>
+      <c r="K139" s="36"/>
+      <c r="L139" s="37"/>
       <c r="Q139" s="21">
         <v>-0.18586597930849791</v>
       </c>
@@ -12217,20 +12278,20 @@
       </c>
     </row>
     <row r="140" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A140" s="34"/>
+      <c r="A140" s="35"/>
       <c r="B140" s="23">
         <v>2000</v>
       </c>
-      <c r="C140" s="35"/>
-      <c r="D140" s="35"/>
-      <c r="E140" s="33"/>
-      <c r="F140" s="33"/>
-      <c r="G140" s="33"/>
-      <c r="H140" s="33"/>
-      <c r="I140" s="33"/>
-      <c r="J140" s="33"/>
-      <c r="K140" s="32"/>
-      <c r="L140" s="33"/>
+      <c r="C140" s="38"/>
+      <c r="D140" s="38"/>
+      <c r="E140" s="37"/>
+      <c r="F140" s="37"/>
+      <c r="G140" s="37"/>
+      <c r="H140" s="37"/>
+      <c r="I140" s="37"/>
+      <c r="J140" s="37"/>
+      <c r="K140" s="36"/>
+      <c r="L140" s="37"/>
       <c r="Q140" s="21">
         <v>-0.19495060616699669</v>
       </c>
@@ -12273,20 +12334,20 @@
       </c>
     </row>
     <row r="141" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A141" s="34"/>
+      <c r="A141" s="35"/>
       <c r="B141" s="23">
         <v>5000</v>
       </c>
-      <c r="C141" s="35"/>
-      <c r="D141" s="35"/>
-      <c r="E141" s="33"/>
-      <c r="F141" s="33"/>
-      <c r="G141" s="33"/>
-      <c r="H141" s="33"/>
-      <c r="I141" s="33"/>
-      <c r="J141" s="33"/>
-      <c r="K141" s="32"/>
-      <c r="L141" s="33"/>
+      <c r="C141" s="38"/>
+      <c r="D141" s="38"/>
+      <c r="E141" s="37"/>
+      <c r="F141" s="37"/>
+      <c r="G141" s="37"/>
+      <c r="H141" s="37"/>
+      <c r="I141" s="37"/>
+      <c r="J141" s="37"/>
+      <c r="K141" s="36"/>
+      <c r="L141" s="37"/>
       <c r="Q141" s="21">
         <v>-0.2051528858534353</v>
       </c>
@@ -12347,41 +12408,41 @@
       <c r="Q147"/>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A148" s="34" t="s">
+      <c r="A148" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B148" s="34"/>
-      <c r="C148" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D148" s="34"/>
-      <c r="E148" s="34" t="s">
+      <c r="B148" s="35"/>
+      <c r="C148" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D148" s="35"/>
+      <c r="E148" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F148" s="34"/>
-      <c r="G148" s="34" t="s">
+      <c r="F148" s="35"/>
+      <c r="G148" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H148" s="34"/>
-      <c r="I148" s="34" t="s">
+      <c r="H148" s="35"/>
+      <c r="I148" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J148" s="34"/>
-      <c r="K148" s="34" t="s">
+      <c r="J148" s="35"/>
+      <c r="K148" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="L148" s="34"/>
-      <c r="M148" s="35" t="s">
+      <c r="L148" s="35"/>
+      <c r="M148" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="N148" s="35"/>
+      <c r="N148" s="38"/>
       <c r="P148" s="11"/>
       <c r="Q148"/>
       <c r="R148" s="11"/>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A149" s="34"/>
-      <c r="B149" s="34"/>
+      <c r="A149" s="35"/>
+      <c r="B149" s="35"/>
       <c r="C149" s="12" t="s">
         <v>7</v>
       </c>
@@ -12425,7 +12486,7 @@
       <c r="R149" s="12"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A150" s="34" t="s">
+      <c r="A150" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B150" s="11">
@@ -12437,18 +12498,18 @@
       <c r="F150" s="13"/>
       <c r="G150" s="12"/>
       <c r="H150" s="13"/>
-      <c r="I150" s="35">
+      <c r="I150" s="38">
         <v>0.22309999999999999</v>
       </c>
-      <c r="J150" s="33">
+      <c r="J150" s="37">
         <v>0.17599999999999999</v>
       </c>
-      <c r="K150" s="32"/>
-      <c r="L150" s="33"/>
+      <c r="K150" s="36"/>
+      <c r="L150" s="37"/>
       <c r="Q150"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A151" s="34"/>
+      <c r="A151" s="35"/>
       <c r="B151" s="11">
         <v>1000</v>
       </c>
@@ -12458,14 +12519,14 @@
       <c r="F151" s="13"/>
       <c r="G151" s="12"/>
       <c r="H151" s="13"/>
-      <c r="I151" s="35"/>
-      <c r="J151" s="33"/>
-      <c r="K151" s="32"/>
-      <c r="L151" s="33"/>
+      <c r="I151" s="38"/>
+      <c r="J151" s="37"/>
+      <c r="K151" s="36"/>
+      <c r="L151" s="37"/>
       <c r="Q151"/>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A152" s="34"/>
+      <c r="A152" s="35"/>
       <c r="B152" s="11">
         <v>2000</v>
       </c>
@@ -12475,14 +12536,14 @@
       <c r="F152" s="13"/>
       <c r="G152" s="12"/>
       <c r="H152" s="13"/>
-      <c r="I152" s="35"/>
-      <c r="J152" s="33"/>
-      <c r="K152" s="32"/>
-      <c r="L152" s="33"/>
+      <c r="I152" s="38"/>
+      <c r="J152" s="37"/>
+      <c r="K152" s="36"/>
+      <c r="L152" s="37"/>
       <c r="Q152"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A153" s="34"/>
+      <c r="A153" s="35"/>
       <c r="B153" s="11">
         <v>5000</v>
       </c>
@@ -12492,14 +12553,14 @@
       <c r="F153" s="13"/>
       <c r="G153" s="12"/>
       <c r="H153" s="13"/>
-      <c r="I153" s="35"/>
-      <c r="J153" s="33"/>
-      <c r="K153" s="32"/>
-      <c r="L153" s="33"/>
+      <c r="I153" s="38"/>
+      <c r="J153" s="37"/>
+      <c r="K153" s="36"/>
+      <c r="L153" s="37"/>
       <c r="Q153"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A154" s="34" t="s">
+      <c r="A154" s="35" t="s">
         <v>35</v>
       </c>
       <c r="B154" s="11">
@@ -12511,14 +12572,14 @@
       <c r="F154" s="13"/>
       <c r="G154" s="12"/>
       <c r="H154" s="13"/>
-      <c r="I154" s="35"/>
-      <c r="J154" s="33"/>
-      <c r="K154" s="32"/>
-      <c r="L154" s="33"/>
+      <c r="I154" s="38"/>
+      <c r="J154" s="37"/>
+      <c r="K154" s="36"/>
+      <c r="L154" s="37"/>
       <c r="Q154"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A155" s="34"/>
+      <c r="A155" s="35"/>
       <c r="B155" s="11">
         <v>1000</v>
       </c>
@@ -12528,14 +12589,14 @@
       <c r="F155" s="13"/>
       <c r="G155" s="12"/>
       <c r="H155" s="13"/>
-      <c r="I155" s="35"/>
-      <c r="J155" s="33"/>
-      <c r="K155" s="32"/>
-      <c r="L155" s="33"/>
+      <c r="I155" s="38"/>
+      <c r="J155" s="37"/>
+      <c r="K155" s="36"/>
+      <c r="L155" s="37"/>
       <c r="Q155"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A156" s="34"/>
+      <c r="A156" s="35"/>
       <c r="B156" s="11">
         <v>2000</v>
       </c>
@@ -12545,14 +12606,14 @@
       <c r="F156" s="13"/>
       <c r="G156" s="12"/>
       <c r="H156" s="13"/>
-      <c r="I156" s="35"/>
-      <c r="J156" s="33"/>
-      <c r="K156" s="32"/>
-      <c r="L156" s="33"/>
+      <c r="I156" s="38"/>
+      <c r="J156" s="37"/>
+      <c r="K156" s="36"/>
+      <c r="L156" s="37"/>
       <c r="Q156"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A157" s="34"/>
+      <c r="A157" s="35"/>
       <c r="B157" s="11">
         <v>5000</v>
       </c>
@@ -12562,14 +12623,14 @@
       <c r="F157" s="13"/>
       <c r="G157" s="12"/>
       <c r="H157" s="13"/>
-      <c r="I157" s="35"/>
-      <c r="J157" s="33"/>
-      <c r="K157" s="32"/>
-      <c r="L157" s="33"/>
+      <c r="I157" s="38"/>
+      <c r="J157" s="37"/>
+      <c r="K157" s="36"/>
+      <c r="L157" s="37"/>
       <c r="Q157"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A158" s="34" t="s">
+      <c r="A158" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B158" s="11">
@@ -12581,18 +12642,18 @@
       <c r="F158" s="13"/>
       <c r="G158" s="12"/>
       <c r="H158" s="13"/>
-      <c r="I158" s="35">
+      <c r="I158" s="38">
         <v>0.26700000000000002</v>
       </c>
-      <c r="J158" s="33">
+      <c r="J158" s="37">
         <v>0.435</v>
       </c>
-      <c r="K158" s="32"/>
-      <c r="L158" s="33"/>
+      <c r="K158" s="36"/>
+      <c r="L158" s="37"/>
       <c r="Q158"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A159" s="34"/>
+      <c r="A159" s="35"/>
       <c r="B159" s="11">
         <v>1000</v>
       </c>
@@ -12602,14 +12663,14 @@
       <c r="F159" s="13"/>
       <c r="G159" s="12"/>
       <c r="H159" s="13"/>
-      <c r="I159" s="35"/>
-      <c r="J159" s="33"/>
-      <c r="K159" s="32"/>
-      <c r="L159" s="33"/>
+      <c r="I159" s="38"/>
+      <c r="J159" s="37"/>
+      <c r="K159" s="36"/>
+      <c r="L159" s="37"/>
       <c r="Q159"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A160" s="34"/>
+      <c r="A160" s="35"/>
       <c r="B160" s="11">
         <v>2000</v>
       </c>
@@ -12619,14 +12680,14 @@
       <c r="F160" s="13"/>
       <c r="G160" s="12"/>
       <c r="H160" s="13"/>
-      <c r="I160" s="35"/>
-      <c r="J160" s="33"/>
-      <c r="K160" s="32"/>
-      <c r="L160" s="33"/>
+      <c r="I160" s="38"/>
+      <c r="J160" s="37"/>
+      <c r="K160" s="36"/>
+      <c r="L160" s="37"/>
       <c r="Q160"/>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A161" s="34"/>
+      <c r="A161" s="35"/>
       <c r="B161" s="11">
         <v>5000</v>
       </c>
@@ -12636,14 +12697,14 @@
       <c r="F161" s="13"/>
       <c r="G161" s="12"/>
       <c r="H161" s="13"/>
-      <c r="I161" s="35"/>
-      <c r="J161" s="33"/>
-      <c r="K161" s="32"/>
-      <c r="L161" s="33"/>
+      <c r="I161" s="38"/>
+      <c r="J161" s="37"/>
+      <c r="K161" s="36"/>
+      <c r="L161" s="37"/>
       <c r="Q161"/>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A162" s="34" t="s">
+      <c r="A162" s="35" t="s">
         <v>36</v>
       </c>
       <c r="B162" s="11">
@@ -12655,14 +12716,14 @@
       <c r="F162" s="13"/>
       <c r="G162" s="12"/>
       <c r="H162" s="13"/>
-      <c r="I162" s="35"/>
-      <c r="J162" s="33"/>
-      <c r="K162" s="32"/>
-      <c r="L162" s="33"/>
+      <c r="I162" s="38"/>
+      <c r="J162" s="37"/>
+      <c r="K162" s="36"/>
+      <c r="L162" s="37"/>
       <c r="Q162"/>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A163" s="34"/>
+      <c r="A163" s="35"/>
       <c r="B163" s="11">
         <v>1000</v>
       </c>
@@ -12672,14 +12733,14 @@
       <c r="F163" s="13"/>
       <c r="G163" s="12"/>
       <c r="H163" s="13"/>
-      <c r="I163" s="35"/>
-      <c r="J163" s="33"/>
-      <c r="K163" s="32"/>
-      <c r="L163" s="33"/>
+      <c r="I163" s="38"/>
+      <c r="J163" s="37"/>
+      <c r="K163" s="36"/>
+      <c r="L163" s="37"/>
       <c r="Q163"/>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A164" s="34"/>
+      <c r="A164" s="35"/>
       <c r="B164" s="11">
         <v>2000</v>
       </c>
@@ -12689,14 +12750,14 @@
       <c r="F164" s="13"/>
       <c r="G164" s="12"/>
       <c r="H164" s="13"/>
-      <c r="I164" s="35"/>
-      <c r="J164" s="33"/>
-      <c r="K164" s="32"/>
-      <c r="L164" s="33"/>
+      <c r="I164" s="38"/>
+      <c r="J164" s="37"/>
+      <c r="K164" s="36"/>
+      <c r="L164" s="37"/>
       <c r="Q164"/>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A165" s="34"/>
+      <c r="A165" s="35"/>
       <c r="B165" s="11">
         <v>5000</v>
       </c>
@@ -12706,14 +12767,14 @@
       <c r="F165" s="13"/>
       <c r="G165" s="12"/>
       <c r="H165" s="13"/>
-      <c r="I165" s="35"/>
-      <c r="J165" s="33"/>
-      <c r="K165" s="32"/>
-      <c r="L165" s="33"/>
+      <c r="I165" s="38"/>
+      <c r="J165" s="37"/>
+      <c r="K165" s="36"/>
+      <c r="L165" s="37"/>
       <c r="Q165"/>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A166" s="34" t="s">
+      <c r="A166" s="35" t="s">
         <v>37</v>
       </c>
       <c r="B166" s="11">
@@ -12725,14 +12786,14 @@
       <c r="F166" s="13"/>
       <c r="G166" s="12"/>
       <c r="H166" s="13"/>
-      <c r="I166" s="35"/>
-      <c r="J166" s="33"/>
-      <c r="K166" s="32"/>
-      <c r="L166" s="33"/>
+      <c r="I166" s="38"/>
+      <c r="J166" s="37"/>
+      <c r="K166" s="36"/>
+      <c r="L166" s="37"/>
       <c r="Q166"/>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A167" s="34"/>
+      <c r="A167" s="35"/>
       <c r="B167" s="11">
         <v>1000</v>
       </c>
@@ -12742,14 +12803,14 @@
       <c r="F167" s="13"/>
       <c r="G167" s="12"/>
       <c r="H167" s="13"/>
-      <c r="I167" s="35"/>
-      <c r="J167" s="33"/>
-      <c r="K167" s="32"/>
-      <c r="L167" s="33"/>
+      <c r="I167" s="38"/>
+      <c r="J167" s="37"/>
+      <c r="K167" s="36"/>
+      <c r="L167" s="37"/>
       <c r="Q167"/>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A168" s="34"/>
+      <c r="A168" s="35"/>
       <c r="B168" s="11">
         <v>2000</v>
       </c>
@@ -12759,14 +12820,14 @@
       <c r="F168" s="13"/>
       <c r="G168" s="12"/>
       <c r="H168" s="13"/>
-      <c r="I168" s="35"/>
-      <c r="J168" s="33"/>
-      <c r="K168" s="32"/>
-      <c r="L168" s="33"/>
+      <c r="I168" s="38"/>
+      <c r="J168" s="37"/>
+      <c r="K168" s="36"/>
+      <c r="L168" s="37"/>
       <c r="Q168"/>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A169" s="34"/>
+      <c r="A169" s="35"/>
       <c r="B169" s="11">
         <v>5000</v>
       </c>
@@ -12776,10 +12837,10 @@
       <c r="F169" s="13"/>
       <c r="G169" s="12"/>
       <c r="H169" s="13"/>
-      <c r="I169" s="35"/>
-      <c r="J169" s="33"/>
-      <c r="K169" s="32"/>
-      <c r="L169" s="33"/>
+      <c r="I169" s="38"/>
+      <c r="J169" s="37"/>
+      <c r="K169" s="36"/>
+      <c r="L169" s="37"/>
       <c r="Q169"/>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.25">
@@ -12804,27 +12865,27 @@
       <c r="Q176"/>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A177" s="34" t="s">
+      <c r="A177" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B177" s="34"/>
-      <c r="C177" s="34" t="s">
+      <c r="B177" s="35"/>
+      <c r="C177" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D177" s="34"/>
-      <c r="E177" s="34" t="s">
+      <c r="D177" s="35"/>
+      <c r="E177" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="F177" s="34"/>
-      <c r="G177" s="34" t="s">
+      <c r="F177" s="35"/>
+      <c r="G177" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H177" s="34"/>
+      <c r="H177" s="35"/>
       <c r="Q177"/>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A178" s="34"/>
-      <c r="B178" s="34"/>
+      <c r="A178" s="35"/>
+      <c r="B178" s="35"/>
       <c r="C178" s="3" t="s">
         <v>7</v>
       </c>
@@ -12846,7 +12907,7 @@
       <c r="Q178"/>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A179" s="34" t="s">
+      <c r="A179" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B179" s="11">
@@ -12855,21 +12916,21 @@
       <c r="Q179"/>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A180" s="34"/>
+      <c r="A180" s="35"/>
       <c r="B180" s="11">
         <v>1000</v>
       </c>
       <c r="Q180"/>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A181" s="34"/>
+      <c r="A181" s="35"/>
       <c r="B181" s="11">
         <v>2000</v>
       </c>
       <c r="Q181"/>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A182" s="34"/>
+      <c r="A182" s="35"/>
       <c r="B182" s="11">
         <v>5000</v>
       </c>
@@ -12953,148 +13014,865 @@
     <row r="208" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q208"/>
     </row>
-    <row r="209" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q209"/>
     </row>
-    <row r="210" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q210"/>
     </row>
-    <row r="211" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q211"/>
     </row>
-    <row r="212" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q212"/>
     </row>
-    <row r="213" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C213" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D213" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E213" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F213" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G213" s="34" t="s">
+        <v>74</v>
+      </c>
       <c r="Q213"/>
     </row>
-    <row r="214" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A214" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B214" s="32">
+        <v>0.40008654599999999</v>
+      </c>
+      <c r="C214" s="27">
+        <v>0.2892832382687377</v>
+      </c>
+      <c r="D214" s="27">
+        <v>0.27175064097611851</v>
+      </c>
+      <c r="E214" s="27">
+        <v>0.24674622405965929</v>
+      </c>
+      <c r="F214" s="27">
+        <v>0.29753239680522819</v>
+      </c>
+      <c r="G214" s="27">
+        <v>0.26827711799999998</v>
+      </c>
       <c r="Q214"/>
     </row>
-    <row r="215" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A215" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B215" s="32">
+        <v>0.58862202200000002</v>
+      </c>
+      <c r="C215" s="27">
+        <v>0.32165767326905942</v>
+      </c>
+      <c r="D215" s="27">
+        <v>0.32627074167787951</v>
+      </c>
+      <c r="E215" s="27">
+        <v>0.32851932503245201</v>
+      </c>
+      <c r="F215" s="27">
+        <v>0.30322811316974552</v>
+      </c>
+      <c r="G215" s="27">
+        <v>0.29983189100000002</v>
+      </c>
       <c r="Q215"/>
     </row>
-    <row r="216" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A216" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B216" s="32">
+        <v>1.061360836</v>
+      </c>
+      <c r="C216" s="27">
+        <v>0.29054014569552278</v>
+      </c>
+      <c r="D216" s="27">
+        <v>0.29668871543795328</v>
+      </c>
+      <c r="E216" s="27">
+        <v>0.28826017401690968</v>
+      </c>
+      <c r="F216" s="27">
+        <v>0.32171134102236859</v>
+      </c>
+      <c r="G216" s="27">
+        <v>0.30680843899999999</v>
+      </c>
       <c r="Q216"/>
     </row>
-    <row r="217" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A217" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B217" s="32">
+        <v>1.2644064189999999</v>
+      </c>
+      <c r="C217" s="27">
+        <v>0.32708267261454971</v>
+      </c>
+      <c r="D217" s="27">
+        <v>0.30450498646474722</v>
+      </c>
+      <c r="E217" s="27">
+        <v>0.31023297204131978</v>
+      </c>
+      <c r="F217" s="27">
+        <v>0.31379326041055339</v>
+      </c>
+      <c r="G217" s="27">
+        <v>0.30572949900000002</v>
+      </c>
       <c r="Q217"/>
     </row>
-    <row r="218" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A218" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B218" s="32">
+        <v>1.473956609</v>
+      </c>
+      <c r="C218" s="27">
+        <v>0.34189917219528099</v>
+      </c>
+      <c r="D218" s="27">
+        <v>0.34654234483800578</v>
+      </c>
+      <c r="E218" s="27">
+        <v>0.32933173630864998</v>
+      </c>
+      <c r="F218" s="27">
+        <v>0.3314459975238368</v>
+      </c>
+      <c r="G218" s="27">
+        <v>0.34235749300000001</v>
+      </c>
       <c r="Q218"/>
     </row>
-    <row r="219" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A219" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B219" s="32">
+        <v>2.183665323</v>
+      </c>
+      <c r="C219" s="27">
+        <v>0.2344846571402783</v>
+      </c>
+      <c r="D219" s="27">
+        <v>0.2163927585340083</v>
+      </c>
+      <c r="E219" s="27">
+        <v>0.19963319447087199</v>
+      </c>
+      <c r="F219" s="27">
+        <v>0.2130271996044209</v>
+      </c>
+      <c r="G219" s="27">
+        <v>0.200310717</v>
+      </c>
       <c r="Q219"/>
     </row>
-    <row r="220" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A220" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B220" s="32">
+        <v>3.6204953670000002</v>
+      </c>
+      <c r="C220" s="27">
+        <v>0.27820423733138389</v>
+      </c>
+      <c r="D220" s="27">
+        <v>0.24322662604857309</v>
+      </c>
+      <c r="E220" s="27">
+        <v>0.2442123588285646</v>
+      </c>
+      <c r="F220" s="27">
+        <v>0.25846177804895282</v>
+      </c>
+      <c r="G220" s="27">
+        <v>0.23920493600000001</v>
+      </c>
       <c r="Q220"/>
     </row>
-    <row r="221" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A221" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B221" s="32">
+        <v>14.999552270000001</v>
+      </c>
+      <c r="C221" s="27">
+        <v>0.16958795088549161</v>
+      </c>
+      <c r="D221" s="27">
+        <v>0.14196219138854349</v>
+      </c>
+      <c r="E221" s="27">
+        <v>0.12913810446165699</v>
+      </c>
+      <c r="F221" s="27">
+        <v>0.1428279261027369</v>
+      </c>
+      <c r="G221" s="27">
+        <v>0.13447785600000001</v>
+      </c>
       <c r="Q221"/>
     </row>
-    <row r="222" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q222"/>
-    </row>
-    <row r="223" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="30"/>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A223" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B223" s="32">
+        <v>0.14510345499999999</v>
+      </c>
+      <c r="C223" s="27">
+        <v>0.18378489630150341</v>
+      </c>
+      <c r="D223" s="27">
+        <v>0.17464134774530751</v>
+      </c>
+      <c r="E223" s="27">
+        <v>0.1762272893675311</v>
+      </c>
+      <c r="F223" s="27">
+        <v>0.14798455221533399</v>
+      </c>
+      <c r="G223" s="27">
+        <v>0.17622728900000001</v>
+      </c>
       <c r="Q223"/>
     </row>
-    <row r="224" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A224" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B224" s="32">
+        <v>0.56273667000000005</v>
+      </c>
+      <c r="C224" s="27">
+        <v>0.24943929541098589</v>
+      </c>
+      <c r="D224" s="27">
+        <v>0.28380928082851931</v>
+      </c>
+      <c r="E224" s="27">
+        <v>0.31099606478964509</v>
+      </c>
+      <c r="F224" s="27">
+        <v>0.29599030176708052</v>
+      </c>
+      <c r="G224" s="27">
+        <v>0.28766236499999998</v>
+      </c>
       <c r="Q224"/>
     </row>
-    <row r="225" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q225"/>
-    </row>
-    <row r="226" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="30"/>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A226" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B226" s="32">
+        <v>0.14570443599999999</v>
+      </c>
+      <c r="C226" s="27">
+        <v>0.31976610091779001</v>
+      </c>
+      <c r="D226" s="27">
+        <v>0.31871902006208253</v>
+      </c>
+      <c r="E226" s="27">
+        <v>0.31834811007346908</v>
+      </c>
+      <c r="F226" s="27">
+        <v>0.35136415226926743</v>
+      </c>
+      <c r="G226" s="27">
+        <v>0.36127777599999999</v>
+      </c>
       <c r="Q226"/>
     </row>
-    <row r="227" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q227"/>
-    </row>
-    <row r="228" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="30"/>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A228" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B228" s="32">
+        <v>0.85661417200000001</v>
+      </c>
+      <c r="C228" s="27">
+        <v>0.27111598958851252</v>
+      </c>
+      <c r="D228" s="27">
+        <v>0.26708474571987029</v>
+      </c>
+      <c r="E228" s="27">
+        <v>0.29256797430169468</v>
+      </c>
+      <c r="F228" s="27">
+        <v>0.22126244382512961</v>
+      </c>
+      <c r="G228" s="27">
+        <v>0.25247220999999997</v>
+      </c>
       <c r="Q228"/>
     </row>
-    <row r="229" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q229"/>
-    </row>
-    <row r="230" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="30"/>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A230" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B230" s="32">
+        <v>0.33624105500000001</v>
+      </c>
+      <c r="C230" s="27">
+        <v>0.46282099409303767</v>
+      </c>
+      <c r="D230" s="27">
+        <v>0.47458267233600382</v>
+      </c>
+      <c r="E230" s="27">
+        <v>0.45178206680113381</v>
+      </c>
+      <c r="F230" s="27">
+        <v>0.42988123236202408</v>
+      </c>
+      <c r="G230" s="27">
+        <v>0.41420674800000001</v>
+      </c>
       <c r="Q230"/>
     </row>
-    <row r="231" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A231" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B231" s="32">
+        <v>0.55940098800000004</v>
+      </c>
+      <c r="C231" s="27">
+        <v>0.44848679800537777</v>
+      </c>
+      <c r="D231" s="27">
+        <v>0.44396492438859908</v>
+      </c>
+      <c r="E231" s="27">
+        <v>0.40904727674970259</v>
+      </c>
+      <c r="F231" s="27">
+        <v>0.40578497865492807</v>
+      </c>
+      <c r="G231" s="27">
+        <v>0.42233438299999998</v>
+      </c>
       <c r="Q231"/>
     </row>
-    <row r="232" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A232" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B232" s="32">
+        <v>1.2136700869999999</v>
+      </c>
+      <c r="C232" s="27">
+        <v>0.31552917371076972</v>
+      </c>
+      <c r="D232" s="27">
+        <v>0.32367233396723422</v>
+      </c>
+      <c r="E232" s="27">
+        <v>0.3079042733917155</v>
+      </c>
+      <c r="F232" s="27">
+        <v>0.32500449937498149</v>
+      </c>
+      <c r="G232" s="27">
+        <v>0.31856289100000001</v>
+      </c>
       <c r="Q232"/>
     </row>
-    <row r="233" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q233"/>
-    </row>
-    <row r="234" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="30"/>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A234" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B234" s="32">
+        <v>6.6247606000000001E-2</v>
+      </c>
+      <c r="C234" s="27">
+        <v>0.2248946315682897</v>
+      </c>
+      <c r="D234" s="27">
+        <v>0.14346630092949991</v>
+      </c>
+      <c r="E234" s="27">
+        <v>0.1661991993274099</v>
+      </c>
+      <c r="F234" s="27">
+        <v>0.17038022715880241</v>
+      </c>
+      <c r="G234" s="27">
+        <v>0.172457375</v>
+      </c>
       <c r="Q234"/>
     </row>
-    <row r="235" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A235" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B235" s="32">
+        <v>0.108277607</v>
+      </c>
+      <c r="C235" s="27">
+        <v>7.5126141676082947E-2</v>
+      </c>
+      <c r="D235" s="27">
+        <v>8.4899032423407295E-2</v>
+      </c>
+      <c r="E235" s="27">
+        <v>0.1079249604947856</v>
+      </c>
+      <c r="F235" s="27">
+        <v>7.4358879540150719E-2</v>
+      </c>
+      <c r="G235" s="27">
+        <v>5.5206570000000003E-2</v>
+      </c>
       <c r="Q235"/>
     </row>
-    <row r="236" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A236" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B236" s="32">
+        <v>0.15771312700000001</v>
+      </c>
+      <c r="C236" s="27">
+        <v>7.5662672137763537E-2</v>
+      </c>
+      <c r="D236" s="27">
+        <v>6.2730454599775581E-2</v>
+      </c>
+      <c r="E236" s="27">
+        <v>6.1911177945839349E-2</v>
+      </c>
+      <c r="F236" s="27">
+        <v>4.8637438934194213E-2</v>
+      </c>
+      <c r="G236" s="27">
+        <v>4.2019236000000001E-2</v>
+      </c>
       <c r="Q236"/>
     </row>
-    <row r="237" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A237" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B237" s="32">
+        <v>0.13949985500000001</v>
+      </c>
+      <c r="C237" s="27">
+        <v>0.21895940390494589</v>
+      </c>
+      <c r="D237" s="27">
+        <v>0.25073284781346922</v>
+      </c>
+      <c r="E237" s="27">
+        <v>0.2490536181612753</v>
+      </c>
+      <c r="F237" s="27">
+        <v>0.25742571180964108</v>
+      </c>
+      <c r="G237" s="27">
+        <v>0.25732918199999999</v>
+      </c>
       <c r="Q237"/>
     </row>
-    <row r="238" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A238" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B238" s="32">
+        <v>0.24757762</v>
+      </c>
+      <c r="C238" s="27">
+        <v>0.27514968139690271</v>
+      </c>
+      <c r="D238" s="27">
+        <v>0.29432557498329431</v>
+      </c>
+      <c r="E238" s="27">
+        <v>0.2463327980723532</v>
+      </c>
+      <c r="F238" s="27">
+        <v>0.31930931630174608</v>
+      </c>
+      <c r="G238" s="27">
+        <v>0.27273470100000002</v>
+      </c>
       <c r="Q238"/>
     </row>
-    <row r="239" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A239" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B239" s="32">
+        <v>0.38667731300000002</v>
+      </c>
+      <c r="C239" s="27">
+        <v>0.27992967428714488</v>
+      </c>
+      <c r="D239" s="27">
+        <v>0.26379142418421048</v>
+      </c>
+      <c r="E239" s="27">
+        <v>0.24654862710076811</v>
+      </c>
+      <c r="F239" s="27">
+        <v>0.28362116693521638</v>
+      </c>
+      <c r="G239" s="27">
+        <v>0.26069091100000003</v>
+      </c>
       <c r="Q239"/>
     </row>
-    <row r="240" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A240" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B240" s="32">
+        <v>0.70550575299999996</v>
+      </c>
+      <c r="C240" s="27">
+        <v>8.4914621590649345E-2</v>
+      </c>
+      <c r="D240" s="27">
+        <v>0.1328423873920275</v>
+      </c>
+      <c r="E240" s="27">
+        <v>9.0372845344018418E-2</v>
+      </c>
+      <c r="F240" s="27">
+        <v>0.10670996516851571</v>
+      </c>
+      <c r="G240" s="27">
+        <v>8.4495116999999995E-2</v>
+      </c>
       <c r="Q240"/>
     </row>
-    <row r="241" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A241" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B241" s="32">
+        <v>0.43411111800000002</v>
+      </c>
+      <c r="C241" s="27">
+        <v>0.28435197381278632</v>
+      </c>
+      <c r="D241" s="27">
+        <v>0.27055751250587678</v>
+      </c>
+      <c r="E241" s="27">
+        <v>0.31786706537771608</v>
+      </c>
+      <c r="F241" s="27">
+        <v>0.28470670551658611</v>
+      </c>
+      <c r="G241" s="27">
+        <v>0.27636323600000001</v>
+      </c>
       <c r="Q241"/>
     </row>
-    <row r="242" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q242"/>
-    </row>
-    <row r="243" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="30"/>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A243" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B243" s="32">
+        <v>7.4053763999999994E-2</v>
+      </c>
+      <c r="C243" s="27">
+        <v>0.14545454545454539</v>
+      </c>
+      <c r="D243" s="27">
+        <v>0.14545454545454539</v>
+      </c>
+      <c r="E243" s="27">
+        <v>0.23636363636363639</v>
+      </c>
+      <c r="F243" s="27">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="G243" s="27">
+        <v>0.23636363599999999</v>
+      </c>
       <c r="Q243"/>
     </row>
-    <row r="244" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A244" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B244" s="32">
+        <v>0.18112969400000001</v>
+      </c>
+      <c r="C244" s="27">
+        <v>0.36666666666666659</v>
+      </c>
+      <c r="D244" s="27">
+        <v>0.20967741935483869</v>
+      </c>
+      <c r="E244" s="27">
+        <v>0.3827956989247312</v>
+      </c>
+      <c r="F244" s="27">
+        <v>0.33440860215053758</v>
+      </c>
+      <c r="G244" s="27">
+        <v>0.34946236600000002</v>
+      </c>
       <c r="Q244"/>
     </row>
-    <row r="245" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A245" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B245" s="32">
+        <v>0.18713450400000001</v>
+      </c>
+      <c r="C245" s="27">
+        <v>0.36309012875536478</v>
+      </c>
+      <c r="D245" s="27">
+        <v>0.40343347639484978</v>
+      </c>
+      <c r="E245" s="27">
+        <v>0.38540772532188838</v>
+      </c>
+      <c r="F245" s="27">
+        <v>0.38197424892703857</v>
+      </c>
+      <c r="G245" s="27">
+        <v>0.38197424899999999</v>
+      </c>
       <c r="Q245"/>
     </row>
-    <row r="246" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q246"/>
-    </row>
-    <row r="247" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="30"/>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A247" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B247" s="32">
+        <v>0.158353512</v>
+      </c>
+      <c r="C247" s="27">
+        <v>0.22194928225376059</v>
+      </c>
+      <c r="D247" s="27">
+        <v>0.2335264927387784</v>
+      </c>
+      <c r="E247" s="27">
+        <v>0.22747410254436559</v>
+      </c>
+      <c r="F247" s="27">
+        <v>0.23501563231783229</v>
+      </c>
+      <c r="G247" s="27">
+        <v>0.233125468</v>
+      </c>
       <c r="Q247"/>
     </row>
-    <row r="248" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A248" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B248" s="32">
+        <v>0.24160319099999999</v>
+      </c>
+      <c r="C248" s="27">
+        <v>0.25867539282578078</v>
+      </c>
+      <c r="D248" s="27">
+        <v>0.24302655491586189</v>
+      </c>
+      <c r="E248" s="27">
+        <v>0.2549614817137893</v>
+      </c>
+      <c r="F248" s="27">
+        <v>0.25573258147518202</v>
+      </c>
+      <c r="G248" s="27">
+        <v>0.260612171</v>
+      </c>
       <c r="Q248"/>
     </row>
-    <row r="249" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A249" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B249" s="32">
+        <v>0.382914488</v>
+      </c>
+      <c r="C249" s="27">
+        <v>0.28563542398801772</v>
+      </c>
+      <c r="D249" s="27">
+        <v>0.28225944231031352</v>
+      </c>
+      <c r="E249" s="27">
+        <v>0.26631707027934071</v>
+      </c>
+      <c r="F249" s="27">
+        <v>0.27898929510575959</v>
+      </c>
+      <c r="G249" s="27">
+        <v>0.27518378599999999</v>
+      </c>
       <c r="Q249"/>
     </row>
-    <row r="250" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A250" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B250" s="32">
+        <v>0.335590575</v>
+      </c>
+      <c r="C250" s="27">
+        <v>0.2077259597185396</v>
+      </c>
+      <c r="D250" s="27">
+        <v>0.20366030061530649</v>
+      </c>
+      <c r="E250" s="27">
+        <v>0.20478056981080561</v>
+      </c>
+      <c r="F250" s="27">
+        <v>0.21080444161511591</v>
+      </c>
+      <c r="G250" s="27">
+        <v>0.212989344</v>
+      </c>
       <c r="Q250"/>
     </row>
-    <row r="251" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A251" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B251" s="32">
+        <v>0.58474916700000001</v>
+      </c>
+      <c r="C251" s="27">
+        <v>0.29750634714703728</v>
+      </c>
+      <c r="D251" s="27">
+        <v>0.28311535747875272</v>
+      </c>
+      <c r="E251" s="27">
+        <v>0.2970499998502118</v>
+      </c>
+      <c r="F251" s="27">
+        <v>0.29564647426059809</v>
+      </c>
+      <c r="G251" s="27">
+        <v>0.29349159899999999</v>
+      </c>
       <c r="Q251"/>
     </row>
-    <row r="252" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A252" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B252" s="32">
+        <v>14.59910522</v>
+      </c>
+      <c r="C252" s="27">
+        <v>0.1124809925009938</v>
+      </c>
+      <c r="D252" s="27">
+        <v>9.3207662274107012E-2</v>
+      </c>
+      <c r="E252" s="27">
+        <v>8.1043267440006589E-2</v>
+      </c>
+      <c r="F252" s="27">
+        <v>9.2415121251928037E-2</v>
+      </c>
+      <c r="G252" s="27">
+        <v>7.4867774999999998E-2</v>
+      </c>
       <c r="Q252"/>
     </row>
-    <row r="253" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A253" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B253" s="32">
+        <v>68.42972451</v>
+      </c>
+      <c r="C253" s="27">
+        <v>-0.1061909769142908</v>
+      </c>
+      <c r="D253" s="27">
+        <v>-0.11877008130303569</v>
+      </c>
+      <c r="E253" s="27">
+        <v>-0.14574469709524809</v>
+      </c>
+      <c r="F253" s="27">
+        <v>-0.1379331098869799</v>
+      </c>
+      <c r="G253" s="27">
+        <v>-0.15249162799999999</v>
+      </c>
       <c r="Q253"/>
     </row>
-    <row r="254" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A254" s="40"/>
+      <c r="B254" s="33"/>
+      <c r="C254"/>
+      <c r="D254"/>
+      <c r="E254"/>
+      <c r="F254"/>
+      <c r="G254" s="34"/>
       <c r="Q254"/>
     </row>
-    <row r="255" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A255" s="40"/>
       <c r="Q255"/>
     </row>
-    <row r="256" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A256" s="40"/>
       <c r="Q256"/>
     </row>
     <row r="257" spans="17:17" x14ac:dyDescent="0.25">
@@ -14012,375 +14790,315 @@
     <row r="561" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q561"/>
     </row>
-    <row r="562" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q562"/>
-    </row>
-    <row r="563" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q563"/>
-    </row>
-    <row r="564" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q564"/>
-    </row>
-    <row r="565" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q565"/>
-    </row>
-    <row r="566" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q566"/>
-    </row>
-    <row r="567" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q567"/>
-    </row>
-    <row r="568" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q568"/>
-    </row>
-    <row r="569" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q569"/>
-    </row>
-    <row r="570" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q570"/>
-    </row>
-    <row r="571" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q571"/>
-    </row>
-    <row r="572" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q572"/>
-    </row>
-    <row r="573" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q573"/>
-    </row>
-    <row r="574" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q574"/>
-    </row>
-    <row r="575" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q575"/>
-    </row>
-    <row r="576" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q576"/>
-    </row>
-    <row r="577" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q577"/>
-    </row>
-    <row r="578" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q578"/>
-    </row>
-    <row r="579" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q579"/>
-    </row>
-    <row r="580" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q580"/>
-    </row>
-    <row r="581" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q581"/>
-    </row>
-    <row r="582" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q582"/>
-    </row>
-    <row r="583" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q583"/>
-    </row>
-    <row r="584" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q584"/>
-    </row>
-    <row r="585" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q585"/>
-    </row>
-    <row r="586" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q586"/>
-    </row>
-    <row r="587" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q587"/>
-    </row>
-    <row r="588" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q588"/>
-    </row>
-    <row r="589" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q589"/>
-    </row>
-    <row r="590" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q590"/>
-    </row>
-    <row r="591" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q591"/>
-    </row>
-    <row r="592" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q592"/>
-    </row>
-    <row r="593" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q593"/>
-    </row>
-    <row r="594" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q594"/>
-    </row>
-    <row r="595" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q595"/>
-    </row>
-    <row r="596" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q596"/>
-    </row>
-    <row r="597" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q597"/>
-    </row>
-    <row r="598" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q598"/>
-    </row>
-    <row r="599" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q599"/>
-    </row>
-    <row r="600" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q600"/>
-    </row>
-    <row r="601" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q601"/>
-    </row>
-    <row r="602" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q602"/>
-    </row>
-    <row r="603" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q603"/>
-    </row>
-    <row r="604" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q604"/>
-    </row>
-    <row r="605" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q605"/>
-    </row>
-    <row r="606" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q606"/>
-    </row>
-    <row r="607" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q607"/>
-    </row>
-    <row r="608" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q608"/>
-    </row>
-    <row r="609" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q609"/>
-    </row>
-    <row r="610" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q610"/>
-    </row>
-    <row r="611" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q611"/>
-    </row>
-    <row r="612" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q612"/>
-    </row>
-    <row r="613" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q613"/>
-    </row>
-    <row r="614" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q614"/>
-    </row>
-    <row r="615" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q615"/>
-    </row>
-    <row r="616" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q616"/>
-    </row>
-    <row r="617" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q617"/>
-    </row>
-    <row r="618" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q618"/>
-    </row>
-    <row r="619" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q619"/>
-    </row>
-    <row r="620" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q620"/>
-    </row>
-    <row r="621" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q621"/>
-    </row>
-    <row r="622" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q622"/>
-    </row>
-    <row r="623" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q623"/>
-    </row>
-    <row r="624" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q624"/>
-    </row>
-    <row r="625" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q625"/>
-    </row>
-    <row r="626" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q626"/>
-    </row>
-    <row r="627" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q627"/>
-    </row>
-    <row r="628" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q628"/>
-    </row>
-    <row r="629" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q629"/>
-    </row>
-    <row r="630" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q630"/>
-    </row>
-    <row r="631" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q631"/>
-    </row>
-    <row r="632" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q632"/>
-    </row>
-    <row r="633" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q633"/>
-    </row>
-    <row r="634" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q634"/>
-    </row>
-    <row r="635" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q635"/>
-    </row>
-    <row r="636" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q636"/>
-    </row>
-    <row r="637" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q637"/>
-    </row>
-    <row r="638" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q638"/>
-    </row>
-    <row r="639" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q639"/>
-    </row>
-    <row r="640" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q640"/>
-    </row>
-    <row r="641" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q641"/>
-    </row>
-    <row r="642" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q642"/>
-    </row>
-    <row r="643" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q643"/>
-    </row>
-    <row r="644" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q644"/>
-    </row>
-    <row r="645" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q645"/>
-    </row>
-    <row r="646" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q646"/>
-    </row>
-    <row r="647" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q647"/>
-    </row>
-    <row r="648" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q648"/>
-    </row>
-    <row r="649" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q649"/>
-    </row>
-    <row r="650" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q650"/>
-    </row>
-    <row r="651" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q651"/>
-    </row>
-    <row r="652" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q652"/>
-    </row>
-    <row r="653" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q653"/>
-    </row>
-    <row r="654" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q654"/>
-    </row>
-    <row r="655" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q655"/>
-    </row>
-    <row r="656" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q656"/>
-    </row>
-    <row r="657" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q657"/>
-    </row>
   </sheetData>
   <mergeCells count="410">
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="K114:K117"/>
-    <mergeCell ref="L114:L117"/>
-    <mergeCell ref="K118:K121"/>
-    <mergeCell ref="L118:L121"/>
-    <mergeCell ref="K122:K125"/>
-    <mergeCell ref="L122:L125"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="K92:K95"/>
-    <mergeCell ref="K96:K99"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="K27:K30"/>
-    <mergeCell ref="K126:K129"/>
-    <mergeCell ref="L126:L129"/>
-    <mergeCell ref="K130:K133"/>
-    <mergeCell ref="L130:L133"/>
-    <mergeCell ref="I101:I104"/>
-    <mergeCell ref="J101:J104"/>
-    <mergeCell ref="I105:I108"/>
-    <mergeCell ref="J105:J108"/>
-    <mergeCell ref="I109:I112"/>
-    <mergeCell ref="J109:J112"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="L101:L104"/>
-    <mergeCell ref="K105:K108"/>
-    <mergeCell ref="L105:L108"/>
-    <mergeCell ref="K109:K112"/>
-    <mergeCell ref="L109:L112"/>
-    <mergeCell ref="I130:I133"/>
-    <mergeCell ref="J130:J133"/>
-    <mergeCell ref="I118:I121"/>
-    <mergeCell ref="J118:J121"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="D105:D108"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="D109:D112"/>
-    <mergeCell ref="E101:E104"/>
-    <mergeCell ref="F101:F104"/>
-    <mergeCell ref="G101:G104"/>
-    <mergeCell ref="E105:E108"/>
-    <mergeCell ref="F105:F108"/>
-    <mergeCell ref="G105:G108"/>
-    <mergeCell ref="E109:E112"/>
-    <mergeCell ref="F109:F112"/>
-    <mergeCell ref="G109:G112"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="G122:G125"/>
-    <mergeCell ref="H122:H125"/>
-    <mergeCell ref="I122:I125"/>
-    <mergeCell ref="J122:J125"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="F126:F129"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="H126:H129"/>
-    <mergeCell ref="I126:I129"/>
-    <mergeCell ref="J126:J129"/>
+    <mergeCell ref="K138:K141"/>
+    <mergeCell ref="L138:L141"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="E134:E137"/>
+    <mergeCell ref="F134:F137"/>
+    <mergeCell ref="G134:G137"/>
+    <mergeCell ref="H134:H137"/>
+    <mergeCell ref="I134:I137"/>
+    <mergeCell ref="J134:J137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="E138:E141"/>
+    <mergeCell ref="F138:F141"/>
+    <mergeCell ref="G138:G141"/>
+    <mergeCell ref="H138:H141"/>
+    <mergeCell ref="I138:I141"/>
+    <mergeCell ref="J138:J141"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="I45:I48"/>
+    <mergeCell ref="J45:J48"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="G177:H177"/>
+    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="F96:F99"/>
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="H96:H99"/>
+    <mergeCell ref="E88:E91"/>
+    <mergeCell ref="F88:F91"/>
+    <mergeCell ref="G88:G91"/>
+    <mergeCell ref="H88:H91"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="G92:G95"/>
+    <mergeCell ref="H92:H95"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="F130:F133"/>
+    <mergeCell ref="G130:G133"/>
+    <mergeCell ref="H130:H133"/>
+    <mergeCell ref="H101:H104"/>
+    <mergeCell ref="H105:H108"/>
+    <mergeCell ref="H109:H112"/>
+    <mergeCell ref="G118:G121"/>
+    <mergeCell ref="H118:H121"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="J96:J99"/>
+    <mergeCell ref="J68:J71"/>
+    <mergeCell ref="I72:I75"/>
+    <mergeCell ref="J72:J75"/>
+    <mergeCell ref="I76:I79"/>
+    <mergeCell ref="J76:J79"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="J80:J83"/>
+    <mergeCell ref="J84:J87"/>
+    <mergeCell ref="I88:I91"/>
+    <mergeCell ref="J88:J91"/>
+    <mergeCell ref="J92:J95"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="I68:I71"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="H45:H48"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="I96:I99"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="H80:H83"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="H76:H79"/>
+    <mergeCell ref="G76:G79"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="K72:K75"/>
+    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="K68:K71"/>
+    <mergeCell ref="H68:H71"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="K45:K48"/>
+    <mergeCell ref="K50:K53"/>
+    <mergeCell ref="K55:K58"/>
+    <mergeCell ref="K59:K62"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="I55:I58"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="I59:I62"/>
+    <mergeCell ref="J59:J62"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="I92:I95"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="K88:K91"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="E68:E71"/>
+    <mergeCell ref="F68:F71"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="I162:I165"/>
+    <mergeCell ref="J162:J165"/>
+    <mergeCell ref="K148:L148"/>
+    <mergeCell ref="I148:J148"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="K150:K153"/>
+    <mergeCell ref="I150:I153"/>
+    <mergeCell ref="J150:J153"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="F114:F117"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="H114:H117"/>
+    <mergeCell ref="I114:I117"/>
+    <mergeCell ref="J114:J117"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="F118:F121"/>
+    <mergeCell ref="K134:K137"/>
+    <mergeCell ref="L134:L137"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="K166:K169"/>
+    <mergeCell ref="I166:I169"/>
+    <mergeCell ref="J166:J169"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="A148:B149"/>
+    <mergeCell ref="L150:L153"/>
+    <mergeCell ref="L154:L157"/>
+    <mergeCell ref="L158:L161"/>
+    <mergeCell ref="L162:L165"/>
+    <mergeCell ref="L166:L169"/>
+    <mergeCell ref="A177:B178"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="K154:K157"/>
+    <mergeCell ref="I154:I157"/>
+    <mergeCell ref="J154:J157"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="K158:K161"/>
+    <mergeCell ref="I158:I161"/>
+    <mergeCell ref="J158:J161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="K162:K165"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="E177:F177"/>
     <mergeCell ref="M148:N148"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="L63:L66"/>
@@ -14405,340 +15123,127 @@
     <mergeCell ref="E148:F148"/>
     <mergeCell ref="A101:A104"/>
     <mergeCell ref="A114:A117"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="K166:K169"/>
-    <mergeCell ref="I166:I169"/>
-    <mergeCell ref="J166:J169"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="A148:B149"/>
-    <mergeCell ref="L150:L153"/>
-    <mergeCell ref="L154:L157"/>
-    <mergeCell ref="L158:L161"/>
-    <mergeCell ref="L162:L165"/>
-    <mergeCell ref="L166:L169"/>
-    <mergeCell ref="A177:B178"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="K154:K157"/>
-    <mergeCell ref="I154:I157"/>
-    <mergeCell ref="J154:J157"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="K158:K161"/>
-    <mergeCell ref="I158:I161"/>
-    <mergeCell ref="J158:J161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="K162:K165"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="I162:I165"/>
-    <mergeCell ref="J162:J165"/>
-    <mergeCell ref="K148:L148"/>
-    <mergeCell ref="I148:J148"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="K150:K153"/>
-    <mergeCell ref="I150:I153"/>
-    <mergeCell ref="J150:J153"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="F114:F117"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="H114:H117"/>
-    <mergeCell ref="I114:I117"/>
-    <mergeCell ref="J114:J117"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="F118:F121"/>
-    <mergeCell ref="K134:K137"/>
-    <mergeCell ref="L134:L137"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="K88:K91"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="J50:J53"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="F76:F79"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="E68:E71"/>
-    <mergeCell ref="F68:F71"/>
-    <mergeCell ref="G68:G71"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="I92:I95"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="K72:K75"/>
-    <mergeCell ref="K76:K79"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="K68:K71"/>
-    <mergeCell ref="H68:H71"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="K45:K48"/>
-    <mergeCell ref="K50:K53"/>
-    <mergeCell ref="K55:K58"/>
-    <mergeCell ref="K59:K62"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="I55:I58"/>
-    <mergeCell ref="J55:J58"/>
-    <mergeCell ref="I59:I62"/>
-    <mergeCell ref="J59:J62"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="I50:I53"/>
-    <mergeCell ref="I68:I71"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="G45:G48"/>
-    <mergeCell ref="H45:H48"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="I96:I99"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="H80:H83"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="H76:H79"/>
-    <mergeCell ref="G76:G79"/>
-    <mergeCell ref="J96:J99"/>
-    <mergeCell ref="J68:J71"/>
-    <mergeCell ref="I72:I75"/>
-    <mergeCell ref="J72:J75"/>
-    <mergeCell ref="I76:I79"/>
-    <mergeCell ref="J76:J79"/>
-    <mergeCell ref="I80:I83"/>
-    <mergeCell ref="J80:J83"/>
-    <mergeCell ref="J84:J87"/>
-    <mergeCell ref="I88:I91"/>
-    <mergeCell ref="J88:J91"/>
-    <mergeCell ref="J92:J95"/>
-    <mergeCell ref="G177:H177"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="F96:F99"/>
-    <mergeCell ref="G96:G99"/>
-    <mergeCell ref="H96:H99"/>
-    <mergeCell ref="E88:E91"/>
-    <mergeCell ref="F88:F91"/>
-    <mergeCell ref="G88:G91"/>
-    <mergeCell ref="H88:H91"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="G92:G95"/>
-    <mergeCell ref="H92:H95"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="F130:F133"/>
-    <mergeCell ref="G130:G133"/>
-    <mergeCell ref="H130:H133"/>
-    <mergeCell ref="H101:H104"/>
-    <mergeCell ref="H105:H108"/>
-    <mergeCell ref="H109:H112"/>
-    <mergeCell ref="G118:G121"/>
-    <mergeCell ref="H118:H121"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="I45:I48"/>
-    <mergeCell ref="J45:J48"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="K138:K141"/>
-    <mergeCell ref="L138:L141"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="E134:E137"/>
-    <mergeCell ref="F134:F137"/>
-    <mergeCell ref="G134:G137"/>
-    <mergeCell ref="H134:H137"/>
-    <mergeCell ref="I134:I137"/>
-    <mergeCell ref="J134:J137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="E138:E141"/>
-    <mergeCell ref="F138:F141"/>
-    <mergeCell ref="G138:G141"/>
-    <mergeCell ref="H138:H141"/>
-    <mergeCell ref="I138:I141"/>
-    <mergeCell ref="J138:J141"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="H122:H125"/>
+    <mergeCell ref="I122:I125"/>
+    <mergeCell ref="J122:J125"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="F126:F129"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="H126:H129"/>
+    <mergeCell ref="I126:I129"/>
+    <mergeCell ref="J126:J129"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="D105:D108"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="D109:D112"/>
+    <mergeCell ref="E101:E104"/>
+    <mergeCell ref="F101:F104"/>
+    <mergeCell ref="G101:G104"/>
+    <mergeCell ref="E105:E108"/>
+    <mergeCell ref="F105:F108"/>
+    <mergeCell ref="G105:G108"/>
+    <mergeCell ref="E109:E112"/>
+    <mergeCell ref="F109:F112"/>
+    <mergeCell ref="G109:G112"/>
+    <mergeCell ref="K126:K129"/>
+    <mergeCell ref="L126:L129"/>
+    <mergeCell ref="K130:K133"/>
+    <mergeCell ref="L130:L133"/>
+    <mergeCell ref="I101:I104"/>
+    <mergeCell ref="J101:J104"/>
+    <mergeCell ref="I105:I108"/>
+    <mergeCell ref="J105:J108"/>
+    <mergeCell ref="I109:I112"/>
+    <mergeCell ref="J109:J112"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="L101:L104"/>
+    <mergeCell ref="K105:K108"/>
+    <mergeCell ref="L105:L108"/>
+    <mergeCell ref="K109:K112"/>
+    <mergeCell ref="L109:L112"/>
+    <mergeCell ref="I130:I133"/>
+    <mergeCell ref="J130:J133"/>
+    <mergeCell ref="I118:I121"/>
+    <mergeCell ref="J118:J121"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="K114:K117"/>
+    <mergeCell ref="L114:L117"/>
+    <mergeCell ref="K118:K121"/>
+    <mergeCell ref="L118:L121"/>
+    <mergeCell ref="K122:K125"/>
+    <mergeCell ref="L122:L125"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="K92:K95"/>
+    <mergeCell ref="K96:K99"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="K27:K30"/>
   </mergeCells>
   <conditionalFormatting sqref="Q3:Z34">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>"MAX($Q3:$Z3)"</formula>
     </cfRule>
-    <cfRule type="expression" priority="9">
+    <cfRule type="expression" priority="12">
       <formula>"B2=MIN($Q3:$Z3)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Z34 Q36:Z43 Q45:Z48 Q50:Z53 Q68:Z99 Q101:Z112 Q55:Z66">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>Q3=MIN($Q3:$Z3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AH34 AD101:AH112 AD68:AH99 AD55:AH66 AD50:AH53 AD45:AH48 AD36:AH43">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>AD3=MIN($AD3:$AH3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD114:AH114">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>AD114=MIN($AD114:$AH114)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD115:AH141">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>AD115=MIN($AD115:$AH115)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C214:G214">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>C214=MIN($C214:$G214)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C215:G215">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>C215=MIN($C215:$G215)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C216:G221 C247:G253 C243:G245 C234:G241 C230:G232 C228:G228 C226:G226 C223:G224">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AD115=MIN($AD115:$AH115)</formula>
+      <formula>C216=MIN($C216:$G216)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_results/results_table.xlsx
+++ b/test_results/results_table.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DD6EC1-FAA1-4302-9BA3-6B168B0E81A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -249,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
@@ -390,12 +391,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -404,29 +408,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -813,14 +800,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF561"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C205" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AA53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K217" sqref="K217"/>
+      <selection pane="bottomRight" activeCell="AE87" sqref="AE87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,34 +856,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="38" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="38"/>
+      <c r="N1" s="39"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="17" t="s">
         <v>48</v>
@@ -943,24 +930,24 @@
       <c r="AH1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="AO1" s="35" t="s">
+      <c r="AO1" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35" t="s">
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35" t="s">
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="AT1" s="35"/>
+      <c r="AT1" s="38"/>
       <c r="CE1" s="6"/>
       <c r="CF1" s="6"/>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1070,31 +1057,31 @@
       <c r="CF2" s="9"/>
     </row>
     <row r="3" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>500</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="39">
         <v>0.26700000000000002</v>
       </c>
       <c r="D3" s="37">
         <v>0.44700000000000001</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="39">
         <v>0.17100000000000001</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="39">
         <v>0.153</v>
       </c>
       <c r="H3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J3" s="37" t="s">
@@ -1178,17 +1165,17 @@
       <c r="CF3" s="8"/>
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="1">
         <v>1000</v>
       </c>
-      <c r="C4" s="38"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="37"/>
-      <c r="I4" s="35"/>
+      <c r="I4" s="38"/>
       <c r="J4" s="37"/>
       <c r="K4" s="36"/>
       <c r="L4" s="37"/>
@@ -1268,17 +1255,17 @@
       <c r="CF4" s="8"/>
     </row>
     <row r="5" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="1">
         <v>2000</v>
       </c>
-      <c r="C5" s="38"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="37"/>
-      <c r="I5" s="35"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="37"/>
       <c r="K5" s="36"/>
       <c r="L5" s="37"/>
@@ -1358,17 +1345,17 @@
       <c r="CF5" s="8"/>
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="1">
         <v>5000</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="37"/>
-      <c r="I6" s="35"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="37"/>
       <c r="K6" s="36"/>
       <c r="L6" s="37"/>
@@ -1446,31 +1433,31 @@
       </c>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>500</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="39">
         <v>0.2601</v>
       </c>
       <c r="D7" s="37">
         <v>0.624</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="39">
         <v>0.20200000000000001</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="39">
         <v>0.19400000000000001</v>
       </c>
       <c r="H7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="37" t="s">
@@ -1554,17 +1541,17 @@
       <c r="CF7" s="8"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="1">
         <v>1000</v>
       </c>
-      <c r="C8" s="38"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="39"/>
       <c r="H8" s="37"/>
-      <c r="I8" s="35"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="37"/>
       <c r="K8" s="36"/>
       <c r="L8" s="37"/>
@@ -1644,17 +1631,17 @@
       <c r="CF8" s="8"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="1">
         <v>2000</v>
       </c>
-      <c r="C9" s="38"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="35"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="37"/>
       <c r="K9" s="36"/>
       <c r="L9" s="37"/>
@@ -1734,17 +1721,17 @@
       <c r="CF9" s="8"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="1">
         <v>5000</v>
       </c>
-      <c r="C10" s="38"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="38"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="35"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="37"/>
       <c r="K10" s="36"/>
       <c r="L10" s="37"/>
@@ -1822,31 +1809,31 @@
       </c>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="38" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>500</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="39">
         <v>0.30220000000000002</v>
       </c>
       <c r="D11" s="37">
         <v>0.93700000000000006</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="39">
         <v>0.22800000000000001</v>
       </c>
       <c r="F11" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="39">
         <v>0.17199999999999999</v>
       </c>
       <c r="H11" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J11" s="37" t="s">
@@ -1930,17 +1917,17 @@
       <c r="CF11" s="8"/>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="1">
         <v>1000</v>
       </c>
-      <c r="C12" s="38"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="37"/>
-      <c r="I12" s="35"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="37"/>
       <c r="K12" s="36"/>
       <c r="L12" s="37"/>
@@ -2020,17 +2007,17 @@
       <c r="CF12" s="8"/>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="1">
         <v>2000</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="35"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="37"/>
       <c r="K13" s="36"/>
       <c r="L13" s="37"/>
@@ -2110,17 +2097,17 @@
       <c r="CF13" s="8"/>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="1">
         <v>5000</v>
       </c>
-      <c r="C14" s="38"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="37"/>
-      <c r="I14" s="35"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="37"/>
       <c r="K14" s="36"/>
       <c r="L14" s="37"/>
@@ -2198,31 +2185,31 @@
       </c>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="38" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>500</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="39">
         <v>0.3165</v>
       </c>
       <c r="D15" s="37">
         <v>1.1140000000000001</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="39">
         <v>0.189</v>
       </c>
       <c r="F15" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="39">
         <v>0.18</v>
       </c>
       <c r="H15" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J15" s="37" t="s">
@@ -2306,17 +2293,17 @@
       <c r="CF15" s="8"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="1">
         <v>1000</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="35"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="37"/>
       <c r="K16" s="36"/>
       <c r="L16" s="37"/>
@@ -2396,17 +2383,17 @@
       <c r="CF16" s="8"/>
     </row>
     <row r="17" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="1">
         <v>2000</v>
       </c>
-      <c r="C17" s="38"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
+      <c r="G17" s="39"/>
       <c r="H17" s="37"/>
-      <c r="I17" s="35"/>
+      <c r="I17" s="38"/>
       <c r="J17" s="37"/>
       <c r="K17" s="36"/>
       <c r="L17" s="37"/>
@@ -2486,17 +2473,17 @@
       <c r="CF17" s="8"/>
     </row>
     <row r="18" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="1">
         <v>5000</v>
       </c>
-      <c r="C18" s="38"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="35"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="37"/>
       <c r="K18" s="36"/>
       <c r="L18" s="37"/>
@@ -2574,31 +2561,31 @@
       </c>
     </row>
     <row r="19" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="38" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="1">
         <v>500</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="39">
         <v>0.33110000000000001</v>
       </c>
       <c r="D19" s="37">
         <v>1.7989999999999999</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="39">
         <v>0.254</v>
       </c>
       <c r="F19" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="39">
         <v>0.187</v>
       </c>
       <c r="H19" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="39">
         <v>0.13080554883214199</v>
       </c>
       <c r="J19" s="37">
@@ -2682,17 +2669,17 @@
       <c r="CF19" s="7"/>
     </row>
     <row r="20" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="1">
         <v>1000</v>
       </c>
-      <c r="C20" s="38"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="38"/>
+      <c r="G20" s="39"/>
       <c r="H20" s="37"/>
-      <c r="I20" s="38"/>
+      <c r="I20" s="39"/>
       <c r="J20" s="37"/>
       <c r="K20" s="36"/>
       <c r="L20" s="37"/>
@@ -2772,17 +2759,17 @@
       <c r="CF20" s="7"/>
     </row>
     <row r="21" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="1">
         <v>2000</v>
       </c>
-      <c r="C21" s="38"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
+      <c r="G21" s="39"/>
       <c r="H21" s="37"/>
-      <c r="I21" s="38"/>
+      <c r="I21" s="39"/>
       <c r="J21" s="37"/>
       <c r="K21" s="36"/>
       <c r="L21" s="37"/>
@@ -2862,17 +2849,17 @@
       <c r="CF21" s="7"/>
     </row>
     <row r="22" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="1">
         <v>5000</v>
       </c>
-      <c r="C22" s="38"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
+      <c r="G22" s="39"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="38"/>
+      <c r="I22" s="39"/>
       <c r="J22" s="37"/>
       <c r="K22" s="36"/>
       <c r="L22" s="37"/>
@@ -2950,31 +2937,31 @@
       </c>
     </row>
     <row r="23" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="38" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="1">
         <v>500</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="39">
         <v>0.33660000000000001</v>
       </c>
       <c r="D23" s="37">
         <v>2.7</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="39">
         <v>0.159</v>
       </c>
       <c r="F23" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="39">
         <v>0.13800000000000001</v>
       </c>
       <c r="H23" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="35" t="s">
+      <c r="I23" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J23" s="37" t="s">
@@ -3058,17 +3045,17 @@
       <c r="CF23" s="8"/>
     </row>
     <row r="24" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="1">
         <v>1000</v>
       </c>
-      <c r="C24" s="38"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="37"/>
-      <c r="G24" s="38"/>
+      <c r="G24" s="39"/>
       <c r="H24" s="37"/>
-      <c r="I24" s="35"/>
+      <c r="I24" s="38"/>
       <c r="J24" s="37"/>
       <c r="K24" s="36"/>
       <c r="L24" s="37"/>
@@ -3148,17 +3135,17 @@
       <c r="CF24" s="8"/>
     </row>
     <row r="25" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="1">
         <v>2000</v>
       </c>
-      <c r="C25" s="38"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="37"/>
-      <c r="G25" s="38"/>
+      <c r="G25" s="39"/>
       <c r="H25" s="37"/>
-      <c r="I25" s="35"/>
+      <c r="I25" s="38"/>
       <c r="J25" s="37"/>
       <c r="K25" s="36"/>
       <c r="L25" s="37"/>
@@ -3238,17 +3225,17 @@
       <c r="CF25" s="8"/>
     </row>
     <row r="26" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="1">
         <v>5000</v>
       </c>
-      <c r="C26" s="38"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
+      <c r="E26" s="39"/>
       <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
+      <c r="G26" s="39"/>
       <c r="H26" s="37"/>
-      <c r="I26" s="35"/>
+      <c r="I26" s="38"/>
       <c r="J26" s="37"/>
       <c r="K26" s="36"/>
       <c r="L26" s="37"/>
@@ -3326,31 +3313,31 @@
       </c>
     </row>
     <row r="27" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="38" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="1">
         <v>500</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="39">
         <v>0.22470000000000001</v>
       </c>
       <c r="D27" s="37">
         <v>4.883</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="39">
         <v>0.17399999999999999</v>
       </c>
       <c r="F27" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="39">
         <v>0.13500000000000001</v>
       </c>
       <c r="H27" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="35" t="s">
+      <c r="I27" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J27" s="37" t="s">
@@ -3434,17 +3421,17 @@
       <c r="CF27" s="8"/>
     </row>
     <row r="28" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="1">
         <v>1000</v>
       </c>
-      <c r="C28" s="38"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
+      <c r="E28" s="39"/>
       <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
+      <c r="G28" s="39"/>
       <c r="H28" s="37"/>
-      <c r="I28" s="35"/>
+      <c r="I28" s="38"/>
       <c r="J28" s="37"/>
       <c r="K28" s="36"/>
       <c r="L28" s="37"/>
@@ -3524,17 +3511,17 @@
       <c r="CF28" s="8"/>
     </row>
     <row r="29" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="1">
         <v>2000</v>
       </c>
-      <c r="C29" s="38"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
+      <c r="E29" s="39"/>
       <c r="F29" s="37"/>
-      <c r="G29" s="38"/>
+      <c r="G29" s="39"/>
       <c r="H29" s="37"/>
-      <c r="I29" s="35"/>
+      <c r="I29" s="38"/>
       <c r="J29" s="37"/>
       <c r="K29" s="36"/>
       <c r="L29" s="37"/>
@@ -3614,17 +3601,17 @@
       <c r="CF29" s="8"/>
     </row>
     <row r="30" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="1">
         <v>5000</v>
       </c>
-      <c r="C30" s="38"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
+      <c r="E30" s="39"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="38"/>
+      <c r="G30" s="39"/>
       <c r="H30" s="37"/>
-      <c r="I30" s="35"/>
+      <c r="I30" s="38"/>
       <c r="J30" s="37"/>
       <c r="K30" s="36"/>
       <c r="L30" s="37"/>
@@ -3703,31 +3690,31 @@
       <c r="AV30" s="6"/>
     </row>
     <row r="31" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="1">
         <v>500</v>
       </c>
-      <c r="C31" s="38">
+      <c r="C31" s="39">
         <v>0.26550000000000001</v>
       </c>
       <c r="D31" s="37">
         <v>28.327999999999999</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="39">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F31" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31" s="39">
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="H31" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="35" t="s">
+      <c r="I31" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J31" s="37" t="s">
@@ -3811,17 +3798,17 @@
       <c r="CF31" s="8"/>
     </row>
     <row r="32" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="1">
         <v>1000</v>
       </c>
-      <c r="C32" s="38"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="37"/>
-      <c r="E32" s="38"/>
+      <c r="E32" s="39"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="38"/>
+      <c r="G32" s="39"/>
       <c r="H32" s="37"/>
-      <c r="I32" s="35"/>
+      <c r="I32" s="38"/>
       <c r="J32" s="37"/>
       <c r="K32" s="36"/>
       <c r="L32" s="37"/>
@@ -3901,17 +3888,17 @@
       <c r="CF32" s="8"/>
     </row>
     <row r="33" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="1">
         <v>2000</v>
       </c>
-      <c r="C33" s="38"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="37"/>
-      <c r="E33" s="38"/>
+      <c r="E33" s="39"/>
       <c r="F33" s="37"/>
-      <c r="G33" s="38"/>
+      <c r="G33" s="39"/>
       <c r="H33" s="37"/>
-      <c r="I33" s="35"/>
+      <c r="I33" s="38"/>
       <c r="J33" s="37"/>
       <c r="K33" s="36"/>
       <c r="L33" s="37"/>
@@ -3991,17 +3978,17 @@
       <c r="CF33" s="8"/>
     </row>
     <row r="34" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="1">
         <v>5000</v>
       </c>
-      <c r="C34" s="38"/>
+      <c r="C34" s="39"/>
       <c r="D34" s="37"/>
-      <c r="E34" s="38"/>
+      <c r="E34" s="39"/>
       <c r="F34" s="37"/>
-      <c r="G34" s="38"/>
+      <c r="G34" s="39"/>
       <c r="H34" s="37"/>
-      <c r="I34" s="35"/>
+      <c r="I34" s="38"/>
       <c r="J34" s="37"/>
       <c r="K34" s="36"/>
       <c r="L34" s="37"/>
@@ -4105,27 +4092,27 @@
       <c r="AT35" s="31"/>
     </row>
     <row r="36" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="1">
         <v>500</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="38">
+      <c r="C36" s="39"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="39">
         <v>0.101239449255883</v>
       </c>
       <c r="F36" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G36" s="39">
         <v>6.1477473699407502E-2</v>
       </c>
       <c r="H36" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I36" s="35" t="s">
+      <c r="I36" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J36" s="37" t="s">
@@ -4207,17 +4194,17 @@
       </c>
     </row>
     <row r="37" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="1">
         <v>1000</v>
       </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="38"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="39"/>
       <c r="F37" s="37"/>
-      <c r="G37" s="38"/>
+      <c r="G37" s="39"/>
       <c r="H37" s="37"/>
-      <c r="I37" s="35"/>
+      <c r="I37" s="38"/>
       <c r="J37" s="37"/>
       <c r="K37" s="36"/>
       <c r="L37" s="37"/>
@@ -4295,17 +4282,17 @@
       </c>
     </row>
     <row r="38" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="1">
         <v>2000</v>
       </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="38"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="39"/>
       <c r="F38" s="37"/>
-      <c r="G38" s="38"/>
+      <c r="G38" s="39"/>
       <c r="H38" s="37"/>
-      <c r="I38" s="35"/>
+      <c r="I38" s="38"/>
       <c r="J38" s="37"/>
       <c r="K38" s="36"/>
       <c r="L38" s="37"/>
@@ -4383,17 +4370,17 @@
       </c>
     </row>
     <row r="39" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="1">
         <v>5000</v>
       </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="38"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="39"/>
       <c r="F39" s="37"/>
-      <c r="G39" s="38"/>
+      <c r="G39" s="39"/>
       <c r="H39" s="37"/>
-      <c r="I39" s="35"/>
+      <c r="I39" s="38"/>
       <c r="J39" s="37"/>
       <c r="K39" s="36"/>
       <c r="L39" s="37"/>
@@ -4471,27 +4458,27 @@
       </c>
     </row>
     <row r="40" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="38" t="s">
         <v>21</v>
       </c>
       <c r="B40" s="1">
         <v>500</v>
       </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="38">
+      <c r="C40" s="39"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="39">
         <v>0.29018026080021198</v>
       </c>
       <c r="F40" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="38">
+      <c r="G40" s="39">
         <v>0.205463324203739</v>
       </c>
       <c r="H40" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="35" t="s">
+      <c r="I40" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J40" s="37" t="s">
@@ -4573,17 +4560,17 @@
       </c>
     </row>
     <row r="41" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="1">
         <v>1000</v>
       </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="38"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="39"/>
       <c r="F41" s="37"/>
-      <c r="G41" s="38"/>
+      <c r="G41" s="39"/>
       <c r="H41" s="37"/>
-      <c r="I41" s="35"/>
+      <c r="I41" s="38"/>
       <c r="J41" s="37"/>
       <c r="K41" s="36"/>
       <c r="L41" s="37"/>
@@ -4661,17 +4648,17 @@
       </c>
     </row>
     <row r="42" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="1">
         <v>2000</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="38"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="39"/>
       <c r="F42" s="37"/>
-      <c r="G42" s="38"/>
+      <c r="G42" s="39"/>
       <c r="H42" s="37"/>
-      <c r="I42" s="35"/>
+      <c r="I42" s="38"/>
       <c r="J42" s="37"/>
       <c r="K42" s="36"/>
       <c r="L42" s="37"/>
@@ -4749,17 +4736,17 @@
       </c>
     </row>
     <row r="43" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
+      <c r="A43" s="38"/>
       <c r="B43" s="1">
         <v>5000</v>
       </c>
-      <c r="C43" s="38"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="38"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="39"/>
       <c r="F43" s="37"/>
-      <c r="G43" s="38"/>
+      <c r="G43" s="39"/>
       <c r="H43" s="37"/>
-      <c r="I43" s="35"/>
+      <c r="I43" s="38"/>
       <c r="J43" s="37"/>
       <c r="K43" s="36"/>
       <c r="L43" s="37"/>
@@ -4863,27 +4850,27 @@
       <c r="AT44" s="31"/>
     </row>
     <row r="45" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B45" s="1">
         <v>500</v>
       </c>
-      <c r="C45" s="38"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="38">
+      <c r="C45" s="39"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="39">
         <v>0.21826059724466901</v>
       </c>
       <c r="F45" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="38">
+      <c r="G45" s="39">
         <v>0.199782125806655</v>
       </c>
       <c r="H45" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I45" s="35" t="s">
+      <c r="I45" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J45" s="37" t="s">
@@ -4965,17 +4952,17 @@
       </c>
     </row>
     <row r="46" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="1">
         <v>1000</v>
       </c>
-      <c r="C46" s="38"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="38"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="39"/>
       <c r="F46" s="37"/>
-      <c r="G46" s="38"/>
+      <c r="G46" s="39"/>
       <c r="H46" s="37"/>
-      <c r="I46" s="35"/>
+      <c r="I46" s="38"/>
       <c r="J46" s="37"/>
       <c r="K46" s="36"/>
       <c r="L46" s="37"/>
@@ -5053,17 +5040,17 @@
       </c>
     </row>
     <row r="47" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="1">
         <v>2000</v>
       </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="38"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="39"/>
       <c r="F47" s="37"/>
-      <c r="G47" s="38"/>
+      <c r="G47" s="39"/>
       <c r="H47" s="37"/>
-      <c r="I47" s="35"/>
+      <c r="I47" s="38"/>
       <c r="J47" s="37"/>
       <c r="K47" s="36"/>
       <c r="L47" s="37"/>
@@ -5141,17 +5128,17 @@
       </c>
     </row>
     <row r="48" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="1">
         <v>5000</v>
       </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="38"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="39"/>
       <c r="F48" s="37"/>
-      <c r="G48" s="38"/>
+      <c r="G48" s="39"/>
       <c r="H48" s="37"/>
-      <c r="I48" s="35"/>
+      <c r="I48" s="38"/>
       <c r="J48" s="37"/>
       <c r="K48" s="36"/>
       <c r="L48" s="37"/>
@@ -5255,27 +5242,27 @@
       <c r="AT49" s="31"/>
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B50" s="1">
         <v>500</v>
       </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="38">
+      <c r="C50" s="39"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="39">
         <v>0.24797844874295</v>
       </c>
       <c r="F50" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="38">
+      <c r="G50" s="39">
         <v>0.18443317167635301</v>
       </c>
       <c r="H50" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="35" t="s">
+      <c r="I50" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J50" s="37" t="s">
@@ -5357,17 +5344,17 @@
       </c>
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
+      <c r="A51" s="38"/>
       <c r="B51" s="1">
         <v>1000</v>
       </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="38"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="39"/>
       <c r="F51" s="37"/>
-      <c r="G51" s="38"/>
+      <c r="G51" s="39"/>
       <c r="H51" s="37"/>
-      <c r="I51" s="35"/>
+      <c r="I51" s="38"/>
       <c r="J51" s="37"/>
       <c r="K51" s="36"/>
       <c r="L51" s="37"/>
@@ -5445,17 +5432,17 @@
       </c>
     </row>
     <row r="52" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="1">
         <v>2000</v>
       </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="38"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="39"/>
       <c r="F52" s="37"/>
-      <c r="G52" s="38"/>
+      <c r="G52" s="39"/>
       <c r="H52" s="37"/>
-      <c r="I52" s="35"/>
+      <c r="I52" s="38"/>
       <c r="J52" s="37"/>
       <c r="K52" s="36"/>
       <c r="L52" s="37"/>
@@ -5533,17 +5520,17 @@
       </c>
     </row>
     <row r="53" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A53" s="35"/>
+      <c r="A53" s="38"/>
       <c r="B53" s="1">
         <v>5000</v>
       </c>
-      <c r="C53" s="38"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="38"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="39"/>
       <c r="F53" s="37"/>
-      <c r="G53" s="38"/>
+      <c r="G53" s="39"/>
       <c r="H53" s="37"/>
-      <c r="I53" s="35"/>
+      <c r="I53" s="38"/>
       <c r="J53" s="37"/>
       <c r="K53" s="36"/>
       <c r="L53" s="37"/>
@@ -5647,27 +5634,27 @@
       <c r="AT54" s="31"/>
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="38" t="s">
         <v>23</v>
       </c>
       <c r="B55" s="1">
         <v>500</v>
       </c>
-      <c r="C55" s="38"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="38">
+      <c r="C55" s="39"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="39">
         <v>0.28420023201354799</v>
       </c>
       <c r="F55" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G55" s="38">
+      <c r="G55" s="39">
         <v>0.34385002851765301</v>
       </c>
       <c r="H55" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I55" s="35" t="s">
+      <c r="I55" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J55" s="37" t="s">
@@ -5749,17 +5736,17 @@
       </c>
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
+      <c r="A56" s="38"/>
       <c r="B56" s="1">
         <v>1000</v>
       </c>
-      <c r="C56" s="38"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="38"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="39"/>
       <c r="F56" s="37"/>
-      <c r="G56" s="38"/>
+      <c r="G56" s="39"/>
       <c r="H56" s="37"/>
-      <c r="I56" s="35"/>
+      <c r="I56" s="38"/>
       <c r="J56" s="37"/>
       <c r="K56" s="36"/>
       <c r="L56" s="37"/>
@@ -5837,17 +5824,17 @@
       </c>
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A57" s="35"/>
+      <c r="A57" s="38"/>
       <c r="B57" s="1">
         <v>2000</v>
       </c>
-      <c r="C57" s="38"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="38"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="39"/>
       <c r="F57" s="37"/>
-      <c r="G57" s="38"/>
+      <c r="G57" s="39"/>
       <c r="H57" s="37"/>
-      <c r="I57" s="35"/>
+      <c r="I57" s="38"/>
       <c r="J57" s="37"/>
       <c r="K57" s="36"/>
       <c r="L57" s="37"/>
@@ -5925,17 +5912,17 @@
       </c>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
+      <c r="A58" s="38"/>
       <c r="B58" s="1">
         <v>5000</v>
       </c>
-      <c r="C58" s="38"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="38"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="39"/>
       <c r="F58" s="37"/>
-      <c r="G58" s="38"/>
+      <c r="G58" s="39"/>
       <c r="H58" s="37"/>
-      <c r="I58" s="35"/>
+      <c r="I58" s="38"/>
       <c r="J58" s="37"/>
       <c r="K58" s="36"/>
       <c r="L58" s="37"/>
@@ -6013,27 +6000,27 @@
       </c>
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B59" s="1">
         <v>500</v>
       </c>
-      <c r="C59" s="38"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="38">
+      <c r="C59" s="39"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="39">
         <v>0.29386831802036401</v>
       </c>
       <c r="F59" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="38">
+      <c r="G59" s="39">
         <v>0.30511472915739701</v>
       </c>
       <c r="H59" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I59" s="35" t="s">
+      <c r="I59" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J59" s="37" t="s">
@@ -6115,17 +6102,17 @@
       </c>
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
+      <c r="A60" s="38"/>
       <c r="B60" s="1">
         <v>1000</v>
       </c>
-      <c r="C60" s="38"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="38"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="39"/>
       <c r="F60" s="37"/>
-      <c r="G60" s="38"/>
+      <c r="G60" s="39"/>
       <c r="H60" s="37"/>
-      <c r="I60" s="35"/>
+      <c r="I60" s="38"/>
       <c r="J60" s="37"/>
       <c r="K60" s="36"/>
       <c r="L60" s="37"/>
@@ -6203,17 +6190,17 @@
       </c>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
+      <c r="A61" s="38"/>
       <c r="B61" s="1">
         <v>2000</v>
       </c>
-      <c r="C61" s="38"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="38"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="39"/>
       <c r="F61" s="37"/>
-      <c r="G61" s="38"/>
+      <c r="G61" s="39"/>
       <c r="H61" s="37"/>
-      <c r="I61" s="35"/>
+      <c r="I61" s="38"/>
       <c r="J61" s="37"/>
       <c r="K61" s="36"/>
       <c r="L61" s="37"/>
@@ -6291,17 +6278,17 @@
       </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
+      <c r="A62" s="38"/>
       <c r="B62" s="1">
         <v>5000</v>
       </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="38"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="39"/>
       <c r="F62" s="37"/>
-      <c r="G62" s="38"/>
+      <c r="G62" s="39"/>
       <c r="H62" s="37"/>
-      <c r="I62" s="35"/>
+      <c r="I62" s="38"/>
       <c r="J62" s="37"/>
       <c r="K62" s="36"/>
       <c r="L62" s="37"/>
@@ -6379,27 +6366,27 @@
       </c>
     </row>
     <row r="63" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="38" t="s">
         <v>25</v>
       </c>
       <c r="B63" s="1">
         <v>500</v>
       </c>
-      <c r="C63" s="38"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="38">
+      <c r="C63" s="39"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="39">
         <v>0.167989635290166</v>
       </c>
       <c r="F63" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G63" s="38">
+      <c r="G63" s="39">
         <v>0.25329462101632999</v>
       </c>
       <c r="H63" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I63" s="35" t="s">
+      <c r="I63" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J63" s="37" t="s">
@@ -6481,17 +6468,17 @@
       </c>
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
+      <c r="A64" s="38"/>
       <c r="B64" s="1">
         <v>1000</v>
       </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="38"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="39"/>
       <c r="F64" s="37"/>
-      <c r="G64" s="38"/>
+      <c r="G64" s="39"/>
       <c r="H64" s="37"/>
-      <c r="I64" s="35"/>
+      <c r="I64" s="38"/>
       <c r="J64" s="37"/>
       <c r="K64" s="36"/>
       <c r="L64" s="37"/>
@@ -6569,17 +6556,17 @@
       </c>
     </row>
     <row r="65" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
+      <c r="A65" s="38"/>
       <c r="B65" s="1">
         <v>2000</v>
       </c>
-      <c r="C65" s="38"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="38"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="39"/>
       <c r="F65" s="37"/>
-      <c r="G65" s="38"/>
+      <c r="G65" s="39"/>
       <c r="H65" s="37"/>
-      <c r="I65" s="35"/>
+      <c r="I65" s="38"/>
       <c r="J65" s="37"/>
       <c r="K65" s="36"/>
       <c r="L65" s="37"/>
@@ -6657,17 +6644,17 @@
       </c>
     </row>
     <row r="66" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
+      <c r="A66" s="38"/>
       <c r="B66" s="1">
         <v>5000</v>
       </c>
-      <c r="C66" s="38"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="38"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="39"/>
       <c r="F66" s="37"/>
-      <c r="G66" s="38"/>
+      <c r="G66" s="39"/>
       <c r="H66" s="37"/>
-      <c r="I66" s="35"/>
+      <c r="I66" s="38"/>
       <c r="J66" s="37"/>
       <c r="K66" s="36"/>
       <c r="L66" s="37"/>
@@ -6771,27 +6758,27 @@
       <c r="AT67" s="31"/>
     </row>
     <row r="68" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A68" s="35" t="s">
+      <c r="A68" s="38" t="s">
         <v>27</v>
       </c>
       <c r="B68" s="1">
         <v>500</v>
       </c>
-      <c r="C68" s="38"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="38">
+      <c r="C68" s="39"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="39">
         <v>0.16062893658948699</v>
       </c>
       <c r="F68" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G68" s="38">
+      <c r="G68" s="39">
         <v>0.121214337893307</v>
       </c>
       <c r="H68" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I68" s="35" t="s">
+      <c r="I68" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J68" s="37" t="s">
@@ -6873,17 +6860,17 @@
       </c>
     </row>
     <row r="69" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A69" s="35"/>
+      <c r="A69" s="38"/>
       <c r="B69" s="1">
         <v>1000</v>
       </c>
-      <c r="C69" s="38"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="38"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="39"/>
       <c r="F69" s="37"/>
-      <c r="G69" s="38"/>
+      <c r="G69" s="39"/>
       <c r="H69" s="37"/>
-      <c r="I69" s="35"/>
+      <c r="I69" s="38"/>
       <c r="J69" s="37"/>
       <c r="K69" s="36"/>
       <c r="L69" s="37"/>
@@ -6961,17 +6948,17 @@
       </c>
     </row>
     <row r="70" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
+      <c r="A70" s="38"/>
       <c r="B70" s="1">
         <v>2000</v>
       </c>
-      <c r="C70" s="38"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="38"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="39"/>
       <c r="F70" s="37"/>
-      <c r="G70" s="38"/>
+      <c r="G70" s="39"/>
       <c r="H70" s="37"/>
-      <c r="I70" s="35"/>
+      <c r="I70" s="38"/>
       <c r="J70" s="37"/>
       <c r="K70" s="36"/>
       <c r="L70" s="37"/>
@@ -7049,17 +7036,17 @@
       </c>
     </row>
     <row r="71" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
+      <c r="A71" s="38"/>
       <c r="B71" s="1">
         <v>5000</v>
       </c>
-      <c r="C71" s="38"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="38"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="39"/>
       <c r="F71" s="37"/>
-      <c r="G71" s="38"/>
+      <c r="G71" s="39"/>
       <c r="H71" s="37"/>
-      <c r="I71" s="35"/>
+      <c r="I71" s="38"/>
       <c r="J71" s="37"/>
       <c r="K71" s="36"/>
       <c r="L71" s="37"/>
@@ -7137,27 +7124,27 @@
       </c>
     </row>
     <row r="72" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A72" s="35" t="s">
+      <c r="A72" s="38" t="s">
         <v>28</v>
       </c>
       <c r="B72" s="1">
         <v>500</v>
       </c>
-      <c r="C72" s="38"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="38">
+      <c r="C72" s="39"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="39">
         <v>1.0883629283854401E-2</v>
       </c>
       <c r="F72" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G72" s="38">
+      <c r="G72" s="39">
         <v>2.6516853932584201E-2</v>
       </c>
       <c r="H72" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I72" s="35" t="s">
+      <c r="I72" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J72" s="37" t="s">
@@ -7239,17 +7226,17 @@
       </c>
     </row>
     <row r="73" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A73" s="35"/>
+      <c r="A73" s="38"/>
       <c r="B73" s="1">
         <v>1000</v>
       </c>
-      <c r="C73" s="38"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="38"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="39"/>
       <c r="F73" s="37"/>
-      <c r="G73" s="38"/>
+      <c r="G73" s="39"/>
       <c r="H73" s="37"/>
-      <c r="I73" s="35"/>
+      <c r="I73" s="38"/>
       <c r="J73" s="37"/>
       <c r="K73" s="36"/>
       <c r="L73" s="37"/>
@@ -7327,17 +7314,17 @@
       </c>
     </row>
     <row r="74" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
+      <c r="A74" s="38"/>
       <c r="B74" s="1">
         <v>2000</v>
       </c>
-      <c r="C74" s="38"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="38"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="39"/>
       <c r="F74" s="37"/>
-      <c r="G74" s="38"/>
+      <c r="G74" s="39"/>
       <c r="H74" s="37"/>
-      <c r="I74" s="35"/>
+      <c r="I74" s="38"/>
       <c r="J74" s="37"/>
       <c r="K74" s="36"/>
       <c r="L74" s="37"/>
@@ -7415,17 +7402,17 @@
       </c>
     </row>
     <row r="75" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A75" s="35"/>
+      <c r="A75" s="38"/>
       <c r="B75" s="1">
         <v>5000</v>
       </c>
-      <c r="C75" s="38"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="38"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="39"/>
       <c r="F75" s="37"/>
-      <c r="G75" s="38"/>
+      <c r="G75" s="39"/>
       <c r="H75" s="37"/>
-      <c r="I75" s="35"/>
+      <c r="I75" s="38"/>
       <c r="J75" s="37"/>
       <c r="K75" s="36"/>
       <c r="L75" s="37"/>
@@ -7503,27 +7490,27 @@
       </c>
     </row>
     <row r="76" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A76" s="35" t="s">
+      <c r="A76" s="38" t="s">
         <v>29</v>
       </c>
       <c r="B76" s="1">
         <v>500</v>
       </c>
-      <c r="C76" s="38"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="38">
+      <c r="C76" s="39"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="39">
         <v>2.1265476753851299E-2</v>
       </c>
       <c r="F76" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G76" s="38">
+      <c r="G76" s="39">
         <v>3.6388931451421497E-2</v>
       </c>
       <c r="H76" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I76" s="35" t="s">
+      <c r="I76" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J76" s="37" t="s">
@@ -7605,17 +7592,17 @@
       </c>
     </row>
     <row r="77" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A77" s="35"/>
+      <c r="A77" s="38"/>
       <c r="B77" s="1">
         <v>1000</v>
       </c>
-      <c r="C77" s="38"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="38"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="39"/>
       <c r="F77" s="37"/>
-      <c r="G77" s="38"/>
+      <c r="G77" s="39"/>
       <c r="H77" s="37"/>
-      <c r="I77" s="35"/>
+      <c r="I77" s="38"/>
       <c r="J77" s="37"/>
       <c r="K77" s="36"/>
       <c r="L77" s="37"/>
@@ -7693,17 +7680,17 @@
       </c>
     </row>
     <row r="78" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A78" s="35"/>
+      <c r="A78" s="38"/>
       <c r="B78" s="1">
         <v>2000</v>
       </c>
-      <c r="C78" s="38"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="38"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="39"/>
       <c r="F78" s="37"/>
-      <c r="G78" s="38"/>
+      <c r="G78" s="39"/>
       <c r="H78" s="37"/>
-      <c r="I78" s="35"/>
+      <c r="I78" s="38"/>
       <c r="J78" s="37"/>
       <c r="K78" s="36"/>
       <c r="L78" s="37"/>
@@ -7780,17 +7767,17 @@
       </c>
     </row>
     <row r="79" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A79" s="35"/>
+      <c r="A79" s="38"/>
       <c r="B79" s="1">
         <v>5000</v>
       </c>
-      <c r="C79" s="38"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="38"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="39"/>
       <c r="F79" s="37"/>
-      <c r="G79" s="38"/>
+      <c r="G79" s="39"/>
       <c r="H79" s="37"/>
-      <c r="I79" s="35"/>
+      <c r="I79" s="38"/>
       <c r="J79" s="37"/>
       <c r="K79" s="36"/>
       <c r="L79" s="37"/>
@@ -7867,27 +7854,27 @@
       </c>
     </row>
     <row r="80" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="38" t="s">
         <v>30</v>
       </c>
       <c r="B80" s="1">
         <v>500</v>
       </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="38">
+      <c r="C80" s="39"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="39">
         <v>0.17058616214445499</v>
       </c>
       <c r="F80" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G80" s="38">
+      <c r="G80" s="39">
         <v>0.11949852870448099</v>
       </c>
       <c r="H80" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I80" s="35" t="s">
+      <c r="I80" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J80" s="37" t="s">
@@ -7968,17 +7955,17 @@
       </c>
     </row>
     <row r="81" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A81" s="35"/>
+      <c r="A81" s="38"/>
       <c r="B81" s="1">
         <v>1000</v>
       </c>
-      <c r="C81" s="38"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="38"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="39"/>
       <c r="F81" s="37"/>
-      <c r="G81" s="38"/>
+      <c r="G81" s="39"/>
       <c r="H81" s="37"/>
-      <c r="I81" s="35"/>
+      <c r="I81" s="38"/>
       <c r="J81" s="37"/>
       <c r="K81" s="36"/>
       <c r="L81" s="37"/>
@@ -8055,17 +8042,17 @@
       </c>
     </row>
     <row r="82" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A82" s="35"/>
+      <c r="A82" s="38"/>
       <c r="B82" s="1">
         <v>2000</v>
       </c>
-      <c r="C82" s="38"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="38"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="39"/>
       <c r="F82" s="37"/>
-      <c r="G82" s="38"/>
+      <c r="G82" s="39"/>
       <c r="H82" s="37"/>
-      <c r="I82" s="35"/>
+      <c r="I82" s="38"/>
       <c r="J82" s="37"/>
       <c r="K82" s="36"/>
       <c r="L82" s="37"/>
@@ -8142,17 +8129,17 @@
       </c>
     </row>
     <row r="83" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A83" s="35"/>
+      <c r="A83" s="38"/>
       <c r="B83" s="1">
         <v>5000</v>
       </c>
-      <c r="C83" s="38"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="38"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="39"/>
       <c r="F83" s="37"/>
-      <c r="G83" s="38"/>
+      <c r="G83" s="39"/>
       <c r="H83" s="37"/>
-      <c r="I83" s="35"/>
+      <c r="I83" s="38"/>
       <c r="J83" s="37"/>
       <c r="K83" s="36"/>
       <c r="L83" s="37"/>
@@ -8229,27 +8216,27 @@
       </c>
     </row>
     <row r="84" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A84" s="35" t="s">
+      <c r="A84" s="38" t="s">
         <v>31</v>
       </c>
       <c r="B84" s="1">
         <v>500</v>
       </c>
-      <c r="C84" s="38"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="38">
+      <c r="C84" s="39"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="39">
         <v>0.219652082835287</v>
       </c>
       <c r="F84" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G84" s="38">
+      <c r="G84" s="39">
         <v>0.145969617876444</v>
       </c>
       <c r="H84" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I84" s="35" t="s">
+      <c r="I84" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J84" s="37" t="s">
@@ -8330,17 +8317,17 @@
       </c>
     </row>
     <row r="85" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A85" s="35"/>
+      <c r="A85" s="38"/>
       <c r="B85" s="1">
         <v>1000</v>
       </c>
-      <c r="C85" s="38"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="38"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="39"/>
       <c r="F85" s="37"/>
-      <c r="G85" s="38"/>
+      <c r="G85" s="39"/>
       <c r="H85" s="37"/>
-      <c r="I85" s="35"/>
+      <c r="I85" s="38"/>
       <c r="J85" s="37"/>
       <c r="K85" s="36"/>
       <c r="L85" s="37"/>
@@ -8417,17 +8404,17 @@
       </c>
     </row>
     <row r="86" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A86" s="35"/>
+      <c r="A86" s="38"/>
       <c r="B86" s="1">
         <v>2000</v>
       </c>
-      <c r="C86" s="38"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="38"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="39"/>
       <c r="F86" s="37"/>
-      <c r="G86" s="38"/>
+      <c r="G86" s="39"/>
       <c r="H86" s="37"/>
-      <c r="I86" s="35"/>
+      <c r="I86" s="38"/>
       <c r="J86" s="37"/>
       <c r="K86" s="36"/>
       <c r="L86" s="37"/>
@@ -8504,17 +8491,17 @@
       </c>
     </row>
     <row r="87" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A87" s="35"/>
+      <c r="A87" s="38"/>
       <c r="B87" s="1">
         <v>5000</v>
       </c>
-      <c r="C87" s="38"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="38"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="39"/>
       <c r="F87" s="37"/>
-      <c r="G87" s="38"/>
+      <c r="G87" s="39"/>
       <c r="H87" s="37"/>
-      <c r="I87" s="35"/>
+      <c r="I87" s="38"/>
       <c r="J87" s="37"/>
       <c r="K87" s="36"/>
       <c r="L87" s="37"/>
@@ -8591,27 +8578,27 @@
       </c>
     </row>
     <row r="88" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A88" s="35" t="s">
+      <c r="A88" s="38" t="s">
         <v>26</v>
       </c>
       <c r="B88" s="1">
         <v>500</v>
       </c>
-      <c r="C88" s="38"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="38">
+      <c r="C88" s="39"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="39">
         <v>0.27256493121848202</v>
       </c>
       <c r="F88" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G88" s="38">
+      <c r="G88" s="39">
         <v>0.15719859527191099</v>
       </c>
       <c r="H88" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I88" s="35" t="s">
+      <c r="I88" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J88" s="37" t="s">
@@ -8692,17 +8679,17 @@
       </c>
     </row>
     <row r="89" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A89" s="35"/>
+      <c r="A89" s="38"/>
       <c r="B89" s="1">
         <v>1000</v>
       </c>
-      <c r="C89" s="38"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="38"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="39"/>
       <c r="F89" s="37"/>
-      <c r="G89" s="38"/>
+      <c r="G89" s="39"/>
       <c r="H89" s="37"/>
-      <c r="I89" s="35"/>
+      <c r="I89" s="38"/>
       <c r="J89" s="37"/>
       <c r="K89" s="36"/>
       <c r="L89" s="37"/>
@@ -8779,17 +8766,17 @@
       </c>
     </row>
     <row r="90" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A90" s="35"/>
+      <c r="A90" s="38"/>
       <c r="B90" s="1">
         <v>2000</v>
       </c>
-      <c r="C90" s="38"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="38"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="39"/>
       <c r="F90" s="37"/>
-      <c r="G90" s="38"/>
+      <c r="G90" s="39"/>
       <c r="H90" s="37"/>
-      <c r="I90" s="35"/>
+      <c r="I90" s="38"/>
       <c r="J90" s="37"/>
       <c r="K90" s="36"/>
       <c r="L90" s="37"/>
@@ -8866,17 +8853,17 @@
       </c>
     </row>
     <row r="91" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A91" s="35"/>
+      <c r="A91" s="38"/>
       <c r="B91" s="1">
         <v>5000</v>
       </c>
-      <c r="C91" s="38"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="38"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="39"/>
       <c r="F91" s="37"/>
-      <c r="G91" s="38"/>
+      <c r="G91" s="39"/>
       <c r="H91" s="37"/>
-      <c r="I91" s="35"/>
+      <c r="I91" s="38"/>
       <c r="J91" s="37"/>
       <c r="K91" s="36"/>
       <c r="L91" s="37"/>
@@ -8953,27 +8940,27 @@
       </c>
     </row>
     <row r="92" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A92" s="35" t="s">
+      <c r="A92" s="38" t="s">
         <v>32</v>
       </c>
       <c r="B92" s="1">
         <v>500</v>
       </c>
-      <c r="C92" s="38"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="38">
+      <c r="C92" s="39"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="39">
         <v>6.2700060480871303E-2</v>
       </c>
       <c r="F92" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G92" s="38">
+      <c r="G92" s="39">
         <v>3.09751238890398E-2</v>
       </c>
       <c r="H92" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I92" s="35" t="s">
+      <c r="I92" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J92" s="37" t="s">
@@ -9054,17 +9041,17 @@
       </c>
     </row>
     <row r="93" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A93" s="35"/>
+      <c r="A93" s="38"/>
       <c r="B93" s="1">
         <v>1000</v>
       </c>
-      <c r="C93" s="38"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="38"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="39"/>
       <c r="F93" s="37"/>
-      <c r="G93" s="38"/>
+      <c r="G93" s="39"/>
       <c r="H93" s="37"/>
-      <c r="I93" s="35"/>
+      <c r="I93" s="38"/>
       <c r="J93" s="37"/>
       <c r="K93" s="36"/>
       <c r="L93" s="37"/>
@@ -9141,17 +9128,17 @@
       </c>
     </row>
     <row r="94" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A94" s="35"/>
+      <c r="A94" s="38"/>
       <c r="B94" s="1">
         <v>2000</v>
       </c>
-      <c r="C94" s="38"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="38"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="39"/>
       <c r="F94" s="37"/>
-      <c r="G94" s="38"/>
+      <c r="G94" s="39"/>
       <c r="H94" s="37"/>
-      <c r="I94" s="35"/>
+      <c r="I94" s="38"/>
       <c r="J94" s="37"/>
       <c r="K94" s="36"/>
       <c r="L94" s="37"/>
@@ -9228,17 +9215,17 @@
       </c>
     </row>
     <row r="95" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A95" s="35"/>
+      <c r="A95" s="38"/>
       <c r="B95" s="1">
         <v>5000</v>
       </c>
-      <c r="C95" s="38"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="38"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="39"/>
       <c r="F95" s="37"/>
-      <c r="G95" s="38"/>
+      <c r="G95" s="39"/>
       <c r="H95" s="37"/>
-      <c r="I95" s="35"/>
+      <c r="I95" s="38"/>
       <c r="J95" s="37"/>
       <c r="K95" s="36"/>
       <c r="L95" s="37"/>
@@ -9315,27 +9302,27 @@
       </c>
     </row>
     <row r="96" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A96" s="35" t="s">
+      <c r="A96" s="38" t="s">
         <v>33</v>
       </c>
       <c r="B96" s="1">
         <v>500</v>
       </c>
-      <c r="C96" s="38"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="38">
+      <c r="C96" s="39"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="39">
         <v>0.21402465142211599</v>
       </c>
       <c r="F96" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G96" s="38">
+      <c r="G96" s="39">
         <v>0.16071994068421799</v>
       </c>
       <c r="H96" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I96" s="35" t="s">
+      <c r="I96" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J96" s="37" t="s">
@@ -9416,17 +9403,17 @@
       </c>
     </row>
     <row r="97" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A97" s="35"/>
+      <c r="A97" s="38"/>
       <c r="B97" s="1">
         <v>1000</v>
       </c>
-      <c r="C97" s="38"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="38"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="39"/>
       <c r="F97" s="37"/>
-      <c r="G97" s="38"/>
+      <c r="G97" s="39"/>
       <c r="H97" s="37"/>
-      <c r="I97" s="35"/>
+      <c r="I97" s="38"/>
       <c r="J97" s="37"/>
       <c r="K97" s="36"/>
       <c r="L97" s="37"/>
@@ -9503,17 +9490,17 @@
       </c>
     </row>
     <row r="98" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A98" s="35"/>
+      <c r="A98" s="38"/>
       <c r="B98" s="1">
         <v>2000</v>
       </c>
-      <c r="C98" s="38"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="38"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="39"/>
       <c r="F98" s="37"/>
-      <c r="G98" s="38"/>
+      <c r="G98" s="39"/>
       <c r="H98" s="37"/>
-      <c r="I98" s="35"/>
+      <c r="I98" s="38"/>
       <c r="J98" s="37"/>
       <c r="K98" s="36"/>
       <c r="L98" s="37"/>
@@ -9590,17 +9577,17 @@
       </c>
     </row>
     <row r="99" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A99" s="35"/>
+      <c r="A99" s="38"/>
       <c r="B99" s="1">
         <v>5000</v>
       </c>
-      <c r="C99" s="38"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="38"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="39"/>
       <c r="F99" s="37"/>
-      <c r="G99" s="38"/>
+      <c r="G99" s="39"/>
       <c r="H99" s="37"/>
-      <c r="I99" s="35"/>
+      <c r="I99" s="38"/>
       <c r="J99" s="37"/>
       <c r="K99" s="36"/>
       <c r="L99" s="37"/>
@@ -9702,23 +9689,23 @@
       <c r="AT100" s="24"/>
     </row>
     <row r="101" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A101" s="35" t="s">
+      <c r="A101" s="38" t="s">
         <v>47</v>
       </c>
       <c r="B101" s="16">
         <v>500</v>
       </c>
-      <c r="C101" s="38"/>
-      <c r="D101" s="38"/>
-      <c r="E101" s="38"/>
+      <c r="C101" s="39"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39"/>
       <c r="F101" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G101" s="38"/>
+      <c r="G101" s="39"/>
       <c r="H101" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I101" s="35" t="s">
+      <c r="I101" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J101" s="37" t="s">
@@ -9793,17 +9780,17 @@
       </c>
     </row>
     <row r="102" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A102" s="35"/>
+      <c r="A102" s="38"/>
       <c r="B102" s="16">
         <v>1000</v>
       </c>
-      <c r="C102" s="38"/>
-      <c r="D102" s="38"/>
-      <c r="E102" s="38"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
       <c r="F102" s="37"/>
-      <c r="G102" s="38"/>
+      <c r="G102" s="39"/>
       <c r="H102" s="37"/>
-      <c r="I102" s="35"/>
+      <c r="I102" s="38"/>
       <c r="J102" s="37"/>
       <c r="K102" s="36"/>
       <c r="L102" s="37"/>
@@ -9874,17 +9861,17 @@
       </c>
     </row>
     <row r="103" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A103" s="35"/>
+      <c r="A103" s="38"/>
       <c r="B103" s="16">
         <v>2000</v>
       </c>
-      <c r="C103" s="38"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="38"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="39"/>
       <c r="F103" s="37"/>
-      <c r="G103" s="38"/>
+      <c r="G103" s="39"/>
       <c r="H103" s="37"/>
-      <c r="I103" s="35"/>
+      <c r="I103" s="38"/>
       <c r="J103" s="37"/>
       <c r="K103" s="36"/>
       <c r="L103" s="37"/>
@@ -9955,17 +9942,17 @@
       </c>
     </row>
     <row r="104" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A104" s="35"/>
+      <c r="A104" s="38"/>
       <c r="B104" s="16">
         <v>5000</v>
       </c>
-      <c r="C104" s="38"/>
-      <c r="D104" s="38"/>
-      <c r="E104" s="38"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="39"/>
       <c r="F104" s="37"/>
-      <c r="G104" s="38"/>
+      <c r="G104" s="39"/>
       <c r="H104" s="37"/>
-      <c r="I104" s="35"/>
+      <c r="I104" s="38"/>
       <c r="J104" s="37"/>
       <c r="K104" s="36"/>
       <c r="L104" s="37"/>
@@ -10036,23 +10023,23 @@
       </c>
     </row>
     <row r="105" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A105" s="35" t="s">
+      <c r="A105" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B105" s="16">
         <v>500</v>
       </c>
-      <c r="C105" s="38"/>
-      <c r="D105" s="38"/>
-      <c r="E105" s="38"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="39"/>
       <c r="F105" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G105" s="38"/>
+      <c r="G105" s="39"/>
       <c r="H105" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I105" s="35" t="s">
+      <c r="I105" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J105" s="37" t="s">
@@ -10127,17 +10114,17 @@
       </c>
     </row>
     <row r="106" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A106" s="35"/>
+      <c r="A106" s="38"/>
       <c r="B106" s="16">
         <v>1000</v>
       </c>
-      <c r="C106" s="38"/>
-      <c r="D106" s="38"/>
-      <c r="E106" s="38"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="39"/>
       <c r="F106" s="37"/>
-      <c r="G106" s="38"/>
+      <c r="G106" s="39"/>
       <c r="H106" s="37"/>
-      <c r="I106" s="35"/>
+      <c r="I106" s="38"/>
       <c r="J106" s="37"/>
       <c r="K106" s="36"/>
       <c r="L106" s="37"/>
@@ -10208,17 +10195,17 @@
       </c>
     </row>
     <row r="107" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A107" s="35"/>
+      <c r="A107" s="38"/>
       <c r="B107" s="16">
         <v>2000</v>
       </c>
-      <c r="C107" s="38"/>
-      <c r="D107" s="38"/>
-      <c r="E107" s="38"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="39"/>
       <c r="F107" s="37"/>
-      <c r="G107" s="38"/>
+      <c r="G107" s="39"/>
       <c r="H107" s="37"/>
-      <c r="I107" s="35"/>
+      <c r="I107" s="38"/>
       <c r="J107" s="37"/>
       <c r="K107" s="36"/>
       <c r="L107" s="37"/>
@@ -10289,17 +10276,17 @@
       </c>
     </row>
     <row r="108" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A108" s="35"/>
+      <c r="A108" s="38"/>
       <c r="B108" s="16">
         <v>5000</v>
       </c>
-      <c r="C108" s="38"/>
-      <c r="D108" s="38"/>
-      <c r="E108" s="38"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="39"/>
       <c r="F108" s="37"/>
-      <c r="G108" s="38"/>
+      <c r="G108" s="39"/>
       <c r="H108" s="37"/>
-      <c r="I108" s="35"/>
+      <c r="I108" s="38"/>
       <c r="J108" s="37"/>
       <c r="K108" s="36"/>
       <c r="L108" s="37"/>
@@ -10370,23 +10357,23 @@
       </c>
     </row>
     <row r="109" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A109" s="35" t="s">
+      <c r="A109" s="38" t="s">
         <v>59</v>
       </c>
       <c r="B109" s="16">
         <v>500</v>
       </c>
-      <c r="C109" s="38"/>
-      <c r="D109" s="38"/>
-      <c r="E109" s="38"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="39"/>
       <c r="F109" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G109" s="38"/>
+      <c r="G109" s="39"/>
       <c r="H109" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I109" s="35" t="s">
+      <c r="I109" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J109" s="37" t="s">
@@ -10461,17 +10448,17 @@
       </c>
     </row>
     <row r="110" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A110" s="35"/>
+      <c r="A110" s="38"/>
       <c r="B110" s="16">
         <v>1000</v>
       </c>
-      <c r="C110" s="38"/>
-      <c r="D110" s="38"/>
-      <c r="E110" s="38"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="39"/>
       <c r="F110" s="37"/>
-      <c r="G110" s="38"/>
+      <c r="G110" s="39"/>
       <c r="H110" s="37"/>
-      <c r="I110" s="35"/>
+      <c r="I110" s="38"/>
       <c r="J110" s="37"/>
       <c r="K110" s="36"/>
       <c r="L110" s="37"/>
@@ -10542,17 +10529,17 @@
       </c>
     </row>
     <row r="111" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A111" s="35"/>
+      <c r="A111" s="38"/>
       <c r="B111" s="16">
         <v>2000</v>
       </c>
-      <c r="C111" s="38"/>
-      <c r="D111" s="38"/>
-      <c r="E111" s="38"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="39"/>
       <c r="F111" s="37"/>
-      <c r="G111" s="38"/>
+      <c r="G111" s="39"/>
       <c r="H111" s="37"/>
-      <c r="I111" s="35"/>
+      <c r="I111" s="38"/>
       <c r="J111" s="37"/>
       <c r="K111" s="36"/>
       <c r="L111" s="37"/>
@@ -10623,17 +10610,17 @@
       </c>
     </row>
     <row r="112" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A112" s="35"/>
+      <c r="A112" s="38"/>
       <c r="B112" s="16">
         <v>5000</v>
       </c>
-      <c r="C112" s="38"/>
-      <c r="D112" s="38"/>
-      <c r="E112" s="38"/>
+      <c r="C112" s="39"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="39"/>
       <c r="F112" s="37"/>
-      <c r="G112" s="38"/>
+      <c r="G112" s="39"/>
       <c r="H112" s="37"/>
-      <c r="I112" s="35"/>
+      <c r="I112" s="38"/>
       <c r="J112" s="37"/>
       <c r="K112" s="36"/>
       <c r="L112" s="37"/>
@@ -10724,14 +10711,14 @@
       <c r="AP113" s="24"/>
     </row>
     <row r="114" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A114" s="35" t="s">
+      <c r="A114" s="38" t="s">
         <v>60</v>
       </c>
       <c r="B114" s="20">
         <v>500</v>
       </c>
-      <c r="C114" s="38"/>
-      <c r="D114" s="38"/>
+      <c r="C114" s="39"/>
+      <c r="D114" s="39"/>
       <c r="E114" s="37" t="s">
         <v>9</v>
       </c>
@@ -10794,12 +10781,12 @@
       </c>
     </row>
     <row r="115" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A115" s="35"/>
+      <c r="A115" s="38"/>
       <c r="B115" s="20">
         <v>1000</v>
       </c>
-      <c r="C115" s="38"/>
-      <c r="D115" s="38"/>
+      <c r="C115" s="39"/>
+      <c r="D115" s="39"/>
       <c r="E115" s="37"/>
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
@@ -10850,12 +10837,12 @@
       </c>
     </row>
     <row r="116" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A116" s="35"/>
+      <c r="A116" s="38"/>
       <c r="B116" s="20">
         <v>2000</v>
       </c>
-      <c r="C116" s="38"/>
-      <c r="D116" s="38"/>
+      <c r="C116" s="39"/>
+      <c r="D116" s="39"/>
       <c r="E116" s="37"/>
       <c r="F116" s="37"/>
       <c r="G116" s="37"/>
@@ -10906,12 +10893,12 @@
       </c>
     </row>
     <row r="117" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A117" s="35"/>
+      <c r="A117" s="38"/>
       <c r="B117" s="20">
         <v>5000</v>
       </c>
-      <c r="C117" s="38"/>
-      <c r="D117" s="38"/>
+      <c r="C117" s="39"/>
+      <c r="D117" s="39"/>
       <c r="E117" s="37"/>
       <c r="F117" s="37"/>
       <c r="G117" s="37"/>
@@ -10962,14 +10949,14 @@
       </c>
     </row>
     <row r="118" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A118" s="35" t="s">
+      <c r="A118" s="38" t="s">
         <v>61</v>
       </c>
       <c r="B118" s="20">
         <v>500</v>
       </c>
-      <c r="C118" s="38"/>
-      <c r="D118" s="38"/>
+      <c r="C118" s="39"/>
+      <c r="D118" s="39"/>
       <c r="E118" s="37" t="s">
         <v>9</v>
       </c>
@@ -11032,12 +11019,12 @@
       </c>
     </row>
     <row r="119" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A119" s="35"/>
+      <c r="A119" s="38"/>
       <c r="B119" s="20">
         <v>1000</v>
       </c>
-      <c r="C119" s="38"/>
-      <c r="D119" s="38"/>
+      <c r="C119" s="39"/>
+      <c r="D119" s="39"/>
       <c r="E119" s="37"/>
       <c r="F119" s="37"/>
       <c r="G119" s="37"/>
@@ -11088,12 +11075,12 @@
       </c>
     </row>
     <row r="120" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A120" s="35"/>
+      <c r="A120" s="38"/>
       <c r="B120" s="20">
         <v>2000</v>
       </c>
-      <c r="C120" s="38"/>
-      <c r="D120" s="38"/>
+      <c r="C120" s="39"/>
+      <c r="D120" s="39"/>
       <c r="E120" s="37"/>
       <c r="F120" s="37"/>
       <c r="G120" s="37"/>
@@ -11144,12 +11131,12 @@
       </c>
     </row>
     <row r="121" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A121" s="35"/>
+      <c r="A121" s="38"/>
       <c r="B121" s="20">
         <v>5000</v>
       </c>
-      <c r="C121" s="38"/>
-      <c r="D121" s="38"/>
+      <c r="C121" s="39"/>
+      <c r="D121" s="39"/>
       <c r="E121" s="37"/>
       <c r="F121" s="37"/>
       <c r="G121" s="37"/>
@@ -11200,14 +11187,14 @@
       </c>
     </row>
     <row r="122" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A122" s="35" t="s">
+      <c r="A122" s="38" t="s">
         <v>62</v>
       </c>
       <c r="B122" s="20">
         <v>500</v>
       </c>
-      <c r="C122" s="38"/>
-      <c r="D122" s="38"/>
+      <c r="C122" s="39"/>
+      <c r="D122" s="39"/>
       <c r="E122" s="37" t="s">
         <v>9</v>
       </c>
@@ -11270,12 +11257,12 @@
       </c>
     </row>
     <row r="123" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A123" s="35"/>
+      <c r="A123" s="38"/>
       <c r="B123" s="20">
         <v>1000</v>
       </c>
-      <c r="C123" s="38"/>
-      <c r="D123" s="38"/>
+      <c r="C123" s="39"/>
+      <c r="D123" s="39"/>
       <c r="E123" s="37"/>
       <c r="F123" s="37"/>
       <c r="G123" s="37"/>
@@ -11326,12 +11313,12 @@
       </c>
     </row>
     <row r="124" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A124" s="35"/>
+      <c r="A124" s="38"/>
       <c r="B124" s="20">
         <v>2000</v>
       </c>
-      <c r="C124" s="38"/>
-      <c r="D124" s="38"/>
+      <c r="C124" s="39"/>
+      <c r="D124" s="39"/>
       <c r="E124" s="37"/>
       <c r="F124" s="37"/>
       <c r="G124" s="37"/>
@@ -11382,12 +11369,12 @@
       </c>
     </row>
     <row r="125" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A125" s="35"/>
+      <c r="A125" s="38"/>
       <c r="B125" s="20">
         <v>5000</v>
       </c>
-      <c r="C125" s="38"/>
-      <c r="D125" s="38"/>
+      <c r="C125" s="39"/>
+      <c r="D125" s="39"/>
       <c r="E125" s="37"/>
       <c r="F125" s="37"/>
       <c r="G125" s="37"/>
@@ -11438,14 +11425,14 @@
       </c>
     </row>
     <row r="126" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A126" s="35" t="s">
+      <c r="A126" s="38" t="s">
         <v>63</v>
       </c>
       <c r="B126" s="20">
         <v>500</v>
       </c>
-      <c r="C126" s="38"/>
-      <c r="D126" s="38"/>
+      <c r="C126" s="39"/>
+      <c r="D126" s="39"/>
       <c r="E126" s="37" t="s">
         <v>9</v>
       </c>
@@ -11508,12 +11495,12 @@
       </c>
     </row>
     <row r="127" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A127" s="35"/>
+      <c r="A127" s="38"/>
       <c r="B127" s="20">
         <v>1000</v>
       </c>
-      <c r="C127" s="38"/>
-      <c r="D127" s="38"/>
+      <c r="C127" s="39"/>
+      <c r="D127" s="39"/>
       <c r="E127" s="37"/>
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
@@ -11564,12 +11551,12 @@
       </c>
     </row>
     <row r="128" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A128" s="35"/>
+      <c r="A128" s="38"/>
       <c r="B128" s="20">
         <v>2000</v>
       </c>
-      <c r="C128" s="38"/>
-      <c r="D128" s="38"/>
+      <c r="C128" s="39"/>
+      <c r="D128" s="39"/>
       <c r="E128" s="37"/>
       <c r="F128" s="37"/>
       <c r="G128" s="37"/>
@@ -11620,12 +11607,12 @@
       </c>
     </row>
     <row r="129" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A129" s="35"/>
+      <c r="A129" s="38"/>
       <c r="B129" s="20">
         <v>5000</v>
       </c>
-      <c r="C129" s="38"/>
-      <c r="D129" s="38"/>
+      <c r="C129" s="39"/>
+      <c r="D129" s="39"/>
       <c r="E129" s="37"/>
       <c r="F129" s="37"/>
       <c r="G129" s="37"/>
@@ -11676,14 +11663,14 @@
       </c>
     </row>
     <row r="130" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A130" s="35" t="s">
+      <c r="A130" s="38" t="s">
         <v>64</v>
       </c>
       <c r="B130" s="20">
         <v>500</v>
       </c>
-      <c r="C130" s="38"/>
-      <c r="D130" s="38"/>
+      <c r="C130" s="39"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="37" t="s">
         <v>9</v>
       </c>
@@ -11746,12 +11733,12 @@
       </c>
     </row>
     <row r="131" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A131" s="35"/>
+      <c r="A131" s="38"/>
       <c r="B131" s="20">
         <v>1000</v>
       </c>
-      <c r="C131" s="38"/>
-      <c r="D131" s="38"/>
+      <c r="C131" s="39"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="37"/>
       <c r="F131" s="37"/>
       <c r="G131" s="37"/>
@@ -11802,12 +11789,12 @@
       </c>
     </row>
     <row r="132" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A132" s="35"/>
+      <c r="A132" s="38"/>
       <c r="B132" s="20">
         <v>2000</v>
       </c>
-      <c r="C132" s="38"/>
-      <c r="D132" s="38"/>
+      <c r="C132" s="39"/>
+      <c r="D132" s="39"/>
       <c r="E132" s="37"/>
       <c r="F132" s="37"/>
       <c r="G132" s="37"/>
@@ -11858,12 +11845,12 @@
       </c>
     </row>
     <row r="133" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A133" s="35"/>
+      <c r="A133" s="38"/>
       <c r="B133" s="20">
         <v>5000</v>
       </c>
-      <c r="C133" s="38"/>
-      <c r="D133" s="38"/>
+      <c r="C133" s="39"/>
+      <c r="D133" s="39"/>
       <c r="E133" s="37"/>
       <c r="F133" s="37"/>
       <c r="G133" s="37"/>
@@ -11914,14 +11901,14 @@
       </c>
     </row>
     <row r="134" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A134" s="35" t="s">
+      <c r="A134" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B134" s="23">
         <v>500</v>
       </c>
-      <c r="C134" s="38"/>
-      <c r="D134" s="38"/>
+      <c r="C134" s="39"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="37" t="s">
         <v>9</v>
       </c>
@@ -11984,12 +11971,12 @@
       </c>
     </row>
     <row r="135" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A135" s="35"/>
+      <c r="A135" s="38"/>
       <c r="B135" s="23">
         <v>1000</v>
       </c>
-      <c r="C135" s="38"/>
-      <c r="D135" s="38"/>
+      <c r="C135" s="39"/>
+      <c r="D135" s="39"/>
       <c r="E135" s="37"/>
       <c r="F135" s="37"/>
       <c r="G135" s="37"/>
@@ -12040,12 +12027,12 @@
       </c>
     </row>
     <row r="136" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A136" s="35"/>
+      <c r="A136" s="38"/>
       <c r="B136" s="23">
         <v>2000</v>
       </c>
-      <c r="C136" s="38"/>
-      <c r="D136" s="38"/>
+      <c r="C136" s="39"/>
+      <c r="D136" s="39"/>
       <c r="E136" s="37"/>
       <c r="F136" s="37"/>
       <c r="G136" s="37"/>
@@ -12096,12 +12083,12 @@
       </c>
     </row>
     <row r="137" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A137" s="35"/>
+      <c r="A137" s="38"/>
       <c r="B137" s="23">
         <v>5000</v>
       </c>
-      <c r="C137" s="38"/>
-      <c r="D137" s="38"/>
+      <c r="C137" s="39"/>
+      <c r="D137" s="39"/>
       <c r="E137" s="37"/>
       <c r="F137" s="37"/>
       <c r="G137" s="37"/>
@@ -12152,14 +12139,14 @@
       </c>
     </row>
     <row r="138" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A138" s="35" t="s">
+      <c r="A138" s="38" t="s">
         <v>66</v>
       </c>
       <c r="B138" s="23">
         <v>500</v>
       </c>
-      <c r="C138" s="38"/>
-      <c r="D138" s="38"/>
+      <c r="C138" s="39"/>
+      <c r="D138" s="39"/>
       <c r="E138" s="37" t="s">
         <v>9</v>
       </c>
@@ -12222,12 +12209,12 @@
       </c>
     </row>
     <row r="139" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A139" s="35"/>
+      <c r="A139" s="38"/>
       <c r="B139" s="23">
         <v>1000</v>
       </c>
-      <c r="C139" s="38"/>
-      <c r="D139" s="38"/>
+      <c r="C139" s="39"/>
+      <c r="D139" s="39"/>
       <c r="E139" s="37"/>
       <c r="F139" s="37"/>
       <c r="G139" s="37"/>
@@ -12278,12 +12265,12 @@
       </c>
     </row>
     <row r="140" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A140" s="35"/>
+      <c r="A140" s="38"/>
       <c r="B140" s="23">
         <v>2000</v>
       </c>
-      <c r="C140" s="38"/>
-      <c r="D140" s="38"/>
+      <c r="C140" s="39"/>
+      <c r="D140" s="39"/>
       <c r="E140" s="37"/>
       <c r="F140" s="37"/>
       <c r="G140" s="37"/>
@@ -12334,12 +12321,12 @@
       </c>
     </row>
     <row r="141" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A141" s="35"/>
+      <c r="A141" s="38"/>
       <c r="B141" s="23">
         <v>5000</v>
       </c>
-      <c r="C141" s="38"/>
-      <c r="D141" s="38"/>
+      <c r="C141" s="39"/>
+      <c r="D141" s="39"/>
       <c r="E141" s="37"/>
       <c r="F141" s="37"/>
       <c r="G141" s="37"/>
@@ -12408,41 +12395,41 @@
       <c r="Q147"/>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A148" s="35" t="s">
+      <c r="A148" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B148" s="35"/>
-      <c r="C148" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D148" s="35"/>
-      <c r="E148" s="35" t="s">
+      <c r="B148" s="38"/>
+      <c r="C148" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D148" s="38"/>
+      <c r="E148" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F148" s="35"/>
-      <c r="G148" s="35" t="s">
+      <c r="F148" s="38"/>
+      <c r="G148" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H148" s="35"/>
-      <c r="I148" s="35" t="s">
+      <c r="H148" s="38"/>
+      <c r="I148" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J148" s="35"/>
-      <c r="K148" s="35" t="s">
+      <c r="J148" s="38"/>
+      <c r="K148" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="L148" s="35"/>
-      <c r="M148" s="38" t="s">
+      <c r="L148" s="38"/>
+      <c r="M148" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="N148" s="38"/>
+      <c r="N148" s="39"/>
       <c r="P148" s="11"/>
       <c r="Q148"/>
       <c r="R148" s="11"/>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A149" s="35"/>
-      <c r="B149" s="35"/>
+      <c r="A149" s="38"/>
+      <c r="B149" s="38"/>
       <c r="C149" s="12" t="s">
         <v>7</v>
       </c>
@@ -12486,7 +12473,7 @@
       <c r="R149" s="12"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A150" s="35" t="s">
+      <c r="A150" s="38" t="s">
         <v>10</v>
       </c>
       <c r="B150" s="11">
@@ -12498,7 +12485,7 @@
       <c r="F150" s="13"/>
       <c r="G150" s="12"/>
       <c r="H150" s="13"/>
-      <c r="I150" s="38">
+      <c r="I150" s="39">
         <v>0.22309999999999999</v>
       </c>
       <c r="J150" s="37">
@@ -12509,7 +12496,7 @@
       <c r="Q150"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A151" s="35"/>
+      <c r="A151" s="38"/>
       <c r="B151" s="11">
         <v>1000</v>
       </c>
@@ -12519,14 +12506,14 @@
       <c r="F151" s="13"/>
       <c r="G151" s="12"/>
       <c r="H151" s="13"/>
-      <c r="I151" s="38"/>
+      <c r="I151" s="39"/>
       <c r="J151" s="37"/>
       <c r="K151" s="36"/>
       <c r="L151" s="37"/>
       <c r="Q151"/>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A152" s="35"/>
+      <c r="A152" s="38"/>
       <c r="B152" s="11">
         <v>2000</v>
       </c>
@@ -12536,14 +12523,14 @@
       <c r="F152" s="13"/>
       <c r="G152" s="12"/>
       <c r="H152" s="13"/>
-      <c r="I152" s="38"/>
+      <c r="I152" s="39"/>
       <c r="J152" s="37"/>
       <c r="K152" s="36"/>
       <c r="L152" s="37"/>
       <c r="Q152"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A153" s="35"/>
+      <c r="A153" s="38"/>
       <c r="B153" s="11">
         <v>5000</v>
       </c>
@@ -12553,14 +12540,14 @@
       <c r="F153" s="13"/>
       <c r="G153" s="12"/>
       <c r="H153" s="13"/>
-      <c r="I153" s="38"/>
+      <c r="I153" s="39"/>
       <c r="J153" s="37"/>
       <c r="K153" s="36"/>
       <c r="L153" s="37"/>
       <c r="Q153"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A154" s="35" t="s">
+      <c r="A154" s="38" t="s">
         <v>35</v>
       </c>
       <c r="B154" s="11">
@@ -12572,14 +12559,14 @@
       <c r="F154" s="13"/>
       <c r="G154" s="12"/>
       <c r="H154" s="13"/>
-      <c r="I154" s="38"/>
+      <c r="I154" s="39"/>
       <c r="J154" s="37"/>
       <c r="K154" s="36"/>
       <c r="L154" s="37"/>
       <c r="Q154"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A155" s="35"/>
+      <c r="A155" s="38"/>
       <c r="B155" s="11">
         <v>1000</v>
       </c>
@@ -12589,14 +12576,14 @@
       <c r="F155" s="13"/>
       <c r="G155" s="12"/>
       <c r="H155" s="13"/>
-      <c r="I155" s="38"/>
+      <c r="I155" s="39"/>
       <c r="J155" s="37"/>
       <c r="K155" s="36"/>
       <c r="L155" s="37"/>
       <c r="Q155"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A156" s="35"/>
+      <c r="A156" s="38"/>
       <c r="B156" s="11">
         <v>2000</v>
       </c>
@@ -12606,14 +12593,14 @@
       <c r="F156" s="13"/>
       <c r="G156" s="12"/>
       <c r="H156" s="13"/>
-      <c r="I156" s="38"/>
+      <c r="I156" s="39"/>
       <c r="J156" s="37"/>
       <c r="K156" s="36"/>
       <c r="L156" s="37"/>
       <c r="Q156"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A157" s="35"/>
+      <c r="A157" s="38"/>
       <c r="B157" s="11">
         <v>5000</v>
       </c>
@@ -12623,14 +12610,14 @@
       <c r="F157" s="13"/>
       <c r="G157" s="12"/>
       <c r="H157" s="13"/>
-      <c r="I157" s="38"/>
+      <c r="I157" s="39"/>
       <c r="J157" s="37"/>
       <c r="K157" s="36"/>
       <c r="L157" s="37"/>
       <c r="Q157"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A158" s="35" t="s">
+      <c r="A158" s="38" t="s">
         <v>11</v>
       </c>
       <c r="B158" s="11">
@@ -12642,7 +12629,7 @@
       <c r="F158" s="13"/>
       <c r="G158" s="12"/>
       <c r="H158" s="13"/>
-      <c r="I158" s="38">
+      <c r="I158" s="39">
         <v>0.26700000000000002</v>
       </c>
       <c r="J158" s="37">
@@ -12653,7 +12640,7 @@
       <c r="Q158"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A159" s="35"/>
+      <c r="A159" s="38"/>
       <c r="B159" s="11">
         <v>1000</v>
       </c>
@@ -12663,14 +12650,14 @@
       <c r="F159" s="13"/>
       <c r="G159" s="12"/>
       <c r="H159" s="13"/>
-      <c r="I159" s="38"/>
+      <c r="I159" s="39"/>
       <c r="J159" s="37"/>
       <c r="K159" s="36"/>
       <c r="L159" s="37"/>
       <c r="Q159"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A160" s="35"/>
+      <c r="A160" s="38"/>
       <c r="B160" s="11">
         <v>2000</v>
       </c>
@@ -12680,14 +12667,14 @@
       <c r="F160" s="13"/>
       <c r="G160" s="12"/>
       <c r="H160" s="13"/>
-      <c r="I160" s="38"/>
+      <c r="I160" s="39"/>
       <c r="J160" s="37"/>
       <c r="K160" s="36"/>
       <c r="L160" s="37"/>
       <c r="Q160"/>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A161" s="35"/>
+      <c r="A161" s="38"/>
       <c r="B161" s="11">
         <v>5000</v>
       </c>
@@ -12697,14 +12684,14 @@
       <c r="F161" s="13"/>
       <c r="G161" s="12"/>
       <c r="H161" s="13"/>
-      <c r="I161" s="38"/>
+      <c r="I161" s="39"/>
       <c r="J161" s="37"/>
       <c r="K161" s="36"/>
       <c r="L161" s="37"/>
       <c r="Q161"/>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A162" s="35" t="s">
+      <c r="A162" s="38" t="s">
         <v>36</v>
       </c>
       <c r="B162" s="11">
@@ -12716,14 +12703,14 @@
       <c r="F162" s="13"/>
       <c r="G162" s="12"/>
       <c r="H162" s="13"/>
-      <c r="I162" s="38"/>
+      <c r="I162" s="39"/>
       <c r="J162" s="37"/>
       <c r="K162" s="36"/>
       <c r="L162" s="37"/>
       <c r="Q162"/>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A163" s="35"/>
+      <c r="A163" s="38"/>
       <c r="B163" s="11">
         <v>1000</v>
       </c>
@@ -12733,14 +12720,14 @@
       <c r="F163" s="13"/>
       <c r="G163" s="12"/>
       <c r="H163" s="13"/>
-      <c r="I163" s="38"/>
+      <c r="I163" s="39"/>
       <c r="J163" s="37"/>
       <c r="K163" s="36"/>
       <c r="L163" s="37"/>
       <c r="Q163"/>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A164" s="35"/>
+      <c r="A164" s="38"/>
       <c r="B164" s="11">
         <v>2000</v>
       </c>
@@ -12750,14 +12737,14 @@
       <c r="F164" s="13"/>
       <c r="G164" s="12"/>
       <c r="H164" s="13"/>
-      <c r="I164" s="38"/>
+      <c r="I164" s="39"/>
       <c r="J164" s="37"/>
       <c r="K164" s="36"/>
       <c r="L164" s="37"/>
       <c r="Q164"/>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A165" s="35"/>
+      <c r="A165" s="38"/>
       <c r="B165" s="11">
         <v>5000</v>
       </c>
@@ -12767,14 +12754,14 @@
       <c r="F165" s="13"/>
       <c r="G165" s="12"/>
       <c r="H165" s="13"/>
-      <c r="I165" s="38"/>
+      <c r="I165" s="39"/>
       <c r="J165" s="37"/>
       <c r="K165" s="36"/>
       <c r="L165" s="37"/>
       <c r="Q165"/>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A166" s="35" t="s">
+      <c r="A166" s="38" t="s">
         <v>37</v>
       </c>
       <c r="B166" s="11">
@@ -12786,14 +12773,14 @@
       <c r="F166" s="13"/>
       <c r="G166" s="12"/>
       <c r="H166" s="13"/>
-      <c r="I166" s="38"/>
+      <c r="I166" s="39"/>
       <c r="J166" s="37"/>
       <c r="K166" s="36"/>
       <c r="L166" s="37"/>
       <c r="Q166"/>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A167" s="35"/>
+      <c r="A167" s="38"/>
       <c r="B167" s="11">
         <v>1000</v>
       </c>
@@ -12803,14 +12790,14 @@
       <c r="F167" s="13"/>
       <c r="G167" s="12"/>
       <c r="H167" s="13"/>
-      <c r="I167" s="38"/>
+      <c r="I167" s="39"/>
       <c r="J167" s="37"/>
       <c r="K167" s="36"/>
       <c r="L167" s="37"/>
       <c r="Q167"/>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A168" s="35"/>
+      <c r="A168" s="38"/>
       <c r="B168" s="11">
         <v>2000</v>
       </c>
@@ -12820,14 +12807,14 @@
       <c r="F168" s="13"/>
       <c r="G168" s="12"/>
       <c r="H168" s="13"/>
-      <c r="I168" s="38"/>
+      <c r="I168" s="39"/>
       <c r="J168" s="37"/>
       <c r="K168" s="36"/>
       <c r="L168" s="37"/>
       <c r="Q168"/>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A169" s="35"/>
+      <c r="A169" s="38"/>
       <c r="B169" s="11">
         <v>5000</v>
       </c>
@@ -12837,7 +12824,7 @@
       <c r="F169" s="13"/>
       <c r="G169" s="12"/>
       <c r="H169" s="13"/>
-      <c r="I169" s="38"/>
+      <c r="I169" s="39"/>
       <c r="J169" s="37"/>
       <c r="K169" s="36"/>
       <c r="L169" s="37"/>
@@ -12865,27 +12852,27 @@
       <c r="Q176"/>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A177" s="35" t="s">
+      <c r="A177" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B177" s="35"/>
-      <c r="C177" s="35" t="s">
+      <c r="B177" s="38"/>
+      <c r="C177" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D177" s="35"/>
-      <c r="E177" s="35" t="s">
+      <c r="D177" s="38"/>
+      <c r="E177" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="F177" s="35"/>
-      <c r="G177" s="35" t="s">
+      <c r="F177" s="38"/>
+      <c r="G177" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="H177" s="35"/>
+      <c r="H177" s="38"/>
       <c r="Q177"/>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A178" s="35"/>
-      <c r="B178" s="35"/>
+      <c r="A178" s="38"/>
+      <c r="B178" s="38"/>
       <c r="C178" s="3" t="s">
         <v>7</v>
       </c>
@@ -12907,7 +12894,7 @@
       <c r="Q178"/>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A179" s="35" t="s">
+      <c r="A179" s="38" t="s">
         <v>10</v>
       </c>
       <c r="B179" s="11">
@@ -12916,21 +12903,21 @@
       <c r="Q179"/>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A180" s="35"/>
+      <c r="A180" s="38"/>
       <c r="B180" s="11">
         <v>1000</v>
       </c>
       <c r="Q180"/>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A181" s="35"/>
+      <c r="A181" s="38"/>
       <c r="B181" s="11">
         <v>2000</v>
       </c>
       <c r="Q181"/>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A182" s="35"/>
+      <c r="A182" s="38"/>
       <c r="B182" s="11">
         <v>5000</v>
       </c>
@@ -13045,7 +13032,7 @@
       <c r="Q213"/>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A214" s="40" t="s">
+      <c r="A214" s="35" t="s">
         <v>12</v>
       </c>
       <c r="B214" s="32">
@@ -13069,7 +13056,7 @@
       <c r="Q214"/>
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A215" s="40" t="s">
+      <c r="A215" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B215" s="32">
@@ -13093,7 +13080,7 @@
       <c r="Q215"/>
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A216" s="40" t="s">
+      <c r="A216" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B216" s="32">
@@ -13117,7 +13104,7 @@
       <c r="Q216"/>
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A217" s="40" t="s">
+      <c r="A217" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B217" s="32">
@@ -13141,7 +13128,7 @@
       <c r="Q217"/>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A218" s="40" t="s">
+      <c r="A218" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B218" s="32">
@@ -13165,7 +13152,7 @@
       <c r="Q218"/>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A219" s="40" t="s">
+      <c r="A219" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B219" s="32">
@@ -13189,7 +13176,7 @@
       <c r="Q219"/>
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A220" s="40" t="s">
+      <c r="A220" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B220" s="32">
@@ -13213,7 +13200,7 @@
       <c r="Q220"/>
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A221" s="40" t="s">
+      <c r="A221" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B221" s="32">
@@ -13240,7 +13227,7 @@
       <c r="B222" s="30"/>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A223" s="40" t="s">
+      <c r="A223" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B223" s="32">
@@ -13264,7 +13251,7 @@
       <c r="Q223"/>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A224" s="40" t="s">
+      <c r="A224" s="35" t="s">
         <v>21</v>
       </c>
       <c r="B224" s="32">
@@ -13291,7 +13278,7 @@
       <c r="B225" s="30"/>
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A226" s="40" t="s">
+      <c r="A226" s="35" t="s">
         <v>34</v>
       </c>
       <c r="B226" s="32">
@@ -13318,7 +13305,7 @@
       <c r="B227" s="30"/>
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A228" s="40" t="s">
+      <c r="A228" s="35" t="s">
         <v>22</v>
       </c>
       <c r="B228" s="32">
@@ -13345,7 +13332,7 @@
       <c r="B229" s="30"/>
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A230" s="40" t="s">
+      <c r="A230" s="35" t="s">
         <v>23</v>
       </c>
       <c r="B230" s="32">
@@ -13369,7 +13356,7 @@
       <c r="Q230"/>
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A231" s="40" t="s">
+      <c r="A231" s="35" t="s">
         <v>24</v>
       </c>
       <c r="B231" s="32">
@@ -13393,7 +13380,7 @@
       <c r="Q231"/>
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A232" s="40" t="s">
+      <c r="A232" s="35" t="s">
         <v>25</v>
       </c>
       <c r="B232" s="32">
@@ -13420,7 +13407,7 @@
       <c r="B233" s="30"/>
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A234" s="40" t="s">
+      <c r="A234" s="35" t="s">
         <v>27</v>
       </c>
       <c r="B234" s="32">
@@ -13444,7 +13431,7 @@
       <c r="Q234"/>
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A235" s="40" t="s">
+      <c r="A235" s="35" t="s">
         <v>28</v>
       </c>
       <c r="B235" s="32">
@@ -13468,7 +13455,7 @@
       <c r="Q235"/>
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A236" s="40" t="s">
+      <c r="A236" s="35" t="s">
         <v>29</v>
       </c>
       <c r="B236" s="32">
@@ -13492,7 +13479,7 @@
       <c r="Q236"/>
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A237" s="40" t="s">
+      <c r="A237" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B237" s="32">
@@ -13516,7 +13503,7 @@
       <c r="Q237"/>
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A238" s="40" t="s">
+      <c r="A238" s="35" t="s">
         <v>31</v>
       </c>
       <c r="B238" s="32">
@@ -13540,7 +13527,7 @@
       <c r="Q238"/>
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A239" s="40" t="s">
+      <c r="A239" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B239" s="32">
@@ -13564,7 +13551,7 @@
       <c r="Q239"/>
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A240" s="40" t="s">
+      <c r="A240" s="35" t="s">
         <v>32</v>
       </c>
       <c r="B240" s="32">
@@ -13588,7 +13575,7 @@
       <c r="Q240"/>
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A241" s="40" t="s">
+      <c r="A241" s="35" t="s">
         <v>33</v>
       </c>
       <c r="B241" s="32">
@@ -13615,7 +13602,7 @@
       <c r="B242" s="30"/>
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A243" s="40" t="s">
+      <c r="A243" s="35" t="s">
         <v>47</v>
       </c>
       <c r="B243" s="32">
@@ -13639,7 +13626,7 @@
       <c r="Q243"/>
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A244" s="40" t="s">
+      <c r="A244" s="35" t="s">
         <v>58</v>
       </c>
       <c r="B244" s="32">
@@ -13663,7 +13650,7 @@
       <c r="Q244"/>
     </row>
     <row r="245" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A245" s="40" t="s">
+      <c r="A245" s="35" t="s">
         <v>59</v>
       </c>
       <c r="B245" s="32">
@@ -13690,7 +13677,7 @@
       <c r="B246" s="30"/>
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A247" s="40" t="s">
+      <c r="A247" s="35" t="s">
         <v>60</v>
       </c>
       <c r="B247" s="32">
@@ -13714,7 +13701,7 @@
       <c r="Q247"/>
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A248" s="40" t="s">
+      <c r="A248" s="35" t="s">
         <v>61</v>
       </c>
       <c r="B248" s="32">
@@ -13738,7 +13725,7 @@
       <c r="Q248"/>
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A249" s="40" t="s">
+      <c r="A249" s="35" t="s">
         <v>62</v>
       </c>
       <c r="B249" s="32">
@@ -13762,7 +13749,7 @@
       <c r="Q249"/>
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A250" s="40" t="s">
+      <c r="A250" s="35" t="s">
         <v>63</v>
       </c>
       <c r="B250" s="32">
@@ -13786,7 +13773,7 @@
       <c r="Q250"/>
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A251" s="40" t="s">
+      <c r="A251" s="35" t="s">
         <v>64</v>
       </c>
       <c r="B251" s="32">
@@ -13810,7 +13797,7 @@
       <c r="Q251"/>
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A252" s="40" t="s">
+      <c r="A252" s="35" t="s">
         <v>65</v>
       </c>
       <c r="B252" s="32">
@@ -13834,7 +13821,7 @@
       <c r="Q252"/>
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A253" s="40" t="s">
+      <c r="A253" s="35" t="s">
         <v>66</v>
       </c>
       <c r="B253" s="32">
@@ -13858,7 +13845,7 @@
       <c r="Q253"/>
     </row>
     <row r="254" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A254" s="40"/>
+      <c r="A254" s="35"/>
       <c r="B254" s="33"/>
       <c r="C254"/>
       <c r="D254"/>
@@ -13868,11 +13855,11 @@
       <c r="Q254"/>
     </row>
     <row r="255" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A255" s="40"/>
+      <c r="A255" s="35"/>
       <c r="Q255"/>
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A256" s="40"/>
+      <c r="A256" s="35"/>
       <c r="Q256"/>
     </row>
     <row r="257" spans="17:17" x14ac:dyDescent="0.25">
@@ -14792,38 +14779,360 @@
     </row>
   </sheetData>
   <mergeCells count="410">
-    <mergeCell ref="K138:K141"/>
-    <mergeCell ref="L138:L141"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="E134:E137"/>
-    <mergeCell ref="F134:F137"/>
-    <mergeCell ref="G134:G137"/>
-    <mergeCell ref="H134:H137"/>
-    <mergeCell ref="I134:I137"/>
-    <mergeCell ref="J134:J137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="E138:E141"/>
-    <mergeCell ref="F138:F141"/>
-    <mergeCell ref="G138:G141"/>
-    <mergeCell ref="H138:H141"/>
-    <mergeCell ref="I138:I141"/>
-    <mergeCell ref="J138:J141"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="I45:I48"/>
-    <mergeCell ref="J45:J48"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="K114:K117"/>
+    <mergeCell ref="L114:L117"/>
+    <mergeCell ref="K118:K121"/>
+    <mergeCell ref="L118:L121"/>
+    <mergeCell ref="K122:K125"/>
+    <mergeCell ref="L122:L125"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="K92:K95"/>
+    <mergeCell ref="K96:K99"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="K27:K30"/>
+    <mergeCell ref="K126:K129"/>
+    <mergeCell ref="L126:L129"/>
+    <mergeCell ref="K130:K133"/>
+    <mergeCell ref="L130:L133"/>
+    <mergeCell ref="I101:I104"/>
+    <mergeCell ref="J101:J104"/>
+    <mergeCell ref="I105:I108"/>
+    <mergeCell ref="J105:J108"/>
+    <mergeCell ref="I109:I112"/>
+    <mergeCell ref="J109:J112"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="L101:L104"/>
+    <mergeCell ref="K105:K108"/>
+    <mergeCell ref="L105:L108"/>
+    <mergeCell ref="K109:K112"/>
+    <mergeCell ref="L109:L112"/>
+    <mergeCell ref="I130:I133"/>
+    <mergeCell ref="J130:J133"/>
+    <mergeCell ref="I118:I121"/>
+    <mergeCell ref="J118:J121"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="D105:D108"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="D109:D112"/>
+    <mergeCell ref="E101:E104"/>
+    <mergeCell ref="F101:F104"/>
+    <mergeCell ref="G101:G104"/>
+    <mergeCell ref="E105:E108"/>
+    <mergeCell ref="F105:F108"/>
+    <mergeCell ref="G105:G108"/>
+    <mergeCell ref="E109:E112"/>
+    <mergeCell ref="F109:F112"/>
+    <mergeCell ref="G109:G112"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="H122:H125"/>
+    <mergeCell ref="I122:I125"/>
+    <mergeCell ref="J122:J125"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="F126:F129"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="H126:H129"/>
+    <mergeCell ref="I126:I129"/>
+    <mergeCell ref="J126:J129"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="L63:L66"/>
+    <mergeCell ref="L68:L71"/>
+    <mergeCell ref="L72:L75"/>
+    <mergeCell ref="L76:L79"/>
+    <mergeCell ref="L80:L83"/>
+    <mergeCell ref="L84:L87"/>
+    <mergeCell ref="L88:L91"/>
+    <mergeCell ref="L92:L95"/>
+    <mergeCell ref="L96:L99"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="L27:L30"/>
+    <mergeCell ref="L31:L34"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="L45:L48"/>
+    <mergeCell ref="L50:L53"/>
+    <mergeCell ref="L55:L58"/>
+    <mergeCell ref="L59:L62"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="K166:K169"/>
+    <mergeCell ref="I166:I169"/>
+    <mergeCell ref="J166:J169"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="A148:B149"/>
+    <mergeCell ref="L150:L153"/>
+    <mergeCell ref="L154:L157"/>
+    <mergeCell ref="L158:L161"/>
+    <mergeCell ref="L162:L165"/>
+    <mergeCell ref="L166:L169"/>
+    <mergeCell ref="A177:B178"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="K154:K157"/>
+    <mergeCell ref="I154:I157"/>
+    <mergeCell ref="J154:J157"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="K158:K161"/>
+    <mergeCell ref="I158:I161"/>
+    <mergeCell ref="J158:J161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="K162:K165"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="I162:I165"/>
+    <mergeCell ref="J162:J165"/>
+    <mergeCell ref="K148:L148"/>
+    <mergeCell ref="I148:J148"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="K150:K153"/>
+    <mergeCell ref="I150:I153"/>
+    <mergeCell ref="J150:J153"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="F114:F117"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="H114:H117"/>
+    <mergeCell ref="I114:I117"/>
+    <mergeCell ref="J114:J117"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="F118:F121"/>
+    <mergeCell ref="K134:K137"/>
+    <mergeCell ref="L134:L137"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="K88:K91"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="E68:E71"/>
+    <mergeCell ref="F68:F71"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="I92:I95"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="K72:K75"/>
+    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="K68:K71"/>
+    <mergeCell ref="H68:H71"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="K45:K48"/>
+    <mergeCell ref="K50:K53"/>
+    <mergeCell ref="K55:K58"/>
+    <mergeCell ref="K59:K62"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="I55:I58"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="I59:I62"/>
+    <mergeCell ref="J59:J62"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="I68:I71"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="H45:H48"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="I96:I99"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="H80:H83"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="H76:H79"/>
+    <mergeCell ref="G76:G79"/>
+    <mergeCell ref="J96:J99"/>
+    <mergeCell ref="J68:J71"/>
+    <mergeCell ref="I72:I75"/>
+    <mergeCell ref="J72:J75"/>
+    <mergeCell ref="I76:I79"/>
+    <mergeCell ref="J76:J79"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="J80:J83"/>
+    <mergeCell ref="J84:J87"/>
+    <mergeCell ref="I88:I91"/>
+    <mergeCell ref="J88:J91"/>
+    <mergeCell ref="J92:J95"/>
     <mergeCell ref="G177:H177"/>
     <mergeCell ref="E96:E99"/>
     <mergeCell ref="F96:F99"/>
@@ -14848,363 +15157,41 @@
     <mergeCell ref="G118:G121"/>
     <mergeCell ref="H118:H121"/>
     <mergeCell ref="E122:E125"/>
-    <mergeCell ref="J96:J99"/>
-    <mergeCell ref="J68:J71"/>
-    <mergeCell ref="I72:I75"/>
-    <mergeCell ref="J72:J75"/>
-    <mergeCell ref="I76:I79"/>
-    <mergeCell ref="J76:J79"/>
-    <mergeCell ref="I80:I83"/>
-    <mergeCell ref="J80:J83"/>
-    <mergeCell ref="J84:J87"/>
-    <mergeCell ref="I88:I91"/>
-    <mergeCell ref="J88:J91"/>
-    <mergeCell ref="J92:J95"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="I50:I53"/>
-    <mergeCell ref="I68:I71"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="G45:G48"/>
-    <mergeCell ref="H45:H48"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="I96:I99"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="H80:H83"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="H76:H79"/>
-    <mergeCell ref="G76:G79"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="K72:K75"/>
-    <mergeCell ref="K76:K79"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="K68:K71"/>
-    <mergeCell ref="H68:H71"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="K45:K48"/>
-    <mergeCell ref="K50:K53"/>
-    <mergeCell ref="K55:K58"/>
-    <mergeCell ref="K59:K62"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="I55:I58"/>
-    <mergeCell ref="J55:J58"/>
-    <mergeCell ref="I59:I62"/>
-    <mergeCell ref="J59:J62"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="I92:I95"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="K88:K91"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="J50:J53"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="F76:F79"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="E68:E71"/>
-    <mergeCell ref="F68:F71"/>
-    <mergeCell ref="G68:G71"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="I162:I165"/>
-    <mergeCell ref="J162:J165"/>
-    <mergeCell ref="K148:L148"/>
-    <mergeCell ref="I148:J148"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="K150:K153"/>
-    <mergeCell ref="I150:I153"/>
-    <mergeCell ref="J150:J153"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="F114:F117"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="H114:H117"/>
-    <mergeCell ref="I114:I117"/>
-    <mergeCell ref="J114:J117"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="F118:F121"/>
-    <mergeCell ref="K134:K137"/>
-    <mergeCell ref="L134:L137"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="K166:K169"/>
-    <mergeCell ref="I166:I169"/>
-    <mergeCell ref="J166:J169"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="A148:B149"/>
-    <mergeCell ref="L150:L153"/>
-    <mergeCell ref="L154:L157"/>
-    <mergeCell ref="L158:L161"/>
-    <mergeCell ref="L162:L165"/>
-    <mergeCell ref="L166:L169"/>
-    <mergeCell ref="A177:B178"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="K154:K157"/>
-    <mergeCell ref="I154:I157"/>
-    <mergeCell ref="J154:J157"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="K158:K161"/>
-    <mergeCell ref="I158:I161"/>
-    <mergeCell ref="J158:J161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="K162:K165"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="L63:L66"/>
-    <mergeCell ref="L68:L71"/>
-    <mergeCell ref="L72:L75"/>
-    <mergeCell ref="L76:L79"/>
-    <mergeCell ref="L80:L83"/>
-    <mergeCell ref="L84:L87"/>
-    <mergeCell ref="L88:L91"/>
-    <mergeCell ref="L92:L95"/>
-    <mergeCell ref="L96:L99"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="L27:L30"/>
-    <mergeCell ref="L31:L34"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="L45:L48"/>
-    <mergeCell ref="L50:L53"/>
-    <mergeCell ref="L55:L58"/>
-    <mergeCell ref="L59:L62"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="G122:G125"/>
-    <mergeCell ref="H122:H125"/>
-    <mergeCell ref="I122:I125"/>
-    <mergeCell ref="J122:J125"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="F126:F129"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="H126:H129"/>
-    <mergeCell ref="I126:I129"/>
-    <mergeCell ref="J126:J129"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="D105:D108"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="D109:D112"/>
-    <mergeCell ref="E101:E104"/>
-    <mergeCell ref="F101:F104"/>
-    <mergeCell ref="G101:G104"/>
-    <mergeCell ref="E105:E108"/>
-    <mergeCell ref="F105:F108"/>
-    <mergeCell ref="G105:G108"/>
-    <mergeCell ref="E109:E112"/>
-    <mergeCell ref="F109:F112"/>
-    <mergeCell ref="G109:G112"/>
-    <mergeCell ref="K126:K129"/>
-    <mergeCell ref="L126:L129"/>
-    <mergeCell ref="K130:K133"/>
-    <mergeCell ref="L130:L133"/>
-    <mergeCell ref="I101:I104"/>
-    <mergeCell ref="J101:J104"/>
-    <mergeCell ref="I105:I108"/>
-    <mergeCell ref="J105:J108"/>
-    <mergeCell ref="I109:I112"/>
-    <mergeCell ref="J109:J112"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="L101:L104"/>
-    <mergeCell ref="K105:K108"/>
-    <mergeCell ref="L105:L108"/>
-    <mergeCell ref="K109:K112"/>
-    <mergeCell ref="L109:L112"/>
-    <mergeCell ref="I130:I133"/>
-    <mergeCell ref="J130:J133"/>
-    <mergeCell ref="I118:I121"/>
-    <mergeCell ref="J118:J121"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="K114:K117"/>
-    <mergeCell ref="L114:L117"/>
-    <mergeCell ref="K118:K121"/>
-    <mergeCell ref="L118:L121"/>
-    <mergeCell ref="K122:K125"/>
-    <mergeCell ref="L122:L125"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="K92:K95"/>
-    <mergeCell ref="K96:K99"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="K27:K30"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="I45:I48"/>
+    <mergeCell ref="J45:J48"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="K138:K141"/>
+    <mergeCell ref="L138:L141"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="E134:E137"/>
+    <mergeCell ref="F134:F137"/>
+    <mergeCell ref="G134:G137"/>
+    <mergeCell ref="H134:H137"/>
+    <mergeCell ref="I134:I137"/>
+    <mergeCell ref="J134:J137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="E138:E141"/>
+    <mergeCell ref="F138:F141"/>
+    <mergeCell ref="G138:G141"/>
+    <mergeCell ref="H138:H141"/>
+    <mergeCell ref="I138:I141"/>
+    <mergeCell ref="J138:J141"/>
   </mergeCells>
   <conditionalFormatting sqref="Q3:Z34">
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>"MAX($Q3:$Z3)"</formula>
     </cfRule>
     <cfRule type="expression" priority="12">
@@ -15212,22 +15199,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Z34 Q36:Z43 Q45:Z48 Q50:Z53 Q68:Z99 Q101:Z112 Q55:Z66">
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>Q3=MIN($Q3:$Z3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AH34 AD101:AH112 AD68:AH99 AD55:AH66 AD50:AH53 AD45:AH48 AD36:AH43">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>AD3=MIN($AD3:$AH3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD114:AH114">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>AD114=MIN($AD114:$AH114)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD115:AH141">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>AD115=MIN($AD115:$AH115)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test_results/results_table.xlsx
+++ b/test_results/results_table.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DD6EC1-FAA1-4302-9BA3-6B168B0E81A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971E2C6E-39C9-4B0C-9C88-E44A81FB08E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,13 +393,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -410,8 +410,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -804,10 +804,10 @@
   <dimension ref="A1:CF561"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AA53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Z69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE87" sqref="AE87"/>
+      <selection pane="bottomRight" activeCell="AL87" sqref="AL87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,30 +856,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="38"/>
+      <c r="L1" s="36"/>
       <c r="M1" s="39" t="s">
         <v>45</v>
       </c>
@@ -930,24 +930,24 @@
       <c r="AH1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="AO1" s="38" t="s">
+      <c r="AO1" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38" t="s">
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38" t="s">
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="AT1" s="38"/>
+      <c r="AT1" s="36"/>
       <c r="CE1" s="6"/>
       <c r="CF1" s="6"/>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1057,7 +1057,7 @@
       <c r="CF2" s="9"/>
     </row>
     <row r="3" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1">
@@ -1066,29 +1066,29 @@
       <c r="C3" s="39">
         <v>0.26700000000000002</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="38">
         <v>0.44700000000000001</v>
       </c>
       <c r="E3" s="39">
         <v>0.17100000000000001</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="39">
         <v>0.153</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="38"/>
       <c r="O3" s="18"/>
       <c r="P3" s="5">
         <v>3.355451</v>
@@ -1165,20 +1165,20 @@
       <c r="CF3" s="8"/>
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="1">
         <v>1000</v>
       </c>
       <c r="C4" s="39"/>
-      <c r="D4" s="37"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="39"/>
-      <c r="F4" s="37"/>
+      <c r="F4" s="38"/>
       <c r="G4" s="39"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="38"/>
       <c r="O4" s="18"/>
       <c r="P4" s="5">
         <v>6.6267579999999997</v>
@@ -1255,20 +1255,20 @@
       <c r="CF4" s="8"/>
     </row>
     <row r="5" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="1">
         <v>2000</v>
       </c>
       <c r="C5" s="39"/>
-      <c r="D5" s="37"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="39"/>
-      <c r="F5" s="37"/>
+      <c r="F5" s="38"/>
       <c r="G5" s="39"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="37"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="38"/>
       <c r="O5" s="18"/>
       <c r="P5" s="5">
         <v>13.110008000000001</v>
@@ -1345,20 +1345,20 @@
       <c r="CF5" s="8"/>
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1">
         <v>5000</v>
       </c>
       <c r="C6" s="39"/>
-      <c r="D6" s="37"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="39"/>
-      <c r="F6" s="37"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="39"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="37"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="38"/>
       <c r="O6" s="18"/>
       <c r="P6" s="5">
         <v>32.676729999999999</v>
@@ -1433,7 +1433,7 @@
       </c>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="36" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1">
@@ -1442,29 +1442,29 @@
       <c r="C7" s="39">
         <v>0.2601</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="38">
         <v>0.624</v>
       </c>
       <c r="E7" s="39">
         <v>0.20200000000000001</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="39">
         <v>0.19400000000000001</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="38"/>
       <c r="O7" s="18"/>
       <c r="P7" s="5">
         <v>4.002434</v>
@@ -1541,20 +1541,20 @@
       <c r="CF7" s="8"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1">
         <v>1000</v>
       </c>
       <c r="C8" s="39"/>
-      <c r="D8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="39"/>
-      <c r="F8" s="37"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="39"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="37"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="38"/>
       <c r="O8" s="18"/>
       <c r="P8" s="5">
         <v>7.9348150000000004</v>
@@ -1631,20 +1631,20 @@
       <c r="CF8" s="8"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="1">
         <v>2000</v>
       </c>
       <c r="C9" s="39"/>
-      <c r="D9" s="37"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="39"/>
-      <c r="F9" s="37"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="39"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="37"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
       <c r="O9" s="18"/>
       <c r="P9" s="5">
         <v>15.800986</v>
@@ -1721,20 +1721,20 @@
       <c r="CF9" s="8"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1">
         <v>5000</v>
       </c>
       <c r="C10" s="39"/>
-      <c r="D10" s="37"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="39"/>
-      <c r="F10" s="37"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="39"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
       <c r="O10" s="18"/>
       <c r="P10" s="5">
         <v>39.365931000000003</v>
@@ -1809,7 +1809,7 @@
       </c>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1">
@@ -1818,29 +1818,29 @@
       <c r="C11" s="39">
         <v>0.30220000000000002</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="38">
         <v>0.93700000000000006</v>
       </c>
       <c r="E11" s="39">
         <v>0.22800000000000001</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="39">
         <v>0.17199999999999999</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="38"/>
       <c r="O11" s="18"/>
       <c r="P11" s="5">
         <v>4.9335690000000003</v>
@@ -1917,20 +1917,20 @@
       <c r="CF11" s="8"/>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1">
         <v>1000</v>
       </c>
       <c r="C12" s="39"/>
-      <c r="D12" s="37"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="39"/>
-      <c r="F12" s="37"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="39"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="37"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="38"/>
       <c r="O12" s="18"/>
       <c r="P12" s="5">
         <v>9.7972990000000006</v>
@@ -2007,20 +2007,20 @@
       <c r="CF12" s="8"/>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="1">
         <v>2000</v>
       </c>
       <c r="C13" s="39"/>
-      <c r="D13" s="37"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="39"/>
-      <c r="F13" s="37"/>
+      <c r="F13" s="38"/>
       <c r="G13" s="39"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="37"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="38"/>
       <c r="O13" s="18"/>
       <c r="P13" s="5">
         <v>19.567959999999999</v>
@@ -2097,20 +2097,20 @@
       <c r="CF13" s="8"/>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="1">
         <v>5000</v>
       </c>
       <c r="C14" s="39"/>
-      <c r="D14" s="37"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="39"/>
-      <c r="F14" s="37"/>
+      <c r="F14" s="38"/>
       <c r="G14" s="39"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="37"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="38"/>
       <c r="O14" s="18"/>
       <c r="P14" s="5">
         <v>48.782482999999999</v>
@@ -2185,7 +2185,7 @@
       </c>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="36" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
@@ -2194,29 +2194,29 @@
       <c r="C15" s="39">
         <v>0.3165</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="38">
         <v>1.1140000000000001</v>
       </c>
       <c r="E15" s="39">
         <v>0.189</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="39">
         <v>0.18</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="37" t="s">
+      <c r="J15" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="38"/>
       <c r="O15" s="18"/>
       <c r="P15" s="5">
         <v>5.413564</v>
@@ -2293,20 +2293,20 @@
       <c r="CF15" s="8"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1">
         <v>1000</v>
       </c>
       <c r="C16" s="39"/>
-      <c r="D16" s="37"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="37"/>
+      <c r="F16" s="38"/>
       <c r="G16" s="39"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="37"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="38"/>
       <c r="O16" s="18"/>
       <c r="P16" s="5">
         <v>10.807356</v>
@@ -2383,20 +2383,20 @@
       <c r="CF16" s="8"/>
     </row>
     <row r="17" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="1">
         <v>2000</v>
       </c>
       <c r="C17" s="39"/>
-      <c r="D17" s="37"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="39"/>
-      <c r="F17" s="37"/>
+      <c r="F17" s="38"/>
       <c r="G17" s="39"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="37"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="38"/>
       <c r="O17" s="18"/>
       <c r="P17" s="5">
         <v>21.628416999999999</v>
@@ -2473,20 +2473,20 @@
       <c r="CF17" s="8"/>
     </row>
     <row r="18" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="1">
         <v>5000</v>
       </c>
       <c r="C18" s="39"/>
-      <c r="D18" s="37"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="39"/>
-      <c r="F18" s="37"/>
+      <c r="F18" s="38"/>
       <c r="G18" s="39"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="37"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="38"/>
       <c r="O18" s="18"/>
       <c r="P18" s="5">
         <v>53.830657000000002</v>
@@ -2561,7 +2561,7 @@
       </c>
     </row>
     <row r="19" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="36" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="1">
@@ -2570,29 +2570,29 @@
       <c r="C19" s="39">
         <v>0.33110000000000001</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="38">
         <v>1.7989999999999999</v>
       </c>
       <c r="E19" s="39">
         <v>0.254</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="39">
         <v>0.187</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="H19" s="38" t="s">
         <v>9</v>
       </c>
       <c r="I19" s="39">
         <v>0.13080554883214199</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="38">
         <v>600</v>
       </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="38"/>
       <c r="O19" s="18"/>
       <c r="P19" s="5">
         <v>6.7596759999999998</v>
@@ -2669,20 +2669,20 @@
       <c r="CF19" s="7"/>
     </row>
     <row r="20" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="1">
         <v>1000</v>
       </c>
       <c r="C20" s="39"/>
-      <c r="D20" s="37"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="39"/>
-      <c r="F20" s="37"/>
+      <c r="F20" s="38"/>
       <c r="G20" s="39"/>
-      <c r="H20" s="37"/>
+      <c r="H20" s="38"/>
       <c r="I20" s="39"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="37"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="38"/>
       <c r="O20" s="18"/>
       <c r="P20" s="5">
         <v>13.471734</v>
@@ -2759,20 +2759,20 @@
       <c r="CF20" s="7"/>
     </row>
     <row r="21" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="1">
         <v>2000</v>
       </c>
       <c r="C21" s="39"/>
-      <c r="D21" s="37"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="39"/>
-      <c r="F21" s="37"/>
+      <c r="F21" s="38"/>
       <c r="G21" s="39"/>
-      <c r="H21" s="37"/>
+      <c r="H21" s="38"/>
       <c r="I21" s="39"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="37"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="38"/>
       <c r="O21" s="18"/>
       <c r="P21" s="5">
         <v>26.813558</v>
@@ -2849,20 +2849,20 @@
       <c r="CF21" s="7"/>
     </row>
     <row r="22" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="1">
         <v>5000</v>
       </c>
       <c r="C22" s="39"/>
-      <c r="D22" s="37"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="39"/>
-      <c r="F22" s="37"/>
+      <c r="F22" s="38"/>
       <c r="G22" s="39"/>
-      <c r="H22" s="37"/>
+      <c r="H22" s="38"/>
       <c r="I22" s="39"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="37"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="38"/>
       <c r="O22" s="18"/>
       <c r="P22" s="5">
         <v>66.724900000000005</v>
@@ -2937,7 +2937,7 @@
       </c>
     </row>
     <row r="23" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="36" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="1">
@@ -2946,29 +2946,29 @@
       <c r="C23" s="39">
         <v>0.33660000000000001</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="38">
         <v>2.7</v>
       </c>
       <c r="E23" s="39">
         <v>0.159</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="39">
         <v>0.13800000000000001</v>
       </c>
-      <c r="H23" s="37" t="s">
+      <c r="H23" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="38" t="s">
+      <c r="I23" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="37" t="s">
+      <c r="J23" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="36"/>
-      <c r="L23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="38"/>
       <c r="O23" s="18"/>
       <c r="P23" s="5">
         <v>8.6928560000000008</v>
@@ -3045,20 +3045,20 @@
       <c r="CF23" s="8"/>
     </row>
     <row r="24" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="1">
         <v>1000</v>
       </c>
       <c r="C24" s="39"/>
-      <c r="D24" s="37"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="39"/>
-      <c r="F24" s="37"/>
+      <c r="F24" s="38"/>
       <c r="G24" s="39"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="37"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="38"/>
       <c r="O24" s="18"/>
       <c r="P24" s="5">
         <v>17.285457000000001</v>
@@ -3135,20 +3135,20 @@
       <c r="CF24" s="8"/>
     </row>
     <row r="25" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="1">
         <v>2000</v>
       </c>
       <c r="C25" s="39"/>
-      <c r="D25" s="37"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="39"/>
-      <c r="F25" s="37"/>
+      <c r="F25" s="38"/>
       <c r="G25" s="39"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="37"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="38"/>
       <c r="O25" s="18"/>
       <c r="P25" s="5">
         <v>34.49512</v>
@@ -3225,20 +3225,20 @@
       <c r="CF25" s="8"/>
     </row>
     <row r="26" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="1">
         <v>5000</v>
       </c>
       <c r="C26" s="39"/>
-      <c r="D26" s="37"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="39"/>
-      <c r="F26" s="37"/>
+      <c r="F26" s="38"/>
       <c r="G26" s="39"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="37"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="38"/>
       <c r="O26" s="18"/>
       <c r="P26" s="5">
         <v>85.965810000000005</v>
@@ -3313,7 +3313,7 @@
       </c>
     </row>
     <row r="27" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="36" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="1">
@@ -3322,29 +3322,29 @@
       <c r="C27" s="39">
         <v>0.22470000000000001</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="38">
         <v>4.883</v>
       </c>
       <c r="E27" s="39">
         <v>0.17399999999999999</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="39">
         <v>0.13500000000000001</v>
       </c>
-      <c r="H27" s="37" t="s">
+      <c r="H27" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="38" t="s">
+      <c r="I27" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="37" t="s">
+      <c r="J27" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="36"/>
-      <c r="L27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="38"/>
       <c r="O27" s="18"/>
       <c r="P27" s="5">
         <v>11.603604000000001</v>
@@ -3421,20 +3421,20 @@
       <c r="CF27" s="8"/>
     </row>
     <row r="28" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="1">
         <v>1000</v>
       </c>
       <c r="C28" s="39"/>
-      <c r="D28" s="37"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="39"/>
-      <c r="F28" s="37"/>
+      <c r="F28" s="38"/>
       <c r="G28" s="39"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="37"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="38"/>
       <c r="O28" s="18"/>
       <c r="P28" s="5">
         <v>23.158722999999998</v>
@@ -3511,20 +3511,20 @@
       <c r="CF28" s="8"/>
     </row>
     <row r="29" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="1">
         <v>2000</v>
       </c>
       <c r="C29" s="39"/>
-      <c r="D29" s="37"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="39"/>
-      <c r="F29" s="37"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="39"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="37"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="38"/>
       <c r="O29" s="18"/>
       <c r="P29" s="5">
         <v>46.277225999999999</v>
@@ -3601,20 +3601,20 @@
       <c r="CF29" s="8"/>
     </row>
     <row r="30" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="1">
         <v>5000</v>
       </c>
       <c r="C30" s="39"/>
-      <c r="D30" s="37"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="39"/>
-      <c r="F30" s="37"/>
+      <c r="F30" s="38"/>
       <c r="G30" s="39"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="37"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="38"/>
       <c r="O30" s="18"/>
       <c r="P30" s="5">
         <v>115.449259</v>
@@ -3690,7 +3690,7 @@
       <c r="AV30" s="6"/>
     </row>
     <row r="31" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="36" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="1">
@@ -3699,29 +3699,29 @@
       <c r="C31" s="39">
         <v>0.26550000000000001</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="38">
         <v>28.327999999999999</v>
       </c>
       <c r="E31" s="39">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G31" s="39">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H31" s="37" t="s">
+      <c r="H31" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="38" t="s">
+      <c r="I31" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J31" s="37" t="s">
+      <c r="J31" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="36"/>
-      <c r="L31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="38"/>
       <c r="O31" s="18"/>
       <c r="P31" s="5">
         <v>32.667169999999999</v>
@@ -3798,20 +3798,20 @@
       <c r="CF31" s="8"/>
     </row>
     <row r="32" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="1">
         <v>1000</v>
       </c>
       <c r="C32" s="39"/>
-      <c r="D32" s="37"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="39"/>
-      <c r="F32" s="37"/>
+      <c r="F32" s="38"/>
       <c r="G32" s="39"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="37"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="38"/>
       <c r="O32" s="18"/>
       <c r="P32" s="5">
         <v>65.318888000000001</v>
@@ -3888,20 +3888,20 @@
       <c r="CF32" s="8"/>
     </row>
     <row r="33" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="1">
         <v>2000</v>
       </c>
       <c r="C33" s="39"/>
-      <c r="D33" s="37"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="39"/>
-      <c r="F33" s="37"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="39"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="37"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="38"/>
       <c r="O33" s="18"/>
       <c r="P33" s="5">
         <v>130.456557</v>
@@ -3978,20 +3978,20 @@
       <c r="CF33" s="8"/>
     </row>
     <row r="34" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="1">
         <v>5000</v>
       </c>
       <c r="C34" s="39"/>
-      <c r="D34" s="37"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="39"/>
-      <c r="F34" s="37"/>
+      <c r="F34" s="38"/>
       <c r="G34" s="39"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="37"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="38"/>
       <c r="O34" s="18"/>
       <c r="P34" s="5">
         <v>323.3809</v>
@@ -4092,7 +4092,7 @@
       <c r="AT35" s="31"/>
     </row>
     <row r="36" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="36" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="1">
@@ -4103,23 +4103,23 @@
       <c r="E36" s="39">
         <v>0.101239449255883</v>
       </c>
-      <c r="F36" s="37" t="s">
+      <c r="F36" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G36" s="39">
         <v>6.1477473699407502E-2</v>
       </c>
-      <c r="H36" s="37" t="s">
+      <c r="H36" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I36" s="38" t="s">
+      <c r="I36" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J36" s="37" t="s">
+      <c r="J36" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K36" s="36"/>
-      <c r="L36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="38"/>
       <c r="O36" s="18"/>
       <c r="P36" s="5">
         <v>7.3689210000000003</v>
@@ -4194,20 +4194,20 @@
       </c>
     </row>
     <row r="37" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="1">
         <v>1000</v>
       </c>
       <c r="C37" s="39"/>
       <c r="D37" s="40"/>
       <c r="E37" s="39"/>
-      <c r="F37" s="37"/>
+      <c r="F37" s="38"/>
       <c r="G37" s="39"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="37"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="38"/>
       <c r="O37" s="18"/>
       <c r="P37" s="5">
         <v>14.524684000000001</v>
@@ -4282,20 +4282,20 @@
       </c>
     </row>
     <row r="38" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="1">
         <v>2000</v>
       </c>
       <c r="C38" s="39"/>
       <c r="D38" s="40"/>
       <c r="E38" s="39"/>
-      <c r="F38" s="37"/>
+      <c r="F38" s="38"/>
       <c r="G38" s="39"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="37"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="38"/>
       <c r="O38" s="18"/>
       <c r="P38" s="5">
         <v>29.065647999999999</v>
@@ -4370,20 +4370,20 @@
       </c>
     </row>
     <row r="39" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="1">
         <v>5000</v>
       </c>
       <c r="C39" s="39"/>
       <c r="D39" s="40"/>
       <c r="E39" s="39"/>
-      <c r="F39" s="37"/>
+      <c r="F39" s="38"/>
       <c r="G39" s="39"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="37"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="38"/>
       <c r="O39" s="18"/>
       <c r="P39" s="5">
         <v>72.090327000000002</v>
@@ -4458,7 +4458,7 @@
       </c>
     </row>
     <row r="40" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="36" t="s">
         <v>21</v>
       </c>
       <c r="B40" s="1">
@@ -4469,23 +4469,23 @@
       <c r="E40" s="39">
         <v>0.29018026080021198</v>
       </c>
-      <c r="F40" s="37" t="s">
+      <c r="F40" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G40" s="39">
         <v>0.205463324203739</v>
       </c>
-      <c r="H40" s="37" t="s">
+      <c r="H40" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="38" t="s">
+      <c r="I40" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J40" s="37" t="s">
+      <c r="J40" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="36"/>
-      <c r="L40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="38"/>
       <c r="O40" s="18"/>
       <c r="P40" s="5">
         <v>8.3890449999999994</v>
@@ -4560,20 +4560,20 @@
       </c>
     </row>
     <row r="41" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="1">
         <v>1000</v>
       </c>
       <c r="C41" s="39"/>
       <c r="D41" s="40"/>
       <c r="E41" s="39"/>
-      <c r="F41" s="37"/>
+      <c r="F41" s="38"/>
       <c r="G41" s="39"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="37"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="38"/>
       <c r="O41" s="18"/>
       <c r="P41" s="5">
         <v>16.511437999999998</v>
@@ -4648,20 +4648,20 @@
       </c>
     </row>
     <row r="42" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="1">
         <v>2000</v>
       </c>
       <c r="C42" s="39"/>
       <c r="D42" s="40"/>
       <c r="E42" s="39"/>
-      <c r="F42" s="37"/>
+      <c r="F42" s="38"/>
       <c r="G42" s="39"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="37"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="38"/>
       <c r="O42" s="18"/>
       <c r="P42" s="5">
         <v>32.639651000000001</v>
@@ -4736,20 +4736,20 @@
       </c>
     </row>
     <row r="43" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="1">
         <v>5000</v>
       </c>
       <c r="C43" s="39"/>
       <c r="D43" s="40"/>
       <c r="E43" s="39"/>
-      <c r="F43" s="37"/>
+      <c r="F43" s="38"/>
       <c r="G43" s="39"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="37"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="38"/>
       <c r="O43" s="18"/>
       <c r="P43" s="5">
         <v>81.209215999999998</v>
@@ -4850,7 +4850,7 @@
       <c r="AT44" s="31"/>
     </row>
     <row r="45" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B45" s="1">
@@ -4861,23 +4861,23 @@
       <c r="E45" s="39">
         <v>0.21826059724466901</v>
       </c>
-      <c r="F45" s="37" t="s">
+      <c r="F45" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G45" s="39">
         <v>0.199782125806655</v>
       </c>
-      <c r="H45" s="37" t="s">
+      <c r="H45" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I45" s="38" t="s">
+      <c r="I45" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="37" t="s">
+      <c r="J45" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K45" s="36"/>
-      <c r="L45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="38"/>
       <c r="O45" s="18"/>
       <c r="P45" s="5">
         <v>2.2728280000000001</v>
@@ -4952,20 +4952,20 @@
       </c>
     </row>
     <row r="46" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="1">
         <v>1000</v>
       </c>
       <c r="C46" s="39"/>
       <c r="D46" s="40"/>
       <c r="E46" s="39"/>
-      <c r="F46" s="37"/>
+      <c r="F46" s="38"/>
       <c r="G46" s="39"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="37"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="38"/>
       <c r="O46" s="18"/>
       <c r="P46" s="5">
         <v>4.5111670000000004</v>
@@ -5040,20 +5040,20 @@
       </c>
     </row>
     <row r="47" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="1">
         <v>2000</v>
       </c>
       <c r="C47" s="39"/>
       <c r="D47" s="40"/>
       <c r="E47" s="39"/>
-      <c r="F47" s="37"/>
+      <c r="F47" s="38"/>
       <c r="G47" s="39"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="37"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="38"/>
       <c r="O47" s="18"/>
       <c r="P47" s="5">
         <v>8.9939009999999993</v>
@@ -5128,20 +5128,20 @@
       </c>
     </row>
     <row r="48" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
+      <c r="A48" s="36"/>
       <c r="B48" s="1">
         <v>5000</v>
       </c>
       <c r="C48" s="39"/>
       <c r="D48" s="40"/>
       <c r="E48" s="39"/>
-      <c r="F48" s="37"/>
+      <c r="F48" s="38"/>
       <c r="G48" s="39"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="37"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="38"/>
       <c r="O48" s="18"/>
       <c r="P48" s="5">
         <v>22.490936999999999</v>
@@ -5242,7 +5242,7 @@
       <c r="AT49" s="31"/>
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="36" t="s">
         <v>22</v>
       </c>
       <c r="B50" s="1">
@@ -5253,23 +5253,23 @@
       <c r="E50" s="39">
         <v>0.24797844874295</v>
       </c>
-      <c r="F50" s="37" t="s">
+      <c r="F50" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G50" s="39">
         <v>0.18443317167635301</v>
       </c>
-      <c r="H50" s="37" t="s">
+      <c r="H50" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="38" t="s">
+      <c r="I50" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J50" s="37" t="s">
+      <c r="J50" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K50" s="36"/>
-      <c r="L50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="38"/>
       <c r="O50" s="18"/>
       <c r="P50" s="5">
         <v>8.1978240000000007</v>
@@ -5344,20 +5344,20 @@
       </c>
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
+      <c r="A51" s="36"/>
       <c r="B51" s="1">
         <v>1000</v>
       </c>
       <c r="C51" s="39"/>
       <c r="D51" s="40"/>
       <c r="E51" s="39"/>
-      <c r="F51" s="37"/>
+      <c r="F51" s="38"/>
       <c r="G51" s="39"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="37"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="38"/>
       <c r="O51" s="18"/>
       <c r="P51" s="5">
         <v>16.520105999999998</v>
@@ -5432,20 +5432,20 @@
       </c>
     </row>
     <row r="52" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
+      <c r="A52" s="36"/>
       <c r="B52" s="1">
         <v>2000</v>
       </c>
       <c r="C52" s="39"/>
       <c r="D52" s="40"/>
       <c r="E52" s="39"/>
-      <c r="F52" s="37"/>
+      <c r="F52" s="38"/>
       <c r="G52" s="39"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="37"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="38"/>
       <c r="O52" s="18"/>
       <c r="P52" s="5">
         <v>32.814861000000001</v>
@@ -5520,20 +5520,20 @@
       </c>
     </row>
     <row r="53" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
+      <c r="A53" s="36"/>
       <c r="B53" s="1">
         <v>5000</v>
       </c>
       <c r="C53" s="39"/>
       <c r="D53" s="40"/>
       <c r="E53" s="39"/>
-      <c r="F53" s="37"/>
+      <c r="F53" s="38"/>
       <c r="G53" s="39"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="37"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="38"/>
       <c r="O53" s="18"/>
       <c r="P53" s="5">
         <v>80.115144999999998</v>
@@ -5634,7 +5634,7 @@
       <c r="AT54" s="31"/>
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A55" s="38" t="s">
+      <c r="A55" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B55" s="1">
@@ -5645,23 +5645,23 @@
       <c r="E55" s="39">
         <v>0.28420023201354799</v>
       </c>
-      <c r="F55" s="37" t="s">
+      <c r="F55" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G55" s="39">
         <v>0.34385002851765301</v>
       </c>
-      <c r="H55" s="37" t="s">
+      <c r="H55" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I55" s="38" t="s">
+      <c r="I55" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J55" s="37" t="s">
+      <c r="J55" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K55" s="36"/>
-      <c r="L55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="38"/>
       <c r="O55" s="18"/>
       <c r="P55" s="5">
         <v>5.8302040000000002</v>
@@ -5736,20 +5736,20 @@
       </c>
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
+      <c r="A56" s="36"/>
       <c r="B56" s="1">
         <v>1000</v>
       </c>
       <c r="C56" s="39"/>
       <c r="D56" s="40"/>
       <c r="E56" s="39"/>
-      <c r="F56" s="37"/>
+      <c r="F56" s="38"/>
       <c r="G56" s="39"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="37"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="38"/>
       <c r="O56" s="18"/>
       <c r="P56" s="5">
         <v>11.555717</v>
@@ -5824,20 +5824,20 @@
       </c>
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
+      <c r="A57" s="36"/>
       <c r="B57" s="1">
         <v>2000</v>
       </c>
       <c r="C57" s="39"/>
       <c r="D57" s="40"/>
       <c r="E57" s="39"/>
-      <c r="F57" s="37"/>
+      <c r="F57" s="38"/>
       <c r="G57" s="39"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="37"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="38"/>
       <c r="O57" s="18"/>
       <c r="P57" s="5">
         <v>23.124298</v>
@@ -5912,20 +5912,20 @@
       </c>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
+      <c r="A58" s="36"/>
       <c r="B58" s="1">
         <v>5000</v>
       </c>
       <c r="C58" s="39"/>
       <c r="D58" s="40"/>
       <c r="E58" s="39"/>
-      <c r="F58" s="37"/>
+      <c r="F58" s="38"/>
       <c r="G58" s="39"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="37"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="38"/>
       <c r="O58" s="18"/>
       <c r="P58" s="5">
         <v>58.029696999999999</v>
@@ -6000,7 +6000,7 @@
       </c>
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="36" t="s">
         <v>24</v>
       </c>
       <c r="B59" s="1">
@@ -6011,23 +6011,23 @@
       <c r="E59" s="39">
         <v>0.29386831802036401</v>
       </c>
-      <c r="F59" s="37" t="s">
+      <c r="F59" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G59" s="39">
         <v>0.30511472915739701</v>
       </c>
-      <c r="H59" s="37" t="s">
+      <c r="H59" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I59" s="38" t="s">
+      <c r="I59" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J59" s="37" t="s">
+      <c r="J59" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K59" s="36"/>
-      <c r="L59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="38"/>
       <c r="O59" s="18"/>
       <c r="P59" s="5">
         <v>7.0910570000000002</v>
@@ -6102,20 +6102,20 @@
       </c>
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
+      <c r="A60" s="36"/>
       <c r="B60" s="1">
         <v>1000</v>
       </c>
       <c r="C60" s="39"/>
       <c r="D60" s="40"/>
       <c r="E60" s="39"/>
-      <c r="F60" s="37"/>
+      <c r="F60" s="38"/>
       <c r="G60" s="39"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="37"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="38"/>
       <c r="O60" s="18"/>
       <c r="P60" s="5">
         <v>14.007052</v>
@@ -6190,20 +6190,20 @@
       </c>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
+      <c r="A61" s="36"/>
       <c r="B61" s="1">
         <v>2000</v>
       </c>
       <c r="C61" s="39"/>
       <c r="D61" s="40"/>
       <c r="E61" s="39"/>
-      <c r="F61" s="37"/>
+      <c r="F61" s="38"/>
       <c r="G61" s="39"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="37"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="38"/>
       <c r="O61" s="18"/>
       <c r="P61" s="5">
         <v>27.958158999999998</v>
@@ -6278,20 +6278,20 @@
       </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
+      <c r="A62" s="36"/>
       <c r="B62" s="1">
         <v>5000</v>
       </c>
       <c r="C62" s="39"/>
       <c r="D62" s="40"/>
       <c r="E62" s="39"/>
-      <c r="F62" s="37"/>
+      <c r="F62" s="38"/>
       <c r="G62" s="39"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="37"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="38"/>
       <c r="O62" s="18"/>
       <c r="P62" s="5">
         <v>69.326909000000001</v>
@@ -6366,7 +6366,7 @@
       </c>
     </row>
     <row r="63" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A63" s="38" t="s">
+      <c r="A63" s="36" t="s">
         <v>25</v>
       </c>
       <c r="B63" s="1">
@@ -6377,23 +6377,23 @@
       <c r="E63" s="39">
         <v>0.167989635290166</v>
       </c>
-      <c r="F63" s="37" t="s">
+      <c r="F63" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G63" s="39">
         <v>0.25329462101632999</v>
       </c>
-      <c r="H63" s="37" t="s">
+      <c r="H63" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I63" s="38" t="s">
+      <c r="I63" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J63" s="37" t="s">
+      <c r="J63" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K63" s="36"/>
-      <c r="L63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="38"/>
       <c r="O63" s="18"/>
       <c r="P63" s="5">
         <v>7.4597910000000001</v>
@@ -6468,20 +6468,20 @@
       </c>
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A64" s="38"/>
+      <c r="A64" s="36"/>
       <c r="B64" s="1">
         <v>1000</v>
       </c>
       <c r="C64" s="39"/>
       <c r="D64" s="40"/>
       <c r="E64" s="39"/>
-      <c r="F64" s="37"/>
+      <c r="F64" s="38"/>
       <c r="G64" s="39"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="37"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="38"/>
       <c r="O64" s="18"/>
       <c r="P64" s="5">
         <v>14.86237</v>
@@ -6556,20 +6556,20 @@
       </c>
     </row>
     <row r="65" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A65" s="38"/>
+      <c r="A65" s="36"/>
       <c r="B65" s="1">
         <v>2000</v>
       </c>
       <c r="C65" s="39"/>
       <c r="D65" s="40"/>
       <c r="E65" s="39"/>
-      <c r="F65" s="37"/>
+      <c r="F65" s="38"/>
       <c r="G65" s="39"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="37"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="38"/>
       <c r="O65" s="18"/>
       <c r="P65" s="5">
         <v>29.561377</v>
@@ -6644,20 +6644,20 @@
       </c>
     </row>
     <row r="66" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
+      <c r="A66" s="36"/>
       <c r="B66" s="1">
         <v>5000</v>
       </c>
       <c r="C66" s="39"/>
       <c r="D66" s="40"/>
       <c r="E66" s="39"/>
-      <c r="F66" s="37"/>
+      <c r="F66" s="38"/>
       <c r="G66" s="39"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="37"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="37"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="38"/>
       <c r="O66" s="18"/>
       <c r="P66" s="5">
         <v>73.479196999999999</v>
@@ -6758,7 +6758,7 @@
       <c r="AT67" s="31"/>
     </row>
     <row r="68" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A68" s="38" t="s">
+      <c r="A68" s="36" t="s">
         <v>27</v>
       </c>
       <c r="B68" s="1">
@@ -6769,23 +6769,23 @@
       <c r="E68" s="39">
         <v>0.16062893658948699</v>
       </c>
-      <c r="F68" s="37" t="s">
+      <c r="F68" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G68" s="39">
         <v>0.121214337893307</v>
       </c>
-      <c r="H68" s="37" t="s">
+      <c r="H68" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I68" s="38" t="s">
+      <c r="I68" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J68" s="37" t="s">
+      <c r="J68" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K68" s="36"/>
-      <c r="L68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="38"/>
       <c r="O68" s="18"/>
       <c r="P68" s="5">
         <v>2.7527020000000002</v>
@@ -6860,20 +6860,20 @@
       </c>
     </row>
     <row r="69" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A69" s="38"/>
+      <c r="A69" s="36"/>
       <c r="B69" s="1">
         <v>1000</v>
       </c>
       <c r="C69" s="39"/>
       <c r="D69" s="40"/>
       <c r="E69" s="39"/>
-      <c r="F69" s="37"/>
+      <c r="F69" s="38"/>
       <c r="G69" s="39"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="37"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="38"/>
       <c r="O69" s="18"/>
       <c r="P69" s="5">
         <v>5.4598659999999999</v>
@@ -6948,20 +6948,20 @@
       </c>
     </row>
     <row r="70" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A70" s="38"/>
+      <c r="A70" s="36"/>
       <c r="B70" s="1">
         <v>2000</v>
       </c>
       <c r="C70" s="39"/>
       <c r="D70" s="40"/>
       <c r="E70" s="39"/>
-      <c r="F70" s="37"/>
+      <c r="F70" s="38"/>
       <c r="G70" s="39"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="37"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="38"/>
       <c r="O70" s="18"/>
       <c r="P70" s="5">
         <v>10.888598999999999</v>
@@ -7036,20 +7036,20 @@
       </c>
     </row>
     <row r="71" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A71" s="38"/>
+      <c r="A71" s="36"/>
       <c r="B71" s="1">
         <v>5000</v>
       </c>
       <c r="C71" s="39"/>
       <c r="D71" s="40"/>
       <c r="E71" s="39"/>
-      <c r="F71" s="37"/>
+      <c r="F71" s="38"/>
       <c r="G71" s="39"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="37"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="38"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="38"/>
       <c r="O71" s="18"/>
       <c r="P71" s="5">
         <v>27.119754</v>
@@ -7124,7 +7124,7 @@
       </c>
     </row>
     <row r="72" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A72" s="38" t="s">
+      <c r="A72" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B72" s="1">
@@ -7135,23 +7135,23 @@
       <c r="E72" s="39">
         <v>1.0883629283854401E-2</v>
       </c>
-      <c r="F72" s="37" t="s">
+      <c r="F72" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G72" s="39">
         <v>2.6516853932584201E-2</v>
       </c>
-      <c r="H72" s="37" t="s">
+      <c r="H72" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I72" s="38" t="s">
+      <c r="I72" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J72" s="37" t="s">
+      <c r="J72" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K72" s="36"/>
-      <c r="L72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="38"/>
       <c r="O72" s="18"/>
       <c r="P72" s="5">
         <v>3.1482399999999999</v>
@@ -7226,20 +7226,20 @@
       </c>
     </row>
     <row r="73" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A73" s="38"/>
+      <c r="A73" s="36"/>
       <c r="B73" s="1">
         <v>1000</v>
       </c>
       <c r="C73" s="39"/>
       <c r="D73" s="40"/>
       <c r="E73" s="39"/>
-      <c r="F73" s="37"/>
+      <c r="F73" s="38"/>
       <c r="G73" s="39"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="36"/>
-      <c r="L73" s="37"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="38"/>
       <c r="O73" s="18"/>
       <c r="P73" s="5">
         <v>6.2835929999999998</v>
@@ -7314,20 +7314,20 @@
       </c>
     </row>
     <row r="74" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A74" s="38"/>
+      <c r="A74" s="36"/>
       <c r="B74" s="1">
         <v>2000</v>
       </c>
       <c r="C74" s="39"/>
       <c r="D74" s="40"/>
       <c r="E74" s="39"/>
-      <c r="F74" s="37"/>
+      <c r="F74" s="38"/>
       <c r="G74" s="39"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="36"/>
-      <c r="L74" s="37"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="38"/>
       <c r="O74" s="18"/>
       <c r="P74" s="5">
         <v>12.554895999999999</v>
@@ -7402,20 +7402,20 @@
       </c>
     </row>
     <row r="75" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
+      <c r="A75" s="36"/>
       <c r="B75" s="1">
         <v>5000</v>
       </c>
       <c r="C75" s="39"/>
       <c r="D75" s="40"/>
       <c r="E75" s="39"/>
-      <c r="F75" s="37"/>
+      <c r="F75" s="38"/>
       <c r="G75" s="39"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="38"/>
-      <c r="J75" s="37"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="37"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="38"/>
       <c r="O75" s="18"/>
       <c r="P75" s="5">
         <v>31.354782</v>
@@ -7490,7 +7490,7 @@
       </c>
     </row>
     <row r="76" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A76" s="38" t="s">
+      <c r="A76" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B76" s="1">
@@ -7501,23 +7501,23 @@
       <c r="E76" s="39">
         <v>2.1265476753851299E-2</v>
       </c>
-      <c r="F76" s="37" t="s">
+      <c r="F76" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G76" s="39">
         <v>3.6388931451421497E-2</v>
       </c>
-      <c r="H76" s="37" t="s">
+      <c r="H76" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I76" s="38" t="s">
+      <c r="I76" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J76" s="37" t="s">
+      <c r="J76" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K76" s="36"/>
-      <c r="L76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="38"/>
       <c r="O76" s="18"/>
       <c r="P76" s="5">
         <v>3.7235830000000001</v>
@@ -7592,20 +7592,20 @@
       </c>
     </row>
     <row r="77" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A77" s="38"/>
+      <c r="A77" s="36"/>
       <c r="B77" s="1">
         <v>1000</v>
       </c>
       <c r="C77" s="39"/>
       <c r="D77" s="40"/>
       <c r="E77" s="39"/>
-      <c r="F77" s="37"/>
+      <c r="F77" s="38"/>
       <c r="G77" s="39"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="37"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="37"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="38"/>
       <c r="O77" s="18"/>
       <c r="P77" s="5">
         <v>7.4339560000000002</v>
@@ -7680,20 +7680,20 @@
       </c>
     </row>
     <row r="78" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A78" s="38"/>
+      <c r="A78" s="36"/>
       <c r="B78" s="1">
         <v>2000</v>
       </c>
       <c r="C78" s="39"/>
       <c r="D78" s="40"/>
       <c r="E78" s="39"/>
-      <c r="F78" s="37"/>
+      <c r="F78" s="38"/>
       <c r="G78" s="39"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="37"/>
-      <c r="K78" s="36"/>
-      <c r="L78" s="37"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="37"/>
+      <c r="L78" s="38"/>
       <c r="P78" s="5">
         <v>14.859114</v>
       </c>
@@ -7767,20 +7767,20 @@
       </c>
     </row>
     <row r="79" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A79" s="38"/>
+      <c r="A79" s="36"/>
       <c r="B79" s="1">
         <v>5000</v>
       </c>
       <c r="C79" s="39"/>
       <c r="D79" s="40"/>
       <c r="E79" s="39"/>
-      <c r="F79" s="37"/>
+      <c r="F79" s="38"/>
       <c r="G79" s="39"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="38"/>
-      <c r="J79" s="37"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="37"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="37"/>
+      <c r="L79" s="38"/>
       <c r="P79" s="5">
         <v>37.086013000000001</v>
       </c>
@@ -7854,7 +7854,7 @@
       </c>
     </row>
     <row r="80" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A80" s="38" t="s">
+      <c r="A80" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B80" s="1">
@@ -7865,23 +7865,23 @@
       <c r="E80" s="39">
         <v>0.17058616214445499</v>
       </c>
-      <c r="F80" s="37" t="s">
+      <c r="F80" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G80" s="39">
         <v>0.11949852870448099</v>
       </c>
-      <c r="H80" s="37" t="s">
+      <c r="H80" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I80" s="38" t="s">
+      <c r="I80" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J80" s="37" t="s">
+      <c r="J80" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K80" s="36"/>
-      <c r="L80" s="37"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="38"/>
       <c r="P80" s="5">
         <v>3.4546389999999998</v>
       </c>
@@ -7955,20 +7955,20 @@
       </c>
     </row>
     <row r="81" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A81" s="38"/>
+      <c r="A81" s="36"/>
       <c r="B81" s="1">
         <v>1000</v>
       </c>
       <c r="C81" s="39"/>
       <c r="D81" s="40"/>
       <c r="E81" s="39"/>
-      <c r="F81" s="37"/>
+      <c r="F81" s="38"/>
       <c r="G81" s="39"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="37"/>
-      <c r="K81" s="36"/>
-      <c r="L81" s="37"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="37"/>
+      <c r="L81" s="38"/>
       <c r="P81" s="5">
         <v>6.9478160000000004</v>
       </c>
@@ -8042,20 +8042,20 @@
       </c>
     </row>
     <row r="82" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A82" s="38"/>
+      <c r="A82" s="36"/>
       <c r="B82" s="1">
         <v>2000</v>
       </c>
       <c r="C82" s="39"/>
       <c r="D82" s="40"/>
       <c r="E82" s="39"/>
-      <c r="F82" s="37"/>
+      <c r="F82" s="38"/>
       <c r="G82" s="39"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="38"/>
-      <c r="J82" s="37"/>
-      <c r="K82" s="36"/>
-      <c r="L82" s="37"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="37"/>
+      <c r="L82" s="38"/>
       <c r="P82" s="5">
         <v>14.081699</v>
       </c>
@@ -8129,20 +8129,20 @@
       </c>
     </row>
     <row r="83" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A83" s="38"/>
+      <c r="A83" s="36"/>
       <c r="B83" s="1">
         <v>5000</v>
       </c>
       <c r="C83" s="39"/>
       <c r="D83" s="40"/>
       <c r="E83" s="39"/>
-      <c r="F83" s="37"/>
+      <c r="F83" s="38"/>
       <c r="G83" s="39"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="38"/>
-      <c r="J83" s="37"/>
-      <c r="K83" s="36"/>
-      <c r="L83" s="37"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="37"/>
+      <c r="L83" s="38"/>
       <c r="P83" s="5">
         <v>35.508873000000001</v>
       </c>
@@ -8216,7 +8216,7 @@
       </c>
     </row>
     <row r="84" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A84" s="38" t="s">
+      <c r="A84" s="36" t="s">
         <v>31</v>
       </c>
       <c r="B84" s="1">
@@ -8227,23 +8227,23 @@
       <c r="E84" s="39">
         <v>0.219652082835287</v>
       </c>
-      <c r="F84" s="37" t="s">
+      <c r="F84" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G84" s="39">
         <v>0.145969617876444</v>
       </c>
-      <c r="H84" s="37" t="s">
+      <c r="H84" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I84" s="38" t="s">
+      <c r="I84" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J84" s="37" t="s">
+      <c r="J84" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K84" s="36"/>
-      <c r="L84" s="37"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="38"/>
       <c r="P84" s="5">
         <v>4.0850150000000003</v>
       </c>
@@ -8317,20 +8317,20 @@
       </c>
     </row>
     <row r="85" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A85" s="38"/>
+      <c r="A85" s="36"/>
       <c r="B85" s="1">
         <v>1000</v>
       </c>
       <c r="C85" s="39"/>
       <c r="D85" s="40"/>
       <c r="E85" s="39"/>
-      <c r="F85" s="37"/>
+      <c r="F85" s="38"/>
       <c r="G85" s="39"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="37"/>
-      <c r="K85" s="36"/>
-      <c r="L85" s="37"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="38"/>
       <c r="P85" s="5">
         <v>8.2311809999999994</v>
       </c>
@@ -8404,20 +8404,20 @@
       </c>
     </row>
     <row r="86" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A86" s="38"/>
+      <c r="A86" s="36"/>
       <c r="B86" s="1">
         <v>2000</v>
       </c>
       <c r="C86" s="39"/>
       <c r="D86" s="40"/>
       <c r="E86" s="39"/>
-      <c r="F86" s="37"/>
+      <c r="F86" s="38"/>
       <c r="G86" s="39"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="37"/>
-      <c r="K86" s="36"/>
-      <c r="L86" s="37"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="38"/>
       <c r="P86" s="5">
         <v>16.372955999999999</v>
       </c>
@@ -8491,20 +8491,20 @@
       </c>
     </row>
     <row r="87" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A87" s="38"/>
+      <c r="A87" s="36"/>
       <c r="B87" s="1">
         <v>5000</v>
       </c>
       <c r="C87" s="39"/>
       <c r="D87" s="40"/>
       <c r="E87" s="39"/>
-      <c r="F87" s="37"/>
+      <c r="F87" s="38"/>
       <c r="G87" s="39"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="38"/>
-      <c r="J87" s="37"/>
-      <c r="K87" s="36"/>
-      <c r="L87" s="37"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="37"/>
+      <c r="L87" s="38"/>
       <c r="P87" s="5">
         <v>41.484876999999997</v>
       </c>
@@ -8578,7 +8578,7 @@
       </c>
     </row>
     <row r="88" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A88" s="38" t="s">
+      <c r="A88" s="36" t="s">
         <v>26</v>
       </c>
       <c r="B88" s="1">
@@ -8589,23 +8589,23 @@
       <c r="E88" s="39">
         <v>0.27256493121848202</v>
       </c>
-      <c r="F88" s="37" t="s">
+      <c r="F88" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G88" s="39">
         <v>0.15719859527191099</v>
       </c>
-      <c r="H88" s="37" t="s">
+      <c r="H88" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I88" s="38" t="s">
+      <c r="I88" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J88" s="37" t="s">
+      <c r="J88" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K88" s="36"/>
-      <c r="L88" s="37"/>
+      <c r="K88" s="37"/>
+      <c r="L88" s="38"/>
       <c r="P88" s="5">
         <v>4.7877510000000001</v>
       </c>
@@ -8679,20 +8679,20 @@
       </c>
     </row>
     <row r="89" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A89" s="38"/>
+      <c r="A89" s="36"/>
       <c r="B89" s="1">
         <v>1000</v>
       </c>
       <c r="C89" s="39"/>
       <c r="D89" s="40"/>
       <c r="E89" s="39"/>
-      <c r="F89" s="37"/>
+      <c r="F89" s="38"/>
       <c r="G89" s="39"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="37"/>
-      <c r="K89" s="36"/>
-      <c r="L89" s="37"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="38"/>
+      <c r="K89" s="37"/>
+      <c r="L89" s="38"/>
       <c r="P89" s="5">
         <v>9.6713889999999996</v>
       </c>
@@ -8766,20 +8766,20 @@
       </c>
     </row>
     <row r="90" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A90" s="38"/>
+      <c r="A90" s="36"/>
       <c r="B90" s="1">
         <v>2000</v>
       </c>
       <c r="C90" s="39"/>
       <c r="D90" s="40"/>
       <c r="E90" s="39"/>
-      <c r="F90" s="37"/>
+      <c r="F90" s="38"/>
       <c r="G90" s="39"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="37"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="37"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="37"/>
+      <c r="L90" s="38"/>
       <c r="P90" s="5">
         <v>19.316754</v>
       </c>
@@ -8853,20 +8853,20 @@
       </c>
     </row>
     <row r="91" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A91" s="38"/>
+      <c r="A91" s="36"/>
       <c r="B91" s="1">
         <v>5000</v>
       </c>
       <c r="C91" s="39"/>
       <c r="D91" s="40"/>
       <c r="E91" s="39"/>
-      <c r="F91" s="37"/>
+      <c r="F91" s="38"/>
       <c r="G91" s="39"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="38"/>
-      <c r="J91" s="37"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="37"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="38"/>
+      <c r="K91" s="37"/>
+      <c r="L91" s="38"/>
       <c r="P91" s="5">
         <v>47.262852000000002</v>
       </c>
@@ -8940,7 +8940,7 @@
       </c>
     </row>
     <row r="92" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A92" s="38" t="s">
+      <c r="A92" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B92" s="1">
@@ -8951,23 +8951,23 @@
       <c r="E92" s="39">
         <v>6.2700060480871303E-2</v>
       </c>
-      <c r="F92" s="37" t="s">
+      <c r="F92" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G92" s="39">
         <v>3.09751238890398E-2</v>
       </c>
-      <c r="H92" s="37" t="s">
+      <c r="H92" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I92" s="38" t="s">
+      <c r="I92" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J92" s="37" t="s">
+      <c r="J92" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K92" s="36"/>
-      <c r="L92" s="37"/>
+      <c r="K92" s="37"/>
+      <c r="L92" s="38"/>
       <c r="P92" s="5">
         <v>6.1680070000000002</v>
       </c>
@@ -9041,20 +9041,20 @@
       </c>
     </row>
     <row r="93" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A93" s="38"/>
+      <c r="A93" s="36"/>
       <c r="B93" s="1">
         <v>1000</v>
       </c>
       <c r="C93" s="39"/>
       <c r="D93" s="40"/>
       <c r="E93" s="39"/>
-      <c r="F93" s="37"/>
+      <c r="F93" s="38"/>
       <c r="G93" s="39"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="38"/>
-      <c r="J93" s="37"/>
-      <c r="K93" s="36"/>
-      <c r="L93" s="37"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="38"/>
+      <c r="K93" s="37"/>
+      <c r="L93" s="38"/>
       <c r="P93" s="5">
         <v>12.293174</v>
       </c>
@@ -9128,20 +9128,20 @@
       </c>
     </row>
     <row r="94" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A94" s="38"/>
+      <c r="A94" s="36"/>
       <c r="B94" s="1">
         <v>2000</v>
       </c>
       <c r="C94" s="39"/>
       <c r="D94" s="40"/>
       <c r="E94" s="39"/>
-      <c r="F94" s="37"/>
+      <c r="F94" s="38"/>
       <c r="G94" s="39"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="38"/>
-      <c r="J94" s="37"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="37"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="38"/>
+      <c r="K94" s="37"/>
+      <c r="L94" s="38"/>
       <c r="P94" s="5">
         <v>24.530194999999999</v>
       </c>
@@ -9215,20 +9215,20 @@
       </c>
     </row>
     <row r="95" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A95" s="38"/>
+      <c r="A95" s="36"/>
       <c r="B95" s="1">
         <v>5000</v>
       </c>
       <c r="C95" s="39"/>
       <c r="D95" s="40"/>
       <c r="E95" s="39"/>
-      <c r="F95" s="37"/>
+      <c r="F95" s="38"/>
       <c r="G95" s="39"/>
-      <c r="H95" s="37"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="37"/>
-      <c r="K95" s="36"/>
-      <c r="L95" s="37"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="38"/>
+      <c r="K95" s="37"/>
+      <c r="L95" s="38"/>
       <c r="P95" s="5">
         <v>61.224843</v>
       </c>
@@ -9302,7 +9302,7 @@
       </c>
     </row>
     <row r="96" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A96" s="38" t="s">
+      <c r="A96" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B96" s="1">
@@ -9313,23 +9313,23 @@
       <c r="E96" s="39">
         <v>0.21402465142211599</v>
       </c>
-      <c r="F96" s="37" t="s">
+      <c r="F96" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G96" s="39">
         <v>0.16071994068421799</v>
       </c>
-      <c r="H96" s="37" t="s">
+      <c r="H96" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I96" s="38" t="s">
+      <c r="I96" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J96" s="37" t="s">
+      <c r="J96" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K96" s="36"/>
-      <c r="L96" s="37"/>
+      <c r="K96" s="37"/>
+      <c r="L96" s="38"/>
       <c r="P96" s="5">
         <v>5.129162</v>
       </c>
@@ -9403,20 +9403,20 @@
       </c>
     </row>
     <row r="97" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A97" s="38"/>
+      <c r="A97" s="36"/>
       <c r="B97" s="1">
         <v>1000</v>
       </c>
       <c r="C97" s="39"/>
       <c r="D97" s="40"/>
       <c r="E97" s="39"/>
-      <c r="F97" s="37"/>
+      <c r="F97" s="38"/>
       <c r="G97" s="39"/>
-      <c r="H97" s="37"/>
-      <c r="I97" s="38"/>
-      <c r="J97" s="37"/>
-      <c r="K97" s="36"/>
-      <c r="L97" s="37"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="38"/>
+      <c r="K97" s="37"/>
+      <c r="L97" s="38"/>
       <c r="P97" s="5">
         <v>10.24381</v>
       </c>
@@ -9490,20 +9490,20 @@
       </c>
     </row>
     <row r="98" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A98" s="38"/>
+      <c r="A98" s="36"/>
       <c r="B98" s="1">
         <v>2000</v>
       </c>
       <c r="C98" s="39"/>
       <c r="D98" s="40"/>
       <c r="E98" s="39"/>
-      <c r="F98" s="37"/>
+      <c r="F98" s="38"/>
       <c r="G98" s="39"/>
-      <c r="H98" s="37"/>
-      <c r="I98" s="38"/>
-      <c r="J98" s="37"/>
-      <c r="K98" s="36"/>
-      <c r="L98" s="37"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="38"/>
+      <c r="K98" s="37"/>
+      <c r="L98" s="38"/>
       <c r="P98" s="5">
         <v>20.481614</v>
       </c>
@@ -9577,20 +9577,20 @@
       </c>
     </row>
     <row r="99" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A99" s="38"/>
+      <c r="A99" s="36"/>
       <c r="B99" s="1">
         <v>5000</v>
       </c>
       <c r="C99" s="39"/>
       <c r="D99" s="40"/>
       <c r="E99" s="39"/>
-      <c r="F99" s="37"/>
+      <c r="F99" s="38"/>
       <c r="G99" s="39"/>
-      <c r="H99" s="37"/>
-      <c r="I99" s="38"/>
-      <c r="J99" s="37"/>
-      <c r="K99" s="36"/>
-      <c r="L99" s="37"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="38"/>
+      <c r="K99" s="37"/>
+      <c r="L99" s="38"/>
       <c r="P99" s="5">
         <v>51.171509</v>
       </c>
@@ -9689,7 +9689,7 @@
       <c r="AT100" s="24"/>
     </row>
     <row r="101" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A101" s="38" t="s">
+      <c r="A101" s="36" t="s">
         <v>47</v>
       </c>
       <c r="B101" s="16">
@@ -9698,21 +9698,21 @@
       <c r="C101" s="39"/>
       <c r="D101" s="39"/>
       <c r="E101" s="39"/>
-      <c r="F101" s="37" t="s">
+      <c r="F101" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G101" s="39"/>
-      <c r="H101" s="37" t="s">
+      <c r="H101" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I101" s="38" t="s">
+      <c r="I101" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J101" s="37" t="s">
+      <c r="J101" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K101" s="36"/>
-      <c r="L101" s="37"/>
+      <c r="K101" s="37"/>
+      <c r="L101" s="38"/>
       <c r="Q101" s="17">
         <v>3.6363636363636362E-2</v>
       </c>
@@ -9780,20 +9780,20 @@
       </c>
     </row>
     <row r="102" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A102" s="38"/>
+      <c r="A102" s="36"/>
       <c r="B102" s="16">
         <v>1000</v>
       </c>
       <c r="C102" s="39"/>
       <c r="D102" s="39"/>
       <c r="E102" s="39"/>
-      <c r="F102" s="37"/>
+      <c r="F102" s="38"/>
       <c r="G102" s="39"/>
-      <c r="H102" s="37"/>
-      <c r="I102" s="38"/>
-      <c r="J102" s="37"/>
-      <c r="K102" s="36"/>
-      <c r="L102" s="37"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="38"/>
+      <c r="K102" s="37"/>
+      <c r="L102" s="38"/>
       <c r="Q102" s="17">
         <v>0</v>
       </c>
@@ -9861,20 +9861,20 @@
       </c>
     </row>
     <row r="103" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A103" s="38"/>
+      <c r="A103" s="36"/>
       <c r="B103" s="16">
         <v>2000</v>
       </c>
       <c r="C103" s="39"/>
       <c r="D103" s="39"/>
       <c r="E103" s="39"/>
-      <c r="F103" s="37"/>
+      <c r="F103" s="38"/>
       <c r="G103" s="39"/>
-      <c r="H103" s="37"/>
-      <c r="I103" s="38"/>
-      <c r="J103" s="37"/>
-      <c r="K103" s="36"/>
-      <c r="L103" s="37"/>
+      <c r="H103" s="38"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="38"/>
+      <c r="K103" s="37"/>
+      <c r="L103" s="38"/>
       <c r="Q103" s="17">
         <v>0</v>
       </c>
@@ -9942,20 +9942,20 @@
       </c>
     </row>
     <row r="104" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A104" s="38"/>
+      <c r="A104" s="36"/>
       <c r="B104" s="16">
         <v>5000</v>
       </c>
       <c r="C104" s="39"/>
       <c r="D104" s="39"/>
       <c r="E104" s="39"/>
-      <c r="F104" s="37"/>
+      <c r="F104" s="38"/>
       <c r="G104" s="39"/>
-      <c r="H104" s="37"/>
-      <c r="I104" s="38"/>
-      <c r="J104" s="37"/>
-      <c r="K104" s="36"/>
-      <c r="L104" s="37"/>
+      <c r="H104" s="38"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="38"/>
+      <c r="K104" s="37"/>
+      <c r="L104" s="38"/>
       <c r="Q104" s="17">
         <v>0</v>
       </c>
@@ -10023,7 +10023,7 @@
       </c>
     </row>
     <row r="105" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A105" s="38" t="s">
+      <c r="A105" s="36" t="s">
         <v>58</v>
       </c>
       <c r="B105" s="16">
@@ -10032,21 +10032,21 @@
       <c r="C105" s="39"/>
       <c r="D105" s="39"/>
       <c r="E105" s="39"/>
-      <c r="F105" s="37" t="s">
+      <c r="F105" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G105" s="39"/>
-      <c r="H105" s="37" t="s">
+      <c r="H105" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I105" s="38" t="s">
+      <c r="I105" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J105" s="37" t="s">
+      <c r="J105" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K105" s="36"/>
-      <c r="L105" s="37"/>
+      <c r="K105" s="37"/>
+      <c r="L105" s="38"/>
       <c r="Q105" s="17">
         <v>9.8924731182795697E-2</v>
       </c>
@@ -10114,20 +10114,20 @@
       </c>
     </row>
     <row r="106" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A106" s="38"/>
+      <c r="A106" s="36"/>
       <c r="B106" s="16">
         <v>1000</v>
       </c>
       <c r="C106" s="39"/>
       <c r="D106" s="39"/>
       <c r="E106" s="39"/>
-      <c r="F106" s="37"/>
+      <c r="F106" s="38"/>
       <c r="G106" s="39"/>
-      <c r="H106" s="37"/>
-      <c r="I106" s="38"/>
-      <c r="J106" s="37"/>
-      <c r="K106" s="36"/>
-      <c r="L106" s="37"/>
+      <c r="H106" s="38"/>
+      <c r="I106" s="36"/>
+      <c r="J106" s="38"/>
+      <c r="K106" s="37"/>
+      <c r="L106" s="38"/>
       <c r="Q106" s="17">
         <v>7.9569892473118284E-2</v>
       </c>
@@ -10195,20 +10195,20 @@
       </c>
     </row>
     <row r="107" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A107" s="38"/>
+      <c r="A107" s="36"/>
       <c r="B107" s="16">
         <v>2000</v>
       </c>
       <c r="C107" s="39"/>
       <c r="D107" s="39"/>
       <c r="E107" s="39"/>
-      <c r="F107" s="37"/>
+      <c r="F107" s="38"/>
       <c r="G107" s="39"/>
-      <c r="H107" s="37"/>
-      <c r="I107" s="38"/>
-      <c r="J107" s="37"/>
-      <c r="K107" s="36"/>
-      <c r="L107" s="37"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="36"/>
+      <c r="J107" s="38"/>
+      <c r="K107" s="37"/>
+      <c r="L107" s="38"/>
       <c r="Q107" s="17">
         <v>5.6989247311827959E-2</v>
       </c>
@@ -10276,20 +10276,20 @@
       </c>
     </row>
     <row r="108" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A108" s="38"/>
+      <c r="A108" s="36"/>
       <c r="B108" s="16">
         <v>5000</v>
       </c>
       <c r="C108" s="39"/>
       <c r="D108" s="39"/>
       <c r="E108" s="39"/>
-      <c r="F108" s="37"/>
+      <c r="F108" s="38"/>
       <c r="G108" s="39"/>
-      <c r="H108" s="37"/>
-      <c r="I108" s="38"/>
-      <c r="J108" s="37"/>
-      <c r="K108" s="36"/>
-      <c r="L108" s="37"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="38"/>
+      <c r="K108" s="37"/>
+      <c r="L108" s="38"/>
       <c r="Q108" s="17">
         <v>5.6989247311827959E-2</v>
       </c>
@@ -10357,7 +10357,7 @@
       </c>
     </row>
     <row r="109" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A109" s="38" t="s">
+      <c r="A109" s="36" t="s">
         <v>59</v>
       </c>
       <c r="B109" s="16">
@@ -10366,21 +10366,21 @@
       <c r="C109" s="39"/>
       <c r="D109" s="39"/>
       <c r="E109" s="39"/>
-      <c r="F109" s="37" t="s">
+      <c r="F109" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G109" s="39"/>
-      <c r="H109" s="37" t="s">
+      <c r="H109" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I109" s="38" t="s">
+      <c r="I109" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J109" s="37" t="s">
+      <c r="J109" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K109" s="36"/>
-      <c r="L109" s="37"/>
+      <c r="K109" s="37"/>
+      <c r="L109" s="38"/>
       <c r="Q109" s="17">
         <v>6.9527896995708161E-2</v>
       </c>
@@ -10448,20 +10448,20 @@
       </c>
     </row>
     <row r="110" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A110" s="38"/>
+      <c r="A110" s="36"/>
       <c r="B110" s="16">
         <v>1000</v>
       </c>
       <c r="C110" s="39"/>
       <c r="D110" s="39"/>
       <c r="E110" s="39"/>
-      <c r="F110" s="37"/>
+      <c r="F110" s="38"/>
       <c r="G110" s="39"/>
-      <c r="H110" s="37"/>
-      <c r="I110" s="38"/>
-      <c r="J110" s="37"/>
-      <c r="K110" s="36"/>
-      <c r="L110" s="37"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="36"/>
+      <c r="J110" s="38"/>
+      <c r="K110" s="37"/>
+      <c r="L110" s="38"/>
       <c r="Q110" s="17">
         <v>6.9527896995708161E-2</v>
       </c>
@@ -10529,20 +10529,20 @@
       </c>
     </row>
     <row r="111" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A111" s="38"/>
+      <c r="A111" s="36"/>
       <c r="B111" s="16">
         <v>2000</v>
       </c>
       <c r="C111" s="39"/>
       <c r="D111" s="39"/>
       <c r="E111" s="39"/>
-      <c r="F111" s="37"/>
+      <c r="F111" s="38"/>
       <c r="G111" s="39"/>
-      <c r="H111" s="37"/>
-      <c r="I111" s="38"/>
-      <c r="J111" s="37"/>
-      <c r="K111" s="36"/>
-      <c r="L111" s="37"/>
+      <c r="H111" s="38"/>
+      <c r="I111" s="36"/>
+      <c r="J111" s="38"/>
+      <c r="K111" s="37"/>
+      <c r="L111" s="38"/>
       <c r="Q111" s="17">
         <v>4.2060085836909872E-2</v>
       </c>
@@ -10610,20 +10610,20 @@
       </c>
     </row>
     <row r="112" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A112" s="38"/>
+      <c r="A112" s="36"/>
       <c r="B112" s="16">
         <v>5000</v>
       </c>
       <c r="C112" s="39"/>
       <c r="D112" s="39"/>
       <c r="E112" s="39"/>
-      <c r="F112" s="37"/>
+      <c r="F112" s="38"/>
       <c r="G112" s="39"/>
-      <c r="H112" s="37"/>
-      <c r="I112" s="38"/>
-      <c r="J112" s="37"/>
-      <c r="K112" s="36"/>
-      <c r="L112" s="37"/>
+      <c r="H112" s="38"/>
+      <c r="I112" s="36"/>
+      <c r="J112" s="38"/>
+      <c r="K112" s="37"/>
+      <c r="L112" s="38"/>
       <c r="Q112" s="17">
         <v>3.8626609442060089E-2</v>
       </c>
@@ -10711,7 +10711,7 @@
       <c r="AP113" s="24"/>
     </row>
     <row r="114" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A114" s="38" t="s">
+      <c r="A114" s="36" t="s">
         <v>60</v>
       </c>
       <c r="B114" s="20">
@@ -10719,26 +10719,26 @@
       </c>
       <c r="C114" s="39"/>
       <c r="D114" s="39"/>
-      <c r="E114" s="37" t="s">
+      <c r="E114" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="37" t="s">
+      <c r="F114" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G114" s="37" t="s">
+      <c r="G114" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H114" s="37" t="s">
+      <c r="H114" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I114" s="37" t="s">
+      <c r="I114" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J114" s="37" t="s">
+      <c r="J114" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K114" s="36"/>
-      <c r="L114" s="37"/>
+      <c r="K114" s="37"/>
+      <c r="L114" s="38"/>
       <c r="Q114" s="21">
         <v>4.443657641724328E-2</v>
       </c>
@@ -10781,20 +10781,20 @@
       </c>
     </row>
     <row r="115" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A115" s="38"/>
+      <c r="A115" s="36"/>
       <c r="B115" s="20">
         <v>1000</v>
       </c>
       <c r="C115" s="39"/>
       <c r="D115" s="39"/>
-      <c r="E115" s="37"/>
-      <c r="F115" s="37"/>
-      <c r="G115" s="37"/>
-      <c r="H115" s="37"/>
-      <c r="I115" s="37"/>
-      <c r="J115" s="37"/>
-      <c r="K115" s="36"/>
-      <c r="L115" s="37"/>
+      <c r="E115" s="38"/>
+      <c r="F115" s="38"/>
+      <c r="G115" s="38"/>
+      <c r="H115" s="38"/>
+      <c r="I115" s="38"/>
+      <c r="J115" s="38"/>
+      <c r="K115" s="37"/>
+      <c r="L115" s="38"/>
       <c r="Q115" s="21">
         <v>3.5344166024718369E-2</v>
       </c>
@@ -10837,20 +10837,20 @@
       </c>
     </row>
     <row r="116" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A116" s="38"/>
+      <c r="A116" s="36"/>
       <c r="B116" s="20">
         <v>2000</v>
       </c>
       <c r="C116" s="39"/>
       <c r="D116" s="39"/>
-      <c r="E116" s="37"/>
-      <c r="F116" s="37"/>
-      <c r="G116" s="37"/>
-      <c r="H116" s="37"/>
-      <c r="I116" s="37"/>
-      <c r="J116" s="37"/>
-      <c r="K116" s="36"/>
-      <c r="L116" s="37"/>
+      <c r="E116" s="38"/>
+      <c r="F116" s="38"/>
+      <c r="G116" s="38"/>
+      <c r="H116" s="38"/>
+      <c r="I116" s="38"/>
+      <c r="J116" s="38"/>
+      <c r="K116" s="37"/>
+      <c r="L116" s="38"/>
       <c r="Q116" s="21">
         <v>2.8082599737989749E-2</v>
       </c>
@@ -10893,20 +10893,20 @@
       </c>
     </row>
     <row r="117" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A117" s="38"/>
+      <c r="A117" s="36"/>
       <c r="B117" s="20">
         <v>5000</v>
       </c>
       <c r="C117" s="39"/>
       <c r="D117" s="39"/>
-      <c r="E117" s="37"/>
-      <c r="F117" s="37"/>
-      <c r="G117" s="37"/>
-      <c r="H117" s="37"/>
-      <c r="I117" s="37"/>
-      <c r="J117" s="37"/>
-      <c r="K117" s="36"/>
-      <c r="L117" s="37"/>
+      <c r="E117" s="38"/>
+      <c r="F117" s="38"/>
+      <c r="G117" s="38"/>
+      <c r="H117" s="38"/>
+      <c r="I117" s="38"/>
+      <c r="J117" s="38"/>
+      <c r="K117" s="37"/>
+      <c r="L117" s="38"/>
       <c r="Q117" s="21">
         <v>2.2452105312462039E-2</v>
       </c>
@@ -10949,7 +10949,7 @@
       </c>
     </row>
     <row r="118" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A118" s="38" t="s">
+      <c r="A118" s="36" t="s">
         <v>61</v>
       </c>
       <c r="B118" s="20">
@@ -10957,26 +10957,26 @@
       </c>
       <c r="C118" s="39"/>
       <c r="D118" s="39"/>
-      <c r="E118" s="37" t="s">
+      <c r="E118" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F118" s="37" t="s">
+      <c r="F118" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G118" s="37" t="s">
+      <c r="G118" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H118" s="37" t="s">
+      <c r="H118" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I118" s="37" t="s">
+      <c r="I118" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J118" s="37" t="s">
+      <c r="J118" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K118" s="36"/>
-      <c r="L118" s="37"/>
+      <c r="K118" s="37"/>
+      <c r="L118" s="38"/>
       <c r="Q118" s="21">
         <v>7.1047589705956982E-2</v>
       </c>
@@ -11019,20 +11019,20 @@
       </c>
     </row>
     <row r="119" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A119" s="38"/>
+      <c r="A119" s="36"/>
       <c r="B119" s="20">
         <v>1000</v>
       </c>
       <c r="C119" s="39"/>
       <c r="D119" s="39"/>
-      <c r="E119" s="37"/>
-      <c r="F119" s="37"/>
-      <c r="G119" s="37"/>
-      <c r="H119" s="37"/>
-      <c r="I119" s="37"/>
-      <c r="J119" s="37"/>
-      <c r="K119" s="36"/>
-      <c r="L119" s="37"/>
+      <c r="E119" s="38"/>
+      <c r="F119" s="38"/>
+      <c r="G119" s="38"/>
+      <c r="H119" s="38"/>
+      <c r="I119" s="38"/>
+      <c r="J119" s="38"/>
+      <c r="K119" s="37"/>
+      <c r="L119" s="38"/>
       <c r="Q119" s="21">
         <v>5.941429130028815E-2</v>
       </c>
@@ -11075,20 +11075,20 @@
       </c>
     </row>
     <row r="120" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A120" s="38"/>
+      <c r="A120" s="36"/>
       <c r="B120" s="20">
         <v>2000</v>
       </c>
       <c r="C120" s="39"/>
       <c r="D120" s="39"/>
-      <c r="E120" s="37"/>
-      <c r="F120" s="37"/>
-      <c r="G120" s="37"/>
-      <c r="H120" s="37"/>
-      <c r="I120" s="37"/>
-      <c r="J120" s="37"/>
-      <c r="K120" s="36"/>
-      <c r="L120" s="37"/>
+      <c r="E120" s="38"/>
+      <c r="F120" s="38"/>
+      <c r="G120" s="38"/>
+      <c r="H120" s="38"/>
+      <c r="I120" s="38"/>
+      <c r="J120" s="38"/>
+      <c r="K120" s="37"/>
+      <c r="L120" s="38"/>
       <c r="Q120" s="21">
         <v>5.0924734901751069E-2</v>
       </c>
@@ -11131,20 +11131,20 @@
       </c>
     </row>
     <row r="121" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A121" s="38"/>
+      <c r="A121" s="36"/>
       <c r="B121" s="20">
         <v>5000</v>
       </c>
       <c r="C121" s="39"/>
       <c r="D121" s="39"/>
-      <c r="E121" s="37"/>
-      <c r="F121" s="37"/>
-      <c r="G121" s="37"/>
-      <c r="H121" s="37"/>
-      <c r="I121" s="37"/>
-      <c r="J121" s="37"/>
-      <c r="K121" s="36"/>
-      <c r="L121" s="37"/>
+      <c r="E121" s="38"/>
+      <c r="F121" s="38"/>
+      <c r="G121" s="38"/>
+      <c r="H121" s="38"/>
+      <c r="I121" s="38"/>
+      <c r="J121" s="38"/>
+      <c r="K121" s="37"/>
+      <c r="L121" s="38"/>
       <c r="Q121" s="21">
         <v>4.265213538910461E-2</v>
       </c>
@@ -11187,7 +11187,7 @@
       </c>
     </row>
     <row r="122" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A122" s="38" t="s">
+      <c r="A122" s="36" t="s">
         <v>62</v>
       </c>
       <c r="B122" s="20">
@@ -11195,26 +11195,26 @@
       </c>
       <c r="C122" s="39"/>
       <c r="D122" s="39"/>
-      <c r="E122" s="37" t="s">
+      <c r="E122" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F122" s="37" t="s">
+      <c r="F122" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G122" s="37" t="s">
+      <c r="G122" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H122" s="37" t="s">
+      <c r="H122" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I122" s="37" t="s">
+      <c r="I122" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J122" s="37" t="s">
+      <c r="J122" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K122" s="36"/>
-      <c r="L122" s="37"/>
+      <c r="K122" s="37"/>
+      <c r="L122" s="38"/>
       <c r="Q122" s="21">
         <v>8.9658537610427358E-2</v>
       </c>
@@ -11257,20 +11257,20 @@
       </c>
     </row>
     <row r="123" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A123" s="38"/>
+      <c r="A123" s="36"/>
       <c r="B123" s="20">
         <v>1000</v>
       </c>
       <c r="C123" s="39"/>
       <c r="D123" s="39"/>
-      <c r="E123" s="37"/>
-      <c r="F123" s="37"/>
-      <c r="G123" s="37"/>
-      <c r="H123" s="37"/>
-      <c r="I123" s="37"/>
-      <c r="J123" s="37"/>
-      <c r="K123" s="36"/>
-      <c r="L123" s="37"/>
+      <c r="E123" s="38"/>
+      <c r="F123" s="38"/>
+      <c r="G123" s="38"/>
+      <c r="H123" s="38"/>
+      <c r="I123" s="38"/>
+      <c r="J123" s="38"/>
+      <c r="K123" s="37"/>
+      <c r="L123" s="38"/>
       <c r="Q123" s="21">
         <v>7.6114428737574763E-2</v>
       </c>
@@ -11313,20 +11313,20 @@
       </c>
     </row>
     <row r="124" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A124" s="38"/>
+      <c r="A124" s="36"/>
       <c r="B124" s="20">
         <v>2000</v>
       </c>
       <c r="C124" s="39"/>
       <c r="D124" s="39"/>
-      <c r="E124" s="37"/>
-      <c r="F124" s="37"/>
-      <c r="G124" s="37"/>
-      <c r="H124" s="37"/>
-      <c r="I124" s="37"/>
-      <c r="J124" s="37"/>
-      <c r="K124" s="36"/>
-      <c r="L124" s="37"/>
+      <c r="E124" s="38"/>
+      <c r="F124" s="38"/>
+      <c r="G124" s="38"/>
+      <c r="H124" s="38"/>
+      <c r="I124" s="38"/>
+      <c r="J124" s="38"/>
+      <c r="K124" s="37"/>
+      <c r="L124" s="38"/>
       <c r="Q124" s="21">
         <v>6.6046132662835003E-2</v>
       </c>
@@ -11369,20 +11369,20 @@
       </c>
     </row>
     <row r="125" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A125" s="38"/>
+      <c r="A125" s="36"/>
       <c r="B125" s="20">
         <v>5000</v>
       </c>
       <c r="C125" s="39"/>
       <c r="D125" s="39"/>
-      <c r="E125" s="37"/>
-      <c r="F125" s="37"/>
-      <c r="G125" s="37"/>
-      <c r="H125" s="37"/>
-      <c r="I125" s="37"/>
-      <c r="J125" s="37"/>
-      <c r="K125" s="36"/>
-      <c r="L125" s="37"/>
+      <c r="E125" s="38"/>
+      <c r="F125" s="38"/>
+      <c r="G125" s="38"/>
+      <c r="H125" s="38"/>
+      <c r="I125" s="38"/>
+      <c r="J125" s="38"/>
+      <c r="K125" s="37"/>
+      <c r="L125" s="38"/>
       <c r="Q125" s="21">
         <v>5.5689497333012518E-2</v>
       </c>
@@ -11425,7 +11425,7 @@
       </c>
     </row>
     <row r="126" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A126" s="38" t="s">
+      <c r="A126" s="36" t="s">
         <v>63</v>
       </c>
       <c r="B126" s="20">
@@ -11433,26 +11433,26 @@
       </c>
       <c r="C126" s="39"/>
       <c r="D126" s="39"/>
-      <c r="E126" s="37" t="s">
+      <c r="E126" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F126" s="37" t="s">
+      <c r="F126" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G126" s="37" t="s">
+      <c r="G126" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H126" s="37" t="s">
+      <c r="H126" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I126" s="37" t="s">
+      <c r="I126" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J126" s="37" t="s">
+      <c r="J126" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K126" s="36"/>
-      <c r="L126" s="37"/>
+      <c r="K126" s="37"/>
+      <c r="L126" s="38"/>
       <c r="Q126" s="21">
         <v>4.6134437618808748E-2</v>
       </c>
@@ -11495,20 +11495,20 @@
       </c>
     </row>
     <row r="127" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A127" s="38"/>
+      <c r="A127" s="36"/>
       <c r="B127" s="20">
         <v>1000</v>
       </c>
       <c r="C127" s="39"/>
       <c r="D127" s="39"/>
-      <c r="E127" s="37"/>
-      <c r="F127" s="37"/>
-      <c r="G127" s="37"/>
-      <c r="H127" s="37"/>
-      <c r="I127" s="37"/>
-      <c r="J127" s="37"/>
-      <c r="K127" s="36"/>
-      <c r="L127" s="37"/>
+      <c r="E127" s="38"/>
+      <c r="F127" s="38"/>
+      <c r="G127" s="38"/>
+      <c r="H127" s="38"/>
+      <c r="I127" s="38"/>
+      <c r="J127" s="38"/>
+      <c r="K127" s="37"/>
+      <c r="L127" s="38"/>
       <c r="Q127" s="21">
         <v>3.8065453074537847E-2</v>
       </c>
@@ -11551,20 +11551,20 @@
       </c>
     </row>
     <row r="128" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A128" s="38"/>
+      <c r="A128" s="36"/>
       <c r="B128" s="20">
         <v>2000</v>
       </c>
       <c r="C128" s="39"/>
       <c r="D128" s="39"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="37"/>
-      <c r="H128" s="37"/>
-      <c r="I128" s="37"/>
-      <c r="J128" s="37"/>
-      <c r="K128" s="36"/>
-      <c r="L128" s="37"/>
+      <c r="E128" s="38"/>
+      <c r="F128" s="38"/>
+      <c r="G128" s="38"/>
+      <c r="H128" s="38"/>
+      <c r="I128" s="38"/>
+      <c r="J128" s="38"/>
+      <c r="K128" s="37"/>
+      <c r="L128" s="38"/>
       <c r="Q128" s="21">
         <v>3.043759949668352E-2</v>
       </c>
@@ -11607,20 +11607,20 @@
       </c>
     </row>
     <row r="129" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A129" s="38"/>
+      <c r="A129" s="36"/>
       <c r="B129" s="20">
         <v>5000</v>
       </c>
       <c r="C129" s="39"/>
       <c r="D129" s="39"/>
-      <c r="E129" s="37"/>
-      <c r="F129" s="37"/>
-      <c r="G129" s="37"/>
-      <c r="H129" s="37"/>
-      <c r="I129" s="37"/>
-      <c r="J129" s="37"/>
-      <c r="K129" s="36"/>
-      <c r="L129" s="37"/>
+      <c r="E129" s="38"/>
+      <c r="F129" s="38"/>
+      <c r="G129" s="38"/>
+      <c r="H129" s="38"/>
+      <c r="I129" s="38"/>
+      <c r="J129" s="38"/>
+      <c r="K129" s="37"/>
+      <c r="L129" s="38"/>
       <c r="Q129" s="21">
         <v>2.338570877260181E-2</v>
       </c>
@@ -11663,7 +11663,7 @@
       </c>
     </row>
     <row r="130" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A130" s="38" t="s">
+      <c r="A130" s="36" t="s">
         <v>64</v>
       </c>
       <c r="B130" s="20">
@@ -11671,26 +11671,26 @@
       </c>
       <c r="C130" s="39"/>
       <c r="D130" s="39"/>
-      <c r="E130" s="37" t="s">
+      <c r="E130" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F130" s="37" t="s">
+      <c r="F130" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G130" s="37" t="s">
+      <c r="G130" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H130" s="37" t="s">
+      <c r="H130" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I130" s="37" t="s">
+      <c r="I130" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J130" s="37" t="s">
+      <c r="J130" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K130" s="36"/>
-      <c r="L130" s="37"/>
+      <c r="K130" s="37"/>
+      <c r="L130" s="38"/>
       <c r="Q130" s="21">
         <v>0.1152570606920717</v>
       </c>
@@ -11733,20 +11733,20 @@
       </c>
     </row>
     <row r="131" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A131" s="38"/>
+      <c r="A131" s="36"/>
       <c r="B131" s="20">
         <v>1000</v>
       </c>
       <c r="C131" s="39"/>
       <c r="D131" s="39"/>
-      <c r="E131" s="37"/>
-      <c r="F131" s="37"/>
-      <c r="G131" s="37"/>
-      <c r="H131" s="37"/>
-      <c r="I131" s="37"/>
-      <c r="J131" s="37"/>
-      <c r="K131" s="36"/>
-      <c r="L131" s="37"/>
+      <c r="E131" s="38"/>
+      <c r="F131" s="38"/>
+      <c r="G131" s="38"/>
+      <c r="H131" s="38"/>
+      <c r="I131" s="38"/>
+      <c r="J131" s="38"/>
+      <c r="K131" s="37"/>
+      <c r="L131" s="38"/>
       <c r="Q131" s="21">
         <v>0.1002042742564699</v>
       </c>
@@ -11789,20 +11789,20 @@
       </c>
     </row>
     <row r="132" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A132" s="38"/>
+      <c r="A132" s="36"/>
       <c r="B132" s="20">
         <v>2000</v>
       </c>
       <c r="C132" s="39"/>
       <c r="D132" s="39"/>
-      <c r="E132" s="37"/>
-      <c r="F132" s="37"/>
-      <c r="G132" s="37"/>
-      <c r="H132" s="37"/>
-      <c r="I132" s="37"/>
-      <c r="J132" s="37"/>
-      <c r="K132" s="36"/>
-      <c r="L132" s="37"/>
+      <c r="E132" s="38"/>
+      <c r="F132" s="38"/>
+      <c r="G132" s="38"/>
+      <c r="H132" s="38"/>
+      <c r="I132" s="38"/>
+      <c r="J132" s="38"/>
+      <c r="K132" s="37"/>
+      <c r="L132" s="38"/>
       <c r="Q132" s="21">
         <v>8.7017300915142759E-2</v>
       </c>
@@ -11845,20 +11845,20 @@
       </c>
     </row>
     <row r="133" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A133" s="38"/>
+      <c r="A133" s="36"/>
       <c r="B133" s="20">
         <v>5000</v>
       </c>
       <c r="C133" s="39"/>
       <c r="D133" s="39"/>
-      <c r="E133" s="37"/>
-      <c r="F133" s="37"/>
-      <c r="G133" s="37"/>
-      <c r="H133" s="37"/>
-      <c r="I133" s="37"/>
-      <c r="J133" s="37"/>
-      <c r="K133" s="36"/>
-      <c r="L133" s="37"/>
+      <c r="E133" s="38"/>
+      <c r="F133" s="38"/>
+      <c r="G133" s="38"/>
+      <c r="H133" s="38"/>
+      <c r="I133" s="38"/>
+      <c r="J133" s="38"/>
+      <c r="K133" s="37"/>
+      <c r="L133" s="38"/>
       <c r="Q133" s="21">
         <v>7.3756359670079888E-2</v>
       </c>
@@ -11901,7 +11901,7 @@
       </c>
     </row>
     <row r="134" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A134" s="38" t="s">
+      <c r="A134" s="36" t="s">
         <v>65</v>
       </c>
       <c r="B134" s="23">
@@ -11909,26 +11909,26 @@
       </c>
       <c r="C134" s="39"/>
       <c r="D134" s="39"/>
-      <c r="E134" s="37" t="s">
+      <c r="E134" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F134" s="37" t="s">
+      <c r="F134" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G134" s="37" t="s">
+      <c r="G134" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H134" s="37" t="s">
+      <c r="H134" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I134" s="37" t="s">
+      <c r="I134" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J134" s="37" t="s">
+      <c r="J134" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K134" s="36"/>
-      <c r="L134" s="37"/>
+      <c r="K134" s="37"/>
+      <c r="L134" s="38"/>
       <c r="Q134" s="21">
         <v>2.498125608872476E-2</v>
       </c>
@@ -11971,20 +11971,20 @@
       </c>
     </row>
     <row r="135" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A135" s="38"/>
+      <c r="A135" s="36"/>
       <c r="B135" s="23">
         <v>1000</v>
       </c>
       <c r="C135" s="39"/>
       <c r="D135" s="39"/>
-      <c r="E135" s="37"/>
-      <c r="F135" s="37"/>
-      <c r="G135" s="37"/>
-      <c r="H135" s="37"/>
-      <c r="I135" s="37"/>
-      <c r="J135" s="37"/>
-      <c r="K135" s="36"/>
-      <c r="L135" s="37"/>
+      <c r="E135" s="38"/>
+      <c r="F135" s="38"/>
+      <c r="G135" s="38"/>
+      <c r="H135" s="38"/>
+      <c r="I135" s="38"/>
+      <c r="J135" s="38"/>
+      <c r="K135" s="37"/>
+      <c r="L135" s="38"/>
       <c r="Q135" s="21">
         <v>1.218336174181304E-2</v>
       </c>
@@ -12027,20 +12027,20 @@
       </c>
     </row>
     <row r="136" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A136" s="38"/>
+      <c r="A136" s="36"/>
       <c r="B136" s="23">
         <v>2000</v>
       </c>
       <c r="C136" s="39"/>
       <c r="D136" s="39"/>
-      <c r="E136" s="37"/>
-      <c r="F136" s="37"/>
-      <c r="G136" s="37"/>
-      <c r="H136" s="37"/>
-      <c r="I136" s="37"/>
-      <c r="J136" s="37"/>
-      <c r="K136" s="36"/>
-      <c r="L136" s="37"/>
+      <c r="E136" s="38"/>
+      <c r="F136" s="38"/>
+      <c r="G136" s="38"/>
+      <c r="H136" s="38"/>
+      <c r="I136" s="38"/>
+      <c r="J136" s="38"/>
+      <c r="K136" s="37"/>
+      <c r="L136" s="38"/>
       <c r="Q136" s="21">
         <v>1.069088768625274E-3</v>
       </c>
@@ -12083,20 +12083,20 @@
       </c>
     </row>
     <row r="137" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A137" s="38"/>
+      <c r="A137" s="36"/>
       <c r="B137" s="23">
         <v>5000</v>
       </c>
       <c r="C137" s="39"/>
       <c r="D137" s="39"/>
-      <c r="E137" s="37"/>
-      <c r="F137" s="37"/>
-      <c r="G137" s="37"/>
-      <c r="H137" s="37"/>
-      <c r="I137" s="37"/>
-      <c r="J137" s="37"/>
-      <c r="K137" s="36"/>
-      <c r="L137" s="37"/>
+      <c r="E137" s="38"/>
+      <c r="F137" s="38"/>
+      <c r="G137" s="38"/>
+      <c r="H137" s="38"/>
+      <c r="I137" s="38"/>
+      <c r="J137" s="38"/>
+      <c r="K137" s="37"/>
+      <c r="L137" s="38"/>
       <c r="Q137" s="21">
         <v>-9.1371109484246621E-3</v>
       </c>
@@ -12139,7 +12139,7 @@
       </c>
     </row>
     <row r="138" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A138" s="38" t="s">
+      <c r="A138" s="36" t="s">
         <v>66</v>
       </c>
       <c r="B138" s="23">
@@ -12147,26 +12147,26 @@
       </c>
       <c r="C138" s="39"/>
       <c r="D138" s="39"/>
-      <c r="E138" s="37" t="s">
+      <c r="E138" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F138" s="37" t="s">
+      <c r="F138" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G138" s="37" t="s">
+      <c r="G138" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H138" s="37" t="s">
+      <c r="H138" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I138" s="37" t="s">
+      <c r="I138" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J138" s="37" t="s">
+      <c r="J138" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K138" s="36"/>
-      <c r="L138" s="37"/>
+      <c r="K138" s="37"/>
+      <c r="L138" s="38"/>
       <c r="Q138" s="21">
         <v>-0.17738453448581121</v>
       </c>
@@ -12209,20 +12209,20 @@
       </c>
     </row>
     <row r="139" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A139" s="38"/>
+      <c r="A139" s="36"/>
       <c r="B139" s="23">
         <v>1000</v>
       </c>
       <c r="C139" s="39"/>
       <c r="D139" s="39"/>
-      <c r="E139" s="37"/>
-      <c r="F139" s="37"/>
-      <c r="G139" s="37"/>
-      <c r="H139" s="37"/>
-      <c r="I139" s="37"/>
-      <c r="J139" s="37"/>
-      <c r="K139" s="36"/>
-      <c r="L139" s="37"/>
+      <c r="E139" s="38"/>
+      <c r="F139" s="38"/>
+      <c r="G139" s="38"/>
+      <c r="H139" s="38"/>
+      <c r="I139" s="38"/>
+      <c r="J139" s="38"/>
+      <c r="K139" s="37"/>
+      <c r="L139" s="38"/>
       <c r="Q139" s="21">
         <v>-0.18586597930849791</v>
       </c>
@@ -12265,20 +12265,20 @@
       </c>
     </row>
     <row r="140" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A140" s="38"/>
+      <c r="A140" s="36"/>
       <c r="B140" s="23">
         <v>2000</v>
       </c>
       <c r="C140" s="39"/>
       <c r="D140" s="39"/>
-      <c r="E140" s="37"/>
-      <c r="F140" s="37"/>
-      <c r="G140" s="37"/>
-      <c r="H140" s="37"/>
-      <c r="I140" s="37"/>
-      <c r="J140" s="37"/>
-      <c r="K140" s="36"/>
-      <c r="L140" s="37"/>
+      <c r="E140" s="38"/>
+      <c r="F140" s="38"/>
+      <c r="G140" s="38"/>
+      <c r="H140" s="38"/>
+      <c r="I140" s="38"/>
+      <c r="J140" s="38"/>
+      <c r="K140" s="37"/>
+      <c r="L140" s="38"/>
       <c r="Q140" s="21">
         <v>-0.19495060616699669</v>
       </c>
@@ -12321,20 +12321,20 @@
       </c>
     </row>
     <row r="141" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A141" s="38"/>
+      <c r="A141" s="36"/>
       <c r="B141" s="23">
         <v>5000</v>
       </c>
       <c r="C141" s="39"/>
       <c r="D141" s="39"/>
-      <c r="E141" s="37"/>
-      <c r="F141" s="37"/>
-      <c r="G141" s="37"/>
-      <c r="H141" s="37"/>
-      <c r="I141" s="37"/>
-      <c r="J141" s="37"/>
-      <c r="K141" s="36"/>
-      <c r="L141" s="37"/>
+      <c r="E141" s="38"/>
+      <c r="F141" s="38"/>
+      <c r="G141" s="38"/>
+      <c r="H141" s="38"/>
+      <c r="I141" s="38"/>
+      <c r="J141" s="38"/>
+      <c r="K141" s="37"/>
+      <c r="L141" s="38"/>
       <c r="Q141" s="21">
         <v>-0.2051528858534353</v>
       </c>
@@ -12395,30 +12395,30 @@
       <c r="Q147"/>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A148" s="38" t="s">
+      <c r="A148" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B148" s="38"/>
-      <c r="C148" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D148" s="38"/>
-      <c r="E148" s="38" t="s">
+      <c r="B148" s="36"/>
+      <c r="C148" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D148" s="36"/>
+      <c r="E148" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F148" s="38"/>
-      <c r="G148" s="38" t="s">
+      <c r="F148" s="36"/>
+      <c r="G148" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="H148" s="38"/>
-      <c r="I148" s="38" t="s">
+      <c r="H148" s="36"/>
+      <c r="I148" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J148" s="38"/>
-      <c r="K148" s="38" t="s">
+      <c r="J148" s="36"/>
+      <c r="K148" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L148" s="38"/>
+      <c r="L148" s="36"/>
       <c r="M148" s="39" t="s">
         <v>45</v>
       </c>
@@ -12428,8 +12428,8 @@
       <c r="R148" s="11"/>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A149" s="38"/>
-      <c r="B149" s="38"/>
+      <c r="A149" s="36"/>
+      <c r="B149" s="36"/>
       <c r="C149" s="12" t="s">
         <v>7</v>
       </c>
@@ -12473,7 +12473,7 @@
       <c r="R149" s="12"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A150" s="38" t="s">
+      <c r="A150" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B150" s="11">
@@ -12488,15 +12488,15 @@
       <c r="I150" s="39">
         <v>0.22309999999999999</v>
       </c>
-      <c r="J150" s="37">
+      <c r="J150" s="38">
         <v>0.17599999999999999</v>
       </c>
-      <c r="K150" s="36"/>
-      <c r="L150" s="37"/>
+      <c r="K150" s="37"/>
+      <c r="L150" s="38"/>
       <c r="Q150"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A151" s="38"/>
+      <c r="A151" s="36"/>
       <c r="B151" s="11">
         <v>1000</v>
       </c>
@@ -12507,13 +12507,13 @@
       <c r="G151" s="12"/>
       <c r="H151" s="13"/>
       <c r="I151" s="39"/>
-      <c r="J151" s="37"/>
-      <c r="K151" s="36"/>
-      <c r="L151" s="37"/>
+      <c r="J151" s="38"/>
+      <c r="K151" s="37"/>
+      <c r="L151" s="38"/>
       <c r="Q151"/>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A152" s="38"/>
+      <c r="A152" s="36"/>
       <c r="B152" s="11">
         <v>2000</v>
       </c>
@@ -12524,13 +12524,13 @@
       <c r="G152" s="12"/>
       <c r="H152" s="13"/>
       <c r="I152" s="39"/>
-      <c r="J152" s="37"/>
-      <c r="K152" s="36"/>
-      <c r="L152" s="37"/>
+      <c r="J152" s="38"/>
+      <c r="K152" s="37"/>
+      <c r="L152" s="38"/>
       <c r="Q152"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A153" s="38"/>
+      <c r="A153" s="36"/>
       <c r="B153" s="11">
         <v>5000</v>
       </c>
@@ -12541,13 +12541,13 @@
       <c r="G153" s="12"/>
       <c r="H153" s="13"/>
       <c r="I153" s="39"/>
-      <c r="J153" s="37"/>
-      <c r="K153" s="36"/>
-      <c r="L153" s="37"/>
+      <c r="J153" s="38"/>
+      <c r="K153" s="37"/>
+      <c r="L153" s="38"/>
       <c r="Q153"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A154" s="38" t="s">
+      <c r="A154" s="36" t="s">
         <v>35</v>
       </c>
       <c r="B154" s="11">
@@ -12560,13 +12560,13 @@
       <c r="G154" s="12"/>
       <c r="H154" s="13"/>
       <c r="I154" s="39"/>
-      <c r="J154" s="37"/>
-      <c r="K154" s="36"/>
-      <c r="L154" s="37"/>
+      <c r="J154" s="38"/>
+      <c r="K154" s="37"/>
+      <c r="L154" s="38"/>
       <c r="Q154"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A155" s="38"/>
+      <c r="A155" s="36"/>
       <c r="B155" s="11">
         <v>1000</v>
       </c>
@@ -12577,13 +12577,13 @@
       <c r="G155" s="12"/>
       <c r="H155" s="13"/>
       <c r="I155" s="39"/>
-      <c r="J155" s="37"/>
-      <c r="K155" s="36"/>
-      <c r="L155" s="37"/>
+      <c r="J155" s="38"/>
+      <c r="K155" s="37"/>
+      <c r="L155" s="38"/>
       <c r="Q155"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A156" s="38"/>
+      <c r="A156" s="36"/>
       <c r="B156" s="11">
         <v>2000</v>
       </c>
@@ -12594,13 +12594,13 @@
       <c r="G156" s="12"/>
       <c r="H156" s="13"/>
       <c r="I156" s="39"/>
-      <c r="J156" s="37"/>
-      <c r="K156" s="36"/>
-      <c r="L156" s="37"/>
+      <c r="J156" s="38"/>
+      <c r="K156" s="37"/>
+      <c r="L156" s="38"/>
       <c r="Q156"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A157" s="38"/>
+      <c r="A157" s="36"/>
       <c r="B157" s="11">
         <v>5000</v>
       </c>
@@ -12611,13 +12611,13 @@
       <c r="G157" s="12"/>
       <c r="H157" s="13"/>
       <c r="I157" s="39"/>
-      <c r="J157" s="37"/>
-      <c r="K157" s="36"/>
-      <c r="L157" s="37"/>
+      <c r="J157" s="38"/>
+      <c r="K157" s="37"/>
+      <c r="L157" s="38"/>
       <c r="Q157"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A158" s="38" t="s">
+      <c r="A158" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B158" s="11">
@@ -12632,15 +12632,15 @@
       <c r="I158" s="39">
         <v>0.26700000000000002</v>
       </c>
-      <c r="J158" s="37">
+      <c r="J158" s="38">
         <v>0.435</v>
       </c>
-      <c r="K158" s="36"/>
-      <c r="L158" s="37"/>
+      <c r="K158" s="37"/>
+      <c r="L158" s="38"/>
       <c r="Q158"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A159" s="38"/>
+      <c r="A159" s="36"/>
       <c r="B159" s="11">
         <v>1000</v>
       </c>
@@ -12651,13 +12651,13 @@
       <c r="G159" s="12"/>
       <c r="H159" s="13"/>
       <c r="I159" s="39"/>
-      <c r="J159" s="37"/>
-      <c r="K159" s="36"/>
-      <c r="L159" s="37"/>
+      <c r="J159" s="38"/>
+      <c r="K159" s="37"/>
+      <c r="L159" s="38"/>
       <c r="Q159"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A160" s="38"/>
+      <c r="A160" s="36"/>
       <c r="B160" s="11">
         <v>2000</v>
       </c>
@@ -12668,13 +12668,13 @@
       <c r="G160" s="12"/>
       <c r="H160" s="13"/>
       <c r="I160" s="39"/>
-      <c r="J160" s="37"/>
-      <c r="K160" s="36"/>
-      <c r="L160" s="37"/>
+      <c r="J160" s="38"/>
+      <c r="K160" s="37"/>
+      <c r="L160" s="38"/>
       <c r="Q160"/>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A161" s="38"/>
+      <c r="A161" s="36"/>
       <c r="B161" s="11">
         <v>5000</v>
       </c>
@@ -12685,13 +12685,13 @@
       <c r="G161" s="12"/>
       <c r="H161" s="13"/>
       <c r="I161" s="39"/>
-      <c r="J161" s="37"/>
-      <c r="K161" s="36"/>
-      <c r="L161" s="37"/>
+      <c r="J161" s="38"/>
+      <c r="K161" s="37"/>
+      <c r="L161" s="38"/>
       <c r="Q161"/>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A162" s="38" t="s">
+      <c r="A162" s="36" t="s">
         <v>36</v>
       </c>
       <c r="B162" s="11">
@@ -12704,13 +12704,13 @@
       <c r="G162" s="12"/>
       <c r="H162" s="13"/>
       <c r="I162" s="39"/>
-      <c r="J162" s="37"/>
-      <c r="K162" s="36"/>
-      <c r="L162" s="37"/>
+      <c r="J162" s="38"/>
+      <c r="K162" s="37"/>
+      <c r="L162" s="38"/>
       <c r="Q162"/>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A163" s="38"/>
+      <c r="A163" s="36"/>
       <c r="B163" s="11">
         <v>1000</v>
       </c>
@@ -12721,13 +12721,13 @@
       <c r="G163" s="12"/>
       <c r="H163" s="13"/>
       <c r="I163" s="39"/>
-      <c r="J163" s="37"/>
-      <c r="K163" s="36"/>
-      <c r="L163" s="37"/>
+      <c r="J163" s="38"/>
+      <c r="K163" s="37"/>
+      <c r="L163" s="38"/>
       <c r="Q163"/>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A164" s="38"/>
+      <c r="A164" s="36"/>
       <c r="B164" s="11">
         <v>2000</v>
       </c>
@@ -12738,13 +12738,13 @@
       <c r="G164" s="12"/>
       <c r="H164" s="13"/>
       <c r="I164" s="39"/>
-      <c r="J164" s="37"/>
-      <c r="K164" s="36"/>
-      <c r="L164" s="37"/>
+      <c r="J164" s="38"/>
+      <c r="K164" s="37"/>
+      <c r="L164" s="38"/>
       <c r="Q164"/>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A165" s="38"/>
+      <c r="A165" s="36"/>
       <c r="B165" s="11">
         <v>5000</v>
       </c>
@@ -12755,13 +12755,13 @@
       <c r="G165" s="12"/>
       <c r="H165" s="13"/>
       <c r="I165" s="39"/>
-      <c r="J165" s="37"/>
-      <c r="K165" s="36"/>
-      <c r="L165" s="37"/>
+      <c r="J165" s="38"/>
+      <c r="K165" s="37"/>
+      <c r="L165" s="38"/>
       <c r="Q165"/>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A166" s="38" t="s">
+      <c r="A166" s="36" t="s">
         <v>37</v>
       </c>
       <c r="B166" s="11">
@@ -12774,13 +12774,13 @@
       <c r="G166" s="12"/>
       <c r="H166" s="13"/>
       <c r="I166" s="39"/>
-      <c r="J166" s="37"/>
-      <c r="K166" s="36"/>
-      <c r="L166" s="37"/>
+      <c r="J166" s="38"/>
+      <c r="K166" s="37"/>
+      <c r="L166" s="38"/>
       <c r="Q166"/>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A167" s="38"/>
+      <c r="A167" s="36"/>
       <c r="B167" s="11">
         <v>1000</v>
       </c>
@@ -12791,13 +12791,13 @@
       <c r="G167" s="12"/>
       <c r="H167" s="13"/>
       <c r="I167" s="39"/>
-      <c r="J167" s="37"/>
-      <c r="K167" s="36"/>
-      <c r="L167" s="37"/>
+      <c r="J167" s="38"/>
+      <c r="K167" s="37"/>
+      <c r="L167" s="38"/>
       <c r="Q167"/>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A168" s="38"/>
+      <c r="A168" s="36"/>
       <c r="B168" s="11">
         <v>2000</v>
       </c>
@@ -12808,13 +12808,13 @@
       <c r="G168" s="12"/>
       <c r="H168" s="13"/>
       <c r="I168" s="39"/>
-      <c r="J168" s="37"/>
-      <c r="K168" s="36"/>
-      <c r="L168" s="37"/>
+      <c r="J168" s="38"/>
+      <c r="K168" s="37"/>
+      <c r="L168" s="38"/>
       <c r="Q168"/>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A169" s="38"/>
+      <c r="A169" s="36"/>
       <c r="B169" s="11">
         <v>5000</v>
       </c>
@@ -12825,9 +12825,9 @@
       <c r="G169" s="12"/>
       <c r="H169" s="13"/>
       <c r="I169" s="39"/>
-      <c r="J169" s="37"/>
-      <c r="K169" s="36"/>
-      <c r="L169" s="37"/>
+      <c r="J169" s="38"/>
+      <c r="K169" s="37"/>
+      <c r="L169" s="38"/>
       <c r="Q169"/>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.25">
@@ -12852,27 +12852,27 @@
       <c r="Q176"/>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A177" s="38" t="s">
+      <c r="A177" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B177" s="38"/>
-      <c r="C177" s="38" t="s">
+      <c r="B177" s="36"/>
+      <c r="C177" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D177" s="38"/>
-      <c r="E177" s="38" t="s">
+      <c r="D177" s="36"/>
+      <c r="E177" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F177" s="38"/>
-      <c r="G177" s="38" t="s">
+      <c r="F177" s="36"/>
+      <c r="G177" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H177" s="38"/>
+      <c r="H177" s="36"/>
       <c r="Q177"/>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A178" s="38"/>
-      <c r="B178" s="38"/>
+      <c r="A178" s="36"/>
+      <c r="B178" s="36"/>
       <c r="C178" s="3" t="s">
         <v>7</v>
       </c>
@@ -12894,7 +12894,7 @@
       <c r="Q178"/>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A179" s="38" t="s">
+      <c r="A179" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B179" s="11">
@@ -12903,21 +12903,21 @@
       <c r="Q179"/>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A180" s="38"/>
+      <c r="A180" s="36"/>
       <c r="B180" s="11">
         <v>1000</v>
       </c>
       <c r="Q180"/>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A181" s="38"/>
+      <c r="A181" s="36"/>
       <c r="B181" s="11">
         <v>2000</v>
       </c>
       <c r="Q181"/>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A182" s="38"/>
+      <c r="A182" s="36"/>
       <c r="B182" s="11">
         <v>5000</v>
       </c>
@@ -14779,85 +14779,313 @@
     </row>
   </sheetData>
   <mergeCells count="410">
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="K114:K117"/>
-    <mergeCell ref="L114:L117"/>
-    <mergeCell ref="K118:K121"/>
-    <mergeCell ref="L118:L121"/>
-    <mergeCell ref="K122:K125"/>
-    <mergeCell ref="L122:L125"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="K92:K95"/>
-    <mergeCell ref="K96:K99"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="K27:K30"/>
-    <mergeCell ref="K126:K129"/>
-    <mergeCell ref="L126:L129"/>
-    <mergeCell ref="K130:K133"/>
-    <mergeCell ref="L130:L133"/>
-    <mergeCell ref="I101:I104"/>
-    <mergeCell ref="J101:J104"/>
-    <mergeCell ref="I105:I108"/>
-    <mergeCell ref="J105:J108"/>
-    <mergeCell ref="I109:I112"/>
-    <mergeCell ref="J109:J112"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="L101:L104"/>
-    <mergeCell ref="K105:K108"/>
-    <mergeCell ref="L105:L108"/>
-    <mergeCell ref="K109:K112"/>
-    <mergeCell ref="L109:L112"/>
-    <mergeCell ref="I130:I133"/>
-    <mergeCell ref="J130:J133"/>
-    <mergeCell ref="I118:I121"/>
-    <mergeCell ref="J118:J121"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="D105:D108"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="D109:D112"/>
-    <mergeCell ref="E101:E104"/>
-    <mergeCell ref="F101:F104"/>
-    <mergeCell ref="G101:G104"/>
-    <mergeCell ref="E105:E108"/>
-    <mergeCell ref="F105:F108"/>
-    <mergeCell ref="G105:G108"/>
-    <mergeCell ref="E109:E112"/>
-    <mergeCell ref="F109:F112"/>
-    <mergeCell ref="G109:G112"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="G122:G125"/>
-    <mergeCell ref="H122:H125"/>
-    <mergeCell ref="I122:I125"/>
-    <mergeCell ref="J122:J125"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="F126:F129"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="H126:H129"/>
-    <mergeCell ref="I126:I129"/>
-    <mergeCell ref="J126:J129"/>
+    <mergeCell ref="K138:K141"/>
+    <mergeCell ref="L138:L141"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="E134:E137"/>
+    <mergeCell ref="F134:F137"/>
+    <mergeCell ref="G134:G137"/>
+    <mergeCell ref="H134:H137"/>
+    <mergeCell ref="I134:I137"/>
+    <mergeCell ref="J134:J137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="E138:E141"/>
+    <mergeCell ref="F138:F141"/>
+    <mergeCell ref="G138:G141"/>
+    <mergeCell ref="H138:H141"/>
+    <mergeCell ref="I138:I141"/>
+    <mergeCell ref="J138:J141"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="I45:I48"/>
+    <mergeCell ref="J45:J48"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="G177:H177"/>
+    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="F96:F99"/>
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="H96:H99"/>
+    <mergeCell ref="E88:E91"/>
+    <mergeCell ref="F88:F91"/>
+    <mergeCell ref="G88:G91"/>
+    <mergeCell ref="H88:H91"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="G92:G95"/>
+    <mergeCell ref="H92:H95"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="F130:F133"/>
+    <mergeCell ref="G130:G133"/>
+    <mergeCell ref="H130:H133"/>
+    <mergeCell ref="H101:H104"/>
+    <mergeCell ref="H105:H108"/>
+    <mergeCell ref="H109:H112"/>
+    <mergeCell ref="G118:G121"/>
+    <mergeCell ref="H118:H121"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="J96:J99"/>
+    <mergeCell ref="J68:J71"/>
+    <mergeCell ref="I72:I75"/>
+    <mergeCell ref="J72:J75"/>
+    <mergeCell ref="I76:I79"/>
+    <mergeCell ref="J76:J79"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="J80:J83"/>
+    <mergeCell ref="J84:J87"/>
+    <mergeCell ref="I88:I91"/>
+    <mergeCell ref="J88:J91"/>
+    <mergeCell ref="J92:J95"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="I68:I71"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="H45:H48"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="I96:I99"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="H80:H83"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="H76:H79"/>
+    <mergeCell ref="G76:G79"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="K72:K75"/>
+    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="K68:K71"/>
+    <mergeCell ref="H68:H71"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="K45:K48"/>
+    <mergeCell ref="K50:K53"/>
+    <mergeCell ref="K55:K58"/>
+    <mergeCell ref="K59:K62"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="I55:I58"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="I59:I62"/>
+    <mergeCell ref="J59:J62"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="I92:I95"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="K88:K91"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="E68:E71"/>
+    <mergeCell ref="F68:F71"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="I162:I165"/>
+    <mergeCell ref="J162:J165"/>
+    <mergeCell ref="K148:L148"/>
+    <mergeCell ref="I148:J148"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="K150:K153"/>
+    <mergeCell ref="I150:I153"/>
+    <mergeCell ref="J150:J153"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="F114:F117"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="H114:H117"/>
+    <mergeCell ref="I114:I117"/>
+    <mergeCell ref="J114:J117"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="F118:F121"/>
+    <mergeCell ref="K134:K137"/>
+    <mergeCell ref="L134:L137"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="K166:K169"/>
+    <mergeCell ref="I166:I169"/>
+    <mergeCell ref="J166:J169"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="A148:B149"/>
+    <mergeCell ref="L150:L153"/>
+    <mergeCell ref="L154:L157"/>
+    <mergeCell ref="L158:L161"/>
+    <mergeCell ref="L162:L165"/>
+    <mergeCell ref="L166:L169"/>
+    <mergeCell ref="A177:B178"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="K154:K157"/>
+    <mergeCell ref="I154:I157"/>
+    <mergeCell ref="J154:J157"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="K158:K161"/>
+    <mergeCell ref="I158:I161"/>
+    <mergeCell ref="J158:J161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="K162:K165"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="E177:F177"/>
     <mergeCell ref="M148:N148"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="L63:L66"/>
@@ -14882,313 +15110,85 @@
     <mergeCell ref="E148:F148"/>
     <mergeCell ref="A101:A104"/>
     <mergeCell ref="A114:A117"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="K166:K169"/>
-    <mergeCell ref="I166:I169"/>
-    <mergeCell ref="J166:J169"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="A148:B149"/>
-    <mergeCell ref="L150:L153"/>
-    <mergeCell ref="L154:L157"/>
-    <mergeCell ref="L158:L161"/>
-    <mergeCell ref="L162:L165"/>
-    <mergeCell ref="L166:L169"/>
-    <mergeCell ref="A177:B178"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="K154:K157"/>
-    <mergeCell ref="I154:I157"/>
-    <mergeCell ref="J154:J157"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="K158:K161"/>
-    <mergeCell ref="I158:I161"/>
-    <mergeCell ref="J158:J161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="K162:K165"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="I162:I165"/>
-    <mergeCell ref="J162:J165"/>
-    <mergeCell ref="K148:L148"/>
-    <mergeCell ref="I148:J148"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="K150:K153"/>
-    <mergeCell ref="I150:I153"/>
-    <mergeCell ref="J150:J153"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="F114:F117"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="H114:H117"/>
-    <mergeCell ref="I114:I117"/>
-    <mergeCell ref="J114:J117"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="F118:F121"/>
-    <mergeCell ref="K134:K137"/>
-    <mergeCell ref="L134:L137"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="K88:K91"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="J50:J53"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="F76:F79"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="E68:E71"/>
-    <mergeCell ref="F68:F71"/>
-    <mergeCell ref="G68:G71"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="I92:I95"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="K72:K75"/>
-    <mergeCell ref="K76:K79"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="K68:K71"/>
-    <mergeCell ref="H68:H71"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="K45:K48"/>
-    <mergeCell ref="K50:K53"/>
-    <mergeCell ref="K55:K58"/>
-    <mergeCell ref="K59:K62"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="I55:I58"/>
-    <mergeCell ref="J55:J58"/>
-    <mergeCell ref="I59:I62"/>
-    <mergeCell ref="J59:J62"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="I50:I53"/>
-    <mergeCell ref="I68:I71"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="G45:G48"/>
-    <mergeCell ref="H45:H48"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="I96:I99"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="H80:H83"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="H76:H79"/>
-    <mergeCell ref="G76:G79"/>
-    <mergeCell ref="J96:J99"/>
-    <mergeCell ref="J68:J71"/>
-    <mergeCell ref="I72:I75"/>
-    <mergeCell ref="J72:J75"/>
-    <mergeCell ref="I76:I79"/>
-    <mergeCell ref="J76:J79"/>
-    <mergeCell ref="I80:I83"/>
-    <mergeCell ref="J80:J83"/>
-    <mergeCell ref="J84:J87"/>
-    <mergeCell ref="I88:I91"/>
-    <mergeCell ref="J88:J91"/>
-    <mergeCell ref="J92:J95"/>
-    <mergeCell ref="G177:H177"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="F96:F99"/>
-    <mergeCell ref="G96:G99"/>
-    <mergeCell ref="H96:H99"/>
-    <mergeCell ref="E88:E91"/>
-    <mergeCell ref="F88:F91"/>
-    <mergeCell ref="G88:G91"/>
-    <mergeCell ref="H88:H91"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="G92:G95"/>
-    <mergeCell ref="H92:H95"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="F130:F133"/>
-    <mergeCell ref="G130:G133"/>
-    <mergeCell ref="H130:H133"/>
-    <mergeCell ref="H101:H104"/>
-    <mergeCell ref="H105:H108"/>
-    <mergeCell ref="H109:H112"/>
-    <mergeCell ref="G118:G121"/>
-    <mergeCell ref="H118:H121"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="I45:I48"/>
-    <mergeCell ref="J45:J48"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="K138:K141"/>
-    <mergeCell ref="L138:L141"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="E134:E137"/>
-    <mergeCell ref="F134:F137"/>
-    <mergeCell ref="G134:G137"/>
-    <mergeCell ref="H134:H137"/>
-    <mergeCell ref="I134:I137"/>
-    <mergeCell ref="J134:J137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="E138:E141"/>
-    <mergeCell ref="F138:F141"/>
-    <mergeCell ref="G138:G141"/>
-    <mergeCell ref="H138:H141"/>
-    <mergeCell ref="I138:I141"/>
-    <mergeCell ref="J138:J141"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="H122:H125"/>
+    <mergeCell ref="I122:I125"/>
+    <mergeCell ref="J122:J125"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="F126:F129"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="H126:H129"/>
+    <mergeCell ref="I126:I129"/>
+    <mergeCell ref="J126:J129"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="D105:D108"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="D109:D112"/>
+    <mergeCell ref="E101:E104"/>
+    <mergeCell ref="F101:F104"/>
+    <mergeCell ref="G101:G104"/>
+    <mergeCell ref="E105:E108"/>
+    <mergeCell ref="F105:F108"/>
+    <mergeCell ref="G105:G108"/>
+    <mergeCell ref="E109:E112"/>
+    <mergeCell ref="F109:F112"/>
+    <mergeCell ref="G109:G112"/>
+    <mergeCell ref="K126:K129"/>
+    <mergeCell ref="L126:L129"/>
+    <mergeCell ref="K130:K133"/>
+    <mergeCell ref="L130:L133"/>
+    <mergeCell ref="I101:I104"/>
+    <mergeCell ref="J101:J104"/>
+    <mergeCell ref="I105:I108"/>
+    <mergeCell ref="J105:J108"/>
+    <mergeCell ref="I109:I112"/>
+    <mergeCell ref="J109:J112"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="L101:L104"/>
+    <mergeCell ref="K105:K108"/>
+    <mergeCell ref="L105:L108"/>
+    <mergeCell ref="K109:K112"/>
+    <mergeCell ref="L109:L112"/>
+    <mergeCell ref="I130:I133"/>
+    <mergeCell ref="J130:J133"/>
+    <mergeCell ref="I118:I121"/>
+    <mergeCell ref="J118:J121"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="K114:K117"/>
+    <mergeCell ref="L114:L117"/>
+    <mergeCell ref="K118:K121"/>
+    <mergeCell ref="L118:L121"/>
+    <mergeCell ref="K122:K125"/>
+    <mergeCell ref="L122:L125"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="K92:K95"/>
+    <mergeCell ref="K96:K99"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="K27:K30"/>
   </mergeCells>
   <conditionalFormatting sqref="Q3:Z34">
     <cfRule type="expression" dxfId="7" priority="11">
